--- a/data/ccd-template.xlsx
+++ b/data/ccd-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\fergusoshea\et-ccd-definitions-scotland\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42474697-60D9-473F-8440-D7BD8B9AA932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D94A644-74A8-4525-B792-062E16CF6250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2895" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CaseRoles" sheetId="30" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="354">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1628,7 +1628,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -7629,12 +7629,12 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E7B8F4-5285-46EC-BCE1-BF8FCCDC20D1}">
-  <dimension ref="A1:K402"/>
+  <dimension ref="A1:L402"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D14" sqref="D14"/>
-      <selection pane="bottomLeft" activeCell="E369" sqref="E369"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
@@ -7651,7 +7651,7 @@
     <col min="16" max="16" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:12" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="282" t="s">
         <v>120</v>
       </c>
@@ -7670,7 +7670,7 @@
       <c r="H1" s="278"/>
       <c r="I1" s="277"/>
     </row>
-    <row r="2" spans="1:11" ht="66.95" customHeight="1">
+    <row r="2" spans="1:12" ht="66.95" customHeight="1">
       <c r="A2" s="275" t="s">
         <v>121</v>
       </c>
@@ -7696,8 +7696,11 @@
       <c r="I2" s="275" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="274" t="s">
         <v>11</v>
       </c>
@@ -7731,8 +7734,11 @@
       <c r="K3" s="271" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="42" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="263" t="s">
         <v>347</v>
       </c>
@@ -7760,7 +7766,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="263" t="s">
         <v>347</v>
       </c>
@@ -7788,7 +7794,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="263" t="s">
         <v>347</v>
       </c>
@@ -7816,7 +7822,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="263" t="s">
         <v>347</v>
       </c>
@@ -7844,7 +7850,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="263" t="s">
         <v>347</v>
       </c>
@@ -7872,7 +7878,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="263" t="s">
         <v>347</v>
       </c>
@@ -7900,7 +7906,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="263" t="s">
         <v>347</v>
       </c>
@@ -7923,7 +7929,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="263" t="s">
         <v>347</v>
       </c>
@@ -7948,7 +7954,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="263" t="s">
         <v>347</v>
       </c>
@@ -7971,7 +7977,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="263" t="s">
         <v>347</v>
       </c>
@@ -7994,7 +8000,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="263" t="s">
         <v>347</v>
       </c>
@@ -8019,7 +8025,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="263" t="s">
         <v>347</v>
       </c>
@@ -8044,7 +8050,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="263" t="s">
         <v>347</v>
       </c>
@@ -22779,8 +22785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -23464,10 +23470,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:P240"/>
+  <dimension ref="A1:Q240"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD240"/>
+    <sheetView topLeftCell="I1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -23486,7 +23492,7 @@
     <col min="14" max="1010" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18">
+    <row r="1" spans="1:17" ht="18">
       <c r="A1" s="35" t="s">
         <v>71</v>
       </c>
@@ -23512,7 +23518,7 @@
       <c r="O1" s="36"/>
       <c r="P1" s="39"/>
     </row>
-    <row r="2" spans="1:16" ht="144" customHeight="1">
+    <row r="2" spans="1:17" ht="144" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -23559,8 +23565,11 @@
       <c r="P2" s="25" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="51">
+      <c r="Q2" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="51">
       <c r="A3" s="28" t="s">
         <v>32</v>
       </c>
@@ -23609,29 +23618,32 @@
       <c r="P3" s="27" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="42" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="K4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="K5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="K6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -23639,7 +23651,7 @@
       <c r="M7" s="50"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -23647,7 +23659,7 @@
       <c r="M8" s="50"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -23655,7 +23667,7 @@
       <c r="M9" s="50"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -23663,42 +23675,42 @@
       <c r="M10" s="50"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="K11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="K12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="K13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="K14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="K15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>

--- a/data/ccd-template.xlsx
+++ b/data/ccd-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack.reeve/et-ccd-definitions-scotland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E14ABF-602B-6B4D-8B8C-0C8262B9CB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512C7ECC-FDF7-364C-B742-DC59679EF371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="500" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="500" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CaseRoles" sheetId="30" r:id="rId1"/>
@@ -13869,37 +13869,57 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61D48D4-7617-864E-81CB-58F1828F347E}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="143" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="H1" s="143"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="143"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="143" t="s">
+      <c r="B3" s="143" t="s">
         <v>353</v>
       </c>
-      <c r="D1" s="143" t="s">
+      <c r="C3" s="143" t="s">
         <v>354</v>
       </c>
-      <c r="E1" s="143" t="s">
+      <c r="D3" s="143" t="s">
         <v>355</v>
       </c>
-      <c r="F1" s="143" t="s">
+      <c r="E3" s="143" t="s">
         <v>356</v>
       </c>
-      <c r="G1" s="143" t="s">
+      <c r="F3" s="143" t="s">
         <v>357</v>
       </c>
-      <c r="H1" s="143" t="s">
+      <c r="G3" s="143" t="s">
         <v>358</v>
       </c>
     </row>
@@ -21679,7 +21699,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD32"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
@@ -25592,7 +25612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U206"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD206"/>
     </sheetView>
   </sheetViews>

--- a/data/ccd-template.xlsx
+++ b/data/ccd-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack.reeve/et-ccd-definitions-scotland/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jack\et-ccd-definitions-scotland\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512C7ECC-FDF7-364C-B742-DC59679EF371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A23205-63EE-4767-AAE4-18BF4D44F404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="500" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24450" yWindow="4455" windowWidth="35070" windowHeight="15555" tabRatio="500" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CaseRoles" sheetId="30" r:id="rId1"/>
@@ -24,24 +24,23 @@
     <sheet name="ChallengeQuestion" sheetId="31" r:id="rId9"/>
     <sheet name="ComplexTypes" sheetId="9" r:id="rId10"/>
     <sheet name="EventToComplexTypes" sheetId="32" r:id="rId11"/>
-    <sheet name="RoleToAccessProfiles" sheetId="33" r:id="rId12"/>
-    <sheet name="Scotland Scrubbed" sheetId="26" r:id="rId13"/>
-    <sheet name="SearchInputFields" sheetId="12" r:id="rId14"/>
-    <sheet name="WorkBasketInputFields" sheetId="14" r:id="rId15"/>
-    <sheet name="SearchResultFields" sheetId="13" r:id="rId16"/>
-    <sheet name="WorkBasketResultFields" sheetId="15" r:id="rId17"/>
-    <sheet name="SearchCaseResultFields" sheetId="22" r:id="rId18"/>
-    <sheet name="UserProfile" sheetId="16" r:id="rId19"/>
-    <sheet name="AuthorisationComplexType" sheetId="17" r:id="rId20"/>
-    <sheet name="AuthorisationCaseType" sheetId="18" r:id="rId21"/>
-    <sheet name="AuthorisationCaseField" sheetId="19" r:id="rId22"/>
-    <sheet name="AuthorisationCaseEvent" sheetId="20" r:id="rId23"/>
-    <sheet name="AuthorisationCaseState" sheetId="21" r:id="rId24"/>
+    <sheet name="Scotland Scrubbed" sheetId="26" r:id="rId12"/>
+    <sheet name="SearchInputFields" sheetId="12" r:id="rId13"/>
+    <sheet name="WorkBasketInputFields" sheetId="14" r:id="rId14"/>
+    <sheet name="SearchResultFields" sheetId="13" r:id="rId15"/>
+    <sheet name="WorkBasketResultFields" sheetId="15" r:id="rId16"/>
+    <sheet name="SearchCaseResultFields" sheetId="22" r:id="rId17"/>
+    <sheet name="UserProfile" sheetId="16" r:id="rId18"/>
+    <sheet name="AuthorisationComplexType" sheetId="17" r:id="rId19"/>
+    <sheet name="AuthorisationCaseType" sheetId="18" r:id="rId20"/>
+    <sheet name="AuthorisationCaseField" sheetId="19" r:id="rId21"/>
+    <sheet name="AuthorisationCaseEvent" sheetId="20" r:id="rId22"/>
+    <sheet name="AuthorisationCaseState" sheetId="21" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">AuthorisationCaseEvent!$A$3:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">AuthorisationCaseField!$A$1:$D$517</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">AuthorisationCaseState!$A$3:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">AuthorisationCaseEvent!$A$3:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">AuthorisationCaseField!$A$1:$D$517</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">AuthorisationCaseState!$A$3:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CaseEvent!$A$3:$Z$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">CaseEventToFields!$A$3:$P$231</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">CaseField!$A$3:$U$3</definedName>
@@ -49,7 +48,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CaseTypeTab!$A$3:$P$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">ComplexTypes!$A$3:$W$559</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">EventToComplexTypes!$A$3:$I$382</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Scotland Scrubbed'!$A$3:$F$646</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Scotland Scrubbed'!$A$3:$F$646</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">State!$A$3:$Q$11</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="352">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1200,27 +1199,6 @@
   </si>
   <si>
     <t>DefaultValue</t>
-  </si>
-  <si>
-    <t>RoleToAccessProfiles</t>
-  </si>
-  <si>
-    <t>RoleName</t>
-  </si>
-  <si>
-    <t>CaseAccessCategories</t>
-  </si>
-  <si>
-    <t>Authorisation</t>
-  </si>
-  <si>
-    <t>ReadOnly</t>
-  </si>
-  <si>
-    <t>AccessProfiles</t>
-  </si>
-  <si>
-    <t>Disabled</t>
   </si>
 </sst>
 </file>
@@ -2926,17 +2904,17 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="133" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="133" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="133" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="133" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" style="133" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" style="133" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="133" customWidth="1"/>
-    <col min="8" max="1025" width="8.83203125" style="133" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="133"/>
+    <col min="1" max="1" width="16.140625" style="133" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="133" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="133" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" style="133" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="133" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="133" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="133" customWidth="1"/>
+    <col min="8" max="1025" width="8.85546875" style="133" customWidth="1"/>
+    <col min="1026" max="16384" width="8.85546875" style="133"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1">
@@ -2955,7 +2933,7 @@
       <c r="E1" s="240"/>
       <c r="F1" s="240"/>
     </row>
-    <row r="2" spans="1:6" s="236" customFormat="1" ht="42">
+    <row r="2" spans="1:6" s="236" customFormat="1" ht="38.25">
       <c r="A2" s="239" t="s">
         <v>4</v>
       </c>
@@ -2975,7 +2953,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.75" customHeight="1">
+    <row r="3" spans="1:6" ht="13.7" customHeight="1">
       <c r="A3" s="233" t="s">
         <v>9</v>
       </c>
@@ -2995,28 +2973,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.75" customHeight="1">
+    <row r="4" spans="1:6" ht="13.7" customHeight="1">
       <c r="A4" s="232"/>
       <c r="B4" s="232"/>
     </row>
-    <row r="5" spans="1:6" ht="13.75" customHeight="1">
+    <row r="5" spans="1:6" ht="13.7" customHeight="1">
       <c r="A5" s="232"/>
       <c r="B5" s="232"/>
     </row>
-    <row r="6" spans="1:6" ht="13.75" customHeight="1">
+    <row r="6" spans="1:6" ht="13.7" customHeight="1">
       <c r="A6" s="232"/>
       <c r="B6" s="232"/>
     </row>
-    <row r="7" spans="1:6" ht="13.75" customHeight="1">
+    <row r="7" spans="1:6" ht="13.7" customHeight="1">
       <c r="A7" s="232"/>
       <c r="B7" s="232"/>
     </row>
-    <row r="8" spans="1:6" ht="13.75" customHeight="1">
+    <row r="8" spans="1:6" ht="13.7" customHeight="1">
       <c r="A8" s="232"/>
       <c r="B8" s="232"/>
     </row>
-    <row r="9" spans="1:6" ht="13.75" customHeight="1"/>
-    <row r="10" spans="1:6" ht="13.75" customHeight="1"/>
+    <row r="9" spans="1:6" ht="13.7" customHeight="1"/>
+    <row r="10" spans="1:6" ht="13.7" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3034,26 +3012,26 @@
       <selection activeCell="A4" sqref="A4:XFD559"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="52" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="41" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="41" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="53" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="53" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="53" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="28.33203125" customWidth="1"/>
-    <col min="16" max="23" width="6.33203125" customWidth="1"/>
-    <col min="24" max="1023" width="8.33203125" customWidth="1"/>
-    <col min="1024" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="28.28515625" customWidth="1"/>
+    <col min="16" max="23" width="6.28515625" customWidth="1"/>
+    <col min="24" max="1023" width="8.28515625" customWidth="1"/>
+    <col min="1024" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" customHeight="1">
@@ -3082,7 +3060,7 @@
       <c r="P1" s="36"/>
       <c r="Q1" s="36"/>
     </row>
-    <row r="2" spans="1:23" ht="65" customHeight="1">
+    <row r="2" spans="1:23" ht="65.099999999999994" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>113</v>
       </c>
@@ -3123,7 +3101,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" ht="33.5" customHeight="1">
+    <row r="3" spans="1:23" s="2" customFormat="1" ht="33.6" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>11</v>
       </c>
@@ -5264,7 +5242,7 @@
       <c r="I278"/>
       <c r="J278"/>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" ht="13.5">
       <c r="B279" s="231"/>
       <c r="E279"/>
       <c r="F279" s="108"/>
@@ -6803,7 +6781,7 @@
       <c r="G488" s="219"/>
       <c r="H488" s="193"/>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" ht="13.5">
       <c r="A489" s="56"/>
       <c r="B489" s="231"/>
       <c r="C489" s="56"/>
@@ -6813,7 +6791,7 @@
       <c r="G489" s="219"/>
       <c r="H489" s="193"/>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" ht="13.5">
       <c r="A490" s="56"/>
       <c r="B490" s="231"/>
       <c r="C490" s="56"/>
@@ -6823,7 +6801,7 @@
       <c r="G490" s="219"/>
       <c r="H490" s="193"/>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" ht="13.5">
       <c r="A491" s="56"/>
       <c r="B491" s="231"/>
       <c r="C491" s="56"/>
@@ -7653,21 +7631,21 @@
       <selection pane="bottomLeft" activeCell="E369" sqref="E369"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.5" customWidth="1"/>
-    <col min="6" max="6" width="50.1640625" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.42578125" customWidth="1"/>
+    <col min="6" max="6" width="50.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="282" t="s">
         <v>120</v>
       </c>
@@ -7686,7 +7664,7 @@
       <c r="H1" s="278"/>
       <c r="I1" s="277"/>
     </row>
-    <row r="2" spans="1:11" ht="67" customHeight="1">
+    <row r="2" spans="1:11" ht="66.95" customHeight="1">
       <c r="A2" s="275" t="s">
         <v>121</v>
       </c>
@@ -13868,89 +13846,28 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61D48D4-7617-864E-81CB-58F1828F347E}">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="143" t="s">
-        <v>352</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="H1" s="143"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="143"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="143" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="143" t="s">
-        <v>353</v>
-      </c>
-      <c r="C3" s="143" t="s">
-        <v>354</v>
-      </c>
-      <c r="D3" s="143" t="s">
-        <v>355</v>
-      </c>
-      <c r="E3" s="143" t="s">
-        <v>356</v>
-      </c>
-      <c r="F3" s="143" t="s">
-        <v>357</v>
-      </c>
-      <c r="G3" s="143" t="s">
-        <v>358</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEDE50F-3952-214F-9597-838D9D10B1E0}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:K650"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD650"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="151" customWidth="1"/>
-    <col min="2" max="2" width="61.6640625" style="171" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="151" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" style="171" customWidth="1"/>
     <col min="3" max="3" width="65" style="151" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="151" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" style="151"/>
+    <col min="4" max="4" width="14.7109375" style="151" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" style="151"/>
     <col min="7" max="7" width="13" style="151" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="151" customWidth="1"/>
-    <col min="9" max="12" width="8.6640625" style="151"/>
-    <col min="13" max="13" width="16.33203125" style="151" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="151"/>
+    <col min="8" max="8" width="11.42578125" style="151" customWidth="1"/>
+    <col min="9" max="12" width="8.7109375" style="151"/>
+    <col min="13" max="13" width="16.28515625" style="151" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="151"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
@@ -13967,7 +13884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="56">
+    <row r="2" spans="1:11" ht="51">
       <c r="A2" s="152" t="s">
         <v>129</v>
       </c>
@@ -16824,7 +16741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
@@ -16832,22 +16749,22 @@
       <selection activeCell="A4" sqref="A4:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="32.5" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="43.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
-    <col min="9" max="9" width="31.5" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" customWidth="1"/>
-    <col min="12" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="32.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="12" max="1025" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="36">
       <c r="A1" s="69" t="s">
         <v>134</v>
       </c>
@@ -16865,7 +16782,7 @@
       <c r="G1" s="73"/>
       <c r="H1" s="186"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="71">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="75">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -17077,6 +16994,138 @@
     <row r="37" spans="5:7">
       <c r="E37" s="1"/>
       <c r="G37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;6&amp;KFF0000 Classification: Controlled</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" customWidth="1"/>
+    <col min="9" max="1023" width="8.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="84"/>
+    </row>
+    <row r="2" spans="1:8" ht="89.25">
+      <c r="A2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="126" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15">
+      <c r="A3" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="127" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="127" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15">
+      <c r="D4"/>
+      <c r="E4" s="1"/>
+      <c r="G4" s="68"/>
+    </row>
+    <row r="5" spans="1:8" ht="15">
+      <c r="D5" s="111"/>
+      <c r="E5" s="1"/>
+      <c r="G5" s="68"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.25">
+      <c r="D6" s="112"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="15">
+      <c r="D7"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="187"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.25">
+      <c r="B8" s="108"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="108"/>
+      <c r="D9"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="D10"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="D11"/>
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -17088,66 +17137,70 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.5" customWidth="1"/>
-    <col min="9" max="1023" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="8" max="1023" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19">
-      <c r="A1" s="80" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="81" t="s">
+    <row r="1" spans="1:15" ht="36">
+      <c r="A1" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="84"/>
-    </row>
-    <row r="2" spans="1:8" ht="84">
+      <c r="E1" s="39"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:15" ht="90">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="126" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="123" t="s">
         <v>170</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15">
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+    </row>
+    <row r="3" spans="1:15" ht="15">
       <c r="A3" s="74" t="s">
         <v>32</v>
       </c>
@@ -17163,52 +17216,54 @@
       <c r="E3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="127" t="s">
-        <v>51</v>
+      <c r="F3" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="127" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15">
-      <c r="D4"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="E4" s="1"/>
-      <c r="G4" s="68"/>
-    </row>
-    <row r="5" spans="1:8" ht="15">
-      <c r="D5" s="111"/>
+    </row>
+    <row r="5" spans="1:15" ht="15">
       <c r="E5" s="1"/>
-      <c r="G5" s="68"/>
-    </row>
-    <row r="6" spans="1:8" ht="14">
-      <c r="D6" s="112"/>
+      <c r="F5" s="187"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="15">
-      <c r="D7"/>
+    <row r="7" spans="1:15">
       <c r="E7" s="1"/>
-      <c r="F7" s="187"/>
-    </row>
-    <row r="8" spans="1:8" ht="14">
-      <c r="B8" s="108"/>
-      <c r="D8" s="112"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:15">
       <c r="B9" s="108"/>
-      <c r="D9"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="D10"/>
+    <row r="10" spans="1:15">
+      <c r="B10" s="108"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="D11"/>
+    <row r="11" spans="1:15">
+      <c r="B11" s="108"/>
       <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -17220,46 +17275,46 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:O13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD13"/>
+      <selection activeCell="A4" sqref="A4:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="8" max="1023" width="11.5"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="14" width="6.28515625" customWidth="1"/>
+    <col min="15" max="1023" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19">
-      <c r="A1" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="1:14" ht="18">
+      <c r="A1" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-    </row>
-    <row r="2" spans="1:15" ht="80">
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:14" ht="105">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -17267,7 +17322,7 @@
         <v>139</v>
       </c>
       <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="113" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="24" t="s">
@@ -17279,11 +17334,10 @@
       <c r="G2" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-    </row>
-    <row r="3" spans="1:15" ht="15">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="1:14" ht="15">
       <c r="A3" s="74" t="s">
         <v>32</v>
       </c>
@@ -17293,7 +17347,7 @@
       <c r="C3" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="114" t="s">
         <v>105</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -17312,41 +17366,41 @@
       <c r="L3" s="79"/>
       <c r="M3" s="79"/>
       <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:14">
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="15">
+    <row r="5" spans="1:14">
       <c r="E5" s="1"/>
-      <c r="F5" s="187"/>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:14">
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:14">
+      <c r="D7"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:14">
+      <c r="D8"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:14">
       <c r="B9" s="108"/>
+      <c r="D9"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:14">
       <c r="B10" s="108"/>
+      <c r="D10"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:15">
-      <c r="B11" s="108"/>
+    <row r="11" spans="1:14">
+      <c r="D11"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:14">
+      <c r="D12"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -17358,143 +17412,6 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:N12"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="14" width="6.33203125" customWidth="1"/>
-    <col min="15" max="1023" width="8.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="18">
-      <c r="A1" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-    </row>
-    <row r="2" spans="1:14" ht="96">
-      <c r="A2" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="113" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="123" t="s">
-        <v>170</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="1:14" ht="15">
-      <c r="A3" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="114" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="D7"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="D8"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="108"/>
-      <c r="D9"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10" s="108"/>
-      <c r="D10"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="D11"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="D12"/>
-      <c r="E12" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;6&amp;KFF0000 Classification: Controlled</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E55ACB-56A8-B541-931E-FA903DDDD8CF}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -17502,18 +17419,18 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="133" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="133" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="133" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="133" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="133" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="133" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="133" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="133" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="133" customWidth="1"/>
-    <col min="10" max="16384" width="10.6640625" style="133"/>
+    <col min="1" max="1" width="13.28515625" style="133" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="133" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="133" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="133" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="133" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="133" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="133" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="133" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="133" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="133"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
@@ -17535,7 +17452,7 @@
       <c r="H1" s="132"/>
       <c r="I1" s="132"/>
     </row>
-    <row r="2" spans="1:9" ht="42">
+    <row r="2" spans="1:9" ht="38.25">
       <c r="A2" s="134"/>
       <c r="B2" s="134"/>
       <c r="C2" s="135" t="s">
@@ -17657,7 +17574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -17665,14 +17582,14 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="11.5"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="1025" width="11.5"/>
+    <col min="7" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
@@ -17696,7 +17613,7 @@
       <c r="J1" s="36"/>
       <c r="K1" s="36"/>
     </row>
-    <row r="2" spans="1:11" ht="70">
+    <row r="2" spans="1:11" ht="63.75">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -17719,7 +17636,7 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="1:11" ht="28">
+    <row r="3" spans="1:11" ht="38.25">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -17754,108 +17671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="2" width="11.5"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="1024" width="11.5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="18">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:14" ht="126">
-      <c r="A2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="147" t="s">
-        <v>179</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="F4" s="108"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;6&amp;KFF0000 Classification: Controlled</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:IU148"/>
   <sheetViews>
@@ -17863,15 +17679,15 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.6640625" customWidth="1"/>
-    <col min="7" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="7" max="1025" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="18" customHeight="1">
@@ -18139,7 +17955,7 @@
       <c r="IT1" s="36"/>
       <c r="IU1" s="36"/>
     </row>
-    <row r="2" spans="1:255" ht="196">
+    <row r="2" spans="1:255" ht="191.25">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
@@ -18908,7 +18724,108 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="1024" width="11.42578125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" ht="127.5">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="147" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="F4" s="108"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;6&amp;KFF0000 Classification: Controlled</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:IU10"/>
   <sheetViews>
@@ -18916,14 +18833,14 @@
       <selection activeCell="A4" sqref="A4:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
-    <col min="6" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
+    <col min="6" max="1025" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="18" customHeight="1">
@@ -19191,7 +19108,7 @@
       <c r="IT1" s="36"/>
       <c r="IU1" s="36"/>
     </row>
-    <row r="2" spans="1:255" ht="84">
+    <row r="2" spans="1:255" ht="89.25">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -19521,7 +19438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:D518"/>
   <sheetViews>
@@ -19529,14 +19446,14 @@
       <selection activeCell="A4" sqref="A4:XFD518"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="1" customWidth="1"/>
-    <col min="5" max="1011" width="8.33203125" customWidth="1"/>
-    <col min="1012" max="1016" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="1" customWidth="1"/>
+    <col min="5" max="1011" width="8.28515625" customWidth="1"/>
+    <col min="1012" max="1016" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -19553,7 +19470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="56">
+    <row r="2" spans="1:4" ht="51">
       <c r="A2" s="24" t="s">
         <v>153</v>
       </c>
@@ -21265,7 +21182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:D109"/>
   <sheetViews>
@@ -21273,12 +21190,12 @@
       <selection activeCell="A4" sqref="A4:XFD115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -21295,7 +21212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="56">
+    <row r="2" spans="1:4" ht="63.75">
       <c r="A2" s="24" t="s">
         <v>160</v>
       </c>
@@ -21694,7 +21611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -21702,12 +21619,12 @@
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="53.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -21724,7 +21641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="56">
+    <row r="2" spans="1:4" ht="51">
       <c r="A2" s="24" t="s">
         <v>153</v>
       </c>
@@ -21902,14 +21819,14 @@
       <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="11.5"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="61.33203125" customWidth="1"/>
-    <col min="8" max="1025" width="11.5"/>
+    <col min="7" max="7" width="61.28515625" customWidth="1"/>
+    <col min="8" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18">
@@ -21936,7 +21853,7 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
     </row>
-    <row r="2" spans="1:19" ht="196">
+    <row r="2" spans="1:19" ht="178.5">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -21970,7 +21887,7 @@
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
     </row>
-    <row r="3" spans="1:19" ht="42">
+    <row r="3" spans="1:19" ht="38.25">
       <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
@@ -22050,14 +21967,14 @@
       <selection activeCell="A4" sqref="A4:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="3" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.5"/>
-    <col min="6" max="6" width="35.33203125" customWidth="1"/>
-    <col min="7" max="1023" width="11.5"/>
+    <col min="5" max="5" width="11.42578125"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
+    <col min="7" max="1023" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18">
@@ -22082,7 +21999,7 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>
-    <row r="2" spans="1:17" ht="98">
+    <row r="2" spans="1:17" ht="89.25">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -22108,7 +22025,7 @@
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
     </row>
-    <row r="3" spans="1:17" ht="28">
+    <row r="3" spans="1:17" ht="25.5">
       <c r="A3" s="28" t="s">
         <v>32</v>
       </c>
@@ -22210,19 +22127,19 @@
       <selection activeCell="A4" sqref="A4:XFD98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" customWidth="1"/>
-    <col min="11" max="1023" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" customWidth="1"/>
+    <col min="11" max="1023" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18">
@@ -22280,7 +22197,7 @@
       <c r="K2" s="36"/>
       <c r="L2" s="36"/>
     </row>
-    <row r="3" spans="1:16" ht="42">
+    <row r="3" spans="1:16" ht="38.25">
       <c r="A3" s="40" t="s">
         <v>32</v>
       </c>
@@ -22860,29 +22777,29 @@
       <selection activeCell="A4" sqref="A4:XFD54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.33203125" customWidth="1"/>
-    <col min="8" max="8" width="74.6640625" customWidth="1"/>
-    <col min="9" max="9" width="83.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="79.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="88.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="23.33203125" customWidth="1"/>
-    <col min="14" max="14" width="8.5" customWidth="1"/>
-    <col min="15" max="15" width="18.5" customWidth="1"/>
-    <col min="16" max="16" width="18.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" customWidth="1"/>
-    <col min="18" max="18" width="20.5" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" customWidth="1"/>
-    <col min="20" max="30" width="8.5" customWidth="1"/>
-    <col min="31" max="1024" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" customWidth="1"/>
+    <col min="8" max="8" width="74.7109375" customWidth="1"/>
+    <col min="9" max="9" width="83.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="79.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="88.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="20" max="30" width="8.42578125" customWidth="1"/>
+    <col min="31" max="1024" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
@@ -22914,7 +22831,7 @@
       <c r="R1" s="39"/>
       <c r="S1" s="39"/>
     </row>
-    <row r="2" spans="1:26" ht="126">
+    <row r="2" spans="1:26" ht="127.5">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -22955,7 +22872,7 @@
       <c r="R2" s="25"/>
       <c r="S2" s="25"/>
     </row>
-    <row r="3" spans="1:26" ht="42">
+    <row r="3" spans="1:26" ht="38.25">
       <c r="A3" s="40" t="s">
         <v>32</v>
       </c>
@@ -23021,14 +22938,14 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
     </row>
-    <row r="4" spans="1:26" ht="14">
+    <row r="4" spans="1:26" ht="14.25">
       <c r="I4" s="107"/>
       <c r="L4" s="36"/>
       <c r="M4" s="46"/>
       <c r="R4" s="109"/>
       <c r="S4" s="109"/>
     </row>
-    <row r="5" spans="1:26" ht="14">
+    <row r="5" spans="1:26" ht="14.25">
       <c r="F5" s="2"/>
       <c r="J5" s="107"/>
       <c r="K5" s="36"/>
@@ -23037,7 +22954,7 @@
       <c r="R5" s="109"/>
       <c r="S5" s="109"/>
     </row>
-    <row r="6" spans="1:26" ht="14">
+    <row r="6" spans="1:26" ht="14.25">
       <c r="F6" s="2"/>
       <c r="G6" s="143"/>
       <c r="I6" s="188"/>
@@ -23047,7 +22964,7 @@
       <c r="R6" s="109"/>
       <c r="S6" s="109"/>
     </row>
-    <row r="7" spans="1:26" ht="14">
+    <row r="7" spans="1:26" ht="14.25">
       <c r="F7" s="2"/>
       <c r="G7" s="218"/>
       <c r="H7" s="2"/>
@@ -23058,7 +22975,7 @@
       <c r="R7" s="109"/>
       <c r="S7" s="109"/>
     </row>
-    <row r="8" spans="1:26" ht="14">
+    <row r="8" spans="1:26" ht="14.25">
       <c r="F8" s="2"/>
       <c r="G8" s="218"/>
       <c r="H8" s="2"/>
@@ -23069,7 +22986,7 @@
       <c r="R8" s="109"/>
       <c r="S8" s="109"/>
     </row>
-    <row r="9" spans="1:26" ht="14">
+    <row r="9" spans="1:26" ht="14.25">
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -23081,7 +22998,7 @@
       <c r="R9" s="109"/>
       <c r="S9" s="109"/>
     </row>
-    <row r="10" spans="1:26" ht="14">
+    <row r="10" spans="1:26" ht="14.25">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -23093,7 +23010,7 @@
       <c r="R10" s="109"/>
       <c r="S10" s="109"/>
     </row>
-    <row r="11" spans="1:26" ht="14">
+    <row r="11" spans="1:26" ht="14.25">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -23105,7 +23022,7 @@
       <c r="R11" s="109"/>
       <c r="S11" s="109"/>
     </row>
-    <row r="12" spans="1:26" ht="14">
+    <row r="12" spans="1:26" ht="14.25">
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -23117,7 +23034,7 @@
       <c r="R12" s="109"/>
       <c r="S12" s="109"/>
     </row>
-    <row r="13" spans="1:26" ht="14">
+    <row r="13" spans="1:26" ht="14.25">
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -23129,7 +23046,7 @@
       <c r="R13" s="109"/>
       <c r="S13" s="109"/>
     </row>
-    <row r="14" spans="1:26" ht="14">
+    <row r="14" spans="1:26" ht="14.25">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -23141,7 +23058,7 @@
       <c r="R14" s="109"/>
       <c r="S14" s="109"/>
     </row>
-    <row r="15" spans="1:26" ht="14">
+    <row r="15" spans="1:26" ht="14.25">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -23153,7 +23070,7 @@
       <c r="R15" s="109"/>
       <c r="S15" s="109"/>
     </row>
-    <row r="16" spans="1:26" ht="14">
+    <row r="16" spans="1:26" ht="14.25">
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -23165,7 +23082,7 @@
       <c r="R16" s="109"/>
       <c r="S16" s="109"/>
     </row>
-    <row r="17" spans="6:19" ht="14">
+    <row r="17" spans="6:19" ht="14.25">
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -23177,7 +23094,7 @@
       <c r="R17" s="109"/>
       <c r="S17" s="109"/>
     </row>
-    <row r="18" spans="6:19" ht="14">
+    <row r="18" spans="6:19" ht="14.25">
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -23188,7 +23105,7 @@
       <c r="R18" s="109"/>
       <c r="S18" s="109"/>
     </row>
-    <row r="19" spans="6:19" ht="14">
+    <row r="19" spans="6:19" ht="14.25">
       <c r="F19" s="2"/>
       <c r="I19" s="115"/>
       <c r="J19" s="141"/>
@@ -23198,7 +23115,7 @@
       <c r="R19" s="109"/>
       <c r="S19" s="109"/>
     </row>
-    <row r="20" spans="6:19" ht="14">
+    <row r="20" spans="6:19" ht="14.25">
       <c r="F20" s="2"/>
       <c r="I20" s="107"/>
       <c r="J20" s="107"/>
@@ -23207,7 +23124,7 @@
       <c r="R20" s="109"/>
       <c r="S20" s="109"/>
     </row>
-    <row r="21" spans="6:19" ht="14">
+    <row r="21" spans="6:19" ht="14.25">
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -23218,7 +23135,7 @@
       <c r="R21" s="109"/>
       <c r="S21" s="109"/>
     </row>
-    <row r="22" spans="6:19" ht="14">
+    <row r="22" spans="6:19" ht="14.25">
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -23230,7 +23147,7 @@
       <c r="R22" s="109"/>
       <c r="S22" s="109"/>
     </row>
-    <row r="23" spans="6:19" ht="14">
+    <row r="23" spans="6:19" ht="14.25">
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -23242,7 +23159,7 @@
       <c r="R23" s="109"/>
       <c r="S23" s="109"/>
     </row>
-    <row r="24" spans="6:19" ht="14">
+    <row r="24" spans="6:19" ht="14.25">
       <c r="J24" s="33"/>
       <c r="L24" s="36"/>
       <c r="M24" s="46"/>
@@ -23250,7 +23167,7 @@
       <c r="R24" s="109"/>
       <c r="S24" s="109"/>
     </row>
-    <row r="25" spans="6:19" ht="14">
+    <row r="25" spans="6:19" ht="14.25">
       <c r="F25" s="2"/>
       <c r="I25" s="107"/>
       <c r="J25" s="107"/>
@@ -23261,7 +23178,7 @@
       <c r="R25" s="109"/>
       <c r="S25" s="109"/>
     </row>
-    <row r="26" spans="6:19" ht="14">
+    <row r="26" spans="6:19" ht="14.25">
       <c r="F26" s="2"/>
       <c r="J26" s="107"/>
       <c r="K26" s="107"/>
@@ -23271,7 +23188,7 @@
       <c r="R26" s="109"/>
       <c r="S26" s="109"/>
     </row>
-    <row r="27" spans="6:19" ht="14">
+    <row r="27" spans="6:19" ht="14.25">
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="I27" s="107"/>
@@ -23282,7 +23199,7 @@
       <c r="R27" s="109"/>
       <c r="S27" s="109"/>
     </row>
-    <row r="28" spans="6:19" ht="14">
+    <row r="28" spans="6:19" ht="14.25">
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="I28" s="107"/>
@@ -23293,7 +23210,7 @@
       <c r="R28" s="109"/>
       <c r="S28" s="109"/>
     </row>
-    <row r="29" spans="6:19" ht="14">
+    <row r="29" spans="6:19" ht="14.25">
       <c r="F29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="107"/>
@@ -23304,7 +23221,7 @@
       <c r="R29" s="109"/>
       <c r="S29" s="109"/>
     </row>
-    <row r="30" spans="6:19" ht="14">
+    <row r="30" spans="6:19" ht="14.25">
       <c r="G30" s="2"/>
       <c r="I30" s="188"/>
       <c r="J30" s="107"/>
@@ -23314,7 +23231,7 @@
       <c r="R30" s="109"/>
       <c r="S30" s="109"/>
     </row>
-    <row r="31" spans="6:19" ht="14">
+    <row r="31" spans="6:19" ht="14.25">
       <c r="J31" s="107"/>
       <c r="K31" s="107"/>
       <c r="L31" s="36"/>
@@ -23323,7 +23240,7 @@
       <c r="R31" s="109"/>
       <c r="S31" s="109"/>
     </row>
-    <row r="32" spans="6:19" ht="14">
+    <row r="32" spans="6:19" ht="14.25">
       <c r="G32" s="2"/>
       <c r="J32" s="107"/>
       <c r="K32" s="107"/>
@@ -23333,7 +23250,7 @@
       <c r="R32" s="109"/>
       <c r="S32" s="109"/>
     </row>
-    <row r="33" spans="1:19" ht="14">
+    <row r="33" spans="1:19" ht="14.25">
       <c r="H33" s="145"/>
       <c r="I33" s="107"/>
       <c r="J33" s="110"/>
@@ -23343,7 +23260,7 @@
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
     </row>
-    <row r="34" spans="1:19" ht="14">
+    <row r="34" spans="1:19" ht="14.25">
       <c r="I34" s="107"/>
       <c r="J34" s="107"/>
       <c r="L34" s="36"/>
@@ -23447,7 +23364,7 @@
       <c r="R45" s="109"/>
       <c r="S45" s="32"/>
     </row>
-    <row r="46" spans="1:19" ht="14">
+    <row r="46" spans="1:19" ht="14.25">
       <c r="A46" s="120"/>
       <c r="F46" s="111"/>
       <c r="I46" s="107"/>
@@ -23542,20 +23459,20 @@
       <selection activeCell="A4" sqref="A4:XFD240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" customWidth="1"/>
+    <col min="5" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="90.33203125" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="1010" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="90.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="1010" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18">
@@ -23632,7 +23549,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="56">
+    <row r="3" spans="1:16" ht="51">
       <c r="A3" s="28" t="s">
         <v>32</v>
       </c>
@@ -25616,22 +25533,22 @@
       <selection activeCell="A4" sqref="A4:XFD206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" style="1" customWidth="1"/>
-    <col min="12" max="17" width="8.5" customWidth="1"/>
-    <col min="18" max="21" width="6.33203125" customWidth="1"/>
-    <col min="22" max="1023" width="8.33203125" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="1" customWidth="1"/>
+    <col min="12" max="17" width="8.42578125" customWidth="1"/>
+    <col min="18" max="21" width="6.28515625" customWidth="1"/>
+    <col min="22" max="1023" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18">
@@ -26854,20 +26771,20 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" style="246" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="246"/>
-    <col min="3" max="3" width="54.6640625" style="246" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="246" customWidth="1"/>
-    <col min="5" max="6" width="12.6640625" style="246" customWidth="1"/>
-    <col min="7" max="7" width="44.33203125" style="246" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="246" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" style="246" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="246"/>
+    <col min="3" max="3" width="54.7109375" style="246" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="246" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="246" customWidth="1"/>
+    <col min="7" max="7" width="44.28515625" style="246" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="246" customWidth="1"/>
     <col min="9" max="9" width="37" style="246" customWidth="1"/>
-    <col min="10" max="10" width="43.6640625" style="246" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" style="246" customWidth="1"/>
-    <col min="12" max="1025" width="10.83203125" style="246"/>
-    <col min="1026" max="16384" width="10.83203125" style="245"/>
+    <col min="10" max="10" width="43.7109375" style="246" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="246" customWidth="1"/>
+    <col min="12" max="1025" width="10.85546875" style="246"/>
+    <col min="1026" max="16384" width="10.85546875" style="245"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18">
@@ -26893,7 +26810,7 @@
       <c r="L1" s="247"/>
       <c r="M1" s="247"/>
     </row>
-    <row r="2" spans="1:13" ht="56">
+    <row r="2" spans="1:13" ht="63.75">
       <c r="A2" s="258" t="s">
         <v>4</v>
       </c>
@@ -26928,7 +26845,7 @@
       <c r="L2" s="254"/>
       <c r="M2" s="254"/>
     </row>
-    <row r="3" spans="1:13" ht="16">
+    <row r="3" spans="1:13" ht="15.75">
       <c r="A3" s="253" t="s">
         <v>9</v>
       </c>

--- a/data/ccd-template.xlsx
+++ b/data/ccd-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jack\et-ccd-definitions-scotland\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A23205-63EE-4767-AAE4-18BF4D44F404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B63BB5-FD25-4556-894D-8D1834AF74D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24450" yWindow="4455" windowWidth="35070" windowHeight="15555" tabRatio="500" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="35070" windowHeight="15555" tabRatio="500" firstSheet="8" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CaseRoles" sheetId="30" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">AuthorisationCaseField!$A$1:$D$517</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">AuthorisationCaseState!$A$3:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CaseEvent!$A$3:$Z$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">CaseEventToFields!$A$3:$P$231</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">CaseEventToFields!$A$3:$Q$231</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">CaseField!$A$3:$U$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CaseRoles!$A$3:$F$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CaseTypeTab!$A$3:$P$54</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="352">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -13852,7 +13852,7 @@
   </sheetPr>
   <dimension ref="A1:K650"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD650"/>
     </sheetView>
   </sheetViews>
@@ -23453,10 +23453,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:P240"/>
+  <dimension ref="A1:Q240"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD240"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -23464,18 +23464,18 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="90.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="1010" width="8.7109375" customWidth="1"/>
+    <col min="4" max="5" width="18" customWidth="1"/>
+    <col min="6" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="90.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="1011" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18">
+    <row r="1" spans="1:17" ht="18">
       <c r="A1" s="35" t="s">
         <v>71</v>
       </c>
@@ -23486,22 +23486,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="36"/>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="36"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
       <c r="K1" s="36"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="39"/>
       <c r="N1" s="36"/>
       <c r="O1" s="36"/>
-      <c r="P1" s="39"/>
-    </row>
-    <row r="2" spans="1:16" ht="144" customHeight="1">
+      <c r="P1" s="36"/>
+      <c r="Q1" s="39"/>
+    </row>
+    <row r="2" spans="1:17" ht="144" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -23514,42 +23515,43 @@
       <c r="D2" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="M2" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="N2" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="O2" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="P2" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="Q2" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="51">
+    <row r="3" spans="1:17" ht="51">
       <c r="A3" s="28" t="s">
         <v>32</v>
       </c>
@@ -23562,1960 +23564,1981 @@
       <c r="D3" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="G3" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="H3" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="I3" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="J3" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="K3" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="L3" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="M3" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="N3" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="O3" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="P3" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="Q3" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="E4" s="1"/>
+    <row r="4" spans="1:17">
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="E5" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="E6" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="E7" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="E8" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="E9" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="E10" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="E11" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="E12" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="E13" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="E14" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="E15" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="E16" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="5:14">
-      <c r="E17" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="6:15">
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="5:14">
-      <c r="E18" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="6:15">
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="33"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="5:14">
-      <c r="E19" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="33"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="6:15">
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="5:14">
-      <c r="E20" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="6:15">
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="5:14">
-      <c r="E21" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="6:15">
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="5:14">
-      <c r="E22" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="6:15">
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="5:14">
-      <c r="E23" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="6:15">
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="5:14">
-      <c r="E24" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="6:15">
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="5:14">
-      <c r="E25" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="6:15">
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="5:14">
-      <c r="E26" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="6:15">
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="5:14">
-      <c r="E27" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="6:15">
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="5:14">
-      <c r="E28" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="6:15">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="5:14">
-      <c r="E29" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="6:15">
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="5:14">
-      <c r="E30" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="6:15">
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="5:14">
-      <c r="E31" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="6:15">
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="5:14">
-      <c r="E32" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="6:15">
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="5:14">
-      <c r="E33" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="6:15">
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="5:14">
-      <c r="E34" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="6:15">
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="5:14">
-      <c r="E35" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="107"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="6:15">
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="5:14">
-      <c r="E36" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="6:15">
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="5:14">
-      <c r="E37" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="6:15">
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="5:14">
-      <c r="E38" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="6:15">
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="5:14">
-      <c r="E39" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="6:15">
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="5:14">
-      <c r="E40" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="6:15">
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="5:14">
-      <c r="E41" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="6:15">
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="5:14">
-      <c r="E42" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="6:15">
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="5:14">
-      <c r="E43" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="6:15">
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="5:14">
-      <c r="E44" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="6:15">
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="5:14">
-      <c r="E45" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="6:15">
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="5:14">
-      <c r="E46" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="6:15">
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="5:14">
-      <c r="E47" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="6:15">
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="5:14">
-      <c r="E48" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="6:15">
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="M48" s="50"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="5:14">
-      <c r="E49" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="6:15">
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="5:14">
-      <c r="E50" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="6:15">
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="107"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="5:14">
-      <c r="E51" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="107"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="6:15">
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="107"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="5:14">
-      <c r="E52" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="107"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="6:15">
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="5:14">
-      <c r="E53" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53" spans="6:15">
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="5:14">
-      <c r="E54" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="1"/>
+    </row>
+    <row r="54" spans="6:15">
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="M54" s="50"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="5:14">
-      <c r="E55" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="6:15">
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="M55" s="50"/>
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="5:14">
-      <c r="E56" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="6:15">
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="M56" s="50"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="5:14">
-      <c r="E57" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="6:15">
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="M57" s="50"/>
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="5:14">
-      <c r="E58" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="6:15">
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="M58" s="50"/>
-      <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="5:14">
-      <c r="E59" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="N58" s="50"/>
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="6:15">
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="M59" s="50"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="5:14">
-      <c r="E60" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="N59" s="50"/>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="6:15">
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="M60" s="50"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="5:14">
-      <c r="E61" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="6:15">
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="M61" s="50"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="5:14">
-      <c r="E62" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="6:15">
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="5:14">
-      <c r="E63" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="N62" s="50"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="6:15">
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="M63" s="50"/>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="5:14">
-      <c r="E64" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="N63" s="50"/>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="6:15">
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="M64" s="50"/>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="5:14">
-      <c r="E65" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="N64" s="50"/>
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="6:15">
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="M65" s="50"/>
-      <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="5:14">
-      <c r="E66" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="N65" s="50"/>
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="6:15">
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="M66" s="50"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="5:14">
-      <c r="E67" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="N66" s="50"/>
+      <c r="O66" s="1"/>
+    </row>
+    <row r="67" spans="6:15">
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="M67" s="50"/>
-      <c r="N67" s="1"/>
-    </row>
-    <row r="68" spans="5:14">
-      <c r="E68" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="N67" s="50"/>
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68" spans="6:15">
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="M68" s="50"/>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="5:14">
-      <c r="E69" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="N68" s="50"/>
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="6:15">
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="M69" s="50"/>
-      <c r="N69" s="1"/>
-    </row>
-    <row r="70" spans="5:14">
-      <c r="E70" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" spans="6:15">
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="M70" s="50"/>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="5:14">
-      <c r="E71" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="N70" s="50"/>
+      <c r="O70" s="1"/>
+    </row>
+    <row r="71" spans="6:15">
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="M71" s="50"/>
-      <c r="N71" s="1"/>
-    </row>
-    <row r="72" spans="5:14">
-      <c r="E72" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="N71" s="50"/>
+      <c r="O71" s="1"/>
+    </row>
+    <row r="72" spans="6:15">
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="M72" s="50"/>
-      <c r="N72" s="1"/>
-    </row>
-    <row r="73" spans="5:14">
-      <c r="E73" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="N72" s="50"/>
+      <c r="O72" s="1"/>
+    </row>
+    <row r="73" spans="6:15">
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="M73" s="50"/>
-      <c r="N73" s="1"/>
-    </row>
-    <row r="74" spans="5:14">
-      <c r="E74" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="1"/>
+    </row>
+    <row r="74" spans="6:15">
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="M74" s="50"/>
-      <c r="N74" s="1"/>
-    </row>
-    <row r="75" spans="5:14">
-      <c r="E75" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="N74" s="50"/>
+      <c r="O74" s="1"/>
+    </row>
+    <row r="75" spans="6:15">
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="M75" s="50"/>
-      <c r="N75" s="1"/>
-    </row>
-    <row r="76" spans="5:14">
-      <c r="E76" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="N75" s="50"/>
+      <c r="O75" s="1"/>
+    </row>
+    <row r="76" spans="6:15">
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="M76" s="50"/>
-      <c r="N76" s="1"/>
-    </row>
-    <row r="77" spans="5:14">
-      <c r="E77" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="N76" s="50"/>
+      <c r="O76" s="1"/>
+    </row>
+    <row r="77" spans="6:15">
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="33"/>
-      <c r="M77" s="50"/>
-      <c r="N77" s="1"/>
-    </row>
-    <row r="78" spans="5:14">
-      <c r="E78" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="33"/>
+      <c r="N77" s="50"/>
+      <c r="O77" s="1"/>
+    </row>
+    <row r="78" spans="6:15">
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="M78" s="50"/>
-      <c r="N78" s="1"/>
-    </row>
-    <row r="79" spans="5:14">
-      <c r="E79" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="N78" s="50"/>
+      <c r="O78" s="1"/>
+    </row>
+    <row r="79" spans="6:15">
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="M79" s="50"/>
-      <c r="N79" s="1"/>
-    </row>
-    <row r="80" spans="5:14">
-      <c r="E80" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="N79" s="50"/>
+      <c r="O79" s="1"/>
+    </row>
+    <row r="80" spans="6:15">
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="107"/>
-      <c r="M80" s="50"/>
-      <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="3:14">
-      <c r="E81" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="107"/>
+      <c r="N80" s="50"/>
+      <c r="O80" s="1"/>
+    </row>
+    <row r="81" spans="3:15">
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="107"/>
-      <c r="M81" s="50"/>
-      <c r="N81" s="1"/>
-    </row>
-    <row r="82" spans="3:14">
-      <c r="E82" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="107"/>
+      <c r="N81" s="50"/>
+      <c r="O81" s="1"/>
+    </row>
+    <row r="82" spans="3:15">
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="107"/>
-      <c r="M82" s="50"/>
-      <c r="N82" s="1"/>
-    </row>
-    <row r="83" spans="3:14">
-      <c r="E83" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="107"/>
+      <c r="N82" s="50"/>
+      <c r="O82" s="1"/>
+    </row>
+    <row r="83" spans="3:15">
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="107"/>
-      <c r="M83" s="50"/>
-      <c r="N83" s="1"/>
-    </row>
-    <row r="84" spans="3:14">
-      <c r="E84" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="107"/>
+      <c r="N83" s="50"/>
+      <c r="O83" s="1"/>
+    </row>
+    <row r="84" spans="3:15">
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="107"/>
-      <c r="M84" s="50"/>
-      <c r="N84" s="1"/>
-    </row>
-    <row r="85" spans="3:14">
-      <c r="E85" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="107"/>
+      <c r="N84" s="50"/>
+      <c r="O84" s="1"/>
+    </row>
+    <row r="85" spans="3:15">
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="107"/>
-      <c r="M85" s="50"/>
-      <c r="N85" s="1"/>
-    </row>
-    <row r="86" spans="3:14">
-      <c r="E86" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="107"/>
+      <c r="N85" s="50"/>
+      <c r="O85" s="1"/>
+    </row>
+    <row r="86" spans="3:15">
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="107"/>
-      <c r="M86" s="50"/>
-      <c r="N86" s="1"/>
-    </row>
-    <row r="87" spans="3:14">
-      <c r="E87" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="107"/>
+      <c r="N86" s="50"/>
+      <c r="O86" s="1"/>
+    </row>
+    <row r="87" spans="3:15">
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="107"/>
-      <c r="M87" s="50"/>
-      <c r="N87" s="1"/>
-    </row>
-    <row r="88" spans="3:14">
-      <c r="E88" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="107"/>
+      <c r="N87" s="50"/>
+      <c r="O87" s="1"/>
+    </row>
+    <row r="88" spans="3:15">
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="107"/>
-      <c r="M88" s="50"/>
-      <c r="N88" s="1"/>
-    </row>
-    <row r="89" spans="3:14">
-      <c r="E89" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="107"/>
+      <c r="N88" s="50"/>
+      <c r="O88" s="1"/>
+    </row>
+    <row r="89" spans="3:15">
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="107"/>
-      <c r="M89" s="50"/>
-      <c r="N89" s="1"/>
-    </row>
-    <row r="90" spans="3:14">
-      <c r="E90" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="107"/>
+      <c r="N89" s="50"/>
+      <c r="O89" s="1"/>
+    </row>
+    <row r="90" spans="3:15">
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="107"/>
-      <c r="M90" s="50"/>
-      <c r="N90" s="1"/>
-    </row>
-    <row r="91" spans="3:14">
-      <c r="E91" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="107"/>
+      <c r="N90" s="50"/>
+      <c r="O90" s="1"/>
+    </row>
+    <row r="91" spans="3:15">
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="107"/>
-      <c r="M91" s="50"/>
-      <c r="N91" s="1"/>
-    </row>
-    <row r="92" spans="3:14">
-      <c r="E92" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="107"/>
+      <c r="N91" s="50"/>
+      <c r="O91" s="1"/>
+    </row>
+    <row r="92" spans="3:15">
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="107"/>
-      <c r="M92" s="50"/>
-      <c r="N92" s="1"/>
-    </row>
-    <row r="93" spans="3:14">
+      <c r="H92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="107"/>
+      <c r="N92" s="50"/>
+      <c r="O92" s="1"/>
+    </row>
+    <row r="93" spans="3:15">
       <c r="C93" s="108"/>
-      <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="107"/>
-      <c r="M93" s="50"/>
-      <c r="N93" s="1"/>
-    </row>
-    <row r="94" spans="3:14">
+      <c r="H93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="107"/>
+      <c r="N93" s="50"/>
+      <c r="O93" s="1"/>
+    </row>
+    <row r="94" spans="3:15">
       <c r="C94" s="108"/>
-      <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="107"/>
-      <c r="M94" s="50"/>
-      <c r="N94" s="1"/>
-    </row>
-    <row r="95" spans="3:14">
-      <c r="E95" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="107"/>
+      <c r="N94" s="50"/>
+      <c r="O94" s="1"/>
+    </row>
+    <row r="95" spans="3:15">
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="107"/>
-      <c r="M95" s="50"/>
-      <c r="N95" s="1"/>
-    </row>
-    <row r="96" spans="3:14">
-      <c r="E96" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="107"/>
+      <c r="N95" s="50"/>
+      <c r="O95" s="1"/>
+    </row>
+    <row r="96" spans="3:15">
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="107"/>
-      <c r="M96" s="50"/>
-      <c r="N96" s="1"/>
-    </row>
-    <row r="97" spans="3:14">
-      <c r="E97" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="107"/>
+      <c r="N96" s="50"/>
+      <c r="O96" s="1"/>
+    </row>
+    <row r="97" spans="3:15">
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="107"/>
-      <c r="M97" s="50"/>
-      <c r="N97" s="1"/>
-    </row>
-    <row r="98" spans="3:14">
-      <c r="E98" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="107"/>
+      <c r="N97" s="50"/>
+      <c r="O97" s="1"/>
+    </row>
+    <row r="98" spans="3:15">
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="107"/>
-      <c r="M98" s="50"/>
-      <c r="N98" s="1"/>
-    </row>
-    <row r="99" spans="3:14">
-      <c r="E99" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="107"/>
+      <c r="N98" s="50"/>
+      <c r="O98" s="1"/>
+    </row>
+    <row r="99" spans="3:15">
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="107"/>
-      <c r="M99" s="50"/>
-      <c r="N99" s="1"/>
-    </row>
-    <row r="100" spans="3:14">
-      <c r="E100" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="107"/>
+      <c r="N99" s="50"/>
+      <c r="O99" s="1"/>
+    </row>
+    <row r="100" spans="3:15">
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="107"/>
-      <c r="M100" s="50"/>
-      <c r="N100" s="1"/>
-    </row>
-    <row r="101" spans="3:14">
-      <c r="E101" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="107"/>
+      <c r="N100" s="50"/>
+      <c r="O100" s="1"/>
+    </row>
+    <row r="101" spans="3:15">
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="107"/>
-      <c r="M101" s="50"/>
-      <c r="N101" s="1"/>
-    </row>
-    <row r="102" spans="3:14">
-      <c r="E102" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="107"/>
+      <c r="N101" s="50"/>
+      <c r="O101" s="1"/>
+    </row>
+    <row r="102" spans="3:15">
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="107"/>
-      <c r="M102" s="50"/>
-      <c r="N102" s="1"/>
-    </row>
-    <row r="103" spans="3:14">
-      <c r="E103" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="107"/>
+      <c r="N102" s="50"/>
+      <c r="O102" s="1"/>
+    </row>
+    <row r="103" spans="3:15">
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="107"/>
-      <c r="M103" s="50"/>
-      <c r="N103" s="1"/>
-    </row>
-    <row r="104" spans="3:14">
-      <c r="E104" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="107"/>
+      <c r="N103" s="50"/>
+      <c r="O103" s="1"/>
+    </row>
+    <row r="104" spans="3:15">
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="107"/>
-      <c r="M104" s="50"/>
-      <c r="N104" s="1"/>
-    </row>
-    <row r="105" spans="3:14">
-      <c r="E105" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="107"/>
+      <c r="N104" s="50"/>
+      <c r="O104" s="1"/>
+    </row>
+    <row r="105" spans="3:15">
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="107"/>
-      <c r="M105" s="50"/>
-      <c r="N105" s="1"/>
-    </row>
-    <row r="106" spans="3:14">
-      <c r="E106" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="107"/>
+      <c r="N105" s="50"/>
+      <c r="O105" s="1"/>
+    </row>
+    <row r="106" spans="3:15">
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="107"/>
-      <c r="M106" s="50"/>
-      <c r="N106" s="1"/>
-    </row>
-    <row r="107" spans="3:14">
-      <c r="E107" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="107"/>
+      <c r="N106" s="50"/>
+      <c r="O106" s="1"/>
+    </row>
+    <row r="107" spans="3:15">
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="107"/>
-      <c r="M107" s="50"/>
-      <c r="N107" s="1"/>
-    </row>
-    <row r="108" spans="3:14">
+      <c r="H107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="107"/>
+      <c r="N107" s="50"/>
+      <c r="O107" s="1"/>
+    </row>
+    <row r="108" spans="3:15">
       <c r="C108" s="56"/>
-      <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="107"/>
-      <c r="M108" s="50"/>
-      <c r="N108" s="1"/>
-    </row>
-    <row r="109" spans="3:14">
-      <c r="E109" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="107"/>
+      <c r="N108" s="50"/>
+      <c r="O108" s="1"/>
+    </row>
+    <row r="109" spans="3:15">
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="107"/>
-      <c r="M109" s="50"/>
-      <c r="N109" s="1"/>
-    </row>
-    <row r="110" spans="3:14">
-      <c r="E110" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="107"/>
+      <c r="N109" s="50"/>
+      <c r="O109" s="1"/>
+    </row>
+    <row r="110" spans="3:15">
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="M110" s="50"/>
-      <c r="N110" s="1"/>
-    </row>
-    <row r="111" spans="3:14">
+      <c r="H110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="N110" s="50"/>
+      <c r="O110" s="1"/>
+    </row>
+    <row r="111" spans="3:15">
       <c r="D111" s="143"/>
-      <c r="E111" s="1"/>
+      <c r="E111" s="143"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="M111" s="50"/>
-      <c r="N111" s="1"/>
-    </row>
-    <row r="112" spans="3:14">
+      <c r="H111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="N111" s="50"/>
+      <c r="O111" s="1"/>
+    </row>
+    <row r="112" spans="3:15">
       <c r="D112" s="143"/>
-      <c r="E112" s="1"/>
+      <c r="E112" s="143"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="M112" s="50"/>
-      <c r="N112" s="1"/>
-    </row>
-    <row r="113" spans="5:14">
-      <c r="E113" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="N112" s="50"/>
+      <c r="O112" s="1"/>
+    </row>
+    <row r="113" spans="6:15">
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="M113" s="50"/>
-      <c r="N113" s="1"/>
-    </row>
-    <row r="114" spans="5:14">
-      <c r="E114" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="N113" s="50"/>
+      <c r="O113" s="1"/>
+    </row>
+    <row r="114" spans="6:15">
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="M114" s="50"/>
-      <c r="N114" s="1"/>
-    </row>
-    <row r="115" spans="5:14">
-      <c r="E115" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="N114" s="50"/>
+      <c r="O114" s="1"/>
+    </row>
+    <row r="115" spans="6:15">
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="M115" s="50"/>
-      <c r="N115" s="1"/>
-    </row>
-    <row r="116" spans="5:14">
-      <c r="E116" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="N115" s="50"/>
+      <c r="O115" s="1"/>
+    </row>
+    <row r="116" spans="6:15">
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="N116" s="1"/>
-    </row>
-    <row r="117" spans="5:14">
-      <c r="E117" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="O116" s="1"/>
+    </row>
+    <row r="117" spans="6:15">
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="107"/>
-      <c r="M117" s="50"/>
-      <c r="N117" s="1"/>
-    </row>
-    <row r="118" spans="5:14">
-      <c r="E118" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="107"/>
+      <c r="N117" s="50"/>
+      <c r="O117" s="1"/>
+    </row>
+    <row r="118" spans="6:15">
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="M118" s="50"/>
-      <c r="N118" s="1"/>
-    </row>
-    <row r="119" spans="5:14">
-      <c r="E119" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="N118" s="50"/>
+      <c r="O118" s="1"/>
+    </row>
+    <row r="119" spans="6:15">
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="M119" s="50"/>
-      <c r="N119" s="1"/>
-    </row>
-    <row r="120" spans="5:14">
-      <c r="E120" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="N119" s="50"/>
+      <c r="O119" s="1"/>
+    </row>
+    <row r="120" spans="6:15">
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="110"/>
-      <c r="N120" s="1"/>
-    </row>
-    <row r="121" spans="5:14">
-      <c r="E121" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="110"/>
+      <c r="O120" s="1"/>
+    </row>
+    <row r="121" spans="6:15">
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="N121" s="1"/>
-    </row>
-    <row r="122" spans="5:14">
-      <c r="E122" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="O121" s="1"/>
+    </row>
+    <row r="122" spans="6:15">
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="N122" s="1"/>
-    </row>
-    <row r="123" spans="5:14">
-      <c r="E123" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="O122" s="1"/>
+    </row>
+    <row r="123" spans="6:15">
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
-      <c r="K123" s="1"/>
-      <c r="N123" s="1"/>
-    </row>
-    <row r="124" spans="5:14">
-      <c r="E124" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="O123" s="1"/>
+    </row>
+    <row r="124" spans="6:15">
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="N124" s="1"/>
-    </row>
-    <row r="125" spans="5:14">
-      <c r="E125" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="O124" s="1"/>
+    </row>
+    <row r="125" spans="6:15">
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
-      <c r="K125" s="1"/>
-      <c r="N125" s="1"/>
-    </row>
-    <row r="126" spans="5:14">
-      <c r="E126" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="O125" s="1"/>
+    </row>
+    <row r="126" spans="6:15">
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="107"/>
-      <c r="N126" s="1"/>
-    </row>
-    <row r="127" spans="5:14">
-      <c r="E127" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="107"/>
+      <c r="O126" s="1"/>
+    </row>
+    <row r="127" spans="6:15">
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
-      <c r="K127" s="1"/>
-      <c r="N127" s="1"/>
-    </row>
-    <row r="128" spans="5:14">
-      <c r="E128" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="O127" s="1"/>
+    </row>
+    <row r="128" spans="6:15">
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
-      <c r="K128" s="1"/>
-      <c r="N128" s="1"/>
-    </row>
-    <row r="129" spans="2:14">
-      <c r="E129" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="O128" s="1"/>
+    </row>
+    <row r="129" spans="2:15">
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
-      <c r="K129" s="1"/>
-      <c r="N129" s="1"/>
-    </row>
-    <row r="130" spans="2:14">
-      <c r="E130" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="O129" s="1"/>
+    </row>
+    <row r="130" spans="2:15">
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
-      <c r="K130" s="1"/>
-      <c r="N130" s="1"/>
-    </row>
-    <row r="131" spans="2:14">
-      <c r="E131" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="O130" s="1"/>
+    </row>
+    <row r="131" spans="2:15">
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
-      <c r="K131" s="1"/>
-      <c r="N131" s="1"/>
-    </row>
-    <row r="132" spans="2:14">
-      <c r="E132" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="O131" s="1"/>
+    </row>
+    <row r="132" spans="2:15">
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
-      <c r="K132" s="1"/>
-      <c r="N132" s="1"/>
-    </row>
-    <row r="133" spans="2:14">
-      <c r="E133" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="O132" s="1"/>
+    </row>
+    <row r="133" spans="2:15">
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="N133" s="1"/>
-    </row>
-    <row r="134" spans="2:14">
-      <c r="E134" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="O133" s="1"/>
+    </row>
+    <row r="134" spans="2:15">
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-      <c r="K134" s="1"/>
-      <c r="N134" s="1"/>
-    </row>
-    <row r="135" spans="2:14">
+      <c r="H134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="O134" s="1"/>
+    </row>
+    <row r="135" spans="2:15">
       <c r="B135" s="36"/>
-      <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
-      <c r="K135" s="1"/>
-      <c r="N135" s="1"/>
-    </row>
-    <row r="136" spans="2:14">
+      <c r="H135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="O135" s="1"/>
+    </row>
+    <row r="136" spans="2:15">
       <c r="B136" s="36"/>
-      <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="N136" s="1"/>
-    </row>
-    <row r="137" spans="2:14">
+      <c r="H136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="O136" s="1"/>
+    </row>
+    <row r="137" spans="2:15">
       <c r="B137" s="36"/>
       <c r="C137" s="36"/>
-      <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="N137" s="1"/>
-    </row>
-    <row r="138" spans="2:14">
-      <c r="E138" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="O137" s="1"/>
+    </row>
+    <row r="138" spans="2:15">
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
-      <c r="K138" s="1"/>
-      <c r="N138" s="1"/>
-    </row>
-    <row r="139" spans="2:14">
-      <c r="E139" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="O138" s="1"/>
+    </row>
+    <row r="139" spans="2:15">
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
-      <c r="K139" s="1"/>
-      <c r="N139" s="1"/>
-    </row>
-    <row r="140" spans="2:14">
+      <c r="H139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="O139" s="1"/>
+    </row>
+    <row r="140" spans="2:15">
       <c r="C140" s="36"/>
-      <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
-      <c r="K140" s="1"/>
-      <c r="N140" s="1"/>
-    </row>
-    <row r="141" spans="2:14">
+      <c r="H140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="O140" s="1"/>
+    </row>
+    <row r="141" spans="2:15">
       <c r="C141" s="36"/>
-      <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
-      <c r="K141" s="1"/>
-      <c r="N141" s="1"/>
-    </row>
-    <row r="142" spans="2:14">
-      <c r="E142" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="O141" s="1"/>
+    </row>
+    <row r="142" spans="2:15">
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
-      <c r="K142" s="1"/>
-      <c r="N142" s="1"/>
-    </row>
-    <row r="143" spans="2:14">
+      <c r="H142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="O142" s="1"/>
+    </row>
+    <row r="143" spans="2:15">
       <c r="B143" s="36"/>
       <c r="C143" s="36"/>
-      <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
-      <c r="K143" s="1"/>
-      <c r="N143" s="1"/>
-    </row>
-    <row r="144" spans="2:14">
+      <c r="H143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="O143" s="1"/>
+    </row>
+    <row r="144" spans="2:15">
       <c r="B144" s="36"/>
       <c r="C144" s="36"/>
-      <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
-      <c r="K144" s="1"/>
-      <c r="N144" s="1"/>
-    </row>
-    <row r="145" spans="2:14">
+      <c r="H144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="O144" s="1"/>
+    </row>
+    <row r="145" spans="2:15">
       <c r="B145" s="36"/>
       <c r="C145" s="36"/>
-      <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
-      <c r="K145" s="1"/>
-      <c r="N145" s="1"/>
-    </row>
-    <row r="146" spans="2:14">
-      <c r="E146" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="O145" s="1"/>
+    </row>
+    <row r="146" spans="2:15">
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
-      <c r="K146" s="1"/>
-      <c r="M146" s="50"/>
-      <c r="N146" s="1"/>
-    </row>
-    <row r="147" spans="2:14">
-      <c r="E147" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="N146" s="50"/>
+      <c r="O146" s="1"/>
+    </row>
+    <row r="147" spans="2:15">
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
-      <c r="K147" s="1"/>
-      <c r="M147" s="50"/>
-      <c r="N147" s="1"/>
-    </row>
-    <row r="148" spans="2:14">
-      <c r="E148" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="N147" s="50"/>
+      <c r="O147" s="1"/>
+    </row>
+    <row r="148" spans="2:15">
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
-      <c r="K148" s="1"/>
-      <c r="M148" s="50"/>
-      <c r="N148" s="1"/>
-    </row>
-    <row r="149" spans="2:14">
-      <c r="E149" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="N148" s="50"/>
+      <c r="O148" s="1"/>
+    </row>
+    <row r="149" spans="2:15">
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
-      <c r="K149" s="1"/>
-      <c r="M149" s="50"/>
-      <c r="N149" s="1"/>
-    </row>
-    <row r="150" spans="2:14">
-      <c r="E150" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="N149" s="50"/>
+      <c r="O149" s="1"/>
+    </row>
+    <row r="150" spans="2:15">
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
-      <c r="K150" s="1"/>
-      <c r="M150" s="50"/>
-      <c r="N150" s="1"/>
-    </row>
-    <row r="151" spans="2:14">
-      <c r="E151" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="N150" s="50"/>
+      <c r="O150" s="1"/>
+    </row>
+    <row r="151" spans="2:15">
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
-      <c r="K151" s="1"/>
-      <c r="M151" s="50"/>
-      <c r="N151" s="1"/>
-    </row>
-    <row r="152" spans="2:14">
-      <c r="E152" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="N151" s="50"/>
+      <c r="O151" s="1"/>
+    </row>
+    <row r="152" spans="2:15">
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
-      <c r="K152" s="1"/>
-      <c r="N152" s="1"/>
-    </row>
-    <row r="153" spans="2:14">
-      <c r="E153" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="O152" s="1"/>
+    </row>
+    <row r="153" spans="2:15">
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
-      <c r="K153" s="1"/>
-      <c r="N153" s="1"/>
-    </row>
-    <row r="154" spans="2:14">
-      <c r="E154" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="O153" s="1"/>
+    </row>
+    <row r="154" spans="2:15">
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
-      <c r="K154" s="1"/>
-      <c r="N154" s="1"/>
-    </row>
-    <row r="155" spans="2:14">
-      <c r="E155" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="O154" s="1"/>
+    </row>
+    <row r="155" spans="2:15">
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
-      <c r="K155" s="1"/>
-      <c r="N155" s="1"/>
-    </row>
-    <row r="156" spans="2:14">
-      <c r="E156" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="O155" s="1"/>
+    </row>
+    <row r="156" spans="2:15">
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
-      <c r="K156" s="1"/>
-      <c r="N156" s="1"/>
-    </row>
-    <row r="157" spans="2:14">
-      <c r="E157" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="O156" s="1"/>
+    </row>
+    <row r="157" spans="2:15">
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="N157" s="1"/>
-    </row>
-    <row r="158" spans="2:14">
-      <c r="E158" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="O157" s="1"/>
+    </row>
+    <row r="158" spans="2:15">
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
-      <c r="K158" s="1"/>
-      <c r="N158" s="1"/>
-    </row>
-    <row r="159" spans="2:14">
-      <c r="E159" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="O158" s="1"/>
+    </row>
+    <row r="159" spans="2:15">
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="N159" s="1"/>
-    </row>
-    <row r="160" spans="2:14">
-      <c r="E160" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="O159" s="1"/>
+    </row>
+    <row r="160" spans="2:15">
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="N160" s="1"/>
-    </row>
-    <row r="161" spans="5:14">
-      <c r="E161" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="O160" s="1"/>
+    </row>
+    <row r="161" spans="6:15">
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
-      <c r="K161" s="1"/>
-      <c r="N161" s="1"/>
-    </row>
-    <row r="162" spans="5:14">
-      <c r="E162" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="O161" s="1"/>
+    </row>
+    <row r="162" spans="6:15">
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
-      <c r="K162" s="1"/>
-      <c r="N162" s="1"/>
-    </row>
-    <row r="163" spans="5:14">
-      <c r="E163" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="O162" s="1"/>
+    </row>
+    <row r="163" spans="6:15">
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
-      <c r="K163" s="1"/>
-      <c r="N163" s="1"/>
-    </row>
-    <row r="164" spans="5:14">
-      <c r="E164" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="O163" s="1"/>
+    </row>
+    <row r="164" spans="6:15">
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
-      <c r="K164" s="1"/>
-      <c r="N164" s="1"/>
-    </row>
-    <row r="165" spans="5:14">
-      <c r="E165" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="O164" s="1"/>
+    </row>
+    <row r="165" spans="6:15">
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
-      <c r="K165" s="1"/>
-      <c r="L165" s="107"/>
-      <c r="N165" s="1"/>
-    </row>
-    <row r="166" spans="5:14">
-      <c r="E166" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="107"/>
+      <c r="O165" s="1"/>
+    </row>
+    <row r="166" spans="6:15">
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
-      <c r="K166" s="1"/>
-      <c r="N166" s="1"/>
-    </row>
-    <row r="167" spans="5:14">
-      <c r="E167" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="O166" s="1"/>
+    </row>
+    <row r="167" spans="6:15">
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
-      <c r="K167" s="1"/>
-      <c r="N167" s="1"/>
-    </row>
-    <row r="168" spans="5:14">
-      <c r="E168" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="O167" s="1"/>
+    </row>
+    <row r="168" spans="6:15">
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
-      <c r="K168" s="1"/>
-      <c r="N168" s="1"/>
-    </row>
-    <row r="169" spans="5:14">
-      <c r="E169" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="O168" s="1"/>
+    </row>
+    <row r="169" spans="6:15">
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
-      <c r="K169" s="1"/>
-      <c r="N169" s="1"/>
-    </row>
-    <row r="170" spans="5:14">
-      <c r="E170" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="O169" s="1"/>
+    </row>
+    <row r="170" spans="6:15">
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
-      <c r="K170" s="1"/>
-      <c r="N170" s="1"/>
-    </row>
-    <row r="171" spans="5:14">
-      <c r="E171" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="O170" s="1"/>
+    </row>
+    <row r="171" spans="6:15">
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
-      <c r="K171" s="1"/>
-      <c r="N171" s="1"/>
-    </row>
-    <row r="172" spans="5:14">
-      <c r="E172" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="O171" s="1"/>
+    </row>
+    <row r="172" spans="6:15">
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
-      <c r="K172" s="1"/>
-      <c r="L172" s="107"/>
-      <c r="N172" s="1"/>
-    </row>
-    <row r="173" spans="5:14">
-      <c r="E173" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="107"/>
+      <c r="O172" s="1"/>
+    </row>
+    <row r="173" spans="6:15">
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
-      <c r="K173" s="1"/>
-      <c r="L173" s="107"/>
-      <c r="N173" s="1"/>
-    </row>
-    <row r="174" spans="5:14">
-      <c r="E174" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="107"/>
+      <c r="O173" s="1"/>
+    </row>
+    <row r="174" spans="6:15">
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
-      <c r="K174" s="1"/>
-      <c r="L174" s="41"/>
-      <c r="N174" s="1"/>
-    </row>
-    <row r="175" spans="5:14">
-      <c r="E175" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="41"/>
+      <c r="O174" s="1"/>
+    </row>
+    <row r="175" spans="6:15">
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
-      <c r="K175" s="1"/>
-      <c r="L175" s="41"/>
-      <c r="N175" s="1"/>
-    </row>
-    <row r="176" spans="5:14">
-      <c r="E176" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="41"/>
+      <c r="O175" s="1"/>
+    </row>
+    <row r="176" spans="6:15">
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
-      <c r="K176" s="1"/>
-      <c r="L176" s="41"/>
-      <c r="N176" s="1"/>
-    </row>
-    <row r="177" spans="4:14">
-      <c r="E177" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="41"/>
+      <c r="O176" s="1"/>
+    </row>
+    <row r="177" spans="4:15">
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
-      <c r="K177" s="1"/>
-      <c r="L177" s="41"/>
-      <c r="N177" s="1"/>
-    </row>
-    <row r="178" spans="4:14">
-      <c r="E178" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="41"/>
+      <c r="O177" s="1"/>
+    </row>
+    <row r="178" spans="4:15">
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
-      <c r="K178" s="1"/>
-      <c r="L178" s="41"/>
-      <c r="N178" s="1"/>
-    </row>
-    <row r="179" spans="4:14">
-      <c r="E179" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="41"/>
+      <c r="O178" s="1"/>
+    </row>
+    <row r="179" spans="4:15">
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="41"/>
-      <c r="N179" s="1"/>
-    </row>
-    <row r="180" spans="4:14">
-      <c r="E180" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="41"/>
+      <c r="O179" s="1"/>
+    </row>
+    <row r="180" spans="4:15">
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="41"/>
-      <c r="N180" s="1"/>
-    </row>
-    <row r="181" spans="4:14">
-      <c r="E181" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="41"/>
+      <c r="O180" s="1"/>
+    </row>
+    <row r="181" spans="4:15">
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
-      <c r="K181" s="1"/>
-      <c r="N181" s="1"/>
-    </row>
-    <row r="182" spans="4:14">
-      <c r="E182" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="O181" s="1"/>
+    </row>
+    <row r="182" spans="4:15">
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
-      <c r="K182" s="1"/>
-      <c r="N182" s="1"/>
-    </row>
-    <row r="183" spans="4:14">
-      <c r="E183" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="O182" s="1"/>
+    </row>
+    <row r="183" spans="4:15">
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
-      <c r="K183" s="1"/>
-      <c r="N183" s="1"/>
-    </row>
-    <row r="184" spans="4:14">
-      <c r="E184" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="O183" s="1"/>
+    </row>
+    <row r="184" spans="4:15">
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
-      <c r="K184" s="1"/>
-      <c r="N184" s="1"/>
-    </row>
-    <row r="185" spans="4:14">
-      <c r="E185" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="O184" s="1"/>
+    </row>
+    <row r="185" spans="4:15">
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
-      <c r="K185" s="1"/>
-      <c r="N185" s="1"/>
-    </row>
-    <row r="186" spans="4:14">
-      <c r="E186" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="O185" s="1"/>
+    </row>
+    <row r="186" spans="4:15">
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
-      <c r="K186" s="1"/>
-      <c r="N186" s="1"/>
-    </row>
-    <row r="187" spans="4:14">
+      <c r="H186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="O186" s="1"/>
+    </row>
+    <row r="187" spans="4:15">
       <c r="D187" s="108"/>
-      <c r="E187" s="1"/>
+      <c r="E187" s="108"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
-      <c r="K187" s="1"/>
-      <c r="N187" s="1"/>
-    </row>
-    <row r="188" spans="4:14">
+      <c r="H187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="O187" s="1"/>
+    </row>
+    <row r="188" spans="4:15">
       <c r="D188" s="108"/>
-      <c r="E188" s="1"/>
+      <c r="E188" s="108"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
-      <c r="K188" s="1"/>
-      <c r="N188" s="1"/>
-    </row>
-    <row r="189" spans="4:14">
+      <c r="H188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="O188" s="1"/>
+    </row>
+    <row r="189" spans="4:15">
       <c r="D189" s="108"/>
-      <c r="E189" s="1"/>
+      <c r="E189" s="108"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
-      <c r="K189" s="1"/>
-      <c r="N189" s="1"/>
-    </row>
-    <row r="190" spans="4:14">
+      <c r="H189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="O189" s="1"/>
+    </row>
+    <row r="190" spans="4:15">
       <c r="D190" s="108"/>
-      <c r="E190" s="1"/>
+      <c r="E190" s="108"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
-      <c r="K190" s="1"/>
-      <c r="N190" s="1"/>
-    </row>
-    <row r="191" spans="4:14">
+      <c r="H190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="O190" s="1"/>
+    </row>
+    <row r="191" spans="4:15">
       <c r="D191" s="108"/>
-      <c r="E191" s="1"/>
+      <c r="E191" s="108"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
-      <c r="K191" s="1"/>
-      <c r="N191" s="1"/>
-    </row>
-    <row r="192" spans="4:14">
+      <c r="H191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="O191" s="1"/>
+    </row>
+    <row r="192" spans="4:15">
       <c r="D192" s="108"/>
-      <c r="E192" s="1"/>
+      <c r="E192" s="108"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
-      <c r="K192" s="1"/>
-      <c r="N192" s="1"/>
-    </row>
-    <row r="193" spans="3:14">
+      <c r="H192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="O192" s="1"/>
+    </row>
+    <row r="193" spans="3:15">
       <c r="D193" s="108"/>
-      <c r="E193" s="1"/>
+      <c r="E193" s="108"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
-      <c r="K193" s="1"/>
-      <c r="N193" s="1"/>
-    </row>
-    <row r="194" spans="3:14">
+      <c r="H193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="O193" s="1"/>
+    </row>
+    <row r="194" spans="3:15">
       <c r="C194" s="36"/>
       <c r="D194" s="108"/>
-      <c r="E194" s="1"/>
+      <c r="E194" s="108"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
-      <c r="K194" s="1"/>
-      <c r="L194" s="107"/>
-      <c r="N194" s="1"/>
-    </row>
-    <row r="195" spans="3:14">
-      <c r="E195" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="107"/>
+      <c r="O194" s="1"/>
+    </row>
+    <row r="195" spans="3:15">
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
-      <c r="K195" s="1"/>
-      <c r="L195" s="141"/>
-      <c r="N195" s="1"/>
-    </row>
-    <row r="196" spans="3:14">
-      <c r="E196" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="141"/>
+      <c r="O195" s="1"/>
+    </row>
+    <row r="196" spans="3:15">
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
-      <c r="K196" s="1"/>
-      <c r="N196" s="1"/>
-    </row>
-    <row r="197" spans="3:14">
-      <c r="E197" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="O196" s="1"/>
+    </row>
+    <row r="197" spans="3:15">
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
-      <c r="H197" s="201"/>
-      <c r="K197" s="1"/>
-      <c r="N197" s="1"/>
-    </row>
-    <row r="198" spans="3:14">
-      <c r="E198" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="201"/>
+      <c r="L197" s="1"/>
+      <c r="O197" s="1"/>
+    </row>
+    <row r="198" spans="3:15">
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
-      <c r="K198" s="1"/>
-      <c r="N198" s="1"/>
-    </row>
-    <row r="199" spans="3:14">
-      <c r="E199" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="O198" s="1"/>
+    </row>
+    <row r="199" spans="3:15">
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
-      <c r="K199" s="1"/>
-      <c r="N199" s="1"/>
-    </row>
-    <row r="200" spans="3:14">
-      <c r="E200" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="O199" s="1"/>
+    </row>
+    <row r="200" spans="3:15">
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
-      <c r="K200" s="1"/>
-      <c r="N200" s="1"/>
-    </row>
-    <row r="201" spans="3:14">
-      <c r="E201" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="O200" s="1"/>
+    </row>
+    <row r="201" spans="3:15">
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
-      <c r="K201" s="1"/>
-      <c r="N201" s="1"/>
-    </row>
-    <row r="202" spans="3:14">
-      <c r="E202" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="O201" s="1"/>
+    </row>
+    <row r="202" spans="3:15">
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
-      <c r="K202" s="1"/>
-      <c r="N202" s="1"/>
-    </row>
-    <row r="203" spans="3:14">
-      <c r="E203" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="O202" s="1"/>
+    </row>
+    <row r="203" spans="3:15">
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
-      <c r="K203" s="1"/>
-      <c r="N203" s="1"/>
-    </row>
-    <row r="204" spans="3:14">
-      <c r="E204" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="O203" s="1"/>
+    </row>
+    <row r="204" spans="3:15">
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
-      <c r="K204" s="1"/>
-      <c r="L204" s="107"/>
-      <c r="N204" s="1"/>
-    </row>
-    <row r="205" spans="3:14">
+      <c r="H204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="107"/>
+      <c r="O204" s="1"/>
+    </row>
+    <row r="205" spans="3:15">
       <c r="C205" s="36"/>
-      <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
-      <c r="K205" s="1"/>
-      <c r="L205" s="107"/>
-      <c r="N205" s="1"/>
-    </row>
-    <row r="206" spans="3:14">
+      <c r="H205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="107"/>
+      <c r="O205" s="1"/>
+    </row>
+    <row r="206" spans="3:15">
       <c r="C206" s="36"/>
-      <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
-      <c r="I206" s="36"/>
+      <c r="H206" s="1"/>
       <c r="J206" s="36"/>
-      <c r="K206" s="1"/>
-      <c r="L206" s="107"/>
-      <c r="N206" s="1"/>
-    </row>
-    <row r="207" spans="3:14">
+      <c r="K206" s="36"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="107"/>
+      <c r="O206" s="1"/>
+    </row>
+    <row r="207" spans="3:15">
       <c r="C207" s="36"/>
-      <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
-      <c r="K207" s="1"/>
-      <c r="L207" s="107"/>
-      <c r="N207" s="1"/>
-    </row>
-    <row r="208" spans="3:14">
+      <c r="H207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="107"/>
+      <c r="O207" s="1"/>
+    </row>
+    <row r="208" spans="3:15">
       <c r="C208" s="36"/>
-      <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
-      <c r="K208" s="1"/>
-      <c r="L208" s="107"/>
-      <c r="N208" s="1"/>
-    </row>
-    <row r="209" spans="2:14">
+      <c r="H208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="107"/>
+      <c r="O208" s="1"/>
+    </row>
+    <row r="209" spans="2:15">
       <c r="C209" s="36"/>
-      <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
-      <c r="K209" s="1"/>
-      <c r="L209" s="107"/>
-      <c r="N209" s="1"/>
-    </row>
-    <row r="210" spans="2:14">
+      <c r="H209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="107"/>
+      <c r="O209" s="1"/>
+    </row>
+    <row r="210" spans="2:15">
       <c r="C210" s="36"/>
-      <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
-      <c r="I210" s="36"/>
+      <c r="H210" s="1"/>
       <c r="J210" s="36"/>
-      <c r="K210" s="1"/>
-      <c r="L210" s="107"/>
-      <c r="N210" s="1"/>
-    </row>
-    <row r="211" spans="2:14">
+      <c r="K210" s="36"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="107"/>
+      <c r="O210" s="1"/>
+    </row>
+    <row r="211" spans="2:15">
       <c r="C211" s="36"/>
-      <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
-      <c r="I211" s="36"/>
+      <c r="H211" s="1"/>
       <c r="J211" s="36"/>
-      <c r="K211" s="1"/>
-      <c r="L211" s="107"/>
-      <c r="N211" s="1"/>
-    </row>
-    <row r="212" spans="2:14">
-      <c r="E212" s="1"/>
+      <c r="K211" s="36"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="107"/>
+      <c r="O211" s="1"/>
+    </row>
+    <row r="212" spans="2:15">
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
-      <c r="K212" s="1"/>
-      <c r="N212" s="1"/>
-    </row>
-    <row r="213" spans="2:14">
+      <c r="H212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="O212" s="1"/>
+    </row>
+    <row r="213" spans="2:15">
       <c r="C213" s="36"/>
       <c r="D213" s="108"/>
-      <c r="E213" s="1"/>
+      <c r="E213" s="108"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
-      <c r="K213" s="1"/>
-      <c r="N213" s="1"/>
-    </row>
-    <row r="214" spans="2:14">
+      <c r="H213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="O213" s="1"/>
+    </row>
+    <row r="214" spans="2:15">
       <c r="D214" s="108"/>
-      <c r="E214" s="1"/>
+      <c r="E214" s="108"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
-      <c r="K214" s="1"/>
-      <c r="N214" s="1"/>
-    </row>
-    <row r="215" spans="2:14">
+      <c r="H214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="O214" s="1"/>
+    </row>
+    <row r="215" spans="2:15">
       <c r="D215" s="108"/>
-      <c r="E215" s="1"/>
+      <c r="E215" s="108"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
-      <c r="K215" s="1"/>
-      <c r="N215" s="1"/>
-    </row>
-    <row r="216" spans="2:14">
+      <c r="H215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="O215" s="1"/>
+    </row>
+    <row r="216" spans="2:15">
       <c r="D216" s="108"/>
-      <c r="E216" s="1"/>
+      <c r="E216" s="108"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
-      <c r="K216" s="1"/>
-      <c r="N216" s="1"/>
-    </row>
-    <row r="217" spans="2:14">
+      <c r="H216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="O216" s="1"/>
+    </row>
+    <row r="217" spans="2:15">
       <c r="D217" s="108"/>
-      <c r="E217" s="1"/>
+      <c r="E217" s="108"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
-      <c r="K217" s="1"/>
-      <c r="N217" s="1"/>
-    </row>
-    <row r="218" spans="2:14">
+      <c r="H217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="O217" s="1"/>
+    </row>
+    <row r="218" spans="2:15">
       <c r="D218" s="108"/>
-      <c r="E218" s="1"/>
+      <c r="E218" s="108"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
-      <c r="K218" s="1"/>
-      <c r="L218" s="107"/>
-      <c r="N218" s="1"/>
-    </row>
-    <row r="219" spans="2:14">
+      <c r="H218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="107"/>
+      <c r="O218" s="1"/>
+    </row>
+    <row r="219" spans="2:15">
       <c r="D219" s="108"/>
-      <c r="E219" s="1"/>
+      <c r="E219" s="108"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
-      <c r="K219" s="1"/>
-      <c r="N219" s="1"/>
-    </row>
-    <row r="220" spans="2:14">
+      <c r="H219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="O219" s="1"/>
+    </row>
+    <row r="220" spans="2:15">
       <c r="D220" s="108"/>
-      <c r="E220" s="1"/>
+      <c r="E220" s="108"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
-      <c r="K220" s="1"/>
-      <c r="L220" s="107"/>
-      <c r="N220" s="1"/>
-    </row>
-    <row r="221" spans="2:14">
+      <c r="H220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="107"/>
+      <c r="O220" s="1"/>
+    </row>
+    <row r="221" spans="2:15">
       <c r="B221" s="36"/>
       <c r="C221" s="36"/>
-      <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
-      <c r="K221" s="1"/>
-      <c r="N221" s="1"/>
-    </row>
-    <row r="222" spans="2:14">
+      <c r="H221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="O221" s="1"/>
+    </row>
+    <row r="222" spans="2:15">
       <c r="B222" s="36"/>
       <c r="C222" s="36"/>
-      <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
-      <c r="K222" s="1"/>
-      <c r="N222" s="1"/>
-    </row>
-    <row r="223" spans="2:14">
-      <c r="E223" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="O222" s="1"/>
+    </row>
+    <row r="223" spans="2:15">
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
-      <c r="K223" s="1"/>
-      <c r="N223" s="1"/>
-    </row>
-    <row r="224" spans="2:14">
-      <c r="E224" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="O223" s="1"/>
+    </row>
+    <row r="224" spans="2:15">
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
-      <c r="K224" s="1"/>
-      <c r="L224" s="107"/>
-      <c r="N224" s="1"/>
-    </row>
-    <row r="225" spans="3:14">
-      <c r="E225" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="107"/>
+      <c r="O224" s="1"/>
+    </row>
+    <row r="225" spans="3:15">
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
-      <c r="K225" s="1"/>
-      <c r="N225" s="1"/>
-    </row>
-    <row r="226" spans="3:14">
-      <c r="E226" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="O225" s="1"/>
+    </row>
+    <row r="226" spans="3:15">
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
-      <c r="K226" s="1"/>
-      <c r="N226" s="1"/>
-    </row>
-    <row r="227" spans="3:14">
-      <c r="E227" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="O226" s="1"/>
+    </row>
+    <row r="227" spans="3:15">
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
-      <c r="K227" s="1"/>
-      <c r="N227" s="1"/>
-    </row>
-    <row r="228" spans="3:14">
-      <c r="E228" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="O227" s="1"/>
+    </row>
+    <row r="228" spans="3:15">
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
-      <c r="K228" s="1"/>
-      <c r="N228" s="1"/>
-    </row>
-    <row r="229" spans="3:14">
-      <c r="E229" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="O228" s="1"/>
+    </row>
+    <row r="229" spans="3:15">
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
-      <c r="K229" s="1"/>
-      <c r="N229" s="1"/>
-    </row>
-    <row r="230" spans="3:14">
-      <c r="E230" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="O229" s="1"/>
+    </row>
+    <row r="230" spans="3:15">
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
-      <c r="K230" s="1"/>
-      <c r="N230" s="1"/>
-    </row>
-    <row r="231" spans="3:14">
-      <c r="E231" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="O230" s="1"/>
+    </row>
+    <row r="231" spans="3:15">
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
-      <c r="K231" s="1"/>
-      <c r="N231" s="1"/>
-    </row>
-    <row r="232" spans="3:14">
-      <c r="E232" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="O231" s="1"/>
+    </row>
+    <row r="232" spans="3:15">
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
-      <c r="H232" s="36"/>
+      <c r="H232" s="1"/>
       <c r="I232" s="36"/>
       <c r="J232" s="36"/>
-      <c r="K232" s="1"/>
-      <c r="N232" s="1"/>
-    </row>
-    <row r="233" spans="3:14">
-      <c r="E233" s="1"/>
+      <c r="K232" s="36"/>
+      <c r="L232" s="1"/>
+      <c r="O232" s="1"/>
+    </row>
+    <row r="233" spans="3:15">
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
-      <c r="H233" s="36"/>
+      <c r="H233" s="1"/>
       <c r="I233" s="36"/>
       <c r="J233" s="36"/>
-      <c r="K233" s="1"/>
-      <c r="N233" s="1"/>
-    </row>
-    <row r="234" spans="3:14">
-      <c r="E234" s="1"/>
+      <c r="K233" s="36"/>
+      <c r="L233" s="1"/>
+      <c r="O233" s="1"/>
+    </row>
+    <row r="234" spans="3:15">
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
-      <c r="H234" s="36"/>
+      <c r="H234" s="1"/>
       <c r="I234" s="36"/>
       <c r="J234" s="36"/>
-      <c r="K234" s="1"/>
-      <c r="N234" s="1"/>
-    </row>
-    <row r="235" spans="3:14">
-      <c r="E235" s="1"/>
+      <c r="K234" s="36"/>
+      <c r="L234" s="1"/>
+      <c r="O234" s="1"/>
+    </row>
+    <row r="235" spans="3:15">
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
-      <c r="H235" s="36"/>
+      <c r="H235" s="1"/>
       <c r="I235" s="36"/>
       <c r="J235" s="36"/>
-      <c r="K235" s="1"/>
-      <c r="N235" s="1"/>
-    </row>
-    <row r="236" spans="3:14">
+      <c r="K235" s="36"/>
+      <c r="L235" s="1"/>
+      <c r="O235" s="1"/>
+    </row>
+    <row r="236" spans="3:15">
       <c r="C236" s="36"/>
-      <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
-      <c r="H236" s="36"/>
+      <c r="H236" s="1"/>
       <c r="I236" s="36"/>
       <c r="J236" s="36"/>
-      <c r="K236" s="1"/>
-      <c r="N236" s="1"/>
-    </row>
-    <row r="237" spans="3:14">
+      <c r="K236" s="36"/>
+      <c r="L236" s="1"/>
+      <c r="O236" s="1"/>
+    </row>
+    <row r="237" spans="3:15">
       <c r="C237" s="36"/>
-      <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
-      <c r="H237" s="36"/>
+      <c r="H237" s="1"/>
       <c r="I237" s="36"/>
       <c r="J237" s="36"/>
-      <c r="K237" s="1"/>
-      <c r="N237" s="1"/>
-    </row>
-    <row r="238" spans="3:14">
+      <c r="K237" s="36"/>
+      <c r="L237" s="1"/>
+      <c r="O237" s="1"/>
+    </row>
+    <row r="238" spans="3:15">
       <c r="C238" s="36"/>
-      <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
-      <c r="H238" s="36"/>
+      <c r="H238" s="1"/>
       <c r="I238" s="36"/>
       <c r="J238" s="36"/>
-      <c r="K238" s="1"/>
-      <c r="N238" s="1"/>
-    </row>
-    <row r="239" spans="3:14">
+      <c r="K238" s="36"/>
+      <c r="L238" s="1"/>
+      <c r="O238" s="1"/>
+    </row>
+    <row r="239" spans="3:15">
       <c r="C239" s="36"/>
-      <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
-      <c r="H239" s="36"/>
+      <c r="H239" s="1"/>
       <c r="I239" s="36"/>
       <c r="J239" s="36"/>
-      <c r="K239" s="1"/>
-      <c r="N239" s="1"/>
-    </row>
-    <row r="240" spans="3:14">
-      <c r="E240" s="1"/>
+      <c r="K239" s="36"/>
+      <c r="L239" s="1"/>
+      <c r="O239" s="1"/>
+    </row>
+    <row r="240" spans="3:15">
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
-      <c r="K240" s="1"/>
-      <c r="L240" s="107"/>
-      <c r="N240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="107"/>
+      <c r="O240" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:P231" xr:uid="{93D30021-67EF-EE48-BE7B-4A9D77B3B997}"/>
+  <autoFilter ref="A3:Q231" xr:uid="{93D30021-67EF-EE48-BE7B-4A9D77B3B997}"/>
   <phoneticPr fontId="49" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/ccd-template.xlsx
+++ b/data/ccd-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\fergusoshea\et-ccd-definitions-scotland\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judgem\Documents\Scotland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D94A644-74A8-4525-B792-062E16CF6250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9474332B-A8A5-44AD-AB4C-139D012E58CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2895" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4470" yWindow="-21720" windowWidth="38640" windowHeight="21240" tabRatio="855" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CaseRoles" sheetId="30" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">AuthorisationCaseField!$A$1:$D$517</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">AuthorisationCaseState!$A$3:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CaseEvent!$A$3:$Z$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">CaseEventToFields!$A$3:$P$231</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">CaseEventToFields!$A$3:$Q$231</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">CaseField!$A$3:$U$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CaseRoles!$A$3:$F$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CaseTypeTab!$A$3:$P$54</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="354">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -2910,17 +2910,17 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="133" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="133" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="133" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" style="133" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="133" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="133" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" style="133" customWidth="1"/>
-    <col min="8" max="1025" width="8.85546875" style="133" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="133"/>
+    <col min="1" max="1" width="16.1796875" style="133" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="133" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" style="133" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" style="133" customWidth="1"/>
+    <col min="5" max="5" width="26.81640625" style="133" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" style="133" customWidth="1"/>
+    <col min="7" max="7" width="24.453125" style="133" customWidth="1"/>
+    <col min="8" max="1025" width="8.81640625" style="133" customWidth="1"/>
+    <col min="1026" max="16384" width="8.81640625" style="133"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1">
@@ -2939,7 +2939,7 @@
       <c r="E1" s="240"/>
       <c r="F1" s="240"/>
     </row>
-    <row r="2" spans="1:6" s="236" customFormat="1" ht="38.25">
+    <row r="2" spans="1:6" s="236" customFormat="1" ht="39">
       <c r="A2" s="239" t="s">
         <v>4</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.7" customHeight="1">
+    <row r="3" spans="1:6" ht="13.75" customHeight="1">
       <c r="A3" s="233" t="s">
         <v>9</v>
       </c>
@@ -2979,28 +2979,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.7" customHeight="1">
+    <row r="4" spans="1:6" ht="13.75" customHeight="1">
       <c r="A4" s="232"/>
       <c r="B4" s="232"/>
     </row>
-    <row r="5" spans="1:6" ht="13.7" customHeight="1">
+    <row r="5" spans="1:6" ht="13.75" customHeight="1">
       <c r="A5" s="232"/>
       <c r="B5" s="232"/>
     </row>
-    <row r="6" spans="1:6" ht="13.7" customHeight="1">
+    <row r="6" spans="1:6" ht="13.75" customHeight="1">
       <c r="A6" s="232"/>
       <c r="B6" s="232"/>
     </row>
-    <row r="7" spans="1:6" ht="13.7" customHeight="1">
+    <row r="7" spans="1:6" ht="13.75" customHeight="1">
       <c r="A7" s="232"/>
       <c r="B7" s="232"/>
     </row>
-    <row r="8" spans="1:6" ht="13.7" customHeight="1">
+    <row r="8" spans="1:6" ht="13.75" customHeight="1">
       <c r="A8" s="232"/>
       <c r="B8" s="232"/>
     </row>
-    <row r="9" spans="1:6" ht="13.7" customHeight="1"/>
-    <row r="10" spans="1:6" ht="13.7" customHeight="1"/>
+    <row r="9" spans="1:6" ht="13.75" customHeight="1"/>
+    <row r="10" spans="1:6" ht="13.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3018,26 +3018,26 @@
       <selection activeCell="A4" sqref="A4:XFD559"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="52" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="21.7265625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" style="41" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="53" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="53" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" style="53" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" style="53" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" customWidth="1"/>
+    <col min="13" max="13" width="17.7265625" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="28.28515625" customWidth="1"/>
-    <col min="16" max="23" width="6.28515625" customWidth="1"/>
-    <col min="24" max="1023" width="8.28515625" customWidth="1"/>
-    <col min="1024" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="15" max="15" width="28.26953125" customWidth="1"/>
+    <col min="16" max="23" width="6.26953125" customWidth="1"/>
+    <col min="24" max="1023" width="8.26953125" customWidth="1"/>
+    <col min="1024" max="1025" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" customHeight="1">
@@ -3157,35 +3157,35 @@
       <c r="V3" s="51"/>
       <c r="W3" s="51"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" ht="12.5">
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="I4"/>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" ht="12.5">
       <c r="E5"/>
       <c r="F5" s="108"/>
       <c r="G5"/>
       <c r="I5"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" ht="12.5">
       <c r="E6"/>
       <c r="F6" s="108"/>
       <c r="G6"/>
       <c r="I6"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" ht="12.5">
       <c r="E7"/>
       <c r="F7" s="108"/>
       <c r="G7"/>
       <c r="I7"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" ht="12.5">
       <c r="E8"/>
       <c r="F8" s="108"/>
       <c r="G8"/>
@@ -3204,7 +3204,7 @@
       <c r="I9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" ht="12.5">
       <c r="A10" s="108"/>
       <c r="E10"/>
       <c r="F10" s="108"/>
@@ -3212,14 +3212,14 @@
       <c r="I10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" ht="12.5">
       <c r="E11"/>
       <c r="F11" s="108"/>
       <c r="G11"/>
       <c r="I11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" ht="12.5">
       <c r="A12" s="108"/>
       <c r="E12"/>
       <c r="F12" s="108"/>
@@ -3227,7 +3227,7 @@
       <c r="I12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" ht="12.5">
       <c r="A13" s="108"/>
       <c r="E13"/>
       <c r="F13" s="108"/>
@@ -3247,7 +3247,7 @@
       <c r="I14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" ht="12.5">
       <c r="A15" s="108"/>
       <c r="E15"/>
       <c r="F15" s="108"/>
@@ -3255,7 +3255,7 @@
       <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" ht="12.5">
       <c r="A16" s="108"/>
       <c r="E16"/>
       <c r="F16" s="108"/>
@@ -3263,7 +3263,7 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" ht="12.5">
       <c r="A17" s="108"/>
       <c r="E17"/>
       <c r="F17" s="108"/>
@@ -3271,7 +3271,7 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="12.5">
       <c r="A18" s="108"/>
       <c r="E18"/>
       <c r="F18" s="108"/>
@@ -3279,7 +3279,7 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="12.5">
       <c r="A19" s="108"/>
       <c r="E19"/>
       <c r="F19" s="108"/>
@@ -3287,7 +3287,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="12.5">
       <c r="A20" s="108"/>
       <c r="E20"/>
       <c r="F20" s="108"/>
@@ -3295,7 +3295,7 @@
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="12.5">
       <c r="A21" s="108"/>
       <c r="E21"/>
       <c r="F21" s="108"/>
@@ -3315,7 +3315,7 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" ht="12.5">
       <c r="A23" s="108"/>
       <c r="E23"/>
       <c r="F23" s="108"/>
@@ -3335,7 +3335,7 @@
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" ht="12.5">
       <c r="A25" s="108"/>
       <c r="E25"/>
       <c r="F25" s="108"/>
@@ -3355,7 +3355,7 @@
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" ht="12.5">
       <c r="A27" s="108"/>
       <c r="E27"/>
       <c r="F27" s="108"/>
@@ -3363,7 +3363,7 @@
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" ht="12.5">
       <c r="A28" s="108"/>
       <c r="E28"/>
       <c r="F28" s="108"/>
@@ -3371,7 +3371,7 @@
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="12.5">
       <c r="A29" s="108"/>
       <c r="E29"/>
       <c r="F29" s="108"/>
@@ -3379,42 +3379,42 @@
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" ht="12.5">
       <c r="E30"/>
       <c r="F30" s="108"/>
       <c r="G30" s="36"/>
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" ht="12.5">
       <c r="E31"/>
       <c r="F31" s="108"/>
       <c r="G31" s="36"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" ht="12.5">
       <c r="E32"/>
       <c r="F32" s="108"/>
       <c r="G32" s="36"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" ht="12.5">
       <c r="E33"/>
       <c r="F33" s="108"/>
       <c r="G33" s="36"/>
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" ht="12.5">
       <c r="E34"/>
       <c r="F34" s="108"/>
       <c r="G34" s="36"/>
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" ht="12.5">
       <c r="E35"/>
       <c r="F35" s="108"/>
       <c r="G35" s="36"/>
@@ -3433,7 +3433,7 @@
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" ht="12.5">
       <c r="A37" s="108"/>
       <c r="E37"/>
       <c r="F37" s="108"/>
@@ -3441,14 +3441,14 @@
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" ht="12.5">
       <c r="E38"/>
       <c r="F38" s="108"/>
       <c r="G38" s="36"/>
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" ht="12.5">
       <c r="D39" s="36"/>
       <c r="E39"/>
       <c r="F39" s="108"/>
@@ -3456,77 +3456,77 @@
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" ht="12.5">
       <c r="E40"/>
       <c r="F40" s="108"/>
       <c r="G40" s="36"/>
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" ht="12.5">
       <c r="E41"/>
       <c r="F41" s="108"/>
       <c r="G41" s="36"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" ht="12.5">
       <c r="E42"/>
       <c r="F42" s="108"/>
       <c r="G42" s="36"/>
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" ht="12.5">
       <c r="E43"/>
       <c r="F43" s="108"/>
       <c r="G43" s="36"/>
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" ht="12.5">
       <c r="E44"/>
       <c r="F44" s="108"/>
       <c r="G44" s="36"/>
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" ht="12.5">
       <c r="E45"/>
       <c r="F45" s="108"/>
       <c r="G45" s="36"/>
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" ht="12.5">
       <c r="E46"/>
       <c r="F46" s="108"/>
       <c r="G46" s="36"/>
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" ht="12.5">
       <c r="E47"/>
       <c r="F47" s="108"/>
       <c r="G47" s="36"/>
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" ht="12.5">
       <c r="E48"/>
       <c r="F48" s="108"/>
       <c r="G48" s="36"/>
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="5:10">
+    <row r="49" spans="5:10" ht="12.5">
       <c r="E49"/>
       <c r="F49" s="108"/>
       <c r="G49" s="36"/>
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="5:10">
+    <row r="50" spans="5:10" ht="12.5">
       <c r="E50"/>
       <c r="F50" s="108"/>
       <c r="G50" s="36"/>
@@ -3547,112 +3547,112 @@
       <c r="G53" s="36"/>
       <c r="H53" s="55"/>
     </row>
-    <row r="54" spans="5:10">
+    <row r="54" spans="5:10" ht="12.5">
       <c r="E54"/>
       <c r="F54" s="108"/>
       <c r="G54" s="36"/>
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="5:10">
+    <row r="55" spans="5:10" ht="12.5">
       <c r="E55"/>
       <c r="F55" s="108"/>
       <c r="G55" s="36"/>
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="5:10">
+    <row r="56" spans="5:10" ht="12.5">
       <c r="E56"/>
       <c r="F56" s="108"/>
       <c r="G56" s="36"/>
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="5:10">
+    <row r="57" spans="5:10" ht="12.5">
       <c r="E57"/>
       <c r="F57" s="108"/>
       <c r="G57" s="36"/>
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="5:10">
+    <row r="58" spans="5:10" ht="12.5">
       <c r="E58"/>
       <c r="F58" s="108"/>
       <c r="G58" s="36"/>
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="5:10">
+    <row r="59" spans="5:10" ht="12.5">
       <c r="E59"/>
       <c r="F59" s="108"/>
       <c r="G59" s="36"/>
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="5:10">
+    <row r="60" spans="5:10" ht="12.5">
       <c r="E60"/>
       <c r="F60" s="108"/>
       <c r="G60" s="36"/>
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="5:10">
+    <row r="61" spans="5:10" ht="12.5">
       <c r="E61"/>
       <c r="F61" s="108"/>
       <c r="G61" s="36"/>
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="5:10">
+    <row r="62" spans="5:10" ht="12.5">
       <c r="E62"/>
       <c r="F62" s="108"/>
       <c r="G62" s="36"/>
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="5:10">
+    <row r="63" spans="5:10" ht="12.5">
       <c r="E63"/>
       <c r="F63" s="108"/>
       <c r="G63" s="36"/>
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="5:10">
+    <row r="64" spans="5:10" ht="12.5">
       <c r="E64"/>
       <c r="F64" s="108"/>
       <c r="G64" s="36"/>
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" ht="12.5">
       <c r="E65"/>
       <c r="F65" s="108"/>
       <c r="G65" s="36"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" ht="12.5">
       <c r="E66"/>
       <c r="F66" s="108"/>
       <c r="G66" s="36"/>
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" ht="12.5">
       <c r="E67"/>
       <c r="F67" s="108"/>
       <c r="G67" s="36"/>
       <c r="I67"/>
       <c r="J67"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" ht="12.5">
       <c r="E68"/>
       <c r="F68" s="108"/>
       <c r="G68" s="36"/>
       <c r="I68"/>
       <c r="J68"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" ht="12.5">
       <c r="A69" s="56"/>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
@@ -3663,77 +3663,77 @@
       <c r="I69"/>
       <c r="J69"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" ht="12.5">
       <c r="E70" s="108"/>
       <c r="F70" s="108"/>
       <c r="G70" s="36"/>
       <c r="I70"/>
       <c r="J70"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" ht="12.5">
       <c r="E71"/>
       <c r="F71" s="108"/>
       <c r="G71" s="36"/>
       <c r="I71"/>
       <c r="J71"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" ht="12.5">
       <c r="E72"/>
       <c r="F72" s="108"/>
       <c r="G72" s="36"/>
       <c r="I72"/>
       <c r="J72"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" ht="12.5">
       <c r="E73"/>
       <c r="F73" s="108"/>
       <c r="G73" s="36"/>
       <c r="I73"/>
       <c r="J73"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" ht="12.5">
       <c r="E74"/>
       <c r="F74" s="108"/>
       <c r="G74" s="36"/>
       <c r="I74"/>
       <c r="J74"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" ht="12.5">
       <c r="E75"/>
       <c r="F75" s="108"/>
       <c r="G75" s="36"/>
       <c r="I75"/>
       <c r="J75"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" ht="12.5">
       <c r="E76"/>
       <c r="F76" s="108"/>
       <c r="G76" s="36"/>
       <c r="I76"/>
       <c r="J76"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" ht="12.5">
       <c r="E77"/>
       <c r="F77" s="108"/>
       <c r="G77" s="36"/>
       <c r="I77"/>
       <c r="J77"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" ht="12.5">
       <c r="E78"/>
       <c r="F78" s="108"/>
       <c r="G78" s="36"/>
       <c r="I78"/>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" ht="12.5">
       <c r="E79"/>
       <c r="F79" s="108"/>
       <c r="G79" s="36"/>
       <c r="I79"/>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" ht="12.5">
       <c r="E80"/>
       <c r="F80" s="108"/>
       <c r="G80" s="36"/>
@@ -3752,7 +3752,7 @@
       <c r="I81"/>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" ht="12.5">
       <c r="A82" s="108"/>
       <c r="E82"/>
       <c r="F82" s="108"/>
@@ -3760,14 +3760,14 @@
       <c r="I82"/>
       <c r="J82"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" ht="12.5">
       <c r="E83"/>
       <c r="F83" s="108"/>
       <c r="G83" s="36"/>
       <c r="I83"/>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" ht="12.5">
       <c r="E84"/>
       <c r="F84" s="108"/>
       <c r="G84" s="36"/>
@@ -3786,7 +3786,7 @@
       <c r="I85"/>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" ht="12.5">
       <c r="A86" s="108"/>
       <c r="E86"/>
       <c r="F86" s="108"/>
@@ -3794,7 +3794,7 @@
       <c r="I86"/>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" ht="12.5">
       <c r="E87"/>
       <c r="F87" s="108"/>
       <c r="G87" s="36"/>
@@ -3813,7 +3813,7 @@
       <c r="I88"/>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" ht="12.5">
       <c r="A89" s="108"/>
       <c r="E89"/>
       <c r="F89" s="108"/>
@@ -3821,7 +3821,7 @@
       <c r="I89"/>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" ht="12.5">
       <c r="E90"/>
       <c r="F90" s="108"/>
       <c r="G90" s="36"/>
@@ -3888,63 +3888,63 @@
       <c r="I98"/>
       <c r="J98"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" ht="12.5">
       <c r="E99"/>
       <c r="F99" s="108"/>
       <c r="G99" s="36"/>
       <c r="I99"/>
       <c r="J99"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" ht="12.5">
       <c r="E100"/>
       <c r="F100" s="108"/>
       <c r="G100" s="36"/>
       <c r="I100"/>
       <c r="J100"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" ht="12.5">
       <c r="E101"/>
       <c r="F101" s="108"/>
       <c r="G101" s="36"/>
       <c r="I101"/>
       <c r="J101"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" ht="12.5">
       <c r="E102"/>
       <c r="F102" s="108"/>
       <c r="G102" s="36"/>
       <c r="I102"/>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" ht="12.5">
       <c r="E103"/>
       <c r="F103" s="108"/>
       <c r="G103" s="36"/>
       <c r="I103"/>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" ht="12.5">
       <c r="E104"/>
       <c r="F104" s="108"/>
       <c r="G104" s="36"/>
       <c r="I104"/>
       <c r="J104"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" ht="12.5">
       <c r="E105"/>
       <c r="F105" s="108"/>
       <c r="G105" s="36"/>
       <c r="I105"/>
       <c r="J105"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" ht="12.5">
       <c r="E106"/>
       <c r="F106" s="108"/>
       <c r="G106" s="36"/>
       <c r="I106"/>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" ht="12.5">
       <c r="E107"/>
       <c r="F107" s="108"/>
       <c r="G107" s="36"/>
@@ -3963,7 +3963,7 @@
       <c r="I109"/>
       <c r="J109"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" ht="12.5">
       <c r="E110"/>
       <c r="F110" s="108"/>
       <c r="G110" s="36"/>
@@ -3982,49 +3982,49 @@
       <c r="I111"/>
       <c r="J111"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" ht="12.5">
       <c r="E112"/>
       <c r="F112" s="108"/>
       <c r="G112" s="36"/>
       <c r="I112"/>
       <c r="J112"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" ht="12.5">
       <c r="E113"/>
       <c r="F113" s="108"/>
       <c r="G113" s="36"/>
       <c r="I113"/>
       <c r="J113"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" ht="12.5">
       <c r="E114"/>
       <c r="F114" s="108"/>
       <c r="G114" s="36"/>
       <c r="I114"/>
       <c r="J114"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" ht="12.5">
       <c r="E115"/>
       <c r="F115" s="108"/>
       <c r="G115" s="36"/>
       <c r="I115"/>
       <c r="J115"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" ht="12.5">
       <c r="E116"/>
       <c r="F116" s="108"/>
       <c r="G116" s="36"/>
       <c r="I116"/>
       <c r="J116"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" ht="12.5">
       <c r="E117"/>
       <c r="F117" s="108"/>
       <c r="G117" s="36"/>
       <c r="I117"/>
       <c r="J117"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" ht="12.5">
       <c r="E118"/>
       <c r="F118" s="108"/>
       <c r="G118" s="36"/>
@@ -4043,7 +4043,7 @@
       <c r="I119"/>
       <c r="J119"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" ht="12.5">
       <c r="A120" s="108"/>
       <c r="E120"/>
       <c r="F120" s="108"/>
@@ -4051,21 +4051,21 @@
       <c r="I120"/>
       <c r="J120"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" ht="12.5">
       <c r="E121"/>
       <c r="F121" s="108"/>
       <c r="G121" s="36"/>
       <c r="I121"/>
       <c r="J121"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" ht="12.5">
       <c r="E122"/>
       <c r="F122" s="108"/>
       <c r="G122" s="36"/>
       <c r="I122"/>
       <c r="J122"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" ht="12.5">
       <c r="E123"/>
       <c r="F123" s="108"/>
       <c r="G123" s="36"/>
@@ -4091,49 +4091,49 @@
       <c r="I125" s="193"/>
       <c r="J125"/>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" ht="12.5">
       <c r="E126"/>
       <c r="F126" s="36"/>
       <c r="G126" s="36"/>
       <c r="I126"/>
       <c r="J126"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" ht="12.5">
       <c r="E127"/>
       <c r="F127" s="108"/>
       <c r="G127" s="36"/>
       <c r="I127"/>
       <c r="J127"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" ht="12.5">
       <c r="E128"/>
       <c r="F128" s="108"/>
       <c r="G128" s="36"/>
       <c r="I128"/>
       <c r="J128"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" ht="12.5">
       <c r="E129"/>
       <c r="F129" s="108"/>
       <c r="G129" s="36"/>
       <c r="I129"/>
       <c r="J129"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" ht="12.5">
       <c r="E130"/>
       <c r="F130" s="108"/>
       <c r="G130" s="36"/>
       <c r="I130"/>
       <c r="J130"/>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" ht="12.5">
       <c r="E131"/>
       <c r="F131" s="108"/>
       <c r="G131" s="36"/>
       <c r="I131"/>
       <c r="J131"/>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" ht="12.5">
       <c r="E132"/>
       <c r="F132" s="108"/>
       <c r="G132" s="36"/>
@@ -4152,7 +4152,7 @@
       <c r="I133"/>
       <c r="J133"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" ht="12.5">
       <c r="A134" s="108"/>
       <c r="E134"/>
       <c r="F134" s="108"/>
@@ -4160,7 +4160,7 @@
       <c r="I134"/>
       <c r="J134"/>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" ht="12.5">
       <c r="A135" s="108"/>
       <c r="E135"/>
       <c r="F135" s="108"/>
@@ -4168,7 +4168,7 @@
       <c r="I135"/>
       <c r="J135"/>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" ht="12.5">
       <c r="A136" s="108"/>
       <c r="E136"/>
       <c r="F136" s="108"/>
@@ -4188,7 +4188,7 @@
       <c r="I137"/>
       <c r="J137"/>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" ht="12.5">
       <c r="A138" s="108"/>
       <c r="E138"/>
       <c r="F138" s="108"/>
@@ -4196,7 +4196,7 @@
       <c r="I138"/>
       <c r="J138"/>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" ht="12.5">
       <c r="A139" s="108"/>
       <c r="E139"/>
       <c r="F139" s="108"/>
@@ -4204,7 +4204,7 @@
       <c r="I139"/>
       <c r="J139"/>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" ht="12.5">
       <c r="A140" s="108"/>
       <c r="E140"/>
       <c r="F140" s="108"/>
@@ -4212,7 +4212,7 @@
       <c r="I140"/>
       <c r="J140"/>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" ht="12.5">
       <c r="A141" s="108"/>
       <c r="E141"/>
       <c r="F141" s="108"/>
@@ -4220,7 +4220,7 @@
       <c r="I141"/>
       <c r="J141"/>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" ht="12.5">
       <c r="A142" s="108"/>
       <c r="E142"/>
       <c r="F142" s="108"/>
@@ -4228,7 +4228,7 @@
       <c r="I142"/>
       <c r="J142"/>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" ht="12.5">
       <c r="A143" s="108"/>
       <c r="E143"/>
       <c r="F143" s="108"/>
@@ -4236,7 +4236,7 @@
       <c r="I143"/>
       <c r="J143"/>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" ht="12.5">
       <c r="A144" s="108"/>
       <c r="E144"/>
       <c r="F144" s="108"/>
@@ -4244,7 +4244,7 @@
       <c r="I144"/>
       <c r="J144"/>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" ht="12.5">
       <c r="A145" s="108"/>
       <c r="E145"/>
       <c r="F145" s="108"/>
@@ -4252,7 +4252,7 @@
       <c r="I145"/>
       <c r="J145"/>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" ht="12.5">
       <c r="A146" s="108"/>
       <c r="E146"/>
       <c r="F146" s="108"/>
@@ -4272,7 +4272,7 @@
       <c r="I147"/>
       <c r="J147"/>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" ht="12.5">
       <c r="A148" s="108"/>
       <c r="E148"/>
       <c r="F148" s="108"/>
@@ -4280,7 +4280,7 @@
       <c r="I148"/>
       <c r="J148"/>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" ht="12.5">
       <c r="A149" s="108"/>
       <c r="E149"/>
       <c r="F149" s="108"/>
@@ -4288,7 +4288,7 @@
       <c r="I149"/>
       <c r="J149"/>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" ht="12.5">
       <c r="A150" s="108"/>
       <c r="E150"/>
       <c r="F150" s="108"/>
@@ -4332,7 +4332,7 @@
       <c r="I153"/>
       <c r="J153"/>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" ht="12.5">
       <c r="A154" s="108"/>
       <c r="E154"/>
       <c r="F154" s="108"/>
@@ -4340,7 +4340,7 @@
       <c r="I154"/>
       <c r="J154"/>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" ht="12.5">
       <c r="A155" s="108"/>
       <c r="E155"/>
       <c r="F155" s="108"/>
@@ -4360,7 +4360,7 @@
       <c r="I156"/>
       <c r="J156"/>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" ht="12.5">
       <c r="A157" s="108"/>
       <c r="E157"/>
       <c r="F157" s="108"/>
@@ -4368,7 +4368,7 @@
       <c r="I157"/>
       <c r="J157"/>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" ht="12.5">
       <c r="A158" s="108"/>
       <c r="E158"/>
       <c r="F158" s="108"/>
@@ -4388,7 +4388,7 @@
       <c r="I159"/>
       <c r="J159"/>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" ht="12.5">
       <c r="A160" s="108"/>
       <c r="E160"/>
       <c r="F160" s="108"/>
@@ -4408,7 +4408,7 @@
       <c r="I161"/>
       <c r="J161"/>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" ht="12.5">
       <c r="A162" s="108"/>
       <c r="E162"/>
       <c r="F162" s="108"/>
@@ -4416,7 +4416,7 @@
       <c r="I162"/>
       <c r="J162"/>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" ht="12.5">
       <c r="A163" s="108"/>
       <c r="E163"/>
       <c r="F163" s="108"/>
@@ -4424,7 +4424,7 @@
       <c r="I163"/>
       <c r="J163"/>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" ht="12.5">
       <c r="A164" s="108"/>
       <c r="E164"/>
       <c r="F164" s="108"/>
@@ -4432,7 +4432,7 @@
       <c r="I164"/>
       <c r="J164"/>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" ht="12.5">
       <c r="A165" s="108"/>
       <c r="E165"/>
       <c r="F165" s="108"/>
@@ -4452,7 +4452,7 @@
       <c r="I166"/>
       <c r="J166"/>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" ht="12.5">
       <c r="A167" s="108"/>
       <c r="E167"/>
       <c r="F167" s="108"/>
@@ -4460,7 +4460,7 @@
       <c r="I167"/>
       <c r="J167"/>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" ht="12.5">
       <c r="A168" s="108"/>
       <c r="E168"/>
       <c r="F168" s="108"/>
@@ -4468,7 +4468,7 @@
       <c r="I168"/>
       <c r="J168"/>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" ht="12.5">
       <c r="A169" s="108"/>
       <c r="E169"/>
       <c r="F169" s="108"/>
@@ -4476,7 +4476,7 @@
       <c r="I169"/>
       <c r="J169"/>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" ht="12.5">
       <c r="A170" s="108"/>
       <c r="E170"/>
       <c r="F170" s="108"/>
@@ -4484,7 +4484,7 @@
       <c r="I170"/>
       <c r="J170"/>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" ht="12.5">
       <c r="A171" s="108"/>
       <c r="E171"/>
       <c r="F171" s="108"/>
@@ -4504,490 +4504,490 @@
       <c r="I172"/>
       <c r="J172"/>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" ht="12.5">
       <c r="E173"/>
       <c r="F173" s="108"/>
       <c r="G173" s="36"/>
       <c r="I173"/>
       <c r="J173"/>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" ht="12.5">
       <c r="E174"/>
       <c r="F174" s="108"/>
       <c r="G174" s="36"/>
       <c r="I174"/>
       <c r="J174"/>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" ht="12.5">
       <c r="E175"/>
       <c r="F175" s="108"/>
       <c r="G175" s="36"/>
       <c r="I175"/>
       <c r="J175"/>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" ht="12.5">
       <c r="E176"/>
       <c r="F176" s="108"/>
       <c r="G176" s="36"/>
       <c r="I176"/>
       <c r="J176"/>
     </row>
-    <row r="177" spans="5:10">
+    <row r="177" spans="5:10" ht="12.5">
       <c r="E177"/>
       <c r="F177" s="108"/>
       <c r="G177" s="36"/>
       <c r="I177"/>
       <c r="J177"/>
     </row>
-    <row r="178" spans="5:10">
+    <row r="178" spans="5:10" ht="12.5">
       <c r="E178"/>
       <c r="F178" s="108"/>
       <c r="G178" s="36"/>
       <c r="I178"/>
       <c r="J178"/>
     </row>
-    <row r="179" spans="5:10">
+    <row r="179" spans="5:10" ht="12.5">
       <c r="E179"/>
       <c r="F179" s="108"/>
       <c r="G179" s="36"/>
       <c r="I179"/>
       <c r="J179"/>
     </row>
-    <row r="180" spans="5:10">
+    <row r="180" spans="5:10" ht="12.5">
       <c r="E180"/>
       <c r="F180" s="108"/>
       <c r="G180" s="36"/>
       <c r="I180"/>
       <c r="J180"/>
     </row>
-    <row r="181" spans="5:10">
+    <row r="181" spans="5:10" ht="12.5">
       <c r="E181"/>
       <c r="F181" s="108"/>
       <c r="G181" s="36"/>
       <c r="I181"/>
       <c r="J181"/>
     </row>
-    <row r="182" spans="5:10">
+    <row r="182" spans="5:10" ht="12.5">
       <c r="E182"/>
       <c r="F182" s="108"/>
       <c r="G182" s="36"/>
       <c r="I182"/>
       <c r="J182"/>
     </row>
-    <row r="183" spans="5:10">
+    <row r="183" spans="5:10" ht="12.5">
       <c r="E183"/>
       <c r="F183" s="108"/>
       <c r="G183" s="36"/>
       <c r="I183"/>
       <c r="J183"/>
     </row>
-    <row r="184" spans="5:10">
+    <row r="184" spans="5:10" ht="12.5">
       <c r="E184"/>
       <c r="F184" s="108"/>
       <c r="G184" s="36"/>
       <c r="I184"/>
       <c r="J184"/>
     </row>
-    <row r="185" spans="5:10">
+    <row r="185" spans="5:10" ht="12.5">
       <c r="E185"/>
       <c r="F185" s="108"/>
       <c r="G185" s="36"/>
       <c r="I185"/>
       <c r="J185"/>
     </row>
-    <row r="186" spans="5:10">
+    <row r="186" spans="5:10" ht="12.5">
       <c r="E186"/>
       <c r="F186" s="108"/>
       <c r="G186" s="36"/>
       <c r="I186"/>
       <c r="J186"/>
     </row>
-    <row r="187" spans="5:10">
+    <row r="187" spans="5:10" ht="12.5">
       <c r="E187"/>
       <c r="F187" s="108"/>
       <c r="G187" s="36"/>
       <c r="I187"/>
       <c r="J187"/>
     </row>
-    <row r="188" spans="5:10">
+    <row r="188" spans="5:10" ht="12.5">
       <c r="E188"/>
       <c r="F188" s="108"/>
       <c r="G188" s="36"/>
       <c r="I188"/>
       <c r="J188"/>
     </row>
-    <row r="189" spans="5:10">
+    <row r="189" spans="5:10" ht="12.5">
       <c r="E189"/>
       <c r="F189" s="108"/>
       <c r="G189" s="36"/>
       <c r="I189"/>
       <c r="J189"/>
     </row>
-    <row r="190" spans="5:10">
+    <row r="190" spans="5:10" ht="12.5">
       <c r="E190"/>
       <c r="F190" s="108"/>
       <c r="G190" s="36"/>
       <c r="I190"/>
       <c r="J190"/>
     </row>
-    <row r="191" spans="5:10">
+    <row r="191" spans="5:10" ht="12.5">
       <c r="E191"/>
       <c r="F191" s="108"/>
       <c r="G191" s="36"/>
       <c r="I191"/>
       <c r="J191"/>
     </row>
-    <row r="192" spans="5:10">
+    <row r="192" spans="5:10" ht="12.5">
       <c r="E192"/>
       <c r="F192" s="108"/>
       <c r="G192" s="36"/>
       <c r="I192"/>
       <c r="J192"/>
     </row>
-    <row r="193" spans="5:10">
+    <row r="193" spans="5:10" ht="12.5">
       <c r="E193"/>
       <c r="F193" s="108"/>
       <c r="G193" s="36"/>
       <c r="I193"/>
       <c r="J193"/>
     </row>
-    <row r="194" spans="5:10">
+    <row r="194" spans="5:10" ht="12.5">
       <c r="E194"/>
       <c r="F194" s="108"/>
       <c r="G194" s="36"/>
       <c r="I194"/>
       <c r="J194"/>
     </row>
-    <row r="195" spans="5:10">
+    <row r="195" spans="5:10" ht="12.5">
       <c r="E195"/>
       <c r="F195" s="108"/>
       <c r="G195" s="36"/>
       <c r="I195"/>
       <c r="J195"/>
     </row>
-    <row r="196" spans="5:10">
+    <row r="196" spans="5:10" ht="12.5">
       <c r="E196"/>
       <c r="F196" s="108"/>
       <c r="G196" s="36"/>
       <c r="I196"/>
       <c r="J196"/>
     </row>
-    <row r="197" spans="5:10">
+    <row r="197" spans="5:10" ht="12.5">
       <c r="E197"/>
       <c r="F197" s="108"/>
       <c r="G197" s="36"/>
       <c r="I197"/>
       <c r="J197"/>
     </row>
-    <row r="198" spans="5:10">
+    <row r="198" spans="5:10" ht="12.5">
       <c r="E198"/>
       <c r="F198" s="108"/>
       <c r="G198" s="36"/>
       <c r="I198"/>
       <c r="J198"/>
     </row>
-    <row r="199" spans="5:10">
+    <row r="199" spans="5:10" ht="12.5">
       <c r="E199"/>
       <c r="F199" s="108"/>
       <c r="G199" s="36"/>
       <c r="I199"/>
       <c r="J199"/>
     </row>
-    <row r="200" spans="5:10">
+    <row r="200" spans="5:10" ht="12.5">
       <c r="E200"/>
       <c r="F200" s="108"/>
       <c r="G200" s="36"/>
       <c r="I200"/>
       <c r="J200"/>
     </row>
-    <row r="201" spans="5:10">
+    <row r="201" spans="5:10" ht="12.5">
       <c r="E201"/>
       <c r="F201" s="108"/>
       <c r="G201" s="36"/>
       <c r="I201"/>
       <c r="J201"/>
     </row>
-    <row r="202" spans="5:10">
+    <row r="202" spans="5:10" ht="12.5">
       <c r="E202"/>
       <c r="F202" s="108"/>
       <c r="G202" s="36"/>
       <c r="I202"/>
       <c r="J202"/>
     </row>
-    <row r="203" spans="5:10">
+    <row r="203" spans="5:10" ht="12.5">
       <c r="E203"/>
       <c r="F203" s="108"/>
       <c r="G203" s="36"/>
       <c r="I203"/>
       <c r="J203"/>
     </row>
-    <row r="204" spans="5:10">
+    <row r="204" spans="5:10" ht="12.5">
       <c r="E204"/>
       <c r="F204" s="108"/>
       <c r="G204" s="36"/>
       <c r="I204"/>
       <c r="J204"/>
     </row>
-    <row r="205" spans="5:10">
+    <row r="205" spans="5:10" ht="12.5">
       <c r="E205"/>
       <c r="F205" s="108"/>
       <c r="G205" s="36"/>
       <c r="I205"/>
       <c r="J205"/>
     </row>
-    <row r="206" spans="5:10">
+    <row r="206" spans="5:10" ht="12.5">
       <c r="E206"/>
       <c r="F206" s="108"/>
       <c r="G206" s="36"/>
       <c r="I206"/>
       <c r="J206"/>
     </row>
-    <row r="207" spans="5:10">
+    <row r="207" spans="5:10" ht="12.5">
       <c r="E207"/>
       <c r="F207" s="108"/>
       <c r="G207" s="36"/>
       <c r="I207"/>
       <c r="J207"/>
     </row>
-    <row r="208" spans="5:10">
+    <row r="208" spans="5:10" ht="12.5">
       <c r="E208"/>
       <c r="F208" s="108"/>
       <c r="G208" s="36"/>
       <c r="I208"/>
       <c r="J208"/>
     </row>
-    <row r="209" spans="5:10">
+    <row r="209" spans="5:10" ht="12.5">
       <c r="E209"/>
       <c r="F209" s="108"/>
       <c r="G209" s="36"/>
       <c r="I209"/>
       <c r="J209"/>
     </row>
-    <row r="210" spans="5:10">
+    <row r="210" spans="5:10" ht="12.5">
       <c r="E210"/>
       <c r="F210" s="108"/>
       <c r="G210" s="36"/>
       <c r="I210"/>
       <c r="J210"/>
     </row>
-    <row r="211" spans="5:10">
+    <row r="211" spans="5:10" ht="12.5">
       <c r="E211"/>
       <c r="F211" s="108"/>
       <c r="G211" s="36"/>
       <c r="I211"/>
       <c r="J211"/>
     </row>
-    <row r="212" spans="5:10">
+    <row r="212" spans="5:10" ht="12.5">
       <c r="E212"/>
       <c r="F212" s="108"/>
       <c r="G212" s="36"/>
       <c r="I212"/>
       <c r="J212"/>
     </row>
-    <row r="213" spans="5:10">
+    <row r="213" spans="5:10" ht="12.5">
       <c r="E213"/>
       <c r="F213" s="108"/>
       <c r="G213" s="36"/>
       <c r="I213"/>
       <c r="J213"/>
     </row>
-    <row r="214" spans="5:10">
+    <row r="214" spans="5:10" ht="12.5">
       <c r="E214"/>
       <c r="F214" s="108"/>
       <c r="G214" s="36"/>
       <c r="I214"/>
       <c r="J214"/>
     </row>
-    <row r="215" spans="5:10">
+    <row r="215" spans="5:10" ht="12.5">
       <c r="E215"/>
       <c r="F215" s="108"/>
       <c r="G215" s="36"/>
       <c r="I215"/>
       <c r="J215"/>
     </row>
-    <row r="216" spans="5:10">
+    <row r="216" spans="5:10" ht="12.5">
       <c r="E216"/>
       <c r="F216" s="108"/>
       <c r="G216" s="36"/>
       <c r="I216"/>
       <c r="J216"/>
     </row>
-    <row r="217" spans="5:10">
+    <row r="217" spans="5:10" ht="12.5">
       <c r="E217"/>
       <c r="F217" s="108"/>
       <c r="G217" s="36"/>
       <c r="I217"/>
       <c r="J217"/>
     </row>
-    <row r="218" spans="5:10">
+    <row r="218" spans="5:10" ht="12.5">
       <c r="E218"/>
       <c r="F218" s="108"/>
       <c r="G218" s="36"/>
       <c r="I218"/>
       <c r="J218"/>
     </row>
-    <row r="219" spans="5:10">
+    <row r="219" spans="5:10" ht="12.5">
       <c r="E219"/>
       <c r="F219" s="108"/>
       <c r="G219" s="36"/>
       <c r="I219"/>
       <c r="J219"/>
     </row>
-    <row r="220" spans="5:10">
+    <row r="220" spans="5:10" ht="12.5">
       <c r="E220"/>
       <c r="F220" s="108"/>
       <c r="G220" s="36"/>
       <c r="I220"/>
       <c r="J220"/>
     </row>
-    <row r="221" spans="5:10">
+    <row r="221" spans="5:10" ht="12.5">
       <c r="E221"/>
       <c r="F221" s="108"/>
       <c r="G221" s="36"/>
       <c r="I221"/>
       <c r="J221"/>
     </row>
-    <row r="222" spans="5:10">
+    <row r="222" spans="5:10" ht="12.5">
       <c r="E222"/>
       <c r="F222" s="108"/>
       <c r="G222" s="36"/>
       <c r="I222"/>
       <c r="J222"/>
     </row>
-    <row r="223" spans="5:10">
+    <row r="223" spans="5:10" ht="12.5">
       <c r="E223"/>
       <c r="F223" s="108"/>
       <c r="G223" s="36"/>
       <c r="I223"/>
       <c r="J223"/>
     </row>
-    <row r="224" spans="5:10">
+    <row r="224" spans="5:10" ht="12.5">
       <c r="E224"/>
       <c r="F224" s="108"/>
       <c r="G224" s="36"/>
       <c r="I224"/>
       <c r="J224"/>
     </row>
-    <row r="225" spans="5:10">
+    <row r="225" spans="5:10" ht="12.5">
       <c r="E225"/>
       <c r="F225" s="108"/>
       <c r="G225" s="36"/>
       <c r="I225"/>
       <c r="J225"/>
     </row>
-    <row r="226" spans="5:10">
+    <row r="226" spans="5:10" ht="12.5">
       <c r="E226"/>
       <c r="F226" s="108"/>
       <c r="G226" s="36"/>
       <c r="I226"/>
       <c r="J226"/>
     </row>
-    <row r="227" spans="5:10">
+    <row r="227" spans="5:10" ht="12.5">
       <c r="E227"/>
       <c r="F227" s="108"/>
       <c r="G227" s="36"/>
       <c r="I227"/>
       <c r="J227"/>
     </row>
-    <row r="228" spans="5:10">
+    <row r="228" spans="5:10" ht="12.5">
       <c r="E228"/>
       <c r="F228" s="108"/>
       <c r="G228" s="36"/>
       <c r="I228"/>
       <c r="J228"/>
     </row>
-    <row r="229" spans="5:10">
+    <row r="229" spans="5:10" ht="12.5">
       <c r="E229"/>
       <c r="F229" s="108"/>
       <c r="G229" s="36"/>
       <c r="I229"/>
       <c r="J229"/>
     </row>
-    <row r="230" spans="5:10">
+    <row r="230" spans="5:10" ht="12.5">
       <c r="E230"/>
       <c r="F230" s="108"/>
       <c r="G230" s="36"/>
       <c r="I230"/>
       <c r="J230"/>
     </row>
-    <row r="231" spans="5:10">
+    <row r="231" spans="5:10" ht="12.5">
       <c r="E231"/>
       <c r="F231" s="108"/>
       <c r="G231" s="36"/>
       <c r="I231"/>
       <c r="J231"/>
     </row>
-    <row r="232" spans="5:10">
+    <row r="232" spans="5:10" ht="12.5">
       <c r="E232"/>
       <c r="F232" s="108"/>
       <c r="G232" s="36"/>
       <c r="I232"/>
       <c r="J232"/>
     </row>
-    <row r="233" spans="5:10">
+    <row r="233" spans="5:10" ht="12.5">
       <c r="E233"/>
       <c r="F233" s="108"/>
       <c r="G233" s="36"/>
       <c r="I233"/>
       <c r="J233"/>
     </row>
-    <row r="234" spans="5:10">
+    <row r="234" spans="5:10" ht="12.5">
       <c r="E234"/>
       <c r="F234" s="108"/>
       <c r="G234" s="36"/>
       <c r="I234"/>
       <c r="J234"/>
     </row>
-    <row r="235" spans="5:10">
+    <row r="235" spans="5:10" ht="12.5">
       <c r="E235"/>
       <c r="F235" s="108"/>
       <c r="G235" s="36"/>
       <c r="I235"/>
       <c r="J235"/>
     </row>
-    <row r="236" spans="5:10">
+    <row r="236" spans="5:10" ht="12.5">
       <c r="E236"/>
       <c r="F236" s="108"/>
       <c r="G236" s="36"/>
       <c r="I236"/>
       <c r="J236"/>
     </row>
-    <row r="237" spans="5:10">
+    <row r="237" spans="5:10" ht="12.5">
       <c r="E237"/>
       <c r="F237" s="108"/>
       <c r="G237" s="36"/>
       <c r="I237"/>
       <c r="J237"/>
     </row>
-    <row r="238" spans="5:10">
+    <row r="238" spans="5:10" ht="12.5">
       <c r="E238"/>
       <c r="F238" s="108"/>
       <c r="G238" s="36"/>
       <c r="I238"/>
       <c r="J238"/>
     </row>
-    <row r="239" spans="5:10">
+    <row r="239" spans="5:10" ht="12.5">
       <c r="E239"/>
       <c r="F239" s="108"/>
       <c r="G239" s="36"/>
       <c r="I239"/>
       <c r="J239"/>
     </row>
-    <row r="240" spans="5:10">
+    <row r="240" spans="5:10" ht="12.5">
       <c r="E240"/>
       <c r="F240" s="108"/>
       <c r="G240" s="36"/>
       <c r="I240"/>
       <c r="J240"/>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" ht="12.5">
       <c r="E241"/>
       <c r="F241" s="108"/>
       <c r="G241" s="36"/>
       <c r="I241"/>
       <c r="J241"/>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" ht="12.5">
       <c r="E242"/>
       <c r="F242" s="108"/>
       <c r="G242" s="36"/>
@@ -5011,7 +5011,7 @@
       <c r="H244" s="193"/>
       <c r="J244"/>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" ht="12.5">
       <c r="E245"/>
       <c r="F245" s="108"/>
       <c r="G245" s="36"/>
@@ -5042,98 +5042,98 @@
       <c r="G250" s="219"/>
       <c r="H250" s="193"/>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" ht="12.5">
       <c r="E251"/>
       <c r="F251" s="108"/>
       <c r="G251" s="36"/>
       <c r="I251"/>
       <c r="J251"/>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" ht="12.5">
       <c r="E252"/>
       <c r="F252" s="108"/>
       <c r="G252" s="36"/>
       <c r="I252"/>
       <c r="J252"/>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" ht="12.5">
       <c r="E253"/>
       <c r="F253" s="108"/>
       <c r="G253" s="36"/>
       <c r="I253"/>
       <c r="J253"/>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:10" ht="12.5">
       <c r="E254"/>
       <c r="F254" s="108"/>
       <c r="G254" s="36"/>
       <c r="I254"/>
       <c r="J254"/>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" ht="12.5">
       <c r="E255"/>
       <c r="F255" s="108"/>
       <c r="G255" s="36"/>
       <c r="I255"/>
       <c r="J255"/>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:10" ht="12.5">
       <c r="E256"/>
       <c r="F256" s="108"/>
       <c r="G256" s="36"/>
       <c r="I256"/>
       <c r="J256"/>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" ht="12.5">
       <c r="E257"/>
       <c r="F257" s="108"/>
       <c r="G257" s="36"/>
       <c r="I257"/>
       <c r="J257"/>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" ht="12.5">
       <c r="E258"/>
       <c r="F258" s="108"/>
       <c r="G258" s="36"/>
       <c r="I258"/>
       <c r="J258"/>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" ht="12.5">
       <c r="E259"/>
       <c r="F259" s="108"/>
       <c r="G259" s="36"/>
       <c r="I259"/>
       <c r="J259"/>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" ht="12.5">
       <c r="E260"/>
       <c r="F260" s="108"/>
       <c r="G260" s="36"/>
       <c r="I260"/>
       <c r="J260"/>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" ht="12.5">
       <c r="E261"/>
       <c r="F261" s="108"/>
       <c r="G261" s="36"/>
       <c r="I261"/>
       <c r="J261"/>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" ht="12.5">
       <c r="E262"/>
       <c r="F262" s="108"/>
       <c r="G262" s="36"/>
       <c r="I262"/>
       <c r="J262"/>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" ht="12.5">
       <c r="E263"/>
       <c r="F263" s="108"/>
       <c r="G263" s="36"/>
       <c r="I263"/>
       <c r="J263"/>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" ht="12.5">
       <c r="E264"/>
       <c r="F264" s="108"/>
       <c r="G264" s="36"/>
@@ -5152,63 +5152,63 @@
       <c r="I265"/>
       <c r="J265"/>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" ht="12.5">
       <c r="E266"/>
       <c r="F266" s="108"/>
       <c r="G266" s="36"/>
       <c r="I266"/>
       <c r="J266"/>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" ht="12.5">
       <c r="E267"/>
       <c r="F267" s="108"/>
       <c r="G267" s="36"/>
       <c r="I267"/>
       <c r="J267"/>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" ht="12.5">
       <c r="E268"/>
       <c r="F268" s="108"/>
       <c r="G268" s="36"/>
       <c r="I268"/>
       <c r="J268"/>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" ht="12.5">
       <c r="E269"/>
       <c r="F269" s="108"/>
       <c r="G269" s="36"/>
       <c r="I269"/>
       <c r="J269"/>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" ht="12.5">
       <c r="E270"/>
       <c r="F270" s="108"/>
       <c r="G270" s="36"/>
       <c r="I270"/>
       <c r="J270"/>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" ht="12.5">
       <c r="E271"/>
       <c r="F271" s="108"/>
       <c r="G271" s="36"/>
       <c r="I271"/>
       <c r="J271"/>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" ht="12.5">
       <c r="E272"/>
       <c r="F272" s="108"/>
       <c r="G272" s="36"/>
       <c r="I272"/>
       <c r="J272"/>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" ht="12.5">
       <c r="E273"/>
       <c r="F273" s="108"/>
       <c r="G273" s="36"/>
       <c r="I273"/>
       <c r="J273"/>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" ht="12.5">
       <c r="E274"/>
       <c r="F274" s="108"/>
       <c r="G274" s="36"/>
@@ -5227,28 +5227,28 @@
       <c r="I275"/>
       <c r="J275"/>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" ht="12.5">
       <c r="E276"/>
       <c r="F276" s="108"/>
       <c r="G276" s="36"/>
       <c r="I276"/>
       <c r="J276"/>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" ht="12.5">
       <c r="E277"/>
       <c r="F277" s="108"/>
       <c r="G277" s="36"/>
       <c r="I277"/>
       <c r="J277"/>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" ht="12.5">
       <c r="E278"/>
       <c r="F278" s="108"/>
       <c r="G278" s="36"/>
       <c r="I278"/>
       <c r="J278"/>
     </row>
-    <row r="279" spans="1:10" ht="13.5">
+    <row r="279" spans="1:10">
       <c r="B279" s="231"/>
       <c r="E279"/>
       <c r="F279" s="108"/>
@@ -5256,49 +5256,49 @@
       <c r="I279"/>
       <c r="J279"/>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" ht="12.5">
       <c r="E280"/>
       <c r="F280" s="108"/>
       <c r="G280" s="36"/>
       <c r="I280"/>
       <c r="J280"/>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" ht="12.5">
       <c r="E281"/>
       <c r="F281" s="108"/>
       <c r="G281" s="36"/>
       <c r="I281"/>
       <c r="J281"/>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" ht="12.5">
       <c r="E282"/>
       <c r="F282" s="108"/>
       <c r="G282" s="36"/>
       <c r="I282"/>
       <c r="J282"/>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" ht="12.5">
       <c r="E283"/>
       <c r="F283" s="108"/>
       <c r="G283" s="36"/>
       <c r="I283"/>
       <c r="J283"/>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" ht="12.5">
       <c r="E284"/>
       <c r="F284" s="108"/>
       <c r="G284" s="36"/>
       <c r="I284"/>
       <c r="J284"/>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" ht="12.5">
       <c r="E285"/>
       <c r="F285" s="108"/>
       <c r="G285" s="36"/>
       <c r="I285"/>
       <c r="J285"/>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" ht="12.5">
       <c r="E286"/>
       <c r="F286" s="108"/>
       <c r="G286" s="36"/>
@@ -5577,7 +5577,7 @@
       <c r="I327"/>
       <c r="J327"/>
     </row>
-    <row r="328" spans="1:10">
+    <row r="328" spans="1:10" ht="12.5">
       <c r="A328" s="108"/>
       <c r="E328"/>
       <c r="F328" s="108"/>
@@ -5597,21 +5597,21 @@
       <c r="I329"/>
       <c r="J329"/>
     </row>
-    <row r="330" spans="1:10">
+    <row r="330" spans="1:10" ht="12.5">
       <c r="E330"/>
       <c r="F330" s="108"/>
       <c r="G330" s="36"/>
       <c r="I330"/>
       <c r="J330"/>
     </row>
-    <row r="331" spans="1:10">
+    <row r="331" spans="1:10" ht="12.5">
       <c r="A331" s="108"/>
       <c r="E331"/>
       <c r="F331" s="108"/>
       <c r="I331"/>
       <c r="J331"/>
     </row>
-    <row r="332" spans="1:10">
+    <row r="332" spans="1:10" ht="12.5">
       <c r="A332" s="108"/>
       <c r="E332"/>
       <c r="F332" s="108"/>
@@ -5630,14 +5630,14 @@
       <c r="I333"/>
       <c r="J333"/>
     </row>
-    <row r="334" spans="1:10">
+    <row r="334" spans="1:10" ht="12.5">
       <c r="E334"/>
       <c r="F334" s="108"/>
       <c r="G334" s="36"/>
       <c r="I334"/>
       <c r="J334"/>
     </row>
-    <row r="335" spans="1:10">
+    <row r="335" spans="1:10" ht="12.5">
       <c r="A335" s="108"/>
       <c r="E335"/>
       <c r="F335" s="108"/>
@@ -5645,7 +5645,7 @@
       <c r="I335"/>
       <c r="J335"/>
     </row>
-    <row r="336" spans="1:10">
+    <row r="336" spans="1:10" ht="12.5">
       <c r="A336" s="108"/>
       <c r="E336"/>
       <c r="F336" s="108"/>
@@ -5653,7 +5653,7 @@
       <c r="I336"/>
       <c r="J336"/>
     </row>
-    <row r="337" spans="1:10">
+    <row r="337" spans="1:10" ht="12.5">
       <c r="A337" s="108"/>
       <c r="E337"/>
       <c r="F337" s="108"/>
@@ -5719,14 +5719,14 @@
       <c r="I344"/>
       <c r="J344"/>
     </row>
-    <row r="345" spans="1:10">
+    <row r="345" spans="1:10" ht="12.5">
       <c r="E345"/>
       <c r="F345" s="108"/>
       <c r="G345" s="36"/>
       <c r="I345"/>
       <c r="J345"/>
     </row>
-    <row r="346" spans="1:10">
+    <row r="346" spans="1:10" ht="12.5">
       <c r="A346" s="108"/>
       <c r="E346"/>
       <c r="F346" s="108"/>
@@ -5734,7 +5734,7 @@
       <c r="I346"/>
       <c r="J346"/>
     </row>
-    <row r="347" spans="1:10">
+    <row r="347" spans="1:10" ht="12.5">
       <c r="A347" s="108"/>
       <c r="E347"/>
       <c r="F347" s="108"/>
@@ -5742,7 +5742,7 @@
       <c r="I347"/>
       <c r="J347"/>
     </row>
-    <row r="348" spans="1:10">
+    <row r="348" spans="1:10" ht="12.5">
       <c r="A348" s="108"/>
       <c r="E348"/>
       <c r="F348" s="108"/>
@@ -5750,7 +5750,7 @@
       <c r="I348"/>
       <c r="J348"/>
     </row>
-    <row r="349" spans="1:10">
+    <row r="349" spans="1:10" ht="12.5">
       <c r="A349" s="108"/>
       <c r="E349"/>
       <c r="F349" s="108"/>
@@ -5758,7 +5758,7 @@
       <c r="I349"/>
       <c r="J349"/>
     </row>
-    <row r="350" spans="1:10">
+    <row r="350" spans="1:10" ht="12.5">
       <c r="A350" s="108"/>
       <c r="E350"/>
       <c r="F350" s="108"/>
@@ -5766,7 +5766,7 @@
       <c r="I350"/>
       <c r="J350"/>
     </row>
-    <row r="351" spans="1:10">
+    <row r="351" spans="1:10" ht="12.5">
       <c r="A351" s="108"/>
       <c r="E351"/>
       <c r="F351" s="108"/>
@@ -5774,7 +5774,7 @@
       <c r="I351"/>
       <c r="J351"/>
     </row>
-    <row r="352" spans="1:10">
+    <row r="352" spans="1:10" ht="12.5">
       <c r="A352" s="108"/>
       <c r="B352" s="220"/>
       <c r="E352"/>
@@ -5782,14 +5782,14 @@
       <c r="I352"/>
       <c r="J352"/>
     </row>
-    <row r="353" spans="1:10">
+    <row r="353" spans="1:10" ht="12.5">
       <c r="A353" s="108"/>
       <c r="E353"/>
       <c r="F353" s="108"/>
       <c r="I353"/>
       <c r="J353"/>
     </row>
-    <row r="354" spans="1:10">
+    <row r="354" spans="1:10" ht="12.5">
       <c r="A354" s="108"/>
       <c r="E354"/>
       <c r="F354" s="108"/>
@@ -5797,7 +5797,7 @@
       <c r="I354"/>
       <c r="J354"/>
     </row>
-    <row r="355" spans="1:10">
+    <row r="355" spans="1:10" ht="12.5">
       <c r="A355" s="108"/>
       <c r="E355"/>
       <c r="F355" s="108"/>
@@ -5805,7 +5805,7 @@
       <c r="I355"/>
       <c r="J355"/>
     </row>
-    <row r="356" spans="1:10">
+    <row r="356" spans="1:10" ht="12.5">
       <c r="A356" s="108"/>
       <c r="E356"/>
       <c r="F356" s="108"/>
@@ -5813,7 +5813,7 @@
       <c r="I356"/>
       <c r="J356"/>
     </row>
-    <row r="357" spans="1:10">
+    <row r="357" spans="1:10" ht="12.5">
       <c r="A357" s="108"/>
       <c r="E357"/>
       <c r="F357" s="108"/>
@@ -5821,7 +5821,7 @@
       <c r="I357"/>
       <c r="J357"/>
     </row>
-    <row r="358" spans="1:10">
+    <row r="358" spans="1:10" ht="12.5">
       <c r="A358" s="108"/>
       <c r="E358"/>
       <c r="F358" s="108"/>
@@ -5829,7 +5829,7 @@
       <c r="I358"/>
       <c r="J358"/>
     </row>
-    <row r="359" spans="1:10">
+    <row r="359" spans="1:10" ht="12.5">
       <c r="A359" s="108"/>
       <c r="E359"/>
       <c r="F359" s="108"/>
@@ -5837,7 +5837,7 @@
       <c r="I359"/>
       <c r="J359"/>
     </row>
-    <row r="360" spans="1:10">
+    <row r="360" spans="1:10" ht="12.5">
       <c r="A360" s="108"/>
       <c r="B360" s="108"/>
       <c r="E360"/>
@@ -5846,7 +5846,7 @@
       <c r="I360"/>
       <c r="J360"/>
     </row>
-    <row r="361" spans="1:10">
+    <row r="361" spans="1:10" ht="12.5">
       <c r="A361" s="108"/>
       <c r="B361" s="108"/>
       <c r="E361"/>
@@ -5855,7 +5855,7 @@
       <c r="I361"/>
       <c r="J361"/>
     </row>
-    <row r="362" spans="1:10">
+    <row r="362" spans="1:10" ht="12.5">
       <c r="A362" s="108"/>
       <c r="B362" s="108"/>
       <c r="E362"/>
@@ -5864,7 +5864,7 @@
       <c r="I362"/>
       <c r="J362"/>
     </row>
-    <row r="363" spans="1:10">
+    <row r="363" spans="1:10" ht="12.5">
       <c r="A363" s="108"/>
       <c r="B363" s="108"/>
       <c r="E363"/>
@@ -5873,7 +5873,7 @@
       <c r="I363"/>
       <c r="J363"/>
     </row>
-    <row r="364" spans="1:10">
+    <row r="364" spans="1:10" ht="12.5">
       <c r="A364" s="108"/>
       <c r="B364" s="108"/>
       <c r="E364"/>
@@ -5882,7 +5882,7 @@
       <c r="I364"/>
       <c r="J364"/>
     </row>
-    <row r="365" spans="1:10">
+    <row r="365" spans="1:10" ht="12.5">
       <c r="A365" s="108"/>
       <c r="E365"/>
       <c r="F365" s="108"/>
@@ -5890,7 +5890,7 @@
       <c r="I365"/>
       <c r="J365"/>
     </row>
-    <row r="366" spans="1:10">
+    <row r="366" spans="1:10" ht="12.5">
       <c r="A366" s="108"/>
       <c r="E366"/>
       <c r="F366" s="108"/>
@@ -5898,7 +5898,7 @@
       <c r="I366"/>
       <c r="J366"/>
     </row>
-    <row r="367" spans="1:10">
+    <row r="367" spans="1:10" ht="12.5">
       <c r="A367" s="108"/>
       <c r="E367"/>
       <c r="F367" s="108"/>
@@ -5906,7 +5906,7 @@
       <c r="I367"/>
       <c r="J367"/>
     </row>
-    <row r="368" spans="1:10">
+    <row r="368" spans="1:10" ht="12.5">
       <c r="A368" s="108"/>
       <c r="E368"/>
       <c r="F368" s="108"/>
@@ -5914,7 +5914,7 @@
       <c r="I368"/>
       <c r="J368"/>
     </row>
-    <row r="369" spans="1:10">
+    <row r="369" spans="1:10" ht="12.5">
       <c r="A369" s="108"/>
       <c r="E369"/>
       <c r="F369" s="108"/>
@@ -5922,7 +5922,7 @@
       <c r="I369"/>
       <c r="J369"/>
     </row>
-    <row r="370" spans="1:10">
+    <row r="370" spans="1:10" ht="12.5">
       <c r="A370" s="108"/>
       <c r="E370"/>
       <c r="F370" s="108"/>
@@ -5930,7 +5930,7 @@
       <c r="I370"/>
       <c r="J370"/>
     </row>
-    <row r="371" spans="1:10">
+    <row r="371" spans="1:10" ht="12.5">
       <c r="A371" s="108"/>
       <c r="E371"/>
       <c r="F371" s="108"/>
@@ -5938,7 +5938,7 @@
       <c r="I371"/>
       <c r="J371"/>
     </row>
-    <row r="372" spans="1:10">
+    <row r="372" spans="1:10" ht="12.5">
       <c r="A372" s="108"/>
       <c r="E372"/>
       <c r="F372" s="108"/>
@@ -5946,7 +5946,7 @@
       <c r="I372"/>
       <c r="J372"/>
     </row>
-    <row r="373" spans="1:10">
+    <row r="373" spans="1:10" ht="12.5">
       <c r="A373" s="108"/>
       <c r="E373"/>
       <c r="F373" s="108"/>
@@ -5954,7 +5954,7 @@
       <c r="I373"/>
       <c r="J373"/>
     </row>
-    <row r="374" spans="1:10">
+    <row r="374" spans="1:10" ht="12.5">
       <c r="A374" s="108"/>
       <c r="E374"/>
       <c r="F374" s="108"/>
@@ -5962,7 +5962,7 @@
       <c r="I374"/>
       <c r="J374"/>
     </row>
-    <row r="375" spans="1:10">
+    <row r="375" spans="1:10" ht="12.5">
       <c r="A375" s="108"/>
       <c r="E375"/>
       <c r="F375" s="108"/>
@@ -5970,7 +5970,7 @@
       <c r="I375"/>
       <c r="J375"/>
     </row>
-    <row r="376" spans="1:10">
+    <row r="376" spans="1:10" ht="12.5">
       <c r="A376" s="108"/>
       <c r="E376"/>
       <c r="F376" s="108"/>
@@ -5978,7 +5978,7 @@
       <c r="I376"/>
       <c r="J376"/>
     </row>
-    <row r="377" spans="1:10">
+    <row r="377" spans="1:10" ht="12.5">
       <c r="A377" s="108"/>
       <c r="E377"/>
       <c r="F377" s="108"/>
@@ -5986,7 +5986,7 @@
       <c r="I377"/>
       <c r="J377"/>
     </row>
-    <row r="378" spans="1:10">
+    <row r="378" spans="1:10" ht="12.5">
       <c r="A378" s="108"/>
       <c r="E378"/>
       <c r="F378" s="108"/>
@@ -5994,7 +5994,7 @@
       <c r="I378"/>
       <c r="J378"/>
     </row>
-    <row r="379" spans="1:10">
+    <row r="379" spans="1:10" ht="12.5">
       <c r="A379" s="108"/>
       <c r="E379"/>
       <c r="F379" s="108"/>
@@ -6002,7 +6002,7 @@
       <c r="I379"/>
       <c r="J379"/>
     </row>
-    <row r="380" spans="1:10">
+    <row r="380" spans="1:10" ht="12.5">
       <c r="A380" s="108"/>
       <c r="E380"/>
       <c r="F380" s="108"/>
@@ -6010,7 +6010,7 @@
       <c r="I380"/>
       <c r="J380"/>
     </row>
-    <row r="381" spans="1:10">
+    <row r="381" spans="1:10" ht="12.5">
       <c r="A381" s="108"/>
       <c r="E381"/>
       <c r="F381" s="108"/>
@@ -6018,7 +6018,7 @@
       <c r="I381"/>
       <c r="J381"/>
     </row>
-    <row r="382" spans="1:10">
+    <row r="382" spans="1:10" ht="12.5">
       <c r="A382" s="108"/>
       <c r="E382"/>
       <c r="F382" s="108"/>
@@ -6026,7 +6026,7 @@
       <c r="I382"/>
       <c r="J382"/>
     </row>
-    <row r="383" spans="1:10">
+    <row r="383" spans="1:10" ht="12.5">
       <c r="A383" s="108"/>
       <c r="E383"/>
       <c r="F383" s="108"/>
@@ -6034,7 +6034,7 @@
       <c r="I383"/>
       <c r="J383"/>
     </row>
-    <row r="384" spans="1:10">
+    <row r="384" spans="1:10" ht="12.5">
       <c r="A384" s="108"/>
       <c r="E384"/>
       <c r="F384" s="108"/>
@@ -6042,7 +6042,7 @@
       <c r="I384"/>
       <c r="J384"/>
     </row>
-    <row r="385" spans="1:10">
+    <row r="385" spans="1:10" ht="12.5">
       <c r="A385" s="108"/>
       <c r="E385"/>
       <c r="F385" s="108"/>
@@ -6050,7 +6050,7 @@
       <c r="I385"/>
       <c r="J385"/>
     </row>
-    <row r="386" spans="1:10">
+    <row r="386" spans="1:10" ht="12.5">
       <c r="A386" s="108"/>
       <c r="E386"/>
       <c r="F386" s="108"/>
@@ -6058,7 +6058,7 @@
       <c r="I386"/>
       <c r="J386"/>
     </row>
-    <row r="387" spans="1:10">
+    <row r="387" spans="1:10" ht="12.5">
       <c r="A387" s="108"/>
       <c r="E387"/>
       <c r="F387" s="108"/>
@@ -6066,7 +6066,7 @@
       <c r="I387"/>
       <c r="J387"/>
     </row>
-    <row r="388" spans="1:10">
+    <row r="388" spans="1:10" ht="12.5">
       <c r="A388" s="108"/>
       <c r="E388"/>
       <c r="F388" s="108"/>
@@ -6074,7 +6074,7 @@
       <c r="I388"/>
       <c r="J388"/>
     </row>
-    <row r="389" spans="1:10">
+    <row r="389" spans="1:10" ht="12.5">
       <c r="A389" s="108"/>
       <c r="E389"/>
       <c r="F389" s="108"/>
@@ -6082,7 +6082,7 @@
       <c r="I389"/>
       <c r="J389"/>
     </row>
-    <row r="390" spans="1:10">
+    <row r="390" spans="1:10" ht="12.5">
       <c r="A390" s="108"/>
       <c r="E390"/>
       <c r="F390" s="108"/>
@@ -6090,7 +6090,7 @@
       <c r="I390"/>
       <c r="J390"/>
     </row>
-    <row r="391" spans="1:10">
+    <row r="391" spans="1:10" ht="12.5">
       <c r="A391" s="108"/>
       <c r="E391"/>
       <c r="F391" s="108"/>
@@ -6098,7 +6098,7 @@
       <c r="I391"/>
       <c r="J391"/>
     </row>
-    <row r="392" spans="1:10">
+    <row r="392" spans="1:10" ht="12.5">
       <c r="A392" s="108"/>
       <c r="E392"/>
       <c r="F392" s="108"/>
@@ -6106,7 +6106,7 @@
       <c r="I392"/>
       <c r="J392"/>
     </row>
-    <row r="393" spans="1:10">
+    <row r="393" spans="1:10" ht="12.5">
       <c r="A393" s="108"/>
       <c r="E393"/>
       <c r="F393" s="108"/>
@@ -6114,7 +6114,7 @@
       <c r="I393"/>
       <c r="J393"/>
     </row>
-    <row r="394" spans="1:10">
+    <row r="394" spans="1:10" ht="12.5">
       <c r="A394" s="108"/>
       <c r="E394"/>
       <c r="F394" s="108"/>
@@ -6122,7 +6122,7 @@
       <c r="I394"/>
       <c r="J394"/>
     </row>
-    <row r="395" spans="1:10">
+    <row r="395" spans="1:10" ht="12.5">
       <c r="A395" s="108"/>
       <c r="E395"/>
       <c r="F395" s="108"/>
@@ -6130,7 +6130,7 @@
       <c r="I395"/>
       <c r="J395"/>
     </row>
-    <row r="396" spans="1:10">
+    <row r="396" spans="1:10" ht="12.5">
       <c r="A396" s="108"/>
       <c r="E396"/>
       <c r="F396" s="108"/>
@@ -6138,7 +6138,7 @@
       <c r="I396"/>
       <c r="J396"/>
     </row>
-    <row r="397" spans="1:10">
+    <row r="397" spans="1:10" ht="12.5">
       <c r="A397" s="108"/>
       <c r="E397"/>
       <c r="F397" s="108"/>
@@ -6146,7 +6146,7 @@
       <c r="I397"/>
       <c r="J397"/>
     </row>
-    <row r="398" spans="1:10">
+    <row r="398" spans="1:10" ht="12.5">
       <c r="A398" s="108"/>
       <c r="E398"/>
       <c r="F398" s="108"/>
@@ -6154,7 +6154,7 @@
       <c r="I398"/>
       <c r="J398"/>
     </row>
-    <row r="399" spans="1:10">
+    <row r="399" spans="1:10" ht="12.5">
       <c r="A399" s="108"/>
       <c r="E399"/>
       <c r="F399" s="108"/>
@@ -6162,7 +6162,7 @@
       <c r="I399"/>
       <c r="J399"/>
     </row>
-    <row r="400" spans="1:10">
+    <row r="400" spans="1:10" ht="12.5">
       <c r="A400" s="108"/>
       <c r="E400"/>
       <c r="F400" s="108"/>
@@ -6170,7 +6170,7 @@
       <c r="I400"/>
       <c r="J400"/>
     </row>
-    <row r="401" spans="1:10">
+    <row r="401" spans="1:10" ht="12.5">
       <c r="A401" s="108"/>
       <c r="E401"/>
       <c r="F401" s="108"/>
@@ -6178,7 +6178,7 @@
       <c r="I401"/>
       <c r="J401"/>
     </row>
-    <row r="402" spans="1:10">
+    <row r="402" spans="1:10" ht="12.5">
       <c r="A402" s="108"/>
       <c r="E402"/>
       <c r="F402" s="108"/>
@@ -6186,7 +6186,7 @@
       <c r="I402"/>
       <c r="J402"/>
     </row>
-    <row r="403" spans="1:10">
+    <row r="403" spans="1:10" ht="12.5">
       <c r="A403" s="108"/>
       <c r="E403"/>
       <c r="F403" s="108"/>
@@ -6194,7 +6194,7 @@
       <c r="I403"/>
       <c r="J403"/>
     </row>
-    <row r="404" spans="1:10">
+    <row r="404" spans="1:10" ht="12.5">
       <c r="A404" s="108"/>
       <c r="E404"/>
       <c r="F404" s="108"/>
@@ -6202,7 +6202,7 @@
       <c r="I404"/>
       <c r="J404"/>
     </row>
-    <row r="405" spans="1:10">
+    <row r="405" spans="1:10" ht="12.5">
       <c r="A405" s="108"/>
       <c r="E405"/>
       <c r="F405" s="108"/>
@@ -6210,7 +6210,7 @@
       <c r="I405"/>
       <c r="J405"/>
     </row>
-    <row r="406" spans="1:10">
+    <row r="406" spans="1:10" ht="12.5">
       <c r="A406" s="108"/>
       <c r="E406"/>
       <c r="F406" s="108"/>
@@ -6218,7 +6218,7 @@
       <c r="I406"/>
       <c r="J406"/>
     </row>
-    <row r="407" spans="1:10">
+    <row r="407" spans="1:10" ht="12.5">
       <c r="A407" s="108"/>
       <c r="E407"/>
       <c r="F407" s="108"/>
@@ -6226,7 +6226,7 @@
       <c r="I407"/>
       <c r="J407"/>
     </row>
-    <row r="408" spans="1:10">
+    <row r="408" spans="1:10" ht="12.5">
       <c r="A408" s="108"/>
       <c r="E408"/>
       <c r="F408" s="108"/>
@@ -6234,7 +6234,7 @@
       <c r="I408"/>
       <c r="J408"/>
     </row>
-    <row r="409" spans="1:10">
+    <row r="409" spans="1:10" ht="12.5">
       <c r="A409" s="108"/>
       <c r="E409"/>
       <c r="F409" s="108"/>
@@ -6242,7 +6242,7 @@
       <c r="I409"/>
       <c r="J409"/>
     </row>
-    <row r="410" spans="1:10">
+    <row r="410" spans="1:10" ht="12.5">
       <c r="A410" s="108"/>
       <c r="E410"/>
       <c r="F410" s="108"/>
@@ -6250,7 +6250,7 @@
       <c r="I410"/>
       <c r="J410"/>
     </row>
-    <row r="411" spans="1:10">
+    <row r="411" spans="1:10" ht="12.5">
       <c r="A411" s="108"/>
       <c r="E411"/>
       <c r="F411" s="108"/>
@@ -6258,7 +6258,7 @@
       <c r="I411"/>
       <c r="J411"/>
     </row>
-    <row r="412" spans="1:10">
+    <row r="412" spans="1:10" ht="12.5">
       <c r="A412" s="108"/>
       <c r="E412"/>
       <c r="F412" s="108"/>
@@ -6266,7 +6266,7 @@
       <c r="I412"/>
       <c r="J412"/>
     </row>
-    <row r="413" spans="1:10">
+    <row r="413" spans="1:10" ht="12.5">
       <c r="A413" s="108"/>
       <c r="E413"/>
       <c r="F413" s="108"/>
@@ -6274,7 +6274,7 @@
       <c r="I413"/>
       <c r="J413"/>
     </row>
-    <row r="414" spans="1:10">
+    <row r="414" spans="1:10" ht="12.5">
       <c r="A414" s="108"/>
       <c r="E414"/>
       <c r="F414" s="108"/>
@@ -6282,7 +6282,7 @@
       <c r="I414"/>
       <c r="J414"/>
     </row>
-    <row r="415" spans="1:10">
+    <row r="415" spans="1:10" ht="12.5">
       <c r="A415" s="108"/>
       <c r="E415"/>
       <c r="F415" s="108"/>
@@ -6290,7 +6290,7 @@
       <c r="I415"/>
       <c r="J415"/>
     </row>
-    <row r="416" spans="1:10">
+    <row r="416" spans="1:10" ht="12.5">
       <c r="A416" s="108"/>
       <c r="E416"/>
       <c r="F416" s="108"/>
@@ -6298,7 +6298,7 @@
       <c r="I416"/>
       <c r="J416"/>
     </row>
-    <row r="417" spans="1:10">
+    <row r="417" spans="1:10" ht="12.5">
       <c r="A417" s="108"/>
       <c r="E417"/>
       <c r="F417" s="108"/>
@@ -6306,7 +6306,7 @@
       <c r="I417"/>
       <c r="J417"/>
     </row>
-    <row r="418" spans="1:10">
+    <row r="418" spans="1:10" ht="12.5">
       <c r="A418" s="108"/>
       <c r="E418"/>
       <c r="F418" s="108"/>
@@ -6314,7 +6314,7 @@
       <c r="I418"/>
       <c r="J418"/>
     </row>
-    <row r="419" spans="1:10">
+    <row r="419" spans="1:10" ht="12.5">
       <c r="A419" s="108"/>
       <c r="E419"/>
       <c r="F419" s="108"/>
@@ -6322,7 +6322,7 @@
       <c r="I419"/>
       <c r="J419"/>
     </row>
-    <row r="420" spans="1:10">
+    <row r="420" spans="1:10" ht="12.5">
       <c r="A420" s="108"/>
       <c r="E420"/>
       <c r="F420" s="108"/>
@@ -6330,7 +6330,7 @@
       <c r="I420"/>
       <c r="J420"/>
     </row>
-    <row r="421" spans="1:10">
+    <row r="421" spans="1:10" ht="12.5">
       <c r="A421" s="108"/>
       <c r="E421"/>
       <c r="F421" s="108"/>
@@ -6338,7 +6338,7 @@
       <c r="I421"/>
       <c r="J421"/>
     </row>
-    <row r="422" spans="1:10">
+    <row r="422" spans="1:10" ht="12.5">
       <c r="A422" s="108"/>
       <c r="E422"/>
       <c r="F422" s="108"/>
@@ -6346,7 +6346,7 @@
       <c r="I422"/>
       <c r="J422"/>
     </row>
-    <row r="423" spans="1:10">
+    <row r="423" spans="1:10" ht="12.5">
       <c r="A423" s="108"/>
       <c r="E423"/>
       <c r="F423" s="108"/>
@@ -6354,7 +6354,7 @@
       <c r="I423"/>
       <c r="J423"/>
     </row>
-    <row r="424" spans="1:10">
+    <row r="424" spans="1:10" ht="12.5">
       <c r="A424" s="108"/>
       <c r="E424"/>
       <c r="F424" s="108"/>
@@ -6362,7 +6362,7 @@
       <c r="I424"/>
       <c r="J424"/>
     </row>
-    <row r="425" spans="1:10">
+    <row r="425" spans="1:10" ht="12.5">
       <c r="A425" s="108"/>
       <c r="E425"/>
       <c r="F425" s="108"/>
@@ -6370,7 +6370,7 @@
       <c r="I425"/>
       <c r="J425"/>
     </row>
-    <row r="426" spans="1:10">
+    <row r="426" spans="1:10" ht="12.5">
       <c r="A426" s="108"/>
       <c r="E426"/>
       <c r="F426" s="108"/>
@@ -6378,7 +6378,7 @@
       <c r="I426"/>
       <c r="J426"/>
     </row>
-    <row r="427" spans="1:10">
+    <row r="427" spans="1:10" ht="12.5">
       <c r="A427" s="108"/>
       <c r="E427"/>
       <c r="F427" s="108"/>
@@ -6386,7 +6386,7 @@
       <c r="I427"/>
       <c r="J427"/>
     </row>
-    <row r="428" spans="1:10">
+    <row r="428" spans="1:10" ht="12.5">
       <c r="A428" s="108"/>
       <c r="E428"/>
       <c r="F428" s="108"/>
@@ -6394,7 +6394,7 @@
       <c r="I428"/>
       <c r="J428"/>
     </row>
-    <row r="429" spans="1:10">
+    <row r="429" spans="1:10" ht="12.5">
       <c r="A429" s="108"/>
       <c r="E429"/>
       <c r="F429" s="108"/>
@@ -6402,7 +6402,7 @@
       <c r="I429"/>
       <c r="J429"/>
     </row>
-    <row r="430" spans="1:10">
+    <row r="430" spans="1:10" ht="12.5">
       <c r="A430" s="108"/>
       <c r="E430"/>
       <c r="F430" s="108"/>
@@ -6410,7 +6410,7 @@
       <c r="I430"/>
       <c r="J430"/>
     </row>
-    <row r="431" spans="1:10">
+    <row r="431" spans="1:10" ht="12.5">
       <c r="A431" s="108"/>
       <c r="E431"/>
       <c r="F431" s="108"/>
@@ -6418,7 +6418,7 @@
       <c r="I431"/>
       <c r="J431"/>
     </row>
-    <row r="432" spans="1:10">
+    <row r="432" spans="1:10" ht="12.5">
       <c r="A432" s="108"/>
       <c r="E432"/>
       <c r="F432" s="108"/>
@@ -6426,7 +6426,7 @@
       <c r="I432"/>
       <c r="J432"/>
     </row>
-    <row r="433" spans="1:10">
+    <row r="433" spans="1:10" ht="12.5">
       <c r="A433" s="108"/>
       <c r="E433"/>
       <c r="F433" s="108"/>
@@ -6434,7 +6434,7 @@
       <c r="I433"/>
       <c r="J433"/>
     </row>
-    <row r="434" spans="1:10">
+    <row r="434" spans="1:10" ht="12.5">
       <c r="A434" s="108"/>
       <c r="E434"/>
       <c r="F434" s="108"/>
@@ -6442,7 +6442,7 @@
       <c r="I434"/>
       <c r="J434"/>
     </row>
-    <row r="435" spans="1:10">
+    <row r="435" spans="1:10" ht="12.5">
       <c r="A435" s="108"/>
       <c r="E435"/>
       <c r="F435" s="108"/>
@@ -6450,7 +6450,7 @@
       <c r="I435"/>
       <c r="J435"/>
     </row>
-    <row r="436" spans="1:10">
+    <row r="436" spans="1:10" ht="12.5">
       <c r="A436" s="108"/>
       <c r="E436"/>
       <c r="F436" s="108"/>
@@ -6458,7 +6458,7 @@
       <c r="I436"/>
       <c r="J436"/>
     </row>
-    <row r="437" spans="1:10">
+    <row r="437" spans="1:10" ht="12.5">
       <c r="A437" s="108"/>
       <c r="E437"/>
       <c r="F437" s="108"/>
@@ -6466,7 +6466,7 @@
       <c r="I437"/>
       <c r="J437"/>
     </row>
-    <row r="438" spans="1:10">
+    <row r="438" spans="1:10" ht="12.5">
       <c r="A438" s="108"/>
       <c r="E438"/>
       <c r="F438" s="108"/>
@@ -6474,7 +6474,7 @@
       <c r="I438"/>
       <c r="J438"/>
     </row>
-    <row r="439" spans="1:10">
+    <row r="439" spans="1:10" ht="12.5">
       <c r="A439" s="108"/>
       <c r="E439"/>
       <c r="F439" s="108"/>
@@ -6482,7 +6482,7 @@
       <c r="I439"/>
       <c r="J439"/>
     </row>
-    <row r="440" spans="1:10">
+    <row r="440" spans="1:10" ht="12.5">
       <c r="A440" s="108"/>
       <c r="E440"/>
       <c r="F440" s="108"/>
@@ -6490,7 +6490,7 @@
       <c r="I440"/>
       <c r="J440"/>
     </row>
-    <row r="441" spans="1:10">
+    <row r="441" spans="1:10" ht="12.5">
       <c r="A441" s="108"/>
       <c r="E441"/>
       <c r="F441" s="108"/>
@@ -6498,7 +6498,7 @@
       <c r="I441"/>
       <c r="J441"/>
     </row>
-    <row r="442" spans="1:10">
+    <row r="442" spans="1:10" ht="12.5">
       <c r="A442" s="108"/>
       <c r="E442"/>
       <c r="F442" s="108"/>
@@ -6506,7 +6506,7 @@
       <c r="I442"/>
       <c r="J442"/>
     </row>
-    <row r="443" spans="1:10">
+    <row r="443" spans="1:10" ht="12.5">
       <c r="A443" s="108"/>
       <c r="E443"/>
       <c r="F443" s="108"/>
@@ -6514,7 +6514,7 @@
       <c r="I443"/>
       <c r="J443"/>
     </row>
-    <row r="444" spans="1:10">
+    <row r="444" spans="1:10" ht="12.5">
       <c r="A444" s="108"/>
       <c r="E444"/>
       <c r="F444" s="108"/>
@@ -6522,7 +6522,7 @@
       <c r="I444"/>
       <c r="J444"/>
     </row>
-    <row r="445" spans="1:10">
+    <row r="445" spans="1:10" ht="12.5">
       <c r="A445" s="108"/>
       <c r="E445"/>
       <c r="F445" s="108"/>
@@ -6530,7 +6530,7 @@
       <c r="I445"/>
       <c r="J445"/>
     </row>
-    <row r="446" spans="1:10">
+    <row r="446" spans="1:10" ht="12.5">
       <c r="A446" s="108"/>
       <c r="E446"/>
       <c r="F446" s="108"/>
@@ -6538,7 +6538,7 @@
       <c r="I446"/>
       <c r="J446"/>
     </row>
-    <row r="447" spans="1:10">
+    <row r="447" spans="1:10" ht="12.5">
       <c r="A447" s="108"/>
       <c r="E447"/>
       <c r="F447" s="108"/>
@@ -6546,7 +6546,7 @@
       <c r="I447"/>
       <c r="J447"/>
     </row>
-    <row r="448" spans="1:10">
+    <row r="448" spans="1:10" ht="12.5">
       <c r="A448" s="108"/>
       <c r="E448"/>
       <c r="F448" s="108"/>
@@ -6554,7 +6554,7 @@
       <c r="I448"/>
       <c r="J448"/>
     </row>
-    <row r="449" spans="1:10">
+    <row r="449" spans="1:10" ht="12.5">
       <c r="A449" s="108"/>
       <c r="E449"/>
       <c r="F449" s="108"/>
@@ -6562,7 +6562,7 @@
       <c r="I449"/>
       <c r="J449"/>
     </row>
-    <row r="450" spans="1:10">
+    <row r="450" spans="1:10" ht="12.5">
       <c r="A450" s="108"/>
       <c r="E450"/>
       <c r="F450" s="108"/>
@@ -6570,7 +6570,7 @@
       <c r="I450"/>
       <c r="J450"/>
     </row>
-    <row r="451" spans="1:10">
+    <row r="451" spans="1:10" ht="12.5">
       <c r="A451" s="108"/>
       <c r="E451"/>
       <c r="F451" s="108"/>
@@ -6578,7 +6578,7 @@
       <c r="I451"/>
       <c r="J451"/>
     </row>
-    <row r="452" spans="1:10">
+    <row r="452" spans="1:10" ht="12.5">
       <c r="A452" s="108"/>
       <c r="E452"/>
       <c r="F452" s="108"/>
@@ -6586,7 +6586,7 @@
       <c r="I452"/>
       <c r="J452"/>
     </row>
-    <row r="453" spans="1:10">
+    <row r="453" spans="1:10" ht="12.5">
       <c r="A453" s="108"/>
       <c r="E453"/>
       <c r="F453" s="108"/>
@@ -6594,7 +6594,7 @@
       <c r="I453"/>
       <c r="J453"/>
     </row>
-    <row r="454" spans="1:10">
+    <row r="454" spans="1:10" ht="12.5">
       <c r="A454" s="108"/>
       <c r="E454"/>
       <c r="F454" s="108"/>
@@ -6687,7 +6687,7 @@
       <c r="I465"/>
       <c r="J465"/>
     </row>
-    <row r="466" spans="1:10">
+    <row r="466" spans="1:10" ht="12.5">
       <c r="E466"/>
       <c r="F466" s="108"/>
       <c r="G466" s="36"/>
@@ -6787,7 +6787,7 @@
       <c r="G488" s="219"/>
       <c r="H488" s="193"/>
     </row>
-    <row r="489" spans="1:8" ht="13.5">
+    <row r="489" spans="1:8">
       <c r="A489" s="56"/>
       <c r="B489" s="231"/>
       <c r="C489" s="56"/>
@@ -6797,7 +6797,7 @@
       <c r="G489" s="219"/>
       <c r="H489" s="193"/>
     </row>
-    <row r="490" spans="1:8" ht="13.5">
+    <row r="490" spans="1:8">
       <c r="A490" s="56"/>
       <c r="B490" s="231"/>
       <c r="C490" s="56"/>
@@ -6807,7 +6807,7 @@
       <c r="G490" s="219"/>
       <c r="H490" s="193"/>
     </row>
-    <row r="491" spans="1:8" ht="13.5">
+    <row r="491" spans="1:8">
       <c r="A491" s="56"/>
       <c r="B491" s="231"/>
       <c r="C491" s="56"/>
@@ -6817,7 +6817,7 @@
       <c r="G491" s="219"/>
       <c r="H491" s="193"/>
     </row>
-    <row r="492" spans="1:8">
+    <row r="492" spans="1:8" ht="12.5">
       <c r="E492"/>
       <c r="F492" s="108"/>
       <c r="G492" s="36"/>
@@ -6834,12 +6834,12 @@
       <c r="F495" s="108"/>
       <c r="G495" s="36"/>
     </row>
-    <row r="496" spans="1:8">
+    <row r="496" spans="1:8" ht="12.5">
       <c r="E496" s="62"/>
       <c r="F496" s="108"/>
       <c r="G496" s="36"/>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" ht="12.5">
       <c r="E497" s="62"/>
       <c r="F497" s="108"/>
       <c r="G497" s="36"/>
@@ -6848,45 +6848,45 @@
       <c r="F498" s="108"/>
       <c r="G498" s="36"/>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" ht="12.5">
       <c r="B499" s="201"/>
       <c r="D499" s="2"/>
       <c r="E499" s="63"/>
       <c r="F499" s="108"/>
       <c r="G499" s="36"/>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" ht="12.5">
       <c r="B500" s="201"/>
       <c r="E500" s="62"/>
       <c r="F500" s="108"/>
       <c r="G500" s="36"/>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" ht="12.5">
       <c r="E501" s="62"/>
       <c r="F501" s="108"/>
       <c r="G501" s="36"/>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" ht="12.5">
       <c r="E502" s="62"/>
       <c r="F502" s="108"/>
       <c r="G502" s="36"/>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" ht="12.5">
       <c r="E503" s="62"/>
       <c r="F503" s="108"/>
       <c r="G503" s="36"/>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" ht="12.5">
       <c r="E504" s="62"/>
       <c r="F504" s="108"/>
       <c r="G504" s="36"/>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" ht="12.5">
       <c r="E505" s="62"/>
       <c r="F505" s="108"/>
       <c r="G505" s="36"/>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" ht="12.5">
       <c r="E506" s="62"/>
       <c r="F506" s="108"/>
       <c r="G506" s="36"/>
@@ -6921,7 +6921,7 @@
       <c r="G512" s="219"/>
       <c r="H512" s="193"/>
     </row>
-    <row r="513" spans="1:10">
+    <row r="513" spans="1:10" ht="12.5">
       <c r="E513"/>
       <c r="F513" s="108"/>
       <c r="G513" s="36"/>
@@ -6941,7 +6941,7 @@
       <c r="G516" s="36"/>
       <c r="H516" s="55"/>
     </row>
-    <row r="517" spans="1:10">
+    <row r="517" spans="1:10" ht="12.5">
       <c r="A517" s="143"/>
       <c r="B517" s="143"/>
       <c r="C517" s="143"/>
@@ -7099,7 +7099,7 @@
       <c r="H539" s="193"/>
       <c r="J539"/>
     </row>
-    <row r="540" spans="1:10">
+    <row r="540" spans="1:10" ht="12.5">
       <c r="E540"/>
       <c r="F540" s="108"/>
       <c r="G540" s="108"/>
@@ -7230,7 +7230,7 @@
       <c r="I559"/>
       <c r="J559"/>
     </row>
-    <row r="560" spans="1:10">
+    <row r="560" spans="1:10" ht="12.5">
       <c r="E560"/>
       <c r="F560" s="108"/>
       <c r="G560" s="108"/>
@@ -7631,27 +7631,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E7B8F4-5285-46EC-BCE1-BF8FCCDC20D1}">
   <dimension ref="A1:L402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D14" sqref="D14"/>
       <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.42578125" customWidth="1"/>
-    <col min="6" max="6" width="50.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.453125" customWidth="1"/>
+    <col min="6" max="6" width="50.1796875" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:12" ht="40" customHeight="1">
       <c r="A1" s="282" t="s">
         <v>120</v>
       </c>
@@ -7670,7 +7670,7 @@
       <c r="H1" s="278"/>
       <c r="I1" s="277"/>
     </row>
-    <row r="2" spans="1:12" ht="66.95" customHeight="1">
+    <row r="2" spans="1:12" ht="67" customHeight="1">
       <c r="A2" s="275" t="s">
         <v>121</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="13">
       <c r="A3" s="274" t="s">
         <v>11</v>
       </c>
@@ -13868,18 +13868,18 @@
       <selection activeCell="A4" sqref="A4:XFD650"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="151" customWidth="1"/>
-    <col min="2" max="2" width="61.7109375" style="171" customWidth="1"/>
+    <col min="1" max="1" width="29.7265625" style="151" customWidth="1"/>
+    <col min="2" max="2" width="61.7265625" style="171" customWidth="1"/>
     <col min="3" max="3" width="65" style="151" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="151" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" style="151"/>
+    <col min="4" max="4" width="14.7265625" style="151" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" style="151"/>
     <col min="7" max="7" width="13" style="151" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="151" customWidth="1"/>
-    <col min="9" max="12" width="8.7109375" style="151"/>
-    <col min="13" max="13" width="16.28515625" style="151" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="151"/>
+    <col min="8" max="8" width="11.453125" style="151" customWidth="1"/>
+    <col min="9" max="12" width="8.7265625" style="151"/>
+    <col min="13" max="13" width="16.26953125" style="151" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="151"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
@@ -13896,7 +13896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="51">
+    <row r="2" spans="1:11" ht="52">
       <c r="A2" s="152" t="s">
         <v>129</v>
       </c>
@@ -13910,7 +13910,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="13">
       <c r="A3" s="154" t="s">
         <v>11</v>
       </c>
@@ -14483,39 +14483,39 @@
       <c r="B121" s="204"/>
       <c r="C121" s="140"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" ht="13">
       <c r="A122" s="196"/>
       <c r="B122" s="204"/>
       <c r="C122" s="140"/>
       <c r="E122" s="156"/>
       <c r="F122" s="156"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" ht="13">
       <c r="A123" s="196"/>
       <c r="B123" s="206"/>
       <c r="C123" s="167"/>
       <c r="E123" s="156"/>
       <c r="F123" s="156"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" ht="13">
       <c r="A124" s="196"/>
       <c r="B124" s="204"/>
       <c r="C124" s="140"/>
       <c r="E124" s="156"/>
       <c r="F124" s="156"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" ht="13">
       <c r="A125" s="196"/>
       <c r="B125" s="204"/>
       <c r="C125" s="140"/>
       <c r="E125" s="156"/>
       <c r="F125" s="156"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" ht="13">
       <c r="E126" s="156"/>
       <c r="F126" s="156"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" ht="13">
       <c r="A127" s="162"/>
       <c r="B127" s="205"/>
       <c r="C127" s="162"/>
@@ -14523,25 +14523,25 @@
       <c r="E127" s="156"/>
       <c r="F127" s="156"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" ht="13">
       <c r="A128" s="140"/>
       <c r="B128" s="204"/>
       <c r="C128" s="140"/>
       <c r="E128" s="156"/>
       <c r="F128" s="156"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" ht="13">
       <c r="A129" s="140"/>
       <c r="B129" s="204"/>
       <c r="C129" s="140"/>
       <c r="E129" s="156"/>
       <c r="F129" s="156"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" ht="13">
       <c r="E130" s="156"/>
       <c r="F130" s="156"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" ht="13">
       <c r="A131" s="162"/>
       <c r="B131" s="205"/>
       <c r="C131" s="162"/>
@@ -14549,7 +14549,7 @@
       <c r="E131" s="156"/>
       <c r="F131" s="156"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" ht="13">
       <c r="A132" s="197"/>
       <c r="B132" s="204"/>
       <c r="C132" s="140"/>
@@ -14557,7 +14557,7 @@
       <c r="E132" s="156"/>
       <c r="F132" s="156"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" ht="13">
       <c r="A133" s="197"/>
       <c r="B133" s="204"/>
       <c r="C133" s="140"/>
@@ -14565,11 +14565,11 @@
       <c r="E133" s="156"/>
       <c r="F133" s="156"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" ht="13">
       <c r="E134" s="156"/>
       <c r="F134" s="156"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" ht="13">
       <c r="A135" s="162"/>
       <c r="B135" s="205"/>
       <c r="C135" s="162"/>
@@ -14577,28 +14577,28 @@
       <c r="E135" s="156"/>
       <c r="F135" s="156"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" ht="13">
       <c r="A136" s="189"/>
       <c r="B136" s="208"/>
       <c r="C136" s="140"/>
       <c r="E136" s="156"/>
       <c r="F136" s="156"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" ht="13">
       <c r="A137" s="189"/>
       <c r="B137" s="208"/>
       <c r="C137" s="140"/>
       <c r="E137" s="156"/>
       <c r="F137" s="156"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" ht="13">
       <c r="A138" s="189"/>
       <c r="B138" s="208"/>
       <c r="C138" s="140"/>
       <c r="E138" s="156"/>
       <c r="F138" s="156"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" ht="13">
       <c r="E139" s="156"/>
       <c r="F139" s="156"/>
     </row>
@@ -14608,7 +14608,7 @@
       <c r="C140" s="162"/>
       <c r="D140" s="158"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" ht="13">
       <c r="E141" s="156"/>
       <c r="F141" s="156"/>
     </row>
@@ -15125,7 +15125,7 @@
       <c r="C275" s="158"/>
       <c r="D275" s="158"/>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" ht="13">
       <c r="E281" s="156"/>
       <c r="F281" s="156"/>
     </row>
@@ -15738,943 +15738,943 @@
       <c r="B402" s="159"/>
       <c r="C402" s="140"/>
     </row>
-    <row r="403" spans="1:3" ht="15">
+    <row r="403" spans="1:3" ht="14.5">
       <c r="A403" s="177"/>
       <c r="C403" s="179"/>
     </row>
-    <row r="404" spans="1:3" ht="15">
+    <row r="404" spans="1:3" ht="14.5">
       <c r="A404" s="140"/>
       <c r="C404" s="180"/>
     </row>
-    <row r="405" spans="1:3" ht="15">
+    <row r="405" spans="1:3" ht="14.5">
       <c r="A405" s="140"/>
       <c r="C405" s="180"/>
     </row>
-    <row r="406" spans="1:3" ht="15">
+    <row r="406" spans="1:3" ht="14.5">
       <c r="A406" s="140"/>
       <c r="C406" s="180"/>
     </row>
-    <row r="407" spans="1:3" ht="15">
+    <row r="407" spans="1:3" ht="14.5">
       <c r="A407" s="140"/>
       <c r="C407" s="180"/>
     </row>
-    <row r="408" spans="1:3" ht="15">
+    <row r="408" spans="1:3" ht="14.5">
       <c r="A408" s="140"/>
       <c r="C408" s="180"/>
     </row>
-    <row r="409" spans="1:3" ht="15">
+    <row r="409" spans="1:3" ht="14.5">
       <c r="A409" s="140"/>
       <c r="C409" s="180"/>
     </row>
-    <row r="410" spans="1:3" ht="15">
+    <row r="410" spans="1:3" ht="14.5">
       <c r="A410" s="140"/>
       <c r="C410" s="180"/>
     </row>
-    <row r="411" spans="1:3" ht="15">
+    <row r="411" spans="1:3" ht="14.5">
       <c r="A411" s="140"/>
       <c r="C411" s="180"/>
     </row>
-    <row r="412" spans="1:3" ht="15">
+    <row r="412" spans="1:3" ht="14.5">
       <c r="A412" s="140"/>
       <c r="C412" s="180"/>
     </row>
-    <row r="413" spans="1:3" ht="15">
+    <row r="413" spans="1:3" ht="14.5">
       <c r="A413" s="140"/>
       <c r="C413" s="180"/>
     </row>
-    <row r="414" spans="1:3" ht="15">
+    <row r="414" spans="1:3" ht="14.5">
       <c r="A414" s="140"/>
       <c r="C414" s="180"/>
     </row>
-    <row r="415" spans="1:3" ht="15">
+    <row r="415" spans="1:3" ht="14.5">
       <c r="A415" s="140"/>
       <c r="C415" s="180"/>
     </row>
-    <row r="416" spans="1:3" ht="15">
+    <row r="416" spans="1:3" ht="14.5">
       <c r="A416" s="140"/>
       <c r="C416" s="180"/>
     </row>
-    <row r="417" spans="1:3" ht="15">
+    <row r="417" spans="1:3" ht="14.5">
       <c r="A417" s="140"/>
       <c r="C417" s="180"/>
     </row>
-    <row r="418" spans="1:3" ht="15">
+    <row r="418" spans="1:3" ht="14.5">
       <c r="A418" s="140"/>
       <c r="C418" s="180"/>
     </row>
-    <row r="419" spans="1:3" ht="15">
+    <row r="419" spans="1:3" ht="14.5">
       <c r="A419" s="140"/>
       <c r="C419" s="180"/>
     </row>
-    <row r="420" spans="1:3" ht="15">
+    <row r="420" spans="1:3" ht="14.5">
       <c r="A420" s="173"/>
       <c r="C420" s="181"/>
     </row>
-    <row r="421" spans="1:3" ht="15">
+    <row r="421" spans="1:3" ht="14.5">
       <c r="A421" s="177"/>
       <c r="C421" s="179"/>
     </row>
-    <row r="422" spans="1:3" ht="15">
+    <row r="422" spans="1:3" ht="14.5">
       <c r="A422" s="140"/>
       <c r="C422" s="180"/>
     </row>
-    <row r="423" spans="1:3" ht="15">
+    <row r="423" spans="1:3" ht="14.5">
       <c r="A423" s="140"/>
       <c r="C423" s="180"/>
     </row>
-    <row r="424" spans="1:3" ht="15">
+    <row r="424" spans="1:3" ht="14.5">
       <c r="A424" s="140"/>
       <c r="C424" s="180"/>
     </row>
-    <row r="425" spans="1:3" ht="15">
+    <row r="425" spans="1:3" ht="14.5">
       <c r="A425" s="140"/>
       <c r="C425" s="180"/>
     </row>
-    <row r="426" spans="1:3" ht="15">
+    <row r="426" spans="1:3" ht="14.5">
       <c r="A426" s="140"/>
       <c r="C426" s="180"/>
     </row>
-    <row r="427" spans="1:3" ht="15">
+    <row r="427" spans="1:3" ht="14.5">
       <c r="A427" s="140"/>
       <c r="C427" s="180"/>
     </row>
-    <row r="428" spans="1:3" ht="15">
+    <row r="428" spans="1:3" ht="14.5">
       <c r="A428" s="140"/>
       <c r="C428" s="181"/>
     </row>
-    <row r="429" spans="1:3" ht="15">
+    <row r="429" spans="1:3" ht="14.5">
       <c r="A429" s="177"/>
       <c r="C429" s="179"/>
     </row>
-    <row r="430" spans="1:3" ht="15">
+    <row r="430" spans="1:3" ht="14.5">
       <c r="A430" s="140"/>
       <c r="C430" s="180"/>
     </row>
-    <row r="431" spans="1:3" ht="15">
+    <row r="431" spans="1:3" ht="14.5">
       <c r="A431" s="140"/>
       <c r="C431" s="180"/>
     </row>
-    <row r="432" spans="1:3" ht="15">
+    <row r="432" spans="1:3" ht="14.5">
       <c r="A432" s="140"/>
       <c r="C432" s="180"/>
     </row>
-    <row r="433" spans="1:3" ht="15">
+    <row r="433" spans="1:3" ht="14.5">
       <c r="A433" s="140"/>
       <c r="C433" s="180"/>
     </row>
-    <row r="434" spans="1:3" ht="15">
+    <row r="434" spans="1:3" ht="14.5">
       <c r="A434" s="140"/>
       <c r="C434" s="180"/>
     </row>
-    <row r="435" spans="1:3" ht="15">
+    <row r="435" spans="1:3" ht="14.5">
       <c r="A435" s="140"/>
       <c r="C435" s="180"/>
     </row>
-    <row r="436" spans="1:3" ht="15">
+    <row r="436" spans="1:3" ht="14.5">
       <c r="A436" s="140"/>
       <c r="C436" s="180"/>
     </row>
-    <row r="437" spans="1:3" ht="15">
+    <row r="437" spans="1:3" ht="14.5">
       <c r="A437" s="140"/>
       <c r="C437" s="181"/>
     </row>
-    <row r="438" spans="1:3" ht="15">
+    <row r="438" spans="1:3" ht="14.5">
       <c r="A438" s="177"/>
       <c r="C438" s="180"/>
     </row>
-    <row r="439" spans="1:3" ht="15">
+    <row r="439" spans="1:3" ht="14.5">
       <c r="A439" s="140"/>
       <c r="C439" s="180"/>
     </row>
-    <row r="440" spans="1:3" ht="15">
+    <row r="440" spans="1:3" ht="14.5">
       <c r="A440" s="140"/>
       <c r="C440" s="182"/>
     </row>
-    <row r="441" spans="1:3" ht="15">
+    <row r="441" spans="1:3" ht="14.5">
       <c r="A441" s="140"/>
       <c r="C441" s="180"/>
     </row>
-    <row r="442" spans="1:3" ht="15">
+    <row r="442" spans="1:3" ht="14.5">
       <c r="A442" s="140"/>
       <c r="C442" s="181"/>
     </row>
-    <row r="443" spans="1:3" ht="15">
+    <row r="443" spans="1:3" ht="14.5">
       <c r="A443" s="177"/>
       <c r="C443" s="179"/>
     </row>
-    <row r="444" spans="1:3" ht="15">
+    <row r="444" spans="1:3" ht="14.5">
       <c r="A444" s="140"/>
       <c r="C444" s="180"/>
     </row>
-    <row r="445" spans="1:3" ht="15">
+    <row r="445" spans="1:3" ht="14.5">
       <c r="A445" s="140"/>
       <c r="C445" s="180"/>
     </row>
-    <row r="446" spans="1:3" ht="15">
+    <row r="446" spans="1:3" ht="14.5">
       <c r="A446" s="140"/>
       <c r="C446" s="180"/>
     </row>
-    <row r="447" spans="1:3" ht="15">
+    <row r="447" spans="1:3" ht="14.5">
       <c r="A447" s="140"/>
       <c r="C447" s="180"/>
     </row>
-    <row r="448" spans="1:3" ht="15">
+    <row r="448" spans="1:3" ht="14.5">
       <c r="A448" s="140"/>
       <c r="C448" s="180"/>
     </row>
-    <row r="449" spans="1:3" ht="15">
+    <row r="449" spans="1:3" ht="14.5">
       <c r="A449" s="140"/>
       <c r="C449" s="180"/>
     </row>
-    <row r="450" spans="1:3" ht="15">
+    <row r="450" spans="1:3" ht="14.5">
       <c r="A450" s="140"/>
       <c r="C450" s="181"/>
     </row>
-    <row r="451" spans="1:3" ht="15">
+    <row r="451" spans="1:3" ht="14.5">
       <c r="A451" s="140"/>
       <c r="C451" s="180"/>
     </row>
-    <row r="452" spans="1:3" ht="15">
+    <row r="452" spans="1:3" ht="14.5">
       <c r="A452" s="177"/>
       <c r="C452" s="179"/>
     </row>
-    <row r="453" spans="1:3" ht="15">
+    <row r="453" spans="1:3" ht="14.5">
       <c r="A453" s="140"/>
       <c r="C453" s="180"/>
     </row>
-    <row r="454" spans="1:3" ht="15">
+    <row r="454" spans="1:3" ht="14.5">
       <c r="A454" s="140"/>
       <c r="C454" s="180"/>
     </row>
-    <row r="455" spans="1:3" ht="15">
+    <row r="455" spans="1:3" ht="14.5">
       <c r="A455" s="140"/>
       <c r="C455" s="180"/>
     </row>
-    <row r="456" spans="1:3" ht="15">
+    <row r="456" spans="1:3" ht="14.5">
       <c r="A456" s="140"/>
       <c r="C456" s="180"/>
     </row>
-    <row r="457" spans="1:3" ht="15">
+    <row r="457" spans="1:3" ht="14.5">
       <c r="A457" s="140"/>
       <c r="C457" s="180"/>
     </row>
-    <row r="458" spans="1:3" ht="15">
+    <row r="458" spans="1:3" ht="14.5">
       <c r="A458" s="140"/>
       <c r="C458" s="180"/>
     </row>
-    <row r="459" spans="1:3" ht="15">
+    <row r="459" spans="1:3" ht="14.5">
       <c r="A459" s="140"/>
       <c r="C459" s="180"/>
     </row>
-    <row r="460" spans="1:3" ht="15">
+    <row r="460" spans="1:3" ht="14.5">
       <c r="A460" s="140"/>
       <c r="C460" s="180"/>
     </row>
-    <row r="461" spans="1:3" ht="15">
+    <row r="461" spans="1:3" ht="14.5">
       <c r="A461" s="140"/>
       <c r="C461" s="180"/>
     </row>
-    <row r="462" spans="1:3" ht="15">
+    <row r="462" spans="1:3" ht="14.5">
       <c r="A462" s="140"/>
       <c r="C462" s="180"/>
     </row>
-    <row r="463" spans="1:3" ht="15">
+    <row r="463" spans="1:3" ht="14.5">
       <c r="A463" s="140"/>
       <c r="C463" s="180"/>
     </row>
-    <row r="464" spans="1:3" ht="15">
+    <row r="464" spans="1:3" ht="14.5">
       <c r="A464" s="140"/>
       <c r="C464" s="180"/>
     </row>
-    <row r="465" spans="1:3" ht="15">
+    <row r="465" spans="1:3" ht="14.5">
       <c r="A465" s="140"/>
       <c r="C465" s="180"/>
     </row>
-    <row r="466" spans="1:3" ht="15">
+    <row r="466" spans="1:3" ht="14.5">
       <c r="A466" s="140"/>
       <c r="C466" s="180"/>
     </row>
-    <row r="467" spans="1:3" ht="15">
+    <row r="467" spans="1:3" ht="14.5">
       <c r="A467" s="140"/>
       <c r="C467" s="180"/>
     </row>
-    <row r="468" spans="1:3" ht="15">
+    <row r="468" spans="1:3" ht="14.5">
       <c r="A468" s="140"/>
       <c r="C468" s="180"/>
     </row>
-    <row r="469" spans="1:3" ht="15">
+    <row r="469" spans="1:3" ht="14.5">
       <c r="A469" s="140"/>
       <c r="C469" s="180"/>
     </row>
-    <row r="470" spans="1:3" ht="15">
+    <row r="470" spans="1:3" ht="14.5">
       <c r="A470" s="140"/>
       <c r="C470" s="180"/>
     </row>
-    <row r="471" spans="1:3" ht="15">
+    <row r="471" spans="1:3" ht="14.5">
       <c r="A471" s="140"/>
       <c r="C471" s="180"/>
     </row>
-    <row r="472" spans="1:3" ht="15">
+    <row r="472" spans="1:3" ht="14.5">
       <c r="A472" s="140"/>
       <c r="C472" s="180"/>
     </row>
-    <row r="473" spans="1:3" ht="15">
+    <row r="473" spans="1:3" ht="14.5">
       <c r="A473" s="140"/>
       <c r="C473" s="180"/>
     </row>
-    <row r="474" spans="1:3" ht="15">
+    <row r="474" spans="1:3" ht="14.5">
       <c r="A474" s="140"/>
       <c r="C474" s="180"/>
     </row>
-    <row r="475" spans="1:3" ht="15">
+    <row r="475" spans="1:3" ht="14.5">
       <c r="A475" s="140"/>
       <c r="C475" s="180"/>
     </row>
-    <row r="476" spans="1:3" ht="15">
+    <row r="476" spans="1:3" ht="14.5">
       <c r="A476" s="140"/>
       <c r="C476" s="180"/>
     </row>
-    <row r="477" spans="1:3" ht="15">
+    <row r="477" spans="1:3" ht="14.5">
       <c r="A477" s="140"/>
       <c r="C477" s="180"/>
     </row>
-    <row r="478" spans="1:3" ht="15">
+    <row r="478" spans="1:3" ht="14.5">
       <c r="A478" s="140"/>
       <c r="C478" s="180"/>
     </row>
-    <row r="479" spans="1:3" ht="15">
+    <row r="479" spans="1:3" ht="14.5">
       <c r="A479" s="140"/>
       <c r="C479" s="180"/>
     </row>
-    <row r="480" spans="1:3" ht="15">
+    <row r="480" spans="1:3" ht="14.5">
       <c r="A480" s="140"/>
       <c r="C480" s="180"/>
     </row>
-    <row r="481" spans="1:3" ht="15">
+    <row r="481" spans="1:3" ht="14.5">
       <c r="A481" s="140"/>
       <c r="C481" s="180"/>
     </row>
-    <row r="482" spans="1:3" ht="15">
+    <row r="482" spans="1:3" ht="14.5">
       <c r="A482" s="140"/>
       <c r="C482" s="180"/>
     </row>
-    <row r="483" spans="1:3" ht="15">
+    <row r="483" spans="1:3" ht="14.5">
       <c r="A483" s="140"/>
       <c r="C483" s="180"/>
     </row>
-    <row r="484" spans="1:3" ht="15">
+    <row r="484" spans="1:3" ht="14.5">
       <c r="A484" s="140"/>
       <c r="C484" s="180"/>
     </row>
-    <row r="485" spans="1:3" ht="15">
+    <row r="485" spans="1:3" ht="14.5">
       <c r="A485" s="140"/>
       <c r="C485" s="180"/>
     </row>
-    <row r="486" spans="1:3" ht="15">
+    <row r="486" spans="1:3" ht="14.5">
       <c r="A486" s="140"/>
       <c r="C486" s="180"/>
     </row>
-    <row r="487" spans="1:3" ht="15">
+    <row r="487" spans="1:3" ht="14.5">
       <c r="A487" s="177"/>
       <c r="C487" s="179"/>
     </row>
-    <row r="488" spans="1:3" ht="15">
+    <row r="488" spans="1:3" ht="14.5">
       <c r="A488" s="140"/>
       <c r="C488" s="180"/>
     </row>
-    <row r="489" spans="1:3" ht="15">
+    <row r="489" spans="1:3" ht="14.5">
       <c r="A489" s="140"/>
       <c r="C489" s="180"/>
     </row>
-    <row r="490" spans="1:3" ht="15">
+    <row r="490" spans="1:3" ht="14.5">
       <c r="A490" s="140"/>
       <c r="C490" s="180"/>
     </row>
-    <row r="491" spans="1:3" ht="15">
+    <row r="491" spans="1:3" ht="14.5">
       <c r="A491" s="140"/>
       <c r="C491" s="180"/>
     </row>
-    <row r="492" spans="1:3" ht="15">
+    <row r="492" spans="1:3" ht="14.5">
       <c r="A492" s="140"/>
       <c r="C492" s="181"/>
     </row>
-    <row r="493" spans="1:3" ht="15">
+    <row r="493" spans="1:3" ht="14.5">
       <c r="A493" s="177"/>
       <c r="C493" s="179"/>
     </row>
-    <row r="494" spans="1:3" ht="15">
+    <row r="494" spans="1:3" ht="14.5">
       <c r="A494" s="140"/>
       <c r="C494" s="180"/>
     </row>
-    <row r="495" spans="1:3" ht="15">
+    <row r="495" spans="1:3" ht="14.5">
       <c r="A495" s="140"/>
       <c r="C495" s="180"/>
     </row>
-    <row r="496" spans="1:3" ht="15">
+    <row r="496" spans="1:3" ht="14.5">
       <c r="A496" s="140"/>
       <c r="C496" s="180"/>
     </row>
-    <row r="497" spans="1:3" ht="15">
+    <row r="497" spans="1:3" ht="14.5">
       <c r="A497" s="140"/>
       <c r="C497" s="180"/>
     </row>
-    <row r="498" spans="1:3" ht="15">
+    <row r="498" spans="1:3" ht="14.5">
       <c r="A498" s="140"/>
       <c r="C498" s="181"/>
     </row>
-    <row r="499" spans="1:3" ht="15">
+    <row r="499" spans="1:3" ht="14.5">
       <c r="A499" s="177"/>
       <c r="C499" s="179"/>
     </row>
-    <row r="500" spans="1:3" ht="15">
+    <row r="500" spans="1:3" ht="14.5">
       <c r="A500" s="140"/>
       <c r="C500" s="180"/>
     </row>
-    <row r="501" spans="1:3" ht="15">
+    <row r="501" spans="1:3" ht="14.5">
       <c r="A501" s="140"/>
       <c r="C501" s="180"/>
     </row>
-    <row r="502" spans="1:3" ht="15">
+    <row r="502" spans="1:3" ht="14.5">
       <c r="A502" s="140"/>
       <c r="C502" s="180"/>
     </row>
-    <row r="503" spans="1:3" ht="15">
+    <row r="503" spans="1:3" ht="14.5">
       <c r="A503" s="140"/>
       <c r="C503" s="180"/>
     </row>
-    <row r="504" spans="1:3" ht="15">
+    <row r="504" spans="1:3" ht="14.5">
       <c r="A504" s="140"/>
       <c r="C504" s="180"/>
     </row>
-    <row r="505" spans="1:3" ht="15">
+    <row r="505" spans="1:3" ht="14.5">
       <c r="A505" s="140"/>
       <c r="C505" s="180"/>
     </row>
-    <row r="506" spans="1:3" ht="15">
+    <row r="506" spans="1:3" ht="14.5">
       <c r="A506" s="140"/>
       <c r="C506" s="180"/>
     </row>
-    <row r="507" spans="1:3" ht="15">
+    <row r="507" spans="1:3" ht="14.5">
       <c r="A507" s="140"/>
       <c r="C507" s="180"/>
     </row>
-    <row r="508" spans="1:3" ht="15">
+    <row r="508" spans="1:3" ht="14.5">
       <c r="A508" s="140"/>
       <c r="C508" s="180"/>
     </row>
-    <row r="509" spans="1:3" ht="15">
+    <row r="509" spans="1:3" ht="14.5">
       <c r="A509" s="140"/>
       <c r="C509" s="180"/>
     </row>
-    <row r="510" spans="1:3" ht="15">
+    <row r="510" spans="1:3" ht="14.5">
       <c r="A510" s="140"/>
       <c r="C510" s="180"/>
     </row>
-    <row r="511" spans="1:3" ht="15">
+    <row r="511" spans="1:3" ht="14.5">
       <c r="A511" s="140"/>
       <c r="C511" s="180"/>
     </row>
-    <row r="512" spans="1:3" ht="15">
+    <row r="512" spans="1:3" ht="14.5">
       <c r="A512" s="140"/>
       <c r="C512" s="180"/>
     </row>
-    <row r="513" spans="1:3" ht="15">
+    <row r="513" spans="1:3" ht="14.5">
       <c r="A513" s="140"/>
       <c r="C513" s="180"/>
     </row>
-    <row r="514" spans="1:3" ht="15">
+    <row r="514" spans="1:3" ht="14.5">
       <c r="A514" s="140"/>
       <c r="C514" s="180"/>
     </row>
-    <row r="515" spans="1:3" ht="15">
+    <row r="515" spans="1:3" ht="14.5">
       <c r="A515" s="140"/>
       <c r="C515" s="180"/>
     </row>
-    <row r="516" spans="1:3" ht="15">
+    <row r="516" spans="1:3" ht="14.5">
       <c r="A516" s="140"/>
       <c r="C516" s="180"/>
     </row>
-    <row r="517" spans="1:3" ht="15">
+    <row r="517" spans="1:3" ht="14.5">
       <c r="A517" s="140"/>
       <c r="C517" s="180"/>
     </row>
-    <row r="518" spans="1:3" ht="15">
+    <row r="518" spans="1:3" ht="14.5">
       <c r="A518" s="140"/>
       <c r="C518" s="181"/>
     </row>
-    <row r="519" spans="1:3" ht="15">
+    <row r="519" spans="1:3" ht="14.5">
       <c r="A519" s="140"/>
       <c r="C519" s="180"/>
     </row>
-    <row r="520" spans="1:3" ht="15">
+    <row r="520" spans="1:3" ht="14.5">
       <c r="A520" s="140"/>
       <c r="C520" s="180"/>
     </row>
-    <row r="521" spans="1:3" ht="15">
+    <row r="521" spans="1:3" ht="14.5">
       <c r="A521" s="140"/>
       <c r="C521" s="180"/>
     </row>
-    <row r="522" spans="1:3" ht="15">
+    <row r="522" spans="1:3" ht="14.5">
       <c r="A522" s="140"/>
       <c r="C522" s="180"/>
     </row>
-    <row r="523" spans="1:3" ht="15">
+    <row r="523" spans="1:3" ht="14.5">
       <c r="A523" s="140"/>
       <c r="C523" s="180"/>
     </row>
-    <row r="524" spans="1:3" ht="15">
+    <row r="524" spans="1:3" ht="14.5">
       <c r="A524" s="140"/>
       <c r="C524" s="180"/>
     </row>
-    <row r="525" spans="1:3" ht="15">
+    <row r="525" spans="1:3" ht="14.5">
       <c r="A525" s="140"/>
       <c r="C525" s="180"/>
     </row>
-    <row r="526" spans="1:3" ht="15">
+    <row r="526" spans="1:3" ht="14.5">
       <c r="A526" s="140"/>
       <c r="C526" s="180"/>
     </row>
-    <row r="527" spans="1:3" ht="15">
+    <row r="527" spans="1:3" ht="14.5">
       <c r="A527" s="140"/>
       <c r="C527" s="181"/>
     </row>
-    <row r="528" spans="1:3" ht="15">
+    <row r="528" spans="1:3" ht="14.5">
       <c r="A528" s="177"/>
       <c r="C528" s="179"/>
     </row>
-    <row r="529" spans="1:3" ht="15">
+    <row r="529" spans="1:3" ht="14.5">
       <c r="A529" s="140"/>
       <c r="C529" s="180"/>
     </row>
-    <row r="530" spans="1:3" ht="15">
+    <row r="530" spans="1:3" ht="14.5">
       <c r="A530" s="140"/>
       <c r="C530" s="180"/>
     </row>
-    <row r="531" spans="1:3" ht="15">
+    <row r="531" spans="1:3" ht="14.5">
       <c r="A531" s="140"/>
       <c r="C531" s="180"/>
     </row>
-    <row r="532" spans="1:3" ht="15">
+    <row r="532" spans="1:3" ht="14.5">
       <c r="A532" s="140"/>
       <c r="C532" s="180"/>
     </row>
-    <row r="533" spans="1:3" ht="15">
+    <row r="533" spans="1:3" ht="14.5">
       <c r="A533" s="140"/>
       <c r="C533" s="180"/>
     </row>
-    <row r="534" spans="1:3" ht="15">
+    <row r="534" spans="1:3" ht="14.5">
       <c r="A534" s="140"/>
       <c r="C534" s="180"/>
     </row>
-    <row r="535" spans="1:3" ht="15">
+    <row r="535" spans="1:3" ht="14.5">
       <c r="A535" s="140"/>
       <c r="C535" s="180"/>
     </row>
-    <row r="536" spans="1:3" ht="15">
+    <row r="536" spans="1:3" ht="14.5">
       <c r="A536" s="140"/>
       <c r="C536" s="180"/>
     </row>
-    <row r="537" spans="1:3" ht="15">
+    <row r="537" spans="1:3" ht="14.5">
       <c r="A537" s="140"/>
       <c r="C537" s="180"/>
     </row>
-    <row r="538" spans="1:3" ht="15">
+    <row r="538" spans="1:3" ht="14.5">
       <c r="A538" s="140"/>
       <c r="C538" s="180"/>
     </row>
-    <row r="539" spans="1:3" ht="15">
+    <row r="539" spans="1:3" ht="14.5">
       <c r="A539" s="140"/>
       <c r="C539" s="180"/>
     </row>
-    <row r="540" spans="1:3" ht="15">
+    <row r="540" spans="1:3" ht="14.5">
       <c r="A540" s="140"/>
       <c r="C540" s="180"/>
     </row>
-    <row r="541" spans="1:3" ht="15">
+    <row r="541" spans="1:3" ht="14.5">
       <c r="A541" s="140"/>
       <c r="C541" s="180"/>
     </row>
-    <row r="542" spans="1:3" ht="15">
+    <row r="542" spans="1:3" ht="14.5">
       <c r="A542" s="140"/>
       <c r="C542" s="180"/>
     </row>
-    <row r="543" spans="1:3" ht="15">
+    <row r="543" spans="1:3" ht="14.5">
       <c r="A543" s="140"/>
       <c r="C543" s="183"/>
     </row>
-    <row r="544" spans="1:3" ht="15">
+    <row r="544" spans="1:3" ht="14.5">
       <c r="A544" s="177"/>
       <c r="C544" s="184"/>
     </row>
-    <row r="545" spans="1:3" ht="15">
+    <row r="545" spans="1:3" ht="14.5">
       <c r="A545" s="140"/>
       <c r="C545" s="180"/>
     </row>
-    <row r="546" spans="1:3" ht="15">
+    <row r="546" spans="1:3" ht="14.5">
       <c r="A546" s="140"/>
       <c r="C546" s="180"/>
     </row>
-    <row r="547" spans="1:3" ht="15">
+    <row r="547" spans="1:3" ht="14.5">
       <c r="A547" s="140"/>
       <c r="C547" s="180"/>
     </row>
-    <row r="548" spans="1:3" ht="15">
+    <row r="548" spans="1:3" ht="14.5">
       <c r="A548" s="140"/>
       <c r="C548" s="181"/>
     </row>
-    <row r="549" spans="1:3" ht="15">
+    <row r="549" spans="1:3" ht="14.5">
       <c r="A549" s="177"/>
       <c r="C549" s="179"/>
     </row>
-    <row r="550" spans="1:3" ht="15">
+    <row r="550" spans="1:3" ht="14.5">
       <c r="A550" s="140"/>
       <c r="C550" s="180"/>
     </row>
-    <row r="551" spans="1:3" ht="15">
+    <row r="551" spans="1:3" ht="14.5">
       <c r="A551" s="140"/>
       <c r="C551" s="180"/>
     </row>
-    <row r="552" spans="1:3" ht="15">
+    <row r="552" spans="1:3" ht="14.5">
       <c r="A552" s="140"/>
       <c r="C552" s="180"/>
     </row>
-    <row r="553" spans="1:3" ht="15">
+    <row r="553" spans="1:3" ht="14.5">
       <c r="A553" s="140"/>
       <c r="C553" s="181"/>
     </row>
-    <row r="554" spans="1:3" ht="15">
+    <row r="554" spans="1:3" ht="14.5">
       <c r="A554" s="177"/>
       <c r="C554" s="179"/>
     </row>
-    <row r="555" spans="1:3" ht="15">
+    <row r="555" spans="1:3" ht="14.5">
       <c r="A555" s="140"/>
       <c r="C555" s="180"/>
     </row>
-    <row r="556" spans="1:3" ht="15">
+    <row r="556" spans="1:3" ht="14.5">
       <c r="A556" s="140"/>
       <c r="C556" s="180"/>
     </row>
-    <row r="557" spans="1:3" ht="15">
+    <row r="557" spans="1:3" ht="14.5">
       <c r="A557" s="140"/>
       <c r="C557" s="180"/>
     </row>
-    <row r="558" spans="1:3" ht="15">
+    <row r="558" spans="1:3" ht="14.5">
       <c r="A558" s="140"/>
       <c r="C558" s="180"/>
     </row>
-    <row r="559" spans="1:3" ht="15">
+    <row r="559" spans="1:3" ht="14.5">
       <c r="A559" s="140"/>
       <c r="C559" s="180"/>
     </row>
-    <row r="560" spans="1:3" ht="15">
+    <row r="560" spans="1:3" ht="14.5">
       <c r="A560" s="140"/>
       <c r="C560" s="180"/>
     </row>
-    <row r="561" spans="1:3" ht="15">
+    <row r="561" spans="1:3" ht="14.5">
       <c r="A561" s="140"/>
       <c r="C561" s="180"/>
     </row>
-    <row r="562" spans="1:3" ht="15">
+    <row r="562" spans="1:3" ht="14.5">
       <c r="A562" s="140"/>
       <c r="C562" s="180"/>
     </row>
-    <row r="563" spans="1:3" ht="15">
+    <row r="563" spans="1:3" ht="14.5">
       <c r="A563" s="140"/>
       <c r="C563" s="180"/>
     </row>
-    <row r="564" spans="1:3" ht="15">
+    <row r="564" spans="1:3" ht="14.5">
       <c r="A564" s="140"/>
       <c r="C564" s="180"/>
     </row>
-    <row r="565" spans="1:3" ht="15">
+    <row r="565" spans="1:3" ht="14.5">
       <c r="A565" s="140"/>
       <c r="C565" s="180"/>
     </row>
-    <row r="566" spans="1:3" ht="15">
+    <row r="566" spans="1:3" ht="14.5">
       <c r="A566" s="140"/>
       <c r="C566" s="180"/>
     </row>
-    <row r="567" spans="1:3" ht="15">
+    <row r="567" spans="1:3" ht="14.5">
       <c r="A567" s="140"/>
       <c r="C567" s="180"/>
     </row>
-    <row r="568" spans="1:3" ht="15">
+    <row r="568" spans="1:3" ht="14.5">
       <c r="A568" s="140"/>
       <c r="C568" s="180"/>
     </row>
-    <row r="569" spans="1:3" ht="15">
+    <row r="569" spans="1:3" ht="14.5">
       <c r="A569" s="140"/>
       <c r="C569" s="180"/>
     </row>
-    <row r="570" spans="1:3" ht="15">
+    <row r="570" spans="1:3" ht="14.5">
       <c r="A570" s="140"/>
       <c r="C570" s="180"/>
     </row>
-    <row r="571" spans="1:3" ht="15">
+    <row r="571" spans="1:3" ht="14.5">
       <c r="A571" s="140"/>
       <c r="C571" s="180"/>
     </row>
-    <row r="572" spans="1:3" ht="15">
+    <row r="572" spans="1:3" ht="14.5">
       <c r="A572" s="140"/>
       <c r="C572" s="180"/>
     </row>
-    <row r="573" spans="1:3" ht="15">
+    <row r="573" spans="1:3" ht="14.5">
       <c r="A573" s="140"/>
       <c r="C573" s="180"/>
     </row>
-    <row r="574" spans="1:3" ht="15">
+    <row r="574" spans="1:3" ht="14.5">
       <c r="A574" s="140"/>
       <c r="C574" s="180"/>
     </row>
-    <row r="575" spans="1:3" ht="15">
+    <row r="575" spans="1:3" ht="14.5">
       <c r="A575" s="140"/>
       <c r="C575" s="180"/>
     </row>
-    <row r="576" spans="1:3" ht="15">
+    <row r="576" spans="1:3" ht="14.5">
       <c r="A576" s="140"/>
       <c r="C576" s="180"/>
     </row>
-    <row r="577" spans="1:3" ht="15">
+    <row r="577" spans="1:3" ht="14.5">
       <c r="A577" s="140"/>
       <c r="C577" s="180"/>
     </row>
-    <row r="578" spans="1:3" ht="15">
+    <row r="578" spans="1:3" ht="14.5">
       <c r="A578" s="140"/>
       <c r="C578" s="180"/>
     </row>
-    <row r="579" spans="1:3" ht="15">
+    <row r="579" spans="1:3" ht="14.5">
       <c r="A579" s="140"/>
       <c r="C579" s="180"/>
     </row>
-    <row r="580" spans="1:3" ht="15">
+    <row r="580" spans="1:3" ht="14.5">
       <c r="A580" s="140"/>
       <c r="C580" s="180"/>
     </row>
-    <row r="581" spans="1:3" ht="15">
+    <row r="581" spans="1:3" ht="14.5">
       <c r="A581" s="140"/>
       <c r="C581" s="180"/>
     </row>
-    <row r="582" spans="1:3" ht="15">
+    <row r="582" spans="1:3" ht="14.5">
       <c r="A582" s="140"/>
       <c r="C582" s="180"/>
     </row>
-    <row r="583" spans="1:3" ht="15">
+    <row r="583" spans="1:3" ht="14.5">
       <c r="A583" s="140"/>
       <c r="C583" s="180"/>
     </row>
-    <row r="584" spans="1:3" ht="15">
+    <row r="584" spans="1:3" ht="14.5">
       <c r="A584" s="140"/>
       <c r="C584" s="180"/>
     </row>
-    <row r="585" spans="1:3" ht="15">
+    <row r="585" spans="1:3" ht="14.5">
       <c r="A585" s="140"/>
       <c r="C585" s="180"/>
     </row>
-    <row r="586" spans="1:3" ht="15">
+    <row r="586" spans="1:3" ht="14.5">
       <c r="A586" s="140"/>
       <c r="C586" s="180"/>
     </row>
-    <row r="587" spans="1:3" ht="15">
+    <row r="587" spans="1:3" ht="14.5">
       <c r="A587" s="140"/>
       <c r="C587" s="180"/>
     </row>
-    <row r="588" spans="1:3" ht="15">
+    <row r="588" spans="1:3" ht="14.5">
       <c r="A588" s="140"/>
       <c r="C588" s="180"/>
     </row>
-    <row r="589" spans="1:3" ht="15">
+    <row r="589" spans="1:3" ht="14.5">
       <c r="A589" s="140"/>
       <c r="C589" s="180"/>
     </row>
-    <row r="590" spans="1:3" ht="15">
+    <row r="590" spans="1:3" ht="14.5">
       <c r="A590" s="140"/>
       <c r="C590" s="180"/>
     </row>
-    <row r="591" spans="1:3" ht="15">
+    <row r="591" spans="1:3" ht="14.5">
       <c r="A591" s="140"/>
       <c r="C591" s="180"/>
     </row>
-    <row r="592" spans="1:3" ht="15">
+    <row r="592" spans="1:3" ht="14.5">
       <c r="A592" s="140"/>
       <c r="C592" s="180"/>
     </row>
-    <row r="593" spans="1:3" ht="15">
+    <row r="593" spans="1:3" ht="14.5">
       <c r="A593" s="140"/>
       <c r="C593" s="180"/>
     </row>
-    <row r="594" spans="1:3" ht="15">
+    <row r="594" spans="1:3" ht="14.5">
       <c r="A594" s="140"/>
       <c r="C594" s="180"/>
     </row>
-    <row r="595" spans="1:3" ht="15">
+    <row r="595" spans="1:3" ht="14.5">
       <c r="A595" s="140"/>
       <c r="C595" s="180"/>
     </row>
-    <row r="596" spans="1:3" ht="15">
+    <row r="596" spans="1:3" ht="14.5">
       <c r="A596" s="140"/>
       <c r="C596" s="180"/>
     </row>
-    <row r="597" spans="1:3" ht="15">
+    <row r="597" spans="1:3" ht="14.5">
       <c r="A597" s="140"/>
       <c r="C597" s="180"/>
     </row>
-    <row r="598" spans="1:3" ht="15">
+    <row r="598" spans="1:3" ht="14.5">
       <c r="A598" s="140"/>
       <c r="C598" s="180"/>
     </row>
-    <row r="599" spans="1:3" ht="15">
+    <row r="599" spans="1:3" ht="14.5">
       <c r="A599" s="140"/>
       <c r="C599" s="180"/>
     </row>
-    <row r="600" spans="1:3" ht="15">
+    <row r="600" spans="1:3" ht="14.5">
       <c r="A600" s="140"/>
       <c r="C600" s="180"/>
     </row>
-    <row r="601" spans="1:3" ht="15">
+    <row r="601" spans="1:3" ht="14.5">
       <c r="A601" s="140"/>
       <c r="C601" s="180"/>
     </row>
-    <row r="602" spans="1:3" ht="15">
+    <row r="602" spans="1:3" ht="14.5">
       <c r="A602" s="140"/>
       <c r="C602" s="180"/>
     </row>
-    <row r="603" spans="1:3" ht="15">
+    <row r="603" spans="1:3" ht="14.5">
       <c r="A603" s="140"/>
       <c r="C603" s="180"/>
     </row>
-    <row r="604" spans="1:3" ht="15">
+    <row r="604" spans="1:3" ht="14.5">
       <c r="A604" s="140"/>
       <c r="C604" s="180"/>
     </row>
-    <row r="605" spans="1:3" ht="15">
+    <row r="605" spans="1:3" ht="14.5">
       <c r="A605" s="140"/>
       <c r="C605" s="180"/>
     </row>
-    <row r="606" spans="1:3" ht="15">
+    <row r="606" spans="1:3" ht="14.5">
       <c r="A606" s="140"/>
       <c r="C606" s="180"/>
     </row>
-    <row r="607" spans="1:3" ht="15">
+    <row r="607" spans="1:3" ht="14.5">
       <c r="A607" s="140"/>
       <c r="C607" s="180"/>
     </row>
-    <row r="608" spans="1:3" ht="15">
+    <row r="608" spans="1:3" ht="14.5">
       <c r="A608" s="140"/>
       <c r="C608" s="180"/>
     </row>
-    <row r="609" spans="1:3" ht="15">
+    <row r="609" spans="1:3" ht="14.5">
       <c r="A609" s="140"/>
       <c r="C609" s="180"/>
     </row>
-    <row r="610" spans="1:3" ht="15">
+    <row r="610" spans="1:3" ht="14.5">
       <c r="A610" s="140"/>
       <c r="C610" s="181"/>
     </row>
-    <row r="611" spans="1:3" ht="15">
+    <row r="611" spans="1:3" ht="14.5">
       <c r="A611" s="177"/>
       <c r="C611" s="179"/>
     </row>
-    <row r="612" spans="1:3" ht="15">
+    <row r="612" spans="1:3" ht="14.5">
       <c r="A612" s="140"/>
       <c r="C612" s="180"/>
     </row>
-    <row r="613" spans="1:3" ht="15">
+    <row r="613" spans="1:3" ht="14.5">
       <c r="A613" s="140"/>
       <c r="C613" s="180"/>
     </row>
-    <row r="614" spans="1:3" ht="15">
+    <row r="614" spans="1:3" ht="14.5">
       <c r="A614" s="140"/>
       <c r="C614" s="180"/>
     </row>
-    <row r="615" spans="1:3" ht="15">
+    <row r="615" spans="1:3" ht="14.5">
       <c r="A615" s="140"/>
       <c r="C615" s="180"/>
     </row>
-    <row r="616" spans="1:3" ht="15">
+    <row r="616" spans="1:3" ht="14.5">
       <c r="A616" s="140"/>
       <c r="C616" s="180"/>
     </row>
-    <row r="617" spans="1:3" ht="15">
+    <row r="617" spans="1:3" ht="14.5">
       <c r="A617" s="140"/>
       <c r="C617" s="180"/>
     </row>
-    <row r="618" spans="1:3" ht="15">
+    <row r="618" spans="1:3" ht="14.5">
       <c r="A618" s="140"/>
       <c r="C618" s="180"/>
     </row>
-    <row r="619" spans="1:3" ht="15">
+    <row r="619" spans="1:3" ht="14.5">
       <c r="A619" s="140"/>
       <c r="C619" s="180"/>
     </row>
-    <row r="620" spans="1:3" ht="15">
+    <row r="620" spans="1:3" ht="14.5">
       <c r="A620" s="140"/>
       <c r="C620" s="180"/>
     </row>
-    <row r="621" spans="1:3" ht="15">
+    <row r="621" spans="1:3" ht="14.5">
       <c r="A621" s="140"/>
       <c r="C621" s="180"/>
     </row>
-    <row r="622" spans="1:3" ht="15">
+    <row r="622" spans="1:3" ht="14.5">
       <c r="A622" s="140"/>
       <c r="C622" s="180"/>
     </row>
-    <row r="623" spans="1:3" ht="15">
+    <row r="623" spans="1:3" ht="14.5">
       <c r="A623" s="140"/>
       <c r="C623" s="180"/>
     </row>
-    <row r="624" spans="1:3" ht="15">
+    <row r="624" spans="1:3" ht="14.5">
       <c r="A624" s="140"/>
       <c r="C624" s="181"/>
     </row>
-    <row r="625" spans="1:4" ht="15">
+    <row r="625" spans="1:4" ht="14.5">
       <c r="A625" s="177"/>
       <c r="C625" s="179"/>
     </row>
-    <row r="626" spans="1:4" ht="15">
+    <row r="626" spans="1:4" ht="14.5">
       <c r="A626" s="140"/>
       <c r="C626" s="180"/>
     </row>
-    <row r="627" spans="1:4" ht="15">
+    <row r="627" spans="1:4" ht="14.5">
       <c r="A627" s="140"/>
       <c r="C627" s="180"/>
     </row>
-    <row r="628" spans="1:4" ht="15">
+    <row r="628" spans="1:4" ht="14.5">
       <c r="A628" s="140"/>
       <c r="C628" s="180"/>
     </row>
-    <row r="629" spans="1:4" ht="15">
+    <row r="629" spans="1:4" ht="14.5">
       <c r="A629" s="140"/>
       <c r="C629" s="180"/>
     </row>
-    <row r="630" spans="1:4" ht="15">
+    <row r="630" spans="1:4" ht="14.5">
       <c r="A630" s="140"/>
       <c r="C630" s="180"/>
     </row>
-    <row r="631" spans="1:4" ht="15">
+    <row r="631" spans="1:4" ht="14.5">
       <c r="A631" s="140"/>
       <c r="C631" s="180"/>
     </row>
-    <row r="632" spans="1:4" ht="15">
+    <row r="632" spans="1:4" ht="14.5">
       <c r="A632" s="140"/>
       <c r="C632" s="180"/>
     </row>
-    <row r="633" spans="1:4" ht="15">
+    <row r="633" spans="1:4" ht="14.5">
       <c r="A633" s="140"/>
       <c r="C633" s="180"/>
     </row>
-    <row r="634" spans="1:4" ht="15">
+    <row r="634" spans="1:4" ht="14.5">
       <c r="A634" s="140"/>
       <c r="C634" s="180"/>
     </row>
-    <row r="635" spans="1:4" ht="15">
+    <row r="635" spans="1:4" ht="14.5">
       <c r="A635" s="140"/>
       <c r="C635" s="180"/>
     </row>
-    <row r="636" spans="1:4" ht="15">
+    <row r="636" spans="1:4" ht="14.5">
       <c r="A636" s="140"/>
       <c r="C636" s="180"/>
     </row>
-    <row r="637" spans="1:4" ht="15">
+    <row r="637" spans="1:4" ht="14.5">
       <c r="A637" s="140"/>
       <c r="C637" s="181"/>
     </row>
@@ -16761,22 +16761,22 @@
       <selection activeCell="A4" sqref="A4:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="32.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="43.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" customWidth="1"/>
-    <col min="12" max="1025" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="32.453125" customWidth="1"/>
+    <col min="6" max="6" width="24.7265625" customWidth="1"/>
+    <col min="7" max="7" width="43.26953125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.26953125" customWidth="1"/>
+    <col min="9" max="9" width="31.453125" customWidth="1"/>
+    <col min="10" max="10" width="21.7265625" customWidth="1"/>
+    <col min="11" max="11" width="6.26953125" customWidth="1"/>
+    <col min="12" max="1025" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="36">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="29.5">
       <c r="A1" s="69" t="s">
         <v>134</v>
       </c>
@@ -16794,7 +16794,7 @@
       <c r="G1" s="73"/>
       <c r="H1" s="186"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="75">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="65.5">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -16818,7 +16818,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="74" t="s">
         <v>32</v>
       </c>
@@ -16845,105 +16845,105 @@
       </c>
       <c r="I3" s="68"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="E4" s="1"/>
       <c r="F4" s="187"/>
       <c r="G4" s="12"/>
       <c r="H4" s="127"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="E5" s="1"/>
       <c r="F5" s="187"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="E6" s="1"/>
       <c r="F6" s="187"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="E7" s="1"/>
       <c r="F7" s="187"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="E8" s="1"/>
       <c r="F8" s="187"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="E9" s="1"/>
       <c r="F9" s="187"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="E10" s="1"/>
       <c r="F10" s="187"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="E11" s="1"/>
       <c r="F11" s="187"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="E12" s="1"/>
       <c r="F12" s="187"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="E13" s="1"/>
       <c r="F13" s="187"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="B14" s="108"/>
       <c r="D14" s="143"/>
       <c r="E14" s="1"/>
       <c r="F14" s="187"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="B15" s="108"/>
       <c r="E15" s="1"/>
       <c r="F15" s="187"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="B16" s="108"/>
       <c r="E16" s="1"/>
       <c r="F16" s="187"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="2:8" ht="15">
+    <row r="17" spans="2:8" ht="14.5">
       <c r="B17" s="108"/>
       <c r="E17" s="1"/>
       <c r="F17" s="187"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="2:8" ht="15">
+    <row r="18" spans="2:8" ht="14.5">
       <c r="E18" s="1"/>
       <c r="F18" s="187"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="2:8" ht="15">
+    <row r="19" spans="2:8" ht="14.5">
       <c r="C19" s="36"/>
       <c r="E19" s="1"/>
       <c r="F19" s="187"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="2:8" ht="15">
+    <row r="20" spans="2:8" ht="14.5">
       <c r="E20" s="1"/>
       <c r="F20" s="187"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="2:8" ht="15">
+    <row r="21" spans="2:8" ht="14.5">
       <c r="B21" s="108"/>
       <c r="E21" s="1"/>
       <c r="F21" s="187"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="2:8" ht="15">
+    <row r="22" spans="2:8" ht="14.5">
       <c r="E22" s="1"/>
       <c r="H22" s="187"/>
     </row>
@@ -17024,20 +17024,20 @@
       <selection activeCell="A4" sqref="A4:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" customWidth="1"/>
-    <col min="9" max="1023" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.453125" customWidth="1"/>
+    <col min="9" max="1023" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
+    <row r="1" spans="1:8" ht="18.5">
       <c r="A1" s="80" t="s">
         <v>142</v>
       </c>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="E1" s="84"/>
     </row>
-    <row r="2" spans="1:8" ht="89.25">
+    <row r="2" spans="1:8" ht="91">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -17076,7 +17076,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="14.5">
       <c r="A3" s="74" t="s">
         <v>32</v>
       </c>
@@ -17102,26 +17102,26 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="14.5">
       <c r="D4"/>
       <c r="E4" s="1"/>
       <c r="G4" s="68"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="14.5">
       <c r="D5" s="111"/>
       <c r="E5" s="1"/>
       <c r="G5" s="68"/>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8" ht="14">
       <c r="D6" s="112"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:8" ht="14.5">
       <c r="D7"/>
       <c r="E7" s="1"/>
       <c r="F7" s="187"/>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8" ht="14">
       <c r="B8" s="108"/>
       <c r="D8" s="112"/>
       <c r="E8" s="1"/>
@@ -17156,19 +17156,19 @@
       <selection activeCell="A4" sqref="A4:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1"/>
-    <col min="8" max="1023" width="11.42578125"/>
+    <col min="6" max="6" width="28.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29.7265625" customWidth="1"/>
+    <col min="8" max="1023" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36">
+    <row r="1" spans="1:15" ht="18">
       <c r="A1" s="69" t="s">
         <v>138</v>
       </c>
@@ -17188,7 +17188,7 @@
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
     </row>
-    <row r="2" spans="1:15" ht="90">
+    <row r="2" spans="1:15" ht="87">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -17212,7 +17212,7 @@
       <c r="I2" s="78"/>
       <c r="J2" s="78"/>
     </row>
-    <row r="3" spans="1:15" ht="15">
+    <row r="3" spans="1:15" ht="14.5">
       <c r="A3" s="74" t="s">
         <v>32</v>
       </c>
@@ -17246,7 +17246,7 @@
     <row r="4" spans="1:15">
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="15">
+    <row r="5" spans="1:15" ht="14.5">
       <c r="E5" s="1"/>
       <c r="F5" s="187"/>
     </row>
@@ -17294,17 +17294,17 @@
       <selection activeCell="A4" sqref="A4:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" style="50" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
-    <col min="8" max="14" width="6.28515625" customWidth="1"/>
-    <col min="15" max="1023" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.453125" customWidth="1"/>
+    <col min="8" max="14" width="6.26953125" customWidth="1"/>
+    <col min="15" max="1023" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18">
@@ -17326,7 +17326,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:14" ht="105">
+    <row r="2" spans="1:14" ht="87">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -17349,7 +17349,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="1:14" ht="15">
+    <row r="3" spans="1:14" ht="14.5">
       <c r="A3" s="74" t="s">
         <v>32</v>
       </c>
@@ -17431,18 +17431,18 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="133" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="133" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="133" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="133" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="133" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="133" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="133" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="133" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="133" customWidth="1"/>
-    <col min="10" max="16384" width="10.7109375" style="133"/>
+    <col min="1" max="1" width="13.26953125" style="133" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="133" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" style="133" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" style="133" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="133" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" style="133" customWidth="1"/>
+    <col min="7" max="7" width="22.7265625" style="133" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" style="133" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="133" customWidth="1"/>
+    <col min="10" max="16384" width="10.7265625" style="133"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
@@ -17464,7 +17464,7 @@
       <c r="H1" s="132"/>
       <c r="I1" s="132"/>
     </row>
-    <row r="2" spans="1:9" ht="38.25">
+    <row r="2" spans="1:9" ht="39">
       <c r="A2" s="134"/>
       <c r="B2" s="134"/>
       <c r="C2" s="135" t="s">
@@ -17483,7 +17483,7 @@
       <c r="H2" s="134"/>
       <c r="I2" s="134"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="136" t="s">
         <v>9</v>
       </c>
@@ -17512,7 +17512,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="138"/>
       <c r="B4" s="139"/>
       <c r="C4" s="132"/>
@@ -17523,7 +17523,7 @@
       <c r="H4" s="139"/>
       <c r="I4" s="139"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="138"/>
       <c r="B5" s="139"/>
       <c r="C5" s="132"/>
@@ -17534,7 +17534,7 @@
       <c r="H5" s="132"/>
       <c r="I5" s="139"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="138"/>
       <c r="B6" s="139"/>
       <c r="C6" s="132"/>
@@ -17545,7 +17545,7 @@
       <c r="H6" s="132"/>
       <c r="I6" s="139"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="138"/>
       <c r="B7" s="139"/>
       <c r="C7" s="132"/>
@@ -17556,7 +17556,7 @@
       <c r="H7" s="132"/>
       <c r="I7" s="139"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="138"/>
       <c r="B8" s="139"/>
       <c r="C8" s="132"/>
@@ -17567,7 +17567,7 @@
       <c r="H8" s="132"/>
       <c r="I8" s="139"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="138"/>
       <c r="B9" s="139"/>
       <c r="C9" s="132"/>
@@ -17594,14 +17594,14 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="2" width="11.42578125"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="1" max="2" width="11.453125"/>
+    <col min="3" max="3" width="35.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="1025" width="11.42578125"/>
+    <col min="7" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
@@ -17625,7 +17625,7 @@
       <c r="J1" s="36"/>
       <c r="K1" s="36"/>
     </row>
-    <row r="2" spans="1:11" ht="63.75">
+    <row r="2" spans="1:11" ht="65">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -17648,7 +17648,7 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="1:11" ht="38.25">
+    <row r="3" spans="1:11" ht="39">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -17691,15 +17691,15 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="1025" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="50.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.7265625" customWidth="1"/>
+    <col min="7" max="1025" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="18" customHeight="1">
@@ -17967,7 +17967,7 @@
       <c r="IT1" s="36"/>
       <c r="IU1" s="36"/>
     </row>
-    <row r="2" spans="1:255" ht="191.25">
+    <row r="2" spans="1:255" ht="175.5">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
@@ -18234,7 +18234,7 @@
       <c r="IT2" s="36"/>
       <c r="IU2" s="36"/>
     </row>
-    <row r="3" spans="1:255">
+    <row r="3" spans="1:255" ht="13">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -18744,11 +18744,11 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="2" width="11.42578125"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="1024" width="11.42578125"/>
+    <col min="1" max="2" width="11.453125"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="1024" width="11.453125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18">
@@ -18766,7 +18766,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="127.5">
+    <row r="2" spans="1:14" ht="130">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -18794,7 +18794,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="13">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -18845,14 +18845,14 @@
       <selection activeCell="A4" sqref="A4:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
-    <col min="6" max="1025" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="50.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="1" customWidth="1"/>
+    <col min="6" max="1025" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="18" customHeight="1">
@@ -19120,7 +19120,7 @@
       <c r="IT1" s="36"/>
       <c r="IU1" s="36"/>
     </row>
-    <row r="2" spans="1:255" ht="89.25">
+    <row r="2" spans="1:255" ht="78">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -19387,7 +19387,7 @@
       <c r="IT2" s="36"/>
       <c r="IU2" s="36"/>
     </row>
-    <row r="3" spans="1:255">
+    <row r="3" spans="1:255" ht="13">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -19458,14 +19458,14 @@
       <selection activeCell="A4" sqref="A4:XFD518"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="1" customWidth="1"/>
-    <col min="5" max="1011" width="8.28515625" customWidth="1"/>
-    <col min="1012" max="1016" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" customWidth="1"/>
+    <col min="3" max="3" width="45.7265625" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" style="1" customWidth="1"/>
+    <col min="5" max="1011" width="8.26953125" customWidth="1"/>
+    <col min="1012" max="1016" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -19482,7 +19482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="51">
+    <row r="2" spans="1:4" ht="52">
       <c r="A2" s="24" t="s">
         <v>153</v>
       </c>
@@ -19496,7 +19496,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="13">
       <c r="A3" s="86" t="s">
         <v>162</v>
       </c>
@@ -21202,12 +21202,12 @@
       <selection activeCell="A4" sqref="A4:XFD115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7265625" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -21224,7 +21224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="63.75">
+    <row r="2" spans="1:4" ht="52">
       <c r="A2" s="24" t="s">
         <v>160</v>
       </c>
@@ -21238,7 +21238,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="13">
       <c r="A3" s="86" t="s">
         <v>162</v>
       </c>
@@ -21631,12 +21631,12 @@
       <selection activeCell="A4" sqref="A4:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="53.7265625" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -21653,7 +21653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="51">
+    <row r="2" spans="1:4" ht="52">
       <c r="A2" s="24" t="s">
         <v>153</v>
       </c>
@@ -21667,7 +21667,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="13">
       <c r="A3" s="86" t="s">
         <v>32</v>
       </c>
@@ -21831,14 +21831,14 @@
       <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="2" width="11.42578125"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="1" max="2" width="11.453125"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
     <col min="4" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="61.28515625" customWidth="1"/>
-    <col min="8" max="1025" width="11.42578125"/>
+    <col min="7" max="7" width="61.26953125" customWidth="1"/>
+    <col min="8" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18">
@@ -21865,7 +21865,7 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
     </row>
-    <row r="2" spans="1:19" ht="178.5">
+    <row r="2" spans="1:19" ht="182">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -21899,7 +21899,7 @@
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
     </row>
-    <row r="3" spans="1:19" ht="38.25">
+    <row r="3" spans="1:19" ht="39">
       <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
@@ -21979,14 +21979,14 @@
       <selection activeCell="A4" sqref="A4:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="2" max="3" width="21.26953125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125"/>
-    <col min="6" max="6" width="35.28515625" customWidth="1"/>
-    <col min="7" max="1023" width="11.42578125"/>
+    <col min="5" max="5" width="11.453125"/>
+    <col min="6" max="6" width="35.26953125" customWidth="1"/>
+    <col min="7" max="1023" width="11.453125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18">
@@ -22011,7 +22011,7 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>
-    <row r="2" spans="1:17" ht="89.25">
+    <row r="2" spans="1:17" ht="91">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -22037,7 +22037,7 @@
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
     </row>
-    <row r="3" spans="1:17" ht="25.5">
+    <row r="3" spans="1:17" ht="26">
       <c r="A3" s="28" t="s">
         <v>32</v>
       </c>
@@ -22139,19 +22139,19 @@
       <selection activeCell="A4" sqref="A4:XFD98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.26953125" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.7265625" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" customWidth="1"/>
-    <col min="11" max="1023" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26.26953125" customWidth="1"/>
+    <col min="11" max="1023" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18">
@@ -22209,7 +22209,7 @@
       <c r="K2" s="36"/>
       <c r="L2" s="36"/>
     </row>
-    <row r="3" spans="1:16" ht="38.25">
+    <row r="3" spans="1:16" ht="39">
       <c r="A3" s="40" t="s">
         <v>32</v>
       </c>
@@ -22247,7 +22247,7 @@
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" ht="13">
       <c r="E4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="41"/>
@@ -22260,106 +22260,106 @@
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" ht="13">
       <c r="G5" s="1"/>
       <c r="H5" s="41"/>
       <c r="J5" s="42"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" ht="13">
       <c r="G6" s="1"/>
       <c r="H6" s="41"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="13">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="G7" s="1"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="13">
       <c r="E8" s="1"/>
       <c r="G8" s="1"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="13">
       <c r="E9" s="1"/>
       <c r="G9" s="1"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="13">
       <c r="E10" s="1"/>
       <c r="G10" s="1"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" ht="13">
       <c r="E11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="41"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" ht="13">
       <c r="E12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="41"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="13">
       <c r="E13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="41"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" ht="13">
       <c r="E14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="41"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" ht="13">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="G15" s="1"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="13">
       <c r="E16" s="1"/>
       <c r="G16" s="1"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" ht="13">
       <c r="E17" s="1"/>
       <c r="G17" s="1"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" ht="13">
       <c r="E18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="41"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" ht="13">
       <c r="E19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="41"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" ht="13">
       <c r="E20" s="1"/>
       <c r="F20" s="108"/>
       <c r="G20" s="1"/>
@@ -22367,7 +22367,7 @@
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" ht="13">
       <c r="B21" s="109"/>
       <c r="C21" s="109"/>
       <c r="D21" s="109"/>
@@ -22380,65 +22380,65 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" ht="13">
       <c r="E22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="41"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" ht="13">
       <c r="E23" s="1"/>
       <c r="G23" s="1"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" ht="13">
       <c r="E24" s="1"/>
       <c r="G24" s="1"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" ht="13">
       <c r="E25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="144"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" ht="13">
       <c r="E26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="144"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" ht="13">
       <c r="E27" s="1"/>
       <c r="G27" s="1"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" ht="13">
       <c r="E28" s="1"/>
       <c r="G28" s="1"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" ht="13">
       <c r="C29" s="43"/>
       <c r="E29" s="1"/>
       <c r="G29" s="1"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" ht="13">
       <c r="E30" s="1"/>
       <c r="G30" s="1"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" ht="13">
       <c r="C31" s="43"/>
       <c r="E31" s="1"/>
       <c r="G31" s="1"/>
@@ -22446,7 +22446,7 @@
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" ht="13">
       <c r="C32" s="43"/>
       <c r="E32" s="1"/>
       <c r="G32" s="1"/>
@@ -22454,7 +22454,7 @@
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
     </row>
-    <row r="33" spans="3:12">
+    <row r="33" spans="3:12" ht="13">
       <c r="C33" s="43"/>
       <c r="E33" s="1"/>
       <c r="G33" s="1"/>
@@ -22462,52 +22462,52 @@
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
     </row>
-    <row r="34" spans="3:12">
+    <row r="34" spans="3:12" ht="13">
       <c r="E34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="41"/>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
     </row>
-    <row r="35" spans="3:12">
+    <row r="35" spans="3:12" ht="13">
       <c r="E35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="41"/>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
     </row>
-    <row r="36" spans="3:12">
+    <row r="36" spans="3:12" ht="13">
       <c r="E36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="41"/>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
     </row>
-    <row r="37" spans="3:12">
+    <row r="37" spans="3:12" ht="13">
       <c r="E37" s="1"/>
       <c r="G37" s="1"/>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
     </row>
-    <row r="38" spans="3:12">
+    <row r="38" spans="3:12" ht="13">
       <c r="E38" s="1"/>
       <c r="G38" s="1"/>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
     </row>
-    <row r="39" spans="3:12">
+    <row r="39" spans="3:12" ht="13">
       <c r="E39" s="1"/>
       <c r="G39" s="1"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
     </row>
-    <row r="40" spans="3:12">
+    <row r="40" spans="3:12" ht="13">
       <c r="E40" s="1"/>
       <c r="G40" s="1"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
     </row>
-    <row r="41" spans="3:12">
+    <row r="41" spans="3:12" ht="13">
       <c r="E41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="41"/>
@@ -22515,13 +22515,13 @@
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
     </row>
-    <row r="42" spans="3:12">
+    <row r="42" spans="3:12" ht="13">
       <c r="E42" s="1"/>
       <c r="G42" s="1"/>
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
     </row>
-    <row r="43" spans="3:12">
+    <row r="43" spans="3:12" ht="13">
       <c r="E43" s="1"/>
       <c r="G43" s="1"/>
       <c r="I43" s="41"/>
@@ -22529,7 +22529,7 @@
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
     </row>
-    <row r="44" spans="3:12">
+    <row r="44" spans="3:12" ht="13">
       <c r="E44" s="1"/>
       <c r="G44" s="1"/>
       <c r="I44" s="41"/>
@@ -22537,7 +22537,7 @@
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
     </row>
-    <row r="45" spans="3:12">
+    <row r="45" spans="3:12" ht="13">
       <c r="E45" s="1"/>
       <c r="G45" s="1"/>
       <c r="I45" s="41"/>
@@ -22548,13 +22548,13 @@
       <c r="E46" s="1"/>
       <c r="G46" s="118"/>
     </row>
-    <row r="47" spans="3:12">
+    <row r="47" spans="3:12" ht="13">
       <c r="E47" s="1"/>
       <c r="G47" s="118"/>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
     </row>
-    <row r="48" spans="3:12">
+    <row r="48" spans="3:12" ht="13">
       <c r="E48" s="1"/>
       <c r="G48" s="1"/>
       <c r="I48" s="41"/>
@@ -22789,29 +22789,29 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.26953125" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="42.28515625" customWidth="1"/>
-    <col min="8" max="8" width="74.7109375" customWidth="1"/>
-    <col min="9" max="9" width="83.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="79.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="88.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-    <col min="20" max="30" width="8.42578125" customWidth="1"/>
-    <col min="31" max="1024" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" customWidth="1"/>
+    <col min="7" max="7" width="42.26953125" customWidth="1"/>
+    <col min="8" max="8" width="74.7265625" customWidth="1"/>
+    <col min="9" max="9" width="83.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="79.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="88.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.26953125" customWidth="1"/>
+    <col min="13" max="13" width="23.26953125" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="18.453125" customWidth="1"/>
+    <col min="16" max="16" width="18.453125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" customWidth="1"/>
+    <col min="18" max="18" width="20.453125" customWidth="1"/>
+    <col min="19" max="19" width="17.7265625" customWidth="1"/>
+    <col min="20" max="30" width="8.453125" customWidth="1"/>
+    <col min="31" max="1024" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
@@ -22843,7 +22843,7 @@
       <c r="R1" s="39"/>
       <c r="S1" s="39"/>
     </row>
-    <row r="2" spans="1:26" ht="127.5">
+    <row r="2" spans="1:26" ht="117">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -22887,7 +22887,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="38.25">
+    <row r="3" spans="1:26" ht="39">
       <c r="A3" s="40" t="s">
         <v>32</v>
       </c>
@@ -22955,14 +22955,14 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25">
+    <row r="4" spans="1:26" ht="14">
       <c r="I4" s="107"/>
       <c r="L4" s="36"/>
       <c r="M4" s="46"/>
       <c r="R4" s="109"/>
       <c r="S4" s="109"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25">
+    <row r="5" spans="1:26" ht="14">
       <c r="F5" s="2"/>
       <c r="J5" s="107"/>
       <c r="K5" s="36"/>
@@ -22971,7 +22971,7 @@
       <c r="R5" s="109"/>
       <c r="S5" s="109"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25">
+    <row r="6" spans="1:26" ht="14">
       <c r="F6" s="2"/>
       <c r="G6" s="143"/>
       <c r="I6" s="188"/>
@@ -22981,7 +22981,7 @@
       <c r="R6" s="109"/>
       <c r="S6" s="109"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25">
+    <row r="7" spans="1:26" ht="14">
       <c r="F7" s="2"/>
       <c r="G7" s="218"/>
       <c r="H7" s="2"/>
@@ -22992,7 +22992,7 @@
       <c r="R7" s="109"/>
       <c r="S7" s="109"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25">
+    <row r="8" spans="1:26" ht="14">
       <c r="F8" s="2"/>
       <c r="G8" s="218"/>
       <c r="H8" s="2"/>
@@ -23003,7 +23003,7 @@
       <c r="R8" s="109"/>
       <c r="S8" s="109"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25">
+    <row r="9" spans="1:26" ht="14">
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -23015,7 +23015,7 @@
       <c r="R9" s="109"/>
       <c r="S9" s="109"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25">
+    <row r="10" spans="1:26" ht="14">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -23027,7 +23027,7 @@
       <c r="R10" s="109"/>
       <c r="S10" s="109"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25">
+    <row r="11" spans="1:26" ht="14">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -23039,7 +23039,7 @@
       <c r="R11" s="109"/>
       <c r="S11" s="109"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25">
+    <row r="12" spans="1:26" ht="14">
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -23051,7 +23051,7 @@
       <c r="R12" s="109"/>
       <c r="S12" s="109"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25">
+    <row r="13" spans="1:26" ht="14">
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -23063,7 +23063,7 @@
       <c r="R13" s="109"/>
       <c r="S13" s="109"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25">
+    <row r="14" spans="1:26" ht="14">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -23075,7 +23075,7 @@
       <c r="R14" s="109"/>
       <c r="S14" s="109"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25">
+    <row r="15" spans="1:26" ht="14">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -23087,7 +23087,7 @@
       <c r="R15" s="109"/>
       <c r="S15" s="109"/>
     </row>
-    <row r="16" spans="1:26" ht="14.25">
+    <row r="16" spans="1:26" ht="14">
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -23099,7 +23099,7 @@
       <c r="R16" s="109"/>
       <c r="S16" s="109"/>
     </row>
-    <row r="17" spans="6:19" ht="14.25">
+    <row r="17" spans="6:19" ht="14">
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -23111,7 +23111,7 @@
       <c r="R17" s="109"/>
       <c r="S17" s="109"/>
     </row>
-    <row r="18" spans="6:19" ht="14.25">
+    <row r="18" spans="6:19" ht="14">
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -23122,7 +23122,7 @@
       <c r="R18" s="109"/>
       <c r="S18" s="109"/>
     </row>
-    <row r="19" spans="6:19" ht="14.25">
+    <row r="19" spans="6:19" ht="14">
       <c r="F19" s="2"/>
       <c r="I19" s="115"/>
       <c r="J19" s="141"/>
@@ -23132,7 +23132,7 @@
       <c r="R19" s="109"/>
       <c r="S19" s="109"/>
     </row>
-    <row r="20" spans="6:19" ht="14.25">
+    <row r="20" spans="6:19" ht="14">
       <c r="F20" s="2"/>
       <c r="I20" s="107"/>
       <c r="J20" s="107"/>
@@ -23141,7 +23141,7 @@
       <c r="R20" s="109"/>
       <c r="S20" s="109"/>
     </row>
-    <row r="21" spans="6:19" ht="14.25">
+    <row r="21" spans="6:19" ht="14">
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -23152,7 +23152,7 @@
       <c r="R21" s="109"/>
       <c r="S21" s="109"/>
     </row>
-    <row r="22" spans="6:19" ht="14.25">
+    <row r="22" spans="6:19" ht="14">
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -23164,7 +23164,7 @@
       <c r="R22" s="109"/>
       <c r="S22" s="109"/>
     </row>
-    <row r="23" spans="6:19" ht="14.25">
+    <row r="23" spans="6:19" ht="14">
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -23176,7 +23176,7 @@
       <c r="R23" s="109"/>
       <c r="S23" s="109"/>
     </row>
-    <row r="24" spans="6:19" ht="14.25">
+    <row r="24" spans="6:19" ht="14">
       <c r="J24" s="33"/>
       <c r="L24" s="36"/>
       <c r="M24" s="46"/>
@@ -23184,7 +23184,7 @@
       <c r="R24" s="109"/>
       <c r="S24" s="109"/>
     </row>
-    <row r="25" spans="6:19" ht="14.25">
+    <row r="25" spans="6:19" ht="14">
       <c r="F25" s="2"/>
       <c r="I25" s="107"/>
       <c r="J25" s="107"/>
@@ -23195,7 +23195,7 @@
       <c r="R25" s="109"/>
       <c r="S25" s="109"/>
     </row>
-    <row r="26" spans="6:19" ht="14.25">
+    <row r="26" spans="6:19" ht="14">
       <c r="F26" s="2"/>
       <c r="J26" s="107"/>
       <c r="K26" s="107"/>
@@ -23205,7 +23205,7 @@
       <c r="R26" s="109"/>
       <c r="S26" s="109"/>
     </row>
-    <row r="27" spans="6:19" ht="14.25">
+    <row r="27" spans="6:19" ht="14">
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="I27" s="107"/>
@@ -23216,7 +23216,7 @@
       <c r="R27" s="109"/>
       <c r="S27" s="109"/>
     </row>
-    <row r="28" spans="6:19" ht="14.25">
+    <row r="28" spans="6:19" ht="14">
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="I28" s="107"/>
@@ -23227,7 +23227,7 @@
       <c r="R28" s="109"/>
       <c r="S28" s="109"/>
     </row>
-    <row r="29" spans="6:19" ht="14.25">
+    <row r="29" spans="6:19" ht="14">
       <c r="F29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="107"/>
@@ -23238,7 +23238,7 @@
       <c r="R29" s="109"/>
       <c r="S29" s="109"/>
     </row>
-    <row r="30" spans="6:19" ht="14.25">
+    <row r="30" spans="6:19" ht="14">
       <c r="G30" s="2"/>
       <c r="I30" s="188"/>
       <c r="J30" s="107"/>
@@ -23248,7 +23248,7 @@
       <c r="R30" s="109"/>
       <c r="S30" s="109"/>
     </row>
-    <row r="31" spans="6:19" ht="14.25">
+    <row r="31" spans="6:19" ht="14">
       <c r="J31" s="107"/>
       <c r="K31" s="107"/>
       <c r="L31" s="36"/>
@@ -23257,7 +23257,7 @@
       <c r="R31" s="109"/>
       <c r="S31" s="109"/>
     </row>
-    <row r="32" spans="6:19" ht="14.25">
+    <row r="32" spans="6:19" ht="14">
       <c r="G32" s="2"/>
       <c r="J32" s="107"/>
       <c r="K32" s="107"/>
@@ -23267,7 +23267,7 @@
       <c r="R32" s="109"/>
       <c r="S32" s="109"/>
     </row>
-    <row r="33" spans="1:19" ht="14.25">
+    <row r="33" spans="1:19" ht="14">
       <c r="H33" s="145"/>
       <c r="I33" s="107"/>
       <c r="J33" s="110"/>
@@ -23277,7 +23277,7 @@
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
     </row>
-    <row r="34" spans="1:19" ht="14.25">
+    <row r="34" spans="1:19" ht="14">
       <c r="I34" s="107"/>
       <c r="J34" s="107"/>
       <c r="L34" s="36"/>
@@ -23381,7 +23381,7 @@
       <c r="R45" s="109"/>
       <c r="S45" s="32"/>
     </row>
-    <row r="46" spans="1:19" ht="14.25">
+    <row r="46" spans="1:19" ht="14">
       <c r="A46" s="120"/>
       <c r="F46" s="111"/>
       <c r="I46" s="107"/>
@@ -23470,29 +23470,29 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Q240"/>
+  <dimension ref="A1:R240"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q3"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="90.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="1010" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.26953125" customWidth="1"/>
+    <col min="4" max="5" width="18" customWidth="1"/>
+    <col min="6" max="8" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="28.7265625" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" customWidth="1"/>
+    <col min="13" max="13" width="90.26953125" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" customWidth="1"/>
+    <col min="15" max="1011" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18">
+    <row r="1" spans="1:18" ht="18">
       <c r="A1" s="35" t="s">
         <v>71</v>
       </c>
@@ -23503,22 +23503,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="36"/>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="36"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
       <c r="K1" s="36"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="39"/>
       <c r="N1" s="36"/>
       <c r="O1" s="36"/>
-      <c r="P1" s="39"/>
-    </row>
-    <row r="2" spans="1:17" ht="144" customHeight="1">
+      <c r="P1" s="36"/>
+      <c r="Q1" s="39"/>
+    </row>
+    <row r="2" spans="1:18" ht="144" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -23531,45 +23532,46 @@
       <c r="D2" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="M2" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="N2" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="O2" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="P2" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="Q2" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="R2" s="23" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="51">
+    <row r="3" spans="1:18" ht="52">
       <c r="A3" s="28" t="s">
         <v>32</v>
       </c>
@@ -23582,1963 +23584,1984 @@
       <c r="D3" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="G3" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="H3" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="I3" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="J3" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="K3" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="L3" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="M3" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="N3" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="O3" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="P3" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="Q3" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="Q3" s="42" t="s">
+      <c r="R3" s="42" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="E4" s="1"/>
+    <row r="4" spans="1:18">
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="E5" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="E6" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="E7" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="E8" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="E9" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="E10" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="E11" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="E12" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="E13" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="E14" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="E15" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="E16" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="5:14">
-      <c r="E17" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="6:15">
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="5:14">
-      <c r="E18" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="6:15">
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="33"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="5:14">
-      <c r="E19" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="33"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="6:15">
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="5:14">
-      <c r="E20" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="6:15">
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="5:14">
-      <c r="E21" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="6:15">
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="5:14">
-      <c r="E22" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="6:15">
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="5:14">
-      <c r="E23" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="6:15">
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="5:14">
-      <c r="E24" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="6:15">
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="5:14">
-      <c r="E25" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="6:15">
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="5:14">
-      <c r="E26" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="6:15">
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="5:14">
-      <c r="E27" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="6:15">
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="5:14">
-      <c r="E28" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="6:15">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="5:14">
-      <c r="E29" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="6:15">
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="5:14">
-      <c r="E30" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="6:15">
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="5:14">
-      <c r="E31" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="6:15">
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="5:14">
-      <c r="E32" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="6:15">
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="5:14">
-      <c r="E33" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="6:15">
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="5:14">
-      <c r="E34" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="6:15">
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="5:14">
-      <c r="E35" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="107"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="6:15">
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="5:14">
-      <c r="E36" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="6:15">
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="5:14">
-      <c r="E37" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="6:15">
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="5:14">
-      <c r="E38" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="6:15">
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="5:14">
-      <c r="E39" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="6:15">
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="5:14">
-      <c r="E40" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="6:15">
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="5:14">
-      <c r="E41" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="6:15">
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="5:14">
-      <c r="E42" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="6:15">
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="5:14">
-      <c r="E43" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="6:15">
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="5:14">
-      <c r="E44" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="6:15">
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="5:14">
-      <c r="E45" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="6:15">
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="5:14">
-      <c r="E46" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="6:15">
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="5:14">
-      <c r="E47" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="6:15">
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="5:14">
-      <c r="E48" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="6:15">
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="M48" s="50"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="5:14">
-      <c r="E49" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="6:15">
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="5:14">
-      <c r="E50" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="6:15">
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="107"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="5:14">
-      <c r="E51" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="107"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="6:15">
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="107"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="5:14">
-      <c r="E52" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="107"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="6:15">
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="5:14">
-      <c r="E53" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53" spans="6:15">
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="5:14">
-      <c r="E54" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="1"/>
+    </row>
+    <row r="54" spans="6:15">
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="M54" s="50"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="5:14">
-      <c r="E55" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="6:15">
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="M55" s="50"/>
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="5:14">
-      <c r="E56" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="6:15">
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="M56" s="50"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="5:14">
-      <c r="E57" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="6:15">
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="M57" s="50"/>
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="5:14">
-      <c r="E58" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="6:15">
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="M58" s="50"/>
-      <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="5:14">
-      <c r="E59" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="N58" s="50"/>
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="6:15">
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="M59" s="50"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="5:14">
-      <c r="E60" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="N59" s="50"/>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="6:15">
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="M60" s="50"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="5:14">
-      <c r="E61" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="6:15">
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="M61" s="50"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="5:14">
-      <c r="E62" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="6:15">
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="5:14">
-      <c r="E63" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="N62" s="50"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="6:15">
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="M63" s="50"/>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="5:14">
-      <c r="E64" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="N63" s="50"/>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="6:15">
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="M64" s="50"/>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="5:14">
-      <c r="E65" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="N64" s="50"/>
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="6:15">
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="M65" s="50"/>
-      <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="5:14">
-      <c r="E66" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="N65" s="50"/>
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="6:15">
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="M66" s="50"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="5:14">
-      <c r="E67" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="N66" s="50"/>
+      <c r="O66" s="1"/>
+    </row>
+    <row r="67" spans="6:15">
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="M67" s="50"/>
-      <c r="N67" s="1"/>
-    </row>
-    <row r="68" spans="5:14">
-      <c r="E68" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="N67" s="50"/>
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68" spans="6:15">
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="M68" s="50"/>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="5:14">
-      <c r="E69" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="N68" s="50"/>
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="6:15">
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="M69" s="50"/>
-      <c r="N69" s="1"/>
-    </row>
-    <row r="70" spans="5:14">
-      <c r="E70" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" spans="6:15">
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="M70" s="50"/>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="5:14">
-      <c r="E71" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="N70" s="50"/>
+      <c r="O70" s="1"/>
+    </row>
+    <row r="71" spans="6:15">
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="M71" s="50"/>
-      <c r="N71" s="1"/>
-    </row>
-    <row r="72" spans="5:14">
-      <c r="E72" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="N71" s="50"/>
+      <c r="O71" s="1"/>
+    </row>
+    <row r="72" spans="6:15">
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="M72" s="50"/>
-      <c r="N72" s="1"/>
-    </row>
-    <row r="73" spans="5:14">
-      <c r="E73" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="N72" s="50"/>
+      <c r="O72" s="1"/>
+    </row>
+    <row r="73" spans="6:15">
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="M73" s="50"/>
-      <c r="N73" s="1"/>
-    </row>
-    <row r="74" spans="5:14">
-      <c r="E74" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="1"/>
+    </row>
+    <row r="74" spans="6:15">
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="M74" s="50"/>
-      <c r="N74" s="1"/>
-    </row>
-    <row r="75" spans="5:14">
-      <c r="E75" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="N74" s="50"/>
+      <c r="O74" s="1"/>
+    </row>
+    <row r="75" spans="6:15">
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="M75" s="50"/>
-      <c r="N75" s="1"/>
-    </row>
-    <row r="76" spans="5:14">
-      <c r="E76" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="N75" s="50"/>
+      <c r="O75" s="1"/>
+    </row>
+    <row r="76" spans="6:15">
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="M76" s="50"/>
-      <c r="N76" s="1"/>
-    </row>
-    <row r="77" spans="5:14">
-      <c r="E77" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="N76" s="50"/>
+      <c r="O76" s="1"/>
+    </row>
+    <row r="77" spans="6:15">
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="33"/>
-      <c r="M77" s="50"/>
-      <c r="N77" s="1"/>
-    </row>
-    <row r="78" spans="5:14">
-      <c r="E78" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="33"/>
+      <c r="N77" s="50"/>
+      <c r="O77" s="1"/>
+    </row>
+    <row r="78" spans="6:15">
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="M78" s="50"/>
-      <c r="N78" s="1"/>
-    </row>
-    <row r="79" spans="5:14">
-      <c r="E79" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="N78" s="50"/>
+      <c r="O78" s="1"/>
+    </row>
+    <row r="79" spans="6:15">
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="M79" s="50"/>
-      <c r="N79" s="1"/>
-    </row>
-    <row r="80" spans="5:14">
-      <c r="E80" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="N79" s="50"/>
+      <c r="O79" s="1"/>
+    </row>
+    <row r="80" spans="6:15">
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="107"/>
-      <c r="M80" s="50"/>
-      <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="3:14">
-      <c r="E81" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="107"/>
+      <c r="N80" s="50"/>
+      <c r="O80" s="1"/>
+    </row>
+    <row r="81" spans="3:15">
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="107"/>
-      <c r="M81" s="50"/>
-      <c r="N81" s="1"/>
-    </row>
-    <row r="82" spans="3:14">
-      <c r="E82" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="107"/>
+      <c r="N81" s="50"/>
+      <c r="O81" s="1"/>
+    </row>
+    <row r="82" spans="3:15">
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="107"/>
-      <c r="M82" s="50"/>
-      <c r="N82" s="1"/>
-    </row>
-    <row r="83" spans="3:14">
-      <c r="E83" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="107"/>
+      <c r="N82" s="50"/>
+      <c r="O82" s="1"/>
+    </row>
+    <row r="83" spans="3:15">
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="107"/>
-      <c r="M83" s="50"/>
-      <c r="N83" s="1"/>
-    </row>
-    <row r="84" spans="3:14">
-      <c r="E84" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="107"/>
+      <c r="N83" s="50"/>
+      <c r="O83" s="1"/>
+    </row>
+    <row r="84" spans="3:15">
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="107"/>
-      <c r="M84" s="50"/>
-      <c r="N84" s="1"/>
-    </row>
-    <row r="85" spans="3:14">
-      <c r="E85" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="107"/>
+      <c r="N84" s="50"/>
+      <c r="O84" s="1"/>
+    </row>
+    <row r="85" spans="3:15">
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="107"/>
-      <c r="M85" s="50"/>
-      <c r="N85" s="1"/>
-    </row>
-    <row r="86" spans="3:14">
-      <c r="E86" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="107"/>
+      <c r="N85" s="50"/>
+      <c r="O85" s="1"/>
+    </row>
+    <row r="86" spans="3:15">
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="107"/>
-      <c r="M86" s="50"/>
-      <c r="N86" s="1"/>
-    </row>
-    <row r="87" spans="3:14">
-      <c r="E87" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="107"/>
+      <c r="N86" s="50"/>
+      <c r="O86" s="1"/>
+    </row>
+    <row r="87" spans="3:15">
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="107"/>
-      <c r="M87" s="50"/>
-      <c r="N87" s="1"/>
-    </row>
-    <row r="88" spans="3:14">
-      <c r="E88" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="107"/>
+      <c r="N87" s="50"/>
+      <c r="O87" s="1"/>
+    </row>
+    <row r="88" spans="3:15">
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="107"/>
-      <c r="M88" s="50"/>
-      <c r="N88" s="1"/>
-    </row>
-    <row r="89" spans="3:14">
-      <c r="E89" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="107"/>
+      <c r="N88" s="50"/>
+      <c r="O88" s="1"/>
+    </row>
+    <row r="89" spans="3:15">
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="107"/>
-      <c r="M89" s="50"/>
-      <c r="N89" s="1"/>
-    </row>
-    <row r="90" spans="3:14">
-      <c r="E90" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="107"/>
+      <c r="N89" s="50"/>
+      <c r="O89" s="1"/>
+    </row>
+    <row r="90" spans="3:15">
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="107"/>
-      <c r="M90" s="50"/>
-      <c r="N90" s="1"/>
-    </row>
-    <row r="91" spans="3:14">
-      <c r="E91" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="107"/>
+      <c r="N90" s="50"/>
+      <c r="O90" s="1"/>
+    </row>
+    <row r="91" spans="3:15">
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="107"/>
-      <c r="M91" s="50"/>
-      <c r="N91" s="1"/>
-    </row>
-    <row r="92" spans="3:14">
-      <c r="E92" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="107"/>
+      <c r="N91" s="50"/>
+      <c r="O91" s="1"/>
+    </row>
+    <row r="92" spans="3:15">
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="107"/>
-      <c r="M92" s="50"/>
-      <c r="N92" s="1"/>
-    </row>
-    <row r="93" spans="3:14">
+      <c r="H92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="107"/>
+      <c r="N92" s="50"/>
+      <c r="O92" s="1"/>
+    </row>
+    <row r="93" spans="3:15">
       <c r="C93" s="108"/>
-      <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="107"/>
-      <c r="M93" s="50"/>
-      <c r="N93" s="1"/>
-    </row>
-    <row r="94" spans="3:14">
+      <c r="H93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="107"/>
+      <c r="N93" s="50"/>
+      <c r="O93" s="1"/>
+    </row>
+    <row r="94" spans="3:15">
       <c r="C94" s="108"/>
-      <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="107"/>
-      <c r="M94" s="50"/>
-      <c r="N94" s="1"/>
-    </row>
-    <row r="95" spans="3:14">
-      <c r="E95" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="107"/>
+      <c r="N94" s="50"/>
+      <c r="O94" s="1"/>
+    </row>
+    <row r="95" spans="3:15">
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="107"/>
-      <c r="M95" s="50"/>
-      <c r="N95" s="1"/>
-    </row>
-    <row r="96" spans="3:14">
-      <c r="E96" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="107"/>
+      <c r="N95" s="50"/>
+      <c r="O95" s="1"/>
+    </row>
+    <row r="96" spans="3:15">
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="107"/>
-      <c r="M96" s="50"/>
-      <c r="N96" s="1"/>
-    </row>
-    <row r="97" spans="3:14">
-      <c r="E97" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="107"/>
+      <c r="N96" s="50"/>
+      <c r="O96" s="1"/>
+    </row>
+    <row r="97" spans="3:15">
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="107"/>
-      <c r="M97" s="50"/>
-      <c r="N97" s="1"/>
-    </row>
-    <row r="98" spans="3:14">
-      <c r="E98" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="107"/>
+      <c r="N97" s="50"/>
+      <c r="O97" s="1"/>
+    </row>
+    <row r="98" spans="3:15">
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="107"/>
-      <c r="M98" s="50"/>
-      <c r="N98" s="1"/>
-    </row>
-    <row r="99" spans="3:14">
-      <c r="E99" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="107"/>
+      <c r="N98" s="50"/>
+      <c r="O98" s="1"/>
+    </row>
+    <row r="99" spans="3:15">
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="107"/>
-      <c r="M99" s="50"/>
-      <c r="N99" s="1"/>
-    </row>
-    <row r="100" spans="3:14">
-      <c r="E100" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="107"/>
+      <c r="N99" s="50"/>
+      <c r="O99" s="1"/>
+    </row>
+    <row r="100" spans="3:15">
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="107"/>
-      <c r="M100" s="50"/>
-      <c r="N100" s="1"/>
-    </row>
-    <row r="101" spans="3:14">
-      <c r="E101" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="107"/>
+      <c r="N100" s="50"/>
+      <c r="O100" s="1"/>
+    </row>
+    <row r="101" spans="3:15">
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="107"/>
-      <c r="M101" s="50"/>
-      <c r="N101" s="1"/>
-    </row>
-    <row r="102" spans="3:14">
-      <c r="E102" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="107"/>
+      <c r="N101" s="50"/>
+      <c r="O101" s="1"/>
+    </row>
+    <row r="102" spans="3:15">
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="107"/>
-      <c r="M102" s="50"/>
-      <c r="N102" s="1"/>
-    </row>
-    <row r="103" spans="3:14">
-      <c r="E103" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="107"/>
+      <c r="N102" s="50"/>
+      <c r="O102" s="1"/>
+    </row>
+    <row r="103" spans="3:15">
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="107"/>
-      <c r="M103" s="50"/>
-      <c r="N103" s="1"/>
-    </row>
-    <row r="104" spans="3:14">
-      <c r="E104" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="107"/>
+      <c r="N103" s="50"/>
+      <c r="O103" s="1"/>
+    </row>
+    <row r="104" spans="3:15">
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="107"/>
-      <c r="M104" s="50"/>
-      <c r="N104" s="1"/>
-    </row>
-    <row r="105" spans="3:14">
-      <c r="E105" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="107"/>
+      <c r="N104" s="50"/>
+      <c r="O104" s="1"/>
+    </row>
+    <row r="105" spans="3:15">
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="107"/>
-      <c r="M105" s="50"/>
-      <c r="N105" s="1"/>
-    </row>
-    <row r="106" spans="3:14">
-      <c r="E106" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="107"/>
+      <c r="N105" s="50"/>
+      <c r="O105" s="1"/>
+    </row>
+    <row r="106" spans="3:15">
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="107"/>
-      <c r="M106" s="50"/>
-      <c r="N106" s="1"/>
-    </row>
-    <row r="107" spans="3:14">
-      <c r="E107" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="107"/>
+      <c r="N106" s="50"/>
+      <c r="O106" s="1"/>
+    </row>
+    <row r="107" spans="3:15">
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="107"/>
-      <c r="M107" s="50"/>
-      <c r="N107" s="1"/>
-    </row>
-    <row r="108" spans="3:14">
+      <c r="H107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="107"/>
+      <c r="N107" s="50"/>
+      <c r="O107" s="1"/>
+    </row>
+    <row r="108" spans="3:15">
       <c r="C108" s="56"/>
-      <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="107"/>
-      <c r="M108" s="50"/>
-      <c r="N108" s="1"/>
-    </row>
-    <row r="109" spans="3:14">
-      <c r="E109" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="107"/>
+      <c r="N108" s="50"/>
+      <c r="O108" s="1"/>
+    </row>
+    <row r="109" spans="3:15">
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="107"/>
-      <c r="M109" s="50"/>
-      <c r="N109" s="1"/>
-    </row>
-    <row r="110" spans="3:14">
-      <c r="E110" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="107"/>
+      <c r="N109" s="50"/>
+      <c r="O109" s="1"/>
+    </row>
+    <row r="110" spans="3:15">
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="M110" s="50"/>
-      <c r="N110" s="1"/>
-    </row>
-    <row r="111" spans="3:14">
+      <c r="H110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="N110" s="50"/>
+      <c r="O110" s="1"/>
+    </row>
+    <row r="111" spans="3:15">
       <c r="D111" s="143"/>
-      <c r="E111" s="1"/>
+      <c r="E111" s="143"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="M111" s="50"/>
-      <c r="N111" s="1"/>
-    </row>
-    <row r="112" spans="3:14">
+      <c r="H111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="N111" s="50"/>
+      <c r="O111" s="1"/>
+    </row>
+    <row r="112" spans="3:15">
       <c r="D112" s="143"/>
-      <c r="E112" s="1"/>
+      <c r="E112" s="143"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="M112" s="50"/>
-      <c r="N112" s="1"/>
-    </row>
-    <row r="113" spans="5:14">
-      <c r="E113" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="N112" s="50"/>
+      <c r="O112" s="1"/>
+    </row>
+    <row r="113" spans="6:15">
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="M113" s="50"/>
-      <c r="N113" s="1"/>
-    </row>
-    <row r="114" spans="5:14">
-      <c r="E114" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="N113" s="50"/>
+      <c r="O113" s="1"/>
+    </row>
+    <row r="114" spans="6:15">
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="M114" s="50"/>
-      <c r="N114" s="1"/>
-    </row>
-    <row r="115" spans="5:14">
-      <c r="E115" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="N114" s="50"/>
+      <c r="O114" s="1"/>
+    </row>
+    <row r="115" spans="6:15">
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="M115" s="50"/>
-      <c r="N115" s="1"/>
-    </row>
-    <row r="116" spans="5:14">
-      <c r="E116" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="N115" s="50"/>
+      <c r="O115" s="1"/>
+    </row>
+    <row r="116" spans="6:15">
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="N116" s="1"/>
-    </row>
-    <row r="117" spans="5:14">
-      <c r="E117" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="O116" s="1"/>
+    </row>
+    <row r="117" spans="6:15">
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="107"/>
-      <c r="M117" s="50"/>
-      <c r="N117" s="1"/>
-    </row>
-    <row r="118" spans="5:14">
-      <c r="E118" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="107"/>
+      <c r="N117" s="50"/>
+      <c r="O117" s="1"/>
+    </row>
+    <row r="118" spans="6:15">
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="M118" s="50"/>
-      <c r="N118" s="1"/>
-    </row>
-    <row r="119" spans="5:14">
-      <c r="E119" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="N118" s="50"/>
+      <c r="O118" s="1"/>
+    </row>
+    <row r="119" spans="6:15">
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="M119" s="50"/>
-      <c r="N119" s="1"/>
-    </row>
-    <row r="120" spans="5:14">
-      <c r="E120" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="N119" s="50"/>
+      <c r="O119" s="1"/>
+    </row>
+    <row r="120" spans="6:15">
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="110"/>
-      <c r="N120" s="1"/>
-    </row>
-    <row r="121" spans="5:14">
-      <c r="E121" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="110"/>
+      <c r="O120" s="1"/>
+    </row>
+    <row r="121" spans="6:15">
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="N121" s="1"/>
-    </row>
-    <row r="122" spans="5:14">
-      <c r="E122" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="O121" s="1"/>
+    </row>
+    <row r="122" spans="6:15">
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="N122" s="1"/>
-    </row>
-    <row r="123" spans="5:14">
-      <c r="E123" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="O122" s="1"/>
+    </row>
+    <row r="123" spans="6:15">
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
-      <c r="K123" s="1"/>
-      <c r="N123" s="1"/>
-    </row>
-    <row r="124" spans="5:14">
-      <c r="E124" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="O123" s="1"/>
+    </row>
+    <row r="124" spans="6:15">
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="N124" s="1"/>
-    </row>
-    <row r="125" spans="5:14">
-      <c r="E125" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="O124" s="1"/>
+    </row>
+    <row r="125" spans="6:15">
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
-      <c r="K125" s="1"/>
-      <c r="N125" s="1"/>
-    </row>
-    <row r="126" spans="5:14">
-      <c r="E126" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="O125" s="1"/>
+    </row>
+    <row r="126" spans="6:15">
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="107"/>
-      <c r="N126" s="1"/>
-    </row>
-    <row r="127" spans="5:14">
-      <c r="E127" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="107"/>
+      <c r="O126" s="1"/>
+    </row>
+    <row r="127" spans="6:15">
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
-      <c r="K127" s="1"/>
-      <c r="N127" s="1"/>
-    </row>
-    <row r="128" spans="5:14">
-      <c r="E128" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="O127" s="1"/>
+    </row>
+    <row r="128" spans="6:15">
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
-      <c r="K128" s="1"/>
-      <c r="N128" s="1"/>
-    </row>
-    <row r="129" spans="2:14">
-      <c r="E129" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="O128" s="1"/>
+    </row>
+    <row r="129" spans="2:15">
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
-      <c r="K129" s="1"/>
-      <c r="N129" s="1"/>
-    </row>
-    <row r="130" spans="2:14">
-      <c r="E130" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="O129" s="1"/>
+    </row>
+    <row r="130" spans="2:15">
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
-      <c r="K130" s="1"/>
-      <c r="N130" s="1"/>
-    </row>
-    <row r="131" spans="2:14">
-      <c r="E131" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="O130" s="1"/>
+    </row>
+    <row r="131" spans="2:15">
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
-      <c r="K131" s="1"/>
-      <c r="N131" s="1"/>
-    </row>
-    <row r="132" spans="2:14">
-      <c r="E132" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="O131" s="1"/>
+    </row>
+    <row r="132" spans="2:15">
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
-      <c r="K132" s="1"/>
-      <c r="N132" s="1"/>
-    </row>
-    <row r="133" spans="2:14">
-      <c r="E133" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="O132" s="1"/>
+    </row>
+    <row r="133" spans="2:15">
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="N133" s="1"/>
-    </row>
-    <row r="134" spans="2:14">
-      <c r="E134" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="O133" s="1"/>
+    </row>
+    <row r="134" spans="2:15">
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-      <c r="K134" s="1"/>
-      <c r="N134" s="1"/>
-    </row>
-    <row r="135" spans="2:14">
+      <c r="H134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="O134" s="1"/>
+    </row>
+    <row r="135" spans="2:15">
       <c r="B135" s="36"/>
-      <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
-      <c r="K135" s="1"/>
-      <c r="N135" s="1"/>
-    </row>
-    <row r="136" spans="2:14">
+      <c r="H135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="O135" s="1"/>
+    </row>
+    <row r="136" spans="2:15">
       <c r="B136" s="36"/>
-      <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="N136" s="1"/>
-    </row>
-    <row r="137" spans="2:14">
+      <c r="H136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="O136" s="1"/>
+    </row>
+    <row r="137" spans="2:15">
       <c r="B137" s="36"/>
       <c r="C137" s="36"/>
-      <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="N137" s="1"/>
-    </row>
-    <row r="138" spans="2:14">
-      <c r="E138" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="O137" s="1"/>
+    </row>
+    <row r="138" spans="2:15">
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
-      <c r="K138" s="1"/>
-      <c r="N138" s="1"/>
-    </row>
-    <row r="139" spans="2:14">
-      <c r="E139" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="O138" s="1"/>
+    </row>
+    <row r="139" spans="2:15">
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
-      <c r="K139" s="1"/>
-      <c r="N139" s="1"/>
-    </row>
-    <row r="140" spans="2:14">
+      <c r="H139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="O139" s="1"/>
+    </row>
+    <row r="140" spans="2:15">
       <c r="C140" s="36"/>
-      <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
-      <c r="K140" s="1"/>
-      <c r="N140" s="1"/>
-    </row>
-    <row r="141" spans="2:14">
+      <c r="H140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="O140" s="1"/>
+    </row>
+    <row r="141" spans="2:15">
       <c r="C141" s="36"/>
-      <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
-      <c r="K141" s="1"/>
-      <c r="N141" s="1"/>
-    </row>
-    <row r="142" spans="2:14">
-      <c r="E142" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="O141" s="1"/>
+    </row>
+    <row r="142" spans="2:15">
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
-      <c r="K142" s="1"/>
-      <c r="N142" s="1"/>
-    </row>
-    <row r="143" spans="2:14">
+      <c r="H142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="O142" s="1"/>
+    </row>
+    <row r="143" spans="2:15">
       <c r="B143" s="36"/>
       <c r="C143" s="36"/>
-      <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
-      <c r="K143" s="1"/>
-      <c r="N143" s="1"/>
-    </row>
-    <row r="144" spans="2:14">
+      <c r="H143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="O143" s="1"/>
+    </row>
+    <row r="144" spans="2:15">
       <c r="B144" s="36"/>
       <c r="C144" s="36"/>
-      <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
-      <c r="K144" s="1"/>
-      <c r="N144" s="1"/>
-    </row>
-    <row r="145" spans="2:14">
+      <c r="H144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="O144" s="1"/>
+    </row>
+    <row r="145" spans="2:15">
       <c r="B145" s="36"/>
       <c r="C145" s="36"/>
-      <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
-      <c r="K145" s="1"/>
-      <c r="N145" s="1"/>
-    </row>
-    <row r="146" spans="2:14">
-      <c r="E146" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="O145" s="1"/>
+    </row>
+    <row r="146" spans="2:15">
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
-      <c r="K146" s="1"/>
-      <c r="M146" s="50"/>
-      <c r="N146" s="1"/>
-    </row>
-    <row r="147" spans="2:14">
-      <c r="E147" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="N146" s="50"/>
+      <c r="O146" s="1"/>
+    </row>
+    <row r="147" spans="2:15">
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
-      <c r="K147" s="1"/>
-      <c r="M147" s="50"/>
-      <c r="N147" s="1"/>
-    </row>
-    <row r="148" spans="2:14">
-      <c r="E148" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="N147" s="50"/>
+      <c r="O147" s="1"/>
+    </row>
+    <row r="148" spans="2:15">
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
-      <c r="K148" s="1"/>
-      <c r="M148" s="50"/>
-      <c r="N148" s="1"/>
-    </row>
-    <row r="149" spans="2:14">
-      <c r="E149" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="N148" s="50"/>
+      <c r="O148" s="1"/>
+    </row>
+    <row r="149" spans="2:15">
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
-      <c r="K149" s="1"/>
-      <c r="M149" s="50"/>
-      <c r="N149" s="1"/>
-    </row>
-    <row r="150" spans="2:14">
-      <c r="E150" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="N149" s="50"/>
+      <c r="O149" s="1"/>
+    </row>
+    <row r="150" spans="2:15">
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
-      <c r="K150" s="1"/>
-      <c r="M150" s="50"/>
-      <c r="N150" s="1"/>
-    </row>
-    <row r="151" spans="2:14">
-      <c r="E151" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="N150" s="50"/>
+      <c r="O150" s="1"/>
+    </row>
+    <row r="151" spans="2:15">
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
-      <c r="K151" s="1"/>
-      <c r="M151" s="50"/>
-      <c r="N151" s="1"/>
-    </row>
-    <row r="152" spans="2:14">
-      <c r="E152" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="N151" s="50"/>
+      <c r="O151" s="1"/>
+    </row>
+    <row r="152" spans="2:15">
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
-      <c r="K152" s="1"/>
-      <c r="N152" s="1"/>
-    </row>
-    <row r="153" spans="2:14">
-      <c r="E153" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="O152" s="1"/>
+    </row>
+    <row r="153" spans="2:15">
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
-      <c r="K153" s="1"/>
-      <c r="N153" s="1"/>
-    </row>
-    <row r="154" spans="2:14">
-      <c r="E154" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="O153" s="1"/>
+    </row>
+    <row r="154" spans="2:15">
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
-      <c r="K154" s="1"/>
-      <c r="N154" s="1"/>
-    </row>
-    <row r="155" spans="2:14">
-      <c r="E155" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="O154" s="1"/>
+    </row>
+    <row r="155" spans="2:15">
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
-      <c r="K155" s="1"/>
-      <c r="N155" s="1"/>
-    </row>
-    <row r="156" spans="2:14">
-      <c r="E156" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="O155" s="1"/>
+    </row>
+    <row r="156" spans="2:15">
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
-      <c r="K156" s="1"/>
-      <c r="N156" s="1"/>
-    </row>
-    <row r="157" spans="2:14">
-      <c r="E157" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="O156" s="1"/>
+    </row>
+    <row r="157" spans="2:15">
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="N157" s="1"/>
-    </row>
-    <row r="158" spans="2:14">
-      <c r="E158" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="O157" s="1"/>
+    </row>
+    <row r="158" spans="2:15">
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
-      <c r="K158" s="1"/>
-      <c r="N158" s="1"/>
-    </row>
-    <row r="159" spans="2:14">
-      <c r="E159" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="O158" s="1"/>
+    </row>
+    <row r="159" spans="2:15">
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="N159" s="1"/>
-    </row>
-    <row r="160" spans="2:14">
-      <c r="E160" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="O159" s="1"/>
+    </row>
+    <row r="160" spans="2:15">
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="N160" s="1"/>
-    </row>
-    <row r="161" spans="5:14">
-      <c r="E161" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="O160" s="1"/>
+    </row>
+    <row r="161" spans="6:15">
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
-      <c r="K161" s="1"/>
-      <c r="N161" s="1"/>
-    </row>
-    <row r="162" spans="5:14">
-      <c r="E162" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="O161" s="1"/>
+    </row>
+    <row r="162" spans="6:15">
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
-      <c r="K162" s="1"/>
-      <c r="N162" s="1"/>
-    </row>
-    <row r="163" spans="5:14">
-      <c r="E163" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="O162" s="1"/>
+    </row>
+    <row r="163" spans="6:15">
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
-      <c r="K163" s="1"/>
-      <c r="N163" s="1"/>
-    </row>
-    <row r="164" spans="5:14">
-      <c r="E164" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="O163" s="1"/>
+    </row>
+    <row r="164" spans="6:15">
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
-      <c r="K164" s="1"/>
-      <c r="N164" s="1"/>
-    </row>
-    <row r="165" spans="5:14">
-      <c r="E165" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="O164" s="1"/>
+    </row>
+    <row r="165" spans="6:15">
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
-      <c r="K165" s="1"/>
-      <c r="L165" s="107"/>
-      <c r="N165" s="1"/>
-    </row>
-    <row r="166" spans="5:14">
-      <c r="E166" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="107"/>
+      <c r="O165" s="1"/>
+    </row>
+    <row r="166" spans="6:15">
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
-      <c r="K166" s="1"/>
-      <c r="N166" s="1"/>
-    </row>
-    <row r="167" spans="5:14">
-      <c r="E167" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="O166" s="1"/>
+    </row>
+    <row r="167" spans="6:15">
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
-      <c r="K167" s="1"/>
-      <c r="N167" s="1"/>
-    </row>
-    <row r="168" spans="5:14">
-      <c r="E168" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="O167" s="1"/>
+    </row>
+    <row r="168" spans="6:15">
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
-      <c r="K168" s="1"/>
-      <c r="N168" s="1"/>
-    </row>
-    <row r="169" spans="5:14">
-      <c r="E169" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="O168" s="1"/>
+    </row>
+    <row r="169" spans="6:15">
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
-      <c r="K169" s="1"/>
-      <c r="N169" s="1"/>
-    </row>
-    <row r="170" spans="5:14">
-      <c r="E170" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="O169" s="1"/>
+    </row>
+    <row r="170" spans="6:15">
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
-      <c r="K170" s="1"/>
-      <c r="N170" s="1"/>
-    </row>
-    <row r="171" spans="5:14">
-      <c r="E171" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="O170" s="1"/>
+    </row>
+    <row r="171" spans="6:15">
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
-      <c r="K171" s="1"/>
-      <c r="N171" s="1"/>
-    </row>
-    <row r="172" spans="5:14">
-      <c r="E172" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="O171" s="1"/>
+    </row>
+    <row r="172" spans="6:15">
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
-      <c r="K172" s="1"/>
-      <c r="L172" s="107"/>
-      <c r="N172" s="1"/>
-    </row>
-    <row r="173" spans="5:14">
-      <c r="E173" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="107"/>
+      <c r="O172" s="1"/>
+    </row>
+    <row r="173" spans="6:15">
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
-      <c r="K173" s="1"/>
-      <c r="L173" s="107"/>
-      <c r="N173" s="1"/>
-    </row>
-    <row r="174" spans="5:14">
-      <c r="E174" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="107"/>
+      <c r="O173" s="1"/>
+    </row>
+    <row r="174" spans="6:15">
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
-      <c r="K174" s="1"/>
-      <c r="L174" s="41"/>
-      <c r="N174" s="1"/>
-    </row>
-    <row r="175" spans="5:14">
-      <c r="E175" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="41"/>
+      <c r="O174" s="1"/>
+    </row>
+    <row r="175" spans="6:15">
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
-      <c r="K175" s="1"/>
-      <c r="L175" s="41"/>
-      <c r="N175" s="1"/>
-    </row>
-    <row r="176" spans="5:14">
-      <c r="E176" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="41"/>
+      <c r="O175" s="1"/>
+    </row>
+    <row r="176" spans="6:15">
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
-      <c r="K176" s="1"/>
-      <c r="L176" s="41"/>
-      <c r="N176" s="1"/>
-    </row>
-    <row r="177" spans="4:14">
-      <c r="E177" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="41"/>
+      <c r="O176" s="1"/>
+    </row>
+    <row r="177" spans="4:15">
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
-      <c r="K177" s="1"/>
-      <c r="L177" s="41"/>
-      <c r="N177" s="1"/>
-    </row>
-    <row r="178" spans="4:14">
-      <c r="E178" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="41"/>
+      <c r="O177" s="1"/>
+    </row>
+    <row r="178" spans="4:15">
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
-      <c r="K178" s="1"/>
-      <c r="L178" s="41"/>
-      <c r="N178" s="1"/>
-    </row>
-    <row r="179" spans="4:14">
-      <c r="E179" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="41"/>
+      <c r="O178" s="1"/>
+    </row>
+    <row r="179" spans="4:15">
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="41"/>
-      <c r="N179" s="1"/>
-    </row>
-    <row r="180" spans="4:14">
-      <c r="E180" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="41"/>
+      <c r="O179" s="1"/>
+    </row>
+    <row r="180" spans="4:15">
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="41"/>
-      <c r="N180" s="1"/>
-    </row>
-    <row r="181" spans="4:14">
-      <c r="E181" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="41"/>
+      <c r="O180" s="1"/>
+    </row>
+    <row r="181" spans="4:15">
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
-      <c r="K181" s="1"/>
-      <c r="N181" s="1"/>
-    </row>
-    <row r="182" spans="4:14">
-      <c r="E182" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="O181" s="1"/>
+    </row>
+    <row r="182" spans="4:15">
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
-      <c r="K182" s="1"/>
-      <c r="N182" s="1"/>
-    </row>
-    <row r="183" spans="4:14">
-      <c r="E183" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="O182" s="1"/>
+    </row>
+    <row r="183" spans="4:15">
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
-      <c r="K183" s="1"/>
-      <c r="N183" s="1"/>
-    </row>
-    <row r="184" spans="4:14">
-      <c r="E184" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="O183" s="1"/>
+    </row>
+    <row r="184" spans="4:15">
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
-      <c r="K184" s="1"/>
-      <c r="N184" s="1"/>
-    </row>
-    <row r="185" spans="4:14">
-      <c r="E185" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="O184" s="1"/>
+    </row>
+    <row r="185" spans="4:15">
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
-      <c r="K185" s="1"/>
-      <c r="N185" s="1"/>
-    </row>
-    <row r="186" spans="4:14">
-      <c r="E186" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="O185" s="1"/>
+    </row>
+    <row r="186" spans="4:15">
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
-      <c r="K186" s="1"/>
-      <c r="N186" s="1"/>
-    </row>
-    <row r="187" spans="4:14">
+      <c r="H186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="O186" s="1"/>
+    </row>
+    <row r="187" spans="4:15">
       <c r="D187" s="108"/>
-      <c r="E187" s="1"/>
+      <c r="E187" s="108"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
-      <c r="K187" s="1"/>
-      <c r="N187" s="1"/>
-    </row>
-    <row r="188" spans="4:14">
+      <c r="H187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="O187" s="1"/>
+    </row>
+    <row r="188" spans="4:15">
       <c r="D188" s="108"/>
-      <c r="E188" s="1"/>
+      <c r="E188" s="108"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
-      <c r="K188" s="1"/>
-      <c r="N188" s="1"/>
-    </row>
-    <row r="189" spans="4:14">
+      <c r="H188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="O188" s="1"/>
+    </row>
+    <row r="189" spans="4:15">
       <c r="D189" s="108"/>
-      <c r="E189" s="1"/>
+      <c r="E189" s="108"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
-      <c r="K189" s="1"/>
-      <c r="N189" s="1"/>
-    </row>
-    <row r="190" spans="4:14">
+      <c r="H189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="O189" s="1"/>
+    </row>
+    <row r="190" spans="4:15">
       <c r="D190" s="108"/>
-      <c r="E190" s="1"/>
+      <c r="E190" s="108"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
-      <c r="K190" s="1"/>
-      <c r="N190" s="1"/>
-    </row>
-    <row r="191" spans="4:14">
+      <c r="H190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="O190" s="1"/>
+    </row>
+    <row r="191" spans="4:15">
       <c r="D191" s="108"/>
-      <c r="E191" s="1"/>
+      <c r="E191" s="108"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
-      <c r="K191" s="1"/>
-      <c r="N191" s="1"/>
-    </row>
-    <row r="192" spans="4:14">
+      <c r="H191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="O191" s="1"/>
+    </row>
+    <row r="192" spans="4:15">
       <c r="D192" s="108"/>
-      <c r="E192" s="1"/>
+      <c r="E192" s="108"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
-      <c r="K192" s="1"/>
-      <c r="N192" s="1"/>
-    </row>
-    <row r="193" spans="3:14">
+      <c r="H192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="O192" s="1"/>
+    </row>
+    <row r="193" spans="3:15">
       <c r="D193" s="108"/>
-      <c r="E193" s="1"/>
+      <c r="E193" s="108"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
-      <c r="K193" s="1"/>
-      <c r="N193" s="1"/>
-    </row>
-    <row r="194" spans="3:14">
+      <c r="H193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="O193" s="1"/>
+    </row>
+    <row r="194" spans="3:15">
       <c r="C194" s="36"/>
       <c r="D194" s="108"/>
-      <c r="E194" s="1"/>
+      <c r="E194" s="108"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
-      <c r="K194" s="1"/>
-      <c r="L194" s="107"/>
-      <c r="N194" s="1"/>
-    </row>
-    <row r="195" spans="3:14">
-      <c r="E195" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="107"/>
+      <c r="O194" s="1"/>
+    </row>
+    <row r="195" spans="3:15">
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
-      <c r="K195" s="1"/>
-      <c r="L195" s="141"/>
-      <c r="N195" s="1"/>
-    </row>
-    <row r="196" spans="3:14">
-      <c r="E196" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="141"/>
+      <c r="O195" s="1"/>
+    </row>
+    <row r="196" spans="3:15">
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
-      <c r="K196" s="1"/>
-      <c r="N196" s="1"/>
-    </row>
-    <row r="197" spans="3:14">
-      <c r="E197" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="O196" s="1"/>
+    </row>
+    <row r="197" spans="3:15">
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
-      <c r="H197" s="201"/>
-      <c r="K197" s="1"/>
-      <c r="N197" s="1"/>
-    </row>
-    <row r="198" spans="3:14">
-      <c r="E198" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="201"/>
+      <c r="L197" s="1"/>
+      <c r="O197" s="1"/>
+    </row>
+    <row r="198" spans="3:15">
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
-      <c r="K198" s="1"/>
-      <c r="N198" s="1"/>
-    </row>
-    <row r="199" spans="3:14">
-      <c r="E199" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="O198" s="1"/>
+    </row>
+    <row r="199" spans="3:15">
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
-      <c r="K199" s="1"/>
-      <c r="N199" s="1"/>
-    </row>
-    <row r="200" spans="3:14">
-      <c r="E200" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="O199" s="1"/>
+    </row>
+    <row r="200" spans="3:15">
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
-      <c r="K200" s="1"/>
-      <c r="N200" s="1"/>
-    </row>
-    <row r="201" spans="3:14">
-      <c r="E201" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="O200" s="1"/>
+    </row>
+    <row r="201" spans="3:15">
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
-      <c r="K201" s="1"/>
-      <c r="N201" s="1"/>
-    </row>
-    <row r="202" spans="3:14">
-      <c r="E202" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="O201" s="1"/>
+    </row>
+    <row r="202" spans="3:15">
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
-      <c r="K202" s="1"/>
-      <c r="N202" s="1"/>
-    </row>
-    <row r="203" spans="3:14">
-      <c r="E203" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="O202" s="1"/>
+    </row>
+    <row r="203" spans="3:15">
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
-      <c r="K203" s="1"/>
-      <c r="N203" s="1"/>
-    </row>
-    <row r="204" spans="3:14">
-      <c r="E204" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="O203" s="1"/>
+    </row>
+    <row r="204" spans="3:15">
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
-      <c r="K204" s="1"/>
-      <c r="L204" s="107"/>
-      <c r="N204" s="1"/>
-    </row>
-    <row r="205" spans="3:14">
+      <c r="H204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="107"/>
+      <c r="O204" s="1"/>
+    </row>
+    <row r="205" spans="3:15">
       <c r="C205" s="36"/>
-      <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
-      <c r="K205" s="1"/>
-      <c r="L205" s="107"/>
-      <c r="N205" s="1"/>
-    </row>
-    <row r="206" spans="3:14">
+      <c r="H205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="107"/>
+      <c r="O205" s="1"/>
+    </row>
+    <row r="206" spans="3:15">
       <c r="C206" s="36"/>
-      <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
-      <c r="I206" s="36"/>
+      <c r="H206" s="1"/>
       <c r="J206" s="36"/>
-      <c r="K206" s="1"/>
-      <c r="L206" s="107"/>
-      <c r="N206" s="1"/>
-    </row>
-    <row r="207" spans="3:14">
+      <c r="K206" s="36"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="107"/>
+      <c r="O206" s="1"/>
+    </row>
+    <row r="207" spans="3:15">
       <c r="C207" s="36"/>
-      <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
-      <c r="K207" s="1"/>
-      <c r="L207" s="107"/>
-      <c r="N207" s="1"/>
-    </row>
-    <row r="208" spans="3:14">
+      <c r="H207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="107"/>
+      <c r="O207" s="1"/>
+    </row>
+    <row r="208" spans="3:15">
       <c r="C208" s="36"/>
-      <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
-      <c r="K208" s="1"/>
-      <c r="L208" s="107"/>
-      <c r="N208" s="1"/>
-    </row>
-    <row r="209" spans="2:14">
+      <c r="H208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="107"/>
+      <c r="O208" s="1"/>
+    </row>
+    <row r="209" spans="2:15">
       <c r="C209" s="36"/>
-      <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
-      <c r="K209" s="1"/>
-      <c r="L209" s="107"/>
-      <c r="N209" s="1"/>
-    </row>
-    <row r="210" spans="2:14">
+      <c r="H209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="107"/>
+      <c r="O209" s="1"/>
+    </row>
+    <row r="210" spans="2:15">
       <c r="C210" s="36"/>
-      <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
-      <c r="I210" s="36"/>
+      <c r="H210" s="1"/>
       <c r="J210" s="36"/>
-      <c r="K210" s="1"/>
-      <c r="L210" s="107"/>
-      <c r="N210" s="1"/>
-    </row>
-    <row r="211" spans="2:14">
+      <c r="K210" s="36"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="107"/>
+      <c r="O210" s="1"/>
+    </row>
+    <row r="211" spans="2:15">
       <c r="C211" s="36"/>
-      <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
-      <c r="I211" s="36"/>
+      <c r="H211" s="1"/>
       <c r="J211" s="36"/>
-      <c r="K211" s="1"/>
-      <c r="L211" s="107"/>
-      <c r="N211" s="1"/>
-    </row>
-    <row r="212" spans="2:14">
-      <c r="E212" s="1"/>
+      <c r="K211" s="36"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="107"/>
+      <c r="O211" s="1"/>
+    </row>
+    <row r="212" spans="2:15">
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
-      <c r="K212" s="1"/>
-      <c r="N212" s="1"/>
-    </row>
-    <row r="213" spans="2:14">
+      <c r="H212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="O212" s="1"/>
+    </row>
+    <row r="213" spans="2:15">
       <c r="C213" s="36"/>
       <c r="D213" s="108"/>
-      <c r="E213" s="1"/>
+      <c r="E213" s="108"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
-      <c r="K213" s="1"/>
-      <c r="N213" s="1"/>
-    </row>
-    <row r="214" spans="2:14">
+      <c r="H213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="O213" s="1"/>
+    </row>
+    <row r="214" spans="2:15">
       <c r="D214" s="108"/>
-      <c r="E214" s="1"/>
+      <c r="E214" s="108"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
-      <c r="K214" s="1"/>
-      <c r="N214" s="1"/>
-    </row>
-    <row r="215" spans="2:14">
+      <c r="H214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="O214" s="1"/>
+    </row>
+    <row r="215" spans="2:15">
       <c r="D215" s="108"/>
-      <c r="E215" s="1"/>
+      <c r="E215" s="108"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
-      <c r="K215" s="1"/>
-      <c r="N215" s="1"/>
-    </row>
-    <row r="216" spans="2:14">
+      <c r="H215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="O215" s="1"/>
+    </row>
+    <row r="216" spans="2:15">
       <c r="D216" s="108"/>
-      <c r="E216" s="1"/>
+      <c r="E216" s="108"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
-      <c r="K216" s="1"/>
-      <c r="N216" s="1"/>
-    </row>
-    <row r="217" spans="2:14">
+      <c r="H216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="O216" s="1"/>
+    </row>
+    <row r="217" spans="2:15">
       <c r="D217" s="108"/>
-      <c r="E217" s="1"/>
+      <c r="E217" s="108"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
-      <c r="K217" s="1"/>
-      <c r="N217" s="1"/>
-    </row>
-    <row r="218" spans="2:14">
+      <c r="H217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="O217" s="1"/>
+    </row>
+    <row r="218" spans="2:15">
       <c r="D218" s="108"/>
-      <c r="E218" s="1"/>
+      <c r="E218" s="108"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
-      <c r="K218" s="1"/>
-      <c r="L218" s="107"/>
-      <c r="N218" s="1"/>
-    </row>
-    <row r="219" spans="2:14">
+      <c r="H218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="107"/>
+      <c r="O218" s="1"/>
+    </row>
+    <row r="219" spans="2:15">
       <c r="D219" s="108"/>
-      <c r="E219" s="1"/>
+      <c r="E219" s="108"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
-      <c r="K219" s="1"/>
-      <c r="N219" s="1"/>
-    </row>
-    <row r="220" spans="2:14">
+      <c r="H219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="O219" s="1"/>
+    </row>
+    <row r="220" spans="2:15">
       <c r="D220" s="108"/>
-      <c r="E220" s="1"/>
+      <c r="E220" s="108"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
-      <c r="K220" s="1"/>
-      <c r="L220" s="107"/>
-      <c r="N220" s="1"/>
-    </row>
-    <row r="221" spans="2:14">
+      <c r="H220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="107"/>
+      <c r="O220" s="1"/>
+    </row>
+    <row r="221" spans="2:15">
       <c r="B221" s="36"/>
       <c r="C221" s="36"/>
-      <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
-      <c r="K221" s="1"/>
-      <c r="N221" s="1"/>
-    </row>
-    <row r="222" spans="2:14">
+      <c r="H221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="O221" s="1"/>
+    </row>
+    <row r="222" spans="2:15">
       <c r="B222" s="36"/>
       <c r="C222" s="36"/>
-      <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
-      <c r="K222" s="1"/>
-      <c r="N222" s="1"/>
-    </row>
-    <row r="223" spans="2:14">
-      <c r="E223" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="O222" s="1"/>
+    </row>
+    <row r="223" spans="2:15">
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
-      <c r="K223" s="1"/>
-      <c r="N223" s="1"/>
-    </row>
-    <row r="224" spans="2:14">
-      <c r="E224" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="O223" s="1"/>
+    </row>
+    <row r="224" spans="2:15">
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
-      <c r="K224" s="1"/>
-      <c r="L224" s="107"/>
-      <c r="N224" s="1"/>
-    </row>
-    <row r="225" spans="3:14">
-      <c r="E225" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="107"/>
+      <c r="O224" s="1"/>
+    </row>
+    <row r="225" spans="3:15">
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
-      <c r="K225" s="1"/>
-      <c r="N225" s="1"/>
-    </row>
-    <row r="226" spans="3:14">
-      <c r="E226" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="O225" s="1"/>
+    </row>
+    <row r="226" spans="3:15">
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
-      <c r="K226" s="1"/>
-      <c r="N226" s="1"/>
-    </row>
-    <row r="227" spans="3:14">
-      <c r="E227" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="O226" s="1"/>
+    </row>
+    <row r="227" spans="3:15">
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
-      <c r="K227" s="1"/>
-      <c r="N227" s="1"/>
-    </row>
-    <row r="228" spans="3:14">
-      <c r="E228" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="O227" s="1"/>
+    </row>
+    <row r="228" spans="3:15">
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
-      <c r="K228" s="1"/>
-      <c r="N228" s="1"/>
-    </row>
-    <row r="229" spans="3:14">
-      <c r="E229" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="O228" s="1"/>
+    </row>
+    <row r="229" spans="3:15">
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
-      <c r="K229" s="1"/>
-      <c r="N229" s="1"/>
-    </row>
-    <row r="230" spans="3:14">
-      <c r="E230" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="O229" s="1"/>
+    </row>
+    <row r="230" spans="3:15">
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
-      <c r="K230" s="1"/>
-      <c r="N230" s="1"/>
-    </row>
-    <row r="231" spans="3:14">
-      <c r="E231" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="O230" s="1"/>
+    </row>
+    <row r="231" spans="3:15">
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
-      <c r="K231" s="1"/>
-      <c r="N231" s="1"/>
-    </row>
-    <row r="232" spans="3:14">
-      <c r="E232" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="O231" s="1"/>
+    </row>
+    <row r="232" spans="3:15">
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
-      <c r="H232" s="36"/>
+      <c r="H232" s="1"/>
       <c r="I232" s="36"/>
       <c r="J232" s="36"/>
-      <c r="K232" s="1"/>
-      <c r="N232" s="1"/>
-    </row>
-    <row r="233" spans="3:14">
-      <c r="E233" s="1"/>
+      <c r="K232" s="36"/>
+      <c r="L232" s="1"/>
+      <c r="O232" s="1"/>
+    </row>
+    <row r="233" spans="3:15">
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
-      <c r="H233" s="36"/>
+      <c r="H233" s="1"/>
       <c r="I233" s="36"/>
       <c r="J233" s="36"/>
-      <c r="K233" s="1"/>
-      <c r="N233" s="1"/>
-    </row>
-    <row r="234" spans="3:14">
-      <c r="E234" s="1"/>
+      <c r="K233" s="36"/>
+      <c r="L233" s="1"/>
+      <c r="O233" s="1"/>
+    </row>
+    <row r="234" spans="3:15">
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
-      <c r="H234" s="36"/>
+      <c r="H234" s="1"/>
       <c r="I234" s="36"/>
       <c r="J234" s="36"/>
-      <c r="K234" s="1"/>
-      <c r="N234" s="1"/>
-    </row>
-    <row r="235" spans="3:14">
-      <c r="E235" s="1"/>
+      <c r="K234" s="36"/>
+      <c r="L234" s="1"/>
+      <c r="O234" s="1"/>
+    </row>
+    <row r="235" spans="3:15">
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
-      <c r="H235" s="36"/>
+      <c r="H235" s="1"/>
       <c r="I235" s="36"/>
       <c r="J235" s="36"/>
-      <c r="K235" s="1"/>
-      <c r="N235" s="1"/>
-    </row>
-    <row r="236" spans="3:14">
+      <c r="K235" s="36"/>
+      <c r="L235" s="1"/>
+      <c r="O235" s="1"/>
+    </row>
+    <row r="236" spans="3:15">
       <c r="C236" s="36"/>
-      <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
-      <c r="H236" s="36"/>
+      <c r="H236" s="1"/>
       <c r="I236" s="36"/>
       <c r="J236" s="36"/>
-      <c r="K236" s="1"/>
-      <c r="N236" s="1"/>
-    </row>
-    <row r="237" spans="3:14">
+      <c r="K236" s="36"/>
+      <c r="L236" s="1"/>
+      <c r="O236" s="1"/>
+    </row>
+    <row r="237" spans="3:15">
       <c r="C237" s="36"/>
-      <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
-      <c r="H237" s="36"/>
+      <c r="H237" s="1"/>
       <c r="I237" s="36"/>
       <c r="J237" s="36"/>
-      <c r="K237" s="1"/>
-      <c r="N237" s="1"/>
-    </row>
-    <row r="238" spans="3:14">
+      <c r="K237" s="36"/>
+      <c r="L237" s="1"/>
+      <c r="O237" s="1"/>
+    </row>
+    <row r="238" spans="3:15">
       <c r="C238" s="36"/>
-      <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
-      <c r="H238" s="36"/>
+      <c r="H238" s="1"/>
       <c r="I238" s="36"/>
       <c r="J238" s="36"/>
-      <c r="K238" s="1"/>
-      <c r="N238" s="1"/>
-    </row>
-    <row r="239" spans="3:14">
+      <c r="K238" s="36"/>
+      <c r="L238" s="1"/>
+      <c r="O238" s="1"/>
+    </row>
+    <row r="239" spans="3:15">
       <c r="C239" s="36"/>
-      <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
-      <c r="H239" s="36"/>
+      <c r="H239" s="1"/>
       <c r="I239" s="36"/>
       <c r="J239" s="36"/>
-      <c r="K239" s="1"/>
-      <c r="N239" s="1"/>
-    </row>
-    <row r="240" spans="3:14">
-      <c r="E240" s="1"/>
+      <c r="K239" s="36"/>
+      <c r="L239" s="1"/>
+      <c r="O239" s="1"/>
+    </row>
+    <row r="240" spans="3:15">
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
-      <c r="K240" s="1"/>
-      <c r="L240" s="107"/>
-      <c r="N240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="107"/>
+      <c r="O240" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:P231" xr:uid="{93D30021-67EF-EE48-BE7B-4A9D77B3B997}"/>
+  <autoFilter ref="A3:Q231" xr:uid="{93D30021-67EF-EE48-BE7B-4A9D77B3B997}"/>
   <phoneticPr fontId="49" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -25556,22 +25579,22 @@
       <selection activeCell="A4" sqref="A4:XFD206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.7265625" customWidth="1"/>
+    <col min="4" max="4" width="51.26953125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.26953125" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7265625" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="1" customWidth="1"/>
-    <col min="12" max="17" width="8.42578125" customWidth="1"/>
-    <col min="18" max="21" width="6.28515625" customWidth="1"/>
-    <col min="22" max="1023" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="26.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.26953125" style="1" customWidth="1"/>
+    <col min="12" max="17" width="8.453125" customWidth="1"/>
+    <col min="18" max="21" width="6.26953125" customWidth="1"/>
+    <col min="22" max="1023" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18">
@@ -25827,7 +25850,7 @@
       <c r="E23" s="108"/>
       <c r="F23" s="108"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" ht="13">
       <c r="B24" s="108"/>
       <c r="C24" s="108"/>
       <c r="D24" s="108"/>
@@ -25835,7 +25858,7 @@
       <c r="F24" s="108"/>
       <c r="G24" s="52"/>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" ht="13">
       <c r="B25" s="108"/>
       <c r="C25" s="108"/>
       <c r="D25" s="108"/>
@@ -25843,7 +25866,7 @@
       <c r="F25" s="108"/>
       <c r="G25" s="52"/>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" ht="13">
       <c r="B26" s="108"/>
       <c r="C26" s="108"/>
       <c r="D26" s="108"/>
@@ -25851,7 +25874,7 @@
       <c r="F26" s="108"/>
       <c r="G26" s="52"/>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" ht="13">
       <c r="B27" s="108"/>
       <c r="C27" s="108"/>
       <c r="D27" s="108"/>
@@ -26794,20 +26817,20 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" style="246" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="246"/>
-    <col min="3" max="3" width="54.7109375" style="246" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="246" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="246" customWidth="1"/>
-    <col min="7" max="7" width="44.28515625" style="246" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="246" customWidth="1"/>
+    <col min="1" max="1" width="36.7265625" style="246" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="246"/>
+    <col min="3" max="3" width="54.7265625" style="246" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" style="246" customWidth="1"/>
+    <col min="5" max="6" width="12.7265625" style="246" customWidth="1"/>
+    <col min="7" max="7" width="44.26953125" style="246" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" style="246" customWidth="1"/>
     <col min="9" max="9" width="37" style="246" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" style="246" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" style="246" customWidth="1"/>
-    <col min="12" max="1025" width="10.85546875" style="246"/>
-    <col min="1026" max="16384" width="10.85546875" style="245"/>
+    <col min="10" max="10" width="43.7265625" style="246" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" style="246" customWidth="1"/>
+    <col min="12" max="1025" width="10.81640625" style="246"/>
+    <col min="1026" max="16384" width="10.81640625" style="245"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18">
@@ -26833,7 +26856,7 @@
       <c r="L1" s="247"/>
       <c r="M1" s="247"/>
     </row>
-    <row r="2" spans="1:13" ht="63.75">
+    <row r="2" spans="1:13" ht="52">
       <c r="A2" s="258" t="s">
         <v>4</v>
       </c>
@@ -26868,7 +26891,7 @@
       <c r="L2" s="254"/>
       <c r="M2" s="254"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75">
+    <row r="3" spans="1:13" ht="15.5">
       <c r="A3" s="253" t="s">
         <v>9</v>
       </c>
@@ -26920,7 +26943,7 @@
       <c r="L4" s="247"/>
       <c r="M4" s="247"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="13">
       <c r="A5" s="248"/>
       <c r="B5" s="248"/>
       <c r="C5" s="249"/>
@@ -26935,7 +26958,7 @@
       <c r="L5" s="247"/>
       <c r="M5" s="247"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="13">
       <c r="A6" s="248"/>
       <c r="B6" s="248"/>
       <c r="D6" s="247"/>
@@ -26949,7 +26972,7 @@
       <c r="L6" s="247"/>
       <c r="M6" s="247"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" ht="13">
       <c r="A7" s="248"/>
       <c r="B7" s="248"/>
       <c r="D7" s="247"/>

--- a/data/ccd-template.xlsx
+++ b/data/ccd-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judgem\Documents\Scotland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9474332B-A8A5-44AD-AB4C-139D012E58CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FD542F-E05E-412B-98A2-66829B25C94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4470" yWindow="-21720" windowWidth="38640" windowHeight="21240" tabRatio="855" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4470" yWindow="-21720" windowWidth="38640" windowHeight="21240" tabRatio="855" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CaseRoles" sheetId="30" r:id="rId1"/>
@@ -24,23 +24,24 @@
     <sheet name="ChallengeQuestion" sheetId="31" r:id="rId9"/>
     <sheet name="ComplexTypes" sheetId="9" r:id="rId10"/>
     <sheet name="EventToComplexTypes" sheetId="32" r:id="rId11"/>
-    <sheet name="Scotland Scrubbed" sheetId="26" r:id="rId12"/>
-    <sheet name="SearchInputFields" sheetId="12" r:id="rId13"/>
-    <sheet name="WorkBasketInputFields" sheetId="14" r:id="rId14"/>
-    <sheet name="SearchResultFields" sheetId="13" r:id="rId15"/>
-    <sheet name="WorkBasketResultFields" sheetId="15" r:id="rId16"/>
-    <sheet name="SearchCaseResultFields" sheetId="22" r:id="rId17"/>
-    <sheet name="UserProfile" sheetId="16" r:id="rId18"/>
-    <sheet name="AuthorisationComplexType" sheetId="17" r:id="rId19"/>
-    <sheet name="AuthorisationCaseType" sheetId="18" r:id="rId20"/>
-    <sheet name="AuthorisationCaseField" sheetId="19" r:id="rId21"/>
-    <sheet name="AuthorisationCaseEvent" sheetId="20" r:id="rId22"/>
-    <sheet name="AuthorisationCaseState" sheetId="21" r:id="rId23"/>
+    <sheet name="RoleToAccessProfiles" sheetId="33" r:id="rId12"/>
+    <sheet name="Scotland Scrubbed" sheetId="26" r:id="rId13"/>
+    <sheet name="SearchInputFields" sheetId="12" r:id="rId14"/>
+    <sheet name="WorkBasketInputFields" sheetId="14" r:id="rId15"/>
+    <sheet name="SearchResultFields" sheetId="13" r:id="rId16"/>
+    <sheet name="WorkBasketResultFields" sheetId="15" r:id="rId17"/>
+    <sheet name="SearchCaseResultFields" sheetId="22" r:id="rId18"/>
+    <sheet name="UserProfile" sheetId="16" r:id="rId19"/>
+    <sheet name="AuthorisationComplexType" sheetId="17" r:id="rId20"/>
+    <sheet name="AuthorisationCaseType" sheetId="18" r:id="rId21"/>
+    <sheet name="AuthorisationCaseField" sheetId="19" r:id="rId22"/>
+    <sheet name="AuthorisationCaseEvent" sheetId="20" r:id="rId23"/>
+    <sheet name="AuthorisationCaseState" sheetId="21" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">AuthorisationCaseEvent!$A$3:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">AuthorisationCaseField!$A$1:$D$517</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">AuthorisationCaseState!$A$3:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">AuthorisationCaseEvent!$A$3:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">AuthorisationCaseField!$A$1:$D$517</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">AuthorisationCaseState!$A$3:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CaseEvent!$A$3:$Z$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">CaseEventToFields!$A$3:$Q$231</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">CaseField!$A$3:$U$3</definedName>
@@ -48,7 +49,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CaseTypeTab!$A$3:$P$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">ComplexTypes!$A$3:$W$559</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">EventToComplexTypes!$A$3:$I$382</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Scotland Scrubbed'!$A$3:$F$646</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Scotland Scrubbed'!$A$3:$F$646</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">State!$A$3:$Q$11</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="359">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1205,6 +1206,21 @@
   </si>
   <si>
     <t>Boolean value to say if an event can be published</t>
+  </si>
+  <si>
+    <t>AccessProfiles</t>
+  </si>
+  <si>
+    <t>ReadOnly</t>
+  </si>
+  <si>
+    <t>RoleName</t>
+  </si>
+  <si>
+    <t>RoleToAccessProfiles</t>
+  </si>
+  <si>
+    <t>A comma-separated list of AccessProfiles that should be assigned to the user if their RoleName, ReadOnly value (and optional Authorisations) match.</t>
   </si>
 </sst>
 </file>
@@ -1860,7 +1876,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2411,6 +2427,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -7631,7 +7648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E7B8F4-5285-46EC-BCE1-BF8FCCDC20D1}">
   <dimension ref="A1:L402"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D14" sqref="D14"/>
       <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
@@ -13858,6 +13875,809 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0B9A54-A710-4970-B170-413E5E0036C4}">
+  <dimension ref="A1:E249"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18">
+      <c r="A1" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="169">
+      <c r="A2" s="239" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.5">
+      <c r="A3" s="233" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" s="283" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="283" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="15"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="15"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="15"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="15"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="15"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="15"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="15"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="15"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="15"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="15"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="15"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="15"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="15"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="15"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="15"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="15"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="15"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="15"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="15"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="15"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="15"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="15"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="15"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="15"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="15"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="15"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="15"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="15"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="15"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="15"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="15"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="15"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="15"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="15"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="15"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="15"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="15"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="15"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="15"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="15"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="15"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="15"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="15"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="15"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="15"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="15"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="15"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="15"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="15"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="15"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="15"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="15"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="15"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="15"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="15"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="15"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="15"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="15"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="15"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="15"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="15"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="15"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="15"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="15"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="15"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="15"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="15"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="15"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="15"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="15"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="15"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="15"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="15"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="15"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="15"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="15"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="15"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="15"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="15"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="15"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="15"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="15"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="15"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="15"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="15"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="15"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="15"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="15"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="15"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="15"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="15"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="15"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="15"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="15"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="15"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="15"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="15"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="15"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="15"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="15"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="15"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="15"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="15"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="15"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="15"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="15"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="15"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="15"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="15"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="15"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="15"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="15"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="15"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="15"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="15"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="15"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="15"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="15"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="15"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="15"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="15"/>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="15"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="15"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="15"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="15"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="15"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="15"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="15"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="15"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="15"/>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="15"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="15"/>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="15"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="15"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="15"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="15"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="15"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="15"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="15"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="15"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="15"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="15"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="15"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="15"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="15"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="15"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="15"/>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="15"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="15"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="15"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="15"/>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="15"/>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="15"/>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="15"/>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="15"/>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="15"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="15"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="15"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="15"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="15"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="15"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="15"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="15"/>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="15"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="15"/>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="15"/>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="15"/>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="15"/>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="15"/>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="15"/>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="15"/>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="15"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="15"/>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="15"/>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="15"/>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="15"/>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="15"/>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="15"/>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="15"/>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="15"/>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="15"/>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="15"/>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="15"/>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="15"/>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="15"/>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="15"/>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="15"/>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="15"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="15"/>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="15"/>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="15"/>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="15"/>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="15"/>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="15"/>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="15"/>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="15"/>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="15"/>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="15"/>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="15"/>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="15"/>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="15"/>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="15"/>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="15"/>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="15"/>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="15"/>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="15"/>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="15"/>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="15"/>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="15"/>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="15"/>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="15"/>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="15"/>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="15"/>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="15"/>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="15"/>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="15"/>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="15"/>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="15"/>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="15"/>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="15"/>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="15"/>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="15"/>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="15"/>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="15"/>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="15"/>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="15"/>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="15"/>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="15"/>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="15"/>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="15"/>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="15"/>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="15"/>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="15"/>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="15"/>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="15"/>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="15"/>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="15"/>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="15"/>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="15"/>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="15"/>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="15"/>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="15"/>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="15"/>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="15"/>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEDE50F-3952-214F-9597-838D9D10B1E0}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -16753,7 +17573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
@@ -17016,7 +17836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -17148,7 +17968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
@@ -17286,7 +18106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
@@ -17423,7 +18243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E55ACB-56A8-B541-931E-FA903DDDD8CF}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -17586,7 +18406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -17683,7 +18503,108 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="2" width="11.453125"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="1024" width="11.453125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" ht="130">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="147" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" ht="13">
+      <c r="A3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="F4" s="108"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;6&amp;KFF0000 Classification: Controlled</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:IU148"/>
   <sheetViews>
@@ -18736,108 +19657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
-  <cols>
-    <col min="1" max="2" width="11.453125"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
-    <col min="4" max="1024" width="11.453125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="18">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:14" ht="130">
-      <c r="A2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="147" t="s">
-        <v>179</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-    </row>
-    <row r="3" spans="1:14" ht="13">
-      <c r="A3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="F4" s="108"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;6&amp;KFF0000 Classification: Controlled</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:IU10"/>
   <sheetViews>
@@ -19450,7 +20270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:D518"/>
   <sheetViews>
@@ -21194,7 +22014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:D109"/>
   <sheetViews>
@@ -21623,7 +22443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -23472,7 +24292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>

--- a/data/ccd-template.xlsx
+++ b/data/ccd-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judgem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33528CB-5C20-4669-AD4E-4B684CA110F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E72009-E1F8-4DD3-BF9F-9514BAB29ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2640" yWindow="-19890" windowWidth="31440" windowHeight="17490" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4470" yWindow="-21720" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CaseRoles" sheetId="30" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">CaseField!$A$3:$U$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CaseRoles!$A$3:$F$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CaseTypeTab!$A$3:$P$54</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">ComplexTypes!$A$3:$W$559</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">ComplexTypes!$A$3:$X$559</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">EventToComplexTypes!$A$3:$I$382</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Scotland Scrubbed'!$A$3:$F$646</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">State!$A$3:$Q$11</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="361">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1225,6 +1225,10 @@
   </si>
   <si>
     <t>ParentCategoryID</t>
+  </si>
+  <si>
+    <t>ID that identifies the document category
+MaxLength: 70</t>
   </si>
 </sst>
 </file>
@@ -3234,10 +3238,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:W649"/>
+  <dimension ref="A1:X649"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD559"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
@@ -3249,20 +3253,21 @@
     <col min="5" max="5" width="20.453125" style="52" customWidth="1"/>
     <col min="6" max="6" width="21.7265625" style="41" customWidth="1"/>
     <col min="7" max="7" width="9.453125" style="41" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" style="53" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" style="53" customWidth="1"/>
-    <col min="11" max="11" width="11.26953125" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" customWidth="1"/>
-    <col min="13" max="13" width="17.7265625" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="28.26953125" customWidth="1"/>
-    <col min="16" max="23" width="6.26953125" customWidth="1"/>
-    <col min="24" max="1023" width="8.26953125" customWidth="1"/>
-    <col min="1024" max="1025" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="25.453125" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="17.26953125" style="53" customWidth="1"/>
+    <col min="11" max="11" width="15.7265625" style="53" customWidth="1"/>
+    <col min="12" max="12" width="11.26953125" customWidth="1"/>
+    <col min="13" max="13" width="10.7265625" customWidth="1"/>
+    <col min="14" max="14" width="17.7265625" customWidth="1"/>
+    <col min="15" max="15" width="48" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.26953125" customWidth="1"/>
+    <col min="17" max="24" width="6.26953125" customWidth="1"/>
+    <col min="25" max="1024" width="8.26953125" customWidth="1"/>
+    <col min="1025" max="1026" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18" customHeight="1">
+    <row r="1" spans="1:24" ht="18" customHeight="1">
       <c r="A1" s="35" t="s">
         <v>112</v>
       </c>
@@ -3279,16 +3284,16 @@
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
-      <c r="I1" s="34"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="34"/>
-      <c r="K1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="36"/>
       <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
       <c r="P1" s="36"/>
       <c r="Q1" s="36"/>
-    </row>
-    <row r="2" spans="1:23" ht="64.900000000000006" customHeight="1">
+      <c r="R1" s="36"/>
+    </row>
+    <row r="2" spans="1:24" ht="64.900000000000006" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>113</v>
       </c>
@@ -3308,28 +3313,33 @@
         <v>117</v>
       </c>
       <c r="G2" s="23"/>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="126" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="J2" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="K2" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="121" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="N2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="O2" s="23" t="s">
+        <v>360</v>
+      </c>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
-    </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" ht="33.4" customHeight="1">
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="1:24" s="2" customFormat="1" ht="33.4" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>11</v>
       </c>
@@ -3351,25 +3361,30 @@
       <c r="G3" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="J3" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="K3" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="L3" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="M3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="N3" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="O3" s="51"/>
+      <c r="O3" s="27" t="s">
+        <v>357</v>
+      </c>
       <c r="P3" s="51"/>
       <c r="Q3" s="51"/>
       <c r="R3" s="51"/>
@@ -3378,43 +3393,44 @@
       <c r="U3" s="51"/>
       <c r="V3" s="51"/>
       <c r="W3" s="51"/>
-    </row>
-    <row r="4" spans="1:23" ht="12.5">
+      <c r="X3" s="51"/>
+    </row>
+    <row r="4" spans="1:24" ht="12.5">
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="I4"/>
       <c r="J4"/>
-    </row>
-    <row r="5" spans="1:23" ht="12.5">
+      <c r="K4"/>
+    </row>
+    <row r="5" spans="1:24" ht="12.5">
       <c r="E5"/>
       <c r="F5" s="108"/>
       <c r="G5"/>
-      <c r="I5"/>
       <c r="J5"/>
-    </row>
-    <row r="6" spans="1:23" ht="12.5">
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="1:24" ht="12.5">
       <c r="E6"/>
       <c r="F6" s="108"/>
       <c r="G6"/>
-      <c r="I6"/>
       <c r="J6"/>
-    </row>
-    <row r="7" spans="1:23" ht="12.5">
+      <c r="K6"/>
+    </row>
+    <row r="7" spans="1:24" ht="12.5">
       <c r="E7"/>
       <c r="F7" s="108"/>
       <c r="G7"/>
-      <c r="I7"/>
       <c r="J7"/>
-    </row>
-    <row r="8" spans="1:23" ht="12.5">
+      <c r="K7"/>
+    </row>
+    <row r="8" spans="1:24" ht="12.5">
       <c r="E8"/>
       <c r="F8" s="108"/>
       <c r="G8"/>
-      <c r="I8"/>
       <c r="J8"/>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="198"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
@@ -3422,42 +3438,43 @@
       <c r="E9" s="57"/>
       <c r="F9" s="198"/>
       <c r="G9" s="221"/>
-      <c r="H9" s="193"/>
-      <c r="I9"/>
+      <c r="H9" s="221"/>
+      <c r="I9" s="193"/>
       <c r="J9"/>
-    </row>
-    <row r="10" spans="1:23" ht="12.5">
+      <c r="K9"/>
+    </row>
+    <row r="10" spans="1:24" ht="12.5">
       <c r="A10" s="108"/>
       <c r="E10"/>
       <c r="F10" s="108"/>
       <c r="G10"/>
-      <c r="I10"/>
       <c r="J10"/>
-    </row>
-    <row r="11" spans="1:23" ht="12.5">
+      <c r="K10"/>
+    </row>
+    <row r="11" spans="1:24" ht="12.5">
       <c r="E11"/>
       <c r="F11" s="108"/>
       <c r="G11"/>
-      <c r="I11"/>
       <c r="J11"/>
-    </row>
-    <row r="12" spans="1:23" ht="12.5">
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="1:24" ht="12.5">
       <c r="A12" s="108"/>
       <c r="E12"/>
       <c r="F12" s="108"/>
       <c r="G12"/>
-      <c r="I12"/>
       <c r="J12"/>
-    </row>
-    <row r="13" spans="1:23" ht="12.5">
+      <c r="K12"/>
+    </row>
+    <row r="13" spans="1:24" ht="12.5">
       <c r="A13" s="108"/>
       <c r="E13"/>
       <c r="F13" s="108"/>
       <c r="G13"/>
-      <c r="I13"/>
       <c r="J13"/>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="K13"/>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="198"/>
       <c r="B14" s="56"/>
       <c r="C14" s="56"/>
@@ -3465,67 +3482,73 @@
       <c r="E14" s="57"/>
       <c r="F14" s="198"/>
       <c r="G14" s="221"/>
-      <c r="H14" s="193"/>
-      <c r="I14"/>
+      <c r="H14" s="221"/>
+      <c r="I14" s="193"/>
       <c r="J14"/>
-    </row>
-    <row r="15" spans="1:23" ht="12.5">
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="1:24" ht="12.5">
       <c r="A15" s="108"/>
       <c r="E15"/>
       <c r="F15" s="108"/>
       <c r="G15"/>
-      <c r="I15"/>
       <c r="J15"/>
-    </row>
-    <row r="16" spans="1:23" ht="12.5">
+      <c r="K15"/>
+    </row>
+    <row r="16" spans="1:24" ht="12.5">
       <c r="A16" s="108"/>
       <c r="E16"/>
       <c r="F16" s="108"/>
       <c r="G16"/>
-      <c r="I16"/>
       <c r="J16"/>
-    </row>
-    <row r="17" spans="1:10" ht="12.5">
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="1:11" ht="12.5">
       <c r="A17" s="108"/>
       <c r="E17"/>
       <c r="F17" s="108"/>
       <c r="G17" s="36"/>
-      <c r="I17"/>
+      <c r="H17" s="36"/>
       <c r="J17"/>
-    </row>
-    <row r="18" spans="1:10" ht="12.5">
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="1:11" ht="12.5">
       <c r="A18" s="108"/>
       <c r="E18"/>
       <c r="F18" s="108"/>
       <c r="G18" s="36"/>
-      <c r="I18"/>
+      <c r="H18" s="36"/>
       <c r="J18"/>
-    </row>
-    <row r="19" spans="1:10" ht="12.5">
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="1:11" ht="12.5">
       <c r="A19" s="108"/>
       <c r="E19"/>
       <c r="F19" s="108"/>
       <c r="G19" s="36"/>
-      <c r="I19"/>
+      <c r="H19" s="36"/>
       <c r="J19"/>
-    </row>
-    <row r="20" spans="1:10" ht="12.5">
+      <c r="K19"/>
+    </row>
+    <row r="20" spans="1:11" ht="12.5">
       <c r="A20" s="108"/>
       <c r="E20"/>
       <c r="F20" s="108"/>
       <c r="G20" s="36"/>
-      <c r="I20"/>
+      <c r="H20" s="36"/>
       <c r="J20"/>
-    </row>
-    <row r="21" spans="1:10" ht="12.5">
+      <c r="K20"/>
+    </row>
+    <row r="21" spans="1:11" ht="12.5">
       <c r="A21" s="108"/>
       <c r="E21"/>
       <c r="F21" s="108"/>
       <c r="G21" s="36"/>
-      <c r="I21"/>
+      <c r="H21" s="36"/>
       <c r="J21"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="198"/>
       <c r="B22" s="56"/>
       <c r="C22" s="56"/>
@@ -3533,19 +3556,21 @@
       <c r="E22" s="57"/>
       <c r="F22" s="198"/>
       <c r="G22" s="219"/>
-      <c r="H22" s="193"/>
-      <c r="I22"/>
+      <c r="H22" s="219"/>
+      <c r="I22" s="193"/>
       <c r="J22"/>
-    </row>
-    <row r="23" spans="1:10" ht="12.5">
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="1:11" ht="12.5">
       <c r="A23" s="108"/>
       <c r="E23"/>
       <c r="F23" s="108"/>
       <c r="G23" s="36"/>
-      <c r="I23"/>
+      <c r="H23" s="36"/>
       <c r="J23"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="198"/>
       <c r="B24" s="56"/>
       <c r="C24" s="56"/>
@@ -3553,19 +3578,21 @@
       <c r="E24" s="57"/>
       <c r="F24" s="198"/>
       <c r="G24" s="219"/>
-      <c r="H24" s="193"/>
-      <c r="I24"/>
+      <c r="H24" s="219"/>
+      <c r="I24" s="193"/>
       <c r="J24"/>
-    </row>
-    <row r="25" spans="1:10" ht="12.5">
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="1:11" ht="12.5">
       <c r="A25" s="108"/>
       <c r="E25"/>
       <c r="F25" s="108"/>
       <c r="G25" s="36"/>
-      <c r="I25"/>
+      <c r="H25" s="36"/>
       <c r="J25"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="198"/>
       <c r="B26" s="56"/>
       <c r="C26" s="56"/>
@@ -3573,77 +3600,87 @@
       <c r="E26" s="57"/>
       <c r="F26" s="198"/>
       <c r="G26" s="219"/>
-      <c r="H26" s="193"/>
-      <c r="I26"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="193"/>
       <c r="J26"/>
-    </row>
-    <row r="27" spans="1:10" ht="12.5">
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="1:11" ht="12.5">
       <c r="A27" s="108"/>
       <c r="E27"/>
       <c r="F27" s="108"/>
       <c r="G27" s="36"/>
-      <c r="I27"/>
+      <c r="H27" s="36"/>
       <c r="J27"/>
-    </row>
-    <row r="28" spans="1:10" ht="12.5">
+      <c r="K27"/>
+    </row>
+    <row r="28" spans="1:11" ht="12.5">
       <c r="A28" s="108"/>
       <c r="E28"/>
       <c r="F28" s="108"/>
       <c r="G28" s="36"/>
-      <c r="I28"/>
+      <c r="H28" s="36"/>
       <c r="J28"/>
-    </row>
-    <row r="29" spans="1:10" ht="12.5">
+      <c r="K28"/>
+    </row>
+    <row r="29" spans="1:11" ht="12.5">
       <c r="A29" s="108"/>
       <c r="E29"/>
       <c r="F29" s="108"/>
       <c r="G29" s="36"/>
-      <c r="I29"/>
+      <c r="H29" s="36"/>
       <c r="J29"/>
-    </row>
-    <row r="30" spans="1:10" ht="12.5">
+      <c r="K29"/>
+    </row>
+    <row r="30" spans="1:11" ht="12.5">
       <c r="E30"/>
       <c r="F30" s="108"/>
       <c r="G30" s="36"/>
-      <c r="I30"/>
+      <c r="H30" s="36"/>
       <c r="J30"/>
-    </row>
-    <row r="31" spans="1:10" ht="12.5">
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="1:11" ht="12.5">
       <c r="E31"/>
       <c r="F31" s="108"/>
       <c r="G31" s="36"/>
-      <c r="I31"/>
+      <c r="H31" s="36"/>
       <c r="J31"/>
-    </row>
-    <row r="32" spans="1:10" ht="12.5">
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="1:11" ht="12.5">
       <c r="E32"/>
       <c r="F32" s="108"/>
       <c r="G32" s="36"/>
-      <c r="I32"/>
+      <c r="H32" s="36"/>
       <c r="J32"/>
-    </row>
-    <row r="33" spans="1:10" ht="12.5">
+      <c r="K32"/>
+    </row>
+    <row r="33" spans="1:11" ht="12.5">
       <c r="E33"/>
       <c r="F33" s="108"/>
       <c r="G33" s="36"/>
-      <c r="I33"/>
+      <c r="H33" s="36"/>
       <c r="J33"/>
-    </row>
-    <row r="34" spans="1:10" ht="12.5">
+      <c r="K33"/>
+    </row>
+    <row r="34" spans="1:11" ht="12.5">
       <c r="E34"/>
       <c r="F34" s="108"/>
       <c r="G34" s="36"/>
-      <c r="I34"/>
+      <c r="H34" s="36"/>
       <c r="J34"/>
-    </row>
-    <row r="35" spans="1:10" ht="12.5">
+      <c r="K34"/>
+    </row>
+    <row r="35" spans="1:11" ht="12.5">
       <c r="E35"/>
       <c r="F35" s="108"/>
       <c r="G35" s="36"/>
-      <c r="I35"/>
+      <c r="H35" s="36"/>
       <c r="J35"/>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="56"/>
       <c r="B36" s="56"/>
       <c r="C36" s="56"/>
@@ -3651,230 +3688,263 @@
       <c r="E36" s="57"/>
       <c r="F36" s="198"/>
       <c r="G36" s="219"/>
-      <c r="H36" s="193"/>
-      <c r="I36"/>
+      <c r="H36" s="219"/>
+      <c r="I36" s="193"/>
       <c r="J36"/>
-    </row>
-    <row r="37" spans="1:10" ht="12.5">
+      <c r="K36"/>
+    </row>
+    <row r="37" spans="1:11" ht="12.5">
       <c r="A37" s="108"/>
       <c r="E37"/>
       <c r="F37" s="108"/>
       <c r="G37" s="36"/>
-      <c r="I37"/>
+      <c r="H37" s="36"/>
       <c r="J37"/>
-    </row>
-    <row r="38" spans="1:10" ht="12.5">
+      <c r="K37"/>
+    </row>
+    <row r="38" spans="1:11" ht="12.5">
       <c r="E38"/>
       <c r="F38" s="108"/>
       <c r="G38" s="36"/>
-      <c r="I38"/>
+      <c r="H38" s="36"/>
       <c r="J38"/>
-    </row>
-    <row r="39" spans="1:10" ht="12.5">
+      <c r="K38"/>
+    </row>
+    <row r="39" spans="1:11" ht="12.5">
       <c r="D39" s="36"/>
       <c r="E39"/>
       <c r="F39" s="108"/>
       <c r="G39" s="36"/>
-      <c r="I39"/>
+      <c r="H39" s="36"/>
       <c r="J39"/>
-    </row>
-    <row r="40" spans="1:10" ht="12.5">
+      <c r="K39"/>
+    </row>
+    <row r="40" spans="1:11" ht="12.5">
       <c r="E40"/>
       <c r="F40" s="108"/>
       <c r="G40" s="36"/>
-      <c r="I40"/>
+      <c r="H40" s="36"/>
       <c r="J40"/>
-    </row>
-    <row r="41" spans="1:10" ht="12.5">
+      <c r="K40"/>
+    </row>
+    <row r="41" spans="1:11" ht="12.5">
       <c r="E41"/>
       <c r="F41" s="108"/>
       <c r="G41" s="36"/>
-      <c r="I41"/>
+      <c r="H41" s="36"/>
       <c r="J41"/>
-    </row>
-    <row r="42" spans="1:10" ht="12.5">
+      <c r="K41"/>
+    </row>
+    <row r="42" spans="1:11" ht="12.5">
       <c r="E42"/>
       <c r="F42" s="108"/>
       <c r="G42" s="36"/>
-      <c r="I42"/>
+      <c r="H42" s="36"/>
       <c r="J42"/>
-    </row>
-    <row r="43" spans="1:10" ht="12.5">
+      <c r="K42"/>
+    </row>
+    <row r="43" spans="1:11" ht="12.5">
       <c r="E43"/>
       <c r="F43" s="108"/>
       <c r="G43" s="36"/>
-      <c r="I43"/>
+      <c r="H43" s="36"/>
       <c r="J43"/>
-    </row>
-    <row r="44" spans="1:10" ht="12.5">
+      <c r="K43"/>
+    </row>
+    <row r="44" spans="1:11" ht="12.5">
       <c r="E44"/>
       <c r="F44" s="108"/>
       <c r="G44" s="36"/>
-      <c r="I44"/>
+      <c r="H44" s="36"/>
       <c r="J44"/>
-    </row>
-    <row r="45" spans="1:10" ht="12.5">
+      <c r="K44"/>
+    </row>
+    <row r="45" spans="1:11" ht="12.5">
       <c r="E45"/>
       <c r="F45" s="108"/>
       <c r="G45" s="36"/>
-      <c r="I45"/>
+      <c r="H45" s="36"/>
       <c r="J45"/>
-    </row>
-    <row r="46" spans="1:10" ht="12.5">
+      <c r="K45"/>
+    </row>
+    <row r="46" spans="1:11" ht="12.5">
       <c r="E46"/>
       <c r="F46" s="108"/>
       <c r="G46" s="36"/>
-      <c r="I46"/>
+      <c r="H46" s="36"/>
       <c r="J46"/>
-    </row>
-    <row r="47" spans="1:10" ht="12.5">
+      <c r="K46"/>
+    </row>
+    <row r="47" spans="1:11" ht="12.5">
       <c r="E47"/>
       <c r="F47" s="108"/>
       <c r="G47" s="36"/>
-      <c r="I47"/>
+      <c r="H47" s="36"/>
       <c r="J47"/>
-    </row>
-    <row r="48" spans="1:10" ht="12.5">
+      <c r="K47"/>
+    </row>
+    <row r="48" spans="1:11" ht="12.5">
       <c r="E48"/>
       <c r="F48" s="108"/>
       <c r="G48" s="36"/>
-      <c r="I48"/>
+      <c r="H48" s="36"/>
       <c r="J48"/>
-    </row>
-    <row r="49" spans="5:10" ht="12.5">
+      <c r="K48"/>
+    </row>
+    <row r="49" spans="5:11" ht="12.5">
       <c r="E49"/>
       <c r="F49" s="108"/>
       <c r="G49" s="36"/>
-      <c r="I49"/>
+      <c r="H49" s="36"/>
       <c r="J49"/>
-    </row>
-    <row r="50" spans="5:10" ht="12.5">
+      <c r="K49"/>
+    </row>
+    <row r="50" spans="5:11" ht="12.5">
       <c r="E50"/>
       <c r="F50" s="108"/>
       <c r="G50" s="36"/>
-      <c r="H50" s="55"/>
-    </row>
-    <row r="51" spans="5:10">
+      <c r="H50" s="36"/>
+      <c r="I50" s="55"/>
+    </row>
+    <row r="51" spans="5:11">
       <c r="F51" s="108"/>
       <c r="G51" s="36"/>
-      <c r="H51" s="55"/>
-    </row>
-    <row r="52" spans="5:10">
+      <c r="H51" s="36"/>
+      <c r="I51" s="55"/>
+    </row>
+    <row r="52" spans="5:11">
       <c r="F52" s="108"/>
       <c r="G52" s="36"/>
-      <c r="H52" s="55"/>
-    </row>
-    <row r="53" spans="5:10">
+      <c r="H52" s="36"/>
+      <c r="I52" s="55"/>
+    </row>
+    <row r="53" spans="5:11">
       <c r="F53" s="108"/>
       <c r="G53" s="36"/>
-      <c r="H53" s="55"/>
-    </row>
-    <row r="54" spans="5:10" ht="12.5">
+      <c r="H53" s="36"/>
+      <c r="I53" s="55"/>
+    </row>
+    <row r="54" spans="5:11" ht="12.5">
       <c r="E54"/>
       <c r="F54" s="108"/>
       <c r="G54" s="36"/>
-      <c r="I54"/>
+      <c r="H54" s="36"/>
       <c r="J54"/>
-    </row>
-    <row r="55" spans="5:10" ht="12.5">
+      <c r="K54"/>
+    </row>
+    <row r="55" spans="5:11" ht="12.5">
       <c r="E55"/>
       <c r="F55" s="108"/>
       <c r="G55" s="36"/>
-      <c r="I55"/>
+      <c r="H55" s="36"/>
       <c r="J55"/>
-    </row>
-    <row r="56" spans="5:10" ht="12.5">
+      <c r="K55"/>
+    </row>
+    <row r="56" spans="5:11" ht="12.5">
       <c r="E56"/>
       <c r="F56" s="108"/>
       <c r="G56" s="36"/>
-      <c r="I56"/>
+      <c r="H56" s="36"/>
       <c r="J56"/>
-    </row>
-    <row r="57" spans="5:10" ht="12.5">
+      <c r="K56"/>
+    </row>
+    <row r="57" spans="5:11" ht="12.5">
       <c r="E57"/>
       <c r="F57" s="108"/>
       <c r="G57" s="36"/>
-      <c r="I57"/>
+      <c r="H57" s="36"/>
       <c r="J57"/>
-    </row>
-    <row r="58" spans="5:10" ht="12.5">
+      <c r="K57"/>
+    </row>
+    <row r="58" spans="5:11" ht="12.5">
       <c r="E58"/>
       <c r="F58" s="108"/>
       <c r="G58" s="36"/>
-      <c r="I58"/>
+      <c r="H58" s="36"/>
       <c r="J58"/>
-    </row>
-    <row r="59" spans="5:10" ht="12.5">
+      <c r="K58"/>
+    </row>
+    <row r="59" spans="5:11" ht="12.5">
       <c r="E59"/>
       <c r="F59" s="108"/>
       <c r="G59" s="36"/>
-      <c r="I59"/>
+      <c r="H59" s="36"/>
       <c r="J59"/>
-    </row>
-    <row r="60" spans="5:10" ht="12.5">
+      <c r="K59"/>
+    </row>
+    <row r="60" spans="5:11" ht="12.5">
       <c r="E60"/>
       <c r="F60" s="108"/>
       <c r="G60" s="36"/>
-      <c r="I60"/>
+      <c r="H60" s="36"/>
       <c r="J60"/>
-    </row>
-    <row r="61" spans="5:10" ht="12.5">
+      <c r="K60"/>
+    </row>
+    <row r="61" spans="5:11" ht="12.5">
       <c r="E61"/>
       <c r="F61" s="108"/>
       <c r="G61" s="36"/>
-      <c r="I61"/>
+      <c r="H61" s="36"/>
       <c r="J61"/>
-    </row>
-    <row r="62" spans="5:10" ht="12.5">
+      <c r="K61"/>
+    </row>
+    <row r="62" spans="5:11" ht="12.5">
       <c r="E62"/>
       <c r="F62" s="108"/>
       <c r="G62" s="36"/>
-      <c r="I62"/>
+      <c r="H62" s="36"/>
       <c r="J62"/>
-    </row>
-    <row r="63" spans="5:10" ht="12.5">
+      <c r="K62"/>
+    </row>
+    <row r="63" spans="5:11" ht="12.5">
       <c r="E63"/>
       <c r="F63" s="108"/>
       <c r="G63" s="36"/>
-      <c r="I63"/>
+      <c r="H63" s="36"/>
       <c r="J63"/>
-    </row>
-    <row r="64" spans="5:10" ht="12.5">
+      <c r="K63"/>
+    </row>
+    <row r="64" spans="5:11" ht="12.5">
       <c r="E64"/>
       <c r="F64" s="108"/>
       <c r="G64" s="36"/>
-      <c r="I64"/>
+      <c r="H64" s="36"/>
       <c r="J64"/>
-    </row>
-    <row r="65" spans="1:10" ht="12.5">
+      <c r="K64"/>
+    </row>
+    <row r="65" spans="1:11" ht="12.5">
       <c r="E65"/>
       <c r="F65" s="108"/>
       <c r="G65" s="36"/>
-      <c r="I65"/>
+      <c r="H65" s="36"/>
       <c r="J65"/>
-    </row>
-    <row r="66" spans="1:10" ht="12.5">
+      <c r="K65"/>
+    </row>
+    <row r="66" spans="1:11" ht="12.5">
       <c r="E66"/>
       <c r="F66" s="108"/>
       <c r="G66" s="36"/>
-      <c r="I66"/>
+      <c r="H66" s="36"/>
       <c r="J66"/>
-    </row>
-    <row r="67" spans="1:10" ht="12.5">
+      <c r="K66"/>
+    </row>
+    <row r="67" spans="1:11" ht="12.5">
       <c r="E67"/>
       <c r="F67" s="108"/>
       <c r="G67" s="36"/>
-      <c r="I67"/>
+      <c r="H67" s="36"/>
       <c r="J67"/>
-    </row>
-    <row r="68" spans="1:10" ht="12.5">
+      <c r="K67"/>
+    </row>
+    <row r="68" spans="1:11" ht="12.5">
       <c r="E68"/>
       <c r="F68" s="108"/>
       <c r="G68" s="36"/>
-      <c r="I68"/>
+      <c r="H68" s="36"/>
       <c r="J68"/>
-    </row>
-    <row r="69" spans="1:10" ht="12.5">
+      <c r="K68"/>
+    </row>
+    <row r="69" spans="1:11" ht="12.5">
       <c r="A69" s="56"/>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
@@ -3882,87 +3952,97 @@
       <c r="E69" s="198"/>
       <c r="F69" s="198"/>
       <c r="G69" s="219"/>
-      <c r="I69"/>
+      <c r="H69" s="219"/>
       <c r="J69"/>
-    </row>
-    <row r="70" spans="1:10" ht="12.5">
+      <c r="K69"/>
+    </row>
+    <row r="70" spans="1:11" ht="12.5">
       <c r="E70" s="108"/>
       <c r="F70" s="108"/>
       <c r="G70" s="36"/>
-      <c r="I70"/>
       <c r="J70"/>
-    </row>
-    <row r="71" spans="1:10" ht="12.5">
+      <c r="K70"/>
+    </row>
+    <row r="71" spans="1:11" ht="12.5">
       <c r="E71"/>
       <c r="F71" s="108"/>
       <c r="G71" s="36"/>
-      <c r="I71"/>
       <c r="J71"/>
-    </row>
-    <row r="72" spans="1:10" ht="12.5">
+      <c r="K71"/>
+    </row>
+    <row r="72" spans="1:11" ht="12.5">
       <c r="E72"/>
       <c r="F72" s="108"/>
       <c r="G72" s="36"/>
-      <c r="I72"/>
+      <c r="H72" s="36"/>
       <c r="J72"/>
-    </row>
-    <row r="73" spans="1:10" ht="12.5">
+      <c r="K72"/>
+    </row>
+    <row r="73" spans="1:11" ht="12.5">
       <c r="E73"/>
       <c r="F73" s="108"/>
       <c r="G73" s="36"/>
-      <c r="I73"/>
+      <c r="H73" s="36"/>
       <c r="J73"/>
-    </row>
-    <row r="74" spans="1:10" ht="12.5">
+      <c r="K73"/>
+    </row>
+    <row r="74" spans="1:11" ht="12.5">
       <c r="E74"/>
       <c r="F74" s="108"/>
       <c r="G74" s="36"/>
-      <c r="I74"/>
+      <c r="H74" s="36"/>
       <c r="J74"/>
-    </row>
-    <row r="75" spans="1:10" ht="12.5">
+      <c r="K74"/>
+    </row>
+    <row r="75" spans="1:11" ht="12.5">
       <c r="E75"/>
       <c r="F75" s="108"/>
       <c r="G75" s="36"/>
-      <c r="I75"/>
+      <c r="H75" s="36"/>
       <c r="J75"/>
-    </row>
-    <row r="76" spans="1:10" ht="12.5">
+      <c r="K75"/>
+    </row>
+    <row r="76" spans="1:11" ht="12.5">
       <c r="E76"/>
       <c r="F76" s="108"/>
       <c r="G76" s="36"/>
-      <c r="I76"/>
+      <c r="H76" s="36"/>
       <c r="J76"/>
-    </row>
-    <row r="77" spans="1:10" ht="12.5">
+      <c r="K76"/>
+    </row>
+    <row r="77" spans="1:11" ht="12.5">
       <c r="E77"/>
       <c r="F77" s="108"/>
       <c r="G77" s="36"/>
-      <c r="I77"/>
+      <c r="H77" s="36"/>
       <c r="J77"/>
-    </row>
-    <row r="78" spans="1:10" ht="12.5">
+      <c r="K77"/>
+    </row>
+    <row r="78" spans="1:11" ht="12.5">
       <c r="E78"/>
       <c r="F78" s="108"/>
       <c r="G78" s="36"/>
-      <c r="I78"/>
+      <c r="H78" s="36"/>
       <c r="J78"/>
-    </row>
-    <row r="79" spans="1:10" ht="12.5">
+      <c r="K78"/>
+    </row>
+    <row r="79" spans="1:11" ht="12.5">
       <c r="E79"/>
       <c r="F79" s="108"/>
       <c r="G79" s="36"/>
-      <c r="I79"/>
+      <c r="H79" s="36"/>
       <c r="J79"/>
-    </row>
-    <row r="80" spans="1:10" ht="12.5">
+      <c r="K79"/>
+    </row>
+    <row r="80" spans="1:11" ht="12.5">
       <c r="E80"/>
       <c r="F80" s="108"/>
       <c r="G80" s="36"/>
-      <c r="I80"/>
+      <c r="H80" s="36"/>
       <c r="J80"/>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80"/>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="56"/>
       <c r="B81" s="56"/>
       <c r="C81" s="56"/>
@@ -3970,33 +4050,37 @@
       <c r="E81" s="57"/>
       <c r="F81" s="198"/>
       <c r="G81" s="219"/>
-      <c r="H81" s="193"/>
-      <c r="I81"/>
+      <c r="H81" s="219"/>
+      <c r="I81" s="193"/>
       <c r="J81"/>
-    </row>
-    <row r="82" spans="1:10" ht="12.5">
+      <c r="K81"/>
+    </row>
+    <row r="82" spans="1:11" ht="12.5">
       <c r="A82" s="108"/>
       <c r="E82"/>
       <c r="F82" s="108"/>
       <c r="G82" s="36"/>
-      <c r="I82"/>
+      <c r="H82" s="36"/>
       <c r="J82"/>
-    </row>
-    <row r="83" spans="1:10" ht="12.5">
+      <c r="K82"/>
+    </row>
+    <row r="83" spans="1:11" ht="12.5">
       <c r="E83"/>
       <c r="F83" s="108"/>
       <c r="G83" s="36"/>
-      <c r="I83"/>
+      <c r="H83" s="36"/>
       <c r="J83"/>
-    </row>
-    <row r="84" spans="1:10" ht="12.5">
+      <c r="K83"/>
+    </row>
+    <row r="84" spans="1:11" ht="12.5">
       <c r="E84"/>
       <c r="F84" s="108"/>
       <c r="G84" s="36"/>
-      <c r="I84"/>
+      <c r="H84" s="36"/>
       <c r="J84"/>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84"/>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="56"/>
       <c r="B85" s="56"/>
       <c r="C85" s="56"/>
@@ -4004,26 +4088,29 @@
       <c r="E85" s="57"/>
       <c r="F85" s="198"/>
       <c r="G85" s="219"/>
-      <c r="H85" s="193"/>
-      <c r="I85"/>
+      <c r="H85" s="219"/>
+      <c r="I85" s="193"/>
       <c r="J85"/>
-    </row>
-    <row r="86" spans="1:10" ht="12.5">
+      <c r="K85"/>
+    </row>
+    <row r="86" spans="1:11" ht="12.5">
       <c r="A86" s="108"/>
       <c r="E86"/>
       <c r="F86" s="108"/>
       <c r="G86" s="36"/>
-      <c r="I86"/>
+      <c r="H86" s="36"/>
       <c r="J86"/>
-    </row>
-    <row r="87" spans="1:10" ht="12.5">
+      <c r="K86"/>
+    </row>
+    <row r="87" spans="1:11" ht="12.5">
       <c r="E87"/>
       <c r="F87" s="108"/>
       <c r="G87" s="36"/>
-      <c r="I87"/>
+      <c r="H87" s="36"/>
       <c r="J87"/>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87"/>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="56"/>
       <c r="B88" s="56"/>
       <c r="C88" s="56"/>
@@ -4031,26 +4118,29 @@
       <c r="E88" s="57"/>
       <c r="F88" s="198"/>
       <c r="G88" s="219"/>
-      <c r="H88" s="193"/>
-      <c r="I88"/>
+      <c r="H88" s="219"/>
+      <c r="I88" s="193"/>
       <c r="J88"/>
-    </row>
-    <row r="89" spans="1:10" ht="12.5">
+      <c r="K88"/>
+    </row>
+    <row r="89" spans="1:11" ht="12.5">
       <c r="A89" s="108"/>
       <c r="E89"/>
       <c r="F89" s="108"/>
       <c r="G89" s="36"/>
-      <c r="I89"/>
+      <c r="H89" s="36"/>
       <c r="J89"/>
-    </row>
-    <row r="90" spans="1:10" ht="12.5">
+      <c r="K89"/>
+    </row>
+    <row r="90" spans="1:11" ht="12.5">
       <c r="E90"/>
       <c r="F90" s="108"/>
       <c r="G90" s="36"/>
-      <c r="I90"/>
+      <c r="H90" s="36"/>
       <c r="J90"/>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90"/>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="56"/>
       <c r="B91" s="56"/>
       <c r="C91" s="56"/>
@@ -4058,11 +4148,12 @@
       <c r="E91" s="57"/>
       <c r="F91" s="198"/>
       <c r="G91" s="219"/>
-      <c r="H91" s="193"/>
-      <c r="I91"/>
+      <c r="H91" s="219"/>
+      <c r="I91" s="193"/>
       <c r="J91"/>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91"/>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="56"/>
       <c r="B92" s="56"/>
       <c r="C92" s="56"/>
@@ -4070,129 +4161,131 @@
       <c r="E92" s="57"/>
       <c r="F92" s="198"/>
       <c r="G92" s="219"/>
-      <c r="H92" s="193"/>
-      <c r="I92"/>
+      <c r="H92" s="219"/>
+      <c r="I92" s="193"/>
       <c r="J92"/>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92"/>
+    </row>
+    <row r="93" spans="1:11">
       <c r="F93" s="108"/>
       <c r="G93" s="36"/>
-      <c r="H93" s="194"/>
-      <c r="J93"/>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="I93" s="194"/>
+      <c r="K93"/>
+    </row>
+    <row r="94" spans="1:11">
       <c r="F94" s="108"/>
       <c r="G94" s="36"/>
-      <c r="I94"/>
       <c r="J94"/>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94"/>
+    </row>
+    <row r="95" spans="1:11">
       <c r="F95" s="108"/>
       <c r="G95" s="36"/>
-      <c r="I95"/>
       <c r="J95"/>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95"/>
+    </row>
+    <row r="96" spans="1:11">
       <c r="F96" s="108"/>
       <c r="G96" s="36"/>
-      <c r="I96"/>
       <c r="J96"/>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96"/>
+    </row>
+    <row r="97" spans="1:15">
       <c r="F97" s="108"/>
       <c r="G97" s="36"/>
-      <c r="I97"/>
       <c r="J97"/>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97"/>
+    </row>
+    <row r="98" spans="1:15">
       <c r="F98" s="108"/>
       <c r="G98" s="36"/>
-      <c r="I98"/>
       <c r="J98"/>
-    </row>
-    <row r="99" spans="1:10" ht="12.5">
+      <c r="K98"/>
+    </row>
+    <row r="99" spans="1:15" ht="12.5">
       <c r="E99"/>
       <c r="F99" s="108"/>
       <c r="G99" s="36"/>
-      <c r="I99"/>
       <c r="J99"/>
-    </row>
-    <row r="100" spans="1:10" ht="12.5">
+      <c r="K99"/>
+    </row>
+    <row r="100" spans="1:15" ht="12.5">
       <c r="E100"/>
       <c r="F100" s="108"/>
       <c r="G100" s="36"/>
-      <c r="I100"/>
       <c r="J100"/>
-    </row>
-    <row r="101" spans="1:10" ht="12.5">
+      <c r="K100"/>
+    </row>
+    <row r="101" spans="1:15" ht="12.5">
       <c r="E101"/>
       <c r="F101" s="108"/>
       <c r="G101" s="36"/>
-      <c r="I101"/>
       <c r="J101"/>
-    </row>
-    <row r="102" spans="1:10" ht="12.5">
+      <c r="K101"/>
+    </row>
+    <row r="102" spans="1:15" ht="12.5">
       <c r="E102"/>
       <c r="F102" s="108"/>
       <c r="G102" s="36"/>
-      <c r="I102"/>
       <c r="J102"/>
-    </row>
-    <row r="103" spans="1:10" ht="12.5">
+      <c r="K102"/>
+    </row>
+    <row r="103" spans="1:15" ht="12.5">
       <c r="E103"/>
       <c r="F103" s="108"/>
       <c r="G103" s="36"/>
-      <c r="I103"/>
       <c r="J103"/>
-    </row>
-    <row r="104" spans="1:10" ht="12.5">
+      <c r="K103"/>
+    </row>
+    <row r="104" spans="1:15" ht="12.5">
       <c r="E104"/>
       <c r="F104" s="108"/>
       <c r="G104" s="36"/>
-      <c r="I104"/>
       <c r="J104"/>
-    </row>
-    <row r="105" spans="1:10" ht="12.5">
+      <c r="K104"/>
+    </row>
+    <row r="105" spans="1:15" ht="12.5">
       <c r="E105"/>
       <c r="F105" s="108"/>
       <c r="G105" s="36"/>
-      <c r="I105"/>
       <c r="J105"/>
-    </row>
-    <row r="106" spans="1:10" ht="12.5">
+      <c r="K105"/>
+    </row>
+    <row r="106" spans="1:15" ht="12.5">
       <c r="E106"/>
       <c r="F106" s="108"/>
       <c r="G106" s="36"/>
-      <c r="I106"/>
       <c r="J106"/>
-    </row>
-    <row r="107" spans="1:10" ht="12.5">
+      <c r="K106"/>
+    </row>
+    <row r="107" spans="1:15" ht="12.5">
       <c r="E107"/>
       <c r="F107" s="108"/>
       <c r="G107" s="36"/>
-      <c r="I107"/>
       <c r="J107"/>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107"/>
+    </row>
+    <row r="108" spans="1:15">
       <c r="F108" s="108"/>
       <c r="G108" s="36"/>
-      <c r="I108"/>
       <c r="J108"/>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108"/>
+      <c r="O108" s="142"/>
+    </row>
+    <row r="109" spans="1:15">
       <c r="F109" s="108"/>
       <c r="G109" s="36"/>
-      <c r="I109"/>
       <c r="J109"/>
-    </row>
-    <row r="110" spans="1:10" ht="12.5">
+      <c r="K109"/>
+    </row>
+    <row r="110" spans="1:15" ht="12.5">
       <c r="E110"/>
       <c r="F110" s="108"/>
       <c r="G110" s="36"/>
-      <c r="I110"/>
       <c r="J110"/>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110"/>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="56"/>
       <c r="B111" s="56"/>
       <c r="C111" s="56"/>
@@ -4200,60 +4293,67 @@
       <c r="E111" s="57"/>
       <c r="F111" s="198"/>
       <c r="G111" s="219"/>
-      <c r="H111" s="193"/>
-      <c r="I111"/>
+      <c r="I111" s="193"/>
       <c r="J111"/>
-    </row>
-    <row r="112" spans="1:10" ht="12.5">
+      <c r="K111"/>
+    </row>
+    <row r="112" spans="1:15" ht="12.5">
       <c r="E112"/>
       <c r="F112" s="108"/>
       <c r="G112" s="36"/>
-      <c r="I112"/>
+      <c r="H112" s="36"/>
       <c r="J112"/>
-    </row>
-    <row r="113" spans="1:10" ht="12.5">
+      <c r="K112"/>
+    </row>
+    <row r="113" spans="1:11" ht="12.5">
       <c r="E113"/>
       <c r="F113" s="108"/>
       <c r="G113" s="36"/>
-      <c r="I113"/>
+      <c r="H113" s="36"/>
       <c r="J113"/>
-    </row>
-    <row r="114" spans="1:10" ht="12.5">
+      <c r="K113"/>
+    </row>
+    <row r="114" spans="1:11" ht="12.5">
       <c r="E114"/>
       <c r="F114" s="108"/>
       <c r="G114" s="36"/>
-      <c r="I114"/>
+      <c r="H114" s="36"/>
       <c r="J114"/>
-    </row>
-    <row r="115" spans="1:10" ht="12.5">
+      <c r="K114"/>
+    </row>
+    <row r="115" spans="1:11" ht="12.5">
       <c r="E115"/>
       <c r="F115" s="108"/>
       <c r="G115" s="36"/>
-      <c r="I115"/>
+      <c r="H115" s="36"/>
       <c r="J115"/>
-    </row>
-    <row r="116" spans="1:10" ht="12.5">
+      <c r="K115"/>
+    </row>
+    <row r="116" spans="1:11" ht="12.5">
       <c r="E116"/>
       <c r="F116" s="108"/>
       <c r="G116" s="36"/>
-      <c r="I116"/>
+      <c r="H116" s="36"/>
       <c r="J116"/>
-    </row>
-    <row r="117" spans="1:10" ht="12.5">
+      <c r="K116"/>
+    </row>
+    <row r="117" spans="1:11" ht="12.5">
       <c r="E117"/>
       <c r="F117" s="108"/>
       <c r="G117" s="36"/>
-      <c r="I117"/>
+      <c r="H117" s="36"/>
       <c r="J117"/>
-    </row>
-    <row r="118" spans="1:10" ht="12.5">
+      <c r="K117"/>
+    </row>
+    <row r="118" spans="1:11" ht="12.5">
       <c r="E118"/>
       <c r="F118" s="108"/>
       <c r="G118" s="36"/>
-      <c r="I118"/>
+      <c r="H118" s="36"/>
       <c r="J118"/>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118"/>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="56"/>
       <c r="B119" s="56"/>
       <c r="C119" s="56"/>
@@ -4261,40 +4361,45 @@
       <c r="E119" s="57"/>
       <c r="F119" s="198"/>
       <c r="G119" s="219"/>
-      <c r="H119" s="193"/>
-      <c r="I119"/>
+      <c r="H119" s="219"/>
+      <c r="I119" s="193"/>
       <c r="J119"/>
-    </row>
-    <row r="120" spans="1:10" ht="12.5">
+      <c r="K119"/>
+    </row>
+    <row r="120" spans="1:11" ht="12.5">
       <c r="A120" s="108"/>
       <c r="E120"/>
       <c r="F120" s="108"/>
       <c r="G120" s="36"/>
-      <c r="I120"/>
+      <c r="H120" s="36"/>
       <c r="J120"/>
-    </row>
-    <row r="121" spans="1:10" ht="12.5">
+      <c r="K120"/>
+    </row>
+    <row r="121" spans="1:11" ht="12.5">
       <c r="E121"/>
       <c r="F121" s="108"/>
       <c r="G121" s="36"/>
-      <c r="I121"/>
+      <c r="H121" s="36"/>
       <c r="J121"/>
-    </row>
-    <row r="122" spans="1:10" ht="12.5">
+      <c r="K121"/>
+    </row>
+    <row r="122" spans="1:11" ht="12.5">
       <c r="E122"/>
       <c r="F122" s="108"/>
       <c r="G122" s="36"/>
-      <c r="I122"/>
+      <c r="H122" s="36"/>
       <c r="J122"/>
-    </row>
-    <row r="123" spans="1:10" ht="12.5">
+      <c r="K122"/>
+    </row>
+    <row r="123" spans="1:11" ht="12.5">
       <c r="E123"/>
       <c r="F123" s="108"/>
       <c r="G123" s="36"/>
-      <c r="I123"/>
+      <c r="H123" s="36"/>
       <c r="J123"/>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123"/>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="56"/>
       <c r="B124" s="56"/>
       <c r="C124" s="56"/>
@@ -4302,67 +4407,75 @@
       <c r="E124" s="57"/>
       <c r="F124" s="198"/>
       <c r="G124" s="219"/>
-      <c r="H124" s="193"/>
-      <c r="I124"/>
+      <c r="H124" s="219"/>
+      <c r="I124" s="193"/>
       <c r="J124"/>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124"/>
+    </row>
+    <row r="125" spans="1:11">
       <c r="F125" s="36"/>
       <c r="G125" s="36"/>
       <c r="H125" s="36"/>
-      <c r="I125" s="193"/>
-      <c r="J125"/>
-    </row>
-    <row r="126" spans="1:10" ht="12.5">
+      <c r="I125" s="36"/>
+      <c r="J125" s="193"/>
+      <c r="K125"/>
+    </row>
+    <row r="126" spans="1:11" ht="12.5">
       <c r="E126"/>
       <c r="F126" s="36"/>
       <c r="G126" s="36"/>
-      <c r="I126"/>
       <c r="J126"/>
-    </row>
-    <row r="127" spans="1:10" ht="12.5">
+      <c r="K126"/>
+    </row>
+    <row r="127" spans="1:11" ht="12.5">
       <c r="E127"/>
       <c r="F127" s="108"/>
       <c r="G127" s="36"/>
-      <c r="I127"/>
+      <c r="H127" s="36"/>
       <c r="J127"/>
-    </row>
-    <row r="128" spans="1:10" ht="12.5">
+      <c r="K127"/>
+    </row>
+    <row r="128" spans="1:11" ht="12.5">
       <c r="E128"/>
       <c r="F128" s="108"/>
       <c r="G128" s="36"/>
-      <c r="I128"/>
+      <c r="H128" s="36"/>
       <c r="J128"/>
-    </row>
-    <row r="129" spans="1:10" ht="12.5">
+      <c r="K128"/>
+    </row>
+    <row r="129" spans="1:11" ht="12.5">
       <c r="E129"/>
       <c r="F129" s="108"/>
       <c r="G129" s="36"/>
-      <c r="I129"/>
+      <c r="H129" s="36"/>
       <c r="J129"/>
-    </row>
-    <row r="130" spans="1:10" ht="12.5">
+      <c r="K129"/>
+    </row>
+    <row r="130" spans="1:11" ht="12.5">
       <c r="E130"/>
       <c r="F130" s="108"/>
       <c r="G130" s="36"/>
-      <c r="I130"/>
+      <c r="H130" s="36"/>
       <c r="J130"/>
-    </row>
-    <row r="131" spans="1:10" ht="12.5">
+      <c r="K130"/>
+    </row>
+    <row r="131" spans="1:11" ht="12.5">
       <c r="E131"/>
       <c r="F131" s="108"/>
       <c r="G131" s="36"/>
-      <c r="I131"/>
+      <c r="H131" s="36"/>
       <c r="J131"/>
-    </row>
-    <row r="132" spans="1:10" ht="12.5">
+      <c r="K131"/>
+    </row>
+    <row r="132" spans="1:11" ht="12.5">
       <c r="E132"/>
       <c r="F132" s="108"/>
       <c r="G132" s="36"/>
-      <c r="I132"/>
+      <c r="H132" s="36"/>
       <c r="J132"/>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132"/>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="56"/>
       <c r="B133" s="56"/>
       <c r="C133" s="56"/>
@@ -4370,35 +4483,39 @@
       <c r="E133" s="57"/>
       <c r="F133" s="198"/>
       <c r="G133" s="219"/>
-      <c r="H133" s="193"/>
-      <c r="I133"/>
+      <c r="H133" s="219"/>
+      <c r="I133" s="193"/>
       <c r="J133"/>
-    </row>
-    <row r="134" spans="1:10" ht="12.5">
+      <c r="K133"/>
+    </row>
+    <row r="134" spans="1:11" ht="12.5">
       <c r="A134" s="108"/>
       <c r="E134"/>
       <c r="F134" s="108"/>
       <c r="G134" s="36"/>
-      <c r="I134"/>
+      <c r="H134" s="36"/>
       <c r="J134"/>
-    </row>
-    <row r="135" spans="1:10" ht="12.5">
+      <c r="K134"/>
+    </row>
+    <row r="135" spans="1:11" ht="12.5">
       <c r="A135" s="108"/>
       <c r="E135"/>
       <c r="F135" s="108"/>
       <c r="G135" s="36"/>
-      <c r="I135"/>
+      <c r="H135" s="36"/>
       <c r="J135"/>
-    </row>
-    <row r="136" spans="1:10" ht="12.5">
+      <c r="K135"/>
+    </row>
+    <row r="136" spans="1:11" ht="12.5">
       <c r="A136" s="108"/>
       <c r="E136"/>
       <c r="F136" s="108"/>
       <c r="G136" s="36"/>
-      <c r="I136"/>
+      <c r="H136" s="36"/>
       <c r="J136"/>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136"/>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="56"/>
       <c r="B137" s="56"/>
       <c r="C137" s="56"/>
@@ -4406,83 +4523,93 @@
       <c r="E137" s="57"/>
       <c r="F137" s="198"/>
       <c r="G137" s="219"/>
-      <c r="H137" s="193"/>
-      <c r="I137"/>
+      <c r="H137" s="219"/>
+      <c r="I137" s="193"/>
       <c r="J137"/>
-    </row>
-    <row r="138" spans="1:10" ht="12.5">
+      <c r="K137"/>
+    </row>
+    <row r="138" spans="1:11" ht="12.5">
       <c r="A138" s="108"/>
       <c r="E138"/>
       <c r="F138" s="108"/>
       <c r="G138" s="36"/>
-      <c r="I138"/>
+      <c r="H138" s="36"/>
       <c r="J138"/>
-    </row>
-    <row r="139" spans="1:10" ht="12.5">
+      <c r="K138"/>
+    </row>
+    <row r="139" spans="1:11" ht="12.5">
       <c r="A139" s="108"/>
       <c r="E139"/>
       <c r="F139" s="108"/>
       <c r="G139" s="36"/>
-      <c r="I139"/>
+      <c r="H139" s="36"/>
       <c r="J139"/>
-    </row>
-    <row r="140" spans="1:10" ht="12.5">
+      <c r="K139"/>
+    </row>
+    <row r="140" spans="1:11" ht="12.5">
       <c r="A140" s="108"/>
       <c r="E140"/>
       <c r="F140" s="108"/>
       <c r="G140" s="36"/>
-      <c r="I140"/>
+      <c r="H140" s="36"/>
       <c r="J140"/>
-    </row>
-    <row r="141" spans="1:10" ht="12.5">
+      <c r="K140"/>
+    </row>
+    <row r="141" spans="1:11" ht="12.5">
       <c r="A141" s="108"/>
       <c r="E141"/>
       <c r="F141" s="108"/>
       <c r="G141" s="36"/>
-      <c r="I141"/>
+      <c r="H141" s="36"/>
       <c r="J141"/>
-    </row>
-    <row r="142" spans="1:10" ht="12.5">
+      <c r="K141"/>
+    </row>
+    <row r="142" spans="1:11" ht="12.5">
       <c r="A142" s="108"/>
       <c r="E142"/>
       <c r="F142" s="108"/>
       <c r="G142" s="36"/>
-      <c r="I142"/>
+      <c r="H142" s="36"/>
       <c r="J142"/>
-    </row>
-    <row r="143" spans="1:10" ht="12.5">
+      <c r="K142"/>
+    </row>
+    <row r="143" spans="1:11" ht="12.5">
       <c r="A143" s="108"/>
       <c r="E143"/>
       <c r="F143" s="108"/>
       <c r="G143" s="36"/>
-      <c r="I143"/>
+      <c r="H143" s="36"/>
       <c r="J143"/>
-    </row>
-    <row r="144" spans="1:10" ht="12.5">
+      <c r="K143"/>
+    </row>
+    <row r="144" spans="1:11" ht="12.5">
       <c r="A144" s="108"/>
       <c r="E144"/>
       <c r="F144" s="108"/>
       <c r="G144" s="36"/>
-      <c r="I144"/>
+      <c r="H144" s="36"/>
       <c r="J144"/>
-    </row>
-    <row r="145" spans="1:10" ht="12.5">
+      <c r="K144"/>
+    </row>
+    <row r="145" spans="1:11" ht="12.5">
       <c r="A145" s="108"/>
       <c r="E145"/>
       <c r="F145" s="108"/>
       <c r="G145" s="36"/>
-      <c r="I145"/>
+      <c r="H145" s="36"/>
       <c r="J145"/>
-    </row>
-    <row r="146" spans="1:10" ht="12.5">
+      <c r="K145"/>
+    </row>
+    <row r="146" spans="1:11" ht="12.5">
       <c r="A146" s="108"/>
       <c r="E146"/>
       <c r="F146" s="108"/>
       <c r="G146" s="36"/>
-      <c r="I146"/>
+      <c r="H146" s="36"/>
       <c r="J146"/>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146"/>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="56"/>
       <c r="B147" s="56"/>
       <c r="C147" s="56"/>
@@ -4490,35 +4617,39 @@
       <c r="E147" s="57"/>
       <c r="F147" s="198"/>
       <c r="G147" s="219"/>
-      <c r="H147" s="193"/>
-      <c r="I147"/>
+      <c r="H147" s="219"/>
+      <c r="I147" s="193"/>
       <c r="J147"/>
-    </row>
-    <row r="148" spans="1:10" ht="12.5">
+      <c r="K147"/>
+    </row>
+    <row r="148" spans="1:11" ht="12.5">
       <c r="A148" s="108"/>
       <c r="E148"/>
       <c r="F148" s="108"/>
       <c r="G148" s="36"/>
-      <c r="I148"/>
+      <c r="H148" s="36"/>
       <c r="J148"/>
-    </row>
-    <row r="149" spans="1:10" ht="12.5">
+      <c r="K148"/>
+    </row>
+    <row r="149" spans="1:11" ht="12.5">
       <c r="A149" s="108"/>
       <c r="E149"/>
       <c r="F149" s="108"/>
       <c r="G149" s="36"/>
-      <c r="I149"/>
+      <c r="H149" s="36"/>
       <c r="J149"/>
-    </row>
-    <row r="150" spans="1:10" ht="12.5">
+      <c r="K149"/>
+    </row>
+    <row r="150" spans="1:11" ht="12.5">
       <c r="A150" s="108"/>
       <c r="E150"/>
       <c r="F150" s="108"/>
       <c r="G150" s="36"/>
-      <c r="I150"/>
+      <c r="H150" s="36"/>
       <c r="J150"/>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150"/>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="56"/>
       <c r="B151" s="56"/>
       <c r="C151" s="56"/>
@@ -4526,11 +4657,12 @@
       <c r="E151" s="57"/>
       <c r="F151" s="198"/>
       <c r="G151" s="219"/>
-      <c r="H151" s="193"/>
-      <c r="I151"/>
+      <c r="H151" s="219"/>
+      <c r="I151" s="193"/>
       <c r="J151"/>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151"/>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="56"/>
       <c r="B152" s="56"/>
       <c r="C152" s="56"/>
@@ -4538,11 +4670,12 @@
       <c r="E152" s="57"/>
       <c r="F152" s="219"/>
       <c r="G152" s="219"/>
-      <c r="H152" s="193"/>
-      <c r="I152"/>
+      <c r="H152" s="219"/>
+      <c r="I152" s="193"/>
       <c r="J152"/>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152"/>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="198"/>
       <c r="B153" s="56"/>
       <c r="C153" s="56"/>
@@ -4550,27 +4683,30 @@
       <c r="E153" s="57"/>
       <c r="F153" s="198"/>
       <c r="G153" s="219"/>
-      <c r="H153" s="193"/>
-      <c r="I153"/>
+      <c r="H153" s="219"/>
+      <c r="I153" s="193"/>
       <c r="J153"/>
-    </row>
-    <row r="154" spans="1:10" ht="12.5">
+      <c r="K153"/>
+    </row>
+    <row r="154" spans="1:11" ht="12.5">
       <c r="A154" s="108"/>
       <c r="E154"/>
       <c r="F154" s="108"/>
       <c r="G154" s="36"/>
-      <c r="I154"/>
+      <c r="H154" s="36"/>
       <c r="J154"/>
-    </row>
-    <row r="155" spans="1:10" ht="12.5">
+      <c r="K154"/>
+    </row>
+    <row r="155" spans="1:11" ht="12.5">
       <c r="A155" s="108"/>
       <c r="E155"/>
       <c r="F155" s="108"/>
       <c r="G155" s="36"/>
-      <c r="I155"/>
+      <c r="H155" s="36"/>
       <c r="J155"/>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155"/>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="56"/>
       <c r="B156" s="56"/>
       <c r="C156" s="56"/>
@@ -4578,27 +4714,30 @@
       <c r="E156" s="57"/>
       <c r="F156" s="198"/>
       <c r="G156" s="219"/>
-      <c r="H156" s="193"/>
-      <c r="I156"/>
+      <c r="H156" s="219"/>
+      <c r="I156" s="193"/>
       <c r="J156"/>
-    </row>
-    <row r="157" spans="1:10" ht="12.5">
+      <c r="K156"/>
+    </row>
+    <row r="157" spans="1:11" ht="12.5">
       <c r="A157" s="108"/>
       <c r="E157"/>
       <c r="F157" s="108"/>
       <c r="G157" s="36"/>
-      <c r="I157"/>
+      <c r="H157" s="36"/>
       <c r="J157"/>
-    </row>
-    <row r="158" spans="1:10" ht="12.5">
+      <c r="K157"/>
+    </row>
+    <row r="158" spans="1:11" ht="12.5">
       <c r="A158" s="108"/>
       <c r="E158"/>
       <c r="F158" s="108"/>
       <c r="G158" s="36"/>
-      <c r="I158"/>
+      <c r="H158" s="36"/>
       <c r="J158"/>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158"/>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="56"/>
       <c r="B159" s="56"/>
       <c r="C159" s="56"/>
@@ -4606,19 +4745,21 @@
       <c r="E159" s="57"/>
       <c r="F159" s="198"/>
       <c r="G159" s="219"/>
-      <c r="H159" s="193"/>
-      <c r="I159"/>
+      <c r="H159" s="219"/>
+      <c r="I159" s="193"/>
       <c r="J159"/>
-    </row>
-    <row r="160" spans="1:10" ht="12.5">
+      <c r="K159"/>
+    </row>
+    <row r="160" spans="1:11" ht="12.5">
       <c r="A160" s="108"/>
       <c r="E160"/>
       <c r="F160" s="108"/>
       <c r="G160" s="36"/>
-      <c r="I160"/>
+      <c r="H160" s="36"/>
       <c r="J160"/>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160"/>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="56"/>
       <c r="B161" s="56"/>
       <c r="C161" s="56"/>
@@ -4626,43 +4767,48 @@
       <c r="E161" s="57"/>
       <c r="F161" s="198"/>
       <c r="G161" s="219"/>
-      <c r="H161" s="193"/>
-      <c r="I161"/>
+      <c r="H161" s="219"/>
+      <c r="I161" s="193"/>
       <c r="J161"/>
-    </row>
-    <row r="162" spans="1:10" ht="12.5">
+      <c r="K161"/>
+    </row>
+    <row r="162" spans="1:11" ht="12.5">
       <c r="A162" s="108"/>
       <c r="E162"/>
       <c r="F162" s="108"/>
       <c r="G162" s="36"/>
-      <c r="I162"/>
+      <c r="H162" s="36"/>
       <c r="J162"/>
-    </row>
-    <row r="163" spans="1:10" ht="12.5">
+      <c r="K162"/>
+    </row>
+    <row r="163" spans="1:11" ht="12.5">
       <c r="A163" s="108"/>
       <c r="E163"/>
       <c r="F163" s="108"/>
       <c r="G163" s="36"/>
-      <c r="I163"/>
+      <c r="H163" s="36"/>
       <c r="J163"/>
-    </row>
-    <row r="164" spans="1:10" ht="12.5">
+      <c r="K163"/>
+    </row>
+    <row r="164" spans="1:11" ht="12.5">
       <c r="A164" s="108"/>
       <c r="E164"/>
       <c r="F164" s="108"/>
       <c r="G164" s="36"/>
-      <c r="I164"/>
+      <c r="H164" s="36"/>
       <c r="J164"/>
-    </row>
-    <row r="165" spans="1:10" ht="12.5">
+      <c r="K164"/>
+    </row>
+    <row r="165" spans="1:11" ht="12.5">
       <c r="A165" s="108"/>
       <c r="E165"/>
       <c r="F165" s="108"/>
       <c r="G165" s="36"/>
-      <c r="I165"/>
+      <c r="H165" s="36"/>
       <c r="J165"/>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165"/>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="56"/>
       <c r="B166" s="56"/>
       <c r="C166" s="56"/>
@@ -4670,51 +4816,57 @@
       <c r="E166" s="57"/>
       <c r="F166" s="198"/>
       <c r="G166" s="219"/>
-      <c r="H166" s="193"/>
-      <c r="I166"/>
+      <c r="H166" s="219"/>
+      <c r="I166" s="193"/>
       <c r="J166"/>
-    </row>
-    <row r="167" spans="1:10" ht="12.5">
+      <c r="K166"/>
+    </row>
+    <row r="167" spans="1:11" ht="12.5">
       <c r="A167" s="108"/>
       <c r="E167"/>
       <c r="F167" s="108"/>
       <c r="G167" s="36"/>
-      <c r="I167"/>
+      <c r="H167" s="36"/>
       <c r="J167"/>
-    </row>
-    <row r="168" spans="1:10" ht="12.5">
+      <c r="K167"/>
+    </row>
+    <row r="168" spans="1:11" ht="12.5">
       <c r="A168" s="108"/>
       <c r="E168"/>
       <c r="F168" s="108"/>
       <c r="G168" s="36"/>
-      <c r="I168"/>
+      <c r="H168" s="36"/>
       <c r="J168"/>
-    </row>
-    <row r="169" spans="1:10" ht="12.5">
+      <c r="K168"/>
+    </row>
+    <row r="169" spans="1:11" ht="12.5">
       <c r="A169" s="108"/>
       <c r="E169"/>
       <c r="F169" s="108"/>
       <c r="G169" s="36"/>
-      <c r="I169"/>
+      <c r="H169" s="36"/>
       <c r="J169"/>
-    </row>
-    <row r="170" spans="1:10" ht="12.5">
+      <c r="K169"/>
+    </row>
+    <row r="170" spans="1:11" ht="12.5">
       <c r="A170" s="108"/>
       <c r="E170"/>
       <c r="F170" s="108"/>
       <c r="G170" s="36"/>
-      <c r="I170"/>
+      <c r="H170" s="36"/>
       <c r="J170"/>
-    </row>
-    <row r="171" spans="1:10" ht="12.5">
+      <c r="K170"/>
+    </row>
+    <row r="171" spans="1:11" ht="12.5">
       <c r="A171" s="108"/>
       <c r="E171"/>
       <c r="F171" s="108"/>
       <c r="G171" s="36"/>
-      <c r="I171"/>
+      <c r="H171" s="36"/>
       <c r="J171"/>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171"/>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="56"/>
       <c r="B172" s="56"/>
       <c r="C172" s="56"/>
@@ -4722,507 +4874,578 @@
       <c r="E172" s="57"/>
       <c r="F172" s="198"/>
       <c r="G172" s="219"/>
-      <c r="H172" s="193"/>
-      <c r="I172"/>
+      <c r="H172" s="219"/>
+      <c r="I172" s="193"/>
       <c r="J172"/>
-    </row>
-    <row r="173" spans="1:10" ht="12.5">
+      <c r="K172"/>
+    </row>
+    <row r="173" spans="1:11" ht="12.5">
       <c r="E173"/>
       <c r="F173" s="108"/>
       <c r="G173" s="36"/>
-      <c r="I173"/>
+      <c r="H173" s="36"/>
       <c r="J173"/>
-    </row>
-    <row r="174" spans="1:10" ht="12.5">
+      <c r="K173"/>
+    </row>
+    <row r="174" spans="1:11" ht="12.5">
       <c r="E174"/>
       <c r="F174" s="108"/>
       <c r="G174" s="36"/>
-      <c r="I174"/>
+      <c r="H174" s="36"/>
       <c r="J174"/>
-    </row>
-    <row r="175" spans="1:10" ht="12.5">
+      <c r="K174"/>
+    </row>
+    <row r="175" spans="1:11" ht="12.5">
       <c r="E175"/>
       <c r="F175" s="108"/>
       <c r="G175" s="36"/>
-      <c r="I175"/>
+      <c r="H175" s="36"/>
       <c r="J175"/>
-    </row>
-    <row r="176" spans="1:10" ht="12.5">
+      <c r="K175"/>
+    </row>
+    <row r="176" spans="1:11" ht="12.5">
       <c r="E176"/>
       <c r="F176" s="108"/>
       <c r="G176" s="36"/>
-      <c r="I176"/>
+      <c r="H176" s="36"/>
       <c r="J176"/>
-    </row>
-    <row r="177" spans="5:10" ht="12.5">
+      <c r="K176"/>
+    </row>
+    <row r="177" spans="5:11" ht="12.5">
       <c r="E177"/>
       <c r="F177" s="108"/>
       <c r="G177" s="36"/>
-      <c r="I177"/>
+      <c r="H177" s="36"/>
       <c r="J177"/>
-    </row>
-    <row r="178" spans="5:10" ht="12.5">
+      <c r="K177"/>
+    </row>
+    <row r="178" spans="5:11" ht="12.5">
       <c r="E178"/>
       <c r="F178" s="108"/>
       <c r="G178" s="36"/>
-      <c r="I178"/>
+      <c r="H178" s="36"/>
       <c r="J178"/>
-    </row>
-    <row r="179" spans="5:10" ht="12.5">
+      <c r="K178"/>
+    </row>
+    <row r="179" spans="5:11" ht="12.5">
       <c r="E179"/>
       <c r="F179" s="108"/>
       <c r="G179" s="36"/>
-      <c r="I179"/>
+      <c r="H179" s="36"/>
       <c r="J179"/>
-    </row>
-    <row r="180" spans="5:10" ht="12.5">
+      <c r="K179"/>
+    </row>
+    <row r="180" spans="5:11" ht="12.5">
       <c r="E180"/>
       <c r="F180" s="108"/>
       <c r="G180" s="36"/>
-      <c r="I180"/>
+      <c r="H180" s="36"/>
       <c r="J180"/>
-    </row>
-    <row r="181" spans="5:10" ht="12.5">
+      <c r="K180"/>
+    </row>
+    <row r="181" spans="5:11" ht="12.5">
       <c r="E181"/>
       <c r="F181" s="108"/>
       <c r="G181" s="36"/>
-      <c r="I181"/>
+      <c r="H181" s="36"/>
       <c r="J181"/>
-    </row>
-    <row r="182" spans="5:10" ht="12.5">
+      <c r="K181"/>
+    </row>
+    <row r="182" spans="5:11" ht="12.5">
       <c r="E182"/>
       <c r="F182" s="108"/>
       <c r="G182" s="36"/>
-      <c r="I182"/>
+      <c r="H182" s="36"/>
       <c r="J182"/>
-    </row>
-    <row r="183" spans="5:10" ht="12.5">
+      <c r="K182"/>
+    </row>
+    <row r="183" spans="5:11" ht="12.5">
       <c r="E183"/>
       <c r="F183" s="108"/>
       <c r="G183" s="36"/>
-      <c r="I183"/>
+      <c r="H183" s="36"/>
       <c r="J183"/>
-    </row>
-    <row r="184" spans="5:10" ht="12.5">
+      <c r="K183"/>
+    </row>
+    <row r="184" spans="5:11" ht="12.5">
       <c r="E184"/>
       <c r="F184" s="108"/>
       <c r="G184" s="36"/>
-      <c r="I184"/>
+      <c r="H184" s="36"/>
       <c r="J184"/>
-    </row>
-    <row r="185" spans="5:10" ht="12.5">
+      <c r="K184"/>
+    </row>
+    <row r="185" spans="5:11" ht="12.5">
       <c r="E185"/>
       <c r="F185" s="108"/>
       <c r="G185" s="36"/>
-      <c r="I185"/>
+      <c r="H185" s="36"/>
       <c r="J185"/>
-    </row>
-    <row r="186" spans="5:10" ht="12.5">
+      <c r="K185"/>
+    </row>
+    <row r="186" spans="5:11" ht="12.5">
       <c r="E186"/>
       <c r="F186" s="108"/>
       <c r="G186" s="36"/>
-      <c r="I186"/>
+      <c r="H186" s="36"/>
       <c r="J186"/>
-    </row>
-    <row r="187" spans="5:10" ht="12.5">
+      <c r="K186"/>
+    </row>
+    <row r="187" spans="5:11" ht="12.5">
       <c r="E187"/>
       <c r="F187" s="108"/>
       <c r="G187" s="36"/>
-      <c r="I187"/>
+      <c r="H187" s="36"/>
       <c r="J187"/>
-    </row>
-    <row r="188" spans="5:10" ht="12.5">
+      <c r="K187"/>
+    </row>
+    <row r="188" spans="5:11" ht="12.5">
       <c r="E188"/>
       <c r="F188" s="108"/>
       <c r="G188" s="36"/>
-      <c r="I188"/>
+      <c r="H188" s="36"/>
       <c r="J188"/>
-    </row>
-    <row r="189" spans="5:10" ht="12.5">
+      <c r="K188"/>
+    </row>
+    <row r="189" spans="5:11" ht="12.5">
       <c r="E189"/>
       <c r="F189" s="108"/>
       <c r="G189" s="36"/>
-      <c r="I189"/>
+      <c r="H189" s="36"/>
       <c r="J189"/>
-    </row>
-    <row r="190" spans="5:10" ht="12.5">
+      <c r="K189"/>
+    </row>
+    <row r="190" spans="5:11" ht="12.5">
       <c r="E190"/>
       <c r="F190" s="108"/>
       <c r="G190" s="36"/>
-      <c r="I190"/>
+      <c r="H190" s="36"/>
       <c r="J190"/>
-    </row>
-    <row r="191" spans="5:10" ht="12.5">
+      <c r="K190"/>
+    </row>
+    <row r="191" spans="5:11" ht="12.5">
       <c r="E191"/>
       <c r="F191" s="108"/>
       <c r="G191" s="36"/>
-      <c r="I191"/>
+      <c r="H191" s="36"/>
       <c r="J191"/>
-    </row>
-    <row r="192" spans="5:10" ht="12.5">
+      <c r="K191"/>
+    </row>
+    <row r="192" spans="5:11" ht="12.5">
       <c r="E192"/>
       <c r="F192" s="108"/>
       <c r="G192" s="36"/>
-      <c r="I192"/>
+      <c r="H192" s="36"/>
       <c r="J192"/>
-    </row>
-    <row r="193" spans="5:10" ht="12.5">
+      <c r="K192"/>
+    </row>
+    <row r="193" spans="5:11" ht="12.5">
       <c r="E193"/>
       <c r="F193" s="108"/>
       <c r="G193" s="36"/>
-      <c r="I193"/>
+      <c r="H193" s="36"/>
       <c r="J193"/>
-    </row>
-    <row r="194" spans="5:10" ht="12.5">
+      <c r="K193"/>
+    </row>
+    <row r="194" spans="5:11" ht="12.5">
       <c r="E194"/>
       <c r="F194" s="108"/>
       <c r="G194" s="36"/>
-      <c r="I194"/>
+      <c r="H194" s="36"/>
       <c r="J194"/>
-    </row>
-    <row r="195" spans="5:10" ht="12.5">
+      <c r="K194"/>
+    </row>
+    <row r="195" spans="5:11" ht="12.5">
       <c r="E195"/>
       <c r="F195" s="108"/>
       <c r="G195" s="36"/>
-      <c r="I195"/>
+      <c r="H195" s="36"/>
       <c r="J195"/>
-    </row>
-    <row r="196" spans="5:10" ht="12.5">
+      <c r="K195"/>
+    </row>
+    <row r="196" spans="5:11" ht="12.5">
       <c r="E196"/>
       <c r="F196" s="108"/>
       <c r="G196" s="36"/>
-      <c r="I196"/>
+      <c r="H196" s="36"/>
       <c r="J196"/>
-    </row>
-    <row r="197" spans="5:10" ht="12.5">
+      <c r="K196"/>
+    </row>
+    <row r="197" spans="5:11" ht="12.5">
       <c r="E197"/>
       <c r="F197" s="108"/>
       <c r="G197" s="36"/>
-      <c r="I197"/>
+      <c r="H197" s="36"/>
       <c r="J197"/>
-    </row>
-    <row r="198" spans="5:10" ht="12.5">
+      <c r="K197"/>
+    </row>
+    <row r="198" spans="5:11" ht="12.5">
       <c r="E198"/>
       <c r="F198" s="108"/>
       <c r="G198" s="36"/>
-      <c r="I198"/>
+      <c r="H198" s="36"/>
       <c r="J198"/>
-    </row>
-    <row r="199" spans="5:10" ht="12.5">
+      <c r="K198"/>
+    </row>
+    <row r="199" spans="5:11" ht="12.5">
       <c r="E199"/>
       <c r="F199" s="108"/>
       <c r="G199" s="36"/>
-      <c r="I199"/>
+      <c r="H199" s="36"/>
       <c r="J199"/>
-    </row>
-    <row r="200" spans="5:10" ht="12.5">
+      <c r="K199"/>
+    </row>
+    <row r="200" spans="5:11" ht="12.5">
       <c r="E200"/>
       <c r="F200" s="108"/>
       <c r="G200" s="36"/>
-      <c r="I200"/>
+      <c r="H200" s="36"/>
       <c r="J200"/>
-    </row>
-    <row r="201" spans="5:10" ht="12.5">
+      <c r="K200"/>
+    </row>
+    <row r="201" spans="5:11" ht="12.5">
       <c r="E201"/>
       <c r="F201" s="108"/>
       <c r="G201" s="36"/>
-      <c r="I201"/>
+      <c r="H201" s="36"/>
       <c r="J201"/>
-    </row>
-    <row r="202" spans="5:10" ht="12.5">
+      <c r="K201"/>
+    </row>
+    <row r="202" spans="5:11" ht="12.5">
       <c r="E202"/>
       <c r="F202" s="108"/>
       <c r="G202" s="36"/>
-      <c r="I202"/>
+      <c r="H202" s="36"/>
       <c r="J202"/>
-    </row>
-    <row r="203" spans="5:10" ht="12.5">
+      <c r="K202"/>
+    </row>
+    <row r="203" spans="5:11" ht="12.5">
       <c r="E203"/>
       <c r="F203" s="108"/>
       <c r="G203" s="36"/>
-      <c r="I203"/>
+      <c r="H203" s="36"/>
       <c r="J203"/>
-    </row>
-    <row r="204" spans="5:10" ht="12.5">
+      <c r="K203"/>
+    </row>
+    <row r="204" spans="5:11" ht="12.5">
       <c r="E204"/>
       <c r="F204" s="108"/>
       <c r="G204" s="36"/>
-      <c r="I204"/>
+      <c r="H204" s="36"/>
       <c r="J204"/>
-    </row>
-    <row r="205" spans="5:10" ht="12.5">
+      <c r="K204"/>
+    </row>
+    <row r="205" spans="5:11" ht="12.5">
       <c r="E205"/>
       <c r="F205" s="108"/>
       <c r="G205" s="36"/>
-      <c r="I205"/>
+      <c r="H205" s="36"/>
       <c r="J205"/>
-    </row>
-    <row r="206" spans="5:10" ht="12.5">
+      <c r="K205"/>
+    </row>
+    <row r="206" spans="5:11" ht="12.5">
       <c r="E206"/>
       <c r="F206" s="108"/>
       <c r="G206" s="36"/>
-      <c r="I206"/>
+      <c r="H206" s="36"/>
       <c r="J206"/>
-    </row>
-    <row r="207" spans="5:10" ht="12.5">
+      <c r="K206"/>
+    </row>
+    <row r="207" spans="5:11" ht="12.5">
       <c r="E207"/>
       <c r="F207" s="108"/>
       <c r="G207" s="36"/>
-      <c r="I207"/>
+      <c r="H207" s="36"/>
       <c r="J207"/>
-    </row>
-    <row r="208" spans="5:10" ht="12.5">
+      <c r="K207"/>
+    </row>
+    <row r="208" spans="5:11" ht="12.5">
       <c r="E208"/>
       <c r="F208" s="108"/>
       <c r="G208" s="36"/>
-      <c r="I208"/>
+      <c r="H208" s="36"/>
       <c r="J208"/>
-    </row>
-    <row r="209" spans="5:10" ht="12.5">
+      <c r="K208"/>
+    </row>
+    <row r="209" spans="5:11" ht="12.5">
       <c r="E209"/>
       <c r="F209" s="108"/>
       <c r="G209" s="36"/>
-      <c r="I209"/>
+      <c r="H209" s="36"/>
       <c r="J209"/>
-    </row>
-    <row r="210" spans="5:10" ht="12.5">
+      <c r="K209"/>
+    </row>
+    <row r="210" spans="5:11" ht="12.5">
       <c r="E210"/>
       <c r="F210" s="108"/>
       <c r="G210" s="36"/>
-      <c r="I210"/>
+      <c r="H210" s="36"/>
       <c r="J210"/>
-    </row>
-    <row r="211" spans="5:10" ht="12.5">
+      <c r="K210"/>
+    </row>
+    <row r="211" spans="5:11" ht="12.5">
       <c r="E211"/>
       <c r="F211" s="108"/>
       <c r="G211" s="36"/>
-      <c r="I211"/>
+      <c r="H211" s="36"/>
       <c r="J211"/>
-    </row>
-    <row r="212" spans="5:10" ht="12.5">
+      <c r="K211"/>
+    </row>
+    <row r="212" spans="5:11" ht="12.5">
       <c r="E212"/>
       <c r="F212" s="108"/>
       <c r="G212" s="36"/>
-      <c r="I212"/>
+      <c r="H212" s="36"/>
       <c r="J212"/>
-    </row>
-    <row r="213" spans="5:10" ht="12.5">
+      <c r="K212"/>
+    </row>
+    <row r="213" spans="5:11" ht="12.5">
       <c r="E213"/>
       <c r="F213" s="108"/>
       <c r="G213" s="36"/>
-      <c r="I213"/>
+      <c r="H213" s="36"/>
       <c r="J213"/>
-    </row>
-    <row r="214" spans="5:10" ht="12.5">
+      <c r="K213"/>
+    </row>
+    <row r="214" spans="5:11" ht="12.5">
       <c r="E214"/>
       <c r="F214" s="108"/>
       <c r="G214" s="36"/>
-      <c r="I214"/>
+      <c r="H214" s="36"/>
       <c r="J214"/>
-    </row>
-    <row r="215" spans="5:10" ht="12.5">
+      <c r="K214"/>
+    </row>
+    <row r="215" spans="5:11" ht="12.5">
       <c r="E215"/>
       <c r="F215" s="108"/>
       <c r="G215" s="36"/>
-      <c r="I215"/>
+      <c r="H215" s="36"/>
       <c r="J215"/>
-    </row>
-    <row r="216" spans="5:10" ht="12.5">
+      <c r="K215"/>
+    </row>
+    <row r="216" spans="5:11" ht="12.5">
       <c r="E216"/>
       <c r="F216" s="108"/>
       <c r="G216" s="36"/>
-      <c r="I216"/>
+      <c r="H216" s="36"/>
       <c r="J216"/>
-    </row>
-    <row r="217" spans="5:10" ht="12.5">
+      <c r="K216"/>
+    </row>
+    <row r="217" spans="5:11" ht="12.5">
       <c r="E217"/>
       <c r="F217" s="108"/>
       <c r="G217" s="36"/>
-      <c r="I217"/>
+      <c r="H217" s="36"/>
       <c r="J217"/>
-    </row>
-    <row r="218" spans="5:10" ht="12.5">
+      <c r="K217"/>
+    </row>
+    <row r="218" spans="5:11" ht="12.5">
       <c r="E218"/>
       <c r="F218" s="108"/>
       <c r="G218" s="36"/>
-      <c r="I218"/>
+      <c r="H218" s="36"/>
       <c r="J218"/>
-    </row>
-    <row r="219" spans="5:10" ht="12.5">
+      <c r="K218"/>
+    </row>
+    <row r="219" spans="5:11" ht="12.5">
       <c r="E219"/>
       <c r="F219" s="108"/>
       <c r="G219" s="36"/>
-      <c r="I219"/>
+      <c r="H219" s="36"/>
       <c r="J219"/>
-    </row>
-    <row r="220" spans="5:10" ht="12.5">
+      <c r="K219"/>
+    </row>
+    <row r="220" spans="5:11" ht="12.5">
       <c r="E220"/>
       <c r="F220" s="108"/>
       <c r="G220" s="36"/>
-      <c r="I220"/>
+      <c r="H220" s="36"/>
       <c r="J220"/>
-    </row>
-    <row r="221" spans="5:10" ht="12.5">
+      <c r="K220"/>
+    </row>
+    <row r="221" spans="5:11" ht="12.5">
       <c r="E221"/>
       <c r="F221" s="108"/>
       <c r="G221" s="36"/>
-      <c r="I221"/>
+      <c r="H221" s="36"/>
       <c r="J221"/>
-    </row>
-    <row r="222" spans="5:10" ht="12.5">
+      <c r="K221"/>
+    </row>
+    <row r="222" spans="5:11" ht="12.5">
       <c r="E222"/>
       <c r="F222" s="108"/>
       <c r="G222" s="36"/>
-      <c r="I222"/>
+      <c r="H222" s="36"/>
       <c r="J222"/>
-    </row>
-    <row r="223" spans="5:10" ht="12.5">
+      <c r="K222"/>
+    </row>
+    <row r="223" spans="5:11" ht="12.5">
       <c r="E223"/>
       <c r="F223" s="108"/>
       <c r="G223" s="36"/>
-      <c r="I223"/>
+      <c r="H223" s="36"/>
       <c r="J223"/>
-    </row>
-    <row r="224" spans="5:10" ht="12.5">
+      <c r="K223"/>
+    </row>
+    <row r="224" spans="5:11" ht="12.5">
       <c r="E224"/>
       <c r="F224" s="108"/>
       <c r="G224" s="36"/>
-      <c r="I224"/>
+      <c r="H224" s="36"/>
       <c r="J224"/>
-    </row>
-    <row r="225" spans="5:10" ht="12.5">
+      <c r="K224"/>
+    </row>
+    <row r="225" spans="5:11" ht="12.5">
       <c r="E225"/>
       <c r="F225" s="108"/>
       <c r="G225" s="36"/>
-      <c r="I225"/>
+      <c r="H225" s="36"/>
       <c r="J225"/>
-    </row>
-    <row r="226" spans="5:10" ht="12.5">
+      <c r="K225"/>
+    </row>
+    <row r="226" spans="5:11" ht="12.5">
       <c r="E226"/>
       <c r="F226" s="108"/>
       <c r="G226" s="36"/>
-      <c r="I226"/>
+      <c r="H226" s="36"/>
       <c r="J226"/>
-    </row>
-    <row r="227" spans="5:10" ht="12.5">
+      <c r="K226"/>
+    </row>
+    <row r="227" spans="5:11" ht="12.5">
       <c r="E227"/>
       <c r="F227" s="108"/>
       <c r="G227" s="36"/>
-      <c r="I227"/>
+      <c r="H227" s="36"/>
       <c r="J227"/>
-    </row>
-    <row r="228" spans="5:10" ht="12.5">
+      <c r="K227"/>
+    </row>
+    <row r="228" spans="5:11" ht="12.5">
       <c r="E228"/>
       <c r="F228" s="108"/>
       <c r="G228" s="36"/>
-      <c r="I228"/>
+      <c r="H228" s="36"/>
       <c r="J228"/>
-    </row>
-    <row r="229" spans="5:10" ht="12.5">
+      <c r="K228"/>
+    </row>
+    <row r="229" spans="5:11" ht="12.5">
       <c r="E229"/>
       <c r="F229" s="108"/>
       <c r="G229" s="36"/>
-      <c r="I229"/>
+      <c r="H229" s="36"/>
       <c r="J229"/>
-    </row>
-    <row r="230" spans="5:10" ht="12.5">
+      <c r="K229"/>
+    </row>
+    <row r="230" spans="5:11" ht="12.5">
       <c r="E230"/>
       <c r="F230" s="108"/>
       <c r="G230" s="36"/>
-      <c r="I230"/>
+      <c r="H230" s="36"/>
       <c r="J230"/>
-    </row>
-    <row r="231" spans="5:10" ht="12.5">
+      <c r="K230"/>
+    </row>
+    <row r="231" spans="5:11" ht="12.5">
       <c r="E231"/>
       <c r="F231" s="108"/>
       <c r="G231" s="36"/>
-      <c r="I231"/>
+      <c r="H231" s="36"/>
       <c r="J231"/>
-    </row>
-    <row r="232" spans="5:10" ht="12.5">
+      <c r="K231"/>
+    </row>
+    <row r="232" spans="5:11" ht="12.5">
       <c r="E232"/>
       <c r="F232" s="108"/>
       <c r="G232" s="36"/>
-      <c r="I232"/>
+      <c r="H232" s="36"/>
       <c r="J232"/>
-    </row>
-    <row r="233" spans="5:10" ht="12.5">
+      <c r="K232"/>
+    </row>
+    <row r="233" spans="5:11" ht="12.5">
       <c r="E233"/>
       <c r="F233" s="108"/>
       <c r="G233" s="36"/>
-      <c r="I233"/>
+      <c r="H233" s="36"/>
       <c r="J233"/>
-    </row>
-    <row r="234" spans="5:10" ht="12.5">
+      <c r="K233"/>
+    </row>
+    <row r="234" spans="5:11" ht="12.5">
       <c r="E234"/>
       <c r="F234" s="108"/>
       <c r="G234" s="36"/>
-      <c r="I234"/>
+      <c r="H234" s="36"/>
       <c r="J234"/>
-    </row>
-    <row r="235" spans="5:10" ht="12.5">
+      <c r="K234"/>
+    </row>
+    <row r="235" spans="5:11" ht="12.5">
       <c r="E235"/>
       <c r="F235" s="108"/>
       <c r="G235" s="36"/>
-      <c r="I235"/>
+      <c r="H235" s="36"/>
       <c r="J235"/>
-    </row>
-    <row r="236" spans="5:10" ht="12.5">
+      <c r="K235"/>
+    </row>
+    <row r="236" spans="5:11" ht="12.5">
       <c r="E236"/>
       <c r="F236" s="108"/>
       <c r="G236" s="36"/>
-      <c r="I236"/>
+      <c r="H236" s="36"/>
       <c r="J236"/>
-    </row>
-    <row r="237" spans="5:10" ht="12.5">
+      <c r="K236"/>
+    </row>
+    <row r="237" spans="5:11" ht="12.5">
       <c r="E237"/>
       <c r="F237" s="108"/>
       <c r="G237" s="36"/>
-      <c r="I237"/>
+      <c r="H237" s="36"/>
       <c r="J237"/>
-    </row>
-    <row r="238" spans="5:10" ht="12.5">
+      <c r="K237"/>
+    </row>
+    <row r="238" spans="5:11" ht="12.5">
       <c r="E238"/>
       <c r="F238" s="108"/>
       <c r="G238" s="36"/>
-      <c r="I238"/>
+      <c r="H238" s="36"/>
       <c r="J238"/>
-    </row>
-    <row r="239" spans="5:10" ht="12.5">
+      <c r="K238"/>
+    </row>
+    <row r="239" spans="5:11" ht="12.5">
       <c r="E239"/>
       <c r="F239" s="108"/>
       <c r="G239" s="36"/>
-      <c r="I239"/>
+      <c r="H239" s="36"/>
       <c r="J239"/>
-    </row>
-    <row r="240" spans="5:10" ht="12.5">
+      <c r="K239"/>
+    </row>
+    <row r="240" spans="5:11" ht="12.5">
       <c r="E240"/>
       <c r="F240" s="108"/>
       <c r="G240" s="36"/>
-      <c r="I240"/>
+      <c r="H240" s="36"/>
       <c r="J240"/>
-    </row>
-    <row r="241" spans="1:10" ht="12.5">
+      <c r="K240"/>
+    </row>
+    <row r="241" spans="1:11" ht="12.5">
       <c r="E241"/>
       <c r="F241" s="108"/>
       <c r="G241" s="36"/>
-      <c r="I241"/>
+      <c r="H241" s="36"/>
       <c r="J241"/>
-    </row>
-    <row r="242" spans="1:10" ht="12.5">
+      <c r="K241"/>
+    </row>
+    <row r="242" spans="1:11" ht="12.5">
       <c r="E242"/>
       <c r="F242" s="108"/>
       <c r="G242" s="36"/>
-      <c r="I242"/>
+      <c r="H242" s="36"/>
       <c r="J242"/>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242"/>
+    </row>
+    <row r="243" spans="1:11">
       <c r="F243" s="108"/>
       <c r="G243" s="36"/>
-      <c r="H243" s="193"/>
-      <c r="J243"/>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="I243" s="193"/>
+      <c r="K243"/>
+    </row>
+    <row r="244" spans="1:11">
       <c r="A244" s="56"/>
       <c r="B244" s="56"/>
       <c r="C244" s="56"/>
@@ -5231,30 +5454,36 @@
       <c r="F244" s="198"/>
       <c r="G244" s="219"/>
       <c r="H244" s="193"/>
-      <c r="J244"/>
-    </row>
-    <row r="245" spans="1:10" ht="12.5">
+      <c r="I244" s="193"/>
+      <c r="K244"/>
+    </row>
+    <row r="245" spans="1:11" ht="12.5">
       <c r="E245"/>
       <c r="F245" s="108"/>
       <c r="G245" s="36"/>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="H245" s="36"/>
+    </row>
+    <row r="246" spans="1:11">
       <c r="F246" s="108"/>
       <c r="G246" s="36"/>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="H246" s="36"/>
+    </row>
+    <row r="247" spans="1:11">
       <c r="F247" s="108"/>
       <c r="G247" s="36"/>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="H247" s="36"/>
+    </row>
+    <row r="248" spans="1:11">
       <c r="F248" s="108"/>
       <c r="G248" s="36"/>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="H248" s="36"/>
+    </row>
+    <row r="249" spans="1:11">
       <c r="F249" s="108"/>
       <c r="G249" s="36"/>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="H249" s="36"/>
+    </row>
+    <row r="250" spans="1:11">
       <c r="A250" s="56"/>
       <c r="B250" s="56"/>
       <c r="C250" s="56"/>
@@ -5262,107 +5491,122 @@
       <c r="E250" s="57"/>
       <c r="F250" s="198"/>
       <c r="G250" s="219"/>
-      <c r="H250" s="193"/>
-    </row>
-    <row r="251" spans="1:10" ht="12.5">
+      <c r="H250" s="219"/>
+      <c r="I250" s="193"/>
+    </row>
+    <row r="251" spans="1:11" ht="12.5">
       <c r="E251"/>
       <c r="F251" s="108"/>
       <c r="G251" s="36"/>
-      <c r="I251"/>
+      <c r="H251" s="36"/>
       <c r="J251"/>
-    </row>
-    <row r="252" spans="1:10" ht="12.5">
+      <c r="K251"/>
+    </row>
+    <row r="252" spans="1:11" ht="12.5">
       <c r="E252"/>
       <c r="F252" s="108"/>
       <c r="G252" s="36"/>
-      <c r="I252"/>
+      <c r="H252" s="36"/>
       <c r="J252"/>
-    </row>
-    <row r="253" spans="1:10" ht="12.5">
+      <c r="K252"/>
+    </row>
+    <row r="253" spans="1:11" ht="12.5">
       <c r="E253"/>
       <c r="F253" s="108"/>
       <c r="G253" s="36"/>
-      <c r="I253"/>
+      <c r="H253" s="36"/>
       <c r="J253"/>
-    </row>
-    <row r="254" spans="1:10" ht="12.5">
+      <c r="K253"/>
+    </row>
+    <row r="254" spans="1:11" ht="12.5">
       <c r="E254"/>
       <c r="F254" s="108"/>
       <c r="G254" s="36"/>
-      <c r="I254"/>
+      <c r="H254" s="36"/>
       <c r="J254"/>
-    </row>
-    <row r="255" spans="1:10" ht="12.5">
+      <c r="K254"/>
+    </row>
+    <row r="255" spans="1:11" ht="12.5">
       <c r="E255"/>
       <c r="F255" s="108"/>
       <c r="G255" s="36"/>
-      <c r="I255"/>
+      <c r="H255" s="36"/>
       <c r="J255"/>
-    </row>
-    <row r="256" spans="1:10" ht="12.5">
+      <c r="K255"/>
+    </row>
+    <row r="256" spans="1:11" ht="12.5">
       <c r="E256"/>
       <c r="F256" s="108"/>
       <c r="G256" s="36"/>
-      <c r="I256"/>
+      <c r="H256" s="36"/>
       <c r="J256"/>
-    </row>
-    <row r="257" spans="1:10" ht="12.5">
+      <c r="K256"/>
+    </row>
+    <row r="257" spans="1:11" ht="12.5">
       <c r="E257"/>
       <c r="F257" s="108"/>
       <c r="G257" s="36"/>
-      <c r="I257"/>
+      <c r="H257" s="36"/>
       <c r="J257"/>
-    </row>
-    <row r="258" spans="1:10" ht="12.5">
+      <c r="K257"/>
+    </row>
+    <row r="258" spans="1:11" ht="12.5">
       <c r="E258"/>
       <c r="F258" s="108"/>
       <c r="G258" s="36"/>
-      <c r="I258"/>
+      <c r="H258" s="36"/>
       <c r="J258"/>
-    </row>
-    <row r="259" spans="1:10" ht="12.5">
+      <c r="K258"/>
+    </row>
+    <row r="259" spans="1:11" ht="12.5">
       <c r="E259"/>
       <c r="F259" s="108"/>
       <c r="G259" s="36"/>
-      <c r="I259"/>
+      <c r="H259" s="36"/>
       <c r="J259"/>
-    </row>
-    <row r="260" spans="1:10" ht="12.5">
+      <c r="K259"/>
+    </row>
+    <row r="260" spans="1:11" ht="12.5">
       <c r="E260"/>
       <c r="F260" s="108"/>
       <c r="G260" s="36"/>
-      <c r="I260"/>
+      <c r="H260" s="36"/>
       <c r="J260"/>
-    </row>
-    <row r="261" spans="1:10" ht="12.5">
+      <c r="K260"/>
+    </row>
+    <row r="261" spans="1:11" ht="12.5">
       <c r="E261"/>
       <c r="F261" s="108"/>
       <c r="G261" s="36"/>
-      <c r="I261"/>
+      <c r="H261" s="36"/>
       <c r="J261"/>
-    </row>
-    <row r="262" spans="1:10" ht="12.5">
+      <c r="K261"/>
+    </row>
+    <row r="262" spans="1:11" ht="12.5">
       <c r="E262"/>
       <c r="F262" s="108"/>
       <c r="G262" s="36"/>
-      <c r="I262"/>
+      <c r="H262" s="36"/>
       <c r="J262"/>
-    </row>
-    <row r="263" spans="1:10" ht="12.5">
+      <c r="K262"/>
+    </row>
+    <row r="263" spans="1:11" ht="12.5">
       <c r="E263"/>
       <c r="F263" s="108"/>
       <c r="G263" s="36"/>
-      <c r="I263"/>
+      <c r="H263" s="36"/>
       <c r="J263"/>
-    </row>
-    <row r="264" spans="1:10" ht="12.5">
+      <c r="K263"/>
+    </row>
+    <row r="264" spans="1:11" ht="12.5">
       <c r="E264"/>
       <c r="F264" s="108"/>
       <c r="G264" s="36"/>
-      <c r="I264"/>
+      <c r="H264" s="36"/>
       <c r="J264"/>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="K264"/>
+    </row>
+    <row r="265" spans="1:11">
       <c r="A265" s="56"/>
       <c r="B265" s="56"/>
       <c r="C265" s="56"/>
@@ -5370,74 +5614,84 @@
       <c r="E265" s="57"/>
       <c r="F265" s="198"/>
       <c r="G265" s="219"/>
-      <c r="H265" s="193"/>
-      <c r="I265"/>
+      <c r="H265" s="219"/>
+      <c r="I265" s="193"/>
       <c r="J265"/>
-    </row>
-    <row r="266" spans="1:10" ht="12.5">
+      <c r="K265"/>
+    </row>
+    <row r="266" spans="1:11" ht="12.5">
       <c r="E266"/>
       <c r="F266" s="108"/>
       <c r="G266" s="36"/>
-      <c r="I266"/>
+      <c r="H266" s="36"/>
       <c r="J266"/>
-    </row>
-    <row r="267" spans="1:10" ht="12.5">
+      <c r="K266"/>
+    </row>
+    <row r="267" spans="1:11" ht="12.5">
       <c r="E267"/>
       <c r="F267" s="108"/>
       <c r="G267" s="36"/>
-      <c r="I267"/>
+      <c r="H267" s="36"/>
       <c r="J267"/>
-    </row>
-    <row r="268" spans="1:10" ht="12.5">
+      <c r="K267"/>
+    </row>
+    <row r="268" spans="1:11" ht="12.5">
       <c r="E268"/>
       <c r="F268" s="108"/>
       <c r="G268" s="36"/>
-      <c r="I268"/>
+      <c r="H268" s="36"/>
       <c r="J268"/>
-    </row>
-    <row r="269" spans="1:10" ht="12.5">
+      <c r="K268"/>
+    </row>
+    <row r="269" spans="1:11" ht="12.5">
       <c r="E269"/>
       <c r="F269" s="108"/>
       <c r="G269" s="36"/>
-      <c r="I269"/>
+      <c r="H269" s="36"/>
       <c r="J269"/>
-    </row>
-    <row r="270" spans="1:10" ht="12.5">
+      <c r="K269"/>
+    </row>
+    <row r="270" spans="1:11" ht="12.5">
       <c r="E270"/>
       <c r="F270" s="108"/>
       <c r="G270" s="36"/>
-      <c r="I270"/>
+      <c r="H270" s="36"/>
       <c r="J270"/>
-    </row>
-    <row r="271" spans="1:10" ht="12.5">
+      <c r="K270"/>
+    </row>
+    <row r="271" spans="1:11" ht="12.5">
       <c r="E271"/>
       <c r="F271" s="108"/>
       <c r="G271" s="36"/>
-      <c r="I271"/>
+      <c r="H271" s="36"/>
       <c r="J271"/>
-    </row>
-    <row r="272" spans="1:10" ht="12.5">
+      <c r="K271"/>
+    </row>
+    <row r="272" spans="1:11" ht="12.5">
       <c r="E272"/>
       <c r="F272" s="108"/>
       <c r="G272" s="36"/>
-      <c r="I272"/>
+      <c r="H272" s="36"/>
       <c r="J272"/>
-    </row>
-    <row r="273" spans="1:10" ht="12.5">
+      <c r="K272"/>
+    </row>
+    <row r="273" spans="1:11" ht="12.5">
       <c r="E273"/>
       <c r="F273" s="108"/>
       <c r="G273" s="36"/>
-      <c r="I273"/>
+      <c r="H273" s="36"/>
       <c r="J273"/>
-    </row>
-    <row r="274" spans="1:10" ht="12.5">
+      <c r="K273"/>
+    </row>
+    <row r="274" spans="1:11" ht="12.5">
       <c r="E274"/>
       <c r="F274" s="108"/>
       <c r="G274" s="36"/>
-      <c r="I274"/>
+      <c r="H274" s="36"/>
       <c r="J274"/>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="K274"/>
+    </row>
+    <row r="275" spans="1:11">
       <c r="A275" s="56"/>
       <c r="B275" s="56"/>
       <c r="C275" s="56"/>
@@ -5445,93 +5699,105 @@
       <c r="E275" s="57"/>
       <c r="F275" s="198"/>
       <c r="G275" s="219"/>
-      <c r="H275" s="193"/>
-      <c r="I275"/>
+      <c r="H275" s="219"/>
+      <c r="I275" s="193"/>
       <c r="J275"/>
-    </row>
-    <row r="276" spans="1:10" ht="12.5">
+      <c r="K275"/>
+    </row>
+    <row r="276" spans="1:11" ht="12.5">
       <c r="E276"/>
       <c r="F276" s="108"/>
       <c r="G276" s="36"/>
-      <c r="I276"/>
+      <c r="H276" s="36"/>
       <c r="J276"/>
-    </row>
-    <row r="277" spans="1:10" ht="12.5">
+      <c r="K276"/>
+    </row>
+    <row r="277" spans="1:11" ht="12.5">
       <c r="E277"/>
       <c r="F277" s="108"/>
       <c r="G277" s="36"/>
-      <c r="I277"/>
+      <c r="H277" s="36"/>
       <c r="J277"/>
-    </row>
-    <row r="278" spans="1:10" ht="12.5">
+      <c r="K277"/>
+    </row>
+    <row r="278" spans="1:11" ht="12.5">
       <c r="E278"/>
       <c r="F278" s="108"/>
       <c r="G278" s="36"/>
-      <c r="I278"/>
+      <c r="H278" s="36"/>
       <c r="J278"/>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278"/>
+    </row>
+    <row r="279" spans="1:11">
       <c r="B279" s="231"/>
       <c r="E279"/>
       <c r="F279" s="108"/>
       <c r="G279" s="36"/>
-      <c r="I279"/>
       <c r="J279"/>
-    </row>
-    <row r="280" spans="1:10" ht="12.5">
+      <c r="K279"/>
+    </row>
+    <row r="280" spans="1:11" ht="12.5">
       <c r="E280"/>
       <c r="F280" s="108"/>
       <c r="G280" s="36"/>
-      <c r="I280"/>
+      <c r="H280" s="36"/>
       <c r="J280"/>
-    </row>
-    <row r="281" spans="1:10" ht="12.5">
+      <c r="K280"/>
+    </row>
+    <row r="281" spans="1:11" ht="12.5">
       <c r="E281"/>
       <c r="F281" s="108"/>
       <c r="G281" s="36"/>
-      <c r="I281"/>
+      <c r="H281" s="36"/>
       <c r="J281"/>
-    </row>
-    <row r="282" spans="1:10" ht="12.5">
+      <c r="K281"/>
+    </row>
+    <row r="282" spans="1:11" ht="12.5">
       <c r="E282"/>
       <c r="F282" s="108"/>
       <c r="G282" s="36"/>
-      <c r="I282"/>
+      <c r="H282" s="36"/>
       <c r="J282"/>
-    </row>
-    <row r="283" spans="1:10" ht="12.5">
+      <c r="K282"/>
+    </row>
+    <row r="283" spans="1:11" ht="12.5">
       <c r="E283"/>
       <c r="F283" s="108"/>
       <c r="G283" s="36"/>
-      <c r="I283"/>
+      <c r="H283" s="36"/>
       <c r="J283"/>
-    </row>
-    <row r="284" spans="1:10" ht="12.5">
+      <c r="K283"/>
+    </row>
+    <row r="284" spans="1:11" ht="12.5">
       <c r="E284"/>
       <c r="F284" s="108"/>
       <c r="G284" s="36"/>
-      <c r="I284"/>
+      <c r="H284" s="36"/>
       <c r="J284"/>
-    </row>
-    <row r="285" spans="1:10" ht="12.5">
+      <c r="K284"/>
+    </row>
+    <row r="285" spans="1:11" ht="12.5">
       <c r="E285"/>
       <c r="F285" s="108"/>
       <c r="G285" s="36"/>
-      <c r="I285"/>
+      <c r="H285" s="36"/>
       <c r="J285"/>
-    </row>
-    <row r="286" spans="1:10" ht="12.5">
+      <c r="K285"/>
+    </row>
+    <row r="286" spans="1:11" ht="12.5">
       <c r="E286"/>
       <c r="F286" s="108"/>
       <c r="G286" s="36"/>
-      <c r="I286"/>
+      <c r="H286" s="36"/>
       <c r="J286"/>
-    </row>
-    <row r="287" spans="1:10">
+      <c r="K286"/>
+    </row>
+    <row r="287" spans="1:11">
       <c r="F287" s="108"/>
       <c r="G287" s="36"/>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="H287" s="36"/>
+    </row>
+    <row r="288" spans="1:11">
       <c r="A288" s="56"/>
       <c r="B288" s="56"/>
       <c r="C288" s="56"/>
@@ -5539,119 +5805,138 @@
       <c r="E288" s="57"/>
       <c r="F288" s="198"/>
       <c r="G288" s="219"/>
-      <c r="H288" s="193"/>
-      <c r="I288"/>
+      <c r="H288" s="219"/>
+      <c r="I288" s="193"/>
       <c r="J288"/>
-    </row>
-    <row r="289" spans="6:10">
+      <c r="K288"/>
+    </row>
+    <row r="289" spans="6:11">
       <c r="F289" s="108"/>
       <c r="G289" s="36"/>
-      <c r="I289"/>
+      <c r="H289" s="36"/>
       <c r="J289"/>
-    </row>
-    <row r="290" spans="6:10">
+      <c r="K289"/>
+    </row>
+    <row r="290" spans="6:11">
       <c r="F290" s="199"/>
       <c r="G290" s="36"/>
-      <c r="I290"/>
+      <c r="H290" s="36"/>
       <c r="J290"/>
-    </row>
-    <row r="291" spans="6:10">
+      <c r="K290"/>
+    </row>
+    <row r="291" spans="6:11">
       <c r="F291" s="108"/>
       <c r="G291" s="36"/>
-      <c r="I291"/>
+      <c r="H291" s="36"/>
       <c r="J291"/>
-    </row>
-    <row r="292" spans="6:10">
+      <c r="K291"/>
+    </row>
+    <row r="292" spans="6:11">
       <c r="F292" s="108"/>
       <c r="G292" s="36"/>
-      <c r="I292"/>
+      <c r="H292" s="36"/>
       <c r="J292"/>
-    </row>
-    <row r="293" spans="6:10">
+      <c r="K292"/>
+    </row>
+    <row r="293" spans="6:11">
       <c r="F293" s="108"/>
       <c r="G293" s="36"/>
-      <c r="I293"/>
+      <c r="H293" s="36"/>
       <c r="J293"/>
-    </row>
-    <row r="294" spans="6:10">
+      <c r="K293"/>
+    </row>
+    <row r="294" spans="6:11">
       <c r="F294" s="108"/>
       <c r="G294" s="36"/>
-      <c r="I294"/>
+      <c r="H294" s="36"/>
       <c r="J294"/>
-    </row>
-    <row r="295" spans="6:10">
+      <c r="K294"/>
+    </row>
+    <row r="295" spans="6:11">
       <c r="F295" s="108"/>
       <c r="G295" s="36"/>
-      <c r="I295"/>
+      <c r="H295" s="36"/>
       <c r="J295"/>
-    </row>
-    <row r="296" spans="6:10">
+      <c r="K295"/>
+    </row>
+    <row r="296" spans="6:11">
       <c r="F296" s="108"/>
       <c r="G296" s="36"/>
-      <c r="I296"/>
+      <c r="H296" s="36"/>
       <c r="J296"/>
-    </row>
-    <row r="297" spans="6:10">
+      <c r="K296"/>
+    </row>
+    <row r="297" spans="6:11">
       <c r="F297" s="108"/>
       <c r="G297" s="36"/>
-      <c r="I297"/>
+      <c r="H297" s="36"/>
       <c r="J297"/>
-    </row>
-    <row r="298" spans="6:10">
+      <c r="K297"/>
+    </row>
+    <row r="298" spans="6:11">
       <c r="F298" s="108"/>
       <c r="G298" s="36"/>
-      <c r="I298"/>
+      <c r="H298" s="36"/>
       <c r="J298"/>
-    </row>
-    <row r="299" spans="6:10">
+      <c r="K298"/>
+    </row>
+    <row r="299" spans="6:11">
       <c r="F299" s="108"/>
       <c r="G299" s="36"/>
-      <c r="I299"/>
+      <c r="H299" s="36"/>
       <c r="J299"/>
-    </row>
-    <row r="300" spans="6:10">
+      <c r="K299"/>
+    </row>
+    <row r="300" spans="6:11">
       <c r="F300" s="108"/>
       <c r="G300" s="36"/>
-      <c r="I300"/>
+      <c r="H300" s="36"/>
       <c r="J300"/>
-    </row>
-    <row r="301" spans="6:10">
+      <c r="K300"/>
+    </row>
+    <row r="301" spans="6:11">
       <c r="F301" s="108"/>
       <c r="G301" s="36"/>
-      <c r="I301"/>
+      <c r="H301" s="36"/>
       <c r="J301"/>
-    </row>
-    <row r="302" spans="6:10">
+      <c r="K301"/>
+    </row>
+    <row r="302" spans="6:11">
       <c r="F302" s="108"/>
       <c r="G302" s="36"/>
-      <c r="I302"/>
+      <c r="H302" s="36"/>
       <c r="J302"/>
-    </row>
-    <row r="303" spans="6:10">
+      <c r="K302"/>
+    </row>
+    <row r="303" spans="6:11">
       <c r="F303" s="108"/>
       <c r="G303" s="36"/>
-      <c r="I303"/>
+      <c r="H303" s="36"/>
       <c r="J303"/>
-    </row>
-    <row r="304" spans="6:10">
+      <c r="K303"/>
+    </row>
+    <row r="304" spans="6:11">
       <c r="F304" s="108"/>
       <c r="G304" s="36"/>
-      <c r="I304"/>
+      <c r="H304" s="36"/>
       <c r="J304"/>
-    </row>
-    <row r="305" spans="1:10">
+      <c r="K304"/>
+    </row>
+    <row r="305" spans="1:11">
       <c r="F305" s="108"/>
       <c r="G305" s="36"/>
-      <c r="I305"/>
+      <c r="H305" s="36"/>
       <c r="J305"/>
-    </row>
-    <row r="306" spans="1:10">
+      <c r="K305"/>
+    </row>
+    <row r="306" spans="1:11">
       <c r="F306" s="108"/>
       <c r="G306" s="36"/>
-      <c r="I306"/>
+      <c r="H306" s="36"/>
       <c r="J306"/>
-    </row>
-    <row r="307" spans="1:10">
+      <c r="K306"/>
+    </row>
+    <row r="307" spans="1:11">
       <c r="A307" s="56"/>
       <c r="B307" s="56"/>
       <c r="C307" s="56"/>
@@ -5659,11 +5944,12 @@
       <c r="E307" s="57"/>
       <c r="F307" s="200"/>
       <c r="G307" s="200"/>
-      <c r="H307" s="193"/>
-      <c r="I307"/>
+      <c r="H307" s="36"/>
+      <c r="I307" s="193"/>
       <c r="J307"/>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="K307"/>
+    </row>
+    <row r="308" spans="1:11">
       <c r="A308" s="56"/>
       <c r="B308" s="56"/>
       <c r="C308" s="56"/>
@@ -5671,143 +5957,164 @@
       <c r="E308" s="57"/>
       <c r="F308" s="200"/>
       <c r="G308" s="200"/>
-      <c r="H308" s="193"/>
-      <c r="I308"/>
+      <c r="H308" s="36"/>
+      <c r="I308" s="193"/>
       <c r="J308"/>
-    </row>
-    <row r="309" spans="1:10">
+      <c r="K308"/>
+    </row>
+    <row r="309" spans="1:11">
       <c r="F309" s="108"/>
       <c r="G309" s="108"/>
-      <c r="I309"/>
+      <c r="H309" s="219"/>
       <c r="J309"/>
-    </row>
-    <row r="310" spans="1:10">
+      <c r="K309"/>
+    </row>
+    <row r="310" spans="1:11">
       <c r="F310" s="199"/>
       <c r="G310" s="199"/>
-      <c r="I310"/>
+      <c r="H310" s="219"/>
       <c r="J310"/>
-    </row>
-    <row r="311" spans="1:10">
+      <c r="K310"/>
+    </row>
+    <row r="311" spans="1:11">
       <c r="F311" s="108"/>
       <c r="G311" s="108"/>
-      <c r="I311"/>
+      <c r="H311" s="36"/>
       <c r="J311"/>
-    </row>
-    <row r="312" spans="1:10">
+      <c r="K311"/>
+    </row>
+    <row r="312" spans="1:11">
       <c r="F312" s="108"/>
       <c r="G312" s="36"/>
-      <c r="I312"/>
+      <c r="H312" s="36"/>
       <c r="J312"/>
-    </row>
-    <row r="313" spans="1:10">
+      <c r="K312"/>
+    </row>
+    <row r="313" spans="1:11">
       <c r="F313" s="108"/>
       <c r="G313" s="36"/>
-      <c r="I313"/>
+      <c r="H313" s="36"/>
       <c r="J313"/>
-    </row>
-    <row r="314" spans="1:10">
+      <c r="K313"/>
+    </row>
+    <row r="314" spans="1:11">
       <c r="F314" s="108"/>
       <c r="G314" s="36"/>
-      <c r="I314"/>
+      <c r="H314" s="36"/>
       <c r="J314"/>
-    </row>
-    <row r="315" spans="1:10">
+      <c r="K314"/>
+    </row>
+    <row r="315" spans="1:11">
       <c r="F315" s="108"/>
       <c r="G315" s="36"/>
-      <c r="I315"/>
+      <c r="H315" s="36"/>
       <c r="J315"/>
-    </row>
-    <row r="316" spans="1:10">
+      <c r="K315"/>
+    </row>
+    <row r="316" spans="1:11">
       <c r="F316" s="108"/>
       <c r="G316" s="36"/>
-      <c r="I316"/>
+      <c r="H316" s="36"/>
       <c r="J316"/>
-    </row>
-    <row r="317" spans="1:10">
+      <c r="K316"/>
+    </row>
+    <row r="317" spans="1:11">
       <c r="F317" s="108"/>
       <c r="G317" s="36"/>
-      <c r="I317"/>
+      <c r="H317" s="36"/>
       <c r="J317"/>
-    </row>
-    <row r="318" spans="1:10">
+      <c r="K317"/>
+    </row>
+    <row r="318" spans="1:11">
       <c r="F318" s="108"/>
       <c r="G318" s="36"/>
-      <c r="I318"/>
+      <c r="H318" s="36"/>
       <c r="J318"/>
-    </row>
-    <row r="319" spans="1:10">
+      <c r="K318"/>
+    </row>
+    <row r="319" spans="1:11">
       <c r="F319" s="108"/>
       <c r="G319" s="36"/>
-      <c r="I319"/>
+      <c r="H319" s="36"/>
       <c r="J319"/>
-    </row>
-    <row r="320" spans="1:10">
+      <c r="K319"/>
+    </row>
+    <row r="320" spans="1:11">
       <c r="F320" s="108"/>
       <c r="G320" s="36"/>
-      <c r="I320"/>
+      <c r="H320" s="36"/>
       <c r="J320"/>
-    </row>
-    <row r="321" spans="1:10">
+      <c r="K320"/>
+    </row>
+    <row r="321" spans="1:11">
       <c r="F321" s="108"/>
       <c r="G321" s="36"/>
-      <c r="I321"/>
+      <c r="H321" s="36"/>
       <c r="J321"/>
-    </row>
-    <row r="322" spans="1:10">
+      <c r="K321"/>
+    </row>
+    <row r="322" spans="1:11">
       <c r="F322" s="108"/>
       <c r="G322" s="36"/>
-      <c r="I322"/>
+      <c r="H322" s="36"/>
       <c r="J322"/>
-    </row>
-    <row r="323" spans="1:10">
+      <c r="K322"/>
+    </row>
+    <row r="323" spans="1:11">
       <c r="F323" s="108"/>
       <c r="G323" s="36"/>
-      <c r="I323"/>
+      <c r="H323" s="36"/>
       <c r="J323"/>
-    </row>
-    <row r="324" spans="1:10">
+      <c r="K323"/>
+    </row>
+    <row r="324" spans="1:11">
       <c r="F324" s="108"/>
       <c r="G324" s="36"/>
-      <c r="I324"/>
+      <c r="H324" s="36"/>
       <c r="J324"/>
-    </row>
-    <row r="325" spans="1:10">
+      <c r="K324"/>
+    </row>
+    <row r="325" spans="1:11">
       <c r="F325" s="108"/>
       <c r="G325" s="36"/>
-      <c r="I325"/>
+      <c r="H325" s="36"/>
       <c r="J325"/>
-    </row>
-    <row r="326" spans="1:10">
+      <c r="K325"/>
+    </row>
+    <row r="326" spans="1:11">
       <c r="B326" s="56"/>
       <c r="C326" s="56"/>
       <c r="D326" s="56"/>
       <c r="E326" s="57"/>
       <c r="F326" s="200"/>
       <c r="G326" s="36"/>
-      <c r="H326" s="193"/>
-      <c r="I326"/>
+      <c r="H326" s="36"/>
+      <c r="I326" s="193"/>
       <c r="J326"/>
-    </row>
-    <row r="327" spans="1:10">
+      <c r="K326"/>
+    </row>
+    <row r="327" spans="1:11">
       <c r="B327" s="56"/>
       <c r="C327" s="56"/>
       <c r="D327" s="56"/>
       <c r="E327" s="57"/>
       <c r="F327" s="200"/>
       <c r="G327" s="36"/>
-      <c r="H327" s="193"/>
-      <c r="I327"/>
+      <c r="H327" s="36"/>
+      <c r="I327" s="193"/>
       <c r="J327"/>
-    </row>
-    <row r="328" spans="1:10" ht="12.5">
+      <c r="K327"/>
+    </row>
+    <row r="328" spans="1:11" ht="12.5">
       <c r="A328" s="108"/>
       <c r="E328"/>
       <c r="F328" s="108"/>
       <c r="G328" s="36"/>
-      <c r="I328"/>
+      <c r="H328" s="36"/>
       <c r="J328"/>
-    </row>
-    <row r="329" spans="1:10">
+      <c r="K328"/>
+    </row>
+    <row r="329" spans="1:11">
       <c r="A329" s="56"/>
       <c r="B329" s="56"/>
       <c r="C329" s="56"/>
@@ -5815,32 +6122,36 @@
       <c r="E329" s="57"/>
       <c r="F329" s="198"/>
       <c r="G329" s="219"/>
-      <c r="H329" s="193"/>
-      <c r="I329"/>
+      <c r="H329" s="36"/>
+      <c r="I329" s="193"/>
       <c r="J329"/>
-    </row>
-    <row r="330" spans="1:10" ht="12.5">
+      <c r="K329"/>
+    </row>
+    <row r="330" spans="1:11" ht="12.5">
       <c r="E330"/>
       <c r="F330" s="108"/>
       <c r="G330" s="36"/>
-      <c r="I330"/>
+      <c r="H330" s="219"/>
       <c r="J330"/>
-    </row>
-    <row r="331" spans="1:10" ht="12.5">
+      <c r="K330"/>
+    </row>
+    <row r="331" spans="1:11" ht="12.5">
       <c r="A331" s="108"/>
       <c r="E331"/>
       <c r="F331" s="108"/>
-      <c r="I331"/>
+      <c r="H331" s="219"/>
       <c r="J331"/>
-    </row>
-    <row r="332" spans="1:10" ht="12.5">
+      <c r="K331"/>
+    </row>
+    <row r="332" spans="1:11" ht="12.5">
       <c r="A332" s="108"/>
       <c r="E332"/>
       <c r="F332" s="108"/>
-      <c r="I332"/>
+      <c r="H332" s="36"/>
       <c r="J332"/>
-    </row>
-    <row r="333" spans="1:10">
+      <c r="K332"/>
+    </row>
+    <row r="333" spans="1:11">
       <c r="A333" s="56"/>
       <c r="B333" s="56"/>
       <c r="C333" s="56"/>
@@ -5848,41 +6159,46 @@
       <c r="E333" s="57"/>
       <c r="F333" s="198"/>
       <c r="G333" s="219"/>
-      <c r="H333" s="193"/>
-      <c r="I333"/>
+      <c r="H333" s="219"/>
+      <c r="I333" s="193"/>
       <c r="J333"/>
-    </row>
-    <row r="334" spans="1:10" ht="12.5">
+      <c r="K333"/>
+    </row>
+    <row r="334" spans="1:11" ht="12.5">
       <c r="E334"/>
       <c r="F334" s="108"/>
       <c r="G334" s="36"/>
-      <c r="I334"/>
+      <c r="H334" s="36"/>
       <c r="J334"/>
-    </row>
-    <row r="335" spans="1:10" ht="12.5">
+      <c r="K334"/>
+    </row>
+    <row r="335" spans="1:11" ht="12.5">
       <c r="A335" s="108"/>
       <c r="E335"/>
       <c r="F335" s="108"/>
       <c r="G335" s="36"/>
-      <c r="I335"/>
+      <c r="H335" s="36"/>
       <c r="J335"/>
-    </row>
-    <row r="336" spans="1:10" ht="12.5">
+      <c r="K335"/>
+    </row>
+    <row r="336" spans="1:11" ht="12.5">
       <c r="A336" s="108"/>
       <c r="E336"/>
       <c r="F336" s="108"/>
       <c r="G336" s="36"/>
-      <c r="I336"/>
+      <c r="H336" s="36"/>
       <c r="J336"/>
-    </row>
-    <row r="337" spans="1:10" ht="12.5">
+      <c r="K336"/>
+    </row>
+    <row r="337" spans="1:11" ht="12.5">
       <c r="A337" s="108"/>
       <c r="E337"/>
       <c r="F337" s="108"/>
-      <c r="I337"/>
+      <c r="H337" s="219"/>
       <c r="J337"/>
-    </row>
-    <row r="338" spans="1:10">
+      <c r="K337"/>
+    </row>
+    <row r="338" spans="1:11">
       <c r="A338" s="56"/>
       <c r="B338" s="56"/>
       <c r="C338" s="56"/>
@@ -5890,941 +6206,1058 @@
       <c r="E338" s="57"/>
       <c r="F338" s="198"/>
       <c r="G338" s="219"/>
-      <c r="H338" s="193"/>
-      <c r="I338"/>
+      <c r="H338" s="36"/>
+      <c r="I338" s="193"/>
       <c r="J338"/>
-    </row>
-    <row r="339" spans="1:10">
+      <c r="K338"/>
+    </row>
+    <row r="339" spans="1:11">
       <c r="A339" s="108"/>
       <c r="B339" s="56"/>
       <c r="F339" s="108"/>
       <c r="G339" s="36"/>
-      <c r="I339"/>
+      <c r="H339" s="36"/>
       <c r="J339"/>
-    </row>
-    <row r="340" spans="1:10">
+      <c r="K339"/>
+    </row>
+    <row r="340" spans="1:11">
       <c r="A340" s="108"/>
       <c r="B340" s="56"/>
       <c r="F340" s="108"/>
       <c r="G340" s="36"/>
-      <c r="I340"/>
+      <c r="H340" s="36"/>
       <c r="J340"/>
-    </row>
-    <row r="341" spans="1:10">
+      <c r="K340"/>
+    </row>
+    <row r="341" spans="1:11">
       <c r="A341" s="108"/>
       <c r="F341" s="108"/>
       <c r="G341" s="36"/>
-      <c r="I341"/>
+      <c r="H341" s="36"/>
       <c r="J341"/>
-    </row>
-    <row r="342" spans="1:10">
+      <c r="K341"/>
+    </row>
+    <row r="342" spans="1:11">
       <c r="A342" s="108"/>
       <c r="F342" s="108"/>
       <c r="G342" s="36"/>
-      <c r="I342"/>
+      <c r="H342" s="219"/>
       <c r="J342"/>
-    </row>
-    <row r="343" spans="1:10">
+      <c r="K342"/>
+    </row>
+    <row r="343" spans="1:11">
       <c r="A343" s="108"/>
       <c r="F343" s="108"/>
       <c r="G343" s="36"/>
-      <c r="I343"/>
+      <c r="H343" s="36"/>
       <c r="J343"/>
-    </row>
-    <row r="344" spans="1:10">
+      <c r="K343"/>
+    </row>
+    <row r="344" spans="1:11">
       <c r="A344" s="56"/>
       <c r="B344" s="56"/>
       <c r="C344" s="56"/>
       <c r="D344" s="56"/>
       <c r="F344" s="108"/>
       <c r="G344" s="36"/>
-      <c r="I344"/>
+      <c r="H344" s="36"/>
       <c r="J344"/>
-    </row>
-    <row r="345" spans="1:10" ht="12.5">
+      <c r="K344"/>
+    </row>
+    <row r="345" spans="1:11" ht="12.5">
       <c r="E345"/>
       <c r="F345" s="108"/>
       <c r="G345" s="36"/>
-      <c r="I345"/>
+      <c r="H345" s="36"/>
       <c r="J345"/>
-    </row>
-    <row r="346" spans="1:10" ht="12.5">
+      <c r="K345"/>
+    </row>
+    <row r="346" spans="1:11" ht="12.5">
       <c r="A346" s="108"/>
       <c r="E346"/>
       <c r="F346" s="108"/>
       <c r="G346" s="36"/>
-      <c r="I346"/>
+      <c r="H346" s="36"/>
       <c r="J346"/>
-    </row>
-    <row r="347" spans="1:10" ht="12.5">
+      <c r="K346"/>
+    </row>
+    <row r="347" spans="1:11" ht="12.5">
       <c r="A347" s="108"/>
       <c r="E347"/>
       <c r="F347" s="108"/>
       <c r="G347" s="36"/>
-      <c r="I347"/>
+      <c r="H347" s="36"/>
       <c r="J347"/>
-    </row>
-    <row r="348" spans="1:10" ht="12.5">
+      <c r="K347"/>
+    </row>
+    <row r="348" spans="1:11" ht="12.5">
       <c r="A348" s="108"/>
       <c r="E348"/>
       <c r="F348" s="108"/>
       <c r="G348" s="36"/>
-      <c r="I348"/>
+      <c r="H348" s="36"/>
       <c r="J348"/>
-    </row>
-    <row r="349" spans="1:10" ht="12.5">
+      <c r="K348"/>
+    </row>
+    <row r="349" spans="1:11" ht="12.5">
       <c r="A349" s="108"/>
       <c r="E349"/>
       <c r="F349" s="108"/>
       <c r="G349" s="36"/>
-      <c r="I349"/>
+      <c r="H349" s="36"/>
       <c r="J349"/>
-    </row>
-    <row r="350" spans="1:10" ht="12.5">
+      <c r="K349"/>
+    </row>
+    <row r="350" spans="1:11" ht="12.5">
       <c r="A350" s="108"/>
       <c r="E350"/>
       <c r="F350" s="108"/>
       <c r="G350" s="36"/>
-      <c r="I350"/>
+      <c r="H350" s="36"/>
       <c r="J350"/>
-    </row>
-    <row r="351" spans="1:10" ht="12.5">
+      <c r="K350"/>
+    </row>
+    <row r="351" spans="1:11" ht="12.5">
       <c r="A351" s="108"/>
       <c r="E351"/>
       <c r="F351" s="108"/>
       <c r="G351" s="36"/>
-      <c r="I351"/>
+      <c r="H351" s="36"/>
       <c r="J351"/>
-    </row>
-    <row r="352" spans="1:10" ht="12.5">
+      <c r="K351"/>
+    </row>
+    <row r="352" spans="1:11" ht="12.5">
       <c r="A352" s="108"/>
       <c r="B352" s="220"/>
       <c r="E352"/>
       <c r="F352" s="108"/>
-      <c r="I352"/>
+      <c r="H352" s="36"/>
       <c r="J352"/>
-    </row>
-    <row r="353" spans="1:10" ht="12.5">
+      <c r="K352"/>
+    </row>
+    <row r="353" spans="1:11" ht="12.5">
       <c r="A353" s="108"/>
       <c r="E353"/>
       <c r="F353" s="108"/>
-      <c r="I353"/>
+      <c r="H353" s="36"/>
       <c r="J353"/>
-    </row>
-    <row r="354" spans="1:10" ht="12.5">
+      <c r="K353"/>
+    </row>
+    <row r="354" spans="1:11" ht="12.5">
       <c r="A354" s="108"/>
       <c r="E354"/>
       <c r="F354" s="108"/>
       <c r="G354" s="36"/>
-      <c r="I354"/>
+      <c r="H354" s="36"/>
       <c r="J354"/>
-    </row>
-    <row r="355" spans="1:10" ht="12.5">
+      <c r="K354"/>
+    </row>
+    <row r="355" spans="1:11" ht="12.5">
       <c r="A355" s="108"/>
       <c r="E355"/>
       <c r="F355" s="108"/>
       <c r="G355" s="36"/>
-      <c r="I355"/>
+      <c r="H355" s="36"/>
       <c r="J355"/>
-    </row>
-    <row r="356" spans="1:10" ht="12.5">
+      <c r="K355"/>
+    </row>
+    <row r="356" spans="1:11" ht="12.5">
       <c r="A356" s="108"/>
       <c r="E356"/>
       <c r="F356" s="108"/>
       <c r="G356" s="36"/>
-      <c r="I356"/>
+      <c r="H356" s="36"/>
       <c r="J356"/>
-    </row>
-    <row r="357" spans="1:10" ht="12.5">
+      <c r="K356"/>
+    </row>
+    <row r="357" spans="1:11" ht="12.5">
       <c r="A357" s="108"/>
       <c r="E357"/>
       <c r="F357" s="108"/>
       <c r="G357" s="36"/>
-      <c r="I357"/>
+      <c r="H357" s="36"/>
       <c r="J357"/>
-    </row>
-    <row r="358" spans="1:10" ht="12.5">
+      <c r="K357"/>
+    </row>
+    <row r="358" spans="1:11" ht="12.5">
       <c r="A358" s="108"/>
       <c r="E358"/>
       <c r="F358" s="108"/>
       <c r="G358" s="36"/>
-      <c r="I358"/>
+      <c r="H358" s="36"/>
       <c r="J358"/>
-    </row>
-    <row r="359" spans="1:10" ht="12.5">
+      <c r="K358"/>
+    </row>
+    <row r="359" spans="1:11" ht="12.5">
       <c r="A359" s="108"/>
       <c r="E359"/>
       <c r="F359" s="108"/>
       <c r="G359" s="36"/>
-      <c r="I359"/>
+      <c r="H359" s="36"/>
       <c r="J359"/>
-    </row>
-    <row r="360" spans="1:10" ht="12.5">
+      <c r="K359"/>
+    </row>
+    <row r="360" spans="1:11" ht="12.5">
       <c r="A360" s="108"/>
       <c r="B360" s="108"/>
       <c r="E360"/>
       <c r="F360" s="108"/>
       <c r="G360" s="36"/>
-      <c r="I360"/>
+      <c r="H360" s="36"/>
       <c r="J360"/>
-    </row>
-    <row r="361" spans="1:10" ht="12.5">
+      <c r="K360"/>
+    </row>
+    <row r="361" spans="1:11" ht="12.5">
       <c r="A361" s="108"/>
       <c r="B361" s="108"/>
       <c r="E361"/>
       <c r="F361" s="108"/>
       <c r="G361" s="36"/>
-      <c r="I361"/>
+      <c r="H361" s="36"/>
       <c r="J361"/>
-    </row>
-    <row r="362" spans="1:10" ht="12.5">
+      <c r="K361"/>
+    </row>
+    <row r="362" spans="1:11" ht="12.5">
       <c r="A362" s="108"/>
       <c r="B362" s="108"/>
       <c r="E362"/>
       <c r="F362" s="108"/>
       <c r="G362" s="36"/>
-      <c r="I362"/>
+      <c r="H362" s="36"/>
       <c r="J362"/>
-    </row>
-    <row r="363" spans="1:10" ht="12.5">
+      <c r="K362"/>
+    </row>
+    <row r="363" spans="1:11" ht="12.5">
       <c r="A363" s="108"/>
       <c r="B363" s="108"/>
       <c r="E363"/>
       <c r="F363" s="108"/>
       <c r="G363" s="36"/>
-      <c r="I363"/>
+      <c r="H363" s="36"/>
       <c r="J363"/>
-    </row>
-    <row r="364" spans="1:10" ht="12.5">
+      <c r="K363"/>
+    </row>
+    <row r="364" spans="1:11" ht="12.5">
       <c r="A364" s="108"/>
       <c r="B364" s="108"/>
       <c r="E364"/>
       <c r="F364" s="108"/>
       <c r="G364" s="36"/>
-      <c r="I364"/>
+      <c r="H364" s="36"/>
       <c r="J364"/>
-    </row>
-    <row r="365" spans="1:10" ht="12.5">
+      <c r="K364"/>
+    </row>
+    <row r="365" spans="1:11" ht="12.5">
       <c r="A365" s="108"/>
       <c r="E365"/>
       <c r="F365" s="108"/>
       <c r="G365" s="36"/>
-      <c r="I365"/>
+      <c r="H365" s="36"/>
       <c r="J365"/>
-    </row>
-    <row r="366" spans="1:10" ht="12.5">
+      <c r="K365"/>
+    </row>
+    <row r="366" spans="1:11" ht="12.5">
       <c r="A366" s="108"/>
       <c r="E366"/>
       <c r="F366" s="108"/>
       <c r="G366" s="36"/>
-      <c r="I366"/>
+      <c r="H366" s="36"/>
       <c r="J366"/>
-    </row>
-    <row r="367" spans="1:10" ht="12.5">
+      <c r="K366"/>
+    </row>
+    <row r="367" spans="1:11" ht="12.5">
       <c r="A367" s="108"/>
       <c r="E367"/>
       <c r="F367" s="108"/>
       <c r="G367" s="36"/>
-      <c r="I367"/>
+      <c r="H367" s="36"/>
       <c r="J367"/>
-    </row>
-    <row r="368" spans="1:10" ht="12.5">
+      <c r="K367"/>
+    </row>
+    <row r="368" spans="1:11" ht="12.5">
       <c r="A368" s="108"/>
       <c r="E368"/>
       <c r="F368" s="108"/>
       <c r="G368" s="36"/>
-      <c r="I368"/>
+      <c r="H368" s="36"/>
       <c r="J368"/>
-    </row>
-    <row r="369" spans="1:10" ht="12.5">
+      <c r="K368"/>
+    </row>
+    <row r="369" spans="1:11" ht="12.5">
       <c r="A369" s="108"/>
       <c r="E369"/>
       <c r="F369" s="108"/>
       <c r="G369" s="36"/>
-      <c r="I369"/>
+      <c r="H369" s="36"/>
       <c r="J369"/>
-    </row>
-    <row r="370" spans="1:10" ht="12.5">
+      <c r="K369"/>
+    </row>
+    <row r="370" spans="1:11" ht="12.5">
       <c r="A370" s="108"/>
       <c r="E370"/>
       <c r="F370" s="108"/>
       <c r="G370" s="36"/>
-      <c r="I370"/>
+      <c r="H370" s="36"/>
       <c r="J370"/>
-    </row>
-    <row r="371" spans="1:10" ht="12.5">
+      <c r="K370"/>
+    </row>
+    <row r="371" spans="1:11" ht="12.5">
       <c r="A371" s="108"/>
       <c r="E371"/>
       <c r="F371" s="108"/>
       <c r="G371" s="36"/>
-      <c r="I371"/>
+      <c r="H371" s="36"/>
       <c r="J371"/>
-    </row>
-    <row r="372" spans="1:10" ht="12.5">
+      <c r="K371"/>
+    </row>
+    <row r="372" spans="1:11" ht="12.5">
       <c r="A372" s="108"/>
       <c r="E372"/>
       <c r="F372" s="108"/>
       <c r="G372" s="36"/>
-      <c r="I372"/>
+      <c r="H372" s="36"/>
       <c r="J372"/>
-    </row>
-    <row r="373" spans="1:10" ht="12.5">
+      <c r="K372"/>
+    </row>
+    <row r="373" spans="1:11" ht="12.5">
       <c r="A373" s="108"/>
       <c r="E373"/>
       <c r="F373" s="108"/>
       <c r="G373" s="36"/>
-      <c r="I373"/>
+      <c r="H373" s="36"/>
       <c r="J373"/>
-    </row>
-    <row r="374" spans="1:10" ht="12.5">
+      <c r="K373"/>
+    </row>
+    <row r="374" spans="1:11" ht="12.5">
       <c r="A374" s="108"/>
       <c r="E374"/>
       <c r="F374" s="108"/>
       <c r="G374" s="36"/>
-      <c r="I374"/>
+      <c r="H374" s="36"/>
       <c r="J374"/>
-    </row>
-    <row r="375" spans="1:10" ht="12.5">
+      <c r="K374"/>
+    </row>
+    <row r="375" spans="1:11" ht="12.5">
       <c r="A375" s="108"/>
       <c r="E375"/>
       <c r="F375" s="108"/>
       <c r="G375" s="36"/>
-      <c r="I375"/>
+      <c r="H375" s="36"/>
       <c r="J375"/>
-    </row>
-    <row r="376" spans="1:10" ht="12.5">
+      <c r="K375"/>
+    </row>
+    <row r="376" spans="1:11" ht="12.5">
       <c r="A376" s="108"/>
       <c r="E376"/>
       <c r="F376" s="108"/>
       <c r="G376" s="36"/>
-      <c r="I376"/>
+      <c r="H376" s="36"/>
       <c r="J376"/>
-    </row>
-    <row r="377" spans="1:10" ht="12.5">
+      <c r="K376"/>
+    </row>
+    <row r="377" spans="1:11" ht="12.5">
       <c r="A377" s="108"/>
       <c r="E377"/>
       <c r="F377" s="108"/>
       <c r="G377" s="36"/>
-      <c r="I377"/>
+      <c r="H377" s="36"/>
       <c r="J377"/>
-    </row>
-    <row r="378" spans="1:10" ht="12.5">
+      <c r="K377"/>
+    </row>
+    <row r="378" spans="1:11" ht="12.5">
       <c r="A378" s="108"/>
       <c r="E378"/>
       <c r="F378" s="108"/>
       <c r="G378" s="36"/>
-      <c r="I378"/>
+      <c r="H378" s="36"/>
       <c r="J378"/>
-    </row>
-    <row r="379" spans="1:10" ht="12.5">
+      <c r="K378"/>
+    </row>
+    <row r="379" spans="1:11" ht="12.5">
       <c r="A379" s="108"/>
       <c r="E379"/>
       <c r="F379" s="108"/>
       <c r="G379" s="36"/>
-      <c r="I379"/>
+      <c r="H379" s="36"/>
       <c r="J379"/>
-    </row>
-    <row r="380" spans="1:10" ht="12.5">
+      <c r="K379"/>
+    </row>
+    <row r="380" spans="1:11" ht="12.5">
       <c r="A380" s="108"/>
       <c r="E380"/>
       <c r="F380" s="108"/>
       <c r="G380" s="36"/>
-      <c r="I380"/>
+      <c r="H380" s="36"/>
       <c r="J380"/>
-    </row>
-    <row r="381" spans="1:10" ht="12.5">
+      <c r="K380"/>
+    </row>
+    <row r="381" spans="1:11" ht="12.5">
       <c r="A381" s="108"/>
       <c r="E381"/>
       <c r="F381" s="108"/>
       <c r="G381" s="36"/>
-      <c r="I381"/>
+      <c r="H381" s="36"/>
       <c r="J381"/>
-    </row>
-    <row r="382" spans="1:10" ht="12.5">
+      <c r="K381"/>
+    </row>
+    <row r="382" spans="1:11" ht="12.5">
       <c r="A382" s="108"/>
       <c r="E382"/>
       <c r="F382" s="108"/>
       <c r="G382" s="36"/>
-      <c r="I382"/>
+      <c r="H382" s="36"/>
       <c r="J382"/>
-    </row>
-    <row r="383" spans="1:10" ht="12.5">
+      <c r="K382"/>
+    </row>
+    <row r="383" spans="1:11" ht="12.5">
       <c r="A383" s="108"/>
       <c r="E383"/>
       <c r="F383" s="108"/>
       <c r="G383" s="36"/>
-      <c r="I383"/>
+      <c r="H383" s="36"/>
       <c r="J383"/>
-    </row>
-    <row r="384" spans="1:10" ht="12.5">
+      <c r="K383"/>
+    </row>
+    <row r="384" spans="1:11" ht="12.5">
       <c r="A384" s="108"/>
       <c r="E384"/>
       <c r="F384" s="108"/>
       <c r="G384" s="36"/>
-      <c r="I384"/>
+      <c r="H384" s="36"/>
       <c r="J384"/>
-    </row>
-    <row r="385" spans="1:10" ht="12.5">
+      <c r="K384"/>
+    </row>
+    <row r="385" spans="1:11" ht="12.5">
       <c r="A385" s="108"/>
       <c r="E385"/>
       <c r="F385" s="108"/>
       <c r="G385" s="36"/>
-      <c r="I385"/>
+      <c r="H385" s="36"/>
       <c r="J385"/>
-    </row>
-    <row r="386" spans="1:10" ht="12.5">
+      <c r="K385"/>
+    </row>
+    <row r="386" spans="1:11" ht="12.5">
       <c r="A386" s="108"/>
       <c r="E386"/>
       <c r="F386" s="108"/>
       <c r="G386" s="36"/>
-      <c r="I386"/>
+      <c r="H386" s="36"/>
       <c r="J386"/>
-    </row>
-    <row r="387" spans="1:10" ht="12.5">
+      <c r="K386"/>
+    </row>
+    <row r="387" spans="1:11" ht="12.5">
       <c r="A387" s="108"/>
       <c r="E387"/>
       <c r="F387" s="108"/>
       <c r="G387" s="36"/>
-      <c r="I387"/>
+      <c r="H387" s="36"/>
       <c r="J387"/>
-    </row>
-    <row r="388" spans="1:10" ht="12.5">
+      <c r="K387"/>
+    </row>
+    <row r="388" spans="1:11" ht="12.5">
       <c r="A388" s="108"/>
       <c r="E388"/>
       <c r="F388" s="108"/>
       <c r="G388" s="36"/>
-      <c r="I388"/>
+      <c r="H388" s="36"/>
       <c r="J388"/>
-    </row>
-    <row r="389" spans="1:10" ht="12.5">
+      <c r="K388"/>
+    </row>
+    <row r="389" spans="1:11" ht="12.5">
       <c r="A389" s="108"/>
       <c r="E389"/>
       <c r="F389" s="108"/>
       <c r="G389" s="36"/>
-      <c r="I389"/>
+      <c r="H389" s="36"/>
       <c r="J389"/>
-    </row>
-    <row r="390" spans="1:10" ht="12.5">
+      <c r="K389"/>
+    </row>
+    <row r="390" spans="1:11" ht="12.5">
       <c r="A390" s="108"/>
       <c r="E390"/>
       <c r="F390" s="108"/>
       <c r="G390" s="36"/>
-      <c r="I390"/>
+      <c r="H390" s="36"/>
       <c r="J390"/>
-    </row>
-    <row r="391" spans="1:10" ht="12.5">
+      <c r="K390"/>
+    </row>
+    <row r="391" spans="1:11" ht="12.5">
       <c r="A391" s="108"/>
       <c r="E391"/>
       <c r="F391" s="108"/>
       <c r="G391" s="36"/>
-      <c r="I391"/>
+      <c r="H391" s="36"/>
       <c r="J391"/>
-    </row>
-    <row r="392" spans="1:10" ht="12.5">
+      <c r="K391"/>
+    </row>
+    <row r="392" spans="1:11" ht="12.5">
       <c r="A392" s="108"/>
       <c r="E392"/>
       <c r="F392" s="108"/>
       <c r="G392" s="36"/>
-      <c r="I392"/>
+      <c r="H392" s="36"/>
       <c r="J392"/>
-    </row>
-    <row r="393" spans="1:10" ht="12.5">
+      <c r="K392"/>
+    </row>
+    <row r="393" spans="1:11" ht="12.5">
       <c r="A393" s="108"/>
       <c r="E393"/>
       <c r="F393" s="108"/>
       <c r="G393" s="36"/>
-      <c r="I393"/>
+      <c r="H393" s="36"/>
       <c r="J393"/>
-    </row>
-    <row r="394" spans="1:10" ht="12.5">
+      <c r="K393"/>
+    </row>
+    <row r="394" spans="1:11" ht="12.5">
       <c r="A394" s="108"/>
       <c r="E394"/>
       <c r="F394" s="108"/>
       <c r="G394" s="36"/>
-      <c r="I394"/>
+      <c r="H394" s="36"/>
       <c r="J394"/>
-    </row>
-    <row r="395" spans="1:10" ht="12.5">
+      <c r="K394"/>
+    </row>
+    <row r="395" spans="1:11" ht="12.5">
       <c r="A395" s="108"/>
       <c r="E395"/>
       <c r="F395" s="108"/>
       <c r="G395" s="36"/>
-      <c r="I395"/>
+      <c r="H395" s="36"/>
       <c r="J395"/>
-    </row>
-    <row r="396" spans="1:10" ht="12.5">
+      <c r="K395"/>
+    </row>
+    <row r="396" spans="1:11" ht="12.5">
       <c r="A396" s="108"/>
       <c r="E396"/>
       <c r="F396" s="108"/>
       <c r="G396" s="36"/>
-      <c r="I396"/>
+      <c r="H396" s="36"/>
       <c r="J396"/>
-    </row>
-    <row r="397" spans="1:10" ht="12.5">
+      <c r="K396"/>
+    </row>
+    <row r="397" spans="1:11" ht="12.5">
       <c r="A397" s="108"/>
       <c r="E397"/>
       <c r="F397" s="108"/>
       <c r="G397" s="36"/>
-      <c r="I397"/>
+      <c r="H397" s="36"/>
       <c r="J397"/>
-    </row>
-    <row r="398" spans="1:10" ht="12.5">
+      <c r="K397"/>
+    </row>
+    <row r="398" spans="1:11" ht="12.5">
       <c r="A398" s="108"/>
       <c r="E398"/>
       <c r="F398" s="108"/>
       <c r="G398" s="36"/>
-      <c r="I398"/>
+      <c r="H398" s="36"/>
       <c r="J398"/>
-    </row>
-    <row r="399" spans="1:10" ht="12.5">
+      <c r="K398"/>
+    </row>
+    <row r="399" spans="1:11" ht="12.5">
       <c r="A399" s="108"/>
       <c r="E399"/>
       <c r="F399" s="108"/>
       <c r="G399" s="36"/>
-      <c r="I399"/>
+      <c r="H399" s="36"/>
       <c r="J399"/>
-    </row>
-    <row r="400" spans="1:10" ht="12.5">
+      <c r="K399"/>
+    </row>
+    <row r="400" spans="1:11" ht="12.5">
       <c r="A400" s="108"/>
       <c r="E400"/>
       <c r="F400" s="108"/>
       <c r="G400" s="36"/>
-      <c r="I400"/>
+      <c r="H400" s="36"/>
       <c r="J400"/>
-    </row>
-    <row r="401" spans="1:10" ht="12.5">
+      <c r="K400"/>
+    </row>
+    <row r="401" spans="1:11" ht="12.5">
       <c r="A401" s="108"/>
       <c r="E401"/>
       <c r="F401" s="108"/>
       <c r="G401" s="36"/>
-      <c r="I401"/>
+      <c r="H401" s="36"/>
       <c r="J401"/>
-    </row>
-    <row r="402" spans="1:10" ht="12.5">
+      <c r="K401"/>
+    </row>
+    <row r="402" spans="1:11" ht="12.5">
       <c r="A402" s="108"/>
       <c r="E402"/>
       <c r="F402" s="108"/>
       <c r="G402" s="36"/>
-      <c r="I402"/>
+      <c r="H402" s="36"/>
       <c r="J402"/>
-    </row>
-    <row r="403" spans="1:10" ht="12.5">
+      <c r="K402"/>
+    </row>
+    <row r="403" spans="1:11" ht="12.5">
       <c r="A403" s="108"/>
       <c r="E403"/>
       <c r="F403" s="108"/>
       <c r="G403" s="36"/>
-      <c r="I403"/>
+      <c r="H403" s="36"/>
       <c r="J403"/>
-    </row>
-    <row r="404" spans="1:10" ht="12.5">
+      <c r="K403"/>
+    </row>
+    <row r="404" spans="1:11" ht="12.5">
       <c r="A404" s="108"/>
       <c r="E404"/>
       <c r="F404" s="108"/>
       <c r="G404" s="36"/>
-      <c r="I404"/>
+      <c r="H404" s="36"/>
       <c r="J404"/>
-    </row>
-    <row r="405" spans="1:10" ht="12.5">
+      <c r="K404"/>
+    </row>
+    <row r="405" spans="1:11" ht="12.5">
       <c r="A405" s="108"/>
       <c r="E405"/>
       <c r="F405" s="108"/>
       <c r="G405" s="36"/>
-      <c r="I405"/>
+      <c r="H405" s="36"/>
       <c r="J405"/>
-    </row>
-    <row r="406" spans="1:10" ht="12.5">
+      <c r="K405"/>
+    </row>
+    <row r="406" spans="1:11" ht="12.5">
       <c r="A406" s="108"/>
       <c r="E406"/>
       <c r="F406" s="108"/>
       <c r="G406" s="36"/>
-      <c r="I406"/>
+      <c r="H406" s="36"/>
       <c r="J406"/>
-    </row>
-    <row r="407" spans="1:10" ht="12.5">
+      <c r="K406"/>
+    </row>
+    <row r="407" spans="1:11" ht="12.5">
       <c r="A407" s="108"/>
       <c r="E407"/>
       <c r="F407" s="108"/>
       <c r="G407" s="36"/>
-      <c r="I407"/>
+      <c r="H407" s="36"/>
       <c r="J407"/>
-    </row>
-    <row r="408" spans="1:10" ht="12.5">
+      <c r="K407"/>
+    </row>
+    <row r="408" spans="1:11" ht="12.5">
       <c r="A408" s="108"/>
       <c r="E408"/>
       <c r="F408" s="108"/>
       <c r="G408" s="36"/>
-      <c r="I408"/>
+      <c r="H408" s="36"/>
       <c r="J408"/>
-    </row>
-    <row r="409" spans="1:10" ht="12.5">
+      <c r="K408"/>
+    </row>
+    <row r="409" spans="1:11" ht="12.5">
       <c r="A409" s="108"/>
       <c r="E409"/>
       <c r="F409" s="108"/>
       <c r="G409" s="36"/>
-      <c r="I409"/>
+      <c r="H409" s="36"/>
       <c r="J409"/>
-    </row>
-    <row r="410" spans="1:10" ht="12.5">
+      <c r="K409"/>
+    </row>
+    <row r="410" spans="1:11" ht="12.5">
       <c r="A410" s="108"/>
       <c r="E410"/>
       <c r="F410" s="108"/>
       <c r="G410" s="36"/>
-      <c r="I410"/>
+      <c r="H410" s="36"/>
       <c r="J410"/>
-    </row>
-    <row r="411" spans="1:10" ht="12.5">
+      <c r="K410"/>
+    </row>
+    <row r="411" spans="1:11" ht="12.5">
       <c r="A411" s="108"/>
       <c r="E411"/>
       <c r="F411" s="108"/>
       <c r="G411" s="36"/>
-      <c r="I411"/>
+      <c r="H411" s="36"/>
       <c r="J411"/>
-    </row>
-    <row r="412" spans="1:10" ht="12.5">
+      <c r="K411"/>
+    </row>
+    <row r="412" spans="1:11" ht="12.5">
       <c r="A412" s="108"/>
       <c r="E412"/>
       <c r="F412" s="108"/>
       <c r="G412" s="36"/>
-      <c r="I412"/>
+      <c r="H412" s="36"/>
       <c r="J412"/>
-    </row>
-    <row r="413" spans="1:10" ht="12.5">
+      <c r="K412"/>
+    </row>
+    <row r="413" spans="1:11" ht="12.5">
       <c r="A413" s="108"/>
       <c r="E413"/>
       <c r="F413" s="108"/>
       <c r="G413" s="36"/>
-      <c r="I413"/>
+      <c r="H413" s="36"/>
       <c r="J413"/>
-    </row>
-    <row r="414" spans="1:10" ht="12.5">
+      <c r="K413"/>
+    </row>
+    <row r="414" spans="1:11" ht="12.5">
       <c r="A414" s="108"/>
       <c r="E414"/>
       <c r="F414" s="108"/>
       <c r="G414" s="36"/>
-      <c r="I414"/>
+      <c r="H414" s="36"/>
       <c r="J414"/>
-    </row>
-    <row r="415" spans="1:10" ht="12.5">
+      <c r="K414"/>
+    </row>
+    <row r="415" spans="1:11" ht="12.5">
       <c r="A415" s="108"/>
       <c r="E415"/>
       <c r="F415" s="108"/>
       <c r="G415" s="36"/>
-      <c r="I415"/>
+      <c r="H415" s="36"/>
       <c r="J415"/>
-    </row>
-    <row r="416" spans="1:10" ht="12.5">
+      <c r="K415"/>
+    </row>
+    <row r="416" spans="1:11" ht="12.5">
       <c r="A416" s="108"/>
       <c r="E416"/>
       <c r="F416" s="108"/>
       <c r="G416" s="36"/>
-      <c r="I416"/>
+      <c r="H416" s="36"/>
       <c r="J416"/>
-    </row>
-    <row r="417" spans="1:10" ht="12.5">
+      <c r="K416"/>
+    </row>
+    <row r="417" spans="1:11" ht="12.5">
       <c r="A417" s="108"/>
       <c r="E417"/>
       <c r="F417" s="108"/>
       <c r="G417" s="36"/>
-      <c r="I417"/>
+      <c r="H417" s="36"/>
       <c r="J417"/>
-    </row>
-    <row r="418" spans="1:10" ht="12.5">
+      <c r="K417"/>
+    </row>
+    <row r="418" spans="1:11" ht="12.5">
       <c r="A418" s="108"/>
       <c r="E418"/>
       <c r="F418" s="108"/>
       <c r="G418" s="36"/>
-      <c r="I418"/>
+      <c r="H418" s="36"/>
       <c r="J418"/>
-    </row>
-    <row r="419" spans="1:10" ht="12.5">
+      <c r="K418"/>
+    </row>
+    <row r="419" spans="1:11" ht="12.5">
       <c r="A419" s="108"/>
       <c r="E419"/>
       <c r="F419" s="108"/>
       <c r="G419" s="36"/>
-      <c r="I419"/>
+      <c r="H419" s="36"/>
       <c r="J419"/>
-    </row>
-    <row r="420" spans="1:10" ht="12.5">
+      <c r="K419"/>
+    </row>
+    <row r="420" spans="1:11" ht="12.5">
       <c r="A420" s="108"/>
       <c r="E420"/>
       <c r="F420" s="108"/>
       <c r="G420" s="36"/>
-      <c r="I420"/>
+      <c r="H420" s="36"/>
       <c r="J420"/>
-    </row>
-    <row r="421" spans="1:10" ht="12.5">
+      <c r="K420"/>
+    </row>
+    <row r="421" spans="1:11" ht="12.5">
       <c r="A421" s="108"/>
       <c r="E421"/>
       <c r="F421" s="108"/>
       <c r="G421" s="36"/>
-      <c r="I421"/>
+      <c r="H421" s="36"/>
       <c r="J421"/>
-    </row>
-    <row r="422" spans="1:10" ht="12.5">
+      <c r="K421"/>
+    </row>
+    <row r="422" spans="1:11" ht="12.5">
       <c r="A422" s="108"/>
       <c r="E422"/>
       <c r="F422" s="108"/>
       <c r="G422" s="36"/>
-      <c r="I422"/>
+      <c r="H422" s="36"/>
       <c r="J422"/>
-    </row>
-    <row r="423" spans="1:10" ht="12.5">
+      <c r="K422"/>
+    </row>
+    <row r="423" spans="1:11" ht="12.5">
       <c r="A423" s="108"/>
       <c r="E423"/>
       <c r="F423" s="108"/>
       <c r="G423" s="36"/>
-      <c r="I423"/>
+      <c r="H423" s="36"/>
       <c r="J423"/>
-    </row>
-    <row r="424" spans="1:10" ht="12.5">
+      <c r="K423"/>
+    </row>
+    <row r="424" spans="1:11" ht="12.5">
       <c r="A424" s="108"/>
       <c r="E424"/>
       <c r="F424" s="108"/>
       <c r="G424" s="36"/>
-      <c r="I424"/>
+      <c r="H424" s="36"/>
       <c r="J424"/>
-    </row>
-    <row r="425" spans="1:10" ht="12.5">
+      <c r="K424"/>
+    </row>
+    <row r="425" spans="1:11" ht="12.5">
       <c r="A425" s="108"/>
       <c r="E425"/>
       <c r="F425" s="108"/>
       <c r="G425" s="36"/>
-      <c r="I425"/>
+      <c r="H425" s="36"/>
       <c r="J425"/>
-    </row>
-    <row r="426" spans="1:10" ht="12.5">
+      <c r="K425"/>
+    </row>
+    <row r="426" spans="1:11" ht="12.5">
       <c r="A426" s="108"/>
       <c r="E426"/>
       <c r="F426" s="108"/>
       <c r="G426" s="36"/>
-      <c r="I426"/>
+      <c r="H426" s="36"/>
       <c r="J426"/>
-    </row>
-    <row r="427" spans="1:10" ht="12.5">
+      <c r="K426"/>
+    </row>
+    <row r="427" spans="1:11" ht="12.5">
       <c r="A427" s="108"/>
       <c r="E427"/>
       <c r="F427" s="108"/>
       <c r="G427" s="36"/>
-      <c r="I427"/>
+      <c r="H427" s="36"/>
       <c r="J427"/>
-    </row>
-    <row r="428" spans="1:10" ht="12.5">
+      <c r="K427"/>
+    </row>
+    <row r="428" spans="1:11" ht="12.5">
       <c r="A428" s="108"/>
       <c r="E428"/>
       <c r="F428" s="108"/>
       <c r="G428" s="36"/>
-      <c r="I428"/>
+      <c r="H428" s="36"/>
       <c r="J428"/>
-    </row>
-    <row r="429" spans="1:10" ht="12.5">
+      <c r="K428"/>
+    </row>
+    <row r="429" spans="1:11" ht="12.5">
       <c r="A429" s="108"/>
       <c r="E429"/>
       <c r="F429" s="108"/>
       <c r="G429" s="36"/>
-      <c r="I429"/>
+      <c r="H429" s="36"/>
       <c r="J429"/>
-    </row>
-    <row r="430" spans="1:10" ht="12.5">
+      <c r="K429"/>
+    </row>
+    <row r="430" spans="1:11" ht="12.5">
       <c r="A430" s="108"/>
       <c r="E430"/>
       <c r="F430" s="108"/>
       <c r="G430" s="36"/>
-      <c r="I430"/>
+      <c r="H430" s="36"/>
       <c r="J430"/>
-    </row>
-    <row r="431" spans="1:10" ht="12.5">
+      <c r="K430"/>
+    </row>
+    <row r="431" spans="1:11" ht="12.5">
       <c r="A431" s="108"/>
       <c r="E431"/>
       <c r="F431" s="108"/>
       <c r="G431" s="36"/>
-      <c r="I431"/>
+      <c r="H431" s="36"/>
       <c r="J431"/>
-    </row>
-    <row r="432" spans="1:10" ht="12.5">
+      <c r="K431"/>
+    </row>
+    <row r="432" spans="1:11" ht="12.5">
       <c r="A432" s="108"/>
       <c r="E432"/>
       <c r="F432" s="108"/>
       <c r="G432" s="36"/>
-      <c r="I432"/>
+      <c r="H432" s="36"/>
       <c r="J432"/>
-    </row>
-    <row r="433" spans="1:10" ht="12.5">
+      <c r="K432"/>
+    </row>
+    <row r="433" spans="1:11" ht="12.5">
       <c r="A433" s="108"/>
       <c r="E433"/>
       <c r="F433" s="108"/>
       <c r="G433" s="36"/>
-      <c r="I433"/>
+      <c r="H433" s="36"/>
       <c r="J433"/>
-    </row>
-    <row r="434" spans="1:10" ht="12.5">
+      <c r="K433"/>
+    </row>
+    <row r="434" spans="1:11" ht="12.5">
       <c r="A434" s="108"/>
       <c r="E434"/>
       <c r="F434" s="108"/>
       <c r="G434" s="36"/>
-      <c r="I434"/>
+      <c r="H434" s="36"/>
       <c r="J434"/>
-    </row>
-    <row r="435" spans="1:10" ht="12.5">
+      <c r="K434"/>
+    </row>
+    <row r="435" spans="1:11" ht="12.5">
       <c r="A435" s="108"/>
       <c r="E435"/>
       <c r="F435" s="108"/>
       <c r="G435" s="36"/>
-      <c r="I435"/>
+      <c r="H435" s="36"/>
       <c r="J435"/>
-    </row>
-    <row r="436" spans="1:10" ht="12.5">
+      <c r="K435"/>
+    </row>
+    <row r="436" spans="1:11" ht="12.5">
       <c r="A436" s="108"/>
       <c r="E436"/>
       <c r="F436" s="108"/>
       <c r="G436" s="36"/>
-      <c r="I436"/>
+      <c r="H436" s="36"/>
       <c r="J436"/>
-    </row>
-    <row r="437" spans="1:10" ht="12.5">
+      <c r="K436"/>
+    </row>
+    <row r="437" spans="1:11" ht="12.5">
       <c r="A437" s="108"/>
       <c r="E437"/>
       <c r="F437" s="108"/>
       <c r="G437" s="36"/>
-      <c r="I437"/>
+      <c r="H437" s="36"/>
       <c r="J437"/>
-    </row>
-    <row r="438" spans="1:10" ht="12.5">
+      <c r="K437"/>
+    </row>
+    <row r="438" spans="1:11" ht="12.5">
       <c r="A438" s="108"/>
       <c r="E438"/>
       <c r="F438" s="108"/>
       <c r="G438" s="36"/>
-      <c r="I438"/>
+      <c r="H438" s="36"/>
       <c r="J438"/>
-    </row>
-    <row r="439" spans="1:10" ht="12.5">
+      <c r="K438"/>
+    </row>
+    <row r="439" spans="1:11" ht="12.5">
       <c r="A439" s="108"/>
       <c r="E439"/>
       <c r="F439" s="108"/>
       <c r="G439" s="36"/>
-      <c r="I439"/>
+      <c r="H439" s="36"/>
       <c r="J439"/>
-    </row>
-    <row r="440" spans="1:10" ht="12.5">
+      <c r="K439"/>
+    </row>
+    <row r="440" spans="1:11" ht="12.5">
       <c r="A440" s="108"/>
       <c r="E440"/>
       <c r="F440" s="108"/>
       <c r="G440" s="36"/>
-      <c r="I440"/>
+      <c r="H440" s="36"/>
       <c r="J440"/>
-    </row>
-    <row r="441" spans="1:10" ht="12.5">
+      <c r="K440"/>
+    </row>
+    <row r="441" spans="1:11" ht="12.5">
       <c r="A441" s="108"/>
       <c r="E441"/>
       <c r="F441" s="108"/>
       <c r="G441" s="36"/>
-      <c r="I441"/>
+      <c r="H441" s="36"/>
       <c r="J441"/>
-    </row>
-    <row r="442" spans="1:10" ht="12.5">
+      <c r="K441"/>
+    </row>
+    <row r="442" spans="1:11" ht="12.5">
       <c r="A442" s="108"/>
       <c r="E442"/>
       <c r="F442" s="108"/>
       <c r="G442" s="36"/>
-      <c r="I442"/>
+      <c r="H442" s="36"/>
       <c r="J442"/>
-    </row>
-    <row r="443" spans="1:10" ht="12.5">
+      <c r="K442"/>
+    </row>
+    <row r="443" spans="1:11" ht="12.5">
       <c r="A443" s="108"/>
       <c r="E443"/>
       <c r="F443" s="108"/>
       <c r="G443" s="36"/>
-      <c r="I443"/>
+      <c r="H443" s="36"/>
       <c r="J443"/>
-    </row>
-    <row r="444" spans="1:10" ht="12.5">
+      <c r="K443"/>
+    </row>
+    <row r="444" spans="1:11" ht="12.5">
       <c r="A444" s="108"/>
       <c r="E444"/>
       <c r="F444" s="108"/>
       <c r="G444" s="36"/>
-      <c r="I444"/>
+      <c r="H444" s="36"/>
       <c r="J444"/>
-    </row>
-    <row r="445" spans="1:10" ht="12.5">
+      <c r="K444"/>
+    </row>
+    <row r="445" spans="1:11" ht="12.5">
       <c r="A445" s="108"/>
       <c r="E445"/>
       <c r="F445" s="108"/>
       <c r="G445" s="36"/>
-      <c r="I445"/>
+      <c r="H445" s="36"/>
       <c r="J445"/>
-    </row>
-    <row r="446" spans="1:10" ht="12.5">
+      <c r="K445"/>
+    </row>
+    <row r="446" spans="1:11" ht="12.5">
       <c r="A446" s="108"/>
       <c r="E446"/>
       <c r="F446" s="108"/>
       <c r="G446" s="36"/>
-      <c r="I446"/>
+      <c r="H446" s="36"/>
       <c r="J446"/>
-    </row>
-    <row r="447" spans="1:10" ht="12.5">
+      <c r="K446"/>
+    </row>
+    <row r="447" spans="1:11" ht="12.5">
       <c r="A447" s="108"/>
       <c r="E447"/>
       <c r="F447" s="108"/>
       <c r="G447" s="36"/>
-      <c r="I447"/>
+      <c r="H447" s="36"/>
       <c r="J447"/>
-    </row>
-    <row r="448" spans="1:10" ht="12.5">
+      <c r="K447"/>
+    </row>
+    <row r="448" spans="1:11" ht="12.5">
       <c r="A448" s="108"/>
       <c r="E448"/>
       <c r="F448" s="108"/>
       <c r="G448" s="36"/>
-      <c r="I448"/>
+      <c r="H448" s="36"/>
       <c r="J448"/>
-    </row>
-    <row r="449" spans="1:10" ht="12.5">
+      <c r="K448"/>
+    </row>
+    <row r="449" spans="1:11" ht="12.5">
       <c r="A449" s="108"/>
       <c r="E449"/>
       <c r="F449" s="108"/>
       <c r="G449" s="36"/>
-      <c r="I449"/>
+      <c r="H449" s="36"/>
       <c r="J449"/>
-    </row>
-    <row r="450" spans="1:10" ht="12.5">
+      <c r="K449"/>
+    </row>
+    <row r="450" spans="1:11" ht="12.5">
       <c r="A450" s="108"/>
       <c r="E450"/>
       <c r="F450" s="108"/>
       <c r="G450" s="36"/>
-      <c r="I450"/>
+      <c r="H450" s="36"/>
       <c r="J450"/>
-    </row>
-    <row r="451" spans="1:10" ht="12.5">
+      <c r="K450"/>
+    </row>
+    <row r="451" spans="1:11" ht="12.5">
       <c r="A451" s="108"/>
       <c r="E451"/>
       <c r="F451" s="108"/>
       <c r="G451" s="36"/>
-      <c r="I451"/>
+      <c r="H451" s="36"/>
       <c r="J451"/>
-    </row>
-    <row r="452" spans="1:10" ht="12.5">
+      <c r="K451"/>
+    </row>
+    <row r="452" spans="1:11" ht="12.5">
       <c r="A452" s="108"/>
       <c r="E452"/>
       <c r="F452" s="108"/>
       <c r="G452" s="36"/>
-      <c r="I452"/>
+      <c r="H452" s="36"/>
       <c r="J452"/>
-    </row>
-    <row r="453" spans="1:10" ht="12.5">
+      <c r="K452"/>
+    </row>
+    <row r="453" spans="1:11" ht="12.5">
       <c r="A453" s="108"/>
       <c r="E453"/>
       <c r="F453" s="108"/>
       <c r="G453" s="36"/>
-      <c r="I453"/>
+      <c r="H453" s="36"/>
       <c r="J453"/>
-    </row>
-    <row r="454" spans="1:10" ht="12.5">
+      <c r="K453"/>
+    </row>
+    <row r="454" spans="1:11" ht="12.5">
       <c r="A454" s="108"/>
       <c r="E454"/>
       <c r="F454" s="108"/>
       <c r="G454" s="36"/>
-      <c r="I454"/>
+      <c r="H454" s="36"/>
       <c r="J454"/>
-    </row>
-    <row r="455" spans="1:10">
+      <c r="K454"/>
+    </row>
+    <row r="455" spans="1:11">
       <c r="A455" s="56"/>
       <c r="B455" s="56"/>
       <c r="C455" s="56"/>
@@ -6832,10 +7265,11 @@
       <c r="E455" s="57"/>
       <c r="F455" s="198"/>
       <c r="G455" s="219"/>
-      <c r="I455"/>
+      <c r="H455" s="36"/>
       <c r="J455"/>
-    </row>
-    <row r="456" spans="1:10">
+      <c r="K455"/>
+    </row>
+    <row r="456" spans="1:11">
       <c r="A456" s="56"/>
       <c r="B456" s="56"/>
       <c r="C456" s="56"/>
@@ -6843,163 +7277,186 @@
       <c r="E456" s="57"/>
       <c r="F456" s="108"/>
       <c r="G456" s="36"/>
-      <c r="I456"/>
+      <c r="H456" s="36"/>
       <c r="J456"/>
-    </row>
-    <row r="457" spans="1:10">
+      <c r="K456"/>
+    </row>
+    <row r="457" spans="1:11">
       <c r="A457" s="108"/>
       <c r="F457" s="108"/>
       <c r="G457" s="36"/>
-      <c r="I457"/>
+      <c r="H457" s="36"/>
       <c r="J457"/>
-    </row>
-    <row r="458" spans="1:10">
+      <c r="K457"/>
+    </row>
+    <row r="458" spans="1:11">
       <c r="A458" s="108"/>
       <c r="F458" s="108"/>
       <c r="G458" s="36"/>
-      <c r="I458"/>
+      <c r="H458" s="36"/>
       <c r="J458"/>
-    </row>
-    <row r="459" spans="1:10">
+      <c r="K458"/>
+    </row>
+    <row r="459" spans="1:11">
       <c r="A459" s="108"/>
       <c r="F459" s="108"/>
       <c r="G459" s="36"/>
-      <c r="I459"/>
+      <c r="H459" s="36"/>
       <c r="J459"/>
-    </row>
-    <row r="460" spans="1:10">
+      <c r="K459"/>
+    </row>
+    <row r="460" spans="1:11">
       <c r="A460" s="108"/>
       <c r="F460" s="108"/>
       <c r="G460" s="36"/>
-      <c r="I460"/>
+      <c r="H460" s="36"/>
       <c r="J460"/>
-    </row>
-    <row r="461" spans="1:10">
+      <c r="K460"/>
+    </row>
+    <row r="461" spans="1:11">
       <c r="A461" s="108"/>
       <c r="F461" s="108"/>
       <c r="G461" s="36"/>
-      <c r="I461"/>
+      <c r="H461" s="36"/>
       <c r="J461"/>
-    </row>
-    <row r="462" spans="1:10">
+      <c r="K461"/>
+    </row>
+    <row r="462" spans="1:11">
       <c r="A462" s="108"/>
       <c r="F462" s="108"/>
       <c r="G462" s="36"/>
-      <c r="I462"/>
+      <c r="H462" s="36"/>
       <c r="J462"/>
-    </row>
-    <row r="463" spans="1:10">
+      <c r="K462"/>
+    </row>
+    <row r="463" spans="1:11">
       <c r="A463" s="108"/>
       <c r="F463" s="108"/>
       <c r="G463" s="36"/>
-      <c r="I463"/>
+      <c r="H463" s="36"/>
       <c r="J463"/>
-    </row>
-    <row r="464" spans="1:10">
+      <c r="K463"/>
+    </row>
+    <row r="464" spans="1:11">
       <c r="A464" s="108"/>
       <c r="F464" s="108"/>
       <c r="G464" s="36"/>
-      <c r="I464"/>
+      <c r="H464" s="36"/>
       <c r="J464"/>
-    </row>
-    <row r="465" spans="1:10">
+      <c r="K464"/>
+    </row>
+    <row r="465" spans="1:11">
       <c r="A465" s="108"/>
       <c r="F465" s="108"/>
       <c r="G465" s="36"/>
-      <c r="I465"/>
+      <c r="H465" s="36"/>
       <c r="J465"/>
-    </row>
-    <row r="466" spans="1:10" ht="12.5">
+      <c r="K465"/>
+    </row>
+    <row r="466" spans="1:11" ht="12.5">
       <c r="E466"/>
       <c r="F466" s="108"/>
       <c r="G466" s="36"/>
-    </row>
-    <row r="467" spans="1:10">
+      <c r="H466" s="36"/>
+    </row>
+    <row r="467" spans="1:11">
       <c r="F467" s="108"/>
       <c r="G467" s="36"/>
-    </row>
-    <row r="468" spans="1:10">
+      <c r="H467" s="36"/>
+    </row>
+    <row r="468" spans="1:11">
       <c r="F468" s="108"/>
       <c r="G468" s="36"/>
-    </row>
-    <row r="469" spans="1:10">
+      <c r="H468" s="36"/>
+    </row>
+    <row r="469" spans="1:11">
       <c r="F469" s="108"/>
       <c r="G469" s="36"/>
-    </row>
-    <row r="470" spans="1:10">
+      <c r="H469" s="36"/>
+    </row>
+    <row r="470" spans="1:11">
       <c r="F470" s="108"/>
       <c r="G470" s="36"/>
-    </row>
-    <row r="471" spans="1:10">
+      <c r="H470" s="36"/>
+    </row>
+    <row r="471" spans="1:11">
       <c r="F471" s="108"/>
       <c r="G471" s="36"/>
-    </row>
-    <row r="472" spans="1:10">
+      <c r="H471" s="36"/>
+    </row>
+    <row r="472" spans="1:11">
       <c r="F472" s="108"/>
       <c r="G472" s="36"/>
-    </row>
-    <row r="473" spans="1:10">
+      <c r="H472" s="36"/>
+    </row>
+    <row r="473" spans="1:11">
       <c r="F473" s="108"/>
       <c r="G473" s="36"/>
-    </row>
-    <row r="474" spans="1:10">
+      <c r="H473" s="36"/>
+    </row>
+    <row r="474" spans="1:11">
       <c r="F474" s="108"/>
       <c r="G474" s="36"/>
-    </row>
-    <row r="475" spans="1:10">
+      <c r="H474" s="36"/>
+    </row>
+    <row r="475" spans="1:11">
       <c r="F475" s="108"/>
       <c r="G475" s="36"/>
-    </row>
-    <row r="476" spans="1:10">
+      <c r="H475" s="219"/>
+    </row>
+    <row r="476" spans="1:11">
       <c r="F476" s="108"/>
       <c r="G476" s="36"/>
-    </row>
-    <row r="477" spans="1:10">
+      <c r="H476" s="36"/>
+    </row>
+    <row r="477" spans="1:11">
       <c r="F477" s="108"/>
       <c r="G477" s="36"/>
     </row>
-    <row r="478" spans="1:10">
+    <row r="478" spans="1:11">
       <c r="F478" s="108"/>
       <c r="G478" s="36"/>
     </row>
-    <row r="479" spans="1:10">
+    <row r="479" spans="1:11">
       <c r="F479" s="108"/>
       <c r="G479" s="36"/>
     </row>
-    <row r="480" spans="1:10">
+    <row r="480" spans="1:11">
       <c r="F480" s="108"/>
       <c r="G480" s="36"/>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:9">
       <c r="F481" s="108"/>
       <c r="G481" s="36"/>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:9">
       <c r="F482" s="108"/>
       <c r="G482" s="36"/>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:9">
       <c r="F483" s="108"/>
       <c r="G483" s="36"/>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:9">
       <c r="F484" s="108"/>
       <c r="G484" s="36"/>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:9">
       <c r="B485" s="60"/>
       <c r="F485" s="108"/>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:9">
       <c r="B486" s="60"/>
       <c r="F486" s="108"/>
-    </row>
-    <row r="487" spans="1:8">
+      <c r="H486" s="36"/>
+    </row>
+    <row r="487" spans="1:9">
       <c r="B487" s="60"/>
       <c r="F487" s="108"/>
       <c r="G487" s="36"/>
-    </row>
-    <row r="488" spans="1:8">
+      <c r="H487" s="36"/>
+    </row>
+    <row r="488" spans="1:9">
       <c r="A488" s="56"/>
       <c r="B488" s="56"/>
       <c r="C488" s="56"/>
@@ -7007,9 +7464,10 @@
       <c r="E488" s="57"/>
       <c r="F488" s="198"/>
       <c r="G488" s="219"/>
-      <c r="H488" s="193"/>
-    </row>
-    <row r="489" spans="1:8">
+      <c r="H488" s="36"/>
+      <c r="I488" s="193"/>
+    </row>
+    <row r="489" spans="1:9">
       <c r="A489" s="56"/>
       <c r="B489" s="231"/>
       <c r="C489" s="56"/>
@@ -7017,9 +7475,10 @@
       <c r="E489" s="57"/>
       <c r="F489" s="198"/>
       <c r="G489" s="219"/>
-      <c r="H489" s="193"/>
-    </row>
-    <row r="490" spans="1:8">
+      <c r="H489" s="36"/>
+      <c r="I489" s="193"/>
+    </row>
+    <row r="490" spans="1:9">
       <c r="A490" s="56"/>
       <c r="B490" s="231"/>
       <c r="C490" s="56"/>
@@ -7027,9 +7486,10 @@
       <c r="E490" s="57"/>
       <c r="F490" s="198"/>
       <c r="G490" s="219"/>
-      <c r="H490" s="193"/>
-    </row>
-    <row r="491" spans="1:8">
+      <c r="H490" s="36"/>
+      <c r="I490" s="193"/>
+    </row>
+    <row r="491" spans="1:9">
       <c r="A491" s="56"/>
       <c r="B491" s="231"/>
       <c r="C491" s="56"/>
@@ -7037,103 +7497,122 @@
       <c r="E491" s="57"/>
       <c r="F491" s="198"/>
       <c r="G491" s="219"/>
-      <c r="H491" s="193"/>
-    </row>
-    <row r="492" spans="1:8" ht="12.5">
+      <c r="H491" s="36"/>
+      <c r="I491" s="193"/>
+    </row>
+    <row r="492" spans="1:9" ht="12.5">
       <c r="E492"/>
       <c r="F492" s="108"/>
       <c r="G492" s="36"/>
-    </row>
-    <row r="493" spans="1:8">
+      <c r="H492" s="36"/>
+    </row>
+    <row r="493" spans="1:9">
       <c r="F493" s="108"/>
       <c r="G493" s="36"/>
-    </row>
-    <row r="494" spans="1:8">
+      <c r="H493" s="36"/>
+    </row>
+    <row r="494" spans="1:9">
       <c r="F494" s="108"/>
       <c r="G494" s="36"/>
-    </row>
-    <row r="495" spans="1:8">
+      <c r="H494" s="36"/>
+    </row>
+    <row r="495" spans="1:9">
       <c r="F495" s="108"/>
       <c r="G495" s="36"/>
-    </row>
-    <row r="496" spans="1:8" ht="12.5">
+      <c r="H495" s="36"/>
+    </row>
+    <row r="496" spans="1:9" ht="12.5">
       <c r="E496" s="62"/>
       <c r="F496" s="108"/>
       <c r="G496" s="36"/>
-    </row>
-    <row r="497" spans="1:8" ht="12.5">
+      <c r="H496" s="36"/>
+    </row>
+    <row r="497" spans="1:9" ht="12.5">
       <c r="E497" s="62"/>
       <c r="F497" s="108"/>
       <c r="G497" s="36"/>
-    </row>
-    <row r="498" spans="1:8">
+      <c r="H497" s="36"/>
+    </row>
+    <row r="498" spans="1:9">
       <c r="F498" s="108"/>
       <c r="G498" s="36"/>
-    </row>
-    <row r="499" spans="1:8" ht="12.5">
+      <c r="H498" s="36"/>
+    </row>
+    <row r="499" spans="1:9" ht="12.5">
       <c r="B499" s="201"/>
       <c r="D499" s="2"/>
       <c r="E499" s="63"/>
       <c r="F499" s="108"/>
       <c r="G499" s="36"/>
-    </row>
-    <row r="500" spans="1:8" ht="12.5">
+      <c r="H499" s="36"/>
+    </row>
+    <row r="500" spans="1:9" ht="12.5">
       <c r="B500" s="201"/>
       <c r="E500" s="62"/>
       <c r="F500" s="108"/>
       <c r="G500" s="36"/>
-    </row>
-    <row r="501" spans="1:8" ht="12.5">
+      <c r="H500" s="36"/>
+    </row>
+    <row r="501" spans="1:9" ht="12.5">
       <c r="E501" s="62"/>
       <c r="F501" s="108"/>
       <c r="G501" s="36"/>
-    </row>
-    <row r="502" spans="1:8" ht="12.5">
+      <c r="H501" s="36"/>
+    </row>
+    <row r="502" spans="1:9" ht="12.5">
       <c r="E502" s="62"/>
       <c r="F502" s="108"/>
       <c r="G502" s="36"/>
-    </row>
-    <row r="503" spans="1:8" ht="12.5">
+      <c r="H502" s="36"/>
+    </row>
+    <row r="503" spans="1:9" ht="12.5">
       <c r="E503" s="62"/>
       <c r="F503" s="108"/>
       <c r="G503" s="36"/>
-    </row>
-    <row r="504" spans="1:8" ht="12.5">
+      <c r="H503" s="36"/>
+    </row>
+    <row r="504" spans="1:9" ht="12.5">
       <c r="E504" s="62"/>
       <c r="F504" s="108"/>
       <c r="G504" s="36"/>
-    </row>
-    <row r="505" spans="1:8" ht="12.5">
+      <c r="H504" s="36"/>
+    </row>
+    <row r="505" spans="1:9" ht="12.5">
       <c r="E505" s="62"/>
       <c r="F505" s="108"/>
       <c r="G505" s="36"/>
-    </row>
-    <row r="506" spans="1:8" ht="12.5">
+      <c r="H505" s="36"/>
+    </row>
+    <row r="506" spans="1:9" ht="12.5">
       <c r="E506" s="62"/>
       <c r="F506" s="108"/>
       <c r="G506" s="36"/>
-    </row>
-    <row r="507" spans="1:8">
+      <c r="H506" s="36"/>
+    </row>
+    <row r="507" spans="1:9">
       <c r="F507" s="108"/>
       <c r="G507" s="36"/>
-    </row>
-    <row r="508" spans="1:8">
+      <c r="H507" s="36"/>
+    </row>
+    <row r="508" spans="1:9">
       <c r="F508" s="108"/>
       <c r="G508" s="36"/>
-    </row>
-    <row r="509" spans="1:8">
+      <c r="H508" s="219"/>
+    </row>
+    <row r="509" spans="1:9">
       <c r="F509" s="108"/>
       <c r="G509" s="36"/>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:9">
       <c r="F510" s="108"/>
       <c r="G510" s="36"/>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:9">
       <c r="F511" s="108"/>
       <c r="G511" s="36"/>
-    </row>
-    <row r="512" spans="1:8">
+      <c r="H511" s="193"/>
+    </row>
+    <row r="512" spans="1:9">
       <c r="A512" s="56"/>
       <c r="B512" s="56"/>
       <c r="C512" s="56"/>
@@ -7141,29 +7620,34 @@
       <c r="E512" s="57"/>
       <c r="F512" s="198"/>
       <c r="G512" s="219"/>
-      <c r="H512" s="193"/>
-    </row>
-    <row r="513" spans="1:10" ht="12.5">
+      <c r="H512" s="36"/>
+      <c r="I512" s="193"/>
+    </row>
+    <row r="513" spans="1:11" ht="12.5">
       <c r="E513"/>
       <c r="F513" s="108"/>
       <c r="G513" s="36"/>
-      <c r="I513"/>
+      <c r="H513" s="36"/>
       <c r="J513"/>
-    </row>
-    <row r="514" spans="1:10">
+      <c r="K513"/>
+    </row>
+    <row r="514" spans="1:11">
       <c r="F514" s="108"/>
-      <c r="H514" s="58"/>
-    </row>
-    <row r="515" spans="1:10">
+      <c r="H514" s="36"/>
+      <c r="I514" s="58"/>
+    </row>
+    <row r="515" spans="1:11">
       <c r="F515" s="108"/>
-      <c r="H515" s="55"/>
-    </row>
-    <row r="516" spans="1:10">
+      <c r="H515" s="36"/>
+      <c r="I515" s="55"/>
+    </row>
+    <row r="516" spans="1:11">
       <c r="F516" s="108"/>
       <c r="G516" s="36"/>
-      <c r="H516" s="55"/>
-    </row>
-    <row r="517" spans="1:10" ht="12.5">
+      <c r="H516" s="36"/>
+      <c r="I516" s="55"/>
+    </row>
+    <row r="517" spans="1:11" ht="12.5">
       <c r="A517" s="143"/>
       <c r="B517" s="143"/>
       <c r="C517" s="143"/>
@@ -7171,146 +7655,168 @@
       <c r="E517" s="143"/>
       <c r="F517" s="108"/>
       <c r="G517" s="36"/>
-      <c r="H517" s="143"/>
-    </row>
-    <row r="518" spans="1:10">
+      <c r="H517" s="36"/>
+      <c r="I517" s="143"/>
+    </row>
+    <row r="518" spans="1:11">
       <c r="B518" s="59"/>
       <c r="D518" s="59"/>
       <c r="F518" s="108"/>
       <c r="G518" s="36"/>
-      <c r="H518" s="55"/>
-    </row>
-    <row r="519" spans="1:10">
+      <c r="H518" s="36"/>
+      <c r="I518" s="55"/>
+    </row>
+    <row r="519" spans="1:11">
       <c r="B519" s="59"/>
       <c r="C519" s="59"/>
       <c r="D519" s="59"/>
       <c r="F519" s="108"/>
       <c r="G519" s="36"/>
-      <c r="H519" s="58"/>
-    </row>
-    <row r="520" spans="1:10">
+      <c r="H519" s="36"/>
+      <c r="I519" s="58"/>
+    </row>
+    <row r="520" spans="1:11">
       <c r="B520" s="59"/>
       <c r="C520" s="59"/>
       <c r="D520" s="59"/>
       <c r="F520" s="108"/>
       <c r="G520" s="36"/>
-      <c r="H520" s="55"/>
-    </row>
-    <row r="521" spans="1:10">
+      <c r="H520" s="36"/>
+      <c r="I520" s="55"/>
+    </row>
+    <row r="521" spans="1:11">
       <c r="B521" s="59"/>
       <c r="C521" s="59"/>
       <c r="D521" s="59"/>
       <c r="F521" s="108"/>
       <c r="G521" s="36"/>
-      <c r="H521" s="55"/>
-    </row>
-    <row r="522" spans="1:10">
+      <c r="H521" s="36"/>
+      <c r="I521" s="55"/>
+    </row>
+    <row r="522" spans="1:11">
       <c r="B522" s="146"/>
       <c r="C522" s="146"/>
       <c r="D522" s="146"/>
       <c r="F522" s="108"/>
       <c r="G522" s="36"/>
-      <c r="H522" s="55"/>
-    </row>
-    <row r="523" spans="1:10">
+      <c r="H522" s="36"/>
+      <c r="I522" s="55"/>
+    </row>
+    <row r="523" spans="1:11">
       <c r="B523" s="146"/>
       <c r="C523" s="146"/>
       <c r="D523" s="146"/>
       <c r="F523" s="108"/>
       <c r="G523" s="36"/>
-      <c r="H523" s="55"/>
-    </row>
-    <row r="524" spans="1:10">
+      <c r="H523" s="36"/>
+      <c r="I523" s="55"/>
+    </row>
+    <row r="524" spans="1:11">
       <c r="B524" s="146"/>
       <c r="C524" s="146"/>
       <c r="D524" s="146"/>
       <c r="F524" s="108"/>
       <c r="G524" s="36"/>
-      <c r="H524" s="55"/>
-    </row>
-    <row r="525" spans="1:10">
+      <c r="H524" s="36"/>
+      <c r="I524" s="55"/>
+    </row>
+    <row r="525" spans="1:11">
       <c r="F525" s="108"/>
       <c r="G525" s="108"/>
-      <c r="H525" s="55"/>
-    </row>
-    <row r="526" spans="1:10">
+      <c r="H525" s="36"/>
+      <c r="I525" s="55"/>
+    </row>
+    <row r="526" spans="1:11">
       <c r="F526" s="108"/>
       <c r="G526" s="108"/>
-      <c r="H526" s="55"/>
-    </row>
-    <row r="527" spans="1:10">
+      <c r="H526" s="219"/>
+      <c r="I526" s="55"/>
+    </row>
+    <row r="527" spans="1:11">
       <c r="F527" s="108"/>
       <c r="G527" s="108"/>
-      <c r="H527" s="55"/>
-      <c r="J527"/>
-    </row>
-    <row r="528" spans="1:10">
+      <c r="H527" s="36"/>
+      <c r="I527" s="55"/>
+      <c r="K527"/>
+    </row>
+    <row r="528" spans="1:11">
       <c r="F528" s="108"/>
       <c r="G528" s="108"/>
-      <c r="H528" s="55"/>
-      <c r="J528"/>
-    </row>
-    <row r="529" spans="1:10">
+      <c r="H528" s="36"/>
+      <c r="I528" s="55"/>
+      <c r="K528"/>
+    </row>
+    <row r="529" spans="1:11">
       <c r="F529" s="108"/>
       <c r="G529" s="108"/>
-      <c r="H529" s="55"/>
-      <c r="J529"/>
-    </row>
-    <row r="530" spans="1:10">
+      <c r="H529" s="36"/>
+      <c r="I529" s="55"/>
+      <c r="K529"/>
+    </row>
+    <row r="530" spans="1:11">
       <c r="F530" s="108"/>
       <c r="G530" s="108"/>
-      <c r="H530" s="55"/>
-      <c r="J530"/>
-    </row>
-    <row r="531" spans="1:10">
+      <c r="H530" s="36"/>
+      <c r="I530" s="55"/>
+      <c r="K530"/>
+    </row>
+    <row r="531" spans="1:11">
       <c r="F531" s="108"/>
       <c r="G531" s="108"/>
-      <c r="H531" s="55"/>
-      <c r="J531"/>
-    </row>
-    <row r="532" spans="1:10">
+      <c r="H531" s="36"/>
+      <c r="I531" s="55"/>
+      <c r="K531"/>
+    </row>
+    <row r="532" spans="1:11">
       <c r="F532" s="108"/>
       <c r="G532" s="108"/>
-      <c r="H532" s="55"/>
-      <c r="J532"/>
-    </row>
-    <row r="533" spans="1:10">
+      <c r="H532" s="143"/>
+      <c r="I532" s="55"/>
+      <c r="K532"/>
+    </row>
+    <row r="533" spans="1:11">
       <c r="F533" s="108"/>
       <c r="G533" s="108"/>
-      <c r="H533" s="55"/>
-      <c r="J533"/>
-    </row>
-    <row r="534" spans="1:10">
+      <c r="H533" s="143"/>
+      <c r="I533" s="55"/>
+      <c r="K533"/>
+    </row>
+    <row r="534" spans="1:11">
       <c r="F534" s="108"/>
       <c r="G534" s="108"/>
-      <c r="H534" s="55"/>
-      <c r="J534"/>
-    </row>
-    <row r="535" spans="1:10">
+      <c r="H534" s="36"/>
+      <c r="I534" s="55"/>
+      <c r="K534"/>
+    </row>
+    <row r="535" spans="1:11">
       <c r="F535" s="108"/>
       <c r="G535" s="108"/>
-      <c r="H535" s="55"/>
-      <c r="J535"/>
-    </row>
-    <row r="536" spans="1:10">
+      <c r="H535" s="36"/>
+      <c r="I535" s="55"/>
+      <c r="K535"/>
+    </row>
+    <row r="536" spans="1:11">
       <c r="F536" s="108"/>
       <c r="G536" s="108"/>
-      <c r="H536" s="55"/>
-      <c r="J536"/>
-    </row>
-    <row r="537" spans="1:10">
+      <c r="H536" s="36"/>
+      <c r="I536" s="55"/>
+      <c r="K536"/>
+    </row>
+    <row r="537" spans="1:11">
       <c r="F537" s="108"/>
       <c r="G537" s="108"/>
-      <c r="H537" s="55"/>
-      <c r="J537"/>
-    </row>
-    <row r="538" spans="1:10">
+      <c r="H537" s="36"/>
+      <c r="I537" s="55"/>
+      <c r="K537"/>
+    </row>
+    <row r="538" spans="1:11">
       <c r="F538" s="108"/>
       <c r="G538" s="108"/>
-      <c r="H538" s="55"/>
-      <c r="J538"/>
-    </row>
-    <row r="539" spans="1:10">
+      <c r="H538" s="36"/>
+      <c r="I538" s="55"/>
+      <c r="K538"/>
+    </row>
+    <row r="539" spans="1:11">
       <c r="A539" s="56"/>
       <c r="B539" s="56"/>
       <c r="C539" s="56"/>
@@ -7318,129 +7824,149 @@
       <c r="E539" s="57"/>
       <c r="F539" s="198"/>
       <c r="G539" s="198"/>
-      <c r="H539" s="193"/>
-      <c r="J539"/>
-    </row>
-    <row r="540" spans="1:10" ht="12.5">
+      <c r="H539" s="36"/>
+      <c r="I539" s="193"/>
+      <c r="K539"/>
+    </row>
+    <row r="540" spans="1:11" ht="12.5">
       <c r="E540"/>
       <c r="F540" s="108"/>
       <c r="G540" s="108"/>
-      <c r="I540"/>
+      <c r="H540" s="36"/>
       <c r="J540"/>
-    </row>
-    <row r="541" spans="1:10">
+      <c r="K540"/>
+    </row>
+    <row r="541" spans="1:11">
       <c r="F541" s="108"/>
       <c r="G541" s="108"/>
-      <c r="H541" s="55"/>
-      <c r="J541"/>
-    </row>
-    <row r="542" spans="1:10">
+      <c r="H541" s="36"/>
+      <c r="I541" s="55"/>
+      <c r="K541"/>
+    </row>
+    <row r="542" spans="1:11">
       <c r="F542" s="108"/>
       <c r="G542" s="108"/>
-      <c r="H542" s="55"/>
-      <c r="J542"/>
-    </row>
-    <row r="543" spans="1:10">
+      <c r="H542" s="36"/>
+      <c r="I542" s="55"/>
+      <c r="K542"/>
+    </row>
+    <row r="543" spans="1:11">
       <c r="F543" s="108"/>
       <c r="G543" s="108"/>
-      <c r="H543" s="55"/>
-      <c r="J543"/>
-    </row>
-    <row r="544" spans="1:10">
+      <c r="H543" s="36"/>
+      <c r="I543" s="55"/>
+      <c r="K543"/>
+    </row>
+    <row r="544" spans="1:11">
       <c r="F544" s="108"/>
       <c r="G544" s="108"/>
-      <c r="H544" s="55"/>
-      <c r="J544"/>
-    </row>
-    <row r="545" spans="1:10">
+      <c r="H544" s="36"/>
+      <c r="I544" s="55"/>
+      <c r="K544"/>
+    </row>
+    <row r="545" spans="1:11">
       <c r="F545" s="108"/>
       <c r="G545" s="108"/>
-      <c r="H545" s="55"/>
-      <c r="J545"/>
-    </row>
-    <row r="546" spans="1:10">
+      <c r="H545" s="36"/>
+      <c r="I545" s="55"/>
+      <c r="K545"/>
+    </row>
+    <row r="546" spans="1:11">
       <c r="D546" s="146"/>
       <c r="F546" s="108"/>
       <c r="G546" s="108"/>
-      <c r="H546" s="58"/>
-      <c r="J546"/>
-    </row>
-    <row r="547" spans="1:10">
+      <c r="H546" s="36"/>
+      <c r="I546" s="58"/>
+      <c r="K546"/>
+    </row>
+    <row r="547" spans="1:11">
       <c r="B547" s="145"/>
       <c r="F547" s="108"/>
       <c r="G547" s="108"/>
-      <c r="H547" s="55"/>
-      <c r="J547"/>
-    </row>
-    <row r="548" spans="1:10">
+      <c r="H547" s="219"/>
+      <c r="I547" s="55"/>
+      <c r="K547"/>
+    </row>
+    <row r="548" spans="1:11">
       <c r="B548" s="145"/>
       <c r="F548" s="108"/>
       <c r="G548" s="108"/>
-      <c r="H548" s="55"/>
-      <c r="J548"/>
-    </row>
-    <row r="549" spans="1:10">
+      <c r="H548" s="36"/>
+      <c r="I548" s="55"/>
+      <c r="K548"/>
+    </row>
+    <row r="549" spans="1:11">
       <c r="B549" s="145"/>
       <c r="F549" s="108"/>
       <c r="G549" s="108"/>
-      <c r="H549" s="55"/>
-      <c r="J549"/>
-    </row>
-    <row r="550" spans="1:10">
+      <c r="H549" s="36"/>
+      <c r="I549" s="55"/>
+      <c r="K549"/>
+    </row>
+    <row r="550" spans="1:11">
       <c r="B550" s="145"/>
       <c r="F550" s="108"/>
       <c r="G550" s="108"/>
-      <c r="H550" s="55"/>
-      <c r="J550"/>
-    </row>
-    <row r="551" spans="1:10">
+      <c r="H550" s="36"/>
+      <c r="I550" s="55"/>
+      <c r="K550"/>
+    </row>
+    <row r="551" spans="1:11">
       <c r="F551" s="108"/>
-      <c r="H551" s="55"/>
-      <c r="J551"/>
-    </row>
-    <row r="552" spans="1:10">
+      <c r="H551" s="36"/>
+      <c r="I551" s="55"/>
+      <c r="K551"/>
+    </row>
+    <row r="552" spans="1:11">
       <c r="F552" s="108"/>
       <c r="G552" s="108"/>
-      <c r="I552"/>
+      <c r="H552" s="36"/>
       <c r="J552"/>
-    </row>
-    <row r="553" spans="1:10">
+      <c r="K552"/>
+    </row>
+    <row r="553" spans="1:11">
       <c r="F553" s="108"/>
       <c r="G553" s="108"/>
-      <c r="I553"/>
+      <c r="H553" s="36"/>
       <c r="J553"/>
-    </row>
-    <row r="554" spans="1:10">
+      <c r="K553"/>
+    </row>
+    <row r="554" spans="1:11">
       <c r="F554" s="108"/>
       <c r="G554" s="108"/>
-      <c r="I554"/>
+      <c r="H554" s="36"/>
       <c r="J554"/>
-    </row>
-    <row r="555" spans="1:10">
+      <c r="K554"/>
+    </row>
+    <row r="555" spans="1:11">
       <c r="F555" s="108"/>
       <c r="G555" s="108"/>
-      <c r="I555"/>
+      <c r="H555" s="36"/>
       <c r="J555"/>
-    </row>
-    <row r="556" spans="1:10">
+      <c r="K555"/>
+    </row>
+    <row r="556" spans="1:11">
       <c r="F556" s="108"/>
       <c r="G556" s="108"/>
-      <c r="I556"/>
+      <c r="H556" s="36"/>
       <c r="J556"/>
-    </row>
-    <row r="557" spans="1:10">
+      <c r="K556"/>
+    </row>
+    <row r="557" spans="1:11">
       <c r="F557" s="108"/>
       <c r="G557" s="108"/>
-      <c r="I557"/>
+      <c r="H557" s="36"/>
       <c r="J557"/>
-    </row>
-    <row r="558" spans="1:10">
+      <c r="K557"/>
+    </row>
+    <row r="558" spans="1:11">
       <c r="F558" s="108"/>
       <c r="G558" s="108"/>
-      <c r="I558"/>
+      <c r="H558" s="36"/>
       <c r="J558"/>
-    </row>
-    <row r="559" spans="1:10">
+      <c r="K558"/>
+    </row>
+    <row r="559" spans="1:11">
       <c r="A559" s="56"/>
       <c r="B559" s="56"/>
       <c r="C559" s="56"/>
@@ -7448,76 +7974,81 @@
       <c r="E559" s="57"/>
       <c r="F559" s="198"/>
       <c r="G559" s="198"/>
-      <c r="H559" s="193"/>
-      <c r="I559"/>
+      <c r="H559" s="36"/>
+      <c r="I559" s="193"/>
       <c r="J559"/>
-    </row>
-    <row r="560" spans="1:10" ht="12.5">
+      <c r="K559"/>
+    </row>
+    <row r="560" spans="1:11" ht="12.5">
       <c r="E560"/>
       <c r="F560" s="108"/>
       <c r="G560" s="108"/>
-    </row>
-    <row r="561" spans="6:7">
+      <c r="H560" s="36"/>
+    </row>
+    <row r="561" spans="6:8">
       <c r="F561" s="108"/>
       <c r="G561" s="108"/>
-    </row>
-    <row r="562" spans="6:7">
+      <c r="H561" s="36"/>
+    </row>
+    <row r="562" spans="6:8">
       <c r="F562" s="108"/>
       <c r="G562" s="108"/>
-    </row>
-    <row r="563" spans="6:7">
+      <c r="H562" s="36"/>
+    </row>
+    <row r="563" spans="6:8">
       <c r="F563" s="108"/>
       <c r="G563" s="108"/>
-    </row>
-    <row r="564" spans="6:7">
+      <c r="H563" s="219"/>
+    </row>
+    <row r="564" spans="6:8">
       <c r="F564" s="108"/>
       <c r="G564" s="108"/>
     </row>
-    <row r="565" spans="6:7">
+    <row r="565" spans="6:8">
       <c r="F565" s="108"/>
       <c r="G565" s="108"/>
     </row>
-    <row r="566" spans="6:7">
+    <row r="566" spans="6:8">
       <c r="F566" s="108"/>
       <c r="G566" s="108"/>
     </row>
-    <row r="567" spans="6:7">
+    <row r="567" spans="6:8">
       <c r="F567" s="108"/>
       <c r="G567" s="108"/>
     </row>
-    <row r="568" spans="6:7">
+    <row r="568" spans="6:8">
       <c r="F568" s="108"/>
       <c r="G568" s="108"/>
     </row>
-    <row r="569" spans="6:7">
+    <row r="569" spans="6:8">
       <c r="F569" s="108"/>
       <c r="G569" s="108"/>
     </row>
-    <row r="570" spans="6:7">
+    <row r="570" spans="6:8">
       <c r="F570" s="108"/>
       <c r="G570" s="108"/>
     </row>
-    <row r="571" spans="6:7">
+    <row r="571" spans="6:8">
       <c r="F571" s="108"/>
       <c r="G571" s="108"/>
     </row>
-    <row r="572" spans="6:7">
+    <row r="572" spans="6:8">
       <c r="F572" s="108"/>
       <c r="G572" s="108"/>
     </row>
-    <row r="573" spans="6:7">
+    <row r="573" spans="6:8">
       <c r="F573" s="108"/>
       <c r="G573" s="108"/>
     </row>
-    <row r="574" spans="6:7">
+    <row r="574" spans="6:8">
       <c r="F574" s="108"/>
       <c r="G574" s="108"/>
     </row>
-    <row r="575" spans="6:7">
+    <row r="575" spans="6:8">
       <c r="F575" s="108"/>
       <c r="G575" s="108"/>
     </row>
-    <row r="576" spans="6:7">
+    <row r="576" spans="6:8">
       <c r="F576" s="108"/>
       <c r="G576" s="108"/>
     </row>
@@ -7814,7 +8345,7 @@
       <c r="G649" s="108"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:W559" xr:uid="{9C53F95B-0041-C541-8EC0-E49B2AFDE9CA}"/>
+  <autoFilter ref="A3:X559" xr:uid="{9C53F95B-0041-C541-8EC0-E49B2AFDE9CA}"/>
   <conditionalFormatting sqref="B352">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>$E$41</formula>
@@ -23001,7 +23532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44DD0EE-89E0-44EC-B725-2EDDBDD0EE73}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -23017,7 +23548,7 @@
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
-    <row r="2" spans="1:5" ht="91">
+    <row r="2" spans="1:5" ht="65">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -23034,7 +23565,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="26">
+    <row r="3" spans="1:5" ht="13">
       <c r="A3" s="283" t="s">
         <v>32</v>
       </c>
@@ -25816,8 +26347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U206"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD206"/>
+    <sheetView topLeftCell="B2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K2" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
@@ -25832,7 +26363,7 @@
     <col min="8" max="8" width="23.7265625" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="26.7265625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.26953125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="48" bestFit="1" customWidth="1"/>
     <col min="12" max="17" width="8.453125" customWidth="1"/>
     <col min="18" max="21" width="6.26953125" customWidth="1"/>
     <col min="22" max="1023" width="8.26953125" customWidth="1"/>
@@ -25857,7 +26388,6 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
       <c r="N1" s="36"/>
@@ -25899,7 +26429,9 @@
       <c r="J2" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="23"/>
+      <c r="K2" s="23" t="s">
+        <v>360</v>
+      </c>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
       <c r="N2" s="23"/>
@@ -25940,6 +26472,9 @@
       </c>
       <c r="J3" s="27" t="s">
         <v>111</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>357</v>
       </c>
       <c r="L3" s="51"/>
       <c r="M3" s="51"/>
@@ -26357,47 +26892,43 @@
       <c r="C64" s="36"/>
       <c r="E64" s="36"/>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:10">
       <c r="C65" s="36"/>
       <c r="E65" s="36"/>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:10">
       <c r="C66" s="36"/>
       <c r="E66" s="36"/>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:10">
       <c r="C67" s="36"/>
       <c r="E67" s="36"/>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:10">
       <c r="C68" s="36"/>
       <c r="E68" s="36"/>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:10">
       <c r="C69" s="36"/>
       <c r="E69" s="36"/>
       <c r="J69"/>
-      <c r="K69"/>
-    </row>
-    <row r="70" spans="2:11">
+    </row>
+    <row r="70" spans="2:10">
       <c r="C70" s="36"/>
       <c r="E70" s="36"/>
       <c r="J70"/>
-      <c r="K70"/>
-    </row>
-    <row r="71" spans="2:11">
+    </row>
+    <row r="71" spans="2:10">
       <c r="C71" s="36"/>
       <c r="E71" s="36"/>
       <c r="J71"/>
-      <c r="K71"/>
-    </row>
-    <row r="72" spans="2:11">
+    </row>
+    <row r="72" spans="2:10">
       <c r="C72" s="36"/>
       <c r="E72" s="36"/>
       <c r="J72"/>
-      <c r="K72"/>
-    </row>
-    <row r="73" spans="2:11">
+    </row>
+    <row r="73" spans="2:10">
       <c r="B73" s="108"/>
       <c r="C73" s="108"/>
       <c r="D73" s="108"/>
@@ -26405,177 +26936,166 @@
       <c r="F73" s="108"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:10">
       <c r="B74" s="108"/>
       <c r="C74" s="108"/>
       <c r="D74" s="108"/>
       <c r="E74" s="108"/>
       <c r="F74" s="108"/>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:10">
       <c r="B75" s="108"/>
       <c r="C75" s="108"/>
       <c r="D75" s="108"/>
       <c r="E75" s="108"/>
       <c r="F75" s="108"/>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:10">
       <c r="B76" s="108"/>
       <c r="C76" s="108"/>
       <c r="D76" s="108"/>
       <c r="E76" s="108"/>
       <c r="F76" s="108"/>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:10">
       <c r="B77" s="108"/>
       <c r="C77" s="108"/>
       <c r="D77" s="108"/>
       <c r="E77" s="108"/>
       <c r="F77" s="108"/>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:10">
       <c r="B78" s="108"/>
       <c r="C78" s="108"/>
       <c r="D78" s="108"/>
       <c r="E78" s="108"/>
       <c r="F78" s="108"/>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:10">
       <c r="B79" s="108"/>
       <c r="C79" s="108"/>
       <c r="D79" s="108"/>
       <c r="E79" s="108"/>
       <c r="F79" s="108"/>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:10">
       <c r="B80" s="108"/>
       <c r="C80" s="108"/>
       <c r="D80" s="108"/>
       <c r="E80" s="108"/>
       <c r="F80" s="108"/>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:8">
       <c r="B81" s="108"/>
       <c r="C81" s="108"/>
       <c r="D81" s="108"/>
       <c r="E81" s="108"/>
       <c r="F81" s="108"/>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:8">
       <c r="B82" s="108"/>
       <c r="C82" s="108"/>
       <c r="D82" s="108"/>
       <c r="E82" s="108"/>
       <c r="F82" s="108"/>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:8">
       <c r="B83" s="108"/>
       <c r="C83" s="108"/>
       <c r="D83" s="108"/>
       <c r="E83" s="108"/>
       <c r="F83" s="108"/>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:8">
       <c r="B84" s="108"/>
       <c r="C84" s="108"/>
       <c r="D84" s="108"/>
       <c r="E84" s="108"/>
       <c r="F84" s="108"/>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:8">
       <c r="B85" s="108"/>
       <c r="C85" s="108"/>
       <c r="E85" s="108"/>
       <c r="G85"/>
       <c r="H85" s="108"/>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:8">
       <c r="B86" s="108"/>
       <c r="C86" s="142"/>
       <c r="E86" s="108"/>
       <c r="G86"/>
       <c r="H86" s="108"/>
-      <c r="K86"/>
-    </row>
-    <row r="87" spans="2:11">
+    </row>
+    <row r="87" spans="2:8">
       <c r="B87" s="108"/>
       <c r="C87" s="142"/>
       <c r="E87" s="108"/>
       <c r="G87"/>
       <c r="H87" s="108"/>
-      <c r="K87"/>
-    </row>
-    <row r="88" spans="2:11">
+    </row>
+    <row r="88" spans="2:8">
       <c r="B88" s="108"/>
       <c r="C88" s="142"/>
       <c r="E88" s="108"/>
       <c r="G88"/>
       <c r="H88" s="108"/>
-      <c r="K88"/>
-    </row>
-    <row r="89" spans="2:11">
+    </row>
+    <row r="89" spans="2:8">
       <c r="B89" s="108"/>
       <c r="C89" s="142"/>
       <c r="E89" s="108"/>
       <c r="G89"/>
       <c r="H89" s="108"/>
-      <c r="K89"/>
-    </row>
-    <row r="90" spans="2:11">
+    </row>
+    <row r="90" spans="2:8">
       <c r="B90" s="108"/>
       <c r="C90" s="142"/>
       <c r="E90" s="108"/>
       <c r="G90"/>
       <c r="H90" s="108"/>
-      <c r="K90"/>
-    </row>
-    <row r="91" spans="2:11">
+    </row>
+    <row r="91" spans="2:8">
       <c r="B91" s="108"/>
       <c r="C91" s="142"/>
       <c r="E91" s="108"/>
       <c r="G91"/>
       <c r="H91" s="108"/>
-      <c r="K91"/>
-    </row>
-    <row r="92" spans="2:11">
+    </row>
+    <row r="92" spans="2:8">
       <c r="B92" s="108"/>
       <c r="C92" s="142"/>
       <c r="E92" s="108"/>
       <c r="G92"/>
       <c r="H92" s="108"/>
-      <c r="K92"/>
-    </row>
-    <row r="93" spans="2:11">
+    </row>
+    <row r="93" spans="2:8">
       <c r="B93" s="108"/>
       <c r="C93" s="142"/>
       <c r="E93" s="108"/>
       <c r="G93"/>
       <c r="H93" s="108"/>
-      <c r="K93"/>
-    </row>
-    <row r="94" spans="2:11">
+    </row>
+    <row r="94" spans="2:8">
       <c r="B94" s="108"/>
       <c r="C94" s="142"/>
       <c r="E94" s="108"/>
       <c r="G94"/>
       <c r="H94" s="108"/>
-      <c r="K94"/>
-    </row>
-    <row r="95" spans="2:11">
+    </row>
+    <row r="95" spans="2:8">
       <c r="B95" s="108"/>
       <c r="C95" s="142"/>
       <c r="E95" s="108"/>
       <c r="G95"/>
       <c r="H95" s="108"/>
-      <c r="K95"/>
-    </row>
-    <row r="96" spans="2:11">
+    </row>
+    <row r="96" spans="2:8">
       <c r="B96" s="108"/>
       <c r="C96" s="142"/>
       <c r="E96" s="108"/>
       <c r="G96"/>
       <c r="H96" s="108"/>
-      <c r="K96"/>
     </row>
     <row r="97" spans="2:11">
       <c r="B97" s="108"/>
@@ -26583,7 +27103,6 @@
       <c r="F97" s="227"/>
       <c r="G97"/>
       <c r="H97" s="108"/>
-      <c r="K97"/>
     </row>
     <row r="98" spans="2:11">
       <c r="B98" s="108"/>
@@ -26591,7 +27110,6 @@
       <c r="E98" s="108"/>
       <c r="G98"/>
       <c r="H98" s="108"/>
-      <c r="K98"/>
     </row>
     <row r="99" spans="2:11">
       <c r="B99" s="108"/>
@@ -26599,7 +27117,6 @@
       <c r="E99" s="108"/>
       <c r="G99"/>
       <c r="H99" s="108"/>
-      <c r="K99"/>
     </row>
     <row r="100" spans="2:11">
       <c r="B100" s="108"/>
@@ -26607,72 +27124,59 @@
       <c r="E100" s="108"/>
       <c r="G100"/>
       <c r="H100" s="108"/>
-      <c r="K100"/>
     </row>
     <row r="101" spans="2:11">
       <c r="G101"/>
       <c r="H101" s="108"/>
-      <c r="K101"/>
     </row>
     <row r="102" spans="2:11">
       <c r="G102"/>
       <c r="H102" s="108"/>
-      <c r="K102"/>
     </row>
     <row r="103" spans="2:11">
       <c r="G103"/>
       <c r="H103" s="108"/>
-      <c r="K103"/>
     </row>
     <row r="104" spans="2:11">
       <c r="G104"/>
       <c r="H104" s="108"/>
-      <c r="K104"/>
     </row>
     <row r="105" spans="2:11">
       <c r="G105"/>
       <c r="H105" s="108"/>
-      <c r="K105"/>
     </row>
     <row r="106" spans="2:11">
       <c r="G106"/>
       <c r="H106" s="108"/>
-      <c r="K106"/>
     </row>
     <row r="107" spans="2:11">
       <c r="G107"/>
       <c r="H107" s="108"/>
-      <c r="K107"/>
     </row>
     <row r="108" spans="2:11">
       <c r="G108"/>
       <c r="H108" s="108"/>
-      <c r="K108"/>
+      <c r="K108" s="142"/>
     </row>
     <row r="109" spans="2:11">
       <c r="G109"/>
       <c r="H109" s="108"/>
-      <c r="K109"/>
     </row>
     <row r="110" spans="2:11">
       <c r="G110"/>
       <c r="H110" s="108"/>
-      <c r="K110"/>
     </row>
     <row r="111" spans="2:11">
       <c r="G111"/>
       <c r="H111" s="108"/>
-      <c r="K111"/>
     </row>
     <row r="112" spans="2:11">
       <c r="G112"/>
       <c r="H112" s="108"/>
-      <c r="K112"/>
     </row>
     <row r="113" spans="1:11">
       <c r="G113"/>
       <c r="H113" s="108"/>
-      <c r="K113"/>
     </row>
     <row r="114" spans="1:11" s="142" customFormat="1">
       <c r="A114"/>
@@ -26682,6 +27186,7 @@
       <c r="E114" s="56"/>
       <c r="H114" s="108"/>
       <c r="J114" s="228"/>
+      <c r="K114"/>
     </row>
     <row r="121" spans="1:11">
       <c r="B121" s="108"/>
@@ -27001,39 +27506,38 @@
       <c r="G192"/>
       <c r="H192" s="108"/>
     </row>
-    <row r="193" spans="2:11">
+    <row r="193" spans="2:10">
       <c r="E193" s="36"/>
     </row>
-    <row r="194" spans="2:11">
+    <row r="194" spans="2:10">
       <c r="E194" s="36"/>
     </row>
-    <row r="201" spans="2:11">
+    <row r="201" spans="2:10">
       <c r="B201" s="36"/>
       <c r="E201" s="36"/>
       <c r="F201" s="36"/>
     </row>
-    <row r="202" spans="2:11">
+    <row r="202" spans="2:10">
       <c r="E202" s="36"/>
     </row>
-    <row r="203" spans="2:11">
+    <row r="203" spans="2:10">
       <c r="E203" s="36"/>
       <c r="G203"/>
       <c r="H203" s="36"/>
     </row>
-    <row r="204" spans="2:11">
+    <row r="204" spans="2:10">
       <c r="C204" s="36"/>
       <c r="E204" s="36"/>
       <c r="G204"/>
       <c r="H204" s="36"/>
     </row>
-    <row r="205" spans="2:11">
+    <row r="205" spans="2:10">
       <c r="E205" s="36"/>
     </row>
-    <row r="206" spans="2:11">
+    <row r="206" spans="2:10">
       <c r="E206" s="36"/>
       <c r="G206"/>
       <c r="J206"/>
-      <c r="K206"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B155:B157">

--- a/data/ccd-template.xlsx
+++ b/data/ccd-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dharmendrakumar/development/moj/et/et-ccd-definitions-scotland/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\fergusoshea\et-ccd-definitions-scotland\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0921C5D-5E2E-9946-98FA-BC2EB12568DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40113A3E-F1C4-4437-8CDB-1D8BB5FCD4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" tabRatio="500" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchParty" sheetId="36" r:id="rId1"/>
@@ -26,23 +26,24 @@
     <sheet name="ChallengeQuestion" sheetId="31" r:id="rId11"/>
     <sheet name="ComplexTypes" sheetId="9" r:id="rId12"/>
     <sheet name="EventToComplexTypes" sheetId="32" r:id="rId13"/>
-    <sheet name="Scotland Scrubbed" sheetId="26" r:id="rId14"/>
-    <sheet name="SearchInputFields" sheetId="12" r:id="rId15"/>
-    <sheet name="WorkBasketInputFields" sheetId="14" r:id="rId16"/>
-    <sheet name="SearchResultFields" sheetId="13" r:id="rId17"/>
-    <sheet name="WorkBasketResultFields" sheetId="15" r:id="rId18"/>
-    <sheet name="SearchCaseResultFields" sheetId="22" r:id="rId19"/>
-    <sheet name="UserProfile" sheetId="16" r:id="rId20"/>
-    <sheet name="AuthorisationComplexType" sheetId="17" r:id="rId21"/>
-    <sheet name="AuthorisationCaseType" sheetId="18" r:id="rId22"/>
-    <sheet name="AuthorisationCaseField" sheetId="19" r:id="rId23"/>
-    <sheet name="AuthorisationCaseEvent" sheetId="20" r:id="rId24"/>
-    <sheet name="AuthorisationCaseState" sheetId="21" r:id="rId25"/>
+    <sheet name="RoleToAccessProfiles" sheetId="37" r:id="rId14"/>
+    <sheet name="Scotland Scrubbed" sheetId="26" r:id="rId15"/>
+    <sheet name="SearchInputFields" sheetId="12" r:id="rId16"/>
+    <sheet name="WorkBasketInputFields" sheetId="14" r:id="rId17"/>
+    <sheet name="SearchResultFields" sheetId="13" r:id="rId18"/>
+    <sheet name="WorkBasketResultFields" sheetId="15" r:id="rId19"/>
+    <sheet name="SearchCaseResultFields" sheetId="22" r:id="rId20"/>
+    <sheet name="UserProfile" sheetId="16" r:id="rId21"/>
+    <sheet name="AuthorisationComplexType" sheetId="17" r:id="rId22"/>
+    <sheet name="AuthorisationCaseType" sheetId="18" r:id="rId23"/>
+    <sheet name="AuthorisationCaseField" sheetId="19" r:id="rId24"/>
+    <sheet name="AuthorisationCaseEvent" sheetId="20" r:id="rId25"/>
+    <sheet name="AuthorisationCaseState" sheetId="21" r:id="rId26"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">AuthorisationCaseEvent!$A$3:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">AuthorisationCaseField!$A$1:$D$517</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">AuthorisationCaseState!$A$3:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">AuthorisationCaseEvent!$A$3:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">AuthorisationCaseField!$A$1:$D$517</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">AuthorisationCaseState!$A$3:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">CaseEvent!$A$3:$Z$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">CaseEventToFields!$A$3:$P$231</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">CaseField!$A$3:$U$3</definedName>
@@ -50,7 +51,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">CaseTypeTab!$A$3:$P$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">ComplexTypes!$A$3:$W$559</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">EventToComplexTypes!$A$3:$I$382</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Scotland Scrubbed'!$A$3:$F$646</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Scotland Scrubbed'!$A$3:$F$646</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">State!$A$3:$Q$11</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="377">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1269,6 +1270,21 @@
   <si>
     <t>A comma separated list of fields or elements or complex types that make use the party's name.  Spaces will be inserted by CCD between the values of each field. Used to make up the party name for the given SearchPartyID
 Max Length: 200</t>
+  </si>
+  <si>
+    <t>RoleToAccessProfiles</t>
+  </si>
+  <si>
+    <t>A comma-separated list of AccessProfiles that should be assigned to the user if their RoleName, ReadOnly value (and optional Authorisations) match.</t>
+  </si>
+  <si>
+    <t>RoleName</t>
+  </si>
+  <si>
+    <t>ReadOnly</t>
+  </si>
+  <si>
+    <t>AccessProfiles</t>
   </si>
 </sst>
 </file>
@@ -2001,7 +2017,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -2017,8 +2033,9 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2600,8 +2617,15 @@
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="18" xfId="13" applyBorder="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="16">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Excel Built-in Explanatory Text 1" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Excel Built-in Explanatory Text 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -2614,6 +2638,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5" xr:uid="{2B00B115-41E4-DC4C-9D19-EA97F2E3C2B5}"/>
     <cellStyle name="Normal 2 2" xfId="7" xr:uid="{FE050982-89CB-CB47-B347-F33481D0E4EA}"/>
+    <cellStyle name="Normal 2 2 2" xfId="15" xr:uid="{6D8BBEB4-E03F-466C-905A-0333309E2DE2}"/>
     <cellStyle name="Normal 2 4" xfId="9" xr:uid="{B0AE22DF-3912-4A1A-AFFC-B4DD9404E3FC}"/>
     <cellStyle name="Normal 3" xfId="8" xr:uid="{CD9D10AF-0097-42A0-9715-FA166A90F092}"/>
     <cellStyle name="Normal 4" xfId="13" xr:uid="{128380BE-A59E-BF42-970E-A4A85023A104}"/>
@@ -3097,15 +3122,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652CD649-9CF9-A24F-8AFE-A9F7C5D8EE93}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" style="291" customWidth="1"/>
-    <col min="3" max="1025" width="11.1640625" style="287" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="287"/>
+    <col min="1" max="2" width="10.7109375" style="291" customWidth="1"/>
+    <col min="3" max="1025" width="11.140625" style="287" customWidth="1"/>
+    <col min="1026" max="16384" width="8.85546875" style="287"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18">
@@ -3122,7 +3147,7 @@
       <c r="I1" s="299"/>
       <c r="J1" s="298"/>
     </row>
-    <row r="2" spans="1:10" ht="409.6">
+    <row r="2" spans="1:10" ht="409.5">
       <c r="A2" s="296" t="s">
         <v>353</v>
       </c>
@@ -3200,22 +3225,22 @@
       <selection activeCell="A4" sqref="A4:XFD206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" style="1" customWidth="1"/>
-    <col min="12" max="17" width="8.5" customWidth="1"/>
-    <col min="18" max="21" width="6.33203125" customWidth="1"/>
-    <col min="22" max="1023" width="8.33203125" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="1" customWidth="1"/>
+    <col min="12" max="17" width="8.42578125" customWidth="1"/>
+    <col min="18" max="21" width="6.28515625" customWidth="1"/>
+    <col min="22" max="1023" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18">
@@ -4438,20 +4463,20 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" style="246" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="246"/>
-    <col min="3" max="3" width="54.6640625" style="246" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="246" customWidth="1"/>
-    <col min="5" max="6" width="12.6640625" style="246" customWidth="1"/>
-    <col min="7" max="7" width="44.33203125" style="246" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="246" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" style="246" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="246"/>
+    <col min="3" max="3" width="54.7109375" style="246" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="246" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="246" customWidth="1"/>
+    <col min="7" max="7" width="44.28515625" style="246" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="246" customWidth="1"/>
     <col min="9" max="9" width="37" style="246" customWidth="1"/>
-    <col min="10" max="10" width="43.6640625" style="246" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" style="246" customWidth="1"/>
-    <col min="12" max="1025" width="10.83203125" style="246"/>
-    <col min="1026" max="16384" width="10.83203125" style="245"/>
+    <col min="10" max="10" width="43.7109375" style="246" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="246" customWidth="1"/>
+    <col min="12" max="1025" width="10.85546875" style="246"/>
+    <col min="1026" max="16384" width="10.85546875" style="245"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18">
@@ -4477,7 +4502,7 @@
       <c r="L1" s="247"/>
       <c r="M1" s="247"/>
     </row>
-    <row r="2" spans="1:13" ht="56">
+    <row r="2" spans="1:13" ht="63.75">
       <c r="A2" s="258" t="s">
         <v>4</v>
       </c>
@@ -4512,7 +4537,7 @@
       <c r="L2" s="254"/>
       <c r="M2" s="254"/>
     </row>
-    <row r="3" spans="1:13" ht="16">
+    <row r="3" spans="1:13" ht="15.75">
       <c r="A3" s="253" t="s">
         <v>9</v>
       </c>
@@ -4637,26 +4662,26 @@
       <selection activeCell="A4" sqref="A4:XFD559"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="52" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="41" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="41" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="53" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="53" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="53" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="28.33203125" customWidth="1"/>
-    <col min="16" max="23" width="6.33203125" customWidth="1"/>
-    <col min="24" max="1023" width="8.33203125" customWidth="1"/>
-    <col min="1024" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="28.28515625" customWidth="1"/>
+    <col min="16" max="23" width="6.28515625" customWidth="1"/>
+    <col min="24" max="1023" width="8.28515625" customWidth="1"/>
+    <col min="1024" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" customHeight="1">
@@ -4685,7 +4710,7 @@
       <c r="P1" s="36"/>
       <c r="Q1" s="36"/>
     </row>
-    <row r="2" spans="1:23" ht="65" customHeight="1">
+    <row r="2" spans="1:23" ht="65.099999999999994" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>113</v>
       </c>
@@ -4726,7 +4751,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" ht="33.5" customHeight="1">
+    <row r="3" spans="1:23" s="2" customFormat="1" ht="33.6" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>11</v>
       </c>
@@ -6867,7 +6892,7 @@
       <c r="I278"/>
       <c r="J278"/>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" ht="13.5">
       <c r="B279" s="231"/>
       <c r="E279"/>
       <c r="F279" s="108"/>
@@ -8406,7 +8431,7 @@
       <c r="G488" s="219"/>
       <c r="H488" s="193"/>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" ht="13.5">
       <c r="A489" s="56"/>
       <c r="B489" s="231"/>
       <c r="C489" s="56"/>
@@ -8416,7 +8441,7 @@
       <c r="G489" s="219"/>
       <c r="H489" s="193"/>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" ht="13.5">
       <c r="A490" s="56"/>
       <c r="B490" s="231"/>
       <c r="C490" s="56"/>
@@ -8426,7 +8451,7 @@
       <c r="G490" s="219"/>
       <c r="H490" s="193"/>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" ht="13.5">
       <c r="A491" s="56"/>
       <c r="B491" s="231"/>
       <c r="C491" s="56"/>
@@ -9256,21 +9281,21 @@
       <selection pane="bottomLeft" activeCell="E369" sqref="E369"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.5" customWidth="1"/>
-    <col min="6" max="6" width="50.1640625" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.42578125" customWidth="1"/>
+    <col min="6" max="6" width="50.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="282" t="s">
         <v>120</v>
       </c>
@@ -9289,7 +9314,7 @@
       <c r="H1" s="278"/>
       <c r="I1" s="277"/>
     </row>
-    <row r="2" spans="1:11" ht="67" customHeight="1">
+    <row r="2" spans="1:11" ht="66.95" customHeight="1">
       <c r="A2" s="275" t="s">
         <v>121</v>
       </c>
@@ -15471,6 +15496,808 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4F7720-24EC-4BC8-BFE2-934342B17442}">
+  <dimension ref="A1:E249"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18">
+      <c r="A1" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="165.75">
+      <c r="A2" s="300" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="301" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>374</v>
+      </c>
+      <c r="D3" s="302" t="s">
+        <v>375</v>
+      </c>
+      <c r="E3" s="302" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="15"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="15"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="15"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="15"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="15"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="15"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="15"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="15"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="15"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="15"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="15"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="15"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="15"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="15"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="15"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="15"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="15"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="15"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="15"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="15"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="15"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="15"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="15"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="15"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="15"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="15"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="15"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="15"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="15"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="15"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="15"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="15"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="15"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="15"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="15"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="15"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="15"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="15"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="15"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="15"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="15"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="15"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="15"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="15"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="15"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="15"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="15"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="15"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="15"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="15"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="15"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="15"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="15"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="15"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="15"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="15"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="15"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="15"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="15"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="15"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="15"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="15"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="15"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="15"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="15"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="15"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="15"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="15"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="15"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="15"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="15"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="15"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="15"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="15"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="15"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="15"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="15"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="15"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="15"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="15"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="15"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="15"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="15"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="15"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="15"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="15"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="15"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="15"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="15"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="15"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="15"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="15"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="15"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="15"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="15"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="15"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="15"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="15"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="15"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="15"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="15"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="15"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="15"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="15"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="15"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="15"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="15"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="15"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="15"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="15"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="15"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="15"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="15"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="15"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="15"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="15"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="15"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="15"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="15"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="15"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="15"/>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="15"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="15"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="15"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="15"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="15"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="15"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="15"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="15"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="15"/>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="15"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="15"/>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="15"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="15"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="15"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="15"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="15"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="15"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="15"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="15"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="15"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="15"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="15"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="15"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="15"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="15"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="15"/>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="15"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="15"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="15"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="15"/>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="15"/>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="15"/>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="15"/>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="15"/>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="15"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="15"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="15"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="15"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="15"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="15"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="15"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="15"/>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="15"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="15"/>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="15"/>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="15"/>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="15"/>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="15"/>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="15"/>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="15"/>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="15"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="15"/>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="15"/>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="15"/>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="15"/>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="15"/>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="15"/>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="15"/>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="15"/>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="15"/>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="15"/>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="15"/>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="15"/>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="15"/>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="15"/>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="15"/>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="15"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="15"/>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="15"/>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="15"/>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="15"/>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="15"/>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="15"/>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="15"/>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="15"/>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="15"/>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="15"/>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="15"/>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="15"/>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="15"/>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="15"/>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="15"/>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="15"/>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="15"/>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="15"/>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="15"/>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="15"/>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="15"/>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="15"/>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="15"/>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="15"/>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="15"/>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="15"/>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="15"/>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="15"/>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="15"/>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="15"/>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="15"/>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="15"/>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="15"/>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="15"/>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="15"/>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="15"/>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="15"/>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="15"/>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="15"/>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="15"/>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="15"/>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="15"/>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="15"/>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="15"/>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="15"/>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="15"/>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="15"/>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="15"/>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="15"/>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="15"/>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="15"/>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="15"/>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="15"/>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="15"/>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="15"/>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="15"/>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEDE50F-3952-214F-9597-838D9D10B1E0}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -15481,18 +16308,18 @@
       <selection activeCell="A4" sqref="A4:XFD650"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="151" customWidth="1"/>
-    <col min="2" max="2" width="61.6640625" style="171" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="151" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" style="171" customWidth="1"/>
     <col min="3" max="3" width="65" style="151" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="151" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" style="151"/>
+    <col min="4" max="4" width="14.7109375" style="151" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" style="151"/>
     <col min="7" max="7" width="13" style="151" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="151" customWidth="1"/>
-    <col min="9" max="12" width="8.6640625" style="151"/>
-    <col min="13" max="13" width="16.33203125" style="151" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="151"/>
+    <col min="8" max="8" width="11.42578125" style="151" customWidth="1"/>
+    <col min="9" max="12" width="8.7109375" style="151"/>
+    <col min="13" max="13" width="16.28515625" style="151" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="151"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
@@ -15509,7 +16336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="56">
+    <row r="2" spans="1:11" ht="51">
       <c r="A2" s="152" t="s">
         <v>129</v>
       </c>
@@ -18366,7 +19193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
@@ -18374,22 +19201,22 @@
       <selection activeCell="A4" sqref="A4:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="32.5" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="43.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
-    <col min="9" max="9" width="31.5" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" customWidth="1"/>
-    <col min="12" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="32.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="12" max="1025" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="36">
       <c r="A1" s="69" t="s">
         <v>134</v>
       </c>
@@ -18407,7 +19234,7 @@
       <c r="G1" s="73"/>
       <c r="H1" s="186"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="71">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="75">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -18619,138 +19446,6 @@
     <row r="37" spans="5:7">
       <c r="E37" s="1"/>
       <c r="G37"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;6&amp;KFF0000 Classification: Controlled</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.5" customWidth="1"/>
-    <col min="9" max="1023" width="8.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="19">
-      <c r="A1" s="80" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="84"/>
-    </row>
-    <row r="2" spans="1:8" ht="84">
-      <c r="A2" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="126" t="s">
-        <v>170</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15">
-      <c r="A3" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="127" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="127" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15">
-      <c r="D4"/>
-      <c r="E4" s="1"/>
-      <c r="G4" s="68"/>
-    </row>
-    <row r="5" spans="1:8" ht="15">
-      <c r="D5" s="111"/>
-      <c r="E5" s="1"/>
-      <c r="G5" s="68"/>
-    </row>
-    <row r="6" spans="1:8" ht="14">
-      <c r="D6" s="112"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="15">
-      <c r="D7"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="187"/>
-    </row>
-    <row r="8" spans="1:8" ht="14">
-      <c r="B8" s="108"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="108"/>
-      <c r="D9"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="D10"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="D11"/>
-      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -18762,70 +19457,66 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:O13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="8" max="1023" width="11.5"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" customWidth="1"/>
+    <col min="9" max="1023" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19">
-      <c r="A1" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-    </row>
-    <row r="2" spans="1:15" ht="80">
+      <c r="E1" s="84"/>
+    </row>
+    <row r="2" spans="1:8" ht="89.25">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="126" t="s">
         <v>170</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-    </row>
-    <row r="3" spans="1:15" ht="15">
+    </row>
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="74" t="s">
         <v>32</v>
       </c>
@@ -18841,54 +19532,52 @@
       <c r="E3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="127" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="127" t="s">
         <v>157</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:8" ht="15">
+      <c r="D4"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" ht="15">
+      <c r="G4" s="68"/>
+    </row>
+    <row r="5" spans="1:8" ht="15">
+      <c r="D5" s="111"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="187"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="G5" s="68"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.25">
+      <c r="D6" s="112"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:8" ht="15">
+      <c r="D7"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="F7" s="187"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.25">
+      <c r="B8" s="108"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:8">
       <c r="B9" s="108"/>
+      <c r="D9"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:15">
-      <c r="B10" s="108"/>
+    <row r="10" spans="1:8">
+      <c r="D10"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:15">
-      <c r="B11" s="108"/>
+    <row r="11" spans="1:8">
+      <c r="D11"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -18900,46 +19589,46 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:N12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD12"/>
+      <selection activeCell="A4" sqref="A4:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="14" width="6.33203125" customWidth="1"/>
-    <col min="15" max="1023" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="8" max="1023" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18">
-      <c r="A1" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:15" ht="36">
+      <c r="A1" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-    </row>
-    <row r="2" spans="1:14" ht="96">
+      <c r="E1" s="39"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:15" ht="90">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -18947,7 +19636,7 @@
         <v>139</v>
       </c>
       <c r="C2" s="24"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="24" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="24" t="s">
@@ -18959,10 +19648,11 @@
       <c r="G2" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="1:14" ht="15">
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+    </row>
+    <row r="3" spans="1:15" ht="15">
       <c r="A3" s="74" t="s">
         <v>32</v>
       </c>
@@ -18972,7 +19662,7 @@
       <c r="C3" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -18991,41 +19681,41 @@
       <c r="L3" s="79"/>
       <c r="M3" s="79"/>
       <c r="N3" s="79"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="79"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15" ht="15">
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="F5" s="187"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:14">
-      <c r="D7"/>
+    <row r="7" spans="1:15">
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:14">
-      <c r="D8"/>
+    <row r="8" spans="1:15">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="B9" s="108"/>
-      <c r="D9"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="B10" s="108"/>
-      <c r="D10"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:14">
-      <c r="D11"/>
+    <row r="11" spans="1:15">
+      <c r="B11" s="108"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:14">
-      <c r="D12"/>
+    <row r="12" spans="1:15">
       <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -19037,162 +19727,136 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E55ACB-56A8-B541-931E-FA903DDDD8CF}">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="133" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="133" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="133" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="133" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="133" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="133" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="133" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="133" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="133" customWidth="1"/>
-    <col min="10" max="16384" width="10.6640625" style="133"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="14" width="6.28515625" customWidth="1"/>
+    <col min="15" max="1023" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18">
-      <c r="A1" s="128" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="129" t="s">
+    <row r="1" spans="1:14" ht="18">
+      <c r="A1" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-    </row>
-    <row r="2" spans="1:9" ht="42">
-      <c r="A2" s="134"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="135" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="135" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:14" ht="105">
+      <c r="A2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="135" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="134" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-    </row>
-    <row r="3" spans="1:9" ht="15">
-      <c r="A3" s="136" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="136" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="137" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="113" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="123" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="1:14" ht="15">
+      <c r="A3" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="137" t="s">
+      <c r="B3" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="C3" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="136" t="s">
+      <c r="E3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="F3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="I3" s="136" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-    </row>
-    <row r="5" spans="1:9" ht="15">
-      <c r="A5" s="138"/>
-      <c r="B5" s="139"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="139"/>
-    </row>
-    <row r="6" spans="1:9" ht="15">
-      <c r="A6" s="138"/>
-      <c r="B6" s="139"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="139"/>
-    </row>
-    <row r="7" spans="1:9" ht="15">
-      <c r="A7" s="138"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="139"/>
-    </row>
-    <row r="8" spans="1:9" ht="15">
-      <c r="A8" s="138"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="139"/>
-    </row>
-    <row r="9" spans="1:9" ht="15">
-      <c r="A9" s="138"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="139"/>
+      <c r="G3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="D7"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="D8"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="108"/>
+      <c r="D9"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="108"/>
+      <c r="D10"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="D11"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="D12"/>
+      <c r="E12" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;6&amp;KFF0000 Classification: Controlled</oddFooter>
   </headerFooter>
@@ -19207,11 +19871,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" style="291" customWidth="1"/>
-    <col min="3" max="1025" width="11.1640625" style="287" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="287"/>
+    <col min="1" max="2" width="10.7109375" style="291" customWidth="1"/>
+    <col min="3" max="1025" width="11.140625" style="287" customWidth="1"/>
+    <col min="1026" max="16384" width="8.85546875" style="287"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -19222,7 +19886,7 @@
       <c r="C1" s="285"/>
       <c r="D1" s="286"/>
     </row>
-    <row r="2" spans="1:4" ht="99">
+    <row r="2" spans="1:4" ht="102.75">
       <c r="A2" s="288" t="s">
         <v>353</v>
       </c>
@@ -19260,6 +19924,169 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E55ACB-56A8-B541-931E-FA903DDDD8CF}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="133" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="133" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="133" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="133" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="133" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="133" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="133" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="133" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="133" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="133"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18">
+      <c r="A1" s="128" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="129" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="130" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="131" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+    </row>
+    <row r="2" spans="1:9" ht="38.25">
+      <c r="A2" s="134"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="135" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="135" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="135" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="134" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+    </row>
+    <row r="3" spans="1:9" ht="15">
+      <c r="A3" s="136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="137" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="137" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="136" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="136" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="136" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" s="136" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15">
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+    </row>
+    <row r="5" spans="1:9" ht="15">
+      <c r="A5" s="138"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="139"/>
+    </row>
+    <row r="6" spans="1:9" ht="15">
+      <c r="A6" s="138"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="139"/>
+    </row>
+    <row r="7" spans="1:9" ht="15">
+      <c r="A7" s="138"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="139"/>
+    </row>
+    <row r="8" spans="1:9" ht="15">
+      <c r="A8" s="138"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="139"/>
+    </row>
+    <row r="9" spans="1:9" ht="15">
+      <c r="A9" s="138"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="139"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;6&amp;KFF0000 Classification: Controlled</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -19267,14 +20094,14 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="11.5"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="1025" width="11.5"/>
+    <col min="7" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
@@ -19298,7 +20125,7 @@
       <c r="J1" s="36"/>
       <c r="K1" s="36"/>
     </row>
-    <row r="2" spans="1:11" ht="70">
+    <row r="2" spans="1:11" ht="63.75">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -19321,7 +20148,7 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="1:11" ht="28">
+    <row r="3" spans="1:11" ht="38.25">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -19356,7 +20183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:IU148"/>
   <sheetViews>
@@ -19364,15 +20191,15 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.6640625" customWidth="1"/>
-    <col min="7" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="7" max="1025" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="18" customHeight="1">
@@ -19640,7 +20467,7 @@
       <c r="IT1" s="36"/>
       <c r="IU1" s="36"/>
     </row>
-    <row r="2" spans="1:255" ht="196">
+    <row r="2" spans="1:255" ht="191.25">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
@@ -20409,7 +21236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:IU10"/>
   <sheetViews>
@@ -20417,14 +21244,14 @@
       <selection activeCell="A4" sqref="A4:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
-    <col min="6" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
+    <col min="6" max="1025" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="18" customHeight="1">
@@ -20692,7 +21519,7 @@
       <c r="IT1" s="36"/>
       <c r="IU1" s="36"/>
     </row>
-    <row r="2" spans="1:255" ht="84">
+    <row r="2" spans="1:255" ht="89.25">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -21022,7 +21849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:D518"/>
   <sheetViews>
@@ -21030,14 +21857,14 @@
       <selection activeCell="A4" sqref="A4:XFD518"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="1" customWidth="1"/>
-    <col min="5" max="1011" width="8.33203125" customWidth="1"/>
-    <col min="1012" max="1016" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="1" customWidth="1"/>
+    <col min="5" max="1011" width="8.28515625" customWidth="1"/>
+    <col min="1012" max="1016" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -21054,7 +21881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="56">
+    <row r="2" spans="1:4" ht="51">
       <c r="A2" s="24" t="s">
         <v>153</v>
       </c>
@@ -22766,7 +23593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:D109"/>
   <sheetViews>
@@ -22774,12 +23601,12 @@
       <selection activeCell="A4" sqref="A4:XFD115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -22796,7 +23623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="56">
+    <row r="2" spans="1:4" ht="63.75">
       <c r="A2" s="24" t="s">
         <v>160</v>
       </c>
@@ -23195,7 +24022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -23203,12 +24030,12 @@
       <selection activeCell="A4" sqref="A4:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="53.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -23225,7 +24052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="56">
+    <row r="2" spans="1:4" ht="51">
       <c r="A2" s="24" t="s">
         <v>153</v>
       </c>
@@ -23403,17 +24230,17 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="133" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="133" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="133" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="133" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" style="133" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" style="133" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="133" customWidth="1"/>
-    <col min="8" max="1025" width="8.83203125" style="133" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="133"/>
+    <col min="1" max="1" width="16.140625" style="133" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="133" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="133" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" style="133" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="133" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="133" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="133" customWidth="1"/>
+    <col min="8" max="1025" width="8.85546875" style="133" customWidth="1"/>
+    <col min="1026" max="16384" width="8.85546875" style="133"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1">
@@ -23432,7 +24259,7 @@
       <c r="E1" s="240"/>
       <c r="F1" s="240"/>
     </row>
-    <row r="2" spans="1:6" s="236" customFormat="1" ht="42">
+    <row r="2" spans="1:6" s="236" customFormat="1" ht="38.25">
       <c r="A2" s="239" t="s">
         <v>4</v>
       </c>
@@ -23452,7 +24279,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.75" customHeight="1">
+    <row r="3" spans="1:6" ht="13.7" customHeight="1">
       <c r="A3" s="233" t="s">
         <v>9</v>
       </c>
@@ -23472,28 +24299,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.75" customHeight="1">
+    <row r="4" spans="1:6" ht="13.7" customHeight="1">
       <c r="A4" s="232"/>
       <c r="B4" s="232"/>
     </row>
-    <row r="5" spans="1:6" ht="13.75" customHeight="1">
+    <row r="5" spans="1:6" ht="13.7" customHeight="1">
       <c r="A5" s="232"/>
       <c r="B5" s="232"/>
     </row>
-    <row r="6" spans="1:6" ht="13.75" customHeight="1">
+    <row r="6" spans="1:6" ht="13.7" customHeight="1">
       <c r="A6" s="232"/>
       <c r="B6" s="232"/>
     </row>
-    <row r="7" spans="1:6" ht="13.75" customHeight="1">
+    <row r="7" spans="1:6" ht="13.7" customHeight="1">
       <c r="A7" s="232"/>
       <c r="B7" s="232"/>
     </row>
-    <row r="8" spans="1:6" ht="13.75" customHeight="1">
+    <row r="8" spans="1:6" ht="13.7" customHeight="1">
       <c r="A8" s="232"/>
       <c r="B8" s="232"/>
     </row>
-    <row r="9" spans="1:6" ht="13.75" customHeight="1"/>
-    <row r="10" spans="1:6" ht="13.75" customHeight="1"/>
+    <row r="9" spans="1:6" ht="13.7" customHeight="1"/>
+    <row r="10" spans="1:6" ht="13.7" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -23511,11 +24338,11 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="11.5"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="1024" width="11.5"/>
+    <col min="1" max="2" width="11.42578125"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="1024" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18">
@@ -23533,7 +24360,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="126">
+    <row r="2" spans="1:14" ht="127.5">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -23612,14 +24439,14 @@
       <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="11.5"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="61.33203125" customWidth="1"/>
-    <col min="8" max="1025" width="11.5"/>
+    <col min="7" max="7" width="61.28515625" customWidth="1"/>
+    <col min="8" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18">
@@ -23646,7 +24473,7 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
     </row>
-    <row r="2" spans="1:19" ht="196">
+    <row r="2" spans="1:19" ht="178.5">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -23680,7 +24507,7 @@
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
     </row>
-    <row r="3" spans="1:19" ht="42">
+    <row r="3" spans="1:19" ht="38.25">
       <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
@@ -23760,14 +24587,14 @@
       <selection activeCell="A4" sqref="A4:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="3" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.5"/>
-    <col min="6" max="6" width="35.33203125" customWidth="1"/>
-    <col min="7" max="1023" width="11.5"/>
+    <col min="5" max="5" width="11.42578125"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
+    <col min="7" max="1023" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18">
@@ -23792,7 +24619,7 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>
-    <row r="2" spans="1:17" ht="98">
+    <row r="2" spans="1:17" ht="89.25">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -23818,7 +24645,7 @@
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
     </row>
-    <row r="3" spans="1:17" ht="28">
+    <row r="3" spans="1:17" ht="25.5">
       <c r="A3" s="28" t="s">
         <v>32</v>
       </c>
@@ -23920,19 +24747,19 @@
       <selection activeCell="A4" sqref="A4:XFD98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" customWidth="1"/>
-    <col min="11" max="1023" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" customWidth="1"/>
+    <col min="11" max="1023" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18">
@@ -23990,7 +24817,7 @@
       <c r="K2" s="36"/>
       <c r="L2" s="36"/>
     </row>
-    <row r="3" spans="1:16" ht="42">
+    <row r="3" spans="1:16" ht="38.25">
       <c r="A3" s="40" t="s">
         <v>32</v>
       </c>
@@ -24570,29 +25397,29 @@
       <selection activeCell="A4" sqref="A4:XFD54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.33203125" customWidth="1"/>
-    <col min="8" max="8" width="74.6640625" customWidth="1"/>
-    <col min="9" max="9" width="83.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="79.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="88.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="23.33203125" customWidth="1"/>
-    <col min="14" max="14" width="8.5" customWidth="1"/>
-    <col min="15" max="15" width="18.5" customWidth="1"/>
-    <col min="16" max="16" width="18.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" customWidth="1"/>
-    <col min="18" max="18" width="20.5" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" customWidth="1"/>
-    <col min="20" max="30" width="8.5" customWidth="1"/>
-    <col min="31" max="1024" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" customWidth="1"/>
+    <col min="8" max="8" width="74.7109375" customWidth="1"/>
+    <col min="9" max="9" width="83.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="79.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="88.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="20" max="30" width="8.42578125" customWidth="1"/>
+    <col min="31" max="1024" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
@@ -24624,7 +25451,7 @@
       <c r="R1" s="39"/>
       <c r="S1" s="39"/>
     </row>
-    <row r="2" spans="1:26" ht="126">
+    <row r="2" spans="1:26" ht="127.5">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -24665,7 +25492,7 @@
       <c r="R2" s="25"/>
       <c r="S2" s="25"/>
     </row>
-    <row r="3" spans="1:26" ht="42">
+    <row r="3" spans="1:26" ht="38.25">
       <c r="A3" s="40" t="s">
         <v>32</v>
       </c>
@@ -24731,14 +25558,14 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
     </row>
-    <row r="4" spans="1:26" ht="14">
+    <row r="4" spans="1:26" ht="14.25">
       <c r="I4" s="107"/>
       <c r="L4" s="36"/>
       <c r="M4" s="46"/>
       <c r="R4" s="109"/>
       <c r="S4" s="109"/>
     </row>
-    <row r="5" spans="1:26" ht="14">
+    <row r="5" spans="1:26" ht="14.25">
       <c r="F5" s="2"/>
       <c r="J5" s="107"/>
       <c r="K5" s="36"/>
@@ -24747,7 +25574,7 @@
       <c r="R5" s="109"/>
       <c r="S5" s="109"/>
     </row>
-    <row r="6" spans="1:26" ht="14">
+    <row r="6" spans="1:26" ht="14.25">
       <c r="F6" s="2"/>
       <c r="G6" s="143"/>
       <c r="I6" s="188"/>
@@ -24757,7 +25584,7 @@
       <c r="R6" s="109"/>
       <c r="S6" s="109"/>
     </row>
-    <row r="7" spans="1:26" ht="14">
+    <row r="7" spans="1:26" ht="14.25">
       <c r="F7" s="2"/>
       <c r="G7" s="218"/>
       <c r="H7" s="2"/>
@@ -24768,7 +25595,7 @@
       <c r="R7" s="109"/>
       <c r="S7" s="109"/>
     </row>
-    <row r="8" spans="1:26" ht="14">
+    <row r="8" spans="1:26" ht="14.25">
       <c r="F8" s="2"/>
       <c r="G8" s="218"/>
       <c r="H8" s="2"/>
@@ -24779,7 +25606,7 @@
       <c r="R8" s="109"/>
       <c r="S8" s="109"/>
     </row>
-    <row r="9" spans="1:26" ht="14">
+    <row r="9" spans="1:26" ht="14.25">
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -24791,7 +25618,7 @@
       <c r="R9" s="109"/>
       <c r="S9" s="109"/>
     </row>
-    <row r="10" spans="1:26" ht="14">
+    <row r="10" spans="1:26" ht="14.25">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -24803,7 +25630,7 @@
       <c r="R10" s="109"/>
       <c r="S10" s="109"/>
     </row>
-    <row r="11" spans="1:26" ht="14">
+    <row r="11" spans="1:26" ht="14.25">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -24815,7 +25642,7 @@
       <c r="R11" s="109"/>
       <c r="S11" s="109"/>
     </row>
-    <row r="12" spans="1:26" ht="14">
+    <row r="12" spans="1:26" ht="14.25">
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -24827,7 +25654,7 @@
       <c r="R12" s="109"/>
       <c r="S12" s="109"/>
     </row>
-    <row r="13" spans="1:26" ht="14">
+    <row r="13" spans="1:26" ht="14.25">
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -24839,7 +25666,7 @@
       <c r="R13" s="109"/>
       <c r="S13" s="109"/>
     </row>
-    <row r="14" spans="1:26" ht="14">
+    <row r="14" spans="1:26" ht="14.25">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -24851,7 +25678,7 @@
       <c r="R14" s="109"/>
       <c r="S14" s="109"/>
     </row>
-    <row r="15" spans="1:26" ht="14">
+    <row r="15" spans="1:26" ht="14.25">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -24863,7 +25690,7 @@
       <c r="R15" s="109"/>
       <c r="S15" s="109"/>
     </row>
-    <row r="16" spans="1:26" ht="14">
+    <row r="16" spans="1:26" ht="14.25">
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -24875,7 +25702,7 @@
       <c r="R16" s="109"/>
       <c r="S16" s="109"/>
     </row>
-    <row r="17" spans="6:19" ht="14">
+    <row r="17" spans="6:19" ht="14.25">
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -24887,7 +25714,7 @@
       <c r="R17" s="109"/>
       <c r="S17" s="109"/>
     </row>
-    <row r="18" spans="6:19" ht="14">
+    <row r="18" spans="6:19" ht="14.25">
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -24898,7 +25725,7 @@
       <c r="R18" s="109"/>
       <c r="S18" s="109"/>
     </row>
-    <row r="19" spans="6:19" ht="14">
+    <row r="19" spans="6:19" ht="14.25">
       <c r="F19" s="2"/>
       <c r="I19" s="115"/>
       <c r="J19" s="141"/>
@@ -24908,7 +25735,7 @@
       <c r="R19" s="109"/>
       <c r="S19" s="109"/>
     </row>
-    <row r="20" spans="6:19" ht="14">
+    <row r="20" spans="6:19" ht="14.25">
       <c r="F20" s="2"/>
       <c r="I20" s="107"/>
       <c r="J20" s="107"/>
@@ -24917,7 +25744,7 @@
       <c r="R20" s="109"/>
       <c r="S20" s="109"/>
     </row>
-    <row r="21" spans="6:19" ht="14">
+    <row r="21" spans="6:19" ht="14.25">
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -24928,7 +25755,7 @@
       <c r="R21" s="109"/>
       <c r="S21" s="109"/>
     </row>
-    <row r="22" spans="6:19" ht="14">
+    <row r="22" spans="6:19" ht="14.25">
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -24940,7 +25767,7 @@
       <c r="R22" s="109"/>
       <c r="S22" s="109"/>
     </row>
-    <row r="23" spans="6:19" ht="14">
+    <row r="23" spans="6:19" ht="14.25">
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -24952,7 +25779,7 @@
       <c r="R23" s="109"/>
       <c r="S23" s="109"/>
     </row>
-    <row r="24" spans="6:19" ht="14">
+    <row r="24" spans="6:19" ht="14.25">
       <c r="J24" s="33"/>
       <c r="L24" s="36"/>
       <c r="M24" s="46"/>
@@ -24960,7 +25787,7 @@
       <c r="R24" s="109"/>
       <c r="S24" s="109"/>
     </row>
-    <row r="25" spans="6:19" ht="14">
+    <row r="25" spans="6:19" ht="14.25">
       <c r="F25" s="2"/>
       <c r="I25" s="107"/>
       <c r="J25" s="107"/>
@@ -24971,7 +25798,7 @@
       <c r="R25" s="109"/>
       <c r="S25" s="109"/>
     </row>
-    <row r="26" spans="6:19" ht="14">
+    <row r="26" spans="6:19" ht="14.25">
       <c r="F26" s="2"/>
       <c r="J26" s="107"/>
       <c r="K26" s="107"/>
@@ -24981,7 +25808,7 @@
       <c r="R26" s="109"/>
       <c r="S26" s="109"/>
     </row>
-    <row r="27" spans="6:19" ht="14">
+    <row r="27" spans="6:19" ht="14.25">
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="I27" s="107"/>
@@ -24992,7 +25819,7 @@
       <c r="R27" s="109"/>
       <c r="S27" s="109"/>
     </row>
-    <row r="28" spans="6:19" ht="14">
+    <row r="28" spans="6:19" ht="14.25">
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="I28" s="107"/>
@@ -25003,7 +25830,7 @@
       <c r="R28" s="109"/>
       <c r="S28" s="109"/>
     </row>
-    <row r="29" spans="6:19" ht="14">
+    <row r="29" spans="6:19" ht="14.25">
       <c r="F29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="107"/>
@@ -25014,7 +25841,7 @@
       <c r="R29" s="109"/>
       <c r="S29" s="109"/>
     </row>
-    <row r="30" spans="6:19" ht="14">
+    <row r="30" spans="6:19" ht="14.25">
       <c r="G30" s="2"/>
       <c r="I30" s="188"/>
       <c r="J30" s="107"/>
@@ -25024,7 +25851,7 @@
       <c r="R30" s="109"/>
       <c r="S30" s="109"/>
     </row>
-    <row r="31" spans="6:19" ht="14">
+    <row r="31" spans="6:19" ht="14.25">
       <c r="J31" s="107"/>
       <c r="K31" s="107"/>
       <c r="L31" s="36"/>
@@ -25033,7 +25860,7 @@
       <c r="R31" s="109"/>
       <c r="S31" s="109"/>
     </row>
-    <row r="32" spans="6:19" ht="14">
+    <row r="32" spans="6:19" ht="14.25">
       <c r="G32" s="2"/>
       <c r="J32" s="107"/>
       <c r="K32" s="107"/>
@@ -25043,7 +25870,7 @@
       <c r="R32" s="109"/>
       <c r="S32" s="109"/>
     </row>
-    <row r="33" spans="1:19" ht="14">
+    <row r="33" spans="1:19" ht="14.25">
       <c r="H33" s="145"/>
       <c r="I33" s="107"/>
       <c r="J33" s="110"/>
@@ -25053,7 +25880,7 @@
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
     </row>
-    <row r="34" spans="1:19" ht="14">
+    <row r="34" spans="1:19" ht="14.25">
       <c r="I34" s="107"/>
       <c r="J34" s="107"/>
       <c r="L34" s="36"/>
@@ -25157,7 +25984,7 @@
       <c r="R45" s="109"/>
       <c r="S45" s="32"/>
     </row>
-    <row r="46" spans="1:19" ht="14">
+    <row r="46" spans="1:19" ht="14.25">
       <c r="A46" s="120"/>
       <c r="F46" s="111"/>
       <c r="I46" s="107"/>
@@ -25252,20 +26079,20 @@
       <selection activeCell="A4" sqref="A4:XFD240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" customWidth="1"/>
+    <col min="5" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="90.33203125" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="1010" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="90.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="1010" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18">
@@ -25342,7 +26169,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="56">
+    <row r="3" spans="1:16" ht="51">
       <c r="A3" s="28" t="s">
         <v>32</v>
       </c>

--- a/data/ccd-template.xlsx
+++ b/data/ccd-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\fergusoshea\et-ccd-definitions-scotland\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40113A3E-F1C4-4437-8CDB-1D8BB5FCD4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC943CB2-B4C0-436D-BC73-DA9DD9DDEBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" tabRatio="500" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" tabRatio="500" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchParty" sheetId="36" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Scotland Scrubbed'!$A$3:$F$646</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">State!$A$3:$Q$11</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="379">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1285,6 +1285,12 @@
   </si>
   <si>
     <t>AccessProfiles</t>
+  </si>
+  <si>
+    <t>Boolean value to say if an event can be published</t>
+  </si>
+  <si>
+    <t>Publish</t>
   </si>
 </sst>
 </file>
@@ -3221,8 +3227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U206"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD206"/>
+    <sheetView topLeftCell="B2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -4460,7 +4466,7 @@
   <dimension ref="A1:AMK8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
@@ -9273,12 +9279,12 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E7B8F4-5285-46EC-BCE1-BF8FCCDC20D1}">
-  <dimension ref="A1:K402"/>
+  <dimension ref="A1:L402"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D14" sqref="D14"/>
-      <selection pane="bottomLeft" activeCell="E369" sqref="E369"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
@@ -9295,7 +9301,7 @@
     <col min="16" max="16" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:12" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="282" t="s">
         <v>120</v>
       </c>
@@ -9314,7 +9320,7 @@
       <c r="H1" s="278"/>
       <c r="I1" s="277"/>
     </row>
-    <row r="2" spans="1:11" ht="66.95" customHeight="1">
+    <row r="2" spans="1:12" ht="66.95" customHeight="1">
       <c r="A2" s="275" t="s">
         <v>121</v>
       </c>
@@ -9340,8 +9346,11 @@
       <c r="I2" s="275" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="274" t="s">
         <v>11</v>
       </c>
@@ -9375,8 +9384,11 @@
       <c r="K3" s="271" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="42" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="263" t="s">
         <v>347</v>
       </c>
@@ -9404,7 +9416,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="263" t="s">
         <v>347</v>
       </c>
@@ -9432,7 +9444,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="263" t="s">
         <v>347</v>
       </c>
@@ -9460,7 +9472,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="263" t="s">
         <v>347</v>
       </c>
@@ -9488,7 +9500,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="263" t="s">
         <v>347</v>
       </c>
@@ -9516,7 +9528,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="263" t="s">
         <v>347</v>
       </c>
@@ -9544,7 +9556,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="263" t="s">
         <v>347</v>
       </c>
@@ -9567,7 +9579,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="263" t="s">
         <v>347</v>
       </c>
@@ -9592,7 +9604,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="263" t="s">
         <v>347</v>
       </c>
@@ -9615,7 +9627,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="263" t="s">
         <v>347</v>
       </c>
@@ -9638,7 +9650,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="263" t="s">
         <v>347</v>
       </c>
@@ -9663,7 +9675,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="263" t="s">
         <v>347</v>
       </c>
@@ -9688,7 +9700,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="263" t="s">
         <v>347</v>
       </c>
@@ -15499,7 +15511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4F7720-24EC-4BC8-BFE2-934342B17442}">
   <dimension ref="A1:E249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -25393,8 +25405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD54"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -25491,6 +25503,9 @@
       <c r="Q2" s="25"/>
       <c r="R2" s="25"/>
       <c r="S2" s="25"/>
+      <c r="T2" s="23" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="38.25">
       <c r="A3" s="40" t="s">
@@ -25550,7 +25565,9 @@
       <c r="S3" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="T3" s="14"/>
+      <c r="T3" s="42" t="s">
+        <v>378</v>
+      </c>
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
@@ -26073,10 +26090,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:P240"/>
+  <dimension ref="A1:Q240"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD240"/>
+    <sheetView topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -26092,10 +26109,12 @@
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
     <col min="12" max="12" width="90.28515625" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="1010" width="8.7109375" customWidth="1"/>
+    <col min="14" max="16" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875"/>
+    <col min="18" max="1010" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18">
+    <row r="1" spans="1:17" ht="18">
       <c r="A1" s="35" t="s">
         <v>71</v>
       </c>
@@ -26121,7 +26140,7 @@
       <c r="O1" s="36"/>
       <c r="P1" s="39"/>
     </row>
-    <row r="2" spans="1:16" ht="144" customHeight="1">
+    <row r="2" spans="1:17" ht="144" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -26168,8 +26187,11 @@
       <c r="P2" s="25" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="51">
+      <c r="Q2" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="51">
       <c r="A3" s="28" t="s">
         <v>32</v>
       </c>
@@ -26218,29 +26240,32 @@
       <c r="P3" s="27" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="42" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="K4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="K5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="K6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -26248,7 +26273,7 @@
       <c r="M7" s="50"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -26256,7 +26281,7 @@
       <c r="M8" s="50"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -26264,7 +26289,7 @@
       <c r="M9" s="50"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -26272,42 +26297,42 @@
       <c r="M10" s="50"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="K11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="K12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="K13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="K14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="K15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>

--- a/data/ccd-template.xlsx
+++ b/data/ccd-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\fergusoshea\et-ccd-definitions-scotland\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jack\et-ccd-definitions-scotland\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40113A3E-F1C4-4437-8CDB-1D8BB5FCD4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7823E5-6906-4F5C-88DC-64D3D65975D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" tabRatio="500" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="36660" windowHeight="19395" tabRatio="500" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchParty" sheetId="36" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">AuthorisationCaseField!$A$1:$D$517</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">AuthorisationCaseState!$A$3:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">CaseEvent!$A$3:$Z$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">CaseEventToFields!$A$3:$P$231</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">CaseEventToFields!$A$3:$Q$231</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">CaseField!$A$3:$U$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CaseRoles!$A$3:$F$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">CaseTypeTab!$A$3:$P$54</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="377">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -15499,7 +15499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4F7720-24EC-4BC8-BFE2-934342B17442}">
   <dimension ref="A1:E249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -26073,10 +26073,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:P240"/>
+  <dimension ref="A1:Q240"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD240"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -26084,18 +26084,18 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="90.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="1010" width="8.7109375" customWidth="1"/>
+    <col min="4" max="5" width="18" customWidth="1"/>
+    <col min="6" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="90.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="1011" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18">
+    <row r="1" spans="1:17" ht="18">
       <c r="A1" s="35" t="s">
         <v>71</v>
       </c>
@@ -26106,22 +26106,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="36"/>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="36"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
       <c r="K1" s="36"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="39"/>
       <c r="N1" s="36"/>
       <c r="O1" s="36"/>
-      <c r="P1" s="39"/>
-    </row>
-    <row r="2" spans="1:16" ht="144" customHeight="1">
+      <c r="P1" s="36"/>
+      <c r="Q1" s="39"/>
+    </row>
+    <row r="2" spans="1:17" ht="144" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -26134,42 +26135,43 @@
       <c r="D2" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="M2" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="N2" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="O2" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="P2" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="Q2" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="51">
+    <row r="3" spans="1:17" ht="51">
       <c r="A3" s="28" t="s">
         <v>32</v>
       </c>
@@ -26182,1960 +26184,1981 @@
       <c r="D3" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="G3" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="H3" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="I3" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="J3" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="K3" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="L3" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="M3" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="N3" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="O3" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="P3" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="Q3" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="E4" s="1"/>
+    <row r="4" spans="1:17">
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="E5" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="E6" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="E7" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="E8" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="E9" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="E10" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="E11" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="E12" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="E13" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="E14" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="E15" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="E16" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="5:14">
-      <c r="E17" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="6:15">
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="5:14">
-      <c r="E18" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="6:15">
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="33"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="5:14">
-      <c r="E19" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="33"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="6:15">
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="5:14">
-      <c r="E20" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="6:15">
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="5:14">
-      <c r="E21" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="6:15">
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="5:14">
-      <c r="E22" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="6:15">
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="5:14">
-      <c r="E23" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="6:15">
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="5:14">
-      <c r="E24" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="6:15">
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="5:14">
-      <c r="E25" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="6:15">
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="5:14">
-      <c r="E26" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="6:15">
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="5:14">
-      <c r="E27" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="6:15">
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="5:14">
-      <c r="E28" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="6:15">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="5:14">
-      <c r="E29" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="6:15">
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="5:14">
-      <c r="E30" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="6:15">
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="5:14">
-      <c r="E31" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="6:15">
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="5:14">
-      <c r="E32" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="6:15">
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="5:14">
-      <c r="E33" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="6:15">
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="5:14">
-      <c r="E34" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="6:15">
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="5:14">
-      <c r="E35" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="107"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="6:15">
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="5:14">
-      <c r="E36" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="6:15">
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="5:14">
-      <c r="E37" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="6:15">
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="5:14">
-      <c r="E38" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="6:15">
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="5:14">
-      <c r="E39" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="6:15">
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="5:14">
-      <c r="E40" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="6:15">
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="5:14">
-      <c r="E41" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="6:15">
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="5:14">
-      <c r="E42" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="6:15">
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="5:14">
-      <c r="E43" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="6:15">
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="5:14">
-      <c r="E44" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="6:15">
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="5:14">
-      <c r="E45" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="6:15">
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="5:14">
-      <c r="E46" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="6:15">
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="5:14">
-      <c r="E47" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="6:15">
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="5:14">
-      <c r="E48" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="6:15">
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="M48" s="50"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="5:14">
-      <c r="E49" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="6:15">
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="5:14">
-      <c r="E50" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="6:15">
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="107"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="5:14">
-      <c r="E51" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="107"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="6:15">
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="107"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="5:14">
-      <c r="E52" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="107"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="6:15">
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="5:14">
-      <c r="E53" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53" spans="6:15">
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="5:14">
-      <c r="E54" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="1"/>
+    </row>
+    <row r="54" spans="6:15">
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="M54" s="50"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="5:14">
-      <c r="E55" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="6:15">
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="M55" s="50"/>
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="5:14">
-      <c r="E56" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="6:15">
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="M56" s="50"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="5:14">
-      <c r="E57" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="6:15">
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="M57" s="50"/>
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="5:14">
-      <c r="E58" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="6:15">
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="M58" s="50"/>
-      <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="5:14">
-      <c r="E59" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="N58" s="50"/>
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="6:15">
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="M59" s="50"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="5:14">
-      <c r="E60" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="N59" s="50"/>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="6:15">
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="M60" s="50"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="5:14">
-      <c r="E61" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="6:15">
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="M61" s="50"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="5:14">
-      <c r="E62" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="6:15">
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="5:14">
-      <c r="E63" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="N62" s="50"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="6:15">
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="M63" s="50"/>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="5:14">
-      <c r="E64" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="N63" s="50"/>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="6:15">
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="M64" s="50"/>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="5:14">
-      <c r="E65" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="N64" s="50"/>
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="6:15">
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="M65" s="50"/>
-      <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="5:14">
-      <c r="E66" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="N65" s="50"/>
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="6:15">
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="M66" s="50"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="5:14">
-      <c r="E67" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="N66" s="50"/>
+      <c r="O66" s="1"/>
+    </row>
+    <row r="67" spans="6:15">
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="M67" s="50"/>
-      <c r="N67" s="1"/>
-    </row>
-    <row r="68" spans="5:14">
-      <c r="E68" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="N67" s="50"/>
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68" spans="6:15">
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="M68" s="50"/>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="5:14">
-      <c r="E69" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="N68" s="50"/>
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="6:15">
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="M69" s="50"/>
-      <c r="N69" s="1"/>
-    </row>
-    <row r="70" spans="5:14">
-      <c r="E70" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" spans="6:15">
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="M70" s="50"/>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="5:14">
-      <c r="E71" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="N70" s="50"/>
+      <c r="O70" s="1"/>
+    </row>
+    <row r="71" spans="6:15">
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="M71" s="50"/>
-      <c r="N71" s="1"/>
-    </row>
-    <row r="72" spans="5:14">
-      <c r="E72" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="N71" s="50"/>
+      <c r="O71" s="1"/>
+    </row>
+    <row r="72" spans="6:15">
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="M72" s="50"/>
-      <c r="N72" s="1"/>
-    </row>
-    <row r="73" spans="5:14">
-      <c r="E73" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="N72" s="50"/>
+      <c r="O72" s="1"/>
+    </row>
+    <row r="73" spans="6:15">
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="M73" s="50"/>
-      <c r="N73" s="1"/>
-    </row>
-    <row r="74" spans="5:14">
-      <c r="E74" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="1"/>
+    </row>
+    <row r="74" spans="6:15">
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="M74" s="50"/>
-      <c r="N74" s="1"/>
-    </row>
-    <row r="75" spans="5:14">
-      <c r="E75" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="N74" s="50"/>
+      <c r="O74" s="1"/>
+    </row>
+    <row r="75" spans="6:15">
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="M75" s="50"/>
-      <c r="N75" s="1"/>
-    </row>
-    <row r="76" spans="5:14">
-      <c r="E76" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="N75" s="50"/>
+      <c r="O75" s="1"/>
+    </row>
+    <row r="76" spans="6:15">
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="M76" s="50"/>
-      <c r="N76" s="1"/>
-    </row>
-    <row r="77" spans="5:14">
-      <c r="E77" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="N76" s="50"/>
+      <c r="O76" s="1"/>
+    </row>
+    <row r="77" spans="6:15">
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="33"/>
-      <c r="M77" s="50"/>
-      <c r="N77" s="1"/>
-    </row>
-    <row r="78" spans="5:14">
-      <c r="E78" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="33"/>
+      <c r="N77" s="50"/>
+      <c r="O77" s="1"/>
+    </row>
+    <row r="78" spans="6:15">
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="M78" s="50"/>
-      <c r="N78" s="1"/>
-    </row>
-    <row r="79" spans="5:14">
-      <c r="E79" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="N78" s="50"/>
+      <c r="O78" s="1"/>
+    </row>
+    <row r="79" spans="6:15">
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="M79" s="50"/>
-      <c r="N79" s="1"/>
-    </row>
-    <row r="80" spans="5:14">
-      <c r="E80" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="N79" s="50"/>
+      <c r="O79" s="1"/>
+    </row>
+    <row r="80" spans="6:15">
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="107"/>
-      <c r="M80" s="50"/>
-      <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="3:14">
-      <c r="E81" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="107"/>
+      <c r="N80" s="50"/>
+      <c r="O80" s="1"/>
+    </row>
+    <row r="81" spans="3:15">
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="107"/>
-      <c r="M81" s="50"/>
-      <c r="N81" s="1"/>
-    </row>
-    <row r="82" spans="3:14">
-      <c r="E82" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="107"/>
+      <c r="N81" s="50"/>
+      <c r="O81" s="1"/>
+    </row>
+    <row r="82" spans="3:15">
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="107"/>
-      <c r="M82" s="50"/>
-      <c r="N82" s="1"/>
-    </row>
-    <row r="83" spans="3:14">
-      <c r="E83" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="107"/>
+      <c r="N82" s="50"/>
+      <c r="O82" s="1"/>
+    </row>
+    <row r="83" spans="3:15">
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="107"/>
-      <c r="M83" s="50"/>
-      <c r="N83" s="1"/>
-    </row>
-    <row r="84" spans="3:14">
-      <c r="E84" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="107"/>
+      <c r="N83" s="50"/>
+      <c r="O83" s="1"/>
+    </row>
+    <row r="84" spans="3:15">
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="107"/>
-      <c r="M84" s="50"/>
-      <c r="N84" s="1"/>
-    </row>
-    <row r="85" spans="3:14">
-      <c r="E85" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="107"/>
+      <c r="N84" s="50"/>
+      <c r="O84" s="1"/>
+    </row>
+    <row r="85" spans="3:15">
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="107"/>
-      <c r="M85" s="50"/>
-      <c r="N85" s="1"/>
-    </row>
-    <row r="86" spans="3:14">
-      <c r="E86" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="107"/>
+      <c r="N85" s="50"/>
+      <c r="O85" s="1"/>
+    </row>
+    <row r="86" spans="3:15">
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="107"/>
-      <c r="M86" s="50"/>
-      <c r="N86" s="1"/>
-    </row>
-    <row r="87" spans="3:14">
-      <c r="E87" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="107"/>
+      <c r="N86" s="50"/>
+      <c r="O86" s="1"/>
+    </row>
+    <row r="87" spans="3:15">
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="107"/>
-      <c r="M87" s="50"/>
-      <c r="N87" s="1"/>
-    </row>
-    <row r="88" spans="3:14">
-      <c r="E88" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="107"/>
+      <c r="N87" s="50"/>
+      <c r="O87" s="1"/>
+    </row>
+    <row r="88" spans="3:15">
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="107"/>
-      <c r="M88" s="50"/>
-      <c r="N88" s="1"/>
-    </row>
-    <row r="89" spans="3:14">
-      <c r="E89" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="107"/>
+      <c r="N88" s="50"/>
+      <c r="O88" s="1"/>
+    </row>
+    <row r="89" spans="3:15">
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="107"/>
-      <c r="M89" s="50"/>
-      <c r="N89" s="1"/>
-    </row>
-    <row r="90" spans="3:14">
-      <c r="E90" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="107"/>
+      <c r="N89" s="50"/>
+      <c r="O89" s="1"/>
+    </row>
+    <row r="90" spans="3:15">
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="107"/>
-      <c r="M90" s="50"/>
-      <c r="N90" s="1"/>
-    </row>
-    <row r="91" spans="3:14">
-      <c r="E91" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="107"/>
+      <c r="N90" s="50"/>
+      <c r="O90" s="1"/>
+    </row>
+    <row r="91" spans="3:15">
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="107"/>
-      <c r="M91" s="50"/>
-      <c r="N91" s="1"/>
-    </row>
-    <row r="92" spans="3:14">
-      <c r="E92" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="107"/>
+      <c r="N91" s="50"/>
+      <c r="O91" s="1"/>
+    </row>
+    <row r="92" spans="3:15">
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="107"/>
-      <c r="M92" s="50"/>
-      <c r="N92" s="1"/>
-    </row>
-    <row r="93" spans="3:14">
+      <c r="H92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="107"/>
+      <c r="N92" s="50"/>
+      <c r="O92" s="1"/>
+    </row>
+    <row r="93" spans="3:15">
       <c r="C93" s="108"/>
-      <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="107"/>
-      <c r="M93" s="50"/>
-      <c r="N93" s="1"/>
-    </row>
-    <row r="94" spans="3:14">
+      <c r="H93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="107"/>
+      <c r="N93" s="50"/>
+      <c r="O93" s="1"/>
+    </row>
+    <row r="94" spans="3:15">
       <c r="C94" s="108"/>
-      <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="107"/>
-      <c r="M94" s="50"/>
-      <c r="N94" s="1"/>
-    </row>
-    <row r="95" spans="3:14">
-      <c r="E95" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="107"/>
+      <c r="N94" s="50"/>
+      <c r="O94" s="1"/>
+    </row>
+    <row r="95" spans="3:15">
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="107"/>
-      <c r="M95" s="50"/>
-      <c r="N95" s="1"/>
-    </row>
-    <row r="96" spans="3:14">
-      <c r="E96" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="107"/>
+      <c r="N95" s="50"/>
+      <c r="O95" s="1"/>
+    </row>
+    <row r="96" spans="3:15">
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="107"/>
-      <c r="M96" s="50"/>
-      <c r="N96" s="1"/>
-    </row>
-    <row r="97" spans="3:14">
-      <c r="E97" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="107"/>
+      <c r="N96" s="50"/>
+      <c r="O96" s="1"/>
+    </row>
+    <row r="97" spans="3:15">
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="107"/>
-      <c r="M97" s="50"/>
-      <c r="N97" s="1"/>
-    </row>
-    <row r="98" spans="3:14">
-      <c r="E98" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="107"/>
+      <c r="N97" s="50"/>
+      <c r="O97" s="1"/>
+    </row>
+    <row r="98" spans="3:15">
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="107"/>
-      <c r="M98" s="50"/>
-      <c r="N98" s="1"/>
-    </row>
-    <row r="99" spans="3:14">
-      <c r="E99" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="107"/>
+      <c r="N98" s="50"/>
+      <c r="O98" s="1"/>
+    </row>
+    <row r="99" spans="3:15">
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="107"/>
-      <c r="M99" s="50"/>
-      <c r="N99" s="1"/>
-    </row>
-    <row r="100" spans="3:14">
-      <c r="E100" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="107"/>
+      <c r="N99" s="50"/>
+      <c r="O99" s="1"/>
+    </row>
+    <row r="100" spans="3:15">
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="107"/>
-      <c r="M100" s="50"/>
-      <c r="N100" s="1"/>
-    </row>
-    <row r="101" spans="3:14">
-      <c r="E101" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="107"/>
+      <c r="N100" s="50"/>
+      <c r="O100" s="1"/>
+    </row>
+    <row r="101" spans="3:15">
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="107"/>
-      <c r="M101" s="50"/>
-      <c r="N101" s="1"/>
-    </row>
-    <row r="102" spans="3:14">
-      <c r="E102" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="107"/>
+      <c r="N101" s="50"/>
+      <c r="O101" s="1"/>
+    </row>
+    <row r="102" spans="3:15">
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="107"/>
-      <c r="M102" s="50"/>
-      <c r="N102" s="1"/>
-    </row>
-    <row r="103" spans="3:14">
-      <c r="E103" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="107"/>
+      <c r="N102" s="50"/>
+      <c r="O102" s="1"/>
+    </row>
+    <row r="103" spans="3:15">
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="107"/>
-      <c r="M103" s="50"/>
-      <c r="N103" s="1"/>
-    </row>
-    <row r="104" spans="3:14">
-      <c r="E104" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="107"/>
+      <c r="N103" s="50"/>
+      <c r="O103" s="1"/>
+    </row>
+    <row r="104" spans="3:15">
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="107"/>
-      <c r="M104" s="50"/>
-      <c r="N104" s="1"/>
-    </row>
-    <row r="105" spans="3:14">
-      <c r="E105" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="107"/>
+      <c r="N104" s="50"/>
+      <c r="O104" s="1"/>
+    </row>
+    <row r="105" spans="3:15">
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="107"/>
-      <c r="M105" s="50"/>
-      <c r="N105" s="1"/>
-    </row>
-    <row r="106" spans="3:14">
-      <c r="E106" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="107"/>
+      <c r="N105" s="50"/>
+      <c r="O105" s="1"/>
+    </row>
+    <row r="106" spans="3:15">
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="107"/>
-      <c r="M106" s="50"/>
-      <c r="N106" s="1"/>
-    </row>
-    <row r="107" spans="3:14">
-      <c r="E107" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="107"/>
+      <c r="N106" s="50"/>
+      <c r="O106" s="1"/>
+    </row>
+    <row r="107" spans="3:15">
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="107"/>
-      <c r="M107" s="50"/>
-      <c r="N107" s="1"/>
-    </row>
-    <row r="108" spans="3:14">
+      <c r="H107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="107"/>
+      <c r="N107" s="50"/>
+      <c r="O107" s="1"/>
+    </row>
+    <row r="108" spans="3:15">
       <c r="C108" s="56"/>
-      <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="107"/>
-      <c r="M108" s="50"/>
-      <c r="N108" s="1"/>
-    </row>
-    <row r="109" spans="3:14">
-      <c r="E109" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="107"/>
+      <c r="N108" s="50"/>
+      <c r="O108" s="1"/>
+    </row>
+    <row r="109" spans="3:15">
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="107"/>
-      <c r="M109" s="50"/>
-      <c r="N109" s="1"/>
-    </row>
-    <row r="110" spans="3:14">
-      <c r="E110" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="107"/>
+      <c r="N109" s="50"/>
+      <c r="O109" s="1"/>
+    </row>
+    <row r="110" spans="3:15">
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="M110" s="50"/>
-      <c r="N110" s="1"/>
-    </row>
-    <row r="111" spans="3:14">
+      <c r="H110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="N110" s="50"/>
+      <c r="O110" s="1"/>
+    </row>
+    <row r="111" spans="3:15">
       <c r="D111" s="143"/>
-      <c r="E111" s="1"/>
+      <c r="E111" s="143"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="M111" s="50"/>
-      <c r="N111" s="1"/>
-    </row>
-    <row r="112" spans="3:14">
+      <c r="H111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="N111" s="50"/>
+      <c r="O111" s="1"/>
+    </row>
+    <row r="112" spans="3:15">
       <c r="D112" s="143"/>
-      <c r="E112" s="1"/>
+      <c r="E112" s="143"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="M112" s="50"/>
-      <c r="N112" s="1"/>
-    </row>
-    <row r="113" spans="5:14">
-      <c r="E113" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="N112" s="50"/>
+      <c r="O112" s="1"/>
+    </row>
+    <row r="113" spans="6:15">
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="M113" s="50"/>
-      <c r="N113" s="1"/>
-    </row>
-    <row r="114" spans="5:14">
-      <c r="E114" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="N113" s="50"/>
+      <c r="O113" s="1"/>
+    </row>
+    <row r="114" spans="6:15">
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="M114" s="50"/>
-      <c r="N114" s="1"/>
-    </row>
-    <row r="115" spans="5:14">
-      <c r="E115" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="N114" s="50"/>
+      <c r="O114" s="1"/>
+    </row>
+    <row r="115" spans="6:15">
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="M115" s="50"/>
-      <c r="N115" s="1"/>
-    </row>
-    <row r="116" spans="5:14">
-      <c r="E116" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="N115" s="50"/>
+      <c r="O115" s="1"/>
+    </row>
+    <row r="116" spans="6:15">
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="N116" s="1"/>
-    </row>
-    <row r="117" spans="5:14">
-      <c r="E117" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="O116" s="1"/>
+    </row>
+    <row r="117" spans="6:15">
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="107"/>
-      <c r="M117" s="50"/>
-      <c r="N117" s="1"/>
-    </row>
-    <row r="118" spans="5:14">
-      <c r="E118" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="107"/>
+      <c r="N117" s="50"/>
+      <c r="O117" s="1"/>
+    </row>
+    <row r="118" spans="6:15">
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="M118" s="50"/>
-      <c r="N118" s="1"/>
-    </row>
-    <row r="119" spans="5:14">
-      <c r="E119" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="N118" s="50"/>
+      <c r="O118" s="1"/>
+    </row>
+    <row r="119" spans="6:15">
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="M119" s="50"/>
-      <c r="N119" s="1"/>
-    </row>
-    <row r="120" spans="5:14">
-      <c r="E120" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="N119" s="50"/>
+      <c r="O119" s="1"/>
+    </row>
+    <row r="120" spans="6:15">
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="110"/>
-      <c r="N120" s="1"/>
-    </row>
-    <row r="121" spans="5:14">
-      <c r="E121" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="110"/>
+      <c r="O120" s="1"/>
+    </row>
+    <row r="121" spans="6:15">
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="N121" s="1"/>
-    </row>
-    <row r="122" spans="5:14">
-      <c r="E122" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="O121" s="1"/>
+    </row>
+    <row r="122" spans="6:15">
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="N122" s="1"/>
-    </row>
-    <row r="123" spans="5:14">
-      <c r="E123" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="O122" s="1"/>
+    </row>
+    <row r="123" spans="6:15">
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
-      <c r="K123" s="1"/>
-      <c r="N123" s="1"/>
-    </row>
-    <row r="124" spans="5:14">
-      <c r="E124" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="O123" s="1"/>
+    </row>
+    <row r="124" spans="6:15">
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="N124" s="1"/>
-    </row>
-    <row r="125" spans="5:14">
-      <c r="E125" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="O124" s="1"/>
+    </row>
+    <row r="125" spans="6:15">
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
-      <c r="K125" s="1"/>
-      <c r="N125" s="1"/>
-    </row>
-    <row r="126" spans="5:14">
-      <c r="E126" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="O125" s="1"/>
+    </row>
+    <row r="126" spans="6:15">
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="107"/>
-      <c r="N126" s="1"/>
-    </row>
-    <row r="127" spans="5:14">
-      <c r="E127" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="107"/>
+      <c r="O126" s="1"/>
+    </row>
+    <row r="127" spans="6:15">
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
-      <c r="K127" s="1"/>
-      <c r="N127" s="1"/>
-    </row>
-    <row r="128" spans="5:14">
-      <c r="E128" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="O127" s="1"/>
+    </row>
+    <row r="128" spans="6:15">
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
-      <c r="K128" s="1"/>
-      <c r="N128" s="1"/>
-    </row>
-    <row r="129" spans="2:14">
-      <c r="E129" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="O128" s="1"/>
+    </row>
+    <row r="129" spans="2:15">
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
-      <c r="K129" s="1"/>
-      <c r="N129" s="1"/>
-    </row>
-    <row r="130" spans="2:14">
-      <c r="E130" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="O129" s="1"/>
+    </row>
+    <row r="130" spans="2:15">
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
-      <c r="K130" s="1"/>
-      <c r="N130" s="1"/>
-    </row>
-    <row r="131" spans="2:14">
-      <c r="E131" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="O130" s="1"/>
+    </row>
+    <row r="131" spans="2:15">
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
-      <c r="K131" s="1"/>
-      <c r="N131" s="1"/>
-    </row>
-    <row r="132" spans="2:14">
-      <c r="E132" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="O131" s="1"/>
+    </row>
+    <row r="132" spans="2:15">
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
-      <c r="K132" s="1"/>
-      <c r="N132" s="1"/>
-    </row>
-    <row r="133" spans="2:14">
-      <c r="E133" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="O132" s="1"/>
+    </row>
+    <row r="133" spans="2:15">
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="N133" s="1"/>
-    </row>
-    <row r="134" spans="2:14">
-      <c r="E134" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="O133" s="1"/>
+    </row>
+    <row r="134" spans="2:15">
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-      <c r="K134" s="1"/>
-      <c r="N134" s="1"/>
-    </row>
-    <row r="135" spans="2:14">
+      <c r="H134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="O134" s="1"/>
+    </row>
+    <row r="135" spans="2:15">
       <c r="B135" s="36"/>
-      <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
-      <c r="K135" s="1"/>
-      <c r="N135" s="1"/>
-    </row>
-    <row r="136" spans="2:14">
+      <c r="H135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="O135" s="1"/>
+    </row>
+    <row r="136" spans="2:15">
       <c r="B136" s="36"/>
-      <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="N136" s="1"/>
-    </row>
-    <row r="137" spans="2:14">
+      <c r="H136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="O136" s="1"/>
+    </row>
+    <row r="137" spans="2:15">
       <c r="B137" s="36"/>
       <c r="C137" s="36"/>
-      <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="N137" s="1"/>
-    </row>
-    <row r="138" spans="2:14">
-      <c r="E138" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="O137" s="1"/>
+    </row>
+    <row r="138" spans="2:15">
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
-      <c r="K138" s="1"/>
-      <c r="N138" s="1"/>
-    </row>
-    <row r="139" spans="2:14">
-      <c r="E139" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="O138" s="1"/>
+    </row>
+    <row r="139" spans="2:15">
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
-      <c r="K139" s="1"/>
-      <c r="N139" s="1"/>
-    </row>
-    <row r="140" spans="2:14">
+      <c r="H139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="O139" s="1"/>
+    </row>
+    <row r="140" spans="2:15">
       <c r="C140" s="36"/>
-      <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
-      <c r="K140" s="1"/>
-      <c r="N140" s="1"/>
-    </row>
-    <row r="141" spans="2:14">
+      <c r="H140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="O140" s="1"/>
+    </row>
+    <row r="141" spans="2:15">
       <c r="C141" s="36"/>
-      <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
-      <c r="K141" s="1"/>
-      <c r="N141" s="1"/>
-    </row>
-    <row r="142" spans="2:14">
-      <c r="E142" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="O141" s="1"/>
+    </row>
+    <row r="142" spans="2:15">
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
-      <c r="K142" s="1"/>
-      <c r="N142" s="1"/>
-    </row>
-    <row r="143" spans="2:14">
+      <c r="H142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="O142" s="1"/>
+    </row>
+    <row r="143" spans="2:15">
       <c r="B143" s="36"/>
       <c r="C143" s="36"/>
-      <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
-      <c r="K143" s="1"/>
-      <c r="N143" s="1"/>
-    </row>
-    <row r="144" spans="2:14">
+      <c r="H143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="O143" s="1"/>
+    </row>
+    <row r="144" spans="2:15">
       <c r="B144" s="36"/>
       <c r="C144" s="36"/>
-      <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
-      <c r="K144" s="1"/>
-      <c r="N144" s="1"/>
-    </row>
-    <row r="145" spans="2:14">
+      <c r="H144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="O144" s="1"/>
+    </row>
+    <row r="145" spans="2:15">
       <c r="B145" s="36"/>
       <c r="C145" s="36"/>
-      <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
-      <c r="K145" s="1"/>
-      <c r="N145" s="1"/>
-    </row>
-    <row r="146" spans="2:14">
-      <c r="E146" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="O145" s="1"/>
+    </row>
+    <row r="146" spans="2:15">
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
-      <c r="K146" s="1"/>
-      <c r="M146" s="50"/>
-      <c r="N146" s="1"/>
-    </row>
-    <row r="147" spans="2:14">
-      <c r="E147" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="N146" s="50"/>
+      <c r="O146" s="1"/>
+    </row>
+    <row r="147" spans="2:15">
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
-      <c r="K147" s="1"/>
-      <c r="M147" s="50"/>
-      <c r="N147" s="1"/>
-    </row>
-    <row r="148" spans="2:14">
-      <c r="E148" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="N147" s="50"/>
+      <c r="O147" s="1"/>
+    </row>
+    <row r="148" spans="2:15">
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
-      <c r="K148" s="1"/>
-      <c r="M148" s="50"/>
-      <c r="N148" s="1"/>
-    </row>
-    <row r="149" spans="2:14">
-      <c r="E149" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="N148" s="50"/>
+      <c r="O148" s="1"/>
+    </row>
+    <row r="149" spans="2:15">
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
-      <c r="K149" s="1"/>
-      <c r="M149" s="50"/>
-      <c r="N149" s="1"/>
-    </row>
-    <row r="150" spans="2:14">
-      <c r="E150" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="N149" s="50"/>
+      <c r="O149" s="1"/>
+    </row>
+    <row r="150" spans="2:15">
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
-      <c r="K150" s="1"/>
-      <c r="M150" s="50"/>
-      <c r="N150" s="1"/>
-    </row>
-    <row r="151" spans="2:14">
-      <c r="E151" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="N150" s="50"/>
+      <c r="O150" s="1"/>
+    </row>
+    <row r="151" spans="2:15">
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
-      <c r="K151" s="1"/>
-      <c r="M151" s="50"/>
-      <c r="N151" s="1"/>
-    </row>
-    <row r="152" spans="2:14">
-      <c r="E152" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="N151" s="50"/>
+      <c r="O151" s="1"/>
+    </row>
+    <row r="152" spans="2:15">
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
-      <c r="K152" s="1"/>
-      <c r="N152" s="1"/>
-    </row>
-    <row r="153" spans="2:14">
-      <c r="E153" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="O152" s="1"/>
+    </row>
+    <row r="153" spans="2:15">
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
-      <c r="K153" s="1"/>
-      <c r="N153" s="1"/>
-    </row>
-    <row r="154" spans="2:14">
-      <c r="E154" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="O153" s="1"/>
+    </row>
+    <row r="154" spans="2:15">
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
-      <c r="K154" s="1"/>
-      <c r="N154" s="1"/>
-    </row>
-    <row r="155" spans="2:14">
-      <c r="E155" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="O154" s="1"/>
+    </row>
+    <row r="155" spans="2:15">
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
-      <c r="K155" s="1"/>
-      <c r="N155" s="1"/>
-    </row>
-    <row r="156" spans="2:14">
-      <c r="E156" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="O155" s="1"/>
+    </row>
+    <row r="156" spans="2:15">
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
-      <c r="K156" s="1"/>
-      <c r="N156" s="1"/>
-    </row>
-    <row r="157" spans="2:14">
-      <c r="E157" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="O156" s="1"/>
+    </row>
+    <row r="157" spans="2:15">
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="N157" s="1"/>
-    </row>
-    <row r="158" spans="2:14">
-      <c r="E158" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="O157" s="1"/>
+    </row>
+    <row r="158" spans="2:15">
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
-      <c r="K158" s="1"/>
-      <c r="N158" s="1"/>
-    </row>
-    <row r="159" spans="2:14">
-      <c r="E159" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="O158" s="1"/>
+    </row>
+    <row r="159" spans="2:15">
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="N159" s="1"/>
-    </row>
-    <row r="160" spans="2:14">
-      <c r="E160" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="O159" s="1"/>
+    </row>
+    <row r="160" spans="2:15">
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="N160" s="1"/>
-    </row>
-    <row r="161" spans="5:14">
-      <c r="E161" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="O160" s="1"/>
+    </row>
+    <row r="161" spans="6:15">
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
-      <c r="K161" s="1"/>
-      <c r="N161" s="1"/>
-    </row>
-    <row r="162" spans="5:14">
-      <c r="E162" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="O161" s="1"/>
+    </row>
+    <row r="162" spans="6:15">
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
-      <c r="K162" s="1"/>
-      <c r="N162" s="1"/>
-    </row>
-    <row r="163" spans="5:14">
-      <c r="E163" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="O162" s="1"/>
+    </row>
+    <row r="163" spans="6:15">
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
-      <c r="K163" s="1"/>
-      <c r="N163" s="1"/>
-    </row>
-    <row r="164" spans="5:14">
-      <c r="E164" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="O163" s="1"/>
+    </row>
+    <row r="164" spans="6:15">
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
-      <c r="K164" s="1"/>
-      <c r="N164" s="1"/>
-    </row>
-    <row r="165" spans="5:14">
-      <c r="E165" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="O164" s="1"/>
+    </row>
+    <row r="165" spans="6:15">
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
-      <c r="K165" s="1"/>
-      <c r="L165" s="107"/>
-      <c r="N165" s="1"/>
-    </row>
-    <row r="166" spans="5:14">
-      <c r="E166" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="107"/>
+      <c r="O165" s="1"/>
+    </row>
+    <row r="166" spans="6:15">
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
-      <c r="K166" s="1"/>
-      <c r="N166" s="1"/>
-    </row>
-    <row r="167" spans="5:14">
-      <c r="E167" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="O166" s="1"/>
+    </row>
+    <row r="167" spans="6:15">
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
-      <c r="K167" s="1"/>
-      <c r="N167" s="1"/>
-    </row>
-    <row r="168" spans="5:14">
-      <c r="E168" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="O167" s="1"/>
+    </row>
+    <row r="168" spans="6:15">
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
-      <c r="K168" s="1"/>
-      <c r="N168" s="1"/>
-    </row>
-    <row r="169" spans="5:14">
-      <c r="E169" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="O168" s="1"/>
+    </row>
+    <row r="169" spans="6:15">
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
-      <c r="K169" s="1"/>
-      <c r="N169" s="1"/>
-    </row>
-    <row r="170" spans="5:14">
-      <c r="E170" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="O169" s="1"/>
+    </row>
+    <row r="170" spans="6:15">
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
-      <c r="K170" s="1"/>
-      <c r="N170" s="1"/>
-    </row>
-    <row r="171" spans="5:14">
-      <c r="E171" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="O170" s="1"/>
+    </row>
+    <row r="171" spans="6:15">
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
-      <c r="K171" s="1"/>
-      <c r="N171" s="1"/>
-    </row>
-    <row r="172" spans="5:14">
-      <c r="E172" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="O171" s="1"/>
+    </row>
+    <row r="172" spans="6:15">
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
-      <c r="K172" s="1"/>
-      <c r="L172" s="107"/>
-      <c r="N172" s="1"/>
-    </row>
-    <row r="173" spans="5:14">
-      <c r="E173" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="107"/>
+      <c r="O172" s="1"/>
+    </row>
+    <row r="173" spans="6:15">
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
-      <c r="K173" s="1"/>
-      <c r="L173" s="107"/>
-      <c r="N173" s="1"/>
-    </row>
-    <row r="174" spans="5:14">
-      <c r="E174" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="107"/>
+      <c r="O173" s="1"/>
+    </row>
+    <row r="174" spans="6:15">
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
-      <c r="K174" s="1"/>
-      <c r="L174" s="41"/>
-      <c r="N174" s="1"/>
-    </row>
-    <row r="175" spans="5:14">
-      <c r="E175" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="41"/>
+      <c r="O174" s="1"/>
+    </row>
+    <row r="175" spans="6:15">
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
-      <c r="K175" s="1"/>
-      <c r="L175" s="41"/>
-      <c r="N175" s="1"/>
-    </row>
-    <row r="176" spans="5:14">
-      <c r="E176" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="41"/>
+      <c r="O175" s="1"/>
+    </row>
+    <row r="176" spans="6:15">
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
-      <c r="K176" s="1"/>
-      <c r="L176" s="41"/>
-      <c r="N176" s="1"/>
-    </row>
-    <row r="177" spans="4:14">
-      <c r="E177" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="41"/>
+      <c r="O176" s="1"/>
+    </row>
+    <row r="177" spans="4:15">
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
-      <c r="K177" s="1"/>
-      <c r="L177" s="41"/>
-      <c r="N177" s="1"/>
-    </row>
-    <row r="178" spans="4:14">
-      <c r="E178" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="41"/>
+      <c r="O177" s="1"/>
+    </row>
+    <row r="178" spans="4:15">
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
-      <c r="K178" s="1"/>
-      <c r="L178" s="41"/>
-      <c r="N178" s="1"/>
-    </row>
-    <row r="179" spans="4:14">
-      <c r="E179" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="41"/>
+      <c r="O178" s="1"/>
+    </row>
+    <row r="179" spans="4:15">
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="41"/>
-      <c r="N179" s="1"/>
-    </row>
-    <row r="180" spans="4:14">
-      <c r="E180" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="41"/>
+      <c r="O179" s="1"/>
+    </row>
+    <row r="180" spans="4:15">
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="41"/>
-      <c r="N180" s="1"/>
-    </row>
-    <row r="181" spans="4:14">
-      <c r="E181" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="41"/>
+      <c r="O180" s="1"/>
+    </row>
+    <row r="181" spans="4:15">
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
-      <c r="K181" s="1"/>
-      <c r="N181" s="1"/>
-    </row>
-    <row r="182" spans="4:14">
-      <c r="E182" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="O181" s="1"/>
+    </row>
+    <row r="182" spans="4:15">
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
-      <c r="K182" s="1"/>
-      <c r="N182" s="1"/>
-    </row>
-    <row r="183" spans="4:14">
-      <c r="E183" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="O182" s="1"/>
+    </row>
+    <row r="183" spans="4:15">
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
-      <c r="K183" s="1"/>
-      <c r="N183" s="1"/>
-    </row>
-    <row r="184" spans="4:14">
-      <c r="E184" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="O183" s="1"/>
+    </row>
+    <row r="184" spans="4:15">
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
-      <c r="K184" s="1"/>
-      <c r="N184" s="1"/>
-    </row>
-    <row r="185" spans="4:14">
-      <c r="E185" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="O184" s="1"/>
+    </row>
+    <row r="185" spans="4:15">
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
-      <c r="K185" s="1"/>
-      <c r="N185" s="1"/>
-    </row>
-    <row r="186" spans="4:14">
-      <c r="E186" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="O185" s="1"/>
+    </row>
+    <row r="186" spans="4:15">
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
-      <c r="K186" s="1"/>
-      <c r="N186" s="1"/>
-    </row>
-    <row r="187" spans="4:14">
+      <c r="H186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="O186" s="1"/>
+    </row>
+    <row r="187" spans="4:15">
       <c r="D187" s="108"/>
-      <c r="E187" s="1"/>
+      <c r="E187" s="108"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
-      <c r="K187" s="1"/>
-      <c r="N187" s="1"/>
-    </row>
-    <row r="188" spans="4:14">
+      <c r="H187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="O187" s="1"/>
+    </row>
+    <row r="188" spans="4:15">
       <c r="D188" s="108"/>
-      <c r="E188" s="1"/>
+      <c r="E188" s="108"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
-      <c r="K188" s="1"/>
-      <c r="N188" s="1"/>
-    </row>
-    <row r="189" spans="4:14">
+      <c r="H188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="O188" s="1"/>
+    </row>
+    <row r="189" spans="4:15">
       <c r="D189" s="108"/>
-      <c r="E189" s="1"/>
+      <c r="E189" s="108"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
-      <c r="K189" s="1"/>
-      <c r="N189" s="1"/>
-    </row>
-    <row r="190" spans="4:14">
+      <c r="H189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="O189" s="1"/>
+    </row>
+    <row r="190" spans="4:15">
       <c r="D190" s="108"/>
-      <c r="E190" s="1"/>
+      <c r="E190" s="108"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
-      <c r="K190" s="1"/>
-      <c r="N190" s="1"/>
-    </row>
-    <row r="191" spans="4:14">
+      <c r="H190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="O190" s="1"/>
+    </row>
+    <row r="191" spans="4:15">
       <c r="D191" s="108"/>
-      <c r="E191" s="1"/>
+      <c r="E191" s="108"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
-      <c r="K191" s="1"/>
-      <c r="N191" s="1"/>
-    </row>
-    <row r="192" spans="4:14">
+      <c r="H191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="O191" s="1"/>
+    </row>
+    <row r="192" spans="4:15">
       <c r="D192" s="108"/>
-      <c r="E192" s="1"/>
+      <c r="E192" s="108"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
-      <c r="K192" s="1"/>
-      <c r="N192" s="1"/>
-    </row>
-    <row r="193" spans="3:14">
+      <c r="H192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="O192" s="1"/>
+    </row>
+    <row r="193" spans="3:15">
       <c r="D193" s="108"/>
-      <c r="E193" s="1"/>
+      <c r="E193" s="108"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
-      <c r="K193" s="1"/>
-      <c r="N193" s="1"/>
-    </row>
-    <row r="194" spans="3:14">
+      <c r="H193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="O193" s="1"/>
+    </row>
+    <row r="194" spans="3:15">
       <c r="C194" s="36"/>
       <c r="D194" s="108"/>
-      <c r="E194" s="1"/>
+      <c r="E194" s="108"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
-      <c r="K194" s="1"/>
-      <c r="L194" s="107"/>
-      <c r="N194" s="1"/>
-    </row>
-    <row r="195" spans="3:14">
-      <c r="E195" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="107"/>
+      <c r="O194" s="1"/>
+    </row>
+    <row r="195" spans="3:15">
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
-      <c r="K195" s="1"/>
-      <c r="L195" s="141"/>
-      <c r="N195" s="1"/>
-    </row>
-    <row r="196" spans="3:14">
-      <c r="E196" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="141"/>
+      <c r="O195" s="1"/>
+    </row>
+    <row r="196" spans="3:15">
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
-      <c r="K196" s="1"/>
-      <c r="N196" s="1"/>
-    </row>
-    <row r="197" spans="3:14">
-      <c r="E197" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="O196" s="1"/>
+    </row>
+    <row r="197" spans="3:15">
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
-      <c r="H197" s="201"/>
-      <c r="K197" s="1"/>
-      <c r="N197" s="1"/>
-    </row>
-    <row r="198" spans="3:14">
-      <c r="E198" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="201"/>
+      <c r="L197" s="1"/>
+      <c r="O197" s="1"/>
+    </row>
+    <row r="198" spans="3:15">
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
-      <c r="K198" s="1"/>
-      <c r="N198" s="1"/>
-    </row>
-    <row r="199" spans="3:14">
-      <c r="E199" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="O198" s="1"/>
+    </row>
+    <row r="199" spans="3:15">
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
-      <c r="K199" s="1"/>
-      <c r="N199" s="1"/>
-    </row>
-    <row r="200" spans="3:14">
-      <c r="E200" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="O199" s="1"/>
+    </row>
+    <row r="200" spans="3:15">
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
-      <c r="K200" s="1"/>
-      <c r="N200" s="1"/>
-    </row>
-    <row r="201" spans="3:14">
-      <c r="E201" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="O200" s="1"/>
+    </row>
+    <row r="201" spans="3:15">
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
-      <c r="K201" s="1"/>
-      <c r="N201" s="1"/>
-    </row>
-    <row r="202" spans="3:14">
-      <c r="E202" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="O201" s="1"/>
+    </row>
+    <row r="202" spans="3:15">
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
-      <c r="K202" s="1"/>
-      <c r="N202" s="1"/>
-    </row>
-    <row r="203" spans="3:14">
-      <c r="E203" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="O202" s="1"/>
+    </row>
+    <row r="203" spans="3:15">
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
-      <c r="K203" s="1"/>
-      <c r="N203" s="1"/>
-    </row>
-    <row r="204" spans="3:14">
-      <c r="E204" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="O203" s="1"/>
+    </row>
+    <row r="204" spans="3:15">
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
-      <c r="K204" s="1"/>
-      <c r="L204" s="107"/>
-      <c r="N204" s="1"/>
-    </row>
-    <row r="205" spans="3:14">
+      <c r="H204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="107"/>
+      <c r="O204" s="1"/>
+    </row>
+    <row r="205" spans="3:15">
       <c r="C205" s="36"/>
-      <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
-      <c r="K205" s="1"/>
-      <c r="L205" s="107"/>
-      <c r="N205" s="1"/>
-    </row>
-    <row r="206" spans="3:14">
+      <c r="H205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="107"/>
+      <c r="O205" s="1"/>
+    </row>
+    <row r="206" spans="3:15">
       <c r="C206" s="36"/>
-      <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
-      <c r="I206" s="36"/>
+      <c r="H206" s="1"/>
       <c r="J206" s="36"/>
-      <c r="K206" s="1"/>
-      <c r="L206" s="107"/>
-      <c r="N206" s="1"/>
-    </row>
-    <row r="207" spans="3:14">
+      <c r="K206" s="36"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="107"/>
+      <c r="O206" s="1"/>
+    </row>
+    <row r="207" spans="3:15">
       <c r="C207" s="36"/>
-      <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
-      <c r="K207" s="1"/>
-      <c r="L207" s="107"/>
-      <c r="N207" s="1"/>
-    </row>
-    <row r="208" spans="3:14">
+      <c r="H207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="107"/>
+      <c r="O207" s="1"/>
+    </row>
+    <row r="208" spans="3:15">
       <c r="C208" s="36"/>
-      <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
-      <c r="K208" s="1"/>
-      <c r="L208" s="107"/>
-      <c r="N208" s="1"/>
-    </row>
-    <row r="209" spans="2:14">
+      <c r="H208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="107"/>
+      <c r="O208" s="1"/>
+    </row>
+    <row r="209" spans="2:15">
       <c r="C209" s="36"/>
-      <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
-      <c r="K209" s="1"/>
-      <c r="L209" s="107"/>
-      <c r="N209" s="1"/>
-    </row>
-    <row r="210" spans="2:14">
+      <c r="H209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="107"/>
+      <c r="O209" s="1"/>
+    </row>
+    <row r="210" spans="2:15">
       <c r="C210" s="36"/>
-      <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
-      <c r="I210" s="36"/>
+      <c r="H210" s="1"/>
       <c r="J210" s="36"/>
-      <c r="K210" s="1"/>
-      <c r="L210" s="107"/>
-      <c r="N210" s="1"/>
-    </row>
-    <row r="211" spans="2:14">
+      <c r="K210" s="36"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="107"/>
+      <c r="O210" s="1"/>
+    </row>
+    <row r="211" spans="2:15">
       <c r="C211" s="36"/>
-      <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
-      <c r="I211" s="36"/>
+      <c r="H211" s="1"/>
       <c r="J211" s="36"/>
-      <c r="K211" s="1"/>
-      <c r="L211" s="107"/>
-      <c r="N211" s="1"/>
-    </row>
-    <row r="212" spans="2:14">
-      <c r="E212" s="1"/>
+      <c r="K211" s="36"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="107"/>
+      <c r="O211" s="1"/>
+    </row>
+    <row r="212" spans="2:15">
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
-      <c r="K212" s="1"/>
-      <c r="N212" s="1"/>
-    </row>
-    <row r="213" spans="2:14">
+      <c r="H212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="O212" s="1"/>
+    </row>
+    <row r="213" spans="2:15">
       <c r="C213" s="36"/>
       <c r="D213" s="108"/>
-      <c r="E213" s="1"/>
+      <c r="E213" s="108"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
-      <c r="K213" s="1"/>
-      <c r="N213" s="1"/>
-    </row>
-    <row r="214" spans="2:14">
+      <c r="H213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="O213" s="1"/>
+    </row>
+    <row r="214" spans="2:15">
       <c r="D214" s="108"/>
-      <c r="E214" s="1"/>
+      <c r="E214" s="108"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
-      <c r="K214" s="1"/>
-      <c r="N214" s="1"/>
-    </row>
-    <row r="215" spans="2:14">
+      <c r="H214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="O214" s="1"/>
+    </row>
+    <row r="215" spans="2:15">
       <c r="D215" s="108"/>
-      <c r="E215" s="1"/>
+      <c r="E215" s="108"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
-      <c r="K215" s="1"/>
-      <c r="N215" s="1"/>
-    </row>
-    <row r="216" spans="2:14">
+      <c r="H215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="O215" s="1"/>
+    </row>
+    <row r="216" spans="2:15">
       <c r="D216" s="108"/>
-      <c r="E216" s="1"/>
+      <c r="E216" s="108"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
-      <c r="K216" s="1"/>
-      <c r="N216" s="1"/>
-    </row>
-    <row r="217" spans="2:14">
+      <c r="H216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="O216" s="1"/>
+    </row>
+    <row r="217" spans="2:15">
       <c r="D217" s="108"/>
-      <c r="E217" s="1"/>
+      <c r="E217" s="108"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
-      <c r="K217" s="1"/>
-      <c r="N217" s="1"/>
-    </row>
-    <row r="218" spans="2:14">
+      <c r="H217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="O217" s="1"/>
+    </row>
+    <row r="218" spans="2:15">
       <c r="D218" s="108"/>
-      <c r="E218" s="1"/>
+      <c r="E218" s="108"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
-      <c r="K218" s="1"/>
-      <c r="L218" s="107"/>
-      <c r="N218" s="1"/>
-    </row>
-    <row r="219" spans="2:14">
+      <c r="H218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="107"/>
+      <c r="O218" s="1"/>
+    </row>
+    <row r="219" spans="2:15">
       <c r="D219" s="108"/>
-      <c r="E219" s="1"/>
+      <c r="E219" s="108"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
-      <c r="K219" s="1"/>
-      <c r="N219" s="1"/>
-    </row>
-    <row r="220" spans="2:14">
+      <c r="H219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="O219" s="1"/>
+    </row>
+    <row r="220" spans="2:15">
       <c r="D220" s="108"/>
-      <c r="E220" s="1"/>
+      <c r="E220" s="108"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
-      <c r="K220" s="1"/>
-      <c r="L220" s="107"/>
-      <c r="N220" s="1"/>
-    </row>
-    <row r="221" spans="2:14">
+      <c r="H220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="107"/>
+      <c r="O220" s="1"/>
+    </row>
+    <row r="221" spans="2:15">
       <c r="B221" s="36"/>
       <c r="C221" s="36"/>
-      <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
-      <c r="K221" s="1"/>
-      <c r="N221" s="1"/>
-    </row>
-    <row r="222" spans="2:14">
+      <c r="H221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="O221" s="1"/>
+    </row>
+    <row r="222" spans="2:15">
       <c r="B222" s="36"/>
       <c r="C222" s="36"/>
-      <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
-      <c r="K222" s="1"/>
-      <c r="N222" s="1"/>
-    </row>
-    <row r="223" spans="2:14">
-      <c r="E223" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="O222" s="1"/>
+    </row>
+    <row r="223" spans="2:15">
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
-      <c r="K223" s="1"/>
-      <c r="N223" s="1"/>
-    </row>
-    <row r="224" spans="2:14">
-      <c r="E224" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="O223" s="1"/>
+    </row>
+    <row r="224" spans="2:15">
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
-      <c r="K224" s="1"/>
-      <c r="L224" s="107"/>
-      <c r="N224" s="1"/>
-    </row>
-    <row r="225" spans="3:14">
-      <c r="E225" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="107"/>
+      <c r="O224" s="1"/>
+    </row>
+    <row r="225" spans="3:15">
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
-      <c r="K225" s="1"/>
-      <c r="N225" s="1"/>
-    </row>
-    <row r="226" spans="3:14">
-      <c r="E226" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="O225" s="1"/>
+    </row>
+    <row r="226" spans="3:15">
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
-      <c r="K226" s="1"/>
-      <c r="N226" s="1"/>
-    </row>
-    <row r="227" spans="3:14">
-      <c r="E227" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="O226" s="1"/>
+    </row>
+    <row r="227" spans="3:15">
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
-      <c r="K227" s="1"/>
-      <c r="N227" s="1"/>
-    </row>
-    <row r="228" spans="3:14">
-      <c r="E228" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="O227" s="1"/>
+    </row>
+    <row r="228" spans="3:15">
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
-      <c r="K228" s="1"/>
-      <c r="N228" s="1"/>
-    </row>
-    <row r="229" spans="3:14">
-      <c r="E229" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="O228" s="1"/>
+    </row>
+    <row r="229" spans="3:15">
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
-      <c r="K229" s="1"/>
-      <c r="N229" s="1"/>
-    </row>
-    <row r="230" spans="3:14">
-      <c r="E230" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="O229" s="1"/>
+    </row>
+    <row r="230" spans="3:15">
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
-      <c r="K230" s="1"/>
-      <c r="N230" s="1"/>
-    </row>
-    <row r="231" spans="3:14">
-      <c r="E231" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="O230" s="1"/>
+    </row>
+    <row r="231" spans="3:15">
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
-      <c r="K231" s="1"/>
-      <c r="N231" s="1"/>
-    </row>
-    <row r="232" spans="3:14">
-      <c r="E232" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="O231" s="1"/>
+    </row>
+    <row r="232" spans="3:15">
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
-      <c r="H232" s="36"/>
+      <c r="H232" s="1"/>
       <c r="I232" s="36"/>
       <c r="J232" s="36"/>
-      <c r="K232" s="1"/>
-      <c r="N232" s="1"/>
-    </row>
-    <row r="233" spans="3:14">
-      <c r="E233" s="1"/>
+      <c r="K232" s="36"/>
+      <c r="L232" s="1"/>
+      <c r="O232" s="1"/>
+    </row>
+    <row r="233" spans="3:15">
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
-      <c r="H233" s="36"/>
+      <c r="H233" s="1"/>
       <c r="I233" s="36"/>
       <c r="J233" s="36"/>
-      <c r="K233" s="1"/>
-      <c r="N233" s="1"/>
-    </row>
-    <row r="234" spans="3:14">
-      <c r="E234" s="1"/>
+      <c r="K233" s="36"/>
+      <c r="L233" s="1"/>
+      <c r="O233" s="1"/>
+    </row>
+    <row r="234" spans="3:15">
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
-      <c r="H234" s="36"/>
+      <c r="H234" s="1"/>
       <c r="I234" s="36"/>
       <c r="J234" s="36"/>
-      <c r="K234" s="1"/>
-      <c r="N234" s="1"/>
-    </row>
-    <row r="235" spans="3:14">
-      <c r="E235" s="1"/>
+      <c r="K234" s="36"/>
+      <c r="L234" s="1"/>
+      <c r="O234" s="1"/>
+    </row>
+    <row r="235" spans="3:15">
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
-      <c r="H235" s="36"/>
+      <c r="H235" s="1"/>
       <c r="I235" s="36"/>
       <c r="J235" s="36"/>
-      <c r="K235" s="1"/>
-      <c r="N235" s="1"/>
-    </row>
-    <row r="236" spans="3:14">
+      <c r="K235" s="36"/>
+      <c r="L235" s="1"/>
+      <c r="O235" s="1"/>
+    </row>
+    <row r="236" spans="3:15">
       <c r="C236" s="36"/>
-      <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
-      <c r="H236" s="36"/>
+      <c r="H236" s="1"/>
       <c r="I236" s="36"/>
       <c r="J236" s="36"/>
-      <c r="K236" s="1"/>
-      <c r="N236" s="1"/>
-    </row>
-    <row r="237" spans="3:14">
+      <c r="K236" s="36"/>
+      <c r="L236" s="1"/>
+      <c r="O236" s="1"/>
+    </row>
+    <row r="237" spans="3:15">
       <c r="C237" s="36"/>
-      <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
-      <c r="H237" s="36"/>
+      <c r="H237" s="1"/>
       <c r="I237" s="36"/>
       <c r="J237" s="36"/>
-      <c r="K237" s="1"/>
-      <c r="N237" s="1"/>
-    </row>
-    <row r="238" spans="3:14">
+      <c r="K237" s="36"/>
+      <c r="L237" s="1"/>
+      <c r="O237" s="1"/>
+    </row>
+    <row r="238" spans="3:15">
       <c r="C238" s="36"/>
-      <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
-      <c r="H238" s="36"/>
+      <c r="H238" s="1"/>
       <c r="I238" s="36"/>
       <c r="J238" s="36"/>
-      <c r="K238" s="1"/>
-      <c r="N238" s="1"/>
-    </row>
-    <row r="239" spans="3:14">
+      <c r="K238" s="36"/>
+      <c r="L238" s="1"/>
+      <c r="O238" s="1"/>
+    </row>
+    <row r="239" spans="3:15">
       <c r="C239" s="36"/>
-      <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
-      <c r="H239" s="36"/>
+      <c r="H239" s="1"/>
       <c r="I239" s="36"/>
       <c r="J239" s="36"/>
-      <c r="K239" s="1"/>
-      <c r="N239" s="1"/>
-    </row>
-    <row r="240" spans="3:14">
-      <c r="E240" s="1"/>
+      <c r="K239" s="36"/>
+      <c r="L239" s="1"/>
+      <c r="O239" s="1"/>
+    </row>
+    <row r="240" spans="3:15">
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
-      <c r="K240" s="1"/>
-      <c r="L240" s="107"/>
-      <c r="N240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="107"/>
+      <c r="O240" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:P231" xr:uid="{93D30021-67EF-EE48-BE7B-4A9D77B3B997}"/>
+  <autoFilter ref="A3:Q231" xr:uid="{93D30021-67EF-EE48-BE7B-4A9D77B3B997}"/>
   <phoneticPr fontId="49" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/ccd-template.xlsx
+++ b/data/ccd-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jack\et-ccd-definitions-scotland\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judgem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7823E5-6906-4F5C-88DC-64D3D65975D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B499BD3-0052-4D1E-8EC1-CFE719D37292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="36660" windowHeight="19395" tabRatio="500" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-945" yWindow="-17805" windowWidth="28800" windowHeight="15315" tabRatio="500" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchParty" sheetId="36" r:id="rId1"/>
@@ -23,38 +23,39 @@
     <sheet name="CaseEvent" sheetId="6" r:id="rId8"/>
     <sheet name="CaseEventToFields" sheetId="7" r:id="rId9"/>
     <sheet name="CaseField" sheetId="8" r:id="rId10"/>
-    <sheet name="ChallengeQuestion" sheetId="31" r:id="rId11"/>
-    <sheet name="ComplexTypes" sheetId="9" r:id="rId12"/>
-    <sheet name="EventToComplexTypes" sheetId="32" r:id="rId13"/>
-    <sheet name="RoleToAccessProfiles" sheetId="37" r:id="rId14"/>
-    <sheet name="Scotland Scrubbed" sheetId="26" r:id="rId15"/>
-    <sheet name="SearchInputFields" sheetId="12" r:id="rId16"/>
-    <sheet name="WorkBasketInputFields" sheetId="14" r:id="rId17"/>
-    <sheet name="SearchResultFields" sheetId="13" r:id="rId18"/>
-    <sheet name="WorkBasketResultFields" sheetId="15" r:id="rId19"/>
-    <sheet name="SearchCaseResultFields" sheetId="22" r:id="rId20"/>
-    <sheet name="UserProfile" sheetId="16" r:id="rId21"/>
-    <sheet name="AuthorisationComplexType" sheetId="17" r:id="rId22"/>
-    <sheet name="AuthorisationCaseType" sheetId="18" r:id="rId23"/>
-    <sheet name="AuthorisationCaseField" sheetId="19" r:id="rId24"/>
-    <sheet name="AuthorisationCaseEvent" sheetId="20" r:id="rId25"/>
-    <sheet name="AuthorisationCaseState" sheetId="21" r:id="rId26"/>
+    <sheet name="Categories" sheetId="38" r:id="rId11"/>
+    <sheet name="ChallengeQuestion" sheetId="31" r:id="rId12"/>
+    <sheet name="ComplexTypes" sheetId="9" r:id="rId13"/>
+    <sheet name="EventToComplexTypes" sheetId="32" r:id="rId14"/>
+    <sheet name="RoleToAccessProfiles" sheetId="37" r:id="rId15"/>
+    <sheet name="Scotland Scrubbed" sheetId="26" r:id="rId16"/>
+    <sheet name="SearchInputFields" sheetId="12" r:id="rId17"/>
+    <sheet name="WorkBasketInputFields" sheetId="14" r:id="rId18"/>
+    <sheet name="SearchResultFields" sheetId="13" r:id="rId19"/>
+    <sheet name="WorkBasketResultFields" sheetId="15" r:id="rId20"/>
+    <sheet name="SearchCaseResultFields" sheetId="22" r:id="rId21"/>
+    <sheet name="UserProfile" sheetId="16" r:id="rId22"/>
+    <sheet name="AuthorisationComplexType" sheetId="17" r:id="rId23"/>
+    <sheet name="AuthorisationCaseType" sheetId="18" r:id="rId24"/>
+    <sheet name="AuthorisationCaseField" sheetId="19" r:id="rId25"/>
+    <sheet name="AuthorisationCaseEvent" sheetId="20" r:id="rId26"/>
+    <sheet name="AuthorisationCaseState" sheetId="21" r:id="rId27"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">AuthorisationCaseEvent!$A$3:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">AuthorisationCaseField!$A$1:$D$517</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">AuthorisationCaseState!$A$3:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">AuthorisationCaseEvent!$A$3:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">AuthorisationCaseField!$A$1:$D$517</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="26" hidden="1">AuthorisationCaseState!$A$3:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">CaseEvent!$A$3:$Z$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">CaseEventToFields!$A$3:$Q$231</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">CaseField!$A$3:$U$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CaseRoles!$A$3:$F$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">CaseTypeTab!$A$3:$P$54</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">ComplexTypes!$A$3:$W$559</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">EventToComplexTypes!$A$3:$I$382</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Scotland Scrubbed'!$A$3:$F$646</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">ComplexTypes!$A$3:$W$559</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">EventToComplexTypes!$A$3:$I$382</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Scotland Scrubbed'!$A$3:$F$646</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">State!$A$3:$Q$11</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="386">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1285,6 +1286,35 @@
   </si>
   <si>
     <t>AccessProfiles</t>
+  </si>
+  <si>
+    <t>ID that identifies the document category
+MaxLength: 70</t>
+  </si>
+  <si>
+    <t>CategoryID</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Unique ID that identifies the category
+MaxLength: 70</t>
+  </si>
+  <si>
+    <t>Label that gets displayed in the UI. MaxLength: 70</t>
+  </si>
+  <si>
+    <t>Specifies the display order for the category.</t>
+  </si>
+  <si>
+    <t>Identifies the parent category id for a sub-category.</t>
+  </si>
+  <si>
+    <t>CategoryLabel</t>
+  </si>
+  <si>
+    <t>ParentCategoryID</t>
   </si>
 </sst>
 </file>
@@ -2035,7 +2065,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="304">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2624,6 +2654,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -3126,14 +3159,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="291" customWidth="1"/>
-    <col min="3" max="1025" width="11.140625" style="287" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="287"/>
+    <col min="1" max="2" width="10.7265625" style="291" customWidth="1"/>
+    <col min="3" max="1025" width="11.1796875" style="287" customWidth="1"/>
+    <col min="1026" max="16384" width="8.81640625" style="287"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18">
+    <row r="1" spans="1:10" ht="17.5">
       <c r="A1" s="283" t="s">
         <v>352</v>
       </c>
@@ -3221,26 +3254,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U206"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD206"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.7265625" customWidth="1"/>
+    <col min="4" max="4" width="51.26953125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.26953125" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7265625" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="1" customWidth="1"/>
-    <col min="12" max="17" width="8.42578125" customWidth="1"/>
-    <col min="18" max="21" width="6.28515625" customWidth="1"/>
-    <col min="22" max="1023" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="26.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="33.36328125" customWidth="1"/>
+    <col min="12" max="17" width="8.453125" customWidth="1"/>
+    <col min="18" max="21" width="6.26953125" customWidth="1"/>
+    <col min="22" max="1023" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18">
@@ -3262,7 +3295,6 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
       <c r="N1" s="36"/>
@@ -3304,7 +3336,9 @@
       <c r="J2" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="23"/>
+      <c r="K2" s="23" t="s">
+        <v>377</v>
+      </c>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
       <c r="N2" s="23"/>
@@ -3345,6 +3379,9 @@
       </c>
       <c r="J3" s="27" t="s">
         <v>111</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>378</v>
       </c>
       <c r="L3" s="51"/>
       <c r="M3" s="51"/>
@@ -3496,7 +3533,7 @@
       <c r="E23" s="108"/>
       <c r="F23" s="108"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" ht="13">
       <c r="B24" s="108"/>
       <c r="C24" s="108"/>
       <c r="D24" s="108"/>
@@ -3504,7 +3541,7 @@
       <c r="F24" s="108"/>
       <c r="G24" s="52"/>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" ht="13">
       <c r="B25" s="108"/>
       <c r="C25" s="108"/>
       <c r="D25" s="108"/>
@@ -3512,7 +3549,7 @@
       <c r="F25" s="108"/>
       <c r="G25" s="52"/>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" ht="13">
       <c r="B26" s="108"/>
       <c r="C26" s="108"/>
       <c r="D26" s="108"/>
@@ -3520,7 +3557,7 @@
       <c r="F26" s="108"/>
       <c r="G26" s="52"/>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" ht="13">
       <c r="B27" s="108"/>
       <c r="C27" s="108"/>
       <c r="D27" s="108"/>
@@ -3762,47 +3799,43 @@
       <c r="C64" s="36"/>
       <c r="E64" s="36"/>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:10">
       <c r="C65" s="36"/>
       <c r="E65" s="36"/>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:10">
       <c r="C66" s="36"/>
       <c r="E66" s="36"/>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:10">
       <c r="C67" s="36"/>
       <c r="E67" s="36"/>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:10">
       <c r="C68" s="36"/>
       <c r="E68" s="36"/>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:10">
       <c r="C69" s="36"/>
       <c r="E69" s="36"/>
       <c r="J69"/>
-      <c r="K69"/>
-    </row>
-    <row r="70" spans="2:11">
+    </row>
+    <row r="70" spans="2:10">
       <c r="C70" s="36"/>
       <c r="E70" s="36"/>
       <c r="J70"/>
-      <c r="K70"/>
-    </row>
-    <row r="71" spans="2:11">
+    </row>
+    <row r="71" spans="2:10">
       <c r="C71" s="36"/>
       <c r="E71" s="36"/>
       <c r="J71"/>
-      <c r="K71"/>
-    </row>
-    <row r="72" spans="2:11">
+    </row>
+    <row r="72" spans="2:10">
       <c r="C72" s="36"/>
       <c r="E72" s="36"/>
       <c r="J72"/>
-      <c r="K72"/>
-    </row>
-    <row r="73" spans="2:11">
+    </row>
+    <row r="73" spans="2:10">
       <c r="B73" s="108"/>
       <c r="C73" s="108"/>
       <c r="D73" s="108"/>
@@ -3810,177 +3843,166 @@
       <c r="F73" s="108"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:10">
       <c r="B74" s="108"/>
       <c r="C74" s="108"/>
       <c r="D74" s="108"/>
       <c r="E74" s="108"/>
       <c r="F74" s="108"/>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:10">
       <c r="B75" s="108"/>
       <c r="C75" s="108"/>
       <c r="D75" s="108"/>
       <c r="E75" s="108"/>
       <c r="F75" s="108"/>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:10">
       <c r="B76" s="108"/>
       <c r="C76" s="108"/>
       <c r="D76" s="108"/>
       <c r="E76" s="108"/>
       <c r="F76" s="108"/>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:10">
       <c r="B77" s="108"/>
       <c r="C77" s="108"/>
       <c r="D77" s="108"/>
       <c r="E77" s="108"/>
       <c r="F77" s="108"/>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:10">
       <c r="B78" s="108"/>
       <c r="C78" s="108"/>
       <c r="D78" s="108"/>
       <c r="E78" s="108"/>
       <c r="F78" s="108"/>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:10">
       <c r="B79" s="108"/>
       <c r="C79" s="108"/>
       <c r="D79" s="108"/>
       <c r="E79" s="108"/>
       <c r="F79" s="108"/>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:10">
       <c r="B80" s="108"/>
       <c r="C80" s="108"/>
       <c r="D80" s="108"/>
       <c r="E80" s="108"/>
       <c r="F80" s="108"/>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:8">
       <c r="B81" s="108"/>
       <c r="C81" s="108"/>
       <c r="D81" s="108"/>
       <c r="E81" s="108"/>
       <c r="F81" s="108"/>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:8">
       <c r="B82" s="108"/>
       <c r="C82" s="108"/>
       <c r="D82" s="108"/>
       <c r="E82" s="108"/>
       <c r="F82" s="108"/>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:8">
       <c r="B83" s="108"/>
       <c r="C83" s="108"/>
       <c r="D83" s="108"/>
       <c r="E83" s="108"/>
       <c r="F83" s="108"/>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:8">
       <c r="B84" s="108"/>
       <c r="C84" s="108"/>
       <c r="D84" s="108"/>
       <c r="E84" s="108"/>
       <c r="F84" s="108"/>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:8">
       <c r="B85" s="108"/>
       <c r="C85" s="108"/>
       <c r="E85" s="108"/>
       <c r="G85"/>
       <c r="H85" s="108"/>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:8">
       <c r="B86" s="108"/>
       <c r="C86" s="142"/>
       <c r="E86" s="108"/>
       <c r="G86"/>
       <c r="H86" s="108"/>
-      <c r="K86"/>
-    </row>
-    <row r="87" spans="2:11">
+    </row>
+    <row r="87" spans="2:8">
       <c r="B87" s="108"/>
       <c r="C87" s="142"/>
       <c r="E87" s="108"/>
       <c r="G87"/>
       <c r="H87" s="108"/>
-      <c r="K87"/>
-    </row>
-    <row r="88" spans="2:11">
+    </row>
+    <row r="88" spans="2:8">
       <c r="B88" s="108"/>
       <c r="C88" s="142"/>
       <c r="E88" s="108"/>
       <c r="G88"/>
       <c r="H88" s="108"/>
-      <c r="K88"/>
-    </row>
-    <row r="89" spans="2:11">
+    </row>
+    <row r="89" spans="2:8">
       <c r="B89" s="108"/>
       <c r="C89" s="142"/>
       <c r="E89" s="108"/>
       <c r="G89"/>
       <c r="H89" s="108"/>
-      <c r="K89"/>
-    </row>
-    <row r="90" spans="2:11">
+    </row>
+    <row r="90" spans="2:8">
       <c r="B90" s="108"/>
       <c r="C90" s="142"/>
       <c r="E90" s="108"/>
       <c r="G90"/>
       <c r="H90" s="108"/>
-      <c r="K90"/>
-    </row>
-    <row r="91" spans="2:11">
+    </row>
+    <row r="91" spans="2:8">
       <c r="B91" s="108"/>
       <c r="C91" s="142"/>
       <c r="E91" s="108"/>
       <c r="G91"/>
       <c r="H91" s="108"/>
-      <c r="K91"/>
-    </row>
-    <row r="92" spans="2:11">
+    </row>
+    <row r="92" spans="2:8">
       <c r="B92" s="108"/>
       <c r="C92" s="142"/>
       <c r="E92" s="108"/>
       <c r="G92"/>
       <c r="H92" s="108"/>
-      <c r="K92"/>
-    </row>
-    <row r="93" spans="2:11">
+    </row>
+    <row r="93" spans="2:8">
       <c r="B93" s="108"/>
       <c r="C93" s="142"/>
       <c r="E93" s="108"/>
       <c r="G93"/>
       <c r="H93" s="108"/>
-      <c r="K93"/>
-    </row>
-    <row r="94" spans="2:11">
+    </row>
+    <row r="94" spans="2:8">
       <c r="B94" s="108"/>
       <c r="C94" s="142"/>
       <c r="E94" s="108"/>
       <c r="G94"/>
       <c r="H94" s="108"/>
-      <c r="K94"/>
-    </row>
-    <row r="95" spans="2:11">
+    </row>
+    <row r="95" spans="2:8">
       <c r="B95" s="108"/>
       <c r="C95" s="142"/>
       <c r="E95" s="108"/>
       <c r="G95"/>
       <c r="H95" s="108"/>
-      <c r="K95"/>
-    </row>
-    <row r="96" spans="2:11">
+    </row>
+    <row r="96" spans="2:8">
       <c r="B96" s="108"/>
       <c r="C96" s="142"/>
       <c r="E96" s="108"/>
       <c r="G96"/>
       <c r="H96" s="108"/>
-      <c r="K96"/>
     </row>
     <row r="97" spans="2:11">
       <c r="B97" s="108"/>
@@ -3988,7 +4010,6 @@
       <c r="F97" s="227"/>
       <c r="G97"/>
       <c r="H97" s="108"/>
-      <c r="K97"/>
     </row>
     <row r="98" spans="2:11">
       <c r="B98" s="108"/>
@@ -3996,7 +4017,6 @@
       <c r="E98" s="108"/>
       <c r="G98"/>
       <c r="H98" s="108"/>
-      <c r="K98"/>
     </row>
     <row r="99" spans="2:11">
       <c r="B99" s="108"/>
@@ -4004,7 +4024,6 @@
       <c r="E99" s="108"/>
       <c r="G99"/>
       <c r="H99" s="108"/>
-      <c r="K99"/>
     </row>
     <row r="100" spans="2:11">
       <c r="B100" s="108"/>
@@ -4012,72 +4031,59 @@
       <c r="E100" s="108"/>
       <c r="G100"/>
       <c r="H100" s="108"/>
-      <c r="K100"/>
     </row>
     <row r="101" spans="2:11">
       <c r="G101"/>
       <c r="H101" s="108"/>
-      <c r="K101"/>
     </row>
     <row r="102" spans="2:11">
       <c r="G102"/>
       <c r="H102" s="108"/>
-      <c r="K102"/>
     </row>
     <row r="103" spans="2:11">
       <c r="G103"/>
       <c r="H103" s="108"/>
-      <c r="K103"/>
     </row>
     <row r="104" spans="2:11">
       <c r="G104"/>
       <c r="H104" s="108"/>
-      <c r="K104"/>
     </row>
     <row r="105" spans="2:11">
       <c r="G105"/>
       <c r="H105" s="108"/>
-      <c r="K105"/>
     </row>
     <row r="106" spans="2:11">
       <c r="G106"/>
       <c r="H106" s="108"/>
-      <c r="K106"/>
     </row>
     <row r="107" spans="2:11">
       <c r="G107"/>
       <c r="H107" s="108"/>
-      <c r="K107"/>
     </row>
     <row r="108" spans="2:11">
       <c r="G108"/>
       <c r="H108" s="108"/>
-      <c r="K108"/>
+      <c r="K108" s="142"/>
     </row>
     <row r="109" spans="2:11">
       <c r="G109"/>
       <c r="H109" s="108"/>
-      <c r="K109"/>
     </row>
     <row r="110" spans="2:11">
       <c r="G110"/>
       <c r="H110" s="108"/>
-      <c r="K110"/>
     </row>
     <row r="111" spans="2:11">
       <c r="G111"/>
       <c r="H111" s="108"/>
-      <c r="K111"/>
     </row>
     <row r="112" spans="2:11">
       <c r="G112"/>
       <c r="H112" s="108"/>
-      <c r="K112"/>
     </row>
     <row r="113" spans="1:11">
       <c r="G113"/>
       <c r="H113" s="108"/>
-      <c r="K113"/>
     </row>
     <row r="114" spans="1:11" s="142" customFormat="1">
       <c r="A114"/>
@@ -4087,6 +4093,7 @@
       <c r="E114" s="56"/>
       <c r="H114" s="108"/>
       <c r="J114" s="228"/>
+      <c r="K114"/>
     </row>
     <row r="121" spans="1:11">
       <c r="B121" s="108"/>
@@ -4406,39 +4413,38 @@
       <c r="G192"/>
       <c r="H192" s="108"/>
     </row>
-    <row r="193" spans="2:11">
+    <row r="193" spans="2:10">
       <c r="E193" s="36"/>
     </row>
-    <row r="194" spans="2:11">
+    <row r="194" spans="2:10">
       <c r="E194" s="36"/>
     </row>
-    <row r="201" spans="2:11">
+    <row r="201" spans="2:10">
       <c r="B201" s="36"/>
       <c r="E201" s="36"/>
       <c r="F201" s="36"/>
     </row>
-    <row r="202" spans="2:11">
+    <row r="202" spans="2:10">
       <c r="E202" s="36"/>
     </row>
-    <row r="203" spans="2:11">
+    <row r="203" spans="2:10">
       <c r="E203" s="36"/>
       <c r="G203"/>
       <c r="H203" s="36"/>
     </row>
-    <row r="204" spans="2:11">
+    <row r="204" spans="2:10">
       <c r="C204" s="36"/>
       <c r="E204" s="36"/>
       <c r="G204"/>
       <c r="H204" s="36"/>
     </row>
-    <row r="205" spans="2:11">
+    <row r="205" spans="2:10">
       <c r="E205" s="36"/>
     </row>
-    <row r="206" spans="2:11">
+    <row r="206" spans="2:10">
       <c r="E206" s="36"/>
       <c r="G206"/>
       <c r="J206"/>
-      <c r="K206"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B155:B157">
@@ -4456,6 +4462,65 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B092AC-BC68-4857-A94A-DB7213593582}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="12.5"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18">
+      <c r="A1" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:5" ht="65">
+      <c r="A2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13">
+      <c r="A3" s="303" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="303" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAC88CF-7FC5-4E4E-AF14-7FBB6C052EF8}">
   <dimension ref="A1:AMK8"/>
   <sheetViews>
@@ -4463,20 +4528,20 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" style="246" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="246"/>
-    <col min="3" max="3" width="54.7109375" style="246" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="246" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="246" customWidth="1"/>
-    <col min="7" max="7" width="44.28515625" style="246" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="246" customWidth="1"/>
+    <col min="1" max="1" width="36.7265625" style="246" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="246"/>
+    <col min="3" max="3" width="54.7265625" style="246" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" style="246" customWidth="1"/>
+    <col min="5" max="6" width="12.7265625" style="246" customWidth="1"/>
+    <col min="7" max="7" width="44.26953125" style="246" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" style="246" customWidth="1"/>
     <col min="9" max="9" width="37" style="246" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" style="246" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" style="246" customWidth="1"/>
-    <col min="12" max="1025" width="10.85546875" style="246"/>
-    <col min="1026" max="16384" width="10.85546875" style="245"/>
+    <col min="10" max="10" width="43.7265625" style="246" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" style="246" customWidth="1"/>
+    <col min="12" max="1025" width="10.81640625" style="246"/>
+    <col min="1026" max="16384" width="10.81640625" style="245"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18">
@@ -4502,7 +4567,7 @@
       <c r="L1" s="247"/>
       <c r="M1" s="247"/>
     </row>
-    <row r="2" spans="1:13" ht="63.75">
+    <row r="2" spans="1:13" ht="52">
       <c r="A2" s="258" t="s">
         <v>4</v>
       </c>
@@ -4537,7 +4602,7 @@
       <c r="L2" s="254"/>
       <c r="M2" s="254"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75">
+    <row r="3" spans="1:13" ht="15.5">
       <c r="A3" s="253" t="s">
         <v>9</v>
       </c>
@@ -4589,7 +4654,7 @@
       <c r="L4" s="247"/>
       <c r="M4" s="247"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="13">
       <c r="A5" s="248"/>
       <c r="B5" s="248"/>
       <c r="C5" s="249"/>
@@ -4604,7 +4669,7 @@
       <c r="L5" s="247"/>
       <c r="M5" s="247"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="13">
       <c r="A6" s="248"/>
       <c r="B6" s="248"/>
       <c r="D6" s="247"/>
@@ -4618,7 +4683,7 @@
       <c r="L6" s="247"/>
       <c r="M6" s="247"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" ht="13">
       <c r="A7" s="248"/>
       <c r="B7" s="248"/>
       <c r="D7" s="247"/>
@@ -4654,34 +4719,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W649"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD559"/>
+    <sheetView topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="52" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="21.7265625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" style="41" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="53" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="53" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="28.28515625" customWidth="1"/>
-    <col min="16" max="23" width="6.28515625" customWidth="1"/>
-    <col min="24" max="1023" width="8.28515625" customWidth="1"/>
-    <col min="1024" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" style="53" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" style="53" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" customWidth="1"/>
+    <col min="13" max="13" width="17.7265625" customWidth="1"/>
+    <col min="14" max="14" width="33.6328125" customWidth="1"/>
+    <col min="15" max="15" width="28.26953125" customWidth="1"/>
+    <col min="16" max="23" width="6.26953125" customWidth="1"/>
+    <col min="24" max="1023" width="8.26953125" customWidth="1"/>
+    <col min="1024" max="1025" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" customHeight="1">
@@ -4705,12 +4770,11 @@
       <c r="J1" s="34"/>
       <c r="K1" s="36"/>
       <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
       <c r="O1" s="36"/>
       <c r="P1" s="36"/>
       <c r="Q1" s="36"/>
     </row>
-    <row r="2" spans="1:23" ht="65.099999999999994" customHeight="1">
+    <row r="2" spans="1:23" ht="65.150000000000006" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>113</v>
       </c>
@@ -4746,12 +4810,14 @@
       <c r="M2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="N2" s="10"/>
+      <c r="N2" s="23" t="s">
+        <v>377</v>
+      </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" ht="33.6" customHeight="1">
+    <row r="3" spans="1:23" s="2" customFormat="1" ht="33.65" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>11</v>
       </c>
@@ -4790,6 +4856,9 @@
       </c>
       <c r="M3" s="27" t="s">
         <v>106</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>378</v>
       </c>
       <c r="O3" s="51"/>
       <c r="P3" s="51"/>
@@ -4801,35 +4870,35 @@
       <c r="V3" s="51"/>
       <c r="W3" s="51"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" ht="12.5">
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="I4"/>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" ht="12.5">
       <c r="E5"/>
       <c r="F5" s="108"/>
       <c r="G5"/>
       <c r="I5"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" ht="12.5">
       <c r="E6"/>
       <c r="F6" s="108"/>
       <c r="G6"/>
       <c r="I6"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" ht="12.5">
       <c r="E7"/>
       <c r="F7" s="108"/>
       <c r="G7"/>
       <c r="I7"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" ht="12.5">
       <c r="E8"/>
       <c r="F8" s="108"/>
       <c r="G8"/>
@@ -4848,7 +4917,7 @@
       <c r="I9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" ht="12.5">
       <c r="A10" s="108"/>
       <c r="E10"/>
       <c r="F10" s="108"/>
@@ -4856,14 +4925,14 @@
       <c r="I10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" ht="12.5">
       <c r="E11"/>
       <c r="F11" s="108"/>
       <c r="G11"/>
       <c r="I11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" ht="12.5">
       <c r="A12" s="108"/>
       <c r="E12"/>
       <c r="F12" s="108"/>
@@ -4871,7 +4940,7 @@
       <c r="I12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" ht="12.5">
       <c r="A13" s="108"/>
       <c r="E13"/>
       <c r="F13" s="108"/>
@@ -4891,7 +4960,7 @@
       <c r="I14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" ht="12.5">
       <c r="A15" s="108"/>
       <c r="E15"/>
       <c r="F15" s="108"/>
@@ -4899,7 +4968,7 @@
       <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" ht="12.5">
       <c r="A16" s="108"/>
       <c r="E16"/>
       <c r="F16" s="108"/>
@@ -4907,7 +4976,7 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" ht="12.5">
       <c r="A17" s="108"/>
       <c r="E17"/>
       <c r="F17" s="108"/>
@@ -4915,7 +4984,7 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="12.5">
       <c r="A18" s="108"/>
       <c r="E18"/>
       <c r="F18" s="108"/>
@@ -4923,7 +4992,7 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="12.5">
       <c r="A19" s="108"/>
       <c r="E19"/>
       <c r="F19" s="108"/>
@@ -4931,7 +5000,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="12.5">
       <c r="A20" s="108"/>
       <c r="E20"/>
       <c r="F20" s="108"/>
@@ -4939,7 +5008,7 @@
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="12.5">
       <c r="A21" s="108"/>
       <c r="E21"/>
       <c r="F21" s="108"/>
@@ -4959,7 +5028,7 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" ht="12.5">
       <c r="A23" s="108"/>
       <c r="E23"/>
       <c r="F23" s="108"/>
@@ -4979,7 +5048,7 @@
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" ht="12.5">
       <c r="A25" s="108"/>
       <c r="E25"/>
       <c r="F25" s="108"/>
@@ -4999,7 +5068,7 @@
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" ht="12.5">
       <c r="A27" s="108"/>
       <c r="E27"/>
       <c r="F27" s="108"/>
@@ -5007,7 +5076,7 @@
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" ht="12.5">
       <c r="A28" s="108"/>
       <c r="E28"/>
       <c r="F28" s="108"/>
@@ -5015,7 +5084,7 @@
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="12.5">
       <c r="A29" s="108"/>
       <c r="E29"/>
       <c r="F29" s="108"/>
@@ -5023,42 +5092,42 @@
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" ht="12.5">
       <c r="E30"/>
       <c r="F30" s="108"/>
       <c r="G30" s="36"/>
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" ht="12.5">
       <c r="E31"/>
       <c r="F31" s="108"/>
       <c r="G31" s="36"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" ht="12.5">
       <c r="E32"/>
       <c r="F32" s="108"/>
       <c r="G32" s="36"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" ht="12.5">
       <c r="E33"/>
       <c r="F33" s="108"/>
       <c r="G33" s="36"/>
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" ht="12.5">
       <c r="E34"/>
       <c r="F34" s="108"/>
       <c r="G34" s="36"/>
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" ht="12.5">
       <c r="E35"/>
       <c r="F35" s="108"/>
       <c r="G35" s="36"/>
@@ -5077,7 +5146,7 @@
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" ht="12.5">
       <c r="A37" s="108"/>
       <c r="E37"/>
       <c r="F37" s="108"/>
@@ -5085,14 +5154,14 @@
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" ht="12.5">
       <c r="E38"/>
       <c r="F38" s="108"/>
       <c r="G38" s="36"/>
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" ht="12.5">
       <c r="D39" s="36"/>
       <c r="E39"/>
       <c r="F39" s="108"/>
@@ -5100,77 +5169,77 @@
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" ht="12.5">
       <c r="E40"/>
       <c r="F40" s="108"/>
       <c r="G40" s="36"/>
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" ht="12.5">
       <c r="E41"/>
       <c r="F41" s="108"/>
       <c r="G41" s="36"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" ht="12.5">
       <c r="E42"/>
       <c r="F42" s="108"/>
       <c r="G42" s="36"/>
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" ht="12.5">
       <c r="E43"/>
       <c r="F43" s="108"/>
       <c r="G43" s="36"/>
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" ht="12.5">
       <c r="E44"/>
       <c r="F44" s="108"/>
       <c r="G44" s="36"/>
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" ht="12.5">
       <c r="E45"/>
       <c r="F45" s="108"/>
       <c r="G45" s="36"/>
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" ht="12.5">
       <c r="E46"/>
       <c r="F46" s="108"/>
       <c r="G46" s="36"/>
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" ht="12.5">
       <c r="E47"/>
       <c r="F47" s="108"/>
       <c r="G47" s="36"/>
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" ht="12.5">
       <c r="E48"/>
       <c r="F48" s="108"/>
       <c r="G48" s="36"/>
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="5:10">
+    <row r="49" spans="5:10" ht="12.5">
       <c r="E49"/>
       <c r="F49" s="108"/>
       <c r="G49" s="36"/>
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="5:10">
+    <row r="50" spans="5:10" ht="12.5">
       <c r="E50"/>
       <c r="F50" s="108"/>
       <c r="G50" s="36"/>
@@ -5191,112 +5260,112 @@
       <c r="G53" s="36"/>
       <c r="H53" s="55"/>
     </row>
-    <row r="54" spans="5:10">
+    <row r="54" spans="5:10" ht="12.5">
       <c r="E54"/>
       <c r="F54" s="108"/>
       <c r="G54" s="36"/>
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="5:10">
+    <row r="55" spans="5:10" ht="12.5">
       <c r="E55"/>
       <c r="F55" s="108"/>
       <c r="G55" s="36"/>
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="5:10">
+    <row r="56" spans="5:10" ht="12.5">
       <c r="E56"/>
       <c r="F56" s="108"/>
       <c r="G56" s="36"/>
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="5:10">
+    <row r="57" spans="5:10" ht="12.5">
       <c r="E57"/>
       <c r="F57" s="108"/>
       <c r="G57" s="36"/>
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="5:10">
+    <row r="58" spans="5:10" ht="12.5">
       <c r="E58"/>
       <c r="F58" s="108"/>
       <c r="G58" s="36"/>
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="5:10">
+    <row r="59" spans="5:10" ht="12.5">
       <c r="E59"/>
       <c r="F59" s="108"/>
       <c r="G59" s="36"/>
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="5:10">
+    <row r="60" spans="5:10" ht="12.5">
       <c r="E60"/>
       <c r="F60" s="108"/>
       <c r="G60" s="36"/>
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="5:10">
+    <row r="61" spans="5:10" ht="12.5">
       <c r="E61"/>
       <c r="F61" s="108"/>
       <c r="G61" s="36"/>
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="5:10">
+    <row r="62" spans="5:10" ht="12.5">
       <c r="E62"/>
       <c r="F62" s="108"/>
       <c r="G62" s="36"/>
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="5:10">
+    <row r="63" spans="5:10" ht="12.5">
       <c r="E63"/>
       <c r="F63" s="108"/>
       <c r="G63" s="36"/>
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="5:10">
+    <row r="64" spans="5:10" ht="12.5">
       <c r="E64"/>
       <c r="F64" s="108"/>
       <c r="G64" s="36"/>
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" ht="12.5">
       <c r="E65"/>
       <c r="F65" s="108"/>
       <c r="G65" s="36"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" ht="12.5">
       <c r="E66"/>
       <c r="F66" s="108"/>
       <c r="G66" s="36"/>
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" ht="12.5">
       <c r="E67"/>
       <c r="F67" s="108"/>
       <c r="G67" s="36"/>
       <c r="I67"/>
       <c r="J67"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" ht="12.5">
       <c r="E68"/>
       <c r="F68" s="108"/>
       <c r="G68" s="36"/>
       <c r="I68"/>
       <c r="J68"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" ht="12.5">
       <c r="A69" s="56"/>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
@@ -5307,77 +5376,77 @@
       <c r="I69"/>
       <c r="J69"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" ht="12.5">
       <c r="E70" s="108"/>
       <c r="F70" s="108"/>
       <c r="G70" s="36"/>
       <c r="I70"/>
       <c r="J70"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" ht="12.5">
       <c r="E71"/>
       <c r="F71" s="108"/>
       <c r="G71" s="36"/>
       <c r="I71"/>
       <c r="J71"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" ht="12.5">
       <c r="E72"/>
       <c r="F72" s="108"/>
       <c r="G72" s="36"/>
       <c r="I72"/>
       <c r="J72"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" ht="12.5">
       <c r="E73"/>
       <c r="F73" s="108"/>
       <c r="G73" s="36"/>
       <c r="I73"/>
       <c r="J73"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" ht="12.5">
       <c r="E74"/>
       <c r="F74" s="108"/>
       <c r="G74" s="36"/>
       <c r="I74"/>
       <c r="J74"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" ht="12.5">
       <c r="E75"/>
       <c r="F75" s="108"/>
       <c r="G75" s="36"/>
       <c r="I75"/>
       <c r="J75"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" ht="12.5">
       <c r="E76"/>
       <c r="F76" s="108"/>
       <c r="G76" s="36"/>
       <c r="I76"/>
       <c r="J76"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" ht="12.5">
       <c r="E77"/>
       <c r="F77" s="108"/>
       <c r="G77" s="36"/>
       <c r="I77"/>
       <c r="J77"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" ht="12.5">
       <c r="E78"/>
       <c r="F78" s="108"/>
       <c r="G78" s="36"/>
       <c r="I78"/>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" ht="12.5">
       <c r="E79"/>
       <c r="F79" s="108"/>
       <c r="G79" s="36"/>
       <c r="I79"/>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" ht="12.5">
       <c r="E80"/>
       <c r="F80" s="108"/>
       <c r="G80" s="36"/>
@@ -5396,7 +5465,7 @@
       <c r="I81"/>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" ht="12.5">
       <c r="A82" s="108"/>
       <c r="E82"/>
       <c r="F82" s="108"/>
@@ -5404,14 +5473,14 @@
       <c r="I82"/>
       <c r="J82"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" ht="12.5">
       <c r="E83"/>
       <c r="F83" s="108"/>
       <c r="G83" s="36"/>
       <c r="I83"/>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" ht="12.5">
       <c r="E84"/>
       <c r="F84" s="108"/>
       <c r="G84" s="36"/>
@@ -5430,7 +5499,7 @@
       <c r="I85"/>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" ht="12.5">
       <c r="A86" s="108"/>
       <c r="E86"/>
       <c r="F86" s="108"/>
@@ -5438,7 +5507,7 @@
       <c r="I86"/>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" ht="12.5">
       <c r="E87"/>
       <c r="F87" s="108"/>
       <c r="G87" s="36"/>
@@ -5457,7 +5526,7 @@
       <c r="I88"/>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" ht="12.5">
       <c r="A89" s="108"/>
       <c r="E89"/>
       <c r="F89" s="108"/>
@@ -5465,7 +5534,7 @@
       <c r="I89"/>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" ht="12.5">
       <c r="E90"/>
       <c r="F90" s="108"/>
       <c r="G90" s="36"/>
@@ -5520,101 +5589,102 @@
       <c r="I96"/>
       <c r="J96"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:14">
       <c r="F97" s="108"/>
       <c r="G97" s="36"/>
       <c r="I97"/>
       <c r="J97"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:14">
       <c r="F98" s="108"/>
       <c r="G98" s="36"/>
       <c r="I98"/>
       <c r="J98"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:14" ht="12.5">
       <c r="E99"/>
       <c r="F99" s="108"/>
       <c r="G99" s="36"/>
       <c r="I99"/>
       <c r="J99"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:14" ht="12.5">
       <c r="E100"/>
       <c r="F100" s="108"/>
       <c r="G100" s="36"/>
       <c r="I100"/>
       <c r="J100"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:14" ht="12.5">
       <c r="E101"/>
       <c r="F101" s="108"/>
       <c r="G101" s="36"/>
       <c r="I101"/>
       <c r="J101"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:14" ht="12.5">
       <c r="E102"/>
       <c r="F102" s="108"/>
       <c r="G102" s="36"/>
       <c r="I102"/>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:14" ht="12.5">
       <c r="E103"/>
       <c r="F103" s="108"/>
       <c r="G103" s="36"/>
       <c r="I103"/>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:14" ht="12.5">
       <c r="E104"/>
       <c r="F104" s="108"/>
       <c r="G104" s="36"/>
       <c r="I104"/>
       <c r="J104"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:14" ht="12.5">
       <c r="E105"/>
       <c r="F105" s="108"/>
       <c r="G105" s="36"/>
       <c r="I105"/>
       <c r="J105"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:14" ht="12.5">
       <c r="E106"/>
       <c r="F106" s="108"/>
       <c r="G106" s="36"/>
       <c r="I106"/>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:14" ht="12.5">
       <c r="E107"/>
       <c r="F107" s="108"/>
       <c r="G107" s="36"/>
       <c r="I107"/>
       <c r="J107"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:14">
       <c r="F108" s="108"/>
       <c r="G108" s="36"/>
       <c r="I108"/>
       <c r="J108"/>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="N108" s="142"/>
+    </row>
+    <row r="109" spans="1:14">
       <c r="F109" s="108"/>
       <c r="G109" s="36"/>
       <c r="I109"/>
       <c r="J109"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:14" ht="12.5">
       <c r="E110"/>
       <c r="F110" s="108"/>
       <c r="G110" s="36"/>
       <c r="I110"/>
       <c r="J110"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:14">
       <c r="A111" s="56"/>
       <c r="B111" s="56"/>
       <c r="C111" s="56"/>
@@ -5626,49 +5696,49 @@
       <c r="I111"/>
       <c r="J111"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:14" ht="12.5">
       <c r="E112"/>
       <c r="F112" s="108"/>
       <c r="G112" s="36"/>
       <c r="I112"/>
       <c r="J112"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" ht="12.5">
       <c r="E113"/>
       <c r="F113" s="108"/>
       <c r="G113" s="36"/>
       <c r="I113"/>
       <c r="J113"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" ht="12.5">
       <c r="E114"/>
       <c r="F114" s="108"/>
       <c r="G114" s="36"/>
       <c r="I114"/>
       <c r="J114"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" ht="12.5">
       <c r="E115"/>
       <c r="F115" s="108"/>
       <c r="G115" s="36"/>
       <c r="I115"/>
       <c r="J115"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" ht="12.5">
       <c r="E116"/>
       <c r="F116" s="108"/>
       <c r="G116" s="36"/>
       <c r="I116"/>
       <c r="J116"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" ht="12.5">
       <c r="E117"/>
       <c r="F117" s="108"/>
       <c r="G117" s="36"/>
       <c r="I117"/>
       <c r="J117"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" ht="12.5">
       <c r="E118"/>
       <c r="F118" s="108"/>
       <c r="G118" s="36"/>
@@ -5687,7 +5757,7 @@
       <c r="I119"/>
       <c r="J119"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" ht="12.5">
       <c r="A120" s="108"/>
       <c r="E120"/>
       <c r="F120" s="108"/>
@@ -5695,21 +5765,21 @@
       <c r="I120"/>
       <c r="J120"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" ht="12.5">
       <c r="E121"/>
       <c r="F121" s="108"/>
       <c r="G121" s="36"/>
       <c r="I121"/>
       <c r="J121"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" ht="12.5">
       <c r="E122"/>
       <c r="F122" s="108"/>
       <c r="G122" s="36"/>
       <c r="I122"/>
       <c r="J122"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" ht="12.5">
       <c r="E123"/>
       <c r="F123" s="108"/>
       <c r="G123" s="36"/>
@@ -5735,49 +5805,49 @@
       <c r="I125" s="193"/>
       <c r="J125"/>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" ht="12.5">
       <c r="E126"/>
       <c r="F126" s="36"/>
       <c r="G126" s="36"/>
       <c r="I126"/>
       <c r="J126"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" ht="12.5">
       <c r="E127"/>
       <c r="F127" s="108"/>
       <c r="G127" s="36"/>
       <c r="I127"/>
       <c r="J127"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" ht="12.5">
       <c r="E128"/>
       <c r="F128" s="108"/>
       <c r="G128" s="36"/>
       <c r="I128"/>
       <c r="J128"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" ht="12.5">
       <c r="E129"/>
       <c r="F129" s="108"/>
       <c r="G129" s="36"/>
       <c r="I129"/>
       <c r="J129"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" ht="12.5">
       <c r="E130"/>
       <c r="F130" s="108"/>
       <c r="G130" s="36"/>
       <c r="I130"/>
       <c r="J130"/>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" ht="12.5">
       <c r="E131"/>
       <c r="F131" s="108"/>
       <c r="G131" s="36"/>
       <c r="I131"/>
       <c r="J131"/>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" ht="12.5">
       <c r="E132"/>
       <c r="F132" s="108"/>
       <c r="G132" s="36"/>
@@ -5796,7 +5866,7 @@
       <c r="I133"/>
       <c r="J133"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" ht="12.5">
       <c r="A134" s="108"/>
       <c r="E134"/>
       <c r="F134" s="108"/>
@@ -5804,7 +5874,7 @@
       <c r="I134"/>
       <c r="J134"/>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" ht="12.5">
       <c r="A135" s="108"/>
       <c r="E135"/>
       <c r="F135" s="108"/>
@@ -5812,7 +5882,7 @@
       <c r="I135"/>
       <c r="J135"/>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" ht="12.5">
       <c r="A136" s="108"/>
       <c r="E136"/>
       <c r="F136" s="108"/>
@@ -5832,7 +5902,7 @@
       <c r="I137"/>
       <c r="J137"/>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" ht="12.5">
       <c r="A138" s="108"/>
       <c r="E138"/>
       <c r="F138" s="108"/>
@@ -5840,7 +5910,7 @@
       <c r="I138"/>
       <c r="J138"/>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" ht="12.5">
       <c r="A139" s="108"/>
       <c r="E139"/>
       <c r="F139" s="108"/>
@@ -5848,7 +5918,7 @@
       <c r="I139"/>
       <c r="J139"/>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" ht="12.5">
       <c r="A140" s="108"/>
       <c r="E140"/>
       <c r="F140" s="108"/>
@@ -5856,7 +5926,7 @@
       <c r="I140"/>
       <c r="J140"/>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" ht="12.5">
       <c r="A141" s="108"/>
       <c r="E141"/>
       <c r="F141" s="108"/>
@@ -5864,7 +5934,7 @@
       <c r="I141"/>
       <c r="J141"/>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" ht="12.5">
       <c r="A142" s="108"/>
       <c r="E142"/>
       <c r="F142" s="108"/>
@@ -5872,7 +5942,7 @@
       <c r="I142"/>
       <c r="J142"/>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" ht="12.5">
       <c r="A143" s="108"/>
       <c r="E143"/>
       <c r="F143" s="108"/>
@@ -5880,7 +5950,7 @@
       <c r="I143"/>
       <c r="J143"/>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" ht="12.5">
       <c r="A144" s="108"/>
       <c r="E144"/>
       <c r="F144" s="108"/>
@@ -5888,7 +5958,7 @@
       <c r="I144"/>
       <c r="J144"/>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" ht="12.5">
       <c r="A145" s="108"/>
       <c r="E145"/>
       <c r="F145" s="108"/>
@@ -5896,7 +5966,7 @@
       <c r="I145"/>
       <c r="J145"/>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" ht="12.5">
       <c r="A146" s="108"/>
       <c r="E146"/>
       <c r="F146" s="108"/>
@@ -5916,7 +5986,7 @@
       <c r="I147"/>
       <c r="J147"/>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" ht="12.5">
       <c r="A148" s="108"/>
       <c r="E148"/>
       <c r="F148" s="108"/>
@@ -5924,7 +5994,7 @@
       <c r="I148"/>
       <c r="J148"/>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" ht="12.5">
       <c r="A149" s="108"/>
       <c r="E149"/>
       <c r="F149" s="108"/>
@@ -5932,7 +6002,7 @@
       <c r="I149"/>
       <c r="J149"/>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" ht="12.5">
       <c r="A150" s="108"/>
       <c r="E150"/>
       <c r="F150" s="108"/>
@@ -5976,7 +6046,7 @@
       <c r="I153"/>
       <c r="J153"/>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" ht="12.5">
       <c r="A154" s="108"/>
       <c r="E154"/>
       <c r="F154" s="108"/>
@@ -5984,7 +6054,7 @@
       <c r="I154"/>
       <c r="J154"/>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" ht="12.5">
       <c r="A155" s="108"/>
       <c r="E155"/>
       <c r="F155" s="108"/>
@@ -6004,7 +6074,7 @@
       <c r="I156"/>
       <c r="J156"/>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" ht="12.5">
       <c r="A157" s="108"/>
       <c r="E157"/>
       <c r="F157" s="108"/>
@@ -6012,7 +6082,7 @@
       <c r="I157"/>
       <c r="J157"/>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" ht="12.5">
       <c r="A158" s="108"/>
       <c r="E158"/>
       <c r="F158" s="108"/>
@@ -6032,7 +6102,7 @@
       <c r="I159"/>
       <c r="J159"/>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" ht="12.5">
       <c r="A160" s="108"/>
       <c r="E160"/>
       <c r="F160" s="108"/>
@@ -6052,7 +6122,7 @@
       <c r="I161"/>
       <c r="J161"/>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" ht="12.5">
       <c r="A162" s="108"/>
       <c r="E162"/>
       <c r="F162" s="108"/>
@@ -6060,7 +6130,7 @@
       <c r="I162"/>
       <c r="J162"/>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" ht="12.5">
       <c r="A163" s="108"/>
       <c r="E163"/>
       <c r="F163" s="108"/>
@@ -6068,7 +6138,7 @@
       <c r="I163"/>
       <c r="J163"/>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" ht="12.5">
       <c r="A164" s="108"/>
       <c r="E164"/>
       <c r="F164" s="108"/>
@@ -6076,7 +6146,7 @@
       <c r="I164"/>
       <c r="J164"/>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" ht="12.5">
       <c r="A165" s="108"/>
       <c r="E165"/>
       <c r="F165" s="108"/>
@@ -6096,7 +6166,7 @@
       <c r="I166"/>
       <c r="J166"/>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" ht="12.5">
       <c r="A167" s="108"/>
       <c r="E167"/>
       <c r="F167" s="108"/>
@@ -6104,7 +6174,7 @@
       <c r="I167"/>
       <c r="J167"/>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" ht="12.5">
       <c r="A168" s="108"/>
       <c r="E168"/>
       <c r="F168" s="108"/>
@@ -6112,7 +6182,7 @@
       <c r="I168"/>
       <c r="J168"/>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" ht="12.5">
       <c r="A169" s="108"/>
       <c r="E169"/>
       <c r="F169" s="108"/>
@@ -6120,7 +6190,7 @@
       <c r="I169"/>
       <c r="J169"/>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" ht="12.5">
       <c r="A170" s="108"/>
       <c r="E170"/>
       <c r="F170" s="108"/>
@@ -6128,7 +6198,7 @@
       <c r="I170"/>
       <c r="J170"/>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" ht="12.5">
       <c r="A171" s="108"/>
       <c r="E171"/>
       <c r="F171" s="108"/>
@@ -6148,490 +6218,490 @@
       <c r="I172"/>
       <c r="J172"/>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" ht="12.5">
       <c r="E173"/>
       <c r="F173" s="108"/>
       <c r="G173" s="36"/>
       <c r="I173"/>
       <c r="J173"/>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" ht="12.5">
       <c r="E174"/>
       <c r="F174" s="108"/>
       <c r="G174" s="36"/>
       <c r="I174"/>
       <c r="J174"/>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" ht="12.5">
       <c r="E175"/>
       <c r="F175" s="108"/>
       <c r="G175" s="36"/>
       <c r="I175"/>
       <c r="J175"/>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" ht="12.5">
       <c r="E176"/>
       <c r="F176" s="108"/>
       <c r="G176" s="36"/>
       <c r="I176"/>
       <c r="J176"/>
     </row>
-    <row r="177" spans="5:10">
+    <row r="177" spans="5:10" ht="12.5">
       <c r="E177"/>
       <c r="F177" s="108"/>
       <c r="G177" s="36"/>
       <c r="I177"/>
       <c r="J177"/>
     </row>
-    <row r="178" spans="5:10">
+    <row r="178" spans="5:10" ht="12.5">
       <c r="E178"/>
       <c r="F178" s="108"/>
       <c r="G178" s="36"/>
       <c r="I178"/>
       <c r="J178"/>
     </row>
-    <row r="179" spans="5:10">
+    <row r="179" spans="5:10" ht="12.5">
       <c r="E179"/>
       <c r="F179" s="108"/>
       <c r="G179" s="36"/>
       <c r="I179"/>
       <c r="J179"/>
     </row>
-    <row r="180" spans="5:10">
+    <row r="180" spans="5:10" ht="12.5">
       <c r="E180"/>
       <c r="F180" s="108"/>
       <c r="G180" s="36"/>
       <c r="I180"/>
       <c r="J180"/>
     </row>
-    <row r="181" spans="5:10">
+    <row r="181" spans="5:10" ht="12.5">
       <c r="E181"/>
       <c r="F181" s="108"/>
       <c r="G181" s="36"/>
       <c r="I181"/>
       <c r="J181"/>
     </row>
-    <row r="182" spans="5:10">
+    <row r="182" spans="5:10" ht="12.5">
       <c r="E182"/>
       <c r="F182" s="108"/>
       <c r="G182" s="36"/>
       <c r="I182"/>
       <c r="J182"/>
     </row>
-    <row r="183" spans="5:10">
+    <row r="183" spans="5:10" ht="12.5">
       <c r="E183"/>
       <c r="F183" s="108"/>
       <c r="G183" s="36"/>
       <c r="I183"/>
       <c r="J183"/>
     </row>
-    <row r="184" spans="5:10">
+    <row r="184" spans="5:10" ht="12.5">
       <c r="E184"/>
       <c r="F184" s="108"/>
       <c r="G184" s="36"/>
       <c r="I184"/>
       <c r="J184"/>
     </row>
-    <row r="185" spans="5:10">
+    <row r="185" spans="5:10" ht="12.5">
       <c r="E185"/>
       <c r="F185" s="108"/>
       <c r="G185" s="36"/>
       <c r="I185"/>
       <c r="J185"/>
     </row>
-    <row r="186" spans="5:10">
+    <row r="186" spans="5:10" ht="12.5">
       <c r="E186"/>
       <c r="F186" s="108"/>
       <c r="G186" s="36"/>
       <c r="I186"/>
       <c r="J186"/>
     </row>
-    <row r="187" spans="5:10">
+    <row r="187" spans="5:10" ht="12.5">
       <c r="E187"/>
       <c r="F187" s="108"/>
       <c r="G187" s="36"/>
       <c r="I187"/>
       <c r="J187"/>
     </row>
-    <row r="188" spans="5:10">
+    <row r="188" spans="5:10" ht="12.5">
       <c r="E188"/>
       <c r="F188" s="108"/>
       <c r="G188" s="36"/>
       <c r="I188"/>
       <c r="J188"/>
     </row>
-    <row r="189" spans="5:10">
+    <row r="189" spans="5:10" ht="12.5">
       <c r="E189"/>
       <c r="F189" s="108"/>
       <c r="G189" s="36"/>
       <c r="I189"/>
       <c r="J189"/>
     </row>
-    <row r="190" spans="5:10">
+    <row r="190" spans="5:10" ht="12.5">
       <c r="E190"/>
       <c r="F190" s="108"/>
       <c r="G190" s="36"/>
       <c r="I190"/>
       <c r="J190"/>
     </row>
-    <row r="191" spans="5:10">
+    <row r="191" spans="5:10" ht="12.5">
       <c r="E191"/>
       <c r="F191" s="108"/>
       <c r="G191" s="36"/>
       <c r="I191"/>
       <c r="J191"/>
     </row>
-    <row r="192" spans="5:10">
+    <row r="192" spans="5:10" ht="12.5">
       <c r="E192"/>
       <c r="F192" s="108"/>
       <c r="G192" s="36"/>
       <c r="I192"/>
       <c r="J192"/>
     </row>
-    <row r="193" spans="5:10">
+    <row r="193" spans="5:10" ht="12.5">
       <c r="E193"/>
       <c r="F193" s="108"/>
       <c r="G193" s="36"/>
       <c r="I193"/>
       <c r="J193"/>
     </row>
-    <row r="194" spans="5:10">
+    <row r="194" spans="5:10" ht="12.5">
       <c r="E194"/>
       <c r="F194" s="108"/>
       <c r="G194" s="36"/>
       <c r="I194"/>
       <c r="J194"/>
     </row>
-    <row r="195" spans="5:10">
+    <row r="195" spans="5:10" ht="12.5">
       <c r="E195"/>
       <c r="F195" s="108"/>
       <c r="G195" s="36"/>
       <c r="I195"/>
       <c r="J195"/>
     </row>
-    <row r="196" spans="5:10">
+    <row r="196" spans="5:10" ht="12.5">
       <c r="E196"/>
       <c r="F196" s="108"/>
       <c r="G196" s="36"/>
       <c r="I196"/>
       <c r="J196"/>
     </row>
-    <row r="197" spans="5:10">
+    <row r="197" spans="5:10" ht="12.5">
       <c r="E197"/>
       <c r="F197" s="108"/>
       <c r="G197" s="36"/>
       <c r="I197"/>
       <c r="J197"/>
     </row>
-    <row r="198" spans="5:10">
+    <row r="198" spans="5:10" ht="12.5">
       <c r="E198"/>
       <c r="F198" s="108"/>
       <c r="G198" s="36"/>
       <c r="I198"/>
       <c r="J198"/>
     </row>
-    <row r="199" spans="5:10">
+    <row r="199" spans="5:10" ht="12.5">
       <c r="E199"/>
       <c r="F199" s="108"/>
       <c r="G199" s="36"/>
       <c r="I199"/>
       <c r="J199"/>
     </row>
-    <row r="200" spans="5:10">
+    <row r="200" spans="5:10" ht="12.5">
       <c r="E200"/>
       <c r="F200" s="108"/>
       <c r="G200" s="36"/>
       <c r="I200"/>
       <c r="J200"/>
     </row>
-    <row r="201" spans="5:10">
+    <row r="201" spans="5:10" ht="12.5">
       <c r="E201"/>
       <c r="F201" s="108"/>
       <c r="G201" s="36"/>
       <c r="I201"/>
       <c r="J201"/>
     </row>
-    <row r="202" spans="5:10">
+    <row r="202" spans="5:10" ht="12.5">
       <c r="E202"/>
       <c r="F202" s="108"/>
       <c r="G202" s="36"/>
       <c r="I202"/>
       <c r="J202"/>
     </row>
-    <row r="203" spans="5:10">
+    <row r="203" spans="5:10" ht="12.5">
       <c r="E203"/>
       <c r="F203" s="108"/>
       <c r="G203" s="36"/>
       <c r="I203"/>
       <c r="J203"/>
     </row>
-    <row r="204" spans="5:10">
+    <row r="204" spans="5:10" ht="12.5">
       <c r="E204"/>
       <c r="F204" s="108"/>
       <c r="G204" s="36"/>
       <c r="I204"/>
       <c r="J204"/>
     </row>
-    <row r="205" spans="5:10">
+    <row r="205" spans="5:10" ht="12.5">
       <c r="E205"/>
       <c r="F205" s="108"/>
       <c r="G205" s="36"/>
       <c r="I205"/>
       <c r="J205"/>
     </row>
-    <row r="206" spans="5:10">
+    <row r="206" spans="5:10" ht="12.5">
       <c r="E206"/>
       <c r="F206" s="108"/>
       <c r="G206" s="36"/>
       <c r="I206"/>
       <c r="J206"/>
     </row>
-    <row r="207" spans="5:10">
+    <row r="207" spans="5:10" ht="12.5">
       <c r="E207"/>
       <c r="F207" s="108"/>
       <c r="G207" s="36"/>
       <c r="I207"/>
       <c r="J207"/>
     </row>
-    <row r="208" spans="5:10">
+    <row r="208" spans="5:10" ht="12.5">
       <c r="E208"/>
       <c r="F208" s="108"/>
       <c r="G208" s="36"/>
       <c r="I208"/>
       <c r="J208"/>
     </row>
-    <row r="209" spans="5:10">
+    <row r="209" spans="5:10" ht="12.5">
       <c r="E209"/>
       <c r="F209" s="108"/>
       <c r="G209" s="36"/>
       <c r="I209"/>
       <c r="J209"/>
     </row>
-    <row r="210" spans="5:10">
+    <row r="210" spans="5:10" ht="12.5">
       <c r="E210"/>
       <c r="F210" s="108"/>
       <c r="G210" s="36"/>
       <c r="I210"/>
       <c r="J210"/>
     </row>
-    <row r="211" spans="5:10">
+    <row r="211" spans="5:10" ht="12.5">
       <c r="E211"/>
       <c r="F211" s="108"/>
       <c r="G211" s="36"/>
       <c r="I211"/>
       <c r="J211"/>
     </row>
-    <row r="212" spans="5:10">
+    <row r="212" spans="5:10" ht="12.5">
       <c r="E212"/>
       <c r="F212" s="108"/>
       <c r="G212" s="36"/>
       <c r="I212"/>
       <c r="J212"/>
     </row>
-    <row r="213" spans="5:10">
+    <row r="213" spans="5:10" ht="12.5">
       <c r="E213"/>
       <c r="F213" s="108"/>
       <c r="G213" s="36"/>
       <c r="I213"/>
       <c r="J213"/>
     </row>
-    <row r="214" spans="5:10">
+    <row r="214" spans="5:10" ht="12.5">
       <c r="E214"/>
       <c r="F214" s="108"/>
       <c r="G214" s="36"/>
       <c r="I214"/>
       <c r="J214"/>
     </row>
-    <row r="215" spans="5:10">
+    <row r="215" spans="5:10" ht="12.5">
       <c r="E215"/>
       <c r="F215" s="108"/>
       <c r="G215" s="36"/>
       <c r="I215"/>
       <c r="J215"/>
     </row>
-    <row r="216" spans="5:10">
+    <row r="216" spans="5:10" ht="12.5">
       <c r="E216"/>
       <c r="F216" s="108"/>
       <c r="G216" s="36"/>
       <c r="I216"/>
       <c r="J216"/>
     </row>
-    <row r="217" spans="5:10">
+    <row r="217" spans="5:10" ht="12.5">
       <c r="E217"/>
       <c r="F217" s="108"/>
       <c r="G217" s="36"/>
       <c r="I217"/>
       <c r="J217"/>
     </row>
-    <row r="218" spans="5:10">
+    <row r="218" spans="5:10" ht="12.5">
       <c r="E218"/>
       <c r="F218" s="108"/>
       <c r="G218" s="36"/>
       <c r="I218"/>
       <c r="J218"/>
     </row>
-    <row r="219" spans="5:10">
+    <row r="219" spans="5:10" ht="12.5">
       <c r="E219"/>
       <c r="F219" s="108"/>
       <c r="G219" s="36"/>
       <c r="I219"/>
       <c r="J219"/>
     </row>
-    <row r="220" spans="5:10">
+    <row r="220" spans="5:10" ht="12.5">
       <c r="E220"/>
       <c r="F220" s="108"/>
       <c r="G220" s="36"/>
       <c r="I220"/>
       <c r="J220"/>
     </row>
-    <row r="221" spans="5:10">
+    <row r="221" spans="5:10" ht="12.5">
       <c r="E221"/>
       <c r="F221" s="108"/>
       <c r="G221" s="36"/>
       <c r="I221"/>
       <c r="J221"/>
     </row>
-    <row r="222" spans="5:10">
+    <row r="222" spans="5:10" ht="12.5">
       <c r="E222"/>
       <c r="F222" s="108"/>
       <c r="G222" s="36"/>
       <c r="I222"/>
       <c r="J222"/>
     </row>
-    <row r="223" spans="5:10">
+    <row r="223" spans="5:10" ht="12.5">
       <c r="E223"/>
       <c r="F223" s="108"/>
       <c r="G223" s="36"/>
       <c r="I223"/>
       <c r="J223"/>
     </row>
-    <row r="224" spans="5:10">
+    <row r="224" spans="5:10" ht="12.5">
       <c r="E224"/>
       <c r="F224" s="108"/>
       <c r="G224" s="36"/>
       <c r="I224"/>
       <c r="J224"/>
     </row>
-    <row r="225" spans="5:10">
+    <row r="225" spans="5:10" ht="12.5">
       <c r="E225"/>
       <c r="F225" s="108"/>
       <c r="G225" s="36"/>
       <c r="I225"/>
       <c r="J225"/>
     </row>
-    <row r="226" spans="5:10">
+    <row r="226" spans="5:10" ht="12.5">
       <c r="E226"/>
       <c r="F226" s="108"/>
       <c r="G226" s="36"/>
       <c r="I226"/>
       <c r="J226"/>
     </row>
-    <row r="227" spans="5:10">
+    <row r="227" spans="5:10" ht="12.5">
       <c r="E227"/>
       <c r="F227" s="108"/>
       <c r="G227" s="36"/>
       <c r="I227"/>
       <c r="J227"/>
     </row>
-    <row r="228" spans="5:10">
+    <row r="228" spans="5:10" ht="12.5">
       <c r="E228"/>
       <c r="F228" s="108"/>
       <c r="G228" s="36"/>
       <c r="I228"/>
       <c r="J228"/>
     </row>
-    <row r="229" spans="5:10">
+    <row r="229" spans="5:10" ht="12.5">
       <c r="E229"/>
       <c r="F229" s="108"/>
       <c r="G229" s="36"/>
       <c r="I229"/>
       <c r="J229"/>
     </row>
-    <row r="230" spans="5:10">
+    <row r="230" spans="5:10" ht="12.5">
       <c r="E230"/>
       <c r="F230" s="108"/>
       <c r="G230" s="36"/>
       <c r="I230"/>
       <c r="J230"/>
     </row>
-    <row r="231" spans="5:10">
+    <row r="231" spans="5:10" ht="12.5">
       <c r="E231"/>
       <c r="F231" s="108"/>
       <c r="G231" s="36"/>
       <c r="I231"/>
       <c r="J231"/>
     </row>
-    <row r="232" spans="5:10">
+    <row r="232" spans="5:10" ht="12.5">
       <c r="E232"/>
       <c r="F232" s="108"/>
       <c r="G232" s="36"/>
       <c r="I232"/>
       <c r="J232"/>
     </row>
-    <row r="233" spans="5:10">
+    <row r="233" spans="5:10" ht="12.5">
       <c r="E233"/>
       <c r="F233" s="108"/>
       <c r="G233" s="36"/>
       <c r="I233"/>
       <c r="J233"/>
     </row>
-    <row r="234" spans="5:10">
+    <row r="234" spans="5:10" ht="12.5">
       <c r="E234"/>
       <c r="F234" s="108"/>
       <c r="G234" s="36"/>
       <c r="I234"/>
       <c r="J234"/>
     </row>
-    <row r="235" spans="5:10">
+    <row r="235" spans="5:10" ht="12.5">
       <c r="E235"/>
       <c r="F235" s="108"/>
       <c r="G235" s="36"/>
       <c r="I235"/>
       <c r="J235"/>
     </row>
-    <row r="236" spans="5:10">
+    <row r="236" spans="5:10" ht="12.5">
       <c r="E236"/>
       <c r="F236" s="108"/>
       <c r="G236" s="36"/>
       <c r="I236"/>
       <c r="J236"/>
     </row>
-    <row r="237" spans="5:10">
+    <row r="237" spans="5:10" ht="12.5">
       <c r="E237"/>
       <c r="F237" s="108"/>
       <c r="G237" s="36"/>
       <c r="I237"/>
       <c r="J237"/>
     </row>
-    <row r="238" spans="5:10">
+    <row r="238" spans="5:10" ht="12.5">
       <c r="E238"/>
       <c r="F238" s="108"/>
       <c r="G238" s="36"/>
       <c r="I238"/>
       <c r="J238"/>
     </row>
-    <row r="239" spans="5:10">
+    <row r="239" spans="5:10" ht="12.5">
       <c r="E239"/>
       <c r="F239" s="108"/>
       <c r="G239" s="36"/>
       <c r="I239"/>
       <c r="J239"/>
     </row>
-    <row r="240" spans="5:10">
+    <row r="240" spans="5:10" ht="12.5">
       <c r="E240"/>
       <c r="F240" s="108"/>
       <c r="G240" s="36"/>
       <c r="I240"/>
       <c r="J240"/>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" ht="12.5">
       <c r="E241"/>
       <c r="F241" s="108"/>
       <c r="G241" s="36"/>
       <c r="I241"/>
       <c r="J241"/>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" ht="12.5">
       <c r="E242"/>
       <c r="F242" s="108"/>
       <c r="G242" s="36"/>
@@ -6655,7 +6725,7 @@
       <c r="H244" s="193"/>
       <c r="J244"/>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" ht="12.5">
       <c r="E245"/>
       <c r="F245" s="108"/>
       <c r="G245" s="36"/>
@@ -6686,98 +6756,98 @@
       <c r="G250" s="219"/>
       <c r="H250" s="193"/>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" ht="12.5">
       <c r="E251"/>
       <c r="F251" s="108"/>
       <c r="G251" s="36"/>
       <c r="I251"/>
       <c r="J251"/>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" ht="12.5">
       <c r="E252"/>
       <c r="F252" s="108"/>
       <c r="G252" s="36"/>
       <c r="I252"/>
       <c r="J252"/>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" ht="12.5">
       <c r="E253"/>
       <c r="F253" s="108"/>
       <c r="G253" s="36"/>
       <c r="I253"/>
       <c r="J253"/>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:10" ht="12.5">
       <c r="E254"/>
       <c r="F254" s="108"/>
       <c r="G254" s="36"/>
       <c r="I254"/>
       <c r="J254"/>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" ht="12.5">
       <c r="E255"/>
       <c r="F255" s="108"/>
       <c r="G255" s="36"/>
       <c r="I255"/>
       <c r="J255"/>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:10" ht="12.5">
       <c r="E256"/>
       <c r="F256" s="108"/>
       <c r="G256" s="36"/>
       <c r="I256"/>
       <c r="J256"/>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" ht="12.5">
       <c r="E257"/>
       <c r="F257" s="108"/>
       <c r="G257" s="36"/>
       <c r="I257"/>
       <c r="J257"/>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" ht="12.5">
       <c r="E258"/>
       <c r="F258" s="108"/>
       <c r="G258" s="36"/>
       <c r="I258"/>
       <c r="J258"/>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" ht="12.5">
       <c r="E259"/>
       <c r="F259" s="108"/>
       <c r="G259" s="36"/>
       <c r="I259"/>
       <c r="J259"/>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" ht="12.5">
       <c r="E260"/>
       <c r="F260" s="108"/>
       <c r="G260" s="36"/>
       <c r="I260"/>
       <c r="J260"/>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" ht="12.5">
       <c r="E261"/>
       <c r="F261" s="108"/>
       <c r="G261" s="36"/>
       <c r="I261"/>
       <c r="J261"/>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" ht="12.5">
       <c r="E262"/>
       <c r="F262" s="108"/>
       <c r="G262" s="36"/>
       <c r="I262"/>
       <c r="J262"/>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" ht="12.5">
       <c r="E263"/>
       <c r="F263" s="108"/>
       <c r="G263" s="36"/>
       <c r="I263"/>
       <c r="J263"/>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" ht="12.5">
       <c r="E264"/>
       <c r="F264" s="108"/>
       <c r="G264" s="36"/>
@@ -6796,63 +6866,63 @@
       <c r="I265"/>
       <c r="J265"/>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" ht="12.5">
       <c r="E266"/>
       <c r="F266" s="108"/>
       <c r="G266" s="36"/>
       <c r="I266"/>
       <c r="J266"/>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" ht="12.5">
       <c r="E267"/>
       <c r="F267" s="108"/>
       <c r="G267" s="36"/>
       <c r="I267"/>
       <c r="J267"/>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" ht="12.5">
       <c r="E268"/>
       <c r="F268" s="108"/>
       <c r="G268" s="36"/>
       <c r="I268"/>
       <c r="J268"/>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" ht="12.5">
       <c r="E269"/>
       <c r="F269" s="108"/>
       <c r="G269" s="36"/>
       <c r="I269"/>
       <c r="J269"/>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" ht="12.5">
       <c r="E270"/>
       <c r="F270" s="108"/>
       <c r="G270" s="36"/>
       <c r="I270"/>
       <c r="J270"/>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" ht="12.5">
       <c r="E271"/>
       <c r="F271" s="108"/>
       <c r="G271" s="36"/>
       <c r="I271"/>
       <c r="J271"/>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" ht="12.5">
       <c r="E272"/>
       <c r="F272" s="108"/>
       <c r="G272" s="36"/>
       <c r="I272"/>
       <c r="J272"/>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" ht="12.5">
       <c r="E273"/>
       <c r="F273" s="108"/>
       <c r="G273" s="36"/>
       <c r="I273"/>
       <c r="J273"/>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" ht="12.5">
       <c r="E274"/>
       <c r="F274" s="108"/>
       <c r="G274" s="36"/>
@@ -6871,28 +6941,28 @@
       <c r="I275"/>
       <c r="J275"/>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" ht="12.5">
       <c r="E276"/>
       <c r="F276" s="108"/>
       <c r="G276" s="36"/>
       <c r="I276"/>
       <c r="J276"/>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" ht="12.5">
       <c r="E277"/>
       <c r="F277" s="108"/>
       <c r="G277" s="36"/>
       <c r="I277"/>
       <c r="J277"/>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" ht="12.5">
       <c r="E278"/>
       <c r="F278" s="108"/>
       <c r="G278" s="36"/>
       <c r="I278"/>
       <c r="J278"/>
     </row>
-    <row r="279" spans="1:10" ht="13.5">
+    <row r="279" spans="1:10">
       <c r="B279" s="231"/>
       <c r="E279"/>
       <c r="F279" s="108"/>
@@ -6900,49 +6970,49 @@
       <c r="I279"/>
       <c r="J279"/>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" ht="12.5">
       <c r="E280"/>
       <c r="F280" s="108"/>
       <c r="G280" s="36"/>
       <c r="I280"/>
       <c r="J280"/>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" ht="12.5">
       <c r="E281"/>
       <c r="F281" s="108"/>
       <c r="G281" s="36"/>
       <c r="I281"/>
       <c r="J281"/>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" ht="12.5">
       <c r="E282"/>
       <c r="F282" s="108"/>
       <c r="G282" s="36"/>
       <c r="I282"/>
       <c r="J282"/>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" ht="12.5">
       <c r="E283"/>
       <c r="F283" s="108"/>
       <c r="G283" s="36"/>
       <c r="I283"/>
       <c r="J283"/>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" ht="12.5">
       <c r="E284"/>
       <c r="F284" s="108"/>
       <c r="G284" s="36"/>
       <c r="I284"/>
       <c r="J284"/>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" ht="12.5">
       <c r="E285"/>
       <c r="F285" s="108"/>
       <c r="G285" s="36"/>
       <c r="I285"/>
       <c r="J285"/>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" ht="12.5">
       <c r="E286"/>
       <c r="F286" s="108"/>
       <c r="G286" s="36"/>
@@ -7221,7 +7291,7 @@
       <c r="I327"/>
       <c r="J327"/>
     </row>
-    <row r="328" spans="1:10">
+    <row r="328" spans="1:10" ht="12.5">
       <c r="A328" s="108"/>
       <c r="E328"/>
       <c r="F328" s="108"/>
@@ -7241,21 +7311,21 @@
       <c r="I329"/>
       <c r="J329"/>
     </row>
-    <row r="330" spans="1:10">
+    <row r="330" spans="1:10" ht="12.5">
       <c r="E330"/>
       <c r="F330" s="108"/>
       <c r="G330" s="36"/>
       <c r="I330"/>
       <c r="J330"/>
     </row>
-    <row r="331" spans="1:10">
+    <row r="331" spans="1:10" ht="12.5">
       <c r="A331" s="108"/>
       <c r="E331"/>
       <c r="F331" s="108"/>
       <c r="I331"/>
       <c r="J331"/>
     </row>
-    <row r="332" spans="1:10">
+    <row r="332" spans="1:10" ht="12.5">
       <c r="A332" s="108"/>
       <c r="E332"/>
       <c r="F332" s="108"/>
@@ -7274,14 +7344,14 @@
       <c r="I333"/>
       <c r="J333"/>
     </row>
-    <row r="334" spans="1:10">
+    <row r="334" spans="1:10" ht="12.5">
       <c r="E334"/>
       <c r="F334" s="108"/>
       <c r="G334" s="36"/>
       <c r="I334"/>
       <c r="J334"/>
     </row>
-    <row r="335" spans="1:10">
+    <row r="335" spans="1:10" ht="12.5">
       <c r="A335" s="108"/>
       <c r="E335"/>
       <c r="F335" s="108"/>
@@ -7289,7 +7359,7 @@
       <c r="I335"/>
       <c r="J335"/>
     </row>
-    <row r="336" spans="1:10">
+    <row r="336" spans="1:10" ht="12.5">
       <c r="A336" s="108"/>
       <c r="E336"/>
       <c r="F336" s="108"/>
@@ -7297,7 +7367,7 @@
       <c r="I336"/>
       <c r="J336"/>
     </row>
-    <row r="337" spans="1:10">
+    <row r="337" spans="1:10" ht="12.5">
       <c r="A337" s="108"/>
       <c r="E337"/>
       <c r="F337" s="108"/>
@@ -7363,14 +7433,14 @@
       <c r="I344"/>
       <c r="J344"/>
     </row>
-    <row r="345" spans="1:10">
+    <row r="345" spans="1:10" ht="12.5">
       <c r="E345"/>
       <c r="F345" s="108"/>
       <c r="G345" s="36"/>
       <c r="I345"/>
       <c r="J345"/>
     </row>
-    <row r="346" spans="1:10">
+    <row r="346" spans="1:10" ht="12.5">
       <c r="A346" s="108"/>
       <c r="E346"/>
       <c r="F346" s="108"/>
@@ -7378,7 +7448,7 @@
       <c r="I346"/>
       <c r="J346"/>
     </row>
-    <row r="347" spans="1:10">
+    <row r="347" spans="1:10" ht="12.5">
       <c r="A347" s="108"/>
       <c r="E347"/>
       <c r="F347" s="108"/>
@@ -7386,7 +7456,7 @@
       <c r="I347"/>
       <c r="J347"/>
     </row>
-    <row r="348" spans="1:10">
+    <row r="348" spans="1:10" ht="12.5">
       <c r="A348" s="108"/>
       <c r="E348"/>
       <c r="F348" s="108"/>
@@ -7394,7 +7464,7 @@
       <c r="I348"/>
       <c r="J348"/>
     </row>
-    <row r="349" spans="1:10">
+    <row r="349" spans="1:10" ht="12.5">
       <c r="A349" s="108"/>
       <c r="E349"/>
       <c r="F349" s="108"/>
@@ -7402,7 +7472,7 @@
       <c r="I349"/>
       <c r="J349"/>
     </row>
-    <row r="350" spans="1:10">
+    <row r="350" spans="1:10" ht="12.5">
       <c r="A350" s="108"/>
       <c r="E350"/>
       <c r="F350" s="108"/>
@@ -7410,7 +7480,7 @@
       <c r="I350"/>
       <c r="J350"/>
     </row>
-    <row r="351" spans="1:10">
+    <row r="351" spans="1:10" ht="12.5">
       <c r="A351" s="108"/>
       <c r="E351"/>
       <c r="F351" s="108"/>
@@ -7418,7 +7488,7 @@
       <c r="I351"/>
       <c r="J351"/>
     </row>
-    <row r="352" spans="1:10">
+    <row r="352" spans="1:10" ht="12.5">
       <c r="A352" s="108"/>
       <c r="B352" s="220"/>
       <c r="E352"/>
@@ -7426,14 +7496,14 @@
       <c r="I352"/>
       <c r="J352"/>
     </row>
-    <row r="353" spans="1:10">
+    <row r="353" spans="1:10" ht="12.5">
       <c r="A353" s="108"/>
       <c r="E353"/>
       <c r="F353" s="108"/>
       <c r="I353"/>
       <c r="J353"/>
     </row>
-    <row r="354" spans="1:10">
+    <row r="354" spans="1:10" ht="12.5">
       <c r="A354" s="108"/>
       <c r="E354"/>
       <c r="F354" s="108"/>
@@ -7441,7 +7511,7 @@
       <c r="I354"/>
       <c r="J354"/>
     </row>
-    <row r="355" spans="1:10">
+    <row r="355" spans="1:10" ht="12.5">
       <c r="A355" s="108"/>
       <c r="E355"/>
       <c r="F355" s="108"/>
@@ -7449,7 +7519,7 @@
       <c r="I355"/>
       <c r="J355"/>
     </row>
-    <row r="356" spans="1:10">
+    <row r="356" spans="1:10" ht="12.5">
       <c r="A356" s="108"/>
       <c r="E356"/>
       <c r="F356" s="108"/>
@@ -7457,7 +7527,7 @@
       <c r="I356"/>
       <c r="J356"/>
     </row>
-    <row r="357" spans="1:10">
+    <row r="357" spans="1:10" ht="12.5">
       <c r="A357" s="108"/>
       <c r="E357"/>
       <c r="F357" s="108"/>
@@ -7465,7 +7535,7 @@
       <c r="I357"/>
       <c r="J357"/>
     </row>
-    <row r="358" spans="1:10">
+    <row r="358" spans="1:10" ht="12.5">
       <c r="A358" s="108"/>
       <c r="E358"/>
       <c r="F358" s="108"/>
@@ -7473,7 +7543,7 @@
       <c r="I358"/>
       <c r="J358"/>
     </row>
-    <row r="359" spans="1:10">
+    <row r="359" spans="1:10" ht="12.5">
       <c r="A359" s="108"/>
       <c r="E359"/>
       <c r="F359" s="108"/>
@@ -7481,7 +7551,7 @@
       <c r="I359"/>
       <c r="J359"/>
     </row>
-    <row r="360" spans="1:10">
+    <row r="360" spans="1:10" ht="12.5">
       <c r="A360" s="108"/>
       <c r="B360" s="108"/>
       <c r="E360"/>
@@ -7490,7 +7560,7 @@
       <c r="I360"/>
       <c r="J360"/>
     </row>
-    <row r="361" spans="1:10">
+    <row r="361" spans="1:10" ht="12.5">
       <c r="A361" s="108"/>
       <c r="B361" s="108"/>
       <c r="E361"/>
@@ -7499,7 +7569,7 @@
       <c r="I361"/>
       <c r="J361"/>
     </row>
-    <row r="362" spans="1:10">
+    <row r="362" spans="1:10" ht="12.5">
       <c r="A362" s="108"/>
       <c r="B362" s="108"/>
       <c r="E362"/>
@@ -7508,7 +7578,7 @@
       <c r="I362"/>
       <c r="J362"/>
     </row>
-    <row r="363" spans="1:10">
+    <row r="363" spans="1:10" ht="12.5">
       <c r="A363" s="108"/>
       <c r="B363" s="108"/>
       <c r="E363"/>
@@ -7517,7 +7587,7 @@
       <c r="I363"/>
       <c r="J363"/>
     </row>
-    <row r="364" spans="1:10">
+    <row r="364" spans="1:10" ht="12.5">
       <c r="A364" s="108"/>
       <c r="B364" s="108"/>
       <c r="E364"/>
@@ -7526,7 +7596,7 @@
       <c r="I364"/>
       <c r="J364"/>
     </row>
-    <row r="365" spans="1:10">
+    <row r="365" spans="1:10" ht="12.5">
       <c r="A365" s="108"/>
       <c r="E365"/>
       <c r="F365" s="108"/>
@@ -7534,7 +7604,7 @@
       <c r="I365"/>
       <c r="J365"/>
     </row>
-    <row r="366" spans="1:10">
+    <row r="366" spans="1:10" ht="12.5">
       <c r="A366" s="108"/>
       <c r="E366"/>
       <c r="F366" s="108"/>
@@ -7542,7 +7612,7 @@
       <c r="I366"/>
       <c r="J366"/>
     </row>
-    <row r="367" spans="1:10">
+    <row r="367" spans="1:10" ht="12.5">
       <c r="A367" s="108"/>
       <c r="E367"/>
       <c r="F367" s="108"/>
@@ -7550,7 +7620,7 @@
       <c r="I367"/>
       <c r="J367"/>
     </row>
-    <row r="368" spans="1:10">
+    <row r="368" spans="1:10" ht="12.5">
       <c r="A368" s="108"/>
       <c r="E368"/>
       <c r="F368" s="108"/>
@@ -7558,7 +7628,7 @@
       <c r="I368"/>
       <c r="J368"/>
     </row>
-    <row r="369" spans="1:10">
+    <row r="369" spans="1:10" ht="12.5">
       <c r="A369" s="108"/>
       <c r="E369"/>
       <c r="F369" s="108"/>
@@ -7566,7 +7636,7 @@
       <c r="I369"/>
       <c r="J369"/>
     </row>
-    <row r="370" spans="1:10">
+    <row r="370" spans="1:10" ht="12.5">
       <c r="A370" s="108"/>
       <c r="E370"/>
       <c r="F370" s="108"/>
@@ -7574,7 +7644,7 @@
       <c r="I370"/>
       <c r="J370"/>
     </row>
-    <row r="371" spans="1:10">
+    <row r="371" spans="1:10" ht="12.5">
       <c r="A371" s="108"/>
       <c r="E371"/>
       <c r="F371" s="108"/>
@@ -7582,7 +7652,7 @@
       <c r="I371"/>
       <c r="J371"/>
     </row>
-    <row r="372" spans="1:10">
+    <row r="372" spans="1:10" ht="12.5">
       <c r="A372" s="108"/>
       <c r="E372"/>
       <c r="F372" s="108"/>
@@ -7590,7 +7660,7 @@
       <c r="I372"/>
       <c r="J372"/>
     </row>
-    <row r="373" spans="1:10">
+    <row r="373" spans="1:10" ht="12.5">
       <c r="A373" s="108"/>
       <c r="E373"/>
       <c r="F373" s="108"/>
@@ -7598,7 +7668,7 @@
       <c r="I373"/>
       <c r="J373"/>
     </row>
-    <row r="374" spans="1:10">
+    <row r="374" spans="1:10" ht="12.5">
       <c r="A374" s="108"/>
       <c r="E374"/>
       <c r="F374" s="108"/>
@@ -7606,7 +7676,7 @@
       <c r="I374"/>
       <c r="J374"/>
     </row>
-    <row r="375" spans="1:10">
+    <row r="375" spans="1:10" ht="12.5">
       <c r="A375" s="108"/>
       <c r="E375"/>
       <c r="F375" s="108"/>
@@ -7614,7 +7684,7 @@
       <c r="I375"/>
       <c r="J375"/>
     </row>
-    <row r="376" spans="1:10">
+    <row r="376" spans="1:10" ht="12.5">
       <c r="A376" s="108"/>
       <c r="E376"/>
       <c r="F376" s="108"/>
@@ -7622,7 +7692,7 @@
       <c r="I376"/>
       <c r="J376"/>
     </row>
-    <row r="377" spans="1:10">
+    <row r="377" spans="1:10" ht="12.5">
       <c r="A377" s="108"/>
       <c r="E377"/>
       <c r="F377" s="108"/>
@@ -7630,7 +7700,7 @@
       <c r="I377"/>
       <c r="J377"/>
     </row>
-    <row r="378" spans="1:10">
+    <row r="378" spans="1:10" ht="12.5">
       <c r="A378" s="108"/>
       <c r="E378"/>
       <c r="F378" s="108"/>
@@ -7638,7 +7708,7 @@
       <c r="I378"/>
       <c r="J378"/>
     </row>
-    <row r="379" spans="1:10">
+    <row r="379" spans="1:10" ht="12.5">
       <c r="A379" s="108"/>
       <c r="E379"/>
       <c r="F379" s="108"/>
@@ -7646,7 +7716,7 @@
       <c r="I379"/>
       <c r="J379"/>
     </row>
-    <row r="380" spans="1:10">
+    <row r="380" spans="1:10" ht="12.5">
       <c r="A380" s="108"/>
       <c r="E380"/>
       <c r="F380" s="108"/>
@@ -7654,7 +7724,7 @@
       <c r="I380"/>
       <c r="J380"/>
     </row>
-    <row r="381" spans="1:10">
+    <row r="381" spans="1:10" ht="12.5">
       <c r="A381" s="108"/>
       <c r="E381"/>
       <c r="F381" s="108"/>
@@ -7662,7 +7732,7 @@
       <c r="I381"/>
       <c r="J381"/>
     </row>
-    <row r="382" spans="1:10">
+    <row r="382" spans="1:10" ht="12.5">
       <c r="A382" s="108"/>
       <c r="E382"/>
       <c r="F382" s="108"/>
@@ -7670,7 +7740,7 @@
       <c r="I382"/>
       <c r="J382"/>
     </row>
-    <row r="383" spans="1:10">
+    <row r="383" spans="1:10" ht="12.5">
       <c r="A383" s="108"/>
       <c r="E383"/>
       <c r="F383" s="108"/>
@@ -7678,7 +7748,7 @@
       <c r="I383"/>
       <c r="J383"/>
     </row>
-    <row r="384" spans="1:10">
+    <row r="384" spans="1:10" ht="12.5">
       <c r="A384" s="108"/>
       <c r="E384"/>
       <c r="F384" s="108"/>
@@ -7686,7 +7756,7 @@
       <c r="I384"/>
       <c r="J384"/>
     </row>
-    <row r="385" spans="1:10">
+    <row r="385" spans="1:10" ht="12.5">
       <c r="A385" s="108"/>
       <c r="E385"/>
       <c r="F385" s="108"/>
@@ -7694,7 +7764,7 @@
       <c r="I385"/>
       <c r="J385"/>
     </row>
-    <row r="386" spans="1:10">
+    <row r="386" spans="1:10" ht="12.5">
       <c r="A386" s="108"/>
       <c r="E386"/>
       <c r="F386" s="108"/>
@@ -7702,7 +7772,7 @@
       <c r="I386"/>
       <c r="J386"/>
     </row>
-    <row r="387" spans="1:10">
+    <row r="387" spans="1:10" ht="12.5">
       <c r="A387" s="108"/>
       <c r="E387"/>
       <c r="F387" s="108"/>
@@ -7710,7 +7780,7 @@
       <c r="I387"/>
       <c r="J387"/>
     </row>
-    <row r="388" spans="1:10">
+    <row r="388" spans="1:10" ht="12.5">
       <c r="A388" s="108"/>
       <c r="E388"/>
       <c r="F388" s="108"/>
@@ -7718,7 +7788,7 @@
       <c r="I388"/>
       <c r="J388"/>
     </row>
-    <row r="389" spans="1:10">
+    <row r="389" spans="1:10" ht="12.5">
       <c r="A389" s="108"/>
       <c r="E389"/>
       <c r="F389" s="108"/>
@@ -7726,7 +7796,7 @@
       <c r="I389"/>
       <c r="J389"/>
     </row>
-    <row r="390" spans="1:10">
+    <row r="390" spans="1:10" ht="12.5">
       <c r="A390" s="108"/>
       <c r="E390"/>
       <c r="F390" s="108"/>
@@ -7734,7 +7804,7 @@
       <c r="I390"/>
       <c r="J390"/>
     </row>
-    <row r="391" spans="1:10">
+    <row r="391" spans="1:10" ht="12.5">
       <c r="A391" s="108"/>
       <c r="E391"/>
       <c r="F391" s="108"/>
@@ -7742,7 +7812,7 @@
       <c r="I391"/>
       <c r="J391"/>
     </row>
-    <row r="392" spans="1:10">
+    <row r="392" spans="1:10" ht="12.5">
       <c r="A392" s="108"/>
       <c r="E392"/>
       <c r="F392" s="108"/>
@@ -7750,7 +7820,7 @@
       <c r="I392"/>
       <c r="J392"/>
     </row>
-    <row r="393" spans="1:10">
+    <row r="393" spans="1:10" ht="12.5">
       <c r="A393" s="108"/>
       <c r="E393"/>
       <c r="F393" s="108"/>
@@ -7758,7 +7828,7 @@
       <c r="I393"/>
       <c r="J393"/>
     </row>
-    <row r="394" spans="1:10">
+    <row r="394" spans="1:10" ht="12.5">
       <c r="A394" s="108"/>
       <c r="E394"/>
       <c r="F394" s="108"/>
@@ -7766,7 +7836,7 @@
       <c r="I394"/>
       <c r="J394"/>
     </row>
-    <row r="395" spans="1:10">
+    <row r="395" spans="1:10" ht="12.5">
       <c r="A395" s="108"/>
       <c r="E395"/>
       <c r="F395" s="108"/>
@@ -7774,7 +7844,7 @@
       <c r="I395"/>
       <c r="J395"/>
     </row>
-    <row r="396" spans="1:10">
+    <row r="396" spans="1:10" ht="12.5">
       <c r="A396" s="108"/>
       <c r="E396"/>
       <c r="F396" s="108"/>
@@ -7782,7 +7852,7 @@
       <c r="I396"/>
       <c r="J396"/>
     </row>
-    <row r="397" spans="1:10">
+    <row r="397" spans="1:10" ht="12.5">
       <c r="A397" s="108"/>
       <c r="E397"/>
       <c r="F397" s="108"/>
@@ -7790,7 +7860,7 @@
       <c r="I397"/>
       <c r="J397"/>
     </row>
-    <row r="398" spans="1:10">
+    <row r="398" spans="1:10" ht="12.5">
       <c r="A398" s="108"/>
       <c r="E398"/>
       <c r="F398" s="108"/>
@@ -7798,7 +7868,7 @@
       <c r="I398"/>
       <c r="J398"/>
     </row>
-    <row r="399" spans="1:10">
+    <row r="399" spans="1:10" ht="12.5">
       <c r="A399" s="108"/>
       <c r="E399"/>
       <c r="F399" s="108"/>
@@ -7806,7 +7876,7 @@
       <c r="I399"/>
       <c r="J399"/>
     </row>
-    <row r="400" spans="1:10">
+    <row r="400" spans="1:10" ht="12.5">
       <c r="A400" s="108"/>
       <c r="E400"/>
       <c r="F400" s="108"/>
@@ -7814,7 +7884,7 @@
       <c r="I400"/>
       <c r="J400"/>
     </row>
-    <row r="401" spans="1:10">
+    <row r="401" spans="1:10" ht="12.5">
       <c r="A401" s="108"/>
       <c r="E401"/>
       <c r="F401" s="108"/>
@@ -7822,7 +7892,7 @@
       <c r="I401"/>
       <c r="J401"/>
     </row>
-    <row r="402" spans="1:10">
+    <row r="402" spans="1:10" ht="12.5">
       <c r="A402" s="108"/>
       <c r="E402"/>
       <c r="F402" s="108"/>
@@ -7830,7 +7900,7 @@
       <c r="I402"/>
       <c r="J402"/>
     </row>
-    <row r="403" spans="1:10">
+    <row r="403" spans="1:10" ht="12.5">
       <c r="A403" s="108"/>
       <c r="E403"/>
       <c r="F403" s="108"/>
@@ -7838,7 +7908,7 @@
       <c r="I403"/>
       <c r="J403"/>
     </row>
-    <row r="404" spans="1:10">
+    <row r="404" spans="1:10" ht="12.5">
       <c r="A404" s="108"/>
       <c r="E404"/>
       <c r="F404" s="108"/>
@@ -7846,7 +7916,7 @@
       <c r="I404"/>
       <c r="J404"/>
     </row>
-    <row r="405" spans="1:10">
+    <row r="405" spans="1:10" ht="12.5">
       <c r="A405" s="108"/>
       <c r="E405"/>
       <c r="F405" s="108"/>
@@ -7854,7 +7924,7 @@
       <c r="I405"/>
       <c r="J405"/>
     </row>
-    <row r="406" spans="1:10">
+    <row r="406" spans="1:10" ht="12.5">
       <c r="A406" s="108"/>
       <c r="E406"/>
       <c r="F406" s="108"/>
@@ -7862,7 +7932,7 @@
       <c r="I406"/>
       <c r="J406"/>
     </row>
-    <row r="407" spans="1:10">
+    <row r="407" spans="1:10" ht="12.5">
       <c r="A407" s="108"/>
       <c r="E407"/>
       <c r="F407" s="108"/>
@@ -7870,7 +7940,7 @@
       <c r="I407"/>
       <c r="J407"/>
     </row>
-    <row r="408" spans="1:10">
+    <row r="408" spans="1:10" ht="12.5">
       <c r="A408" s="108"/>
       <c r="E408"/>
       <c r="F408" s="108"/>
@@ -7878,7 +7948,7 @@
       <c r="I408"/>
       <c r="J408"/>
     </row>
-    <row r="409" spans="1:10">
+    <row r="409" spans="1:10" ht="12.5">
       <c r="A409" s="108"/>
       <c r="E409"/>
       <c r="F409" s="108"/>
@@ -7886,7 +7956,7 @@
       <c r="I409"/>
       <c r="J409"/>
     </row>
-    <row r="410" spans="1:10">
+    <row r="410" spans="1:10" ht="12.5">
       <c r="A410" s="108"/>
       <c r="E410"/>
       <c r="F410" s="108"/>
@@ -7894,7 +7964,7 @@
       <c r="I410"/>
       <c r="J410"/>
     </row>
-    <row r="411" spans="1:10">
+    <row r="411" spans="1:10" ht="12.5">
       <c r="A411" s="108"/>
       <c r="E411"/>
       <c r="F411" s="108"/>
@@ -7902,7 +7972,7 @@
       <c r="I411"/>
       <c r="J411"/>
     </row>
-    <row r="412" spans="1:10">
+    <row r="412" spans="1:10" ht="12.5">
       <c r="A412" s="108"/>
       <c r="E412"/>
       <c r="F412" s="108"/>
@@ -7910,7 +7980,7 @@
       <c r="I412"/>
       <c r="J412"/>
     </row>
-    <row r="413" spans="1:10">
+    <row r="413" spans="1:10" ht="12.5">
       <c r="A413" s="108"/>
       <c r="E413"/>
       <c r="F413" s="108"/>
@@ -7918,7 +7988,7 @@
       <c r="I413"/>
       <c r="J413"/>
     </row>
-    <row r="414" spans="1:10">
+    <row r="414" spans="1:10" ht="12.5">
       <c r="A414" s="108"/>
       <c r="E414"/>
       <c r="F414" s="108"/>
@@ -7926,7 +7996,7 @@
       <c r="I414"/>
       <c r="J414"/>
     </row>
-    <row r="415" spans="1:10">
+    <row r="415" spans="1:10" ht="12.5">
       <c r="A415" s="108"/>
       <c r="E415"/>
       <c r="F415" s="108"/>
@@ -7934,7 +8004,7 @@
       <c r="I415"/>
       <c r="J415"/>
     </row>
-    <row r="416" spans="1:10">
+    <row r="416" spans="1:10" ht="12.5">
       <c r="A416" s="108"/>
       <c r="E416"/>
       <c r="F416" s="108"/>
@@ -7942,7 +8012,7 @@
       <c r="I416"/>
       <c r="J416"/>
     </row>
-    <row r="417" spans="1:10">
+    <row r="417" spans="1:10" ht="12.5">
       <c r="A417" s="108"/>
       <c r="E417"/>
       <c r="F417" s="108"/>
@@ -7950,7 +8020,7 @@
       <c r="I417"/>
       <c r="J417"/>
     </row>
-    <row r="418" spans="1:10">
+    <row r="418" spans="1:10" ht="12.5">
       <c r="A418" s="108"/>
       <c r="E418"/>
       <c r="F418" s="108"/>
@@ -7958,7 +8028,7 @@
       <c r="I418"/>
       <c r="J418"/>
     </row>
-    <row r="419" spans="1:10">
+    <row r="419" spans="1:10" ht="12.5">
       <c r="A419" s="108"/>
       <c r="E419"/>
       <c r="F419" s="108"/>
@@ -7966,7 +8036,7 @@
       <c r="I419"/>
       <c r="J419"/>
     </row>
-    <row r="420" spans="1:10">
+    <row r="420" spans="1:10" ht="12.5">
       <c r="A420" s="108"/>
       <c r="E420"/>
       <c r="F420" s="108"/>
@@ -7974,7 +8044,7 @@
       <c r="I420"/>
       <c r="J420"/>
     </row>
-    <row r="421" spans="1:10">
+    <row r="421" spans="1:10" ht="12.5">
       <c r="A421" s="108"/>
       <c r="E421"/>
       <c r="F421" s="108"/>
@@ -7982,7 +8052,7 @@
       <c r="I421"/>
       <c r="J421"/>
     </row>
-    <row r="422" spans="1:10">
+    <row r="422" spans="1:10" ht="12.5">
       <c r="A422" s="108"/>
       <c r="E422"/>
       <c r="F422" s="108"/>
@@ -7990,7 +8060,7 @@
       <c r="I422"/>
       <c r="J422"/>
     </row>
-    <row r="423" spans="1:10">
+    <row r="423" spans="1:10" ht="12.5">
       <c r="A423" s="108"/>
       <c r="E423"/>
       <c r="F423" s="108"/>
@@ -7998,7 +8068,7 @@
       <c r="I423"/>
       <c r="J423"/>
     </row>
-    <row r="424" spans="1:10">
+    <row r="424" spans="1:10" ht="12.5">
       <c r="A424" s="108"/>
       <c r="E424"/>
       <c r="F424" s="108"/>
@@ -8006,7 +8076,7 @@
       <c r="I424"/>
       <c r="J424"/>
     </row>
-    <row r="425" spans="1:10">
+    <row r="425" spans="1:10" ht="12.5">
       <c r="A425" s="108"/>
       <c r="E425"/>
       <c r="F425" s="108"/>
@@ -8014,7 +8084,7 @@
       <c r="I425"/>
       <c r="J425"/>
     </row>
-    <row r="426" spans="1:10">
+    <row r="426" spans="1:10" ht="12.5">
       <c r="A426" s="108"/>
       <c r="E426"/>
       <c r="F426" s="108"/>
@@ -8022,7 +8092,7 @@
       <c r="I426"/>
       <c r="J426"/>
     </row>
-    <row r="427" spans="1:10">
+    <row r="427" spans="1:10" ht="12.5">
       <c r="A427" s="108"/>
       <c r="E427"/>
       <c r="F427" s="108"/>
@@ -8030,7 +8100,7 @@
       <c r="I427"/>
       <c r="J427"/>
     </row>
-    <row r="428" spans="1:10">
+    <row r="428" spans="1:10" ht="12.5">
       <c r="A428" s="108"/>
       <c r="E428"/>
       <c r="F428" s="108"/>
@@ -8038,7 +8108,7 @@
       <c r="I428"/>
       <c r="J428"/>
     </row>
-    <row r="429" spans="1:10">
+    <row r="429" spans="1:10" ht="12.5">
       <c r="A429" s="108"/>
       <c r="E429"/>
       <c r="F429" s="108"/>
@@ -8046,7 +8116,7 @@
       <c r="I429"/>
       <c r="J429"/>
     </row>
-    <row r="430" spans="1:10">
+    <row r="430" spans="1:10" ht="12.5">
       <c r="A430" s="108"/>
       <c r="E430"/>
       <c r="F430" s="108"/>
@@ -8054,7 +8124,7 @@
       <c r="I430"/>
       <c r="J430"/>
     </row>
-    <row r="431" spans="1:10">
+    <row r="431" spans="1:10" ht="12.5">
       <c r="A431" s="108"/>
       <c r="E431"/>
       <c r="F431" s="108"/>
@@ -8062,7 +8132,7 @@
       <c r="I431"/>
       <c r="J431"/>
     </row>
-    <row r="432" spans="1:10">
+    <row r="432" spans="1:10" ht="12.5">
       <c r="A432" s="108"/>
       <c r="E432"/>
       <c r="F432" s="108"/>
@@ -8070,7 +8140,7 @@
       <c r="I432"/>
       <c r="J432"/>
     </row>
-    <row r="433" spans="1:10">
+    <row r="433" spans="1:10" ht="12.5">
       <c r="A433" s="108"/>
       <c r="E433"/>
       <c r="F433" s="108"/>
@@ -8078,7 +8148,7 @@
       <c r="I433"/>
       <c r="J433"/>
     </row>
-    <row r="434" spans="1:10">
+    <row r="434" spans="1:10" ht="12.5">
       <c r="A434" s="108"/>
       <c r="E434"/>
       <c r="F434" s="108"/>
@@ -8086,7 +8156,7 @@
       <c r="I434"/>
       <c r="J434"/>
     </row>
-    <row r="435" spans="1:10">
+    <row r="435" spans="1:10" ht="12.5">
       <c r="A435" s="108"/>
       <c r="E435"/>
       <c r="F435" s="108"/>
@@ -8094,7 +8164,7 @@
       <c r="I435"/>
       <c r="J435"/>
     </row>
-    <row r="436" spans="1:10">
+    <row r="436" spans="1:10" ht="12.5">
       <c r="A436" s="108"/>
       <c r="E436"/>
       <c r="F436" s="108"/>
@@ -8102,7 +8172,7 @@
       <c r="I436"/>
       <c r="J436"/>
     </row>
-    <row r="437" spans="1:10">
+    <row r="437" spans="1:10" ht="12.5">
       <c r="A437" s="108"/>
       <c r="E437"/>
       <c r="F437" s="108"/>
@@ -8110,7 +8180,7 @@
       <c r="I437"/>
       <c r="J437"/>
     </row>
-    <row r="438" spans="1:10">
+    <row r="438" spans="1:10" ht="12.5">
       <c r="A438" s="108"/>
       <c r="E438"/>
       <c r="F438" s="108"/>
@@ -8118,7 +8188,7 @@
       <c r="I438"/>
       <c r="J438"/>
     </row>
-    <row r="439" spans="1:10">
+    <row r="439" spans="1:10" ht="12.5">
       <c r="A439" s="108"/>
       <c r="E439"/>
       <c r="F439" s="108"/>
@@ -8126,7 +8196,7 @@
       <c r="I439"/>
       <c r="J439"/>
     </row>
-    <row r="440" spans="1:10">
+    <row r="440" spans="1:10" ht="12.5">
       <c r="A440" s="108"/>
       <c r="E440"/>
       <c r="F440" s="108"/>
@@ -8134,7 +8204,7 @@
       <c r="I440"/>
       <c r="J440"/>
     </row>
-    <row r="441" spans="1:10">
+    <row r="441" spans="1:10" ht="12.5">
       <c r="A441" s="108"/>
       <c r="E441"/>
       <c r="F441" s="108"/>
@@ -8142,7 +8212,7 @@
       <c r="I441"/>
       <c r="J441"/>
     </row>
-    <row r="442" spans="1:10">
+    <row r="442" spans="1:10" ht="12.5">
       <c r="A442" s="108"/>
       <c r="E442"/>
       <c r="F442" s="108"/>
@@ -8150,7 +8220,7 @@
       <c r="I442"/>
       <c r="J442"/>
     </row>
-    <row r="443" spans="1:10">
+    <row r="443" spans="1:10" ht="12.5">
       <c r="A443" s="108"/>
       <c r="E443"/>
       <c r="F443" s="108"/>
@@ -8158,7 +8228,7 @@
       <c r="I443"/>
       <c r="J443"/>
     </row>
-    <row r="444" spans="1:10">
+    <row r="444" spans="1:10" ht="12.5">
       <c r="A444" s="108"/>
       <c r="E444"/>
       <c r="F444" s="108"/>
@@ -8166,7 +8236,7 @@
       <c r="I444"/>
       <c r="J444"/>
     </row>
-    <row r="445" spans="1:10">
+    <row r="445" spans="1:10" ht="12.5">
       <c r="A445" s="108"/>
       <c r="E445"/>
       <c r="F445" s="108"/>
@@ -8174,7 +8244,7 @@
       <c r="I445"/>
       <c r="J445"/>
     </row>
-    <row r="446" spans="1:10">
+    <row r="446" spans="1:10" ht="12.5">
       <c r="A446" s="108"/>
       <c r="E446"/>
       <c r="F446" s="108"/>
@@ -8182,7 +8252,7 @@
       <c r="I446"/>
       <c r="J446"/>
     </row>
-    <row r="447" spans="1:10">
+    <row r="447" spans="1:10" ht="12.5">
       <c r="A447" s="108"/>
       <c r="E447"/>
       <c r="F447" s="108"/>
@@ -8190,7 +8260,7 @@
       <c r="I447"/>
       <c r="J447"/>
     </row>
-    <row r="448" spans="1:10">
+    <row r="448" spans="1:10" ht="12.5">
       <c r="A448" s="108"/>
       <c r="E448"/>
       <c r="F448" s="108"/>
@@ -8198,7 +8268,7 @@
       <c r="I448"/>
       <c r="J448"/>
     </row>
-    <row r="449" spans="1:10">
+    <row r="449" spans="1:10" ht="12.5">
       <c r="A449" s="108"/>
       <c r="E449"/>
       <c r="F449" s="108"/>
@@ -8206,7 +8276,7 @@
       <c r="I449"/>
       <c r="J449"/>
     </row>
-    <row r="450" spans="1:10">
+    <row r="450" spans="1:10" ht="12.5">
       <c r="A450" s="108"/>
       <c r="E450"/>
       <c r="F450" s="108"/>
@@ -8214,7 +8284,7 @@
       <c r="I450"/>
       <c r="J450"/>
     </row>
-    <row r="451" spans="1:10">
+    <row r="451" spans="1:10" ht="12.5">
       <c r="A451" s="108"/>
       <c r="E451"/>
       <c r="F451" s="108"/>
@@ -8222,7 +8292,7 @@
       <c r="I451"/>
       <c r="J451"/>
     </row>
-    <row r="452" spans="1:10">
+    <row r="452" spans="1:10" ht="12.5">
       <c r="A452" s="108"/>
       <c r="E452"/>
       <c r="F452" s="108"/>
@@ -8230,7 +8300,7 @@
       <c r="I452"/>
       <c r="J452"/>
     </row>
-    <row r="453" spans="1:10">
+    <row r="453" spans="1:10" ht="12.5">
       <c r="A453" s="108"/>
       <c r="E453"/>
       <c r="F453" s="108"/>
@@ -8238,7 +8308,7 @@
       <c r="I453"/>
       <c r="J453"/>
     </row>
-    <row r="454" spans="1:10">
+    <row r="454" spans="1:10" ht="12.5">
       <c r="A454" s="108"/>
       <c r="E454"/>
       <c r="F454" s="108"/>
@@ -8331,7 +8401,7 @@
       <c r="I465"/>
       <c r="J465"/>
     </row>
-    <row r="466" spans="1:10">
+    <row r="466" spans="1:10" ht="12.5">
       <c r="E466"/>
       <c r="F466" s="108"/>
       <c r="G466" s="36"/>
@@ -8431,7 +8501,7 @@
       <c r="G488" s="219"/>
       <c r="H488" s="193"/>
     </row>
-    <row r="489" spans="1:8" ht="13.5">
+    <row r="489" spans="1:8">
       <c r="A489" s="56"/>
       <c r="B489" s="231"/>
       <c r="C489" s="56"/>
@@ -8441,7 +8511,7 @@
       <c r="G489" s="219"/>
       <c r="H489" s="193"/>
     </row>
-    <row r="490" spans="1:8" ht="13.5">
+    <row r="490" spans="1:8">
       <c r="A490" s="56"/>
       <c r="B490" s="231"/>
       <c r="C490" s="56"/>
@@ -8451,7 +8521,7 @@
       <c r="G490" s="219"/>
       <c r="H490" s="193"/>
     </row>
-    <row r="491" spans="1:8" ht="13.5">
+    <row r="491" spans="1:8">
       <c r="A491" s="56"/>
       <c r="B491" s="231"/>
       <c r="C491" s="56"/>
@@ -8461,7 +8531,7 @@
       <c r="G491" s="219"/>
       <c r="H491" s="193"/>
     </row>
-    <row r="492" spans="1:8">
+    <row r="492" spans="1:8" ht="12.5">
       <c r="E492"/>
       <c r="F492" s="108"/>
       <c r="G492" s="36"/>
@@ -8478,12 +8548,12 @@
       <c r="F495" s="108"/>
       <c r="G495" s="36"/>
     </row>
-    <row r="496" spans="1:8">
+    <row r="496" spans="1:8" ht="12.5">
       <c r="E496" s="62"/>
       <c r="F496" s="108"/>
       <c r="G496" s="36"/>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" ht="12.5">
       <c r="E497" s="62"/>
       <c r="F497" s="108"/>
       <c r="G497" s="36"/>
@@ -8492,45 +8562,45 @@
       <c r="F498" s="108"/>
       <c r="G498" s="36"/>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" ht="12.5">
       <c r="B499" s="201"/>
       <c r="D499" s="2"/>
       <c r="E499" s="63"/>
       <c r="F499" s="108"/>
       <c r="G499" s="36"/>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" ht="12.5">
       <c r="B500" s="201"/>
       <c r="E500" s="62"/>
       <c r="F500" s="108"/>
       <c r="G500" s="36"/>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" ht="12.5">
       <c r="E501" s="62"/>
       <c r="F501" s="108"/>
       <c r="G501" s="36"/>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" ht="12.5">
       <c r="E502" s="62"/>
       <c r="F502" s="108"/>
       <c r="G502" s="36"/>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" ht="12.5">
       <c r="E503" s="62"/>
       <c r="F503" s="108"/>
       <c r="G503" s="36"/>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" ht="12.5">
       <c r="E504" s="62"/>
       <c r="F504" s="108"/>
       <c r="G504" s="36"/>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" ht="12.5">
       <c r="E505" s="62"/>
       <c r="F505" s="108"/>
       <c r="G505" s="36"/>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" ht="12.5">
       <c r="E506" s="62"/>
       <c r="F506" s="108"/>
       <c r="G506" s="36"/>
@@ -8565,7 +8635,7 @@
       <c r="G512" s="219"/>
       <c r="H512" s="193"/>
     </row>
-    <row r="513" spans="1:10">
+    <row r="513" spans="1:10" ht="12.5">
       <c r="E513"/>
       <c r="F513" s="108"/>
       <c r="G513" s="36"/>
@@ -8585,7 +8655,7 @@
       <c r="G516" s="36"/>
       <c r="H516" s="55"/>
     </row>
-    <row r="517" spans="1:10">
+    <row r="517" spans="1:10" ht="12.5">
       <c r="A517" s="143"/>
       <c r="B517" s="143"/>
       <c r="C517" s="143"/>
@@ -8743,7 +8813,7 @@
       <c r="H539" s="193"/>
       <c r="J539"/>
     </row>
-    <row r="540" spans="1:10">
+    <row r="540" spans="1:10" ht="12.5">
       <c r="E540"/>
       <c r="F540" s="108"/>
       <c r="G540" s="108"/>
@@ -8874,7 +8944,7 @@
       <c r="I559"/>
       <c r="J559"/>
     </row>
-    <row r="560" spans="1:10">
+    <row r="560" spans="1:10" ht="12.5">
       <c r="E560"/>
       <c r="F560" s="108"/>
       <c r="G560" s="108"/>
@@ -9271,7 +9341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E7B8F4-5285-46EC-BCE1-BF8FCCDC20D1}">
   <dimension ref="A1:K402"/>
   <sheetViews>
@@ -9281,21 +9351,21 @@
       <selection pane="bottomLeft" activeCell="E369" sqref="E369"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.42578125" customWidth="1"/>
-    <col min="6" max="6" width="50.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.453125" customWidth="1"/>
+    <col min="6" max="6" width="50.1796875" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="282" t="s">
         <v>120</v>
       </c>
@@ -9314,7 +9384,7 @@
       <c r="H1" s="278"/>
       <c r="I1" s="277"/>
     </row>
-    <row r="2" spans="1:11" ht="66.95" customHeight="1">
+    <row r="2" spans="1:11" ht="67" customHeight="1">
       <c r="A2" s="275" t="s">
         <v>121</v>
       </c>
@@ -9341,7 +9411,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="13">
       <c r="A3" s="274" t="s">
         <v>11</v>
       </c>
@@ -15495,7 +15565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4F7720-24EC-4BC8-BFE2-934342B17442}">
   <dimension ref="A1:E249"/>
   <sheetViews>
@@ -15503,13 +15573,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
@@ -15523,7 +15593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="165.75">
+    <row r="2" spans="1:5" ht="169">
       <c r="A2" s="300" t="s">
         <v>4</v>
       </c>
@@ -15537,7 +15607,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15">
+    <row r="3" spans="1:5" ht="14.5">
       <c r="A3" s="301" t="s">
         <v>9</v>
       </c>
@@ -16297,7 +16367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEDE50F-3952-214F-9597-838D9D10B1E0}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -16308,18 +16378,18 @@
       <selection activeCell="A4" sqref="A4:XFD650"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="151" customWidth="1"/>
-    <col min="2" max="2" width="61.7109375" style="171" customWidth="1"/>
+    <col min="1" max="1" width="29.7265625" style="151" customWidth="1"/>
+    <col min="2" max="2" width="61.7265625" style="171" customWidth="1"/>
     <col min="3" max="3" width="65" style="151" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="151" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" style="151"/>
+    <col min="4" max="4" width="14.7265625" style="151" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" style="151"/>
     <col min="7" max="7" width="13" style="151" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="151" customWidth="1"/>
-    <col min="9" max="12" width="8.7109375" style="151"/>
-    <col min="13" max="13" width="16.28515625" style="151" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="151"/>
+    <col min="8" max="8" width="11.453125" style="151" customWidth="1"/>
+    <col min="9" max="12" width="8.7265625" style="151"/>
+    <col min="13" max="13" width="16.26953125" style="151" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="151"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
@@ -16336,7 +16406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="51">
+    <row r="2" spans="1:11" ht="52">
       <c r="A2" s="152" t="s">
         <v>129</v>
       </c>
@@ -16350,7 +16420,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="13">
       <c r="A3" s="154" t="s">
         <v>11</v>
       </c>
@@ -16923,39 +16993,39 @@
       <c r="B121" s="204"/>
       <c r="C121" s="140"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" ht="13">
       <c r="A122" s="196"/>
       <c r="B122" s="204"/>
       <c r="C122" s="140"/>
       <c r="E122" s="156"/>
       <c r="F122" s="156"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" ht="13">
       <c r="A123" s="196"/>
       <c r="B123" s="206"/>
       <c r="C123" s="167"/>
       <c r="E123" s="156"/>
       <c r="F123" s="156"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" ht="13">
       <c r="A124" s="196"/>
       <c r="B124" s="204"/>
       <c r="C124" s="140"/>
       <c r="E124" s="156"/>
       <c r="F124" s="156"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" ht="13">
       <c r="A125" s="196"/>
       <c r="B125" s="204"/>
       <c r="C125" s="140"/>
       <c r="E125" s="156"/>
       <c r="F125" s="156"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" ht="13">
       <c r="E126" s="156"/>
       <c r="F126" s="156"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" ht="13">
       <c r="A127" s="162"/>
       <c r="B127" s="205"/>
       <c r="C127" s="162"/>
@@ -16963,25 +17033,25 @@
       <c r="E127" s="156"/>
       <c r="F127" s="156"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" ht="13">
       <c r="A128" s="140"/>
       <c r="B128" s="204"/>
       <c r="C128" s="140"/>
       <c r="E128" s="156"/>
       <c r="F128" s="156"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" ht="13">
       <c r="A129" s="140"/>
       <c r="B129" s="204"/>
       <c r="C129" s="140"/>
       <c r="E129" s="156"/>
       <c r="F129" s="156"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" ht="13">
       <c r="E130" s="156"/>
       <c r="F130" s="156"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" ht="13">
       <c r="A131" s="162"/>
       <c r="B131" s="205"/>
       <c r="C131" s="162"/>
@@ -16989,7 +17059,7 @@
       <c r="E131" s="156"/>
       <c r="F131" s="156"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" ht="13">
       <c r="A132" s="197"/>
       <c r="B132" s="204"/>
       <c r="C132" s="140"/>
@@ -16997,7 +17067,7 @@
       <c r="E132" s="156"/>
       <c r="F132" s="156"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" ht="13">
       <c r="A133" s="197"/>
       <c r="B133" s="204"/>
       <c r="C133" s="140"/>
@@ -17005,11 +17075,11 @@
       <c r="E133" s="156"/>
       <c r="F133" s="156"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" ht="13">
       <c r="E134" s="156"/>
       <c r="F134" s="156"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" ht="13">
       <c r="A135" s="162"/>
       <c r="B135" s="205"/>
       <c r="C135" s="162"/>
@@ -17017,28 +17087,28 @@
       <c r="E135" s="156"/>
       <c r="F135" s="156"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" ht="13">
       <c r="A136" s="189"/>
       <c r="B136" s="208"/>
       <c r="C136" s="140"/>
       <c r="E136" s="156"/>
       <c r="F136" s="156"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" ht="13">
       <c r="A137" s="189"/>
       <c r="B137" s="208"/>
       <c r="C137" s="140"/>
       <c r="E137" s="156"/>
       <c r="F137" s="156"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" ht="13">
       <c r="A138" s="189"/>
       <c r="B138" s="208"/>
       <c r="C138" s="140"/>
       <c r="E138" s="156"/>
       <c r="F138" s="156"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" ht="13">
       <c r="E139" s="156"/>
       <c r="F139" s="156"/>
     </row>
@@ -17048,7 +17118,7 @@
       <c r="C140" s="162"/>
       <c r="D140" s="158"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" ht="13">
       <c r="E141" s="156"/>
       <c r="F141" s="156"/>
     </row>
@@ -17565,7 +17635,7 @@
       <c r="C275" s="158"/>
       <c r="D275" s="158"/>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" ht="13">
       <c r="E281" s="156"/>
       <c r="F281" s="156"/>
     </row>
@@ -18178,943 +18248,943 @@
       <c r="B402" s="159"/>
       <c r="C402" s="140"/>
     </row>
-    <row r="403" spans="1:3" ht="15">
+    <row r="403" spans="1:3" ht="14.5">
       <c r="A403" s="177"/>
       <c r="C403" s="179"/>
     </row>
-    <row r="404" spans="1:3" ht="15">
+    <row r="404" spans="1:3" ht="14.5">
       <c r="A404" s="140"/>
       <c r="C404" s="180"/>
     </row>
-    <row r="405" spans="1:3" ht="15">
+    <row r="405" spans="1:3" ht="14.5">
       <c r="A405" s="140"/>
       <c r="C405" s="180"/>
     </row>
-    <row r="406" spans="1:3" ht="15">
+    <row r="406" spans="1:3" ht="14.5">
       <c r="A406" s="140"/>
       <c r="C406" s="180"/>
     </row>
-    <row r="407" spans="1:3" ht="15">
+    <row r="407" spans="1:3" ht="14.5">
       <c r="A407" s="140"/>
       <c r="C407" s="180"/>
     </row>
-    <row r="408" spans="1:3" ht="15">
+    <row r="408" spans="1:3" ht="14.5">
       <c r="A408" s="140"/>
       <c r="C408" s="180"/>
     </row>
-    <row r="409" spans="1:3" ht="15">
+    <row r="409" spans="1:3" ht="14.5">
       <c r="A409" s="140"/>
       <c r="C409" s="180"/>
     </row>
-    <row r="410" spans="1:3" ht="15">
+    <row r="410" spans="1:3" ht="14.5">
       <c r="A410" s="140"/>
       <c r="C410" s="180"/>
     </row>
-    <row r="411" spans="1:3" ht="15">
+    <row r="411" spans="1:3" ht="14.5">
       <c r="A411" s="140"/>
       <c r="C411" s="180"/>
     </row>
-    <row r="412" spans="1:3" ht="15">
+    <row r="412" spans="1:3" ht="14.5">
       <c r="A412" s="140"/>
       <c r="C412" s="180"/>
     </row>
-    <row r="413" spans="1:3" ht="15">
+    <row r="413" spans="1:3" ht="14.5">
       <c r="A413" s="140"/>
       <c r="C413" s="180"/>
     </row>
-    <row r="414" spans="1:3" ht="15">
+    <row r="414" spans="1:3" ht="14.5">
       <c r="A414" s="140"/>
       <c r="C414" s="180"/>
     </row>
-    <row r="415" spans="1:3" ht="15">
+    <row r="415" spans="1:3" ht="14.5">
       <c r="A415" s="140"/>
       <c r="C415" s="180"/>
     </row>
-    <row r="416" spans="1:3" ht="15">
+    <row r="416" spans="1:3" ht="14.5">
       <c r="A416" s="140"/>
       <c r="C416" s="180"/>
     </row>
-    <row r="417" spans="1:3" ht="15">
+    <row r="417" spans="1:3" ht="14.5">
       <c r="A417" s="140"/>
       <c r="C417" s="180"/>
     </row>
-    <row r="418" spans="1:3" ht="15">
+    <row r="418" spans="1:3" ht="14.5">
       <c r="A418" s="140"/>
       <c r="C418" s="180"/>
     </row>
-    <row r="419" spans="1:3" ht="15">
+    <row r="419" spans="1:3" ht="14.5">
       <c r="A419" s="140"/>
       <c r="C419" s="180"/>
     </row>
-    <row r="420" spans="1:3" ht="15">
+    <row r="420" spans="1:3" ht="14.5">
       <c r="A420" s="173"/>
       <c r="C420" s="181"/>
     </row>
-    <row r="421" spans="1:3" ht="15">
+    <row r="421" spans="1:3" ht="14.5">
       <c r="A421" s="177"/>
       <c r="C421" s="179"/>
     </row>
-    <row r="422" spans="1:3" ht="15">
+    <row r="422" spans="1:3" ht="14.5">
       <c r="A422" s="140"/>
       <c r="C422" s="180"/>
     </row>
-    <row r="423" spans="1:3" ht="15">
+    <row r="423" spans="1:3" ht="14.5">
       <c r="A423" s="140"/>
       <c r="C423" s="180"/>
     </row>
-    <row r="424" spans="1:3" ht="15">
+    <row r="424" spans="1:3" ht="14.5">
       <c r="A424" s="140"/>
       <c r="C424" s="180"/>
     </row>
-    <row r="425" spans="1:3" ht="15">
+    <row r="425" spans="1:3" ht="14.5">
       <c r="A425" s="140"/>
       <c r="C425" s="180"/>
     </row>
-    <row r="426" spans="1:3" ht="15">
+    <row r="426" spans="1:3" ht="14.5">
       <c r="A426" s="140"/>
       <c r="C426" s="180"/>
     </row>
-    <row r="427" spans="1:3" ht="15">
+    <row r="427" spans="1:3" ht="14.5">
       <c r="A427" s="140"/>
       <c r="C427" s="180"/>
     </row>
-    <row r="428" spans="1:3" ht="15">
+    <row r="428" spans="1:3" ht="14.5">
       <c r="A428" s="140"/>
       <c r="C428" s="181"/>
     </row>
-    <row r="429" spans="1:3" ht="15">
+    <row r="429" spans="1:3" ht="14.5">
       <c r="A429" s="177"/>
       <c r="C429" s="179"/>
     </row>
-    <row r="430" spans="1:3" ht="15">
+    <row r="430" spans="1:3" ht="14.5">
       <c r="A430" s="140"/>
       <c r="C430" s="180"/>
     </row>
-    <row r="431" spans="1:3" ht="15">
+    <row r="431" spans="1:3" ht="14.5">
       <c r="A431" s="140"/>
       <c r="C431" s="180"/>
     </row>
-    <row r="432" spans="1:3" ht="15">
+    <row r="432" spans="1:3" ht="14.5">
       <c r="A432" s="140"/>
       <c r="C432" s="180"/>
     </row>
-    <row r="433" spans="1:3" ht="15">
+    <row r="433" spans="1:3" ht="14.5">
       <c r="A433" s="140"/>
       <c r="C433" s="180"/>
     </row>
-    <row r="434" spans="1:3" ht="15">
+    <row r="434" spans="1:3" ht="14.5">
       <c r="A434" s="140"/>
       <c r="C434" s="180"/>
     </row>
-    <row r="435" spans="1:3" ht="15">
+    <row r="435" spans="1:3" ht="14.5">
       <c r="A435" s="140"/>
       <c r="C435" s="180"/>
     </row>
-    <row r="436" spans="1:3" ht="15">
+    <row r="436" spans="1:3" ht="14.5">
       <c r="A436" s="140"/>
       <c r="C436" s="180"/>
     </row>
-    <row r="437" spans="1:3" ht="15">
+    <row r="437" spans="1:3" ht="14.5">
       <c r="A437" s="140"/>
       <c r="C437" s="181"/>
     </row>
-    <row r="438" spans="1:3" ht="15">
+    <row r="438" spans="1:3" ht="14.5">
       <c r="A438" s="177"/>
       <c r="C438" s="180"/>
     </row>
-    <row r="439" spans="1:3" ht="15">
+    <row r="439" spans="1:3" ht="14.5">
       <c r="A439" s="140"/>
       <c r="C439" s="180"/>
     </row>
-    <row r="440" spans="1:3" ht="15">
+    <row r="440" spans="1:3" ht="14.5">
       <c r="A440" s="140"/>
       <c r="C440" s="182"/>
     </row>
-    <row r="441" spans="1:3" ht="15">
+    <row r="441" spans="1:3" ht="14.5">
       <c r="A441" s="140"/>
       <c r="C441" s="180"/>
     </row>
-    <row r="442" spans="1:3" ht="15">
+    <row r="442" spans="1:3" ht="14.5">
       <c r="A442" s="140"/>
       <c r="C442" s="181"/>
     </row>
-    <row r="443" spans="1:3" ht="15">
+    <row r="443" spans="1:3" ht="14.5">
       <c r="A443" s="177"/>
       <c r="C443" s="179"/>
     </row>
-    <row r="444" spans="1:3" ht="15">
+    <row r="444" spans="1:3" ht="14.5">
       <c r="A444" s="140"/>
       <c r="C444" s="180"/>
     </row>
-    <row r="445" spans="1:3" ht="15">
+    <row r="445" spans="1:3" ht="14.5">
       <c r="A445" s="140"/>
       <c r="C445" s="180"/>
     </row>
-    <row r="446" spans="1:3" ht="15">
+    <row r="446" spans="1:3" ht="14.5">
       <c r="A446" s="140"/>
       <c r="C446" s="180"/>
     </row>
-    <row r="447" spans="1:3" ht="15">
+    <row r="447" spans="1:3" ht="14.5">
       <c r="A447" s="140"/>
       <c r="C447" s="180"/>
     </row>
-    <row r="448" spans="1:3" ht="15">
+    <row r="448" spans="1:3" ht="14.5">
       <c r="A448" s="140"/>
       <c r="C448" s="180"/>
     </row>
-    <row r="449" spans="1:3" ht="15">
+    <row r="449" spans="1:3" ht="14.5">
       <c r="A449" s="140"/>
       <c r="C449" s="180"/>
     </row>
-    <row r="450" spans="1:3" ht="15">
+    <row r="450" spans="1:3" ht="14.5">
       <c r="A450" s="140"/>
       <c r="C450" s="181"/>
     </row>
-    <row r="451" spans="1:3" ht="15">
+    <row r="451" spans="1:3" ht="14.5">
       <c r="A451" s="140"/>
       <c r="C451" s="180"/>
     </row>
-    <row r="452" spans="1:3" ht="15">
+    <row r="452" spans="1:3" ht="14.5">
       <c r="A452" s="177"/>
       <c r="C452" s="179"/>
     </row>
-    <row r="453" spans="1:3" ht="15">
+    <row r="453" spans="1:3" ht="14.5">
       <c r="A453" s="140"/>
       <c r="C453" s="180"/>
     </row>
-    <row r="454" spans="1:3" ht="15">
+    <row r="454" spans="1:3" ht="14.5">
       <c r="A454" s="140"/>
       <c r="C454" s="180"/>
     </row>
-    <row r="455" spans="1:3" ht="15">
+    <row r="455" spans="1:3" ht="14.5">
       <c r="A455" s="140"/>
       <c r="C455" s="180"/>
     </row>
-    <row r="456" spans="1:3" ht="15">
+    <row r="456" spans="1:3" ht="14.5">
       <c r="A456" s="140"/>
       <c r="C456" s="180"/>
     </row>
-    <row r="457" spans="1:3" ht="15">
+    <row r="457" spans="1:3" ht="14.5">
       <c r="A457" s="140"/>
       <c r="C457" s="180"/>
     </row>
-    <row r="458" spans="1:3" ht="15">
+    <row r="458" spans="1:3" ht="14.5">
       <c r="A458" s="140"/>
       <c r="C458" s="180"/>
     </row>
-    <row r="459" spans="1:3" ht="15">
+    <row r="459" spans="1:3" ht="14.5">
       <c r="A459" s="140"/>
       <c r="C459" s="180"/>
     </row>
-    <row r="460" spans="1:3" ht="15">
+    <row r="460" spans="1:3" ht="14.5">
       <c r="A460" s="140"/>
       <c r="C460" s="180"/>
     </row>
-    <row r="461" spans="1:3" ht="15">
+    <row r="461" spans="1:3" ht="14.5">
       <c r="A461" s="140"/>
       <c r="C461" s="180"/>
     </row>
-    <row r="462" spans="1:3" ht="15">
+    <row r="462" spans="1:3" ht="14.5">
       <c r="A462" s="140"/>
       <c r="C462" s="180"/>
     </row>
-    <row r="463" spans="1:3" ht="15">
+    <row r="463" spans="1:3" ht="14.5">
       <c r="A463" s="140"/>
       <c r="C463" s="180"/>
     </row>
-    <row r="464" spans="1:3" ht="15">
+    <row r="464" spans="1:3" ht="14.5">
       <c r="A464" s="140"/>
       <c r="C464" s="180"/>
     </row>
-    <row r="465" spans="1:3" ht="15">
+    <row r="465" spans="1:3" ht="14.5">
       <c r="A465" s="140"/>
       <c r="C465" s="180"/>
     </row>
-    <row r="466" spans="1:3" ht="15">
+    <row r="466" spans="1:3" ht="14.5">
       <c r="A466" s="140"/>
       <c r="C466" s="180"/>
     </row>
-    <row r="467" spans="1:3" ht="15">
+    <row r="467" spans="1:3" ht="14.5">
       <c r="A467" s="140"/>
       <c r="C467" s="180"/>
     </row>
-    <row r="468" spans="1:3" ht="15">
+    <row r="468" spans="1:3" ht="14.5">
       <c r="A468" s="140"/>
       <c r="C468" s="180"/>
     </row>
-    <row r="469" spans="1:3" ht="15">
+    <row r="469" spans="1:3" ht="14.5">
       <c r="A469" s="140"/>
       <c r="C469" s="180"/>
     </row>
-    <row r="470" spans="1:3" ht="15">
+    <row r="470" spans="1:3" ht="14.5">
       <c r="A470" s="140"/>
       <c r="C470" s="180"/>
     </row>
-    <row r="471" spans="1:3" ht="15">
+    <row r="471" spans="1:3" ht="14.5">
       <c r="A471" s="140"/>
       <c r="C471" s="180"/>
     </row>
-    <row r="472" spans="1:3" ht="15">
+    <row r="472" spans="1:3" ht="14.5">
       <c r="A472" s="140"/>
       <c r="C472" s="180"/>
     </row>
-    <row r="473" spans="1:3" ht="15">
+    <row r="473" spans="1:3" ht="14.5">
       <c r="A473" s="140"/>
       <c r="C473" s="180"/>
     </row>
-    <row r="474" spans="1:3" ht="15">
+    <row r="474" spans="1:3" ht="14.5">
       <c r="A474" s="140"/>
       <c r="C474" s="180"/>
     </row>
-    <row r="475" spans="1:3" ht="15">
+    <row r="475" spans="1:3" ht="14.5">
       <c r="A475" s="140"/>
       <c r="C475" s="180"/>
     </row>
-    <row r="476" spans="1:3" ht="15">
+    <row r="476" spans="1:3" ht="14.5">
       <c r="A476" s="140"/>
       <c r="C476" s="180"/>
     </row>
-    <row r="477" spans="1:3" ht="15">
+    <row r="477" spans="1:3" ht="14.5">
       <c r="A477" s="140"/>
       <c r="C477" s="180"/>
     </row>
-    <row r="478" spans="1:3" ht="15">
+    <row r="478" spans="1:3" ht="14.5">
       <c r="A478" s="140"/>
       <c r="C478" s="180"/>
     </row>
-    <row r="479" spans="1:3" ht="15">
+    <row r="479" spans="1:3" ht="14.5">
       <c r="A479" s="140"/>
       <c r="C479" s="180"/>
     </row>
-    <row r="480" spans="1:3" ht="15">
+    <row r="480" spans="1:3" ht="14.5">
       <c r="A480" s="140"/>
       <c r="C480" s="180"/>
     </row>
-    <row r="481" spans="1:3" ht="15">
+    <row r="481" spans="1:3" ht="14.5">
       <c r="A481" s="140"/>
       <c r="C481" s="180"/>
     </row>
-    <row r="482" spans="1:3" ht="15">
+    <row r="482" spans="1:3" ht="14.5">
       <c r="A482" s="140"/>
       <c r="C482" s="180"/>
     </row>
-    <row r="483" spans="1:3" ht="15">
+    <row r="483" spans="1:3" ht="14.5">
       <c r="A483" s="140"/>
       <c r="C483" s="180"/>
     </row>
-    <row r="484" spans="1:3" ht="15">
+    <row r="484" spans="1:3" ht="14.5">
       <c r="A484" s="140"/>
       <c r="C484" s="180"/>
     </row>
-    <row r="485" spans="1:3" ht="15">
+    <row r="485" spans="1:3" ht="14.5">
       <c r="A485" s="140"/>
       <c r="C485" s="180"/>
     </row>
-    <row r="486" spans="1:3" ht="15">
+    <row r="486" spans="1:3" ht="14.5">
       <c r="A486" s="140"/>
       <c r="C486" s="180"/>
     </row>
-    <row r="487" spans="1:3" ht="15">
+    <row r="487" spans="1:3" ht="14.5">
       <c r="A487" s="177"/>
       <c r="C487" s="179"/>
     </row>
-    <row r="488" spans="1:3" ht="15">
+    <row r="488" spans="1:3" ht="14.5">
       <c r="A488" s="140"/>
       <c r="C488" s="180"/>
     </row>
-    <row r="489" spans="1:3" ht="15">
+    <row r="489" spans="1:3" ht="14.5">
       <c r="A489" s="140"/>
       <c r="C489" s="180"/>
     </row>
-    <row r="490" spans="1:3" ht="15">
+    <row r="490" spans="1:3" ht="14.5">
       <c r="A490" s="140"/>
       <c r="C490" s="180"/>
     </row>
-    <row r="491" spans="1:3" ht="15">
+    <row r="491" spans="1:3" ht="14.5">
       <c r="A491" s="140"/>
       <c r="C491" s="180"/>
     </row>
-    <row r="492" spans="1:3" ht="15">
+    <row r="492" spans="1:3" ht="14.5">
       <c r="A492" s="140"/>
       <c r="C492" s="181"/>
     </row>
-    <row r="493" spans="1:3" ht="15">
+    <row r="493" spans="1:3" ht="14.5">
       <c r="A493" s="177"/>
       <c r="C493" s="179"/>
     </row>
-    <row r="494" spans="1:3" ht="15">
+    <row r="494" spans="1:3" ht="14.5">
       <c r="A494" s="140"/>
       <c r="C494" s="180"/>
     </row>
-    <row r="495" spans="1:3" ht="15">
+    <row r="495" spans="1:3" ht="14.5">
       <c r="A495" s="140"/>
       <c r="C495" s="180"/>
     </row>
-    <row r="496" spans="1:3" ht="15">
+    <row r="496" spans="1:3" ht="14.5">
       <c r="A496" s="140"/>
       <c r="C496" s="180"/>
     </row>
-    <row r="497" spans="1:3" ht="15">
+    <row r="497" spans="1:3" ht="14.5">
       <c r="A497" s="140"/>
       <c r="C497" s="180"/>
     </row>
-    <row r="498" spans="1:3" ht="15">
+    <row r="498" spans="1:3" ht="14.5">
       <c r="A498" s="140"/>
       <c r="C498" s="181"/>
     </row>
-    <row r="499" spans="1:3" ht="15">
+    <row r="499" spans="1:3" ht="14.5">
       <c r="A499" s="177"/>
       <c r="C499" s="179"/>
     </row>
-    <row r="500" spans="1:3" ht="15">
+    <row r="500" spans="1:3" ht="14.5">
       <c r="A500" s="140"/>
       <c r="C500" s="180"/>
     </row>
-    <row r="501" spans="1:3" ht="15">
+    <row r="501" spans="1:3" ht="14.5">
       <c r="A501" s="140"/>
       <c r="C501" s="180"/>
     </row>
-    <row r="502" spans="1:3" ht="15">
+    <row r="502" spans="1:3" ht="14.5">
       <c r="A502" s="140"/>
       <c r="C502" s="180"/>
     </row>
-    <row r="503" spans="1:3" ht="15">
+    <row r="503" spans="1:3" ht="14.5">
       <c r="A503" s="140"/>
       <c r="C503" s="180"/>
     </row>
-    <row r="504" spans="1:3" ht="15">
+    <row r="504" spans="1:3" ht="14.5">
       <c r="A504" s="140"/>
       <c r="C504" s="180"/>
     </row>
-    <row r="505" spans="1:3" ht="15">
+    <row r="505" spans="1:3" ht="14.5">
       <c r="A505" s="140"/>
       <c r="C505" s="180"/>
     </row>
-    <row r="506" spans="1:3" ht="15">
+    <row r="506" spans="1:3" ht="14.5">
       <c r="A506" s="140"/>
       <c r="C506" s="180"/>
     </row>
-    <row r="507" spans="1:3" ht="15">
+    <row r="507" spans="1:3" ht="14.5">
       <c r="A507" s="140"/>
       <c r="C507" s="180"/>
     </row>
-    <row r="508" spans="1:3" ht="15">
+    <row r="508" spans="1:3" ht="14.5">
       <c r="A508" s="140"/>
       <c r="C508" s="180"/>
     </row>
-    <row r="509" spans="1:3" ht="15">
+    <row r="509" spans="1:3" ht="14.5">
       <c r="A509" s="140"/>
       <c r="C509" s="180"/>
     </row>
-    <row r="510" spans="1:3" ht="15">
+    <row r="510" spans="1:3" ht="14.5">
       <c r="A510" s="140"/>
       <c r="C510" s="180"/>
     </row>
-    <row r="511" spans="1:3" ht="15">
+    <row r="511" spans="1:3" ht="14.5">
       <c r="A511" s="140"/>
       <c r="C511" s="180"/>
     </row>
-    <row r="512" spans="1:3" ht="15">
+    <row r="512" spans="1:3" ht="14.5">
       <c r="A512" s="140"/>
       <c r="C512" s="180"/>
     </row>
-    <row r="513" spans="1:3" ht="15">
+    <row r="513" spans="1:3" ht="14.5">
       <c r="A513" s="140"/>
       <c r="C513" s="180"/>
     </row>
-    <row r="514" spans="1:3" ht="15">
+    <row r="514" spans="1:3" ht="14.5">
       <c r="A514" s="140"/>
       <c r="C514" s="180"/>
     </row>
-    <row r="515" spans="1:3" ht="15">
+    <row r="515" spans="1:3" ht="14.5">
       <c r="A515" s="140"/>
       <c r="C515" s="180"/>
     </row>
-    <row r="516" spans="1:3" ht="15">
+    <row r="516" spans="1:3" ht="14.5">
       <c r="A516" s="140"/>
       <c r="C516" s="180"/>
     </row>
-    <row r="517" spans="1:3" ht="15">
+    <row r="517" spans="1:3" ht="14.5">
       <c r="A517" s="140"/>
       <c r="C517" s="180"/>
     </row>
-    <row r="518" spans="1:3" ht="15">
+    <row r="518" spans="1:3" ht="14.5">
       <c r="A518" s="140"/>
       <c r="C518" s="181"/>
     </row>
-    <row r="519" spans="1:3" ht="15">
+    <row r="519" spans="1:3" ht="14.5">
       <c r="A519" s="140"/>
       <c r="C519" s="180"/>
     </row>
-    <row r="520" spans="1:3" ht="15">
+    <row r="520" spans="1:3" ht="14.5">
       <c r="A520" s="140"/>
       <c r="C520" s="180"/>
     </row>
-    <row r="521" spans="1:3" ht="15">
+    <row r="521" spans="1:3" ht="14.5">
       <c r="A521" s="140"/>
       <c r="C521" s="180"/>
     </row>
-    <row r="522" spans="1:3" ht="15">
+    <row r="522" spans="1:3" ht="14.5">
       <c r="A522" s="140"/>
       <c r="C522" s="180"/>
     </row>
-    <row r="523" spans="1:3" ht="15">
+    <row r="523" spans="1:3" ht="14.5">
       <c r="A523" s="140"/>
       <c r="C523" s="180"/>
     </row>
-    <row r="524" spans="1:3" ht="15">
+    <row r="524" spans="1:3" ht="14.5">
       <c r="A524" s="140"/>
       <c r="C524" s="180"/>
     </row>
-    <row r="525" spans="1:3" ht="15">
+    <row r="525" spans="1:3" ht="14.5">
       <c r="A525" s="140"/>
       <c r="C525" s="180"/>
     </row>
-    <row r="526" spans="1:3" ht="15">
+    <row r="526" spans="1:3" ht="14.5">
       <c r="A526" s="140"/>
       <c r="C526" s="180"/>
     </row>
-    <row r="527" spans="1:3" ht="15">
+    <row r="527" spans="1:3" ht="14.5">
       <c r="A527" s="140"/>
       <c r="C527" s="181"/>
     </row>
-    <row r="528" spans="1:3" ht="15">
+    <row r="528" spans="1:3" ht="14.5">
       <c r="A528" s="177"/>
       <c r="C528" s="179"/>
     </row>
-    <row r="529" spans="1:3" ht="15">
+    <row r="529" spans="1:3" ht="14.5">
       <c r="A529" s="140"/>
       <c r="C529" s="180"/>
     </row>
-    <row r="530" spans="1:3" ht="15">
+    <row r="530" spans="1:3" ht="14.5">
       <c r="A530" s="140"/>
       <c r="C530" s="180"/>
     </row>
-    <row r="531" spans="1:3" ht="15">
+    <row r="531" spans="1:3" ht="14.5">
       <c r="A531" s="140"/>
       <c r="C531" s="180"/>
     </row>
-    <row r="532" spans="1:3" ht="15">
+    <row r="532" spans="1:3" ht="14.5">
       <c r="A532" s="140"/>
       <c r="C532" s="180"/>
     </row>
-    <row r="533" spans="1:3" ht="15">
+    <row r="533" spans="1:3" ht="14.5">
       <c r="A533" s="140"/>
       <c r="C533" s="180"/>
     </row>
-    <row r="534" spans="1:3" ht="15">
+    <row r="534" spans="1:3" ht="14.5">
       <c r="A534" s="140"/>
       <c r="C534" s="180"/>
     </row>
-    <row r="535" spans="1:3" ht="15">
+    <row r="535" spans="1:3" ht="14.5">
       <c r="A535" s="140"/>
       <c r="C535" s="180"/>
     </row>
-    <row r="536" spans="1:3" ht="15">
+    <row r="536" spans="1:3" ht="14.5">
       <c r="A536" s="140"/>
       <c r="C536" s="180"/>
     </row>
-    <row r="537" spans="1:3" ht="15">
+    <row r="537" spans="1:3" ht="14.5">
       <c r="A537" s="140"/>
       <c r="C537" s="180"/>
     </row>
-    <row r="538" spans="1:3" ht="15">
+    <row r="538" spans="1:3" ht="14.5">
       <c r="A538" s="140"/>
       <c r="C538" s="180"/>
     </row>
-    <row r="539" spans="1:3" ht="15">
+    <row r="539" spans="1:3" ht="14.5">
       <c r="A539" s="140"/>
       <c r="C539" s="180"/>
     </row>
-    <row r="540" spans="1:3" ht="15">
+    <row r="540" spans="1:3" ht="14.5">
       <c r="A540" s="140"/>
       <c r="C540" s="180"/>
     </row>
-    <row r="541" spans="1:3" ht="15">
+    <row r="541" spans="1:3" ht="14.5">
       <c r="A541" s="140"/>
       <c r="C541" s="180"/>
     </row>
-    <row r="542" spans="1:3" ht="15">
+    <row r="542" spans="1:3" ht="14.5">
       <c r="A542" s="140"/>
       <c r="C542" s="180"/>
     </row>
-    <row r="543" spans="1:3" ht="15">
+    <row r="543" spans="1:3" ht="14.5">
       <c r="A543" s="140"/>
       <c r="C543" s="183"/>
     </row>
-    <row r="544" spans="1:3" ht="15">
+    <row r="544" spans="1:3" ht="14.5">
       <c r="A544" s="177"/>
       <c r="C544" s="184"/>
     </row>
-    <row r="545" spans="1:3" ht="15">
+    <row r="545" spans="1:3" ht="14.5">
       <c r="A545" s="140"/>
       <c r="C545" s="180"/>
     </row>
-    <row r="546" spans="1:3" ht="15">
+    <row r="546" spans="1:3" ht="14.5">
       <c r="A546" s="140"/>
       <c r="C546" s="180"/>
     </row>
-    <row r="547" spans="1:3" ht="15">
+    <row r="547" spans="1:3" ht="14.5">
       <c r="A547" s="140"/>
       <c r="C547" s="180"/>
     </row>
-    <row r="548" spans="1:3" ht="15">
+    <row r="548" spans="1:3" ht="14.5">
       <c r="A548" s="140"/>
       <c r="C548" s="181"/>
     </row>
-    <row r="549" spans="1:3" ht="15">
+    <row r="549" spans="1:3" ht="14.5">
       <c r="A549" s="177"/>
       <c r="C549" s="179"/>
     </row>
-    <row r="550" spans="1:3" ht="15">
+    <row r="550" spans="1:3" ht="14.5">
       <c r="A550" s="140"/>
       <c r="C550" s="180"/>
     </row>
-    <row r="551" spans="1:3" ht="15">
+    <row r="551" spans="1:3" ht="14.5">
       <c r="A551" s="140"/>
       <c r="C551" s="180"/>
     </row>
-    <row r="552" spans="1:3" ht="15">
+    <row r="552" spans="1:3" ht="14.5">
       <c r="A552" s="140"/>
       <c r="C552" s="180"/>
     </row>
-    <row r="553" spans="1:3" ht="15">
+    <row r="553" spans="1:3" ht="14.5">
       <c r="A553" s="140"/>
       <c r="C553" s="181"/>
     </row>
-    <row r="554" spans="1:3" ht="15">
+    <row r="554" spans="1:3" ht="14.5">
       <c r="A554" s="177"/>
       <c r="C554" s="179"/>
     </row>
-    <row r="555" spans="1:3" ht="15">
+    <row r="555" spans="1:3" ht="14.5">
       <c r="A555" s="140"/>
       <c r="C555" s="180"/>
     </row>
-    <row r="556" spans="1:3" ht="15">
+    <row r="556" spans="1:3" ht="14.5">
       <c r="A556" s="140"/>
       <c r="C556" s="180"/>
     </row>
-    <row r="557" spans="1:3" ht="15">
+    <row r="557" spans="1:3" ht="14.5">
       <c r="A557" s="140"/>
       <c r="C557" s="180"/>
     </row>
-    <row r="558" spans="1:3" ht="15">
+    <row r="558" spans="1:3" ht="14.5">
       <c r="A558" s="140"/>
       <c r="C558" s="180"/>
     </row>
-    <row r="559" spans="1:3" ht="15">
+    <row r="559" spans="1:3" ht="14.5">
       <c r="A559" s="140"/>
       <c r="C559" s="180"/>
     </row>
-    <row r="560" spans="1:3" ht="15">
+    <row r="560" spans="1:3" ht="14.5">
       <c r="A560" s="140"/>
       <c r="C560" s="180"/>
     </row>
-    <row r="561" spans="1:3" ht="15">
+    <row r="561" spans="1:3" ht="14.5">
       <c r="A561" s="140"/>
       <c r="C561" s="180"/>
     </row>
-    <row r="562" spans="1:3" ht="15">
+    <row r="562" spans="1:3" ht="14.5">
       <c r="A562" s="140"/>
       <c r="C562" s="180"/>
     </row>
-    <row r="563" spans="1:3" ht="15">
+    <row r="563" spans="1:3" ht="14.5">
       <c r="A563" s="140"/>
       <c r="C563" s="180"/>
     </row>
-    <row r="564" spans="1:3" ht="15">
+    <row r="564" spans="1:3" ht="14.5">
       <c r="A564" s="140"/>
       <c r="C564" s="180"/>
     </row>
-    <row r="565" spans="1:3" ht="15">
+    <row r="565" spans="1:3" ht="14.5">
       <c r="A565" s="140"/>
       <c r="C565" s="180"/>
     </row>
-    <row r="566" spans="1:3" ht="15">
+    <row r="566" spans="1:3" ht="14.5">
       <c r="A566" s="140"/>
       <c r="C566" s="180"/>
     </row>
-    <row r="567" spans="1:3" ht="15">
+    <row r="567" spans="1:3" ht="14.5">
       <c r="A567" s="140"/>
       <c r="C567" s="180"/>
     </row>
-    <row r="568" spans="1:3" ht="15">
+    <row r="568" spans="1:3" ht="14.5">
       <c r="A568" s="140"/>
       <c r="C568" s="180"/>
     </row>
-    <row r="569" spans="1:3" ht="15">
+    <row r="569" spans="1:3" ht="14.5">
       <c r="A569" s="140"/>
       <c r="C569" s="180"/>
     </row>
-    <row r="570" spans="1:3" ht="15">
+    <row r="570" spans="1:3" ht="14.5">
       <c r="A570" s="140"/>
       <c r="C570" s="180"/>
     </row>
-    <row r="571" spans="1:3" ht="15">
+    <row r="571" spans="1:3" ht="14.5">
       <c r="A571" s="140"/>
       <c r="C571" s="180"/>
     </row>
-    <row r="572" spans="1:3" ht="15">
+    <row r="572" spans="1:3" ht="14.5">
       <c r="A572" s="140"/>
       <c r="C572" s="180"/>
     </row>
-    <row r="573" spans="1:3" ht="15">
+    <row r="573" spans="1:3" ht="14.5">
       <c r="A573" s="140"/>
       <c r="C573" s="180"/>
     </row>
-    <row r="574" spans="1:3" ht="15">
+    <row r="574" spans="1:3" ht="14.5">
       <c r="A574" s="140"/>
       <c r="C574" s="180"/>
     </row>
-    <row r="575" spans="1:3" ht="15">
+    <row r="575" spans="1:3" ht="14.5">
       <c r="A575" s="140"/>
       <c r="C575" s="180"/>
     </row>
-    <row r="576" spans="1:3" ht="15">
+    <row r="576" spans="1:3" ht="14.5">
       <c r="A576" s="140"/>
       <c r="C576" s="180"/>
     </row>
-    <row r="577" spans="1:3" ht="15">
+    <row r="577" spans="1:3" ht="14.5">
       <c r="A577" s="140"/>
       <c r="C577" s="180"/>
     </row>
-    <row r="578" spans="1:3" ht="15">
+    <row r="578" spans="1:3" ht="14.5">
       <c r="A578" s="140"/>
       <c r="C578" s="180"/>
     </row>
-    <row r="579" spans="1:3" ht="15">
+    <row r="579" spans="1:3" ht="14.5">
       <c r="A579" s="140"/>
       <c r="C579" s="180"/>
     </row>
-    <row r="580" spans="1:3" ht="15">
+    <row r="580" spans="1:3" ht="14.5">
       <c r="A580" s="140"/>
       <c r="C580" s="180"/>
     </row>
-    <row r="581" spans="1:3" ht="15">
+    <row r="581" spans="1:3" ht="14.5">
       <c r="A581" s="140"/>
       <c r="C581" s="180"/>
     </row>
-    <row r="582" spans="1:3" ht="15">
+    <row r="582" spans="1:3" ht="14.5">
       <c r="A582" s="140"/>
       <c r="C582" s="180"/>
     </row>
-    <row r="583" spans="1:3" ht="15">
+    <row r="583" spans="1:3" ht="14.5">
       <c r="A583" s="140"/>
       <c r="C583" s="180"/>
     </row>
-    <row r="584" spans="1:3" ht="15">
+    <row r="584" spans="1:3" ht="14.5">
       <c r="A584" s="140"/>
       <c r="C584" s="180"/>
     </row>
-    <row r="585" spans="1:3" ht="15">
+    <row r="585" spans="1:3" ht="14.5">
       <c r="A585" s="140"/>
       <c r="C585" s="180"/>
     </row>
-    <row r="586" spans="1:3" ht="15">
+    <row r="586" spans="1:3" ht="14.5">
       <c r="A586" s="140"/>
       <c r="C586" s="180"/>
     </row>
-    <row r="587" spans="1:3" ht="15">
+    <row r="587" spans="1:3" ht="14.5">
       <c r="A587" s="140"/>
       <c r="C587" s="180"/>
     </row>
-    <row r="588" spans="1:3" ht="15">
+    <row r="588" spans="1:3" ht="14.5">
       <c r="A588" s="140"/>
       <c r="C588" s="180"/>
     </row>
-    <row r="589" spans="1:3" ht="15">
+    <row r="589" spans="1:3" ht="14.5">
       <c r="A589" s="140"/>
       <c r="C589" s="180"/>
     </row>
-    <row r="590" spans="1:3" ht="15">
+    <row r="590" spans="1:3" ht="14.5">
       <c r="A590" s="140"/>
       <c r="C590" s="180"/>
     </row>
-    <row r="591" spans="1:3" ht="15">
+    <row r="591" spans="1:3" ht="14.5">
       <c r="A591" s="140"/>
       <c r="C591" s="180"/>
     </row>
-    <row r="592" spans="1:3" ht="15">
+    <row r="592" spans="1:3" ht="14.5">
       <c r="A592" s="140"/>
       <c r="C592" s="180"/>
     </row>
-    <row r="593" spans="1:3" ht="15">
+    <row r="593" spans="1:3" ht="14.5">
       <c r="A593" s="140"/>
       <c r="C593" s="180"/>
     </row>
-    <row r="594" spans="1:3" ht="15">
+    <row r="594" spans="1:3" ht="14.5">
       <c r="A594" s="140"/>
       <c r="C594" s="180"/>
     </row>
-    <row r="595" spans="1:3" ht="15">
+    <row r="595" spans="1:3" ht="14.5">
       <c r="A595" s="140"/>
       <c r="C595" s="180"/>
     </row>
-    <row r="596" spans="1:3" ht="15">
+    <row r="596" spans="1:3" ht="14.5">
       <c r="A596" s="140"/>
       <c r="C596" s="180"/>
     </row>
-    <row r="597" spans="1:3" ht="15">
+    <row r="597" spans="1:3" ht="14.5">
       <c r="A597" s="140"/>
       <c r="C597" s="180"/>
     </row>
-    <row r="598" spans="1:3" ht="15">
+    <row r="598" spans="1:3" ht="14.5">
       <c r="A598" s="140"/>
       <c r="C598" s="180"/>
     </row>
-    <row r="599" spans="1:3" ht="15">
+    <row r="599" spans="1:3" ht="14.5">
       <c r="A599" s="140"/>
       <c r="C599" s="180"/>
     </row>
-    <row r="600" spans="1:3" ht="15">
+    <row r="600" spans="1:3" ht="14.5">
       <c r="A600" s="140"/>
       <c r="C600" s="180"/>
     </row>
-    <row r="601" spans="1:3" ht="15">
+    <row r="601" spans="1:3" ht="14.5">
       <c r="A601" s="140"/>
       <c r="C601" s="180"/>
     </row>
-    <row r="602" spans="1:3" ht="15">
+    <row r="602" spans="1:3" ht="14.5">
       <c r="A602" s="140"/>
       <c r="C602" s="180"/>
     </row>
-    <row r="603" spans="1:3" ht="15">
+    <row r="603" spans="1:3" ht="14.5">
       <c r="A603" s="140"/>
       <c r="C603" s="180"/>
     </row>
-    <row r="604" spans="1:3" ht="15">
+    <row r="604" spans="1:3" ht="14.5">
       <c r="A604" s="140"/>
       <c r="C604" s="180"/>
     </row>
-    <row r="605" spans="1:3" ht="15">
+    <row r="605" spans="1:3" ht="14.5">
       <c r="A605" s="140"/>
       <c r="C605" s="180"/>
     </row>
-    <row r="606" spans="1:3" ht="15">
+    <row r="606" spans="1:3" ht="14.5">
       <c r="A606" s="140"/>
       <c r="C606" s="180"/>
     </row>
-    <row r="607" spans="1:3" ht="15">
+    <row r="607" spans="1:3" ht="14.5">
       <c r="A607" s="140"/>
       <c r="C607" s="180"/>
     </row>
-    <row r="608" spans="1:3" ht="15">
+    <row r="608" spans="1:3" ht="14.5">
       <c r="A608" s="140"/>
       <c r="C608" s="180"/>
     </row>
-    <row r="609" spans="1:3" ht="15">
+    <row r="609" spans="1:3" ht="14.5">
       <c r="A609" s="140"/>
       <c r="C609" s="180"/>
     </row>
-    <row r="610" spans="1:3" ht="15">
+    <row r="610" spans="1:3" ht="14.5">
       <c r="A610" s="140"/>
       <c r="C610" s="181"/>
     </row>
-    <row r="611" spans="1:3" ht="15">
+    <row r="611" spans="1:3" ht="14.5">
       <c r="A611" s="177"/>
       <c r="C611" s="179"/>
     </row>
-    <row r="612" spans="1:3" ht="15">
+    <row r="612" spans="1:3" ht="14.5">
       <c r="A612" s="140"/>
       <c r="C612" s="180"/>
     </row>
-    <row r="613" spans="1:3" ht="15">
+    <row r="613" spans="1:3" ht="14.5">
       <c r="A613" s="140"/>
       <c r="C613" s="180"/>
     </row>
-    <row r="614" spans="1:3" ht="15">
+    <row r="614" spans="1:3" ht="14.5">
       <c r="A614" s="140"/>
       <c r="C614" s="180"/>
     </row>
-    <row r="615" spans="1:3" ht="15">
+    <row r="615" spans="1:3" ht="14.5">
       <c r="A615" s="140"/>
       <c r="C615" s="180"/>
     </row>
-    <row r="616" spans="1:3" ht="15">
+    <row r="616" spans="1:3" ht="14.5">
       <c r="A616" s="140"/>
       <c r="C616" s="180"/>
     </row>
-    <row r="617" spans="1:3" ht="15">
+    <row r="617" spans="1:3" ht="14.5">
       <c r="A617" s="140"/>
       <c r="C617" s="180"/>
     </row>
-    <row r="618" spans="1:3" ht="15">
+    <row r="618" spans="1:3" ht="14.5">
       <c r="A618" s="140"/>
       <c r="C618" s="180"/>
     </row>
-    <row r="619" spans="1:3" ht="15">
+    <row r="619" spans="1:3" ht="14.5">
       <c r="A619" s="140"/>
       <c r="C619" s="180"/>
     </row>
-    <row r="620" spans="1:3" ht="15">
+    <row r="620" spans="1:3" ht="14.5">
       <c r="A620" s="140"/>
       <c r="C620" s="180"/>
     </row>
-    <row r="621" spans="1:3" ht="15">
+    <row r="621" spans="1:3" ht="14.5">
       <c r="A621" s="140"/>
       <c r="C621" s="180"/>
     </row>
-    <row r="622" spans="1:3" ht="15">
+    <row r="622" spans="1:3" ht="14.5">
       <c r="A622" s="140"/>
       <c r="C622" s="180"/>
     </row>
-    <row r="623" spans="1:3" ht="15">
+    <row r="623" spans="1:3" ht="14.5">
       <c r="A623" s="140"/>
       <c r="C623" s="180"/>
     </row>
-    <row r="624" spans="1:3" ht="15">
+    <row r="624" spans="1:3" ht="14.5">
       <c r="A624" s="140"/>
       <c r="C624" s="181"/>
     </row>
-    <row r="625" spans="1:4" ht="15">
+    <row r="625" spans="1:4" ht="14.5">
       <c r="A625" s="177"/>
       <c r="C625" s="179"/>
     </row>
-    <row r="626" spans="1:4" ht="15">
+    <row r="626" spans="1:4" ht="14.5">
       <c r="A626" s="140"/>
       <c r="C626" s="180"/>
     </row>
-    <row r="627" spans="1:4" ht="15">
+    <row r="627" spans="1:4" ht="14.5">
       <c r="A627" s="140"/>
       <c r="C627" s="180"/>
     </row>
-    <row r="628" spans="1:4" ht="15">
+    <row r="628" spans="1:4" ht="14.5">
       <c r="A628" s="140"/>
       <c r="C628" s="180"/>
     </row>
-    <row r="629" spans="1:4" ht="15">
+    <row r="629" spans="1:4" ht="14.5">
       <c r="A629" s="140"/>
       <c r="C629" s="180"/>
     </row>
-    <row r="630" spans="1:4" ht="15">
+    <row r="630" spans="1:4" ht="14.5">
       <c r="A630" s="140"/>
       <c r="C630" s="180"/>
     </row>
-    <row r="631" spans="1:4" ht="15">
+    <row r="631" spans="1:4" ht="14.5">
       <c r="A631" s="140"/>
       <c r="C631" s="180"/>
     </row>
-    <row r="632" spans="1:4" ht="15">
+    <row r="632" spans="1:4" ht="14.5">
       <c r="A632" s="140"/>
       <c r="C632" s="180"/>
     </row>
-    <row r="633" spans="1:4" ht="15">
+    <row r="633" spans="1:4" ht="14.5">
       <c r="A633" s="140"/>
       <c r="C633" s="180"/>
     </row>
-    <row r="634" spans="1:4" ht="15">
+    <row r="634" spans="1:4" ht="14.5">
       <c r="A634" s="140"/>
       <c r="C634" s="180"/>
     </row>
-    <row r="635" spans="1:4" ht="15">
+    <row r="635" spans="1:4" ht="14.5">
       <c r="A635" s="140"/>
       <c r="C635" s="180"/>
     </row>
-    <row r="636" spans="1:4" ht="15">
+    <row r="636" spans="1:4" ht="14.5">
       <c r="A636" s="140"/>
       <c r="C636" s="180"/>
     </row>
-    <row r="637" spans="1:4" ht="15">
+    <row r="637" spans="1:4" ht="14.5">
       <c r="A637" s="140"/>
       <c r="C637" s="181"/>
     </row>
@@ -19193,7 +19263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
@@ -19201,22 +19271,22 @@
       <selection activeCell="A4" sqref="A4:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="32.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="43.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" customWidth="1"/>
-    <col min="12" max="1025" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="32.453125" customWidth="1"/>
+    <col min="6" max="6" width="24.7265625" customWidth="1"/>
+    <col min="7" max="7" width="43.26953125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.26953125" customWidth="1"/>
+    <col min="9" max="9" width="31.453125" customWidth="1"/>
+    <col min="10" max="10" width="21.7265625" customWidth="1"/>
+    <col min="11" max="11" width="6.26953125" customWidth="1"/>
+    <col min="12" max="1025" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="36">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="29.5">
       <c r="A1" s="69" t="s">
         <v>134</v>
       </c>
@@ -19234,7 +19304,7 @@
       <c r="G1" s="73"/>
       <c r="H1" s="186"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="75">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="65.5">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -19258,7 +19328,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="74" t="s">
         <v>32</v>
       </c>
@@ -19285,105 +19355,105 @@
       </c>
       <c r="I3" s="68"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="E4" s="1"/>
       <c r="F4" s="187"/>
       <c r="G4" s="12"/>
       <c r="H4" s="127"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="E5" s="1"/>
       <c r="F5" s="187"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="E6" s="1"/>
       <c r="F6" s="187"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="E7" s="1"/>
       <c r="F7" s="187"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="E8" s="1"/>
       <c r="F8" s="187"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="E9" s="1"/>
       <c r="F9" s="187"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="E10" s="1"/>
       <c r="F10" s="187"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="E11" s="1"/>
       <c r="F11" s="187"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="E12" s="1"/>
       <c r="F12" s="187"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="E13" s="1"/>
       <c r="F13" s="187"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="B14" s="108"/>
       <c r="D14" s="143"/>
       <c r="E14" s="1"/>
       <c r="F14" s="187"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="B15" s="108"/>
       <c r="E15" s="1"/>
       <c r="F15" s="187"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="B16" s="108"/>
       <c r="E16" s="1"/>
       <c r="F16" s="187"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="2:8" ht="15">
+    <row r="17" spans="2:8" ht="14.5">
       <c r="B17" s="108"/>
       <c r="E17" s="1"/>
       <c r="F17" s="187"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="2:8" ht="15">
+    <row r="18" spans="2:8" ht="14.5">
       <c r="E18" s="1"/>
       <c r="F18" s="187"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="2:8" ht="15">
+    <row r="19" spans="2:8" ht="14.5">
       <c r="C19" s="36"/>
       <c r="E19" s="1"/>
       <c r="F19" s="187"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="2:8" ht="15">
+    <row r="20" spans="2:8" ht="14.5">
       <c r="E20" s="1"/>
       <c r="F20" s="187"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="2:8" ht="15">
+    <row r="21" spans="2:8" ht="14.5">
       <c r="B21" s="108"/>
       <c r="E21" s="1"/>
       <c r="F21" s="187"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="2:8" ht="15">
+    <row r="22" spans="2:8" ht="14.5">
       <c r="E22" s="1"/>
       <c r="H22" s="187"/>
     </row>
@@ -19446,138 +19516,6 @@
     <row r="37" spans="5:7">
       <c r="E37" s="1"/>
       <c r="G37"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;6&amp;KFF0000 Classification: Controlled</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" customWidth="1"/>
-    <col min="9" max="1023" width="8.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="80" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="84"/>
-    </row>
-    <row r="2" spans="1:8" ht="89.25">
-      <c r="A2" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="126" t="s">
-        <v>170</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15">
-      <c r="A3" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="127" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="127" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15">
-      <c r="D4"/>
-      <c r="E4" s="1"/>
-      <c r="G4" s="68"/>
-    </row>
-    <row r="5" spans="1:8" ht="15">
-      <c r="D5" s="111"/>
-      <c r="E5" s="1"/>
-      <c r="G5" s="68"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.25">
-      <c r="D6" s="112"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="15">
-      <c r="D7"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="187"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.25">
-      <c r="B8" s="108"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="108"/>
-      <c r="D9"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="D10"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="D11"/>
-      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -19589,70 +19527,66 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:O13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1"/>
-    <col min="8" max="1023" width="11.42578125"/>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.453125" customWidth="1"/>
+    <col min="9" max="1023" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36">
-      <c r="A1" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="1:8" ht="18.5">
+      <c r="A1" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-    </row>
-    <row r="2" spans="1:15" ht="90">
+      <c r="E1" s="84"/>
+    </row>
+    <row r="2" spans="1:8" ht="91">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="126" t="s">
         <v>170</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-    </row>
-    <row r="3" spans="1:15" ht="15">
+    </row>
+    <row r="3" spans="1:8" ht="14.5">
       <c r="A3" s="74" t="s">
         <v>32</v>
       </c>
@@ -19668,54 +19602,52 @@
       <c r="E3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="127" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="127" t="s">
         <v>157</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:8" ht="14.5">
+      <c r="D4"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" ht="15">
+      <c r="G4" s="68"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.5">
+      <c r="D5" s="111"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="187"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="G5" s="68"/>
+    </row>
+    <row r="6" spans="1:8" ht="14">
+      <c r="D6" s="112"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:8" ht="14.5">
+      <c r="D7"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="F7" s="187"/>
+    </row>
+    <row r="8" spans="1:8" ht="14">
+      <c r="B8" s="108"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:8">
       <c r="B9" s="108"/>
+      <c r="D9"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:15">
-      <c r="B10" s="108"/>
+    <row r="10" spans="1:8">
+      <c r="D10"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:15">
-      <c r="B11" s="108"/>
+    <row r="11" spans="1:8">
+      <c r="D11"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -19727,46 +19659,46 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:N12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD12"/>
+      <selection activeCell="A4" sqref="A4:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
-    <col min="8" max="14" width="6.28515625" customWidth="1"/>
-    <col min="15" max="1023" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="28.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29.7265625" customWidth="1"/>
+    <col min="8" max="1023" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18">
-      <c r="A1" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:15" ht="18">
+      <c r="A1" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-    </row>
-    <row r="2" spans="1:14" ht="105">
+      <c r="E1" s="39"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:15" ht="87">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -19774,7 +19706,7 @@
         <v>139</v>
       </c>
       <c r="C2" s="24"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="24" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="24" t="s">
@@ -19786,10 +19718,11 @@
       <c r="G2" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="1:14" ht="15">
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.5">
       <c r="A3" s="74" t="s">
         <v>32</v>
       </c>
@@ -19799,7 +19732,7 @@
       <c r="C3" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -19818,41 +19751,41 @@
       <c r="L3" s="79"/>
       <c r="M3" s="79"/>
       <c r="N3" s="79"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="79"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15" ht="14.5">
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="F5" s="187"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:14">
-      <c r="D7"/>
+    <row r="7" spans="1:15">
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:14">
-      <c r="D8"/>
+    <row r="8" spans="1:15">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="B9" s="108"/>
-      <c r="D9"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="B10" s="108"/>
-      <c r="D10"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:14">
-      <c r="D11"/>
+    <row r="11" spans="1:15">
+      <c r="B11" s="108"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:14">
-      <c r="D12"/>
+    <row r="12" spans="1:15">
       <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -19871,14 +19804,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="291" customWidth="1"/>
-    <col min="3" max="1025" width="11.140625" style="287" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="287"/>
+    <col min="1" max="2" width="10.7265625" style="291" customWidth="1"/>
+    <col min="3" max="1025" width="11.1796875" style="287" customWidth="1"/>
+    <col min="1026" max="16384" width="8.81640625" style="287"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:4" ht="17.5">
       <c r="A1" s="283" t="s">
         <v>362</v>
       </c>
@@ -19886,7 +19819,7 @@
       <c r="C1" s="285"/>
       <c r="D1" s="286"/>
     </row>
-    <row r="2" spans="1:4" ht="102.75">
+    <row r="2" spans="1:4" ht="88.5">
       <c r="A2" s="288" t="s">
         <v>353</v>
       </c>
@@ -19924,6 +19857,143 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="25.453125" customWidth="1"/>
+    <col min="8" max="14" width="6.26953125" customWidth="1"/>
+    <col min="15" max="1023" width="8.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18">
+      <c r="A1" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:14" ht="87">
+      <c r="A2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="113" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="123" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.5">
+      <c r="A3" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="D7"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="D8"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="108"/>
+      <c r="D9"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="108"/>
+      <c r="D10"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="D11"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="D12"/>
+      <c r="E12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;6&amp;KFF0000 Classification: Controlled</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E55ACB-56A8-B541-931E-FA903DDDD8CF}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -19931,18 +20001,18 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="133" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="133" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="133" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="133" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="133" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="133" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="133" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="133" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="133" customWidth="1"/>
-    <col min="10" max="16384" width="10.7109375" style="133"/>
+    <col min="1" max="1" width="13.26953125" style="133" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="133" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" style="133" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" style="133" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="133" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" style="133" customWidth="1"/>
+    <col min="7" max="7" width="22.7265625" style="133" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" style="133" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="133" customWidth="1"/>
+    <col min="10" max="16384" width="10.7265625" style="133"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
@@ -19964,7 +20034,7 @@
       <c r="H1" s="132"/>
       <c r="I1" s="132"/>
     </row>
-    <row r="2" spans="1:9" ht="38.25">
+    <row r="2" spans="1:9" ht="39">
       <c r="A2" s="134"/>
       <c r="B2" s="134"/>
       <c r="C2" s="135" t="s">
@@ -19983,7 +20053,7 @@
       <c r="H2" s="134"/>
       <c r="I2" s="134"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="136" t="s">
         <v>9</v>
       </c>
@@ -20012,7 +20082,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="138"/>
       <c r="B4" s="139"/>
       <c r="C4" s="132"/>
@@ -20023,7 +20093,7 @@
       <c r="H4" s="139"/>
       <c r="I4" s="139"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="138"/>
       <c r="B5" s="139"/>
       <c r="C5" s="132"/>
@@ -20034,7 +20104,7 @@
       <c r="H5" s="132"/>
       <c r="I5" s="139"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="138"/>
       <c r="B6" s="139"/>
       <c r="C6" s="132"/>
@@ -20045,7 +20115,7 @@
       <c r="H6" s="132"/>
       <c r="I6" s="139"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="138"/>
       <c r="B7" s="139"/>
       <c r="C7" s="132"/>
@@ -20056,7 +20126,7 @@
       <c r="H7" s="132"/>
       <c r="I7" s="139"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="138"/>
       <c r="B8" s="139"/>
       <c r="C8" s="132"/>
@@ -20067,7 +20137,7 @@
       <c r="H8" s="132"/>
       <c r="I8" s="139"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="138"/>
       <c r="B9" s="139"/>
       <c r="C9" s="132"/>
@@ -20086,7 +20156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -20094,14 +20164,14 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="2" width="11.42578125"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="1" max="2" width="11.453125"/>
+    <col min="3" max="3" width="35.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="1025" width="11.42578125"/>
+    <col min="7" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
@@ -20125,7 +20195,7 @@
       <c r="J1" s="36"/>
       <c r="K1" s="36"/>
     </row>
-    <row r="2" spans="1:11" ht="63.75">
+    <row r="2" spans="1:11" ht="65">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -20148,7 +20218,7 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="1:11" ht="38.25">
+    <row r="3" spans="1:11" ht="39">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -20183,7 +20253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:IU148"/>
   <sheetViews>
@@ -20191,15 +20261,15 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="1025" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="50.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.7265625" customWidth="1"/>
+    <col min="7" max="1025" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="18" customHeight="1">
@@ -20467,7 +20537,7 @@
       <c r="IT1" s="36"/>
       <c r="IU1" s="36"/>
     </row>
-    <row r="2" spans="1:255" ht="191.25">
+    <row r="2" spans="1:255" ht="175.5">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
@@ -20734,7 +20804,7 @@
       <c r="IT2" s="36"/>
       <c r="IU2" s="36"/>
     </row>
-    <row r="3" spans="1:255">
+    <row r="3" spans="1:255" ht="13">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -21236,7 +21306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:IU10"/>
   <sheetViews>
@@ -21244,14 +21314,14 @@
       <selection activeCell="A4" sqref="A4:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
-    <col min="6" max="1025" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="50.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="1" customWidth="1"/>
+    <col min="6" max="1025" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="18" customHeight="1">
@@ -21519,7 +21589,7 @@
       <c r="IT1" s="36"/>
       <c r="IU1" s="36"/>
     </row>
-    <row r="2" spans="1:255" ht="89.25">
+    <row r="2" spans="1:255" ht="78">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -21786,7 +21856,7 @@
       <c r="IT2" s="36"/>
       <c r="IU2" s="36"/>
     </row>
-    <row r="3" spans="1:255">
+    <row r="3" spans="1:255" ht="13">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -21849,7 +21919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:D518"/>
   <sheetViews>
@@ -21857,14 +21927,14 @@
       <selection activeCell="A4" sqref="A4:XFD518"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="1" customWidth="1"/>
-    <col min="5" max="1011" width="8.28515625" customWidth="1"/>
-    <col min="1012" max="1016" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" customWidth="1"/>
+    <col min="3" max="3" width="45.7265625" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" style="1" customWidth="1"/>
+    <col min="5" max="1011" width="8.26953125" customWidth="1"/>
+    <col min="1012" max="1016" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -21881,7 +21951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="51">
+    <row r="2" spans="1:4" ht="52">
       <c r="A2" s="24" t="s">
         <v>153</v>
       </c>
@@ -21895,7 +21965,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="13">
       <c r="A3" s="86" t="s">
         <v>162</v>
       </c>
@@ -23593,7 +23663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:D109"/>
   <sheetViews>
@@ -23601,12 +23671,12 @@
       <selection activeCell="A4" sqref="A4:XFD115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7265625" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -23623,7 +23693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="63.75">
+    <row r="2" spans="1:4" ht="52">
       <c r="A2" s="24" t="s">
         <v>160</v>
       </c>
@@ -23637,7 +23707,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="13">
       <c r="A3" s="86" t="s">
         <v>162</v>
       </c>
@@ -24022,7 +24092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -24030,12 +24100,12 @@
       <selection activeCell="A4" sqref="A4:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="53.7265625" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -24052,7 +24122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="51">
+    <row r="2" spans="1:4" ht="52">
       <c r="A2" s="24" t="s">
         <v>153</v>
       </c>
@@ -24066,7 +24136,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="13">
       <c r="A3" s="86" t="s">
         <v>32</v>
       </c>
@@ -24230,17 +24300,17 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="133" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="133" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="133" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" style="133" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="133" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="133" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" style="133" customWidth="1"/>
-    <col min="8" max="1025" width="8.85546875" style="133" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="133"/>
+    <col min="1" max="1" width="16.1796875" style="133" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="133" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" style="133" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" style="133" customWidth="1"/>
+    <col min="5" max="5" width="26.81640625" style="133" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" style="133" customWidth="1"/>
+    <col min="7" max="7" width="24.453125" style="133" customWidth="1"/>
+    <col min="8" max="1025" width="8.81640625" style="133" customWidth="1"/>
+    <col min="1026" max="16384" width="8.81640625" style="133"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1">
@@ -24259,7 +24329,7 @@
       <c r="E1" s="240"/>
       <c r="F1" s="240"/>
     </row>
-    <row r="2" spans="1:6" s="236" customFormat="1" ht="38.25">
+    <row r="2" spans="1:6" s="236" customFormat="1" ht="39">
       <c r="A2" s="239" t="s">
         <v>4</v>
       </c>
@@ -24279,7 +24349,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.7" customHeight="1">
+    <row r="3" spans="1:6" ht="13.75" customHeight="1">
       <c r="A3" s="233" t="s">
         <v>9</v>
       </c>
@@ -24299,28 +24369,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.7" customHeight="1">
+    <row r="4" spans="1:6" ht="13.75" customHeight="1">
       <c r="A4" s="232"/>
       <c r="B4" s="232"/>
     </row>
-    <row r="5" spans="1:6" ht="13.7" customHeight="1">
+    <row r="5" spans="1:6" ht="13.75" customHeight="1">
       <c r="A5" s="232"/>
       <c r="B5" s="232"/>
     </row>
-    <row r="6" spans="1:6" ht="13.7" customHeight="1">
+    <row r="6" spans="1:6" ht="13.75" customHeight="1">
       <c r="A6" s="232"/>
       <c r="B6" s="232"/>
     </row>
-    <row r="7" spans="1:6" ht="13.7" customHeight="1">
+    <row r="7" spans="1:6" ht="13.75" customHeight="1">
       <c r="A7" s="232"/>
       <c r="B7" s="232"/>
     </row>
-    <row r="8" spans="1:6" ht="13.7" customHeight="1">
+    <row r="8" spans="1:6" ht="13.75" customHeight="1">
       <c r="A8" s="232"/>
       <c r="B8" s="232"/>
     </row>
-    <row r="9" spans="1:6" ht="13.7" customHeight="1"/>
-    <row r="10" spans="1:6" ht="13.7" customHeight="1"/>
+    <row r="9" spans="1:6" ht="13.75" customHeight="1"/>
+    <row r="10" spans="1:6" ht="13.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -24338,11 +24408,11 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="2" width="11.42578125"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="1024" width="11.42578125"/>
+    <col min="1" max="2" width="11.453125"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="1024" width="11.453125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18">
@@ -24360,7 +24430,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="127.5">
+    <row r="2" spans="1:14" ht="130">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -24388,7 +24458,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="13">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -24439,14 +24509,14 @@
       <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="2" width="11.42578125"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="1" max="2" width="11.453125"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
     <col min="4" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="61.28515625" customWidth="1"/>
-    <col min="8" max="1025" width="11.42578125"/>
+    <col min="7" max="7" width="61.26953125" customWidth="1"/>
+    <col min="8" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18">
@@ -24473,7 +24543,7 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
     </row>
-    <row r="2" spans="1:19" ht="178.5">
+    <row r="2" spans="1:19" ht="182">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -24507,7 +24577,7 @@
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
     </row>
-    <row r="3" spans="1:19" ht="38.25">
+    <row r="3" spans="1:19" ht="39">
       <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
@@ -24587,14 +24657,14 @@
       <selection activeCell="A4" sqref="A4:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="2" max="3" width="21.26953125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125"/>
-    <col min="6" max="6" width="35.28515625" customWidth="1"/>
-    <col min="7" max="1023" width="11.42578125"/>
+    <col min="5" max="5" width="11.453125"/>
+    <col min="6" max="6" width="35.26953125" customWidth="1"/>
+    <col min="7" max="1023" width="11.453125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18">
@@ -24619,7 +24689,7 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>
-    <row r="2" spans="1:17" ht="89.25">
+    <row r="2" spans="1:17" ht="91">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -24645,7 +24715,7 @@
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
     </row>
-    <row r="3" spans="1:17" ht="25.5">
+    <row r="3" spans="1:17" ht="26">
       <c r="A3" s="28" t="s">
         <v>32</v>
       </c>
@@ -24747,19 +24817,19 @@
       <selection activeCell="A4" sqref="A4:XFD98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.26953125" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.7265625" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" customWidth="1"/>
-    <col min="11" max="1023" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26.26953125" customWidth="1"/>
+    <col min="11" max="1023" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18">
@@ -24817,7 +24887,7 @@
       <c r="K2" s="36"/>
       <c r="L2" s="36"/>
     </row>
-    <row r="3" spans="1:16" ht="38.25">
+    <row r="3" spans="1:16" ht="39">
       <c r="A3" s="40" t="s">
         <v>32</v>
       </c>
@@ -24855,7 +24925,7 @@
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" ht="13">
       <c r="E4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="41"/>
@@ -24868,106 +24938,106 @@
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" ht="13">
       <c r="G5" s="1"/>
       <c r="H5" s="41"/>
       <c r="J5" s="42"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" ht="13">
       <c r="G6" s="1"/>
       <c r="H6" s="41"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="13">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="G7" s="1"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="13">
       <c r="E8" s="1"/>
       <c r="G8" s="1"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="13">
       <c r="E9" s="1"/>
       <c r="G9" s="1"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="13">
       <c r="E10" s="1"/>
       <c r="G10" s="1"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" ht="13">
       <c r="E11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="41"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" ht="13">
       <c r="E12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="41"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="13">
       <c r="E13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="41"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" ht="13">
       <c r="E14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="41"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" ht="13">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="G15" s="1"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="13">
       <c r="E16" s="1"/>
       <c r="G16" s="1"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" ht="13">
       <c r="E17" s="1"/>
       <c r="G17" s="1"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" ht="13">
       <c r="E18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="41"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" ht="13">
       <c r="E19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="41"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" ht="13">
       <c r="E20" s="1"/>
       <c r="F20" s="108"/>
       <c r="G20" s="1"/>
@@ -24975,7 +25045,7 @@
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" ht="13">
       <c r="B21" s="109"/>
       <c r="C21" s="109"/>
       <c r="D21" s="109"/>
@@ -24988,65 +25058,65 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" ht="13">
       <c r="E22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="41"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" ht="13">
       <c r="E23" s="1"/>
       <c r="G23" s="1"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" ht="13">
       <c r="E24" s="1"/>
       <c r="G24" s="1"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" ht="13">
       <c r="E25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="144"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" ht="13">
       <c r="E26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="144"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" ht="13">
       <c r="E27" s="1"/>
       <c r="G27" s="1"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" ht="13">
       <c r="E28" s="1"/>
       <c r="G28" s="1"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" ht="13">
       <c r="C29" s="43"/>
       <c r="E29" s="1"/>
       <c r="G29" s="1"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" ht="13">
       <c r="E30" s="1"/>
       <c r="G30" s="1"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" ht="13">
       <c r="C31" s="43"/>
       <c r="E31" s="1"/>
       <c r="G31" s="1"/>
@@ -25054,7 +25124,7 @@
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" ht="13">
       <c r="C32" s="43"/>
       <c r="E32" s="1"/>
       <c r="G32" s="1"/>
@@ -25062,7 +25132,7 @@
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
     </row>
-    <row r="33" spans="3:12">
+    <row r="33" spans="3:12" ht="13">
       <c r="C33" s="43"/>
       <c r="E33" s="1"/>
       <c r="G33" s="1"/>
@@ -25070,52 +25140,52 @@
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
     </row>
-    <row r="34" spans="3:12">
+    <row r="34" spans="3:12" ht="13">
       <c r="E34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="41"/>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
     </row>
-    <row r="35" spans="3:12">
+    <row r="35" spans="3:12" ht="13">
       <c r="E35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="41"/>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
     </row>
-    <row r="36" spans="3:12">
+    <row r="36" spans="3:12" ht="13">
       <c r="E36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="41"/>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
     </row>
-    <row r="37" spans="3:12">
+    <row r="37" spans="3:12" ht="13">
       <c r="E37" s="1"/>
       <c r="G37" s="1"/>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
     </row>
-    <row r="38" spans="3:12">
+    <row r="38" spans="3:12" ht="13">
       <c r="E38" s="1"/>
       <c r="G38" s="1"/>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
     </row>
-    <row r="39" spans="3:12">
+    <row r="39" spans="3:12" ht="13">
       <c r="E39" s="1"/>
       <c r="G39" s="1"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
     </row>
-    <row r="40" spans="3:12">
+    <row r="40" spans="3:12" ht="13">
       <c r="E40" s="1"/>
       <c r="G40" s="1"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
     </row>
-    <row r="41" spans="3:12">
+    <row r="41" spans="3:12" ht="13">
       <c r="E41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="41"/>
@@ -25123,13 +25193,13 @@
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
     </row>
-    <row r="42" spans="3:12">
+    <row r="42" spans="3:12" ht="13">
       <c r="E42" s="1"/>
       <c r="G42" s="1"/>
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
     </row>
-    <row r="43" spans="3:12">
+    <row r="43" spans="3:12" ht="13">
       <c r="E43" s="1"/>
       <c r="G43" s="1"/>
       <c r="I43" s="41"/>
@@ -25137,7 +25207,7 @@
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
     </row>
-    <row r="44" spans="3:12">
+    <row r="44" spans="3:12" ht="13">
       <c r="E44" s="1"/>
       <c r="G44" s="1"/>
       <c r="I44" s="41"/>
@@ -25145,7 +25215,7 @@
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
     </row>
-    <row r="45" spans="3:12">
+    <row r="45" spans="3:12" ht="13">
       <c r="E45" s="1"/>
       <c r="G45" s="1"/>
       <c r="I45" s="41"/>
@@ -25156,13 +25226,13 @@
       <c r="E46" s="1"/>
       <c r="G46" s="118"/>
     </row>
-    <row r="47" spans="3:12">
+    <row r="47" spans="3:12" ht="13">
       <c r="E47" s="1"/>
       <c r="G47" s="118"/>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
     </row>
-    <row r="48" spans="3:12">
+    <row r="48" spans="3:12" ht="13">
       <c r="E48" s="1"/>
       <c r="G48" s="1"/>
       <c r="I48" s="41"/>
@@ -25397,29 +25467,29 @@
       <selection activeCell="A4" sqref="A4:XFD54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.26953125" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="42.28515625" customWidth="1"/>
-    <col min="8" max="8" width="74.7109375" customWidth="1"/>
-    <col min="9" max="9" width="83.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="79.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="88.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-    <col min="20" max="30" width="8.42578125" customWidth="1"/>
-    <col min="31" max="1024" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" customWidth="1"/>
+    <col min="7" max="7" width="42.26953125" customWidth="1"/>
+    <col min="8" max="8" width="74.7265625" customWidth="1"/>
+    <col min="9" max="9" width="83.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="79.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="88.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.26953125" customWidth="1"/>
+    <col min="13" max="13" width="23.26953125" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="18.453125" customWidth="1"/>
+    <col min="16" max="16" width="18.453125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" customWidth="1"/>
+    <col min="18" max="18" width="20.453125" customWidth="1"/>
+    <col min="19" max="19" width="17.7265625" customWidth="1"/>
+    <col min="20" max="30" width="8.453125" customWidth="1"/>
+    <col min="31" max="1024" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
@@ -25451,7 +25521,7 @@
       <c r="R1" s="39"/>
       <c r="S1" s="39"/>
     </row>
-    <row r="2" spans="1:26" ht="127.5">
+    <row r="2" spans="1:26" ht="117">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -25492,7 +25562,7 @@
       <c r="R2" s="25"/>
       <c r="S2" s="25"/>
     </row>
-    <row r="3" spans="1:26" ht="38.25">
+    <row r="3" spans="1:26" ht="39">
       <c r="A3" s="40" t="s">
         <v>32</v>
       </c>
@@ -25558,14 +25628,14 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25">
+    <row r="4" spans="1:26" ht="14">
       <c r="I4" s="107"/>
       <c r="L4" s="36"/>
       <c r="M4" s="46"/>
       <c r="R4" s="109"/>
       <c r="S4" s="109"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25">
+    <row r="5" spans="1:26" ht="14">
       <c r="F5" s="2"/>
       <c r="J5" s="107"/>
       <c r="K5" s="36"/>
@@ -25574,7 +25644,7 @@
       <c r="R5" s="109"/>
       <c r="S5" s="109"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25">
+    <row r="6" spans="1:26" ht="14">
       <c r="F6" s="2"/>
       <c r="G6" s="143"/>
       <c r="I6" s="188"/>
@@ -25584,7 +25654,7 @@
       <c r="R6" s="109"/>
       <c r="S6" s="109"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25">
+    <row r="7" spans="1:26" ht="14">
       <c r="F7" s="2"/>
       <c r="G7" s="218"/>
       <c r="H7" s="2"/>
@@ -25595,7 +25665,7 @@
       <c r="R7" s="109"/>
       <c r="S7" s="109"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25">
+    <row r="8" spans="1:26" ht="14">
       <c r="F8" s="2"/>
       <c r="G8" s="218"/>
       <c r="H8" s="2"/>
@@ -25606,7 +25676,7 @@
       <c r="R8" s="109"/>
       <c r="S8" s="109"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25">
+    <row r="9" spans="1:26" ht="14">
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -25618,7 +25688,7 @@
       <c r="R9" s="109"/>
       <c r="S9" s="109"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25">
+    <row r="10" spans="1:26" ht="14">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -25630,7 +25700,7 @@
       <c r="R10" s="109"/>
       <c r="S10" s="109"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25">
+    <row r="11" spans="1:26" ht="14">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -25642,7 +25712,7 @@
       <c r="R11" s="109"/>
       <c r="S11" s="109"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25">
+    <row r="12" spans="1:26" ht="14">
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -25654,7 +25724,7 @@
       <c r="R12" s="109"/>
       <c r="S12" s="109"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25">
+    <row r="13" spans="1:26" ht="14">
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -25666,7 +25736,7 @@
       <c r="R13" s="109"/>
       <c r="S13" s="109"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25">
+    <row r="14" spans="1:26" ht="14">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -25678,7 +25748,7 @@
       <c r="R14" s="109"/>
       <c r="S14" s="109"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25">
+    <row r="15" spans="1:26" ht="14">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -25690,7 +25760,7 @@
       <c r="R15" s="109"/>
       <c r="S15" s="109"/>
     </row>
-    <row r="16" spans="1:26" ht="14.25">
+    <row r="16" spans="1:26" ht="14">
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -25702,7 +25772,7 @@
       <c r="R16" s="109"/>
       <c r="S16" s="109"/>
     </row>
-    <row r="17" spans="6:19" ht="14.25">
+    <row r="17" spans="6:19" ht="14">
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -25714,7 +25784,7 @@
       <c r="R17" s="109"/>
       <c r="S17" s="109"/>
     </row>
-    <row r="18" spans="6:19" ht="14.25">
+    <row r="18" spans="6:19" ht="14">
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -25725,7 +25795,7 @@
       <c r="R18" s="109"/>
       <c r="S18" s="109"/>
     </row>
-    <row r="19" spans="6:19" ht="14.25">
+    <row r="19" spans="6:19" ht="14">
       <c r="F19" s="2"/>
       <c r="I19" s="115"/>
       <c r="J19" s="141"/>
@@ -25735,7 +25805,7 @@
       <c r="R19" s="109"/>
       <c r="S19" s="109"/>
     </row>
-    <row r="20" spans="6:19" ht="14.25">
+    <row r="20" spans="6:19" ht="14">
       <c r="F20" s="2"/>
       <c r="I20" s="107"/>
       <c r="J20" s="107"/>
@@ -25744,7 +25814,7 @@
       <c r="R20" s="109"/>
       <c r="S20" s="109"/>
     </row>
-    <row r="21" spans="6:19" ht="14.25">
+    <row r="21" spans="6:19" ht="14">
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -25755,7 +25825,7 @@
       <c r="R21" s="109"/>
       <c r="S21" s="109"/>
     </row>
-    <row r="22" spans="6:19" ht="14.25">
+    <row r="22" spans="6:19" ht="14">
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -25767,7 +25837,7 @@
       <c r="R22" s="109"/>
       <c r="S22" s="109"/>
     </row>
-    <row r="23" spans="6:19" ht="14.25">
+    <row r="23" spans="6:19" ht="14">
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -25779,7 +25849,7 @@
       <c r="R23" s="109"/>
       <c r="S23" s="109"/>
     </row>
-    <row r="24" spans="6:19" ht="14.25">
+    <row r="24" spans="6:19" ht="14">
       <c r="J24" s="33"/>
       <c r="L24" s="36"/>
       <c r="M24" s="46"/>
@@ -25787,7 +25857,7 @@
       <c r="R24" s="109"/>
       <c r="S24" s="109"/>
     </row>
-    <row r="25" spans="6:19" ht="14.25">
+    <row r="25" spans="6:19" ht="14">
       <c r="F25" s="2"/>
       <c r="I25" s="107"/>
       <c r="J25" s="107"/>
@@ -25798,7 +25868,7 @@
       <c r="R25" s="109"/>
       <c r="S25" s="109"/>
     </row>
-    <row r="26" spans="6:19" ht="14.25">
+    <row r="26" spans="6:19" ht="14">
       <c r="F26" s="2"/>
       <c r="J26" s="107"/>
       <c r="K26" s="107"/>
@@ -25808,7 +25878,7 @@
       <c r="R26" s="109"/>
       <c r="S26" s="109"/>
     </row>
-    <row r="27" spans="6:19" ht="14.25">
+    <row r="27" spans="6:19" ht="14">
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="I27" s="107"/>
@@ -25819,7 +25889,7 @@
       <c r="R27" s="109"/>
       <c r="S27" s="109"/>
     </row>
-    <row r="28" spans="6:19" ht="14.25">
+    <row r="28" spans="6:19" ht="14">
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="I28" s="107"/>
@@ -25830,7 +25900,7 @@
       <c r="R28" s="109"/>
       <c r="S28" s="109"/>
     </row>
-    <row r="29" spans="6:19" ht="14.25">
+    <row r="29" spans="6:19" ht="14">
       <c r="F29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="107"/>
@@ -25841,7 +25911,7 @@
       <c r="R29" s="109"/>
       <c r="S29" s="109"/>
     </row>
-    <row r="30" spans="6:19" ht="14.25">
+    <row r="30" spans="6:19" ht="14">
       <c r="G30" s="2"/>
       <c r="I30" s="188"/>
       <c r="J30" s="107"/>
@@ -25851,7 +25921,7 @@
       <c r="R30" s="109"/>
       <c r="S30" s="109"/>
     </row>
-    <row r="31" spans="6:19" ht="14.25">
+    <row r="31" spans="6:19" ht="14">
       <c r="J31" s="107"/>
       <c r="K31" s="107"/>
       <c r="L31" s="36"/>
@@ -25860,7 +25930,7 @@
       <c r="R31" s="109"/>
       <c r="S31" s="109"/>
     </row>
-    <row r="32" spans="6:19" ht="14.25">
+    <row r="32" spans="6:19" ht="14">
       <c r="G32" s="2"/>
       <c r="J32" s="107"/>
       <c r="K32" s="107"/>
@@ -25870,7 +25940,7 @@
       <c r="R32" s="109"/>
       <c r="S32" s="109"/>
     </row>
-    <row r="33" spans="1:19" ht="14.25">
+    <row r="33" spans="1:19" ht="14">
       <c r="H33" s="145"/>
       <c r="I33" s="107"/>
       <c r="J33" s="110"/>
@@ -25880,7 +25950,7 @@
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
     </row>
-    <row r="34" spans="1:19" ht="14.25">
+    <row r="34" spans="1:19" ht="14">
       <c r="I34" s="107"/>
       <c r="J34" s="107"/>
       <c r="L34" s="36"/>
@@ -25984,7 +26054,7 @@
       <c r="R45" s="109"/>
       <c r="S45" s="32"/>
     </row>
-    <row r="46" spans="1:19" ht="14.25">
+    <row r="46" spans="1:19" ht="14">
       <c r="A46" s="120"/>
       <c r="F46" s="111"/>
       <c r="I46" s="107"/>
@@ -26075,24 +26145,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.26953125" customWidth="1"/>
     <col min="4" max="5" width="18" customWidth="1"/>
-    <col min="6" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+    <col min="6" max="8" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="28.7265625" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="90.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="1011" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" customWidth="1"/>
+    <col min="13" max="13" width="90.26953125" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" customWidth="1"/>
+    <col min="15" max="1011" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18">
@@ -26171,7 +26241,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="51">
+    <row r="3" spans="1:17" ht="52">
       <c r="A3" s="28" t="s">
         <v>32</v>
       </c>

--- a/data/ccd-template.xlsx
+++ b/data/ccd-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judgem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jack\et-ccd-definitions-scotland\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B499BD3-0052-4D1E-8EC1-CFE719D37292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7823E5-6906-4F5C-88DC-64D3D65975D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-945" yWindow="-17805" windowWidth="28800" windowHeight="15315" tabRatio="500" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="36660" windowHeight="19395" tabRatio="500" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchParty" sheetId="36" r:id="rId1"/>
@@ -23,39 +23,38 @@
     <sheet name="CaseEvent" sheetId="6" r:id="rId8"/>
     <sheet name="CaseEventToFields" sheetId="7" r:id="rId9"/>
     <sheet name="CaseField" sheetId="8" r:id="rId10"/>
-    <sheet name="Categories" sheetId="38" r:id="rId11"/>
-    <sheet name="ChallengeQuestion" sheetId="31" r:id="rId12"/>
-    <sheet name="ComplexTypes" sheetId="9" r:id="rId13"/>
-    <sheet name="EventToComplexTypes" sheetId="32" r:id="rId14"/>
-    <sheet name="RoleToAccessProfiles" sheetId="37" r:id="rId15"/>
-    <sheet name="Scotland Scrubbed" sheetId="26" r:id="rId16"/>
-    <sheet name="SearchInputFields" sheetId="12" r:id="rId17"/>
-    <sheet name="WorkBasketInputFields" sheetId="14" r:id="rId18"/>
-    <sheet name="SearchResultFields" sheetId="13" r:id="rId19"/>
-    <sheet name="WorkBasketResultFields" sheetId="15" r:id="rId20"/>
-    <sheet name="SearchCaseResultFields" sheetId="22" r:id="rId21"/>
-    <sheet name="UserProfile" sheetId="16" r:id="rId22"/>
-    <sheet name="AuthorisationComplexType" sheetId="17" r:id="rId23"/>
-    <sheet name="AuthorisationCaseType" sheetId="18" r:id="rId24"/>
-    <sheet name="AuthorisationCaseField" sheetId="19" r:id="rId25"/>
-    <sheet name="AuthorisationCaseEvent" sheetId="20" r:id="rId26"/>
-    <sheet name="AuthorisationCaseState" sheetId="21" r:id="rId27"/>
+    <sheet name="ChallengeQuestion" sheetId="31" r:id="rId11"/>
+    <sheet name="ComplexTypes" sheetId="9" r:id="rId12"/>
+    <sheet name="EventToComplexTypes" sheetId="32" r:id="rId13"/>
+    <sheet name="RoleToAccessProfiles" sheetId="37" r:id="rId14"/>
+    <sheet name="Scotland Scrubbed" sheetId="26" r:id="rId15"/>
+    <sheet name="SearchInputFields" sheetId="12" r:id="rId16"/>
+    <sheet name="WorkBasketInputFields" sheetId="14" r:id="rId17"/>
+    <sheet name="SearchResultFields" sheetId="13" r:id="rId18"/>
+    <sheet name="WorkBasketResultFields" sheetId="15" r:id="rId19"/>
+    <sheet name="SearchCaseResultFields" sheetId="22" r:id="rId20"/>
+    <sheet name="UserProfile" sheetId="16" r:id="rId21"/>
+    <sheet name="AuthorisationComplexType" sheetId="17" r:id="rId22"/>
+    <sheet name="AuthorisationCaseType" sheetId="18" r:id="rId23"/>
+    <sheet name="AuthorisationCaseField" sheetId="19" r:id="rId24"/>
+    <sheet name="AuthorisationCaseEvent" sheetId="20" r:id="rId25"/>
+    <sheet name="AuthorisationCaseState" sheetId="21" r:id="rId26"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">AuthorisationCaseEvent!$A$3:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">AuthorisationCaseField!$A$1:$D$517</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="26" hidden="1">AuthorisationCaseState!$A$3:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">AuthorisationCaseEvent!$A$3:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">AuthorisationCaseField!$A$1:$D$517</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">AuthorisationCaseState!$A$3:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">CaseEvent!$A$3:$Z$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">CaseEventToFields!$A$3:$Q$231</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">CaseField!$A$3:$U$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CaseRoles!$A$3:$F$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">CaseTypeTab!$A$3:$P$54</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">ComplexTypes!$A$3:$W$559</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">EventToComplexTypes!$A$3:$I$382</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Scotland Scrubbed'!$A$3:$F$646</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">ComplexTypes!$A$3:$W$559</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">EventToComplexTypes!$A$3:$I$382</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Scotland Scrubbed'!$A$3:$F$646</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">State!$A$3:$Q$11</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -73,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="377">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1286,35 +1285,6 @@
   </si>
   <si>
     <t>AccessProfiles</t>
-  </si>
-  <si>
-    <t>ID that identifies the document category
-MaxLength: 70</t>
-  </si>
-  <si>
-    <t>CategoryID</t>
-  </si>
-  <si>
-    <t>Categories</t>
-  </si>
-  <si>
-    <t>Unique ID that identifies the category
-MaxLength: 70</t>
-  </si>
-  <si>
-    <t>Label that gets displayed in the UI. MaxLength: 70</t>
-  </si>
-  <si>
-    <t>Specifies the display order for the category.</t>
-  </si>
-  <si>
-    <t>Identifies the parent category id for a sub-category.</t>
-  </si>
-  <si>
-    <t>CategoryLabel</t>
-  </si>
-  <si>
-    <t>ParentCategoryID</t>
   </si>
 </sst>
 </file>
@@ -2065,7 +2035,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2654,9 +2624,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -3159,14 +3126,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="10.7265625" style="291" customWidth="1"/>
-    <col min="3" max="1025" width="11.1796875" style="287" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="287"/>
+    <col min="1" max="2" width="10.7109375" style="291" customWidth="1"/>
+    <col min="3" max="1025" width="11.140625" style="287" customWidth="1"/>
+    <col min="1026" max="16384" width="8.85546875" style="287"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.5">
+    <row r="1" spans="1:10" ht="18">
       <c r="A1" s="283" t="s">
         <v>352</v>
       </c>
@@ -3254,26 +3221,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U206"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="33.7265625" customWidth="1"/>
-    <col min="4" max="4" width="51.26953125" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="28.26953125" customWidth="1"/>
-    <col min="7" max="7" width="19.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7265625" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="26.7265625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="33.36328125" customWidth="1"/>
-    <col min="12" max="17" width="8.453125" customWidth="1"/>
-    <col min="18" max="21" width="6.26953125" customWidth="1"/>
-    <col min="22" max="1023" width="8.26953125" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="1" customWidth="1"/>
+    <col min="12" max="17" width="8.42578125" customWidth="1"/>
+    <col min="18" max="21" width="6.28515625" customWidth="1"/>
+    <col min="22" max="1023" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18">
@@ -3295,6 +3262,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
       <c r="N1" s="36"/>
@@ -3336,9 +3304,7 @@
       <c r="J2" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="23" t="s">
-        <v>377</v>
-      </c>
+      <c r="K2" s="23"/>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
       <c r="N2" s="23"/>
@@ -3379,9 +3345,6 @@
       </c>
       <c r="J3" s="27" t="s">
         <v>111</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>378</v>
       </c>
       <c r="L3" s="51"/>
       <c r="M3" s="51"/>
@@ -3533,7 +3496,7 @@
       <c r="E23" s="108"/>
       <c r="F23" s="108"/>
     </row>
-    <row r="24" spans="2:9" ht="13">
+    <row r="24" spans="2:9">
       <c r="B24" s="108"/>
       <c r="C24" s="108"/>
       <c r="D24" s="108"/>
@@ -3541,7 +3504,7 @@
       <c r="F24" s="108"/>
       <c r="G24" s="52"/>
     </row>
-    <row r="25" spans="2:9" ht="13">
+    <row r="25" spans="2:9">
       <c r="B25" s="108"/>
       <c r="C25" s="108"/>
       <c r="D25" s="108"/>
@@ -3549,7 +3512,7 @@
       <c r="F25" s="108"/>
       <c r="G25" s="52"/>
     </row>
-    <row r="26" spans="2:9" ht="13">
+    <row r="26" spans="2:9">
       <c r="B26" s="108"/>
       <c r="C26" s="108"/>
       <c r="D26" s="108"/>
@@ -3557,7 +3520,7 @@
       <c r="F26" s="108"/>
       <c r="G26" s="52"/>
     </row>
-    <row r="27" spans="2:9" ht="13">
+    <row r="27" spans="2:9">
       <c r="B27" s="108"/>
       <c r="C27" s="108"/>
       <c r="D27" s="108"/>
@@ -3799,43 +3762,47 @@
       <c r="C64" s="36"/>
       <c r="E64" s="36"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:11">
       <c r="C65" s="36"/>
       <c r="E65" s="36"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:11">
       <c r="C66" s="36"/>
       <c r="E66" s="36"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:11">
       <c r="C67" s="36"/>
       <c r="E67" s="36"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:11">
       <c r="C68" s="36"/>
       <c r="E68" s="36"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:11">
       <c r="C69" s="36"/>
       <c r="E69" s="36"/>
       <c r="J69"/>
-    </row>
-    <row r="70" spans="2:10">
+      <c r="K69"/>
+    </row>
+    <row r="70" spans="2:11">
       <c r="C70" s="36"/>
       <c r="E70" s="36"/>
       <c r="J70"/>
-    </row>
-    <row r="71" spans="2:10">
+      <c r="K70"/>
+    </row>
+    <row r="71" spans="2:11">
       <c r="C71" s="36"/>
       <c r="E71" s="36"/>
       <c r="J71"/>
-    </row>
-    <row r="72" spans="2:10">
+      <c r="K71"/>
+    </row>
+    <row r="72" spans="2:11">
       <c r="C72" s="36"/>
       <c r="E72" s="36"/>
       <c r="J72"/>
-    </row>
-    <row r="73" spans="2:10">
+      <c r="K72"/>
+    </row>
+    <row r="73" spans="2:11">
       <c r="B73" s="108"/>
       <c r="C73" s="108"/>
       <c r="D73" s="108"/>
@@ -3843,166 +3810,177 @@
       <c r="F73" s="108"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:11">
       <c r="B74" s="108"/>
       <c r="C74" s="108"/>
       <c r="D74" s="108"/>
       <c r="E74" s="108"/>
       <c r="F74" s="108"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:11">
       <c r="B75" s="108"/>
       <c r="C75" s="108"/>
       <c r="D75" s="108"/>
       <c r="E75" s="108"/>
       <c r="F75" s="108"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:11">
       <c r="B76" s="108"/>
       <c r="C76" s="108"/>
       <c r="D76" s="108"/>
       <c r="E76" s="108"/>
       <c r="F76" s="108"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:11">
       <c r="B77" s="108"/>
       <c r="C77" s="108"/>
       <c r="D77" s="108"/>
       <c r="E77" s="108"/>
       <c r="F77" s="108"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:11">
       <c r="B78" s="108"/>
       <c r="C78" s="108"/>
       <c r="D78" s="108"/>
       <c r="E78" s="108"/>
       <c r="F78" s="108"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:11">
       <c r="B79" s="108"/>
       <c r="C79" s="108"/>
       <c r="D79" s="108"/>
       <c r="E79" s="108"/>
       <c r="F79" s="108"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:11">
       <c r="B80" s="108"/>
       <c r="C80" s="108"/>
       <c r="D80" s="108"/>
       <c r="E80" s="108"/>
       <c r="F80" s="108"/>
     </row>
-    <row r="81" spans="2:8">
+    <row r="81" spans="2:11">
       <c r="B81" s="108"/>
       <c r="C81" s="108"/>
       <c r="D81" s="108"/>
       <c r="E81" s="108"/>
       <c r="F81" s="108"/>
     </row>
-    <row r="82" spans="2:8">
+    <row r="82" spans="2:11">
       <c r="B82" s="108"/>
       <c r="C82" s="108"/>
       <c r="D82" s="108"/>
       <c r="E82" s="108"/>
       <c r="F82" s="108"/>
     </row>
-    <row r="83" spans="2:8">
+    <row r="83" spans="2:11">
       <c r="B83" s="108"/>
       <c r="C83" s="108"/>
       <c r="D83" s="108"/>
       <c r="E83" s="108"/>
       <c r="F83" s="108"/>
     </row>
-    <row r="84" spans="2:8">
+    <row r="84" spans="2:11">
       <c r="B84" s="108"/>
       <c r="C84" s="108"/>
       <c r="D84" s="108"/>
       <c r="E84" s="108"/>
       <c r="F84" s="108"/>
     </row>
-    <row r="85" spans="2:8">
+    <row r="85" spans="2:11">
       <c r="B85" s="108"/>
       <c r="C85" s="108"/>
       <c r="E85" s="108"/>
       <c r="G85"/>
       <c r="H85" s="108"/>
     </row>
-    <row r="86" spans="2:8">
+    <row r="86" spans="2:11">
       <c r="B86" s="108"/>
       <c r="C86" s="142"/>
       <c r="E86" s="108"/>
       <c r="G86"/>
       <c r="H86" s="108"/>
-    </row>
-    <row r="87" spans="2:8">
+      <c r="K86"/>
+    </row>
+    <row r="87" spans="2:11">
       <c r="B87" s="108"/>
       <c r="C87" s="142"/>
       <c r="E87" s="108"/>
       <c r="G87"/>
       <c r="H87" s="108"/>
-    </row>
-    <row r="88" spans="2:8">
+      <c r="K87"/>
+    </row>
+    <row r="88" spans="2:11">
       <c r="B88" s="108"/>
       <c r="C88" s="142"/>
       <c r="E88" s="108"/>
       <c r="G88"/>
       <c r="H88" s="108"/>
-    </row>
-    <row r="89" spans="2:8">
+      <c r="K88"/>
+    </row>
+    <row r="89" spans="2:11">
       <c r="B89" s="108"/>
       <c r="C89" s="142"/>
       <c r="E89" s="108"/>
       <c r="G89"/>
       <c r="H89" s="108"/>
-    </row>
-    <row r="90" spans="2:8">
+      <c r="K89"/>
+    </row>
+    <row r="90" spans="2:11">
       <c r="B90" s="108"/>
       <c r="C90" s="142"/>
       <c r="E90" s="108"/>
       <c r="G90"/>
       <c r="H90" s="108"/>
-    </row>
-    <row r="91" spans="2:8">
+      <c r="K90"/>
+    </row>
+    <row r="91" spans="2:11">
       <c r="B91" s="108"/>
       <c r="C91" s="142"/>
       <c r="E91" s="108"/>
       <c r="G91"/>
       <c r="H91" s="108"/>
-    </row>
-    <row r="92" spans="2:8">
+      <c r="K91"/>
+    </row>
+    <row r="92" spans="2:11">
       <c r="B92" s="108"/>
       <c r="C92" s="142"/>
       <c r="E92" s="108"/>
       <c r="G92"/>
       <c r="H92" s="108"/>
-    </row>
-    <row r="93" spans="2:8">
+      <c r="K92"/>
+    </row>
+    <row r="93" spans="2:11">
       <c r="B93" s="108"/>
       <c r="C93" s="142"/>
       <c r="E93" s="108"/>
       <c r="G93"/>
       <c r="H93" s="108"/>
-    </row>
-    <row r="94" spans="2:8">
+      <c r="K93"/>
+    </row>
+    <row r="94" spans="2:11">
       <c r="B94" s="108"/>
       <c r="C94" s="142"/>
       <c r="E94" s="108"/>
       <c r="G94"/>
       <c r="H94" s="108"/>
-    </row>
-    <row r="95" spans="2:8">
+      <c r="K94"/>
+    </row>
+    <row r="95" spans="2:11">
       <c r="B95" s="108"/>
       <c r="C95" s="142"/>
       <c r="E95" s="108"/>
       <c r="G95"/>
       <c r="H95" s="108"/>
-    </row>
-    <row r="96" spans="2:8">
+      <c r="K95"/>
+    </row>
+    <row r="96" spans="2:11">
       <c r="B96" s="108"/>
       <c r="C96" s="142"/>
       <c r="E96" s="108"/>
       <c r="G96"/>
       <c r="H96" s="108"/>
+      <c r="K96"/>
     </row>
     <row r="97" spans="2:11">
       <c r="B97" s="108"/>
@@ -4010,6 +3988,7 @@
       <c r="F97" s="227"/>
       <c r="G97"/>
       <c r="H97" s="108"/>
+      <c r="K97"/>
     </row>
     <row r="98" spans="2:11">
       <c r="B98" s="108"/>
@@ -4017,6 +3996,7 @@
       <c r="E98" s="108"/>
       <c r="G98"/>
       <c r="H98" s="108"/>
+      <c r="K98"/>
     </row>
     <row r="99" spans="2:11">
       <c r="B99" s="108"/>
@@ -4024,6 +4004,7 @@
       <c r="E99" s="108"/>
       <c r="G99"/>
       <c r="H99" s="108"/>
+      <c r="K99"/>
     </row>
     <row r="100" spans="2:11">
       <c r="B100" s="108"/>
@@ -4031,59 +4012,72 @@
       <c r="E100" s="108"/>
       <c r="G100"/>
       <c r="H100" s="108"/>
+      <c r="K100"/>
     </row>
     <row r="101" spans="2:11">
       <c r="G101"/>
       <c r="H101" s="108"/>
+      <c r="K101"/>
     </row>
     <row r="102" spans="2:11">
       <c r="G102"/>
       <c r="H102" s="108"/>
+      <c r="K102"/>
     </row>
     <row r="103" spans="2:11">
       <c r="G103"/>
       <c r="H103" s="108"/>
+      <c r="K103"/>
     </row>
     <row r="104" spans="2:11">
       <c r="G104"/>
       <c r="H104" s="108"/>
+      <c r="K104"/>
     </row>
     <row r="105" spans="2:11">
       <c r="G105"/>
       <c r="H105" s="108"/>
+      <c r="K105"/>
     </row>
     <row r="106" spans="2:11">
       <c r="G106"/>
       <c r="H106" s="108"/>
+      <c r="K106"/>
     </row>
     <row r="107" spans="2:11">
       <c r="G107"/>
       <c r="H107" s="108"/>
+      <c r="K107"/>
     </row>
     <row r="108" spans="2:11">
       <c r="G108"/>
       <c r="H108" s="108"/>
-      <c r="K108" s="142"/>
+      <c r="K108"/>
     </row>
     <row r="109" spans="2:11">
       <c r="G109"/>
       <c r="H109" s="108"/>
+      <c r="K109"/>
     </row>
     <row r="110" spans="2:11">
       <c r="G110"/>
       <c r="H110" s="108"/>
+      <c r="K110"/>
     </row>
     <row r="111" spans="2:11">
       <c r="G111"/>
       <c r="H111" s="108"/>
+      <c r="K111"/>
     </row>
     <row r="112" spans="2:11">
       <c r="G112"/>
       <c r="H112" s="108"/>
+      <c r="K112"/>
     </row>
     <row r="113" spans="1:11">
       <c r="G113"/>
       <c r="H113" s="108"/>
+      <c r="K113"/>
     </row>
     <row r="114" spans="1:11" s="142" customFormat="1">
       <c r="A114"/>
@@ -4093,7 +4087,6 @@
       <c r="E114" s="56"/>
       <c r="H114" s="108"/>
       <c r="J114" s="228"/>
-      <c r="K114"/>
     </row>
     <row r="121" spans="1:11">
       <c r="B121" s="108"/>
@@ -4413,38 +4406,39 @@
       <c r="G192"/>
       <c r="H192" s="108"/>
     </row>
-    <row r="193" spans="2:10">
+    <row r="193" spans="2:11">
       <c r="E193" s="36"/>
     </row>
-    <row r="194" spans="2:10">
+    <row r="194" spans="2:11">
       <c r="E194" s="36"/>
     </row>
-    <row r="201" spans="2:10">
+    <row r="201" spans="2:11">
       <c r="B201" s="36"/>
       <c r="E201" s="36"/>
       <c r="F201" s="36"/>
     </row>
-    <row r="202" spans="2:10">
+    <row r="202" spans="2:11">
       <c r="E202" s="36"/>
     </row>
-    <row r="203" spans="2:10">
+    <row r="203" spans="2:11">
       <c r="E203" s="36"/>
       <c r="G203"/>
       <c r="H203" s="36"/>
     </row>
-    <row r="204" spans="2:10">
+    <row r="204" spans="2:11">
       <c r="C204" s="36"/>
       <c r="E204" s="36"/>
       <c r="G204"/>
       <c r="H204" s="36"/>
     </row>
-    <row r="205" spans="2:10">
+    <row r="205" spans="2:11">
       <c r="E205" s="36"/>
     </row>
-    <row r="206" spans="2:10">
+    <row r="206" spans="2:11">
       <c r="E206" s="36"/>
       <c r="G206"/>
       <c r="J206"/>
+      <c r="K206"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B155:B157">
@@ -4462,65 +4456,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B092AC-BC68-4857-A94A-DB7213593582}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="12.5"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18">
-      <c r="A1" s="35" t="s">
-        <v>379</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="2" spans="1:5" ht="65">
-      <c r="A2" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="13">
-      <c r="A3" s="303" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="C3" s="303" t="s">
-        <v>384</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>385</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAC88CF-7FC5-4E4E-AF14-7FBB6C052EF8}">
   <dimension ref="A1:AMK8"/>
   <sheetViews>
@@ -4528,20 +4463,20 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="36.7265625" style="246" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="246"/>
-    <col min="3" max="3" width="54.7265625" style="246" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="246" customWidth="1"/>
-    <col min="5" max="6" width="12.7265625" style="246" customWidth="1"/>
-    <col min="7" max="7" width="44.26953125" style="246" customWidth="1"/>
-    <col min="8" max="8" width="17.7265625" style="246" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" style="246" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="246"/>
+    <col min="3" max="3" width="54.7109375" style="246" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="246" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="246" customWidth="1"/>
+    <col min="7" max="7" width="44.28515625" style="246" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="246" customWidth="1"/>
     <col min="9" max="9" width="37" style="246" customWidth="1"/>
-    <col min="10" max="10" width="43.7265625" style="246" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" style="246" customWidth="1"/>
-    <col min="12" max="1025" width="10.81640625" style="246"/>
-    <col min="1026" max="16384" width="10.81640625" style="245"/>
+    <col min="10" max="10" width="43.7109375" style="246" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="246" customWidth="1"/>
+    <col min="12" max="1025" width="10.85546875" style="246"/>
+    <col min="1026" max="16384" width="10.85546875" style="245"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18">
@@ -4567,7 +4502,7 @@
       <c r="L1" s="247"/>
       <c r="M1" s="247"/>
     </row>
-    <row r="2" spans="1:13" ht="52">
+    <row r="2" spans="1:13" ht="63.75">
       <c r="A2" s="258" t="s">
         <v>4</v>
       </c>
@@ -4602,7 +4537,7 @@
       <c r="L2" s="254"/>
       <c r="M2" s="254"/>
     </row>
-    <row r="3" spans="1:13" ht="15.5">
+    <row r="3" spans="1:13" ht="15.75">
       <c r="A3" s="253" t="s">
         <v>9</v>
       </c>
@@ -4654,7 +4589,7 @@
       <c r="L4" s="247"/>
       <c r="M4" s="247"/>
     </row>
-    <row r="5" spans="1:13" ht="13">
+    <row r="5" spans="1:13">
       <c r="A5" s="248"/>
       <c r="B5" s="248"/>
       <c r="C5" s="249"/>
@@ -4669,7 +4604,7 @@
       <c r="L5" s="247"/>
       <c r="M5" s="247"/>
     </row>
-    <row r="6" spans="1:13" ht="13">
+    <row r="6" spans="1:13">
       <c r="A6" s="248"/>
       <c r="B6" s="248"/>
       <c r="D6" s="247"/>
@@ -4683,7 +4618,7 @@
       <c r="L6" s="247"/>
       <c r="M6" s="247"/>
     </row>
-    <row r="7" spans="1:13" ht="13">
+    <row r="7" spans="1:13">
       <c r="A7" s="248"/>
       <c r="B7" s="248"/>
       <c r="D7" s="247"/>
@@ -4719,34 +4654,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W649"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD559"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" style="52" customWidth="1"/>
-    <col min="6" max="6" width="21.7265625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="41" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" style="53" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" style="53" customWidth="1"/>
-    <col min="11" max="11" width="11.26953125" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" customWidth="1"/>
-    <col min="13" max="13" width="17.7265625" customWidth="1"/>
-    <col min="14" max="14" width="33.6328125" customWidth="1"/>
-    <col min="15" max="15" width="28.26953125" customWidth="1"/>
-    <col min="16" max="23" width="6.26953125" customWidth="1"/>
-    <col min="24" max="1023" width="8.26953125" customWidth="1"/>
-    <col min="1024" max="1025" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="53" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="28.28515625" customWidth="1"/>
+    <col min="16" max="23" width="6.28515625" customWidth="1"/>
+    <col min="24" max="1023" width="8.28515625" customWidth="1"/>
+    <col min="1024" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" customHeight="1">
@@ -4770,11 +4705,12 @@
       <c r="J1" s="34"/>
       <c r="K1" s="36"/>
       <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
       <c r="O1" s="36"/>
       <c r="P1" s="36"/>
       <c r="Q1" s="36"/>
     </row>
-    <row r="2" spans="1:23" ht="65.150000000000006" customHeight="1">
+    <row r="2" spans="1:23" ht="65.099999999999994" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>113</v>
       </c>
@@ -4810,14 +4746,12 @@
       <c r="M2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="N2" s="23" t="s">
-        <v>377</v>
-      </c>
+      <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" ht="33.65" customHeight="1">
+    <row r="3" spans="1:23" s="2" customFormat="1" ht="33.6" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>11</v>
       </c>
@@ -4856,9 +4790,6 @@
       </c>
       <c r="M3" s="27" t="s">
         <v>106</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>378</v>
       </c>
       <c r="O3" s="51"/>
       <c r="P3" s="51"/>
@@ -4870,35 +4801,35 @@
       <c r="V3" s="51"/>
       <c r="W3" s="51"/>
     </row>
-    <row r="4" spans="1:23" ht="12.5">
+    <row r="4" spans="1:23">
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="I4"/>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:23" ht="12.5">
+    <row r="5" spans="1:23">
       <c r="E5"/>
       <c r="F5" s="108"/>
       <c r="G5"/>
       <c r="I5"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:23" ht="12.5">
+    <row r="6" spans="1:23">
       <c r="E6"/>
       <c r="F6" s="108"/>
       <c r="G6"/>
       <c r="I6"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:23" ht="12.5">
+    <row r="7" spans="1:23">
       <c r="E7"/>
       <c r="F7" s="108"/>
       <c r="G7"/>
       <c r="I7"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:23" ht="12.5">
+    <row r="8" spans="1:23">
       <c r="E8"/>
       <c r="F8" s="108"/>
       <c r="G8"/>
@@ -4917,7 +4848,7 @@
       <c r="I9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:23" ht="12.5">
+    <row r="10" spans="1:23">
       <c r="A10" s="108"/>
       <c r="E10"/>
       <c r="F10" s="108"/>
@@ -4925,14 +4856,14 @@
       <c r="I10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:23" ht="12.5">
+    <row r="11" spans="1:23">
       <c r="E11"/>
       <c r="F11" s="108"/>
       <c r="G11"/>
       <c r="I11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:23" ht="12.5">
+    <row r="12" spans="1:23">
       <c r="A12" s="108"/>
       <c r="E12"/>
       <c r="F12" s="108"/>
@@ -4940,7 +4871,7 @@
       <c r="I12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:23" ht="12.5">
+    <row r="13" spans="1:23">
       <c r="A13" s="108"/>
       <c r="E13"/>
       <c r="F13" s="108"/>
@@ -4960,7 +4891,7 @@
       <c r="I14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:23" ht="12.5">
+    <row r="15" spans="1:23">
       <c r="A15" s="108"/>
       <c r="E15"/>
       <c r="F15" s="108"/>
@@ -4968,7 +4899,7 @@
       <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:23" ht="12.5">
+    <row r="16" spans="1:23">
       <c r="A16" s="108"/>
       <c r="E16"/>
       <c r="F16" s="108"/>
@@ -4976,7 +4907,7 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" ht="12.5">
+    <row r="17" spans="1:10">
       <c r="A17" s="108"/>
       <c r="E17"/>
       <c r="F17" s="108"/>
@@ -4984,7 +4915,7 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" ht="12.5">
+    <row r="18" spans="1:10">
       <c r="A18" s="108"/>
       <c r="E18"/>
       <c r="F18" s="108"/>
@@ -4992,7 +4923,7 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" ht="12.5">
+    <row r="19" spans="1:10">
       <c r="A19" s="108"/>
       <c r="E19"/>
       <c r="F19" s="108"/>
@@ -5000,7 +4931,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" ht="12.5">
+    <row r="20" spans="1:10">
       <c r="A20" s="108"/>
       <c r="E20"/>
       <c r="F20" s="108"/>
@@ -5008,7 +4939,7 @@
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" ht="12.5">
+    <row r="21" spans="1:10">
       <c r="A21" s="108"/>
       <c r="E21"/>
       <c r="F21" s="108"/>
@@ -5028,7 +4959,7 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" ht="12.5">
+    <row r="23" spans="1:10">
       <c r="A23" s="108"/>
       <c r="E23"/>
       <c r="F23" s="108"/>
@@ -5048,7 +4979,7 @@
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" ht="12.5">
+    <row r="25" spans="1:10">
       <c r="A25" s="108"/>
       <c r="E25"/>
       <c r="F25" s="108"/>
@@ -5068,7 +4999,7 @@
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" ht="12.5">
+    <row r="27" spans="1:10">
       <c r="A27" s="108"/>
       <c r="E27"/>
       <c r="F27" s="108"/>
@@ -5076,7 +5007,7 @@
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" ht="12.5">
+    <row r="28" spans="1:10">
       <c r="A28" s="108"/>
       <c r="E28"/>
       <c r="F28" s="108"/>
@@ -5084,7 +5015,7 @@
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" ht="12.5">
+    <row r="29" spans="1:10">
       <c r="A29" s="108"/>
       <c r="E29"/>
       <c r="F29" s="108"/>
@@ -5092,42 +5023,42 @@
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" ht="12.5">
+    <row r="30" spans="1:10">
       <c r="E30"/>
       <c r="F30" s="108"/>
       <c r="G30" s="36"/>
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" ht="12.5">
+    <row r="31" spans="1:10">
       <c r="E31"/>
       <c r="F31" s="108"/>
       <c r="G31" s="36"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" ht="12.5">
+    <row r="32" spans="1:10">
       <c r="E32"/>
       <c r="F32" s="108"/>
       <c r="G32" s="36"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" ht="12.5">
+    <row r="33" spans="1:10">
       <c r="E33"/>
       <c r="F33" s="108"/>
       <c r="G33" s="36"/>
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" ht="12.5">
+    <row r="34" spans="1:10">
       <c r="E34"/>
       <c r="F34" s="108"/>
       <c r="G34" s="36"/>
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" ht="12.5">
+    <row r="35" spans="1:10">
       <c r="E35"/>
       <c r="F35" s="108"/>
       <c r="G35" s="36"/>
@@ -5146,7 +5077,7 @@
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" ht="12.5">
+    <row r="37" spans="1:10">
       <c r="A37" s="108"/>
       <c r="E37"/>
       <c r="F37" s="108"/>
@@ -5154,14 +5085,14 @@
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" ht="12.5">
+    <row r="38" spans="1:10">
       <c r="E38"/>
       <c r="F38" s="108"/>
       <c r="G38" s="36"/>
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" ht="12.5">
+    <row r="39" spans="1:10">
       <c r="D39" s="36"/>
       <c r="E39"/>
       <c r="F39" s="108"/>
@@ -5169,77 +5100,77 @@
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" ht="12.5">
+    <row r="40" spans="1:10">
       <c r="E40"/>
       <c r="F40" s="108"/>
       <c r="G40" s="36"/>
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" ht="12.5">
+    <row r="41" spans="1:10">
       <c r="E41"/>
       <c r="F41" s="108"/>
       <c r="G41" s="36"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" ht="12.5">
+    <row r="42" spans="1:10">
       <c r="E42"/>
       <c r="F42" s="108"/>
       <c r="G42" s="36"/>
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" ht="12.5">
+    <row r="43" spans="1:10">
       <c r="E43"/>
       <c r="F43" s="108"/>
       <c r="G43" s="36"/>
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" ht="12.5">
+    <row r="44" spans="1:10">
       <c r="E44"/>
       <c r="F44" s="108"/>
       <c r="G44" s="36"/>
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" ht="12.5">
+    <row r="45" spans="1:10">
       <c r="E45"/>
       <c r="F45" s="108"/>
       <c r="G45" s="36"/>
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" ht="12.5">
+    <row r="46" spans="1:10">
       <c r="E46"/>
       <c r="F46" s="108"/>
       <c r="G46" s="36"/>
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" ht="12.5">
+    <row r="47" spans="1:10">
       <c r="E47"/>
       <c r="F47" s="108"/>
       <c r="G47" s="36"/>
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:10" ht="12.5">
+    <row r="48" spans="1:10">
       <c r="E48"/>
       <c r="F48" s="108"/>
       <c r="G48" s="36"/>
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="5:10" ht="12.5">
+    <row r="49" spans="5:10">
       <c r="E49"/>
       <c r="F49" s="108"/>
       <c r="G49" s="36"/>
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="5:10" ht="12.5">
+    <row r="50" spans="5:10">
       <c r="E50"/>
       <c r="F50" s="108"/>
       <c r="G50" s="36"/>
@@ -5260,112 +5191,112 @@
       <c r="G53" s="36"/>
       <c r="H53" s="55"/>
     </row>
-    <row r="54" spans="5:10" ht="12.5">
+    <row r="54" spans="5:10">
       <c r="E54"/>
       <c r="F54" s="108"/>
       <c r="G54" s="36"/>
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="5:10" ht="12.5">
+    <row r="55" spans="5:10">
       <c r="E55"/>
       <c r="F55" s="108"/>
       <c r="G55" s="36"/>
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="5:10" ht="12.5">
+    <row r="56" spans="5:10">
       <c r="E56"/>
       <c r="F56" s="108"/>
       <c r="G56" s="36"/>
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="5:10" ht="12.5">
+    <row r="57" spans="5:10">
       <c r="E57"/>
       <c r="F57" s="108"/>
       <c r="G57" s="36"/>
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="5:10" ht="12.5">
+    <row r="58" spans="5:10">
       <c r="E58"/>
       <c r="F58" s="108"/>
       <c r="G58" s="36"/>
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="5:10" ht="12.5">
+    <row r="59" spans="5:10">
       <c r="E59"/>
       <c r="F59" s="108"/>
       <c r="G59" s="36"/>
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="5:10" ht="12.5">
+    <row r="60" spans="5:10">
       <c r="E60"/>
       <c r="F60" s="108"/>
       <c r="G60" s="36"/>
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="5:10" ht="12.5">
+    <row r="61" spans="5:10">
       <c r="E61"/>
       <c r="F61" s="108"/>
       <c r="G61" s="36"/>
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="5:10" ht="12.5">
+    <row r="62" spans="5:10">
       <c r="E62"/>
       <c r="F62" s="108"/>
       <c r="G62" s="36"/>
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="5:10" ht="12.5">
+    <row r="63" spans="5:10">
       <c r="E63"/>
       <c r="F63" s="108"/>
       <c r="G63" s="36"/>
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="5:10" ht="12.5">
+    <row r="64" spans="5:10">
       <c r="E64"/>
       <c r="F64" s="108"/>
       <c r="G64" s="36"/>
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="1:10" ht="12.5">
+    <row r="65" spans="1:10">
       <c r="E65"/>
       <c r="F65" s="108"/>
       <c r="G65" s="36"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="1:10" ht="12.5">
+    <row r="66" spans="1:10">
       <c r="E66"/>
       <c r="F66" s="108"/>
       <c r="G66" s="36"/>
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="1:10" ht="12.5">
+    <row r="67" spans="1:10">
       <c r="E67"/>
       <c r="F67" s="108"/>
       <c r="G67" s="36"/>
       <c r="I67"/>
       <c r="J67"/>
     </row>
-    <row r="68" spans="1:10" ht="12.5">
+    <row r="68" spans="1:10">
       <c r="E68"/>
       <c r="F68" s="108"/>
       <c r="G68" s="36"/>
       <c r="I68"/>
       <c r="J68"/>
     </row>
-    <row r="69" spans="1:10" ht="12.5">
+    <row r="69" spans="1:10">
       <c r="A69" s="56"/>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
@@ -5376,77 +5307,77 @@
       <c r="I69"/>
       <c r="J69"/>
     </row>
-    <row r="70" spans="1:10" ht="12.5">
+    <row r="70" spans="1:10">
       <c r="E70" s="108"/>
       <c r="F70" s="108"/>
       <c r="G70" s="36"/>
       <c r="I70"/>
       <c r="J70"/>
     </row>
-    <row r="71" spans="1:10" ht="12.5">
+    <row r="71" spans="1:10">
       <c r="E71"/>
       <c r="F71" s="108"/>
       <c r="G71" s="36"/>
       <c r="I71"/>
       <c r="J71"/>
     </row>
-    <row r="72" spans="1:10" ht="12.5">
+    <row r="72" spans="1:10">
       <c r="E72"/>
       <c r="F72" s="108"/>
       <c r="G72" s="36"/>
       <c r="I72"/>
       <c r="J72"/>
     </row>
-    <row r="73" spans="1:10" ht="12.5">
+    <row r="73" spans="1:10">
       <c r="E73"/>
       <c r="F73" s="108"/>
       <c r="G73" s="36"/>
       <c r="I73"/>
       <c r="J73"/>
     </row>
-    <row r="74" spans="1:10" ht="12.5">
+    <row r="74" spans="1:10">
       <c r="E74"/>
       <c r="F74" s="108"/>
       <c r="G74" s="36"/>
       <c r="I74"/>
       <c r="J74"/>
     </row>
-    <row r="75" spans="1:10" ht="12.5">
+    <row r="75" spans="1:10">
       <c r="E75"/>
       <c r="F75" s="108"/>
       <c r="G75" s="36"/>
       <c r="I75"/>
       <c r="J75"/>
     </row>
-    <row r="76" spans="1:10" ht="12.5">
+    <row r="76" spans="1:10">
       <c r="E76"/>
       <c r="F76" s="108"/>
       <c r="G76" s="36"/>
       <c r="I76"/>
       <c r="J76"/>
     </row>
-    <row r="77" spans="1:10" ht="12.5">
+    <row r="77" spans="1:10">
       <c r="E77"/>
       <c r="F77" s="108"/>
       <c r="G77" s="36"/>
       <c r="I77"/>
       <c r="J77"/>
     </row>
-    <row r="78" spans="1:10" ht="12.5">
+    <row r="78" spans="1:10">
       <c r="E78"/>
       <c r="F78" s="108"/>
       <c r="G78" s="36"/>
       <c r="I78"/>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:10" ht="12.5">
+    <row r="79" spans="1:10">
       <c r="E79"/>
       <c r="F79" s="108"/>
       <c r="G79" s="36"/>
       <c r="I79"/>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:10" ht="12.5">
+    <row r="80" spans="1:10">
       <c r="E80"/>
       <c r="F80" s="108"/>
       <c r="G80" s="36"/>
@@ -5465,7 +5396,7 @@
       <c r="I81"/>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:10" ht="12.5">
+    <row r="82" spans="1:10">
       <c r="A82" s="108"/>
       <c r="E82"/>
       <c r="F82" s="108"/>
@@ -5473,14 +5404,14 @@
       <c r="I82"/>
       <c r="J82"/>
     </row>
-    <row r="83" spans="1:10" ht="12.5">
+    <row r="83" spans="1:10">
       <c r="E83"/>
       <c r="F83" s="108"/>
       <c r="G83" s="36"/>
       <c r="I83"/>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:10" ht="12.5">
+    <row r="84" spans="1:10">
       <c r="E84"/>
       <c r="F84" s="108"/>
       <c r="G84" s="36"/>
@@ -5499,7 +5430,7 @@
       <c r="I85"/>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" ht="12.5">
+    <row r="86" spans="1:10">
       <c r="A86" s="108"/>
       <c r="E86"/>
       <c r="F86" s="108"/>
@@ -5507,7 +5438,7 @@
       <c r="I86"/>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10" ht="12.5">
+    <row r="87" spans="1:10">
       <c r="E87"/>
       <c r="F87" s="108"/>
       <c r="G87" s="36"/>
@@ -5526,7 +5457,7 @@
       <c r="I88"/>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:10" ht="12.5">
+    <row r="89" spans="1:10">
       <c r="A89" s="108"/>
       <c r="E89"/>
       <c r="F89" s="108"/>
@@ -5534,7 +5465,7 @@
       <c r="I89"/>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:10" ht="12.5">
+    <row r="90" spans="1:10">
       <c r="E90"/>
       <c r="F90" s="108"/>
       <c r="G90" s="36"/>
@@ -5589,102 +5520,101 @@
       <c r="I96"/>
       <c r="J96"/>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:10">
       <c r="F97" s="108"/>
       <c r="G97" s="36"/>
       <c r="I97"/>
       <c r="J97"/>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:10">
       <c r="F98" s="108"/>
       <c r="G98" s="36"/>
       <c r="I98"/>
       <c r="J98"/>
     </row>
-    <row r="99" spans="1:14" ht="12.5">
+    <row r="99" spans="1:10">
       <c r="E99"/>
       <c r="F99" s="108"/>
       <c r="G99" s="36"/>
       <c r="I99"/>
       <c r="J99"/>
     </row>
-    <row r="100" spans="1:14" ht="12.5">
+    <row r="100" spans="1:10">
       <c r="E100"/>
       <c r="F100" s="108"/>
       <c r="G100" s="36"/>
       <c r="I100"/>
       <c r="J100"/>
     </row>
-    <row r="101" spans="1:14" ht="12.5">
+    <row r="101" spans="1:10">
       <c r="E101"/>
       <c r="F101" s="108"/>
       <c r="G101" s="36"/>
       <c r="I101"/>
       <c r="J101"/>
     </row>
-    <row r="102" spans="1:14" ht="12.5">
+    <row r="102" spans="1:10">
       <c r="E102"/>
       <c r="F102" s="108"/>
       <c r="G102" s="36"/>
       <c r="I102"/>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:14" ht="12.5">
+    <row r="103" spans="1:10">
       <c r="E103"/>
       <c r="F103" s="108"/>
       <c r="G103" s="36"/>
       <c r="I103"/>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:14" ht="12.5">
+    <row r="104" spans="1:10">
       <c r="E104"/>
       <c r="F104" s="108"/>
       <c r="G104" s="36"/>
       <c r="I104"/>
       <c r="J104"/>
     </row>
-    <row r="105" spans="1:14" ht="12.5">
+    <row r="105" spans="1:10">
       <c r="E105"/>
       <c r="F105" s="108"/>
       <c r="G105" s="36"/>
       <c r="I105"/>
       <c r="J105"/>
     </row>
-    <row r="106" spans="1:14" ht="12.5">
+    <row r="106" spans="1:10">
       <c r="E106"/>
       <c r="F106" s="108"/>
       <c r="G106" s="36"/>
       <c r="I106"/>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:14" ht="12.5">
+    <row r="107" spans="1:10">
       <c r="E107"/>
       <c r="F107" s="108"/>
       <c r="G107" s="36"/>
       <c r="I107"/>
       <c r="J107"/>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:10">
       <c r="F108" s="108"/>
       <c r="G108" s="36"/>
       <c r="I108"/>
       <c r="J108"/>
-      <c r="N108" s="142"/>
-    </row>
-    <row r="109" spans="1:14">
+    </row>
+    <row r="109" spans="1:10">
       <c r="F109" s="108"/>
       <c r="G109" s="36"/>
       <c r="I109"/>
       <c r="J109"/>
     </row>
-    <row r="110" spans="1:14" ht="12.5">
+    <row r="110" spans="1:10">
       <c r="E110"/>
       <c r="F110" s="108"/>
       <c r="G110" s="36"/>
       <c r="I110"/>
       <c r="J110"/>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:10">
       <c r="A111" s="56"/>
       <c r="B111" s="56"/>
       <c r="C111" s="56"/>
@@ -5696,49 +5626,49 @@
       <c r="I111"/>
       <c r="J111"/>
     </row>
-    <row r="112" spans="1:14" ht="12.5">
+    <row r="112" spans="1:10">
       <c r="E112"/>
       <c r="F112" s="108"/>
       <c r="G112" s="36"/>
       <c r="I112"/>
       <c r="J112"/>
     </row>
-    <row r="113" spans="1:10" ht="12.5">
+    <row r="113" spans="1:10">
       <c r="E113"/>
       <c r="F113" s="108"/>
       <c r="G113" s="36"/>
       <c r="I113"/>
       <c r="J113"/>
     </row>
-    <row r="114" spans="1:10" ht="12.5">
+    <row r="114" spans="1:10">
       <c r="E114"/>
       <c r="F114" s="108"/>
       <c r="G114" s="36"/>
       <c r="I114"/>
       <c r="J114"/>
     </row>
-    <row r="115" spans="1:10" ht="12.5">
+    <row r="115" spans="1:10">
       <c r="E115"/>
       <c r="F115" s="108"/>
       <c r="G115" s="36"/>
       <c r="I115"/>
       <c r="J115"/>
     </row>
-    <row r="116" spans="1:10" ht="12.5">
+    <row r="116" spans="1:10">
       <c r="E116"/>
       <c r="F116" s="108"/>
       <c r="G116" s="36"/>
       <c r="I116"/>
       <c r="J116"/>
     </row>
-    <row r="117" spans="1:10" ht="12.5">
+    <row r="117" spans="1:10">
       <c r="E117"/>
       <c r="F117" s="108"/>
       <c r="G117" s="36"/>
       <c r="I117"/>
       <c r="J117"/>
     </row>
-    <row r="118" spans="1:10" ht="12.5">
+    <row r="118" spans="1:10">
       <c r="E118"/>
       <c r="F118" s="108"/>
       <c r="G118" s="36"/>
@@ -5757,7 +5687,7 @@
       <c r="I119"/>
       <c r="J119"/>
     </row>
-    <row r="120" spans="1:10" ht="12.5">
+    <row r="120" spans="1:10">
       <c r="A120" s="108"/>
       <c r="E120"/>
       <c r="F120" s="108"/>
@@ -5765,21 +5695,21 @@
       <c r="I120"/>
       <c r="J120"/>
     </row>
-    <row r="121" spans="1:10" ht="12.5">
+    <row r="121" spans="1:10">
       <c r="E121"/>
       <c r="F121" s="108"/>
       <c r="G121" s="36"/>
       <c r="I121"/>
       <c r="J121"/>
     </row>
-    <row r="122" spans="1:10" ht="12.5">
+    <row r="122" spans="1:10">
       <c r="E122"/>
       <c r="F122" s="108"/>
       <c r="G122" s="36"/>
       <c r="I122"/>
       <c r="J122"/>
     </row>
-    <row r="123" spans="1:10" ht="12.5">
+    <row r="123" spans="1:10">
       <c r="E123"/>
       <c r="F123" s="108"/>
       <c r="G123" s="36"/>
@@ -5805,49 +5735,49 @@
       <c r="I125" s="193"/>
       <c r="J125"/>
     </row>
-    <row r="126" spans="1:10" ht="12.5">
+    <row r="126" spans="1:10">
       <c r="E126"/>
       <c r="F126" s="36"/>
       <c r="G126" s="36"/>
       <c r="I126"/>
       <c r="J126"/>
     </row>
-    <row r="127" spans="1:10" ht="12.5">
+    <row r="127" spans="1:10">
       <c r="E127"/>
       <c r="F127" s="108"/>
       <c r="G127" s="36"/>
       <c r="I127"/>
       <c r="J127"/>
     </row>
-    <row r="128" spans="1:10" ht="12.5">
+    <row r="128" spans="1:10">
       <c r="E128"/>
       <c r="F128" s="108"/>
       <c r="G128" s="36"/>
       <c r="I128"/>
       <c r="J128"/>
     </row>
-    <row r="129" spans="1:10" ht="12.5">
+    <row r="129" spans="1:10">
       <c r="E129"/>
       <c r="F129" s="108"/>
       <c r="G129" s="36"/>
       <c r="I129"/>
       <c r="J129"/>
     </row>
-    <row r="130" spans="1:10" ht="12.5">
+    <row r="130" spans="1:10">
       <c r="E130"/>
       <c r="F130" s="108"/>
       <c r="G130" s="36"/>
       <c r="I130"/>
       <c r="J130"/>
     </row>
-    <row r="131" spans="1:10" ht="12.5">
+    <row r="131" spans="1:10">
       <c r="E131"/>
       <c r="F131" s="108"/>
       <c r="G131" s="36"/>
       <c r="I131"/>
       <c r="J131"/>
     </row>
-    <row r="132" spans="1:10" ht="12.5">
+    <row r="132" spans="1:10">
       <c r="E132"/>
       <c r="F132" s="108"/>
       <c r="G132" s="36"/>
@@ -5866,7 +5796,7 @@
       <c r="I133"/>
       <c r="J133"/>
     </row>
-    <row r="134" spans="1:10" ht="12.5">
+    <row r="134" spans="1:10">
       <c r="A134" s="108"/>
       <c r="E134"/>
       <c r="F134" s="108"/>
@@ -5874,7 +5804,7 @@
       <c r="I134"/>
       <c r="J134"/>
     </row>
-    <row r="135" spans="1:10" ht="12.5">
+    <row r="135" spans="1:10">
       <c r="A135" s="108"/>
       <c r="E135"/>
       <c r="F135" s="108"/>
@@ -5882,7 +5812,7 @@
       <c r="I135"/>
       <c r="J135"/>
     </row>
-    <row r="136" spans="1:10" ht="12.5">
+    <row r="136" spans="1:10">
       <c r="A136" s="108"/>
       <c r="E136"/>
       <c r="F136" s="108"/>
@@ -5902,7 +5832,7 @@
       <c r="I137"/>
       <c r="J137"/>
     </row>
-    <row r="138" spans="1:10" ht="12.5">
+    <row r="138" spans="1:10">
       <c r="A138" s="108"/>
       <c r="E138"/>
       <c r="F138" s="108"/>
@@ -5910,7 +5840,7 @@
       <c r="I138"/>
       <c r="J138"/>
     </row>
-    <row r="139" spans="1:10" ht="12.5">
+    <row r="139" spans="1:10">
       <c r="A139" s="108"/>
       <c r="E139"/>
       <c r="F139" s="108"/>
@@ -5918,7 +5848,7 @@
       <c r="I139"/>
       <c r="J139"/>
     </row>
-    <row r="140" spans="1:10" ht="12.5">
+    <row r="140" spans="1:10">
       <c r="A140" s="108"/>
       <c r="E140"/>
       <c r="F140" s="108"/>
@@ -5926,7 +5856,7 @@
       <c r="I140"/>
       <c r="J140"/>
     </row>
-    <row r="141" spans="1:10" ht="12.5">
+    <row r="141" spans="1:10">
       <c r="A141" s="108"/>
       <c r="E141"/>
       <c r="F141" s="108"/>
@@ -5934,7 +5864,7 @@
       <c r="I141"/>
       <c r="J141"/>
     </row>
-    <row r="142" spans="1:10" ht="12.5">
+    <row r="142" spans="1:10">
       <c r="A142" s="108"/>
       <c r="E142"/>
       <c r="F142" s="108"/>
@@ -5942,7 +5872,7 @@
       <c r="I142"/>
       <c r="J142"/>
     </row>
-    <row r="143" spans="1:10" ht="12.5">
+    <row r="143" spans="1:10">
       <c r="A143" s="108"/>
       <c r="E143"/>
       <c r="F143" s="108"/>
@@ -5950,7 +5880,7 @@
       <c r="I143"/>
       <c r="J143"/>
     </row>
-    <row r="144" spans="1:10" ht="12.5">
+    <row r="144" spans="1:10">
       <c r="A144" s="108"/>
       <c r="E144"/>
       <c r="F144" s="108"/>
@@ -5958,7 +5888,7 @@
       <c r="I144"/>
       <c r="J144"/>
     </row>
-    <row r="145" spans="1:10" ht="12.5">
+    <row r="145" spans="1:10">
       <c r="A145" s="108"/>
       <c r="E145"/>
       <c r="F145" s="108"/>
@@ -5966,7 +5896,7 @@
       <c r="I145"/>
       <c r="J145"/>
     </row>
-    <row r="146" spans="1:10" ht="12.5">
+    <row r="146" spans="1:10">
       <c r="A146" s="108"/>
       <c r="E146"/>
       <c r="F146" s="108"/>
@@ -5986,7 +5916,7 @@
       <c r="I147"/>
       <c r="J147"/>
     </row>
-    <row r="148" spans="1:10" ht="12.5">
+    <row r="148" spans="1:10">
       <c r="A148" s="108"/>
       <c r="E148"/>
       <c r="F148" s="108"/>
@@ -5994,7 +5924,7 @@
       <c r="I148"/>
       <c r="J148"/>
     </row>
-    <row r="149" spans="1:10" ht="12.5">
+    <row r="149" spans="1:10">
       <c r="A149" s="108"/>
       <c r="E149"/>
       <c r="F149" s="108"/>
@@ -6002,7 +5932,7 @@
       <c r="I149"/>
       <c r="J149"/>
     </row>
-    <row r="150" spans="1:10" ht="12.5">
+    <row r="150" spans="1:10">
       <c r="A150" s="108"/>
       <c r="E150"/>
       <c r="F150" s="108"/>
@@ -6046,7 +5976,7 @@
       <c r="I153"/>
       <c r="J153"/>
     </row>
-    <row r="154" spans="1:10" ht="12.5">
+    <row r="154" spans="1:10">
       <c r="A154" s="108"/>
       <c r="E154"/>
       <c r="F154" s="108"/>
@@ -6054,7 +5984,7 @@
       <c r="I154"/>
       <c r="J154"/>
     </row>
-    <row r="155" spans="1:10" ht="12.5">
+    <row r="155" spans="1:10">
       <c r="A155" s="108"/>
       <c r="E155"/>
       <c r="F155" s="108"/>
@@ -6074,7 +6004,7 @@
       <c r="I156"/>
       <c r="J156"/>
     </row>
-    <row r="157" spans="1:10" ht="12.5">
+    <row r="157" spans="1:10">
       <c r="A157" s="108"/>
       <c r="E157"/>
       <c r="F157" s="108"/>
@@ -6082,7 +6012,7 @@
       <c r="I157"/>
       <c r="J157"/>
     </row>
-    <row r="158" spans="1:10" ht="12.5">
+    <row r="158" spans="1:10">
       <c r="A158" s="108"/>
       <c r="E158"/>
       <c r="F158" s="108"/>
@@ -6102,7 +6032,7 @@
       <c r="I159"/>
       <c r="J159"/>
     </row>
-    <row r="160" spans="1:10" ht="12.5">
+    <row r="160" spans="1:10">
       <c r="A160" s="108"/>
       <c r="E160"/>
       <c r="F160" s="108"/>
@@ -6122,7 +6052,7 @@
       <c r="I161"/>
       <c r="J161"/>
     </row>
-    <row r="162" spans="1:10" ht="12.5">
+    <row r="162" spans="1:10">
       <c r="A162" s="108"/>
       <c r="E162"/>
       <c r="F162" s="108"/>
@@ -6130,7 +6060,7 @@
       <c r="I162"/>
       <c r="J162"/>
     </row>
-    <row r="163" spans="1:10" ht="12.5">
+    <row r="163" spans="1:10">
       <c r="A163" s="108"/>
       <c r="E163"/>
       <c r="F163" s="108"/>
@@ -6138,7 +6068,7 @@
       <c r="I163"/>
       <c r="J163"/>
     </row>
-    <row r="164" spans="1:10" ht="12.5">
+    <row r="164" spans="1:10">
       <c r="A164" s="108"/>
       <c r="E164"/>
       <c r="F164" s="108"/>
@@ -6146,7 +6076,7 @@
       <c r="I164"/>
       <c r="J164"/>
     </row>
-    <row r="165" spans="1:10" ht="12.5">
+    <row r="165" spans="1:10">
       <c r="A165" s="108"/>
       <c r="E165"/>
       <c r="F165" s="108"/>
@@ -6166,7 +6096,7 @@
       <c r="I166"/>
       <c r="J166"/>
     </row>
-    <row r="167" spans="1:10" ht="12.5">
+    <row r="167" spans="1:10">
       <c r="A167" s="108"/>
       <c r="E167"/>
       <c r="F167" s="108"/>
@@ -6174,7 +6104,7 @@
       <c r="I167"/>
       <c r="J167"/>
     </row>
-    <row r="168" spans="1:10" ht="12.5">
+    <row r="168" spans="1:10">
       <c r="A168" s="108"/>
       <c r="E168"/>
       <c r="F168" s="108"/>
@@ -6182,7 +6112,7 @@
       <c r="I168"/>
       <c r="J168"/>
     </row>
-    <row r="169" spans="1:10" ht="12.5">
+    <row r="169" spans="1:10">
       <c r="A169" s="108"/>
       <c r="E169"/>
       <c r="F169" s="108"/>
@@ -6190,7 +6120,7 @@
       <c r="I169"/>
       <c r="J169"/>
     </row>
-    <row r="170" spans="1:10" ht="12.5">
+    <row r="170" spans="1:10">
       <c r="A170" s="108"/>
       <c r="E170"/>
       <c r="F170" s="108"/>
@@ -6198,7 +6128,7 @@
       <c r="I170"/>
       <c r="J170"/>
     </row>
-    <row r="171" spans="1:10" ht="12.5">
+    <row r="171" spans="1:10">
       <c r="A171" s="108"/>
       <c r="E171"/>
       <c r="F171" s="108"/>
@@ -6218,490 +6148,490 @@
       <c r="I172"/>
       <c r="J172"/>
     </row>
-    <row r="173" spans="1:10" ht="12.5">
+    <row r="173" spans="1:10">
       <c r="E173"/>
       <c r="F173" s="108"/>
       <c r="G173" s="36"/>
       <c r="I173"/>
       <c r="J173"/>
     </row>
-    <row r="174" spans="1:10" ht="12.5">
+    <row r="174" spans="1:10">
       <c r="E174"/>
       <c r="F174" s="108"/>
       <c r="G174" s="36"/>
       <c r="I174"/>
       <c r="J174"/>
     </row>
-    <row r="175" spans="1:10" ht="12.5">
+    <row r="175" spans="1:10">
       <c r="E175"/>
       <c r="F175" s="108"/>
       <c r="G175" s="36"/>
       <c r="I175"/>
       <c r="J175"/>
     </row>
-    <row r="176" spans="1:10" ht="12.5">
+    <row r="176" spans="1:10">
       <c r="E176"/>
       <c r="F176" s="108"/>
       <c r="G176" s="36"/>
       <c r="I176"/>
       <c r="J176"/>
     </row>
-    <row r="177" spans="5:10" ht="12.5">
+    <row r="177" spans="5:10">
       <c r="E177"/>
       <c r="F177" s="108"/>
       <c r="G177" s="36"/>
       <c r="I177"/>
       <c r="J177"/>
     </row>
-    <row r="178" spans="5:10" ht="12.5">
+    <row r="178" spans="5:10">
       <c r="E178"/>
       <c r="F178" s="108"/>
       <c r="G178" s="36"/>
       <c r="I178"/>
       <c r="J178"/>
     </row>
-    <row r="179" spans="5:10" ht="12.5">
+    <row r="179" spans="5:10">
       <c r="E179"/>
       <c r="F179" s="108"/>
       <c r="G179" s="36"/>
       <c r="I179"/>
       <c r="J179"/>
     </row>
-    <row r="180" spans="5:10" ht="12.5">
+    <row r="180" spans="5:10">
       <c r="E180"/>
       <c r="F180" s="108"/>
       <c r="G180" s="36"/>
       <c r="I180"/>
       <c r="J180"/>
     </row>
-    <row r="181" spans="5:10" ht="12.5">
+    <row r="181" spans="5:10">
       <c r="E181"/>
       <c r="F181" s="108"/>
       <c r="G181" s="36"/>
       <c r="I181"/>
       <c r="J181"/>
     </row>
-    <row r="182" spans="5:10" ht="12.5">
+    <row r="182" spans="5:10">
       <c r="E182"/>
       <c r="F182" s="108"/>
       <c r="G182" s="36"/>
       <c r="I182"/>
       <c r="J182"/>
     </row>
-    <row r="183" spans="5:10" ht="12.5">
+    <row r="183" spans="5:10">
       <c r="E183"/>
       <c r="F183" s="108"/>
       <c r="G183" s="36"/>
       <c r="I183"/>
       <c r="J183"/>
     </row>
-    <row r="184" spans="5:10" ht="12.5">
+    <row r="184" spans="5:10">
       <c r="E184"/>
       <c r="F184" s="108"/>
       <c r="G184" s="36"/>
       <c r="I184"/>
       <c r="J184"/>
     </row>
-    <row r="185" spans="5:10" ht="12.5">
+    <row r="185" spans="5:10">
       <c r="E185"/>
       <c r="F185" s="108"/>
       <c r="G185" s="36"/>
       <c r="I185"/>
       <c r="J185"/>
     </row>
-    <row r="186" spans="5:10" ht="12.5">
+    <row r="186" spans="5:10">
       <c r="E186"/>
       <c r="F186" s="108"/>
       <c r="G186" s="36"/>
       <c r="I186"/>
       <c r="J186"/>
     </row>
-    <row r="187" spans="5:10" ht="12.5">
+    <row r="187" spans="5:10">
       <c r="E187"/>
       <c r="F187" s="108"/>
       <c r="G187" s="36"/>
       <c r="I187"/>
       <c r="J187"/>
     </row>
-    <row r="188" spans="5:10" ht="12.5">
+    <row r="188" spans="5:10">
       <c r="E188"/>
       <c r="F188" s="108"/>
       <c r="G188" s="36"/>
       <c r="I188"/>
       <c r="J188"/>
     </row>
-    <row r="189" spans="5:10" ht="12.5">
+    <row r="189" spans="5:10">
       <c r="E189"/>
       <c r="F189" s="108"/>
       <c r="G189" s="36"/>
       <c r="I189"/>
       <c r="J189"/>
     </row>
-    <row r="190" spans="5:10" ht="12.5">
+    <row r="190" spans="5:10">
       <c r="E190"/>
       <c r="F190" s="108"/>
       <c r="G190" s="36"/>
       <c r="I190"/>
       <c r="J190"/>
     </row>
-    <row r="191" spans="5:10" ht="12.5">
+    <row r="191" spans="5:10">
       <c r="E191"/>
       <c r="F191" s="108"/>
       <c r="G191" s="36"/>
       <c r="I191"/>
       <c r="J191"/>
     </row>
-    <row r="192" spans="5:10" ht="12.5">
+    <row r="192" spans="5:10">
       <c r="E192"/>
       <c r="F192" s="108"/>
       <c r="G192" s="36"/>
       <c r="I192"/>
       <c r="J192"/>
     </row>
-    <row r="193" spans="5:10" ht="12.5">
+    <row r="193" spans="5:10">
       <c r="E193"/>
       <c r="F193" s="108"/>
       <c r="G193" s="36"/>
       <c r="I193"/>
       <c r="J193"/>
     </row>
-    <row r="194" spans="5:10" ht="12.5">
+    <row r="194" spans="5:10">
       <c r="E194"/>
       <c r="F194" s="108"/>
       <c r="G194" s="36"/>
       <c r="I194"/>
       <c r="J194"/>
     </row>
-    <row r="195" spans="5:10" ht="12.5">
+    <row r="195" spans="5:10">
       <c r="E195"/>
       <c r="F195" s="108"/>
       <c r="G195" s="36"/>
       <c r="I195"/>
       <c r="J195"/>
     </row>
-    <row r="196" spans="5:10" ht="12.5">
+    <row r="196" spans="5:10">
       <c r="E196"/>
       <c r="F196" s="108"/>
       <c r="G196" s="36"/>
       <c r="I196"/>
       <c r="J196"/>
     </row>
-    <row r="197" spans="5:10" ht="12.5">
+    <row r="197" spans="5:10">
       <c r="E197"/>
       <c r="F197" s="108"/>
       <c r="G197" s="36"/>
       <c r="I197"/>
       <c r="J197"/>
     </row>
-    <row r="198" spans="5:10" ht="12.5">
+    <row r="198" spans="5:10">
       <c r="E198"/>
       <c r="F198" s="108"/>
       <c r="G198" s="36"/>
       <c r="I198"/>
       <c r="J198"/>
     </row>
-    <row r="199" spans="5:10" ht="12.5">
+    <row r="199" spans="5:10">
       <c r="E199"/>
       <c r="F199" s="108"/>
       <c r="G199" s="36"/>
       <c r="I199"/>
       <c r="J199"/>
     </row>
-    <row r="200" spans="5:10" ht="12.5">
+    <row r="200" spans="5:10">
       <c r="E200"/>
       <c r="F200" s="108"/>
       <c r="G200" s="36"/>
       <c r="I200"/>
       <c r="J200"/>
     </row>
-    <row r="201" spans="5:10" ht="12.5">
+    <row r="201" spans="5:10">
       <c r="E201"/>
       <c r="F201" s="108"/>
       <c r="G201" s="36"/>
       <c r="I201"/>
       <c r="J201"/>
     </row>
-    <row r="202" spans="5:10" ht="12.5">
+    <row r="202" spans="5:10">
       <c r="E202"/>
       <c r="F202" s="108"/>
       <c r="G202" s="36"/>
       <c r="I202"/>
       <c r="J202"/>
     </row>
-    <row r="203" spans="5:10" ht="12.5">
+    <row r="203" spans="5:10">
       <c r="E203"/>
       <c r="F203" s="108"/>
       <c r="G203" s="36"/>
       <c r="I203"/>
       <c r="J203"/>
     </row>
-    <row r="204" spans="5:10" ht="12.5">
+    <row r="204" spans="5:10">
       <c r="E204"/>
       <c r="F204" s="108"/>
       <c r="G204" s="36"/>
       <c r="I204"/>
       <c r="J204"/>
     </row>
-    <row r="205" spans="5:10" ht="12.5">
+    <row r="205" spans="5:10">
       <c r="E205"/>
       <c r="F205" s="108"/>
       <c r="G205" s="36"/>
       <c r="I205"/>
       <c r="J205"/>
     </row>
-    <row r="206" spans="5:10" ht="12.5">
+    <row r="206" spans="5:10">
       <c r="E206"/>
       <c r="F206" s="108"/>
       <c r="G206" s="36"/>
       <c r="I206"/>
       <c r="J206"/>
     </row>
-    <row r="207" spans="5:10" ht="12.5">
+    <row r="207" spans="5:10">
       <c r="E207"/>
       <c r="F207" s="108"/>
       <c r="G207" s="36"/>
       <c r="I207"/>
       <c r="J207"/>
     </row>
-    <row r="208" spans="5:10" ht="12.5">
+    <row r="208" spans="5:10">
       <c r="E208"/>
       <c r="F208" s="108"/>
       <c r="G208" s="36"/>
       <c r="I208"/>
       <c r="J208"/>
     </row>
-    <row r="209" spans="5:10" ht="12.5">
+    <row r="209" spans="5:10">
       <c r="E209"/>
       <c r="F209" s="108"/>
       <c r="G209" s="36"/>
       <c r="I209"/>
       <c r="J209"/>
     </row>
-    <row r="210" spans="5:10" ht="12.5">
+    <row r="210" spans="5:10">
       <c r="E210"/>
       <c r="F210" s="108"/>
       <c r="G210" s="36"/>
       <c r="I210"/>
       <c r="J210"/>
     </row>
-    <row r="211" spans="5:10" ht="12.5">
+    <row r="211" spans="5:10">
       <c r="E211"/>
       <c r="F211" s="108"/>
       <c r="G211" s="36"/>
       <c r="I211"/>
       <c r="J211"/>
     </row>
-    <row r="212" spans="5:10" ht="12.5">
+    <row r="212" spans="5:10">
       <c r="E212"/>
       <c r="F212" s="108"/>
       <c r="G212" s="36"/>
       <c r="I212"/>
       <c r="J212"/>
     </row>
-    <row r="213" spans="5:10" ht="12.5">
+    <row r="213" spans="5:10">
       <c r="E213"/>
       <c r="F213" s="108"/>
       <c r="G213" s="36"/>
       <c r="I213"/>
       <c r="J213"/>
     </row>
-    <row r="214" spans="5:10" ht="12.5">
+    <row r="214" spans="5:10">
       <c r="E214"/>
       <c r="F214" s="108"/>
       <c r="G214" s="36"/>
       <c r="I214"/>
       <c r="J214"/>
     </row>
-    <row r="215" spans="5:10" ht="12.5">
+    <row r="215" spans="5:10">
       <c r="E215"/>
       <c r="F215" s="108"/>
       <c r="G215" s="36"/>
       <c r="I215"/>
       <c r="J215"/>
     </row>
-    <row r="216" spans="5:10" ht="12.5">
+    <row r="216" spans="5:10">
       <c r="E216"/>
       <c r="F216" s="108"/>
       <c r="G216" s="36"/>
       <c r="I216"/>
       <c r="J216"/>
     </row>
-    <row r="217" spans="5:10" ht="12.5">
+    <row r="217" spans="5:10">
       <c r="E217"/>
       <c r="F217" s="108"/>
       <c r="G217" s="36"/>
       <c r="I217"/>
       <c r="J217"/>
     </row>
-    <row r="218" spans="5:10" ht="12.5">
+    <row r="218" spans="5:10">
       <c r="E218"/>
       <c r="F218" s="108"/>
       <c r="G218" s="36"/>
       <c r="I218"/>
       <c r="J218"/>
     </row>
-    <row r="219" spans="5:10" ht="12.5">
+    <row r="219" spans="5:10">
       <c r="E219"/>
       <c r="F219" s="108"/>
       <c r="G219" s="36"/>
       <c r="I219"/>
       <c r="J219"/>
     </row>
-    <row r="220" spans="5:10" ht="12.5">
+    <row r="220" spans="5:10">
       <c r="E220"/>
       <c r="F220" s="108"/>
       <c r="G220" s="36"/>
       <c r="I220"/>
       <c r="J220"/>
     </row>
-    <row r="221" spans="5:10" ht="12.5">
+    <row r="221" spans="5:10">
       <c r="E221"/>
       <c r="F221" s="108"/>
       <c r="G221" s="36"/>
       <c r="I221"/>
       <c r="J221"/>
     </row>
-    <row r="222" spans="5:10" ht="12.5">
+    <row r="222" spans="5:10">
       <c r="E222"/>
       <c r="F222" s="108"/>
       <c r="G222" s="36"/>
       <c r="I222"/>
       <c r="J222"/>
     </row>
-    <row r="223" spans="5:10" ht="12.5">
+    <row r="223" spans="5:10">
       <c r="E223"/>
       <c r="F223" s="108"/>
       <c r="G223" s="36"/>
       <c r="I223"/>
       <c r="J223"/>
     </row>
-    <row r="224" spans="5:10" ht="12.5">
+    <row r="224" spans="5:10">
       <c r="E224"/>
       <c r="F224" s="108"/>
       <c r="G224" s="36"/>
       <c r="I224"/>
       <c r="J224"/>
     </row>
-    <row r="225" spans="5:10" ht="12.5">
+    <row r="225" spans="5:10">
       <c r="E225"/>
       <c r="F225" s="108"/>
       <c r="G225" s="36"/>
       <c r="I225"/>
       <c r="J225"/>
     </row>
-    <row r="226" spans="5:10" ht="12.5">
+    <row r="226" spans="5:10">
       <c r="E226"/>
       <c r="F226" s="108"/>
       <c r="G226" s="36"/>
       <c r="I226"/>
       <c r="J226"/>
     </row>
-    <row r="227" spans="5:10" ht="12.5">
+    <row r="227" spans="5:10">
       <c r="E227"/>
       <c r="F227" s="108"/>
       <c r="G227" s="36"/>
       <c r="I227"/>
       <c r="J227"/>
     </row>
-    <row r="228" spans="5:10" ht="12.5">
+    <row r="228" spans="5:10">
       <c r="E228"/>
       <c r="F228" s="108"/>
       <c r="G228" s="36"/>
       <c r="I228"/>
       <c r="J228"/>
     </row>
-    <row r="229" spans="5:10" ht="12.5">
+    <row r="229" spans="5:10">
       <c r="E229"/>
       <c r="F229" s="108"/>
       <c r="G229" s="36"/>
       <c r="I229"/>
       <c r="J229"/>
     </row>
-    <row r="230" spans="5:10" ht="12.5">
+    <row r="230" spans="5:10">
       <c r="E230"/>
       <c r="F230" s="108"/>
       <c r="G230" s="36"/>
       <c r="I230"/>
       <c r="J230"/>
     </row>
-    <row r="231" spans="5:10" ht="12.5">
+    <row r="231" spans="5:10">
       <c r="E231"/>
       <c r="F231" s="108"/>
       <c r="G231" s="36"/>
       <c r="I231"/>
       <c r="J231"/>
     </row>
-    <row r="232" spans="5:10" ht="12.5">
+    <row r="232" spans="5:10">
       <c r="E232"/>
       <c r="F232" s="108"/>
       <c r="G232" s="36"/>
       <c r="I232"/>
       <c r="J232"/>
     </row>
-    <row r="233" spans="5:10" ht="12.5">
+    <row r="233" spans="5:10">
       <c r="E233"/>
       <c r="F233" s="108"/>
       <c r="G233" s="36"/>
       <c r="I233"/>
       <c r="J233"/>
     </row>
-    <row r="234" spans="5:10" ht="12.5">
+    <row r="234" spans="5:10">
       <c r="E234"/>
       <c r="F234" s="108"/>
       <c r="G234" s="36"/>
       <c r="I234"/>
       <c r="J234"/>
     </row>
-    <row r="235" spans="5:10" ht="12.5">
+    <row r="235" spans="5:10">
       <c r="E235"/>
       <c r="F235" s="108"/>
       <c r="G235" s="36"/>
       <c r="I235"/>
       <c r="J235"/>
     </row>
-    <row r="236" spans="5:10" ht="12.5">
+    <row r="236" spans="5:10">
       <c r="E236"/>
       <c r="F236" s="108"/>
       <c r="G236" s="36"/>
       <c r="I236"/>
       <c r="J236"/>
     </row>
-    <row r="237" spans="5:10" ht="12.5">
+    <row r="237" spans="5:10">
       <c r="E237"/>
       <c r="F237" s="108"/>
       <c r="G237" s="36"/>
       <c r="I237"/>
       <c r="J237"/>
     </row>
-    <row r="238" spans="5:10" ht="12.5">
+    <row r="238" spans="5:10">
       <c r="E238"/>
       <c r="F238" s="108"/>
       <c r="G238" s="36"/>
       <c r="I238"/>
       <c r="J238"/>
     </row>
-    <row r="239" spans="5:10" ht="12.5">
+    <row r="239" spans="5:10">
       <c r="E239"/>
       <c r="F239" s="108"/>
       <c r="G239" s="36"/>
       <c r="I239"/>
       <c r="J239"/>
     </row>
-    <row r="240" spans="5:10" ht="12.5">
+    <row r="240" spans="5:10">
       <c r="E240"/>
       <c r="F240" s="108"/>
       <c r="G240" s="36"/>
       <c r="I240"/>
       <c r="J240"/>
     </row>
-    <row r="241" spans="1:10" ht="12.5">
+    <row r="241" spans="1:10">
       <c r="E241"/>
       <c r="F241" s="108"/>
       <c r="G241" s="36"/>
       <c r="I241"/>
       <c r="J241"/>
     </row>
-    <row r="242" spans="1:10" ht="12.5">
+    <row r="242" spans="1:10">
       <c r="E242"/>
       <c r="F242" s="108"/>
       <c r="G242" s="36"/>
@@ -6725,7 +6655,7 @@
       <c r="H244" s="193"/>
       <c r="J244"/>
     </row>
-    <row r="245" spans="1:10" ht="12.5">
+    <row r="245" spans="1:10">
       <c r="E245"/>
       <c r="F245" s="108"/>
       <c r="G245" s="36"/>
@@ -6756,98 +6686,98 @@
       <c r="G250" s="219"/>
       <c r="H250" s="193"/>
     </row>
-    <row r="251" spans="1:10" ht="12.5">
+    <row r="251" spans="1:10">
       <c r="E251"/>
       <c r="F251" s="108"/>
       <c r="G251" s="36"/>
       <c r="I251"/>
       <c r="J251"/>
     </row>
-    <row r="252" spans="1:10" ht="12.5">
+    <row r="252" spans="1:10">
       <c r="E252"/>
       <c r="F252" s="108"/>
       <c r="G252" s="36"/>
       <c r="I252"/>
       <c r="J252"/>
     </row>
-    <row r="253" spans="1:10" ht="12.5">
+    <row r="253" spans="1:10">
       <c r="E253"/>
       <c r="F253" s="108"/>
       <c r="G253" s="36"/>
       <c r="I253"/>
       <c r="J253"/>
     </row>
-    <row r="254" spans="1:10" ht="12.5">
+    <row r="254" spans="1:10">
       <c r="E254"/>
       <c r="F254" s="108"/>
       <c r="G254" s="36"/>
       <c r="I254"/>
       <c r="J254"/>
     </row>
-    <row r="255" spans="1:10" ht="12.5">
+    <row r="255" spans="1:10">
       <c r="E255"/>
       <c r="F255" s="108"/>
       <c r="G255" s="36"/>
       <c r="I255"/>
       <c r="J255"/>
     </row>
-    <row r="256" spans="1:10" ht="12.5">
+    <row r="256" spans="1:10">
       <c r="E256"/>
       <c r="F256" s="108"/>
       <c r="G256" s="36"/>
       <c r="I256"/>
       <c r="J256"/>
     </row>
-    <row r="257" spans="1:10" ht="12.5">
+    <row r="257" spans="1:10">
       <c r="E257"/>
       <c r="F257" s="108"/>
       <c r="G257" s="36"/>
       <c r="I257"/>
       <c r="J257"/>
     </row>
-    <row r="258" spans="1:10" ht="12.5">
+    <row r="258" spans="1:10">
       <c r="E258"/>
       <c r="F258" s="108"/>
       <c r="G258" s="36"/>
       <c r="I258"/>
       <c r="J258"/>
     </row>
-    <row r="259" spans="1:10" ht="12.5">
+    <row r="259" spans="1:10">
       <c r="E259"/>
       <c r="F259" s="108"/>
       <c r="G259" s="36"/>
       <c r="I259"/>
       <c r="J259"/>
     </row>
-    <row r="260" spans="1:10" ht="12.5">
+    <row r="260" spans="1:10">
       <c r="E260"/>
       <c r="F260" s="108"/>
       <c r="G260" s="36"/>
       <c r="I260"/>
       <c r="J260"/>
     </row>
-    <row r="261" spans="1:10" ht="12.5">
+    <row r="261" spans="1:10">
       <c r="E261"/>
       <c r="F261" s="108"/>
       <c r="G261" s="36"/>
       <c r="I261"/>
       <c r="J261"/>
     </row>
-    <row r="262" spans="1:10" ht="12.5">
+    <row r="262" spans="1:10">
       <c r="E262"/>
       <c r="F262" s="108"/>
       <c r="G262" s="36"/>
       <c r="I262"/>
       <c r="J262"/>
     </row>
-    <row r="263" spans="1:10" ht="12.5">
+    <row r="263" spans="1:10">
       <c r="E263"/>
       <c r="F263" s="108"/>
       <c r="G263" s="36"/>
       <c r="I263"/>
       <c r="J263"/>
     </row>
-    <row r="264" spans="1:10" ht="12.5">
+    <row r="264" spans="1:10">
       <c r="E264"/>
       <c r="F264" s="108"/>
       <c r="G264" s="36"/>
@@ -6866,63 +6796,63 @@
       <c r="I265"/>
       <c r="J265"/>
     </row>
-    <row r="266" spans="1:10" ht="12.5">
+    <row r="266" spans="1:10">
       <c r="E266"/>
       <c r="F266" s="108"/>
       <c r="G266" s="36"/>
       <c r="I266"/>
       <c r="J266"/>
     </row>
-    <row r="267" spans="1:10" ht="12.5">
+    <row r="267" spans="1:10">
       <c r="E267"/>
       <c r="F267" s="108"/>
       <c r="G267" s="36"/>
       <c r="I267"/>
       <c r="J267"/>
     </row>
-    <row r="268" spans="1:10" ht="12.5">
+    <row r="268" spans="1:10">
       <c r="E268"/>
       <c r="F268" s="108"/>
       <c r="G268" s="36"/>
       <c r="I268"/>
       <c r="J268"/>
     </row>
-    <row r="269" spans="1:10" ht="12.5">
+    <row r="269" spans="1:10">
       <c r="E269"/>
       <c r="F269" s="108"/>
       <c r="G269" s="36"/>
       <c r="I269"/>
       <c r="J269"/>
     </row>
-    <row r="270" spans="1:10" ht="12.5">
+    <row r="270" spans="1:10">
       <c r="E270"/>
       <c r="F270" s="108"/>
       <c r="G270" s="36"/>
       <c r="I270"/>
       <c r="J270"/>
     </row>
-    <row r="271" spans="1:10" ht="12.5">
+    <row r="271" spans="1:10">
       <c r="E271"/>
       <c r="F271" s="108"/>
       <c r="G271" s="36"/>
       <c r="I271"/>
       <c r="J271"/>
     </row>
-    <row r="272" spans="1:10" ht="12.5">
+    <row r="272" spans="1:10">
       <c r="E272"/>
       <c r="F272" s="108"/>
       <c r="G272" s="36"/>
       <c r="I272"/>
       <c r="J272"/>
     </row>
-    <row r="273" spans="1:10" ht="12.5">
+    <row r="273" spans="1:10">
       <c r="E273"/>
       <c r="F273" s="108"/>
       <c r="G273" s="36"/>
       <c r="I273"/>
       <c r="J273"/>
     </row>
-    <row r="274" spans="1:10" ht="12.5">
+    <row r="274" spans="1:10">
       <c r="E274"/>
       <c r="F274" s="108"/>
       <c r="G274" s="36"/>
@@ -6941,28 +6871,28 @@
       <c r="I275"/>
       <c r="J275"/>
     </row>
-    <row r="276" spans="1:10" ht="12.5">
+    <row r="276" spans="1:10">
       <c r="E276"/>
       <c r="F276" s="108"/>
       <c r="G276" s="36"/>
       <c r="I276"/>
       <c r="J276"/>
     </row>
-    <row r="277" spans="1:10" ht="12.5">
+    <row r="277" spans="1:10">
       <c r="E277"/>
       <c r="F277" s="108"/>
       <c r="G277" s="36"/>
       <c r="I277"/>
       <c r="J277"/>
     </row>
-    <row r="278" spans="1:10" ht="12.5">
+    <row r="278" spans="1:10">
       <c r="E278"/>
       <c r="F278" s="108"/>
       <c r="G278" s="36"/>
       <c r="I278"/>
       <c r="J278"/>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" ht="13.5">
       <c r="B279" s="231"/>
       <c r="E279"/>
       <c r="F279" s="108"/>
@@ -6970,49 +6900,49 @@
       <c r="I279"/>
       <c r="J279"/>
     </row>
-    <row r="280" spans="1:10" ht="12.5">
+    <row r="280" spans="1:10">
       <c r="E280"/>
       <c r="F280" s="108"/>
       <c r="G280" s="36"/>
       <c r="I280"/>
       <c r="J280"/>
     </row>
-    <row r="281" spans="1:10" ht="12.5">
+    <row r="281" spans="1:10">
       <c r="E281"/>
       <c r="F281" s="108"/>
       <c r="G281" s="36"/>
       <c r="I281"/>
       <c r="J281"/>
     </row>
-    <row r="282" spans="1:10" ht="12.5">
+    <row r="282" spans="1:10">
       <c r="E282"/>
       <c r="F282" s="108"/>
       <c r="G282" s="36"/>
       <c r="I282"/>
       <c r="J282"/>
     </row>
-    <row r="283" spans="1:10" ht="12.5">
+    <row r="283" spans="1:10">
       <c r="E283"/>
       <c r="F283" s="108"/>
       <c r="G283" s="36"/>
       <c r="I283"/>
       <c r="J283"/>
     </row>
-    <row r="284" spans="1:10" ht="12.5">
+    <row r="284" spans="1:10">
       <c r="E284"/>
       <c r="F284" s="108"/>
       <c r="G284" s="36"/>
       <c r="I284"/>
       <c r="J284"/>
     </row>
-    <row r="285" spans="1:10" ht="12.5">
+    <row r="285" spans="1:10">
       <c r="E285"/>
       <c r="F285" s="108"/>
       <c r="G285" s="36"/>
       <c r="I285"/>
       <c r="J285"/>
     </row>
-    <row r="286" spans="1:10" ht="12.5">
+    <row r="286" spans="1:10">
       <c r="E286"/>
       <c r="F286" s="108"/>
       <c r="G286" s="36"/>
@@ -7291,7 +7221,7 @@
       <c r="I327"/>
       <c r="J327"/>
     </row>
-    <row r="328" spans="1:10" ht="12.5">
+    <row r="328" spans="1:10">
       <c r="A328" s="108"/>
       <c r="E328"/>
       <c r="F328" s="108"/>
@@ -7311,21 +7241,21 @@
       <c r="I329"/>
       <c r="J329"/>
     </row>
-    <row r="330" spans="1:10" ht="12.5">
+    <row r="330" spans="1:10">
       <c r="E330"/>
       <c r="F330" s="108"/>
       <c r="G330" s="36"/>
       <c r="I330"/>
       <c r="J330"/>
     </row>
-    <row r="331" spans="1:10" ht="12.5">
+    <row r="331" spans="1:10">
       <c r="A331" s="108"/>
       <c r="E331"/>
       <c r="F331" s="108"/>
       <c r="I331"/>
       <c r="J331"/>
     </row>
-    <row r="332" spans="1:10" ht="12.5">
+    <row r="332" spans="1:10">
       <c r="A332" s="108"/>
       <c r="E332"/>
       <c r="F332" s="108"/>
@@ -7344,14 +7274,14 @@
       <c r="I333"/>
       <c r="J333"/>
     </row>
-    <row r="334" spans="1:10" ht="12.5">
+    <row r="334" spans="1:10">
       <c r="E334"/>
       <c r="F334" s="108"/>
       <c r="G334" s="36"/>
       <c r="I334"/>
       <c r="J334"/>
     </row>
-    <row r="335" spans="1:10" ht="12.5">
+    <row r="335" spans="1:10">
       <c r="A335" s="108"/>
       <c r="E335"/>
       <c r="F335" s="108"/>
@@ -7359,7 +7289,7 @@
       <c r="I335"/>
       <c r="J335"/>
     </row>
-    <row r="336" spans="1:10" ht="12.5">
+    <row r="336" spans="1:10">
       <c r="A336" s="108"/>
       <c r="E336"/>
       <c r="F336" s="108"/>
@@ -7367,7 +7297,7 @@
       <c r="I336"/>
       <c r="J336"/>
     </row>
-    <row r="337" spans="1:10" ht="12.5">
+    <row r="337" spans="1:10">
       <c r="A337" s="108"/>
       <c r="E337"/>
       <c r="F337" s="108"/>
@@ -7433,14 +7363,14 @@
       <c r="I344"/>
       <c r="J344"/>
     </row>
-    <row r="345" spans="1:10" ht="12.5">
+    <row r="345" spans="1:10">
       <c r="E345"/>
       <c r="F345" s="108"/>
       <c r="G345" s="36"/>
       <c r="I345"/>
       <c r="J345"/>
     </row>
-    <row r="346" spans="1:10" ht="12.5">
+    <row r="346" spans="1:10">
       <c r="A346" s="108"/>
       <c r="E346"/>
       <c r="F346" s="108"/>
@@ -7448,7 +7378,7 @@
       <c r="I346"/>
       <c r="J346"/>
     </row>
-    <row r="347" spans="1:10" ht="12.5">
+    <row r="347" spans="1:10">
       <c r="A347" s="108"/>
       <c r="E347"/>
       <c r="F347" s="108"/>
@@ -7456,7 +7386,7 @@
       <c r="I347"/>
       <c r="J347"/>
     </row>
-    <row r="348" spans="1:10" ht="12.5">
+    <row r="348" spans="1:10">
       <c r="A348" s="108"/>
       <c r="E348"/>
       <c r="F348" s="108"/>
@@ -7464,7 +7394,7 @@
       <c r="I348"/>
       <c r="J348"/>
     </row>
-    <row r="349" spans="1:10" ht="12.5">
+    <row r="349" spans="1:10">
       <c r="A349" s="108"/>
       <c r="E349"/>
       <c r="F349" s="108"/>
@@ -7472,7 +7402,7 @@
       <c r="I349"/>
       <c r="J349"/>
     </row>
-    <row r="350" spans="1:10" ht="12.5">
+    <row r="350" spans="1:10">
       <c r="A350" s="108"/>
       <c r="E350"/>
       <c r="F350" s="108"/>
@@ -7480,7 +7410,7 @@
       <c r="I350"/>
       <c r="J350"/>
     </row>
-    <row r="351" spans="1:10" ht="12.5">
+    <row r="351" spans="1:10">
       <c r="A351" s="108"/>
       <c r="E351"/>
       <c r="F351" s="108"/>
@@ -7488,7 +7418,7 @@
       <c r="I351"/>
       <c r="J351"/>
     </row>
-    <row r="352" spans="1:10" ht="12.5">
+    <row r="352" spans="1:10">
       <c r="A352" s="108"/>
       <c r="B352" s="220"/>
       <c r="E352"/>
@@ -7496,14 +7426,14 @@
       <c r="I352"/>
       <c r="J352"/>
     </row>
-    <row r="353" spans="1:10" ht="12.5">
+    <row r="353" spans="1:10">
       <c r="A353" s="108"/>
       <c r="E353"/>
       <c r="F353" s="108"/>
       <c r="I353"/>
       <c r="J353"/>
     </row>
-    <row r="354" spans="1:10" ht="12.5">
+    <row r="354" spans="1:10">
       <c r="A354" s="108"/>
       <c r="E354"/>
       <c r="F354" s="108"/>
@@ -7511,7 +7441,7 @@
       <c r="I354"/>
       <c r="J354"/>
     </row>
-    <row r="355" spans="1:10" ht="12.5">
+    <row r="355" spans="1:10">
       <c r="A355" s="108"/>
       <c r="E355"/>
       <c r="F355" s="108"/>
@@ -7519,7 +7449,7 @@
       <c r="I355"/>
       <c r="J355"/>
     </row>
-    <row r="356" spans="1:10" ht="12.5">
+    <row r="356" spans="1:10">
       <c r="A356" s="108"/>
       <c r="E356"/>
       <c r="F356" s="108"/>
@@ -7527,7 +7457,7 @@
       <c r="I356"/>
       <c r="J356"/>
     </row>
-    <row r="357" spans="1:10" ht="12.5">
+    <row r="357" spans="1:10">
       <c r="A357" s="108"/>
       <c r="E357"/>
       <c r="F357" s="108"/>
@@ -7535,7 +7465,7 @@
       <c r="I357"/>
       <c r="J357"/>
     </row>
-    <row r="358" spans="1:10" ht="12.5">
+    <row r="358" spans="1:10">
       <c r="A358" s="108"/>
       <c r="E358"/>
       <c r="F358" s="108"/>
@@ -7543,7 +7473,7 @@
       <c r="I358"/>
       <c r="J358"/>
     </row>
-    <row r="359" spans="1:10" ht="12.5">
+    <row r="359" spans="1:10">
       <c r="A359" s="108"/>
       <c r="E359"/>
       <c r="F359" s="108"/>
@@ -7551,7 +7481,7 @@
       <c r="I359"/>
       <c r="J359"/>
     </row>
-    <row r="360" spans="1:10" ht="12.5">
+    <row r="360" spans="1:10">
       <c r="A360" s="108"/>
       <c r="B360" s="108"/>
       <c r="E360"/>
@@ -7560,7 +7490,7 @@
       <c r="I360"/>
       <c r="J360"/>
     </row>
-    <row r="361" spans="1:10" ht="12.5">
+    <row r="361" spans="1:10">
       <c r="A361" s="108"/>
       <c r="B361" s="108"/>
       <c r="E361"/>
@@ -7569,7 +7499,7 @@
       <c r="I361"/>
       <c r="J361"/>
     </row>
-    <row r="362" spans="1:10" ht="12.5">
+    <row r="362" spans="1:10">
       <c r="A362" s="108"/>
       <c r="B362" s="108"/>
       <c r="E362"/>
@@ -7578,7 +7508,7 @@
       <c r="I362"/>
       <c r="J362"/>
     </row>
-    <row r="363" spans="1:10" ht="12.5">
+    <row r="363" spans="1:10">
       <c r="A363" s="108"/>
       <c r="B363" s="108"/>
       <c r="E363"/>
@@ -7587,7 +7517,7 @@
       <c r="I363"/>
       <c r="J363"/>
     </row>
-    <row r="364" spans="1:10" ht="12.5">
+    <row r="364" spans="1:10">
       <c r="A364" s="108"/>
       <c r="B364" s="108"/>
       <c r="E364"/>
@@ -7596,7 +7526,7 @@
       <c r="I364"/>
       <c r="J364"/>
     </row>
-    <row r="365" spans="1:10" ht="12.5">
+    <row r="365" spans="1:10">
       <c r="A365" s="108"/>
       <c r="E365"/>
       <c r="F365" s="108"/>
@@ -7604,7 +7534,7 @@
       <c r="I365"/>
       <c r="J365"/>
     </row>
-    <row r="366" spans="1:10" ht="12.5">
+    <row r="366" spans="1:10">
       <c r="A366" s="108"/>
       <c r="E366"/>
       <c r="F366" s="108"/>
@@ -7612,7 +7542,7 @@
       <c r="I366"/>
       <c r="J366"/>
     </row>
-    <row r="367" spans="1:10" ht="12.5">
+    <row r="367" spans="1:10">
       <c r="A367" s="108"/>
       <c r="E367"/>
       <c r="F367" s="108"/>
@@ -7620,7 +7550,7 @@
       <c r="I367"/>
       <c r="J367"/>
     </row>
-    <row r="368" spans="1:10" ht="12.5">
+    <row r="368" spans="1:10">
       <c r="A368" s="108"/>
       <c r="E368"/>
       <c r="F368" s="108"/>
@@ -7628,7 +7558,7 @@
       <c r="I368"/>
       <c r="J368"/>
     </row>
-    <row r="369" spans="1:10" ht="12.5">
+    <row r="369" spans="1:10">
       <c r="A369" s="108"/>
       <c r="E369"/>
       <c r="F369" s="108"/>
@@ -7636,7 +7566,7 @@
       <c r="I369"/>
       <c r="J369"/>
     </row>
-    <row r="370" spans="1:10" ht="12.5">
+    <row r="370" spans="1:10">
       <c r="A370" s="108"/>
       <c r="E370"/>
       <c r="F370" s="108"/>
@@ -7644,7 +7574,7 @@
       <c r="I370"/>
       <c r="J370"/>
     </row>
-    <row r="371" spans="1:10" ht="12.5">
+    <row r="371" spans="1:10">
       <c r="A371" s="108"/>
       <c r="E371"/>
       <c r="F371" s="108"/>
@@ -7652,7 +7582,7 @@
       <c r="I371"/>
       <c r="J371"/>
     </row>
-    <row r="372" spans="1:10" ht="12.5">
+    <row r="372" spans="1:10">
       <c r="A372" s="108"/>
       <c r="E372"/>
       <c r="F372" s="108"/>
@@ -7660,7 +7590,7 @@
       <c r="I372"/>
       <c r="J372"/>
     </row>
-    <row r="373" spans="1:10" ht="12.5">
+    <row r="373" spans="1:10">
       <c r="A373" s="108"/>
       <c r="E373"/>
       <c r="F373" s="108"/>
@@ -7668,7 +7598,7 @@
       <c r="I373"/>
       <c r="J373"/>
     </row>
-    <row r="374" spans="1:10" ht="12.5">
+    <row r="374" spans="1:10">
       <c r="A374" s="108"/>
       <c r="E374"/>
       <c r="F374" s="108"/>
@@ -7676,7 +7606,7 @@
       <c r="I374"/>
       <c r="J374"/>
     </row>
-    <row r="375" spans="1:10" ht="12.5">
+    <row r="375" spans="1:10">
       <c r="A375" s="108"/>
       <c r="E375"/>
       <c r="F375" s="108"/>
@@ -7684,7 +7614,7 @@
       <c r="I375"/>
       <c r="J375"/>
     </row>
-    <row r="376" spans="1:10" ht="12.5">
+    <row r="376" spans="1:10">
       <c r="A376" s="108"/>
       <c r="E376"/>
       <c r="F376" s="108"/>
@@ -7692,7 +7622,7 @@
       <c r="I376"/>
       <c r="J376"/>
     </row>
-    <row r="377" spans="1:10" ht="12.5">
+    <row r="377" spans="1:10">
       <c r="A377" s="108"/>
       <c r="E377"/>
       <c r="F377" s="108"/>
@@ -7700,7 +7630,7 @@
       <c r="I377"/>
       <c r="J377"/>
     </row>
-    <row r="378" spans="1:10" ht="12.5">
+    <row r="378" spans="1:10">
       <c r="A378" s="108"/>
       <c r="E378"/>
       <c r="F378" s="108"/>
@@ -7708,7 +7638,7 @@
       <c r="I378"/>
       <c r="J378"/>
     </row>
-    <row r="379" spans="1:10" ht="12.5">
+    <row r="379" spans="1:10">
       <c r="A379" s="108"/>
       <c r="E379"/>
       <c r="F379" s="108"/>
@@ -7716,7 +7646,7 @@
       <c r="I379"/>
       <c r="J379"/>
     </row>
-    <row r="380" spans="1:10" ht="12.5">
+    <row r="380" spans="1:10">
       <c r="A380" s="108"/>
       <c r="E380"/>
       <c r="F380" s="108"/>
@@ -7724,7 +7654,7 @@
       <c r="I380"/>
       <c r="J380"/>
     </row>
-    <row r="381" spans="1:10" ht="12.5">
+    <row r="381" spans="1:10">
       <c r="A381" s="108"/>
       <c r="E381"/>
       <c r="F381" s="108"/>
@@ -7732,7 +7662,7 @@
       <c r="I381"/>
       <c r="J381"/>
     </row>
-    <row r="382" spans="1:10" ht="12.5">
+    <row r="382" spans="1:10">
       <c r="A382" s="108"/>
       <c r="E382"/>
       <c r="F382" s="108"/>
@@ -7740,7 +7670,7 @@
       <c r="I382"/>
       <c r="J382"/>
     </row>
-    <row r="383" spans="1:10" ht="12.5">
+    <row r="383" spans="1:10">
       <c r="A383" s="108"/>
       <c r="E383"/>
       <c r="F383" s="108"/>
@@ -7748,7 +7678,7 @@
       <c r="I383"/>
       <c r="J383"/>
     </row>
-    <row r="384" spans="1:10" ht="12.5">
+    <row r="384" spans="1:10">
       <c r="A384" s="108"/>
       <c r="E384"/>
       <c r="F384" s="108"/>
@@ -7756,7 +7686,7 @@
       <c r="I384"/>
       <c r="J384"/>
     </row>
-    <row r="385" spans="1:10" ht="12.5">
+    <row r="385" spans="1:10">
       <c r="A385" s="108"/>
       <c r="E385"/>
       <c r="F385" s="108"/>
@@ -7764,7 +7694,7 @@
       <c r="I385"/>
       <c r="J385"/>
     </row>
-    <row r="386" spans="1:10" ht="12.5">
+    <row r="386" spans="1:10">
       <c r="A386" s="108"/>
       <c r="E386"/>
       <c r="F386" s="108"/>
@@ -7772,7 +7702,7 @@
       <c r="I386"/>
       <c r="J386"/>
     </row>
-    <row r="387" spans="1:10" ht="12.5">
+    <row r="387" spans="1:10">
       <c r="A387" s="108"/>
       <c r="E387"/>
       <c r="F387" s="108"/>
@@ -7780,7 +7710,7 @@
       <c r="I387"/>
       <c r="J387"/>
     </row>
-    <row r="388" spans="1:10" ht="12.5">
+    <row r="388" spans="1:10">
       <c r="A388" s="108"/>
       <c r="E388"/>
       <c r="F388" s="108"/>
@@ -7788,7 +7718,7 @@
       <c r="I388"/>
       <c r="J388"/>
     </row>
-    <row r="389" spans="1:10" ht="12.5">
+    <row r="389" spans="1:10">
       <c r="A389" s="108"/>
       <c r="E389"/>
       <c r="F389" s="108"/>
@@ -7796,7 +7726,7 @@
       <c r="I389"/>
       <c r="J389"/>
     </row>
-    <row r="390" spans="1:10" ht="12.5">
+    <row r="390" spans="1:10">
       <c r="A390" s="108"/>
       <c r="E390"/>
       <c r="F390" s="108"/>
@@ -7804,7 +7734,7 @@
       <c r="I390"/>
       <c r="J390"/>
     </row>
-    <row r="391" spans="1:10" ht="12.5">
+    <row r="391" spans="1:10">
       <c r="A391" s="108"/>
       <c r="E391"/>
       <c r="F391" s="108"/>
@@ -7812,7 +7742,7 @@
       <c r="I391"/>
       <c r="J391"/>
     </row>
-    <row r="392" spans="1:10" ht="12.5">
+    <row r="392" spans="1:10">
       <c r="A392" s="108"/>
       <c r="E392"/>
       <c r="F392" s="108"/>
@@ -7820,7 +7750,7 @@
       <c r="I392"/>
       <c r="J392"/>
     </row>
-    <row r="393" spans="1:10" ht="12.5">
+    <row r="393" spans="1:10">
       <c r="A393" s="108"/>
       <c r="E393"/>
       <c r="F393" s="108"/>
@@ -7828,7 +7758,7 @@
       <c r="I393"/>
       <c r="J393"/>
     </row>
-    <row r="394" spans="1:10" ht="12.5">
+    <row r="394" spans="1:10">
       <c r="A394" s="108"/>
       <c r="E394"/>
       <c r="F394" s="108"/>
@@ -7836,7 +7766,7 @@
       <c r="I394"/>
       <c r="J394"/>
     </row>
-    <row r="395" spans="1:10" ht="12.5">
+    <row r="395" spans="1:10">
       <c r="A395" s="108"/>
       <c r="E395"/>
       <c r="F395" s="108"/>
@@ -7844,7 +7774,7 @@
       <c r="I395"/>
       <c r="J395"/>
     </row>
-    <row r="396" spans="1:10" ht="12.5">
+    <row r="396" spans="1:10">
       <c r="A396" s="108"/>
       <c r="E396"/>
       <c r="F396" s="108"/>
@@ -7852,7 +7782,7 @@
       <c r="I396"/>
       <c r="J396"/>
     </row>
-    <row r="397" spans="1:10" ht="12.5">
+    <row r="397" spans="1:10">
       <c r="A397" s="108"/>
       <c r="E397"/>
       <c r="F397" s="108"/>
@@ -7860,7 +7790,7 @@
       <c r="I397"/>
       <c r="J397"/>
     </row>
-    <row r="398" spans="1:10" ht="12.5">
+    <row r="398" spans="1:10">
       <c r="A398" s="108"/>
       <c r="E398"/>
       <c r="F398" s="108"/>
@@ -7868,7 +7798,7 @@
       <c r="I398"/>
       <c r="J398"/>
     </row>
-    <row r="399" spans="1:10" ht="12.5">
+    <row r="399" spans="1:10">
       <c r="A399" s="108"/>
       <c r="E399"/>
       <c r="F399" s="108"/>
@@ -7876,7 +7806,7 @@
       <c r="I399"/>
       <c r="J399"/>
     </row>
-    <row r="400" spans="1:10" ht="12.5">
+    <row r="400" spans="1:10">
       <c r="A400" s="108"/>
       <c r="E400"/>
       <c r="F400" s="108"/>
@@ -7884,7 +7814,7 @@
       <c r="I400"/>
       <c r="J400"/>
     </row>
-    <row r="401" spans="1:10" ht="12.5">
+    <row r="401" spans="1:10">
       <c r="A401" s="108"/>
       <c r="E401"/>
       <c r="F401" s="108"/>
@@ -7892,7 +7822,7 @@
       <c r="I401"/>
       <c r="J401"/>
     </row>
-    <row r="402" spans="1:10" ht="12.5">
+    <row r="402" spans="1:10">
       <c r="A402" s="108"/>
       <c r="E402"/>
       <c r="F402" s="108"/>
@@ -7900,7 +7830,7 @@
       <c r="I402"/>
       <c r="J402"/>
     </row>
-    <row r="403" spans="1:10" ht="12.5">
+    <row r="403" spans="1:10">
       <c r="A403" s="108"/>
       <c r="E403"/>
       <c r="F403" s="108"/>
@@ -7908,7 +7838,7 @@
       <c r="I403"/>
       <c r="J403"/>
     </row>
-    <row r="404" spans="1:10" ht="12.5">
+    <row r="404" spans="1:10">
       <c r="A404" s="108"/>
       <c r="E404"/>
       <c r="F404" s="108"/>
@@ -7916,7 +7846,7 @@
       <c r="I404"/>
       <c r="J404"/>
     </row>
-    <row r="405" spans="1:10" ht="12.5">
+    <row r="405" spans="1:10">
       <c r="A405" s="108"/>
       <c r="E405"/>
       <c r="F405" s="108"/>
@@ -7924,7 +7854,7 @@
       <c r="I405"/>
       <c r="J405"/>
     </row>
-    <row r="406" spans="1:10" ht="12.5">
+    <row r="406" spans="1:10">
       <c r="A406" s="108"/>
       <c r="E406"/>
       <c r="F406" s="108"/>
@@ -7932,7 +7862,7 @@
       <c r="I406"/>
       <c r="J406"/>
     </row>
-    <row r="407" spans="1:10" ht="12.5">
+    <row r="407" spans="1:10">
       <c r="A407" s="108"/>
       <c r="E407"/>
       <c r="F407" s="108"/>
@@ -7940,7 +7870,7 @@
       <c r="I407"/>
       <c r="J407"/>
     </row>
-    <row r="408" spans="1:10" ht="12.5">
+    <row r="408" spans="1:10">
       <c r="A408" s="108"/>
       <c r="E408"/>
       <c r="F408" s="108"/>
@@ -7948,7 +7878,7 @@
       <c r="I408"/>
       <c r="J408"/>
     </row>
-    <row r="409" spans="1:10" ht="12.5">
+    <row r="409" spans="1:10">
       <c r="A409" s="108"/>
       <c r="E409"/>
       <c r="F409" s="108"/>
@@ -7956,7 +7886,7 @@
       <c r="I409"/>
       <c r="J409"/>
     </row>
-    <row r="410" spans="1:10" ht="12.5">
+    <row r="410" spans="1:10">
       <c r="A410" s="108"/>
       <c r="E410"/>
       <c r="F410" s="108"/>
@@ -7964,7 +7894,7 @@
       <c r="I410"/>
       <c r="J410"/>
     </row>
-    <row r="411" spans="1:10" ht="12.5">
+    <row r="411" spans="1:10">
       <c r="A411" s="108"/>
       <c r="E411"/>
       <c r="F411" s="108"/>
@@ -7972,7 +7902,7 @@
       <c r="I411"/>
       <c r="J411"/>
     </row>
-    <row r="412" spans="1:10" ht="12.5">
+    <row r="412" spans="1:10">
       <c r="A412" s="108"/>
       <c r="E412"/>
       <c r="F412" s="108"/>
@@ -7980,7 +7910,7 @@
       <c r="I412"/>
       <c r="J412"/>
     </row>
-    <row r="413" spans="1:10" ht="12.5">
+    <row r="413" spans="1:10">
       <c r="A413" s="108"/>
       <c r="E413"/>
       <c r="F413" s="108"/>
@@ -7988,7 +7918,7 @@
       <c r="I413"/>
       <c r="J413"/>
     </row>
-    <row r="414" spans="1:10" ht="12.5">
+    <row r="414" spans="1:10">
       <c r="A414" s="108"/>
       <c r="E414"/>
       <c r="F414" s="108"/>
@@ -7996,7 +7926,7 @@
       <c r="I414"/>
       <c r="J414"/>
     </row>
-    <row r="415" spans="1:10" ht="12.5">
+    <row r="415" spans="1:10">
       <c r="A415" s="108"/>
       <c r="E415"/>
       <c r="F415" s="108"/>
@@ -8004,7 +7934,7 @@
       <c r="I415"/>
       <c r="J415"/>
     </row>
-    <row r="416" spans="1:10" ht="12.5">
+    <row r="416" spans="1:10">
       <c r="A416" s="108"/>
       <c r="E416"/>
       <c r="F416" s="108"/>
@@ -8012,7 +7942,7 @@
       <c r="I416"/>
       <c r="J416"/>
     </row>
-    <row r="417" spans="1:10" ht="12.5">
+    <row r="417" spans="1:10">
       <c r="A417" s="108"/>
       <c r="E417"/>
       <c r="F417" s="108"/>
@@ -8020,7 +7950,7 @@
       <c r="I417"/>
       <c r="J417"/>
     </row>
-    <row r="418" spans="1:10" ht="12.5">
+    <row r="418" spans="1:10">
       <c r="A418" s="108"/>
       <c r="E418"/>
       <c r="F418" s="108"/>
@@ -8028,7 +7958,7 @@
       <c r="I418"/>
       <c r="J418"/>
     </row>
-    <row r="419" spans="1:10" ht="12.5">
+    <row r="419" spans="1:10">
       <c r="A419" s="108"/>
       <c r="E419"/>
       <c r="F419" s="108"/>
@@ -8036,7 +7966,7 @@
       <c r="I419"/>
       <c r="J419"/>
     </row>
-    <row r="420" spans="1:10" ht="12.5">
+    <row r="420" spans="1:10">
       <c r="A420" s="108"/>
       <c r="E420"/>
       <c r="F420" s="108"/>
@@ -8044,7 +7974,7 @@
       <c r="I420"/>
       <c r="J420"/>
     </row>
-    <row r="421" spans="1:10" ht="12.5">
+    <row r="421" spans="1:10">
       <c r="A421" s="108"/>
       <c r="E421"/>
       <c r="F421" s="108"/>
@@ -8052,7 +7982,7 @@
       <c r="I421"/>
       <c r="J421"/>
     </row>
-    <row r="422" spans="1:10" ht="12.5">
+    <row r="422" spans="1:10">
       <c r="A422" s="108"/>
       <c r="E422"/>
       <c r="F422" s="108"/>
@@ -8060,7 +7990,7 @@
       <c r="I422"/>
       <c r="J422"/>
     </row>
-    <row r="423" spans="1:10" ht="12.5">
+    <row r="423" spans="1:10">
       <c r="A423" s="108"/>
       <c r="E423"/>
       <c r="F423" s="108"/>
@@ -8068,7 +7998,7 @@
       <c r="I423"/>
       <c r="J423"/>
     </row>
-    <row r="424" spans="1:10" ht="12.5">
+    <row r="424" spans="1:10">
       <c r="A424" s="108"/>
       <c r="E424"/>
       <c r="F424" s="108"/>
@@ -8076,7 +8006,7 @@
       <c r="I424"/>
       <c r="J424"/>
     </row>
-    <row r="425" spans="1:10" ht="12.5">
+    <row r="425" spans="1:10">
       <c r="A425" s="108"/>
       <c r="E425"/>
       <c r="F425" s="108"/>
@@ -8084,7 +8014,7 @@
       <c r="I425"/>
       <c r="J425"/>
     </row>
-    <row r="426" spans="1:10" ht="12.5">
+    <row r="426" spans="1:10">
       <c r="A426" s="108"/>
       <c r="E426"/>
       <c r="F426" s="108"/>
@@ -8092,7 +8022,7 @@
       <c r="I426"/>
       <c r="J426"/>
     </row>
-    <row r="427" spans="1:10" ht="12.5">
+    <row r="427" spans="1:10">
       <c r="A427" s="108"/>
       <c r="E427"/>
       <c r="F427" s="108"/>
@@ -8100,7 +8030,7 @@
       <c r="I427"/>
       <c r="J427"/>
     </row>
-    <row r="428" spans="1:10" ht="12.5">
+    <row r="428" spans="1:10">
       <c r="A428" s="108"/>
       <c r="E428"/>
       <c r="F428" s="108"/>
@@ -8108,7 +8038,7 @@
       <c r="I428"/>
       <c r="J428"/>
     </row>
-    <row r="429" spans="1:10" ht="12.5">
+    <row r="429" spans="1:10">
       <c r="A429" s="108"/>
       <c r="E429"/>
       <c r="F429" s="108"/>
@@ -8116,7 +8046,7 @@
       <c r="I429"/>
       <c r="J429"/>
     </row>
-    <row r="430" spans="1:10" ht="12.5">
+    <row r="430" spans="1:10">
       <c r="A430" s="108"/>
       <c r="E430"/>
       <c r="F430" s="108"/>
@@ -8124,7 +8054,7 @@
       <c r="I430"/>
       <c r="J430"/>
     </row>
-    <row r="431" spans="1:10" ht="12.5">
+    <row r="431" spans="1:10">
       <c r="A431" s="108"/>
       <c r="E431"/>
       <c r="F431" s="108"/>
@@ -8132,7 +8062,7 @@
       <c r="I431"/>
       <c r="J431"/>
     </row>
-    <row r="432" spans="1:10" ht="12.5">
+    <row r="432" spans="1:10">
       <c r="A432" s="108"/>
       <c r="E432"/>
       <c r="F432" s="108"/>
@@ -8140,7 +8070,7 @@
       <c r="I432"/>
       <c r="J432"/>
     </row>
-    <row r="433" spans="1:10" ht="12.5">
+    <row r="433" spans="1:10">
       <c r="A433" s="108"/>
       <c r="E433"/>
       <c r="F433" s="108"/>
@@ -8148,7 +8078,7 @@
       <c r="I433"/>
       <c r="J433"/>
     </row>
-    <row r="434" spans="1:10" ht="12.5">
+    <row r="434" spans="1:10">
       <c r="A434" s="108"/>
       <c r="E434"/>
       <c r="F434" s="108"/>
@@ -8156,7 +8086,7 @@
       <c r="I434"/>
       <c r="J434"/>
     </row>
-    <row r="435" spans="1:10" ht="12.5">
+    <row r="435" spans="1:10">
       <c r="A435" s="108"/>
       <c r="E435"/>
       <c r="F435" s="108"/>
@@ -8164,7 +8094,7 @@
       <c r="I435"/>
       <c r="J435"/>
     </row>
-    <row r="436" spans="1:10" ht="12.5">
+    <row r="436" spans="1:10">
       <c r="A436" s="108"/>
       <c r="E436"/>
       <c r="F436" s="108"/>
@@ -8172,7 +8102,7 @@
       <c r="I436"/>
       <c r="J436"/>
     </row>
-    <row r="437" spans="1:10" ht="12.5">
+    <row r="437" spans="1:10">
       <c r="A437" s="108"/>
       <c r="E437"/>
       <c r="F437" s="108"/>
@@ -8180,7 +8110,7 @@
       <c r="I437"/>
       <c r="J437"/>
     </row>
-    <row r="438" spans="1:10" ht="12.5">
+    <row r="438" spans="1:10">
       <c r="A438" s="108"/>
       <c r="E438"/>
       <c r="F438" s="108"/>
@@ -8188,7 +8118,7 @@
       <c r="I438"/>
       <c r="J438"/>
     </row>
-    <row r="439" spans="1:10" ht="12.5">
+    <row r="439" spans="1:10">
       <c r="A439" s="108"/>
       <c r="E439"/>
       <c r="F439" s="108"/>
@@ -8196,7 +8126,7 @@
       <c r="I439"/>
       <c r="J439"/>
     </row>
-    <row r="440" spans="1:10" ht="12.5">
+    <row r="440" spans="1:10">
       <c r="A440" s="108"/>
       <c r="E440"/>
       <c r="F440" s="108"/>
@@ -8204,7 +8134,7 @@
       <c r="I440"/>
       <c r="J440"/>
     </row>
-    <row r="441" spans="1:10" ht="12.5">
+    <row r="441" spans="1:10">
       <c r="A441" s="108"/>
       <c r="E441"/>
       <c r="F441" s="108"/>
@@ -8212,7 +8142,7 @@
       <c r="I441"/>
       <c r="J441"/>
     </row>
-    <row r="442" spans="1:10" ht="12.5">
+    <row r="442" spans="1:10">
       <c r="A442" s="108"/>
       <c r="E442"/>
       <c r="F442" s="108"/>
@@ -8220,7 +8150,7 @@
       <c r="I442"/>
       <c r="J442"/>
     </row>
-    <row r="443" spans="1:10" ht="12.5">
+    <row r="443" spans="1:10">
       <c r="A443" s="108"/>
       <c r="E443"/>
       <c r="F443" s="108"/>
@@ -8228,7 +8158,7 @@
       <c r="I443"/>
       <c r="J443"/>
     </row>
-    <row r="444" spans="1:10" ht="12.5">
+    <row r="444" spans="1:10">
       <c r="A444" s="108"/>
       <c r="E444"/>
       <c r="F444" s="108"/>
@@ -8236,7 +8166,7 @@
       <c r="I444"/>
       <c r="J444"/>
     </row>
-    <row r="445" spans="1:10" ht="12.5">
+    <row r="445" spans="1:10">
       <c r="A445" s="108"/>
       <c r="E445"/>
       <c r="F445" s="108"/>
@@ -8244,7 +8174,7 @@
       <c r="I445"/>
       <c r="J445"/>
     </row>
-    <row r="446" spans="1:10" ht="12.5">
+    <row r="446" spans="1:10">
       <c r="A446" s="108"/>
       <c r="E446"/>
       <c r="F446" s="108"/>
@@ -8252,7 +8182,7 @@
       <c r="I446"/>
       <c r="J446"/>
     </row>
-    <row r="447" spans="1:10" ht="12.5">
+    <row r="447" spans="1:10">
       <c r="A447" s="108"/>
       <c r="E447"/>
       <c r="F447" s="108"/>
@@ -8260,7 +8190,7 @@
       <c r="I447"/>
       <c r="J447"/>
     </row>
-    <row r="448" spans="1:10" ht="12.5">
+    <row r="448" spans="1:10">
       <c r="A448" s="108"/>
       <c r="E448"/>
       <c r="F448" s="108"/>
@@ -8268,7 +8198,7 @@
       <c r="I448"/>
       <c r="J448"/>
     </row>
-    <row r="449" spans="1:10" ht="12.5">
+    <row r="449" spans="1:10">
       <c r="A449" s="108"/>
       <c r="E449"/>
       <c r="F449" s="108"/>
@@ -8276,7 +8206,7 @@
       <c r="I449"/>
       <c r="J449"/>
     </row>
-    <row r="450" spans="1:10" ht="12.5">
+    <row r="450" spans="1:10">
       <c r="A450" s="108"/>
       <c r="E450"/>
       <c r="F450" s="108"/>
@@ -8284,7 +8214,7 @@
       <c r="I450"/>
       <c r="J450"/>
     </row>
-    <row r="451" spans="1:10" ht="12.5">
+    <row r="451" spans="1:10">
       <c r="A451" s="108"/>
       <c r="E451"/>
       <c r="F451" s="108"/>
@@ -8292,7 +8222,7 @@
       <c r="I451"/>
       <c r="J451"/>
     </row>
-    <row r="452" spans="1:10" ht="12.5">
+    <row r="452" spans="1:10">
       <c r="A452" s="108"/>
       <c r="E452"/>
       <c r="F452" s="108"/>
@@ -8300,7 +8230,7 @@
       <c r="I452"/>
       <c r="J452"/>
     </row>
-    <row r="453" spans="1:10" ht="12.5">
+    <row r="453" spans="1:10">
       <c r="A453" s="108"/>
       <c r="E453"/>
       <c r="F453" s="108"/>
@@ -8308,7 +8238,7 @@
       <c r="I453"/>
       <c r="J453"/>
     </row>
-    <row r="454" spans="1:10" ht="12.5">
+    <row r="454" spans="1:10">
       <c r="A454" s="108"/>
       <c r="E454"/>
       <c r="F454" s="108"/>
@@ -8401,7 +8331,7 @@
       <c r="I465"/>
       <c r="J465"/>
     </row>
-    <row r="466" spans="1:10" ht="12.5">
+    <row r="466" spans="1:10">
       <c r="E466"/>
       <c r="F466" s="108"/>
       <c r="G466" s="36"/>
@@ -8501,7 +8431,7 @@
       <c r="G488" s="219"/>
       <c r="H488" s="193"/>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" ht="13.5">
       <c r="A489" s="56"/>
       <c r="B489" s="231"/>
       <c r="C489" s="56"/>
@@ -8511,7 +8441,7 @@
       <c r="G489" s="219"/>
       <c r="H489" s="193"/>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" ht="13.5">
       <c r="A490" s="56"/>
       <c r="B490" s="231"/>
       <c r="C490" s="56"/>
@@ -8521,7 +8451,7 @@
       <c r="G490" s="219"/>
       <c r="H490" s="193"/>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" ht="13.5">
       <c r="A491" s="56"/>
       <c r="B491" s="231"/>
       <c r="C491" s="56"/>
@@ -8531,7 +8461,7 @@
       <c r="G491" s="219"/>
       <c r="H491" s="193"/>
     </row>
-    <row r="492" spans="1:8" ht="12.5">
+    <row r="492" spans="1:8">
       <c r="E492"/>
       <c r="F492" s="108"/>
       <c r="G492" s="36"/>
@@ -8548,12 +8478,12 @@
       <c r="F495" s="108"/>
       <c r="G495" s="36"/>
     </row>
-    <row r="496" spans="1:8" ht="12.5">
+    <row r="496" spans="1:8">
       <c r="E496" s="62"/>
       <c r="F496" s="108"/>
       <c r="G496" s="36"/>
     </row>
-    <row r="497" spans="1:8" ht="12.5">
+    <row r="497" spans="1:8">
       <c r="E497" s="62"/>
       <c r="F497" s="108"/>
       <c r="G497" s="36"/>
@@ -8562,45 +8492,45 @@
       <c r="F498" s="108"/>
       <c r="G498" s="36"/>
     </row>
-    <row r="499" spans="1:8" ht="12.5">
+    <row r="499" spans="1:8">
       <c r="B499" s="201"/>
       <c r="D499" s="2"/>
       <c r="E499" s="63"/>
       <c r="F499" s="108"/>
       <c r="G499" s="36"/>
     </row>
-    <row r="500" spans="1:8" ht="12.5">
+    <row r="500" spans="1:8">
       <c r="B500" s="201"/>
       <c r="E500" s="62"/>
       <c r="F500" s="108"/>
       <c r="G500" s="36"/>
     </row>
-    <row r="501" spans="1:8" ht="12.5">
+    <row r="501" spans="1:8">
       <c r="E501" s="62"/>
       <c r="F501" s="108"/>
       <c r="G501" s="36"/>
     </row>
-    <row r="502" spans="1:8" ht="12.5">
+    <row r="502" spans="1:8">
       <c r="E502" s="62"/>
       <c r="F502" s="108"/>
       <c r="G502" s="36"/>
     </row>
-    <row r="503" spans="1:8" ht="12.5">
+    <row r="503" spans="1:8">
       <c r="E503" s="62"/>
       <c r="F503" s="108"/>
       <c r="G503" s="36"/>
     </row>
-    <row r="504" spans="1:8" ht="12.5">
+    <row r="504" spans="1:8">
       <c r="E504" s="62"/>
       <c r="F504" s="108"/>
       <c r="G504" s="36"/>
     </row>
-    <row r="505" spans="1:8" ht="12.5">
+    <row r="505" spans="1:8">
       <c r="E505" s="62"/>
       <c r="F505" s="108"/>
       <c r="G505" s="36"/>
     </row>
-    <row r="506" spans="1:8" ht="12.5">
+    <row r="506" spans="1:8">
       <c r="E506" s="62"/>
       <c r="F506" s="108"/>
       <c r="G506" s="36"/>
@@ -8635,7 +8565,7 @@
       <c r="G512" s="219"/>
       <c r="H512" s="193"/>
     </row>
-    <row r="513" spans="1:10" ht="12.5">
+    <row r="513" spans="1:10">
       <c r="E513"/>
       <c r="F513" s="108"/>
       <c r="G513" s="36"/>
@@ -8655,7 +8585,7 @@
       <c r="G516" s="36"/>
       <c r="H516" s="55"/>
     </row>
-    <row r="517" spans="1:10" ht="12.5">
+    <row r="517" spans="1:10">
       <c r="A517" s="143"/>
       <c r="B517" s="143"/>
       <c r="C517" s="143"/>
@@ -8813,7 +8743,7 @@
       <c r="H539" s="193"/>
       <c r="J539"/>
     </row>
-    <row r="540" spans="1:10" ht="12.5">
+    <row r="540" spans="1:10">
       <c r="E540"/>
       <c r="F540" s="108"/>
       <c r="G540" s="108"/>
@@ -8944,7 +8874,7 @@
       <c r="I559"/>
       <c r="J559"/>
     </row>
-    <row r="560" spans="1:10" ht="12.5">
+    <row r="560" spans="1:10">
       <c r="E560"/>
       <c r="F560" s="108"/>
       <c r="G560" s="108"/>
@@ -9341,7 +9271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E7B8F4-5285-46EC-BCE1-BF8FCCDC20D1}">
   <dimension ref="A1:K402"/>
   <sheetViews>
@@ -9351,21 +9281,21 @@
       <selection pane="bottomLeft" activeCell="E369" sqref="E369"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.453125" customWidth="1"/>
-    <col min="6" max="6" width="50.1796875" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.42578125" customWidth="1"/>
+    <col min="6" max="6" width="50.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="282" t="s">
         <v>120</v>
       </c>
@@ -9384,7 +9314,7 @@
       <c r="H1" s="278"/>
       <c r="I1" s="277"/>
     </row>
-    <row r="2" spans="1:11" ht="67" customHeight="1">
+    <row r="2" spans="1:11" ht="66.95" customHeight="1">
       <c r="A2" s="275" t="s">
         <v>121</v>
       </c>
@@ -9411,7 +9341,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13">
+    <row r="3" spans="1:11">
       <c r="A3" s="274" t="s">
         <v>11</v>
       </c>
@@ -15565,7 +15495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4F7720-24EC-4BC8-BFE2-934342B17442}">
   <dimension ref="A1:E249"/>
   <sheetViews>
@@ -15573,13 +15503,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
@@ -15593,7 +15523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="169">
+    <row r="2" spans="1:5" ht="165.75">
       <c r="A2" s="300" t="s">
         <v>4</v>
       </c>
@@ -15607,7 +15537,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.5">
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="301" t="s">
         <v>9</v>
       </c>
@@ -16367,7 +16297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEDE50F-3952-214F-9597-838D9D10B1E0}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -16378,18 +16308,18 @@
       <selection activeCell="A4" sqref="A4:XFD650"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="29.7265625" style="151" customWidth="1"/>
-    <col min="2" max="2" width="61.7265625" style="171" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="151" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" style="171" customWidth="1"/>
     <col min="3" max="3" width="65" style="151" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" style="151" customWidth="1"/>
-    <col min="5" max="6" width="8.7265625" style="151"/>
+    <col min="4" max="4" width="14.7109375" style="151" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" style="151"/>
     <col min="7" max="7" width="13" style="151" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" style="151" customWidth="1"/>
-    <col min="9" max="12" width="8.7265625" style="151"/>
-    <col min="13" max="13" width="16.26953125" style="151" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="151"/>
+    <col min="8" max="8" width="11.42578125" style="151" customWidth="1"/>
+    <col min="9" max="12" width="8.7109375" style="151"/>
+    <col min="13" max="13" width="16.28515625" style="151" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="151"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
@@ -16406,7 +16336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="52">
+    <row r="2" spans="1:11" ht="51">
       <c r="A2" s="152" t="s">
         <v>129</v>
       </c>
@@ -16420,7 +16350,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13">
+    <row r="3" spans="1:11">
       <c r="A3" s="154" t="s">
         <v>11</v>
       </c>
@@ -16993,39 +16923,39 @@
       <c r="B121" s="204"/>
       <c r="C121" s="140"/>
     </row>
-    <row r="122" spans="1:6" ht="13">
+    <row r="122" spans="1:6">
       <c r="A122" s="196"/>
       <c r="B122" s="204"/>
       <c r="C122" s="140"/>
       <c r="E122" s="156"/>
       <c r="F122" s="156"/>
     </row>
-    <row r="123" spans="1:6" ht="13">
+    <row r="123" spans="1:6">
       <c r="A123" s="196"/>
       <c r="B123" s="206"/>
       <c r="C123" s="167"/>
       <c r="E123" s="156"/>
       <c r="F123" s="156"/>
     </row>
-    <row r="124" spans="1:6" ht="13">
+    <row r="124" spans="1:6">
       <c r="A124" s="196"/>
       <c r="B124" s="204"/>
       <c r="C124" s="140"/>
       <c r="E124" s="156"/>
       <c r="F124" s="156"/>
     </row>
-    <row r="125" spans="1:6" ht="13">
+    <row r="125" spans="1:6">
       <c r="A125" s="196"/>
       <c r="B125" s="204"/>
       <c r="C125" s="140"/>
       <c r="E125" s="156"/>
       <c r="F125" s="156"/>
     </row>
-    <row r="126" spans="1:6" ht="13">
+    <row r="126" spans="1:6">
       <c r="E126" s="156"/>
       <c r="F126" s="156"/>
     </row>
-    <row r="127" spans="1:6" ht="13">
+    <row r="127" spans="1:6">
       <c r="A127" s="162"/>
       <c r="B127" s="205"/>
       <c r="C127" s="162"/>
@@ -17033,25 +16963,25 @@
       <c r="E127" s="156"/>
       <c r="F127" s="156"/>
     </row>
-    <row r="128" spans="1:6" ht="13">
+    <row r="128" spans="1:6">
       <c r="A128" s="140"/>
       <c r="B128" s="204"/>
       <c r="C128" s="140"/>
       <c r="E128" s="156"/>
       <c r="F128" s="156"/>
     </row>
-    <row r="129" spans="1:6" ht="13">
+    <row r="129" spans="1:6">
       <c r="A129" s="140"/>
       <c r="B129" s="204"/>
       <c r="C129" s="140"/>
       <c r="E129" s="156"/>
       <c r="F129" s="156"/>
     </row>
-    <row r="130" spans="1:6" ht="13">
+    <row r="130" spans="1:6">
       <c r="E130" s="156"/>
       <c r="F130" s="156"/>
     </row>
-    <row r="131" spans="1:6" ht="13">
+    <row r="131" spans="1:6">
       <c r="A131" s="162"/>
       <c r="B131" s="205"/>
       <c r="C131" s="162"/>
@@ -17059,7 +16989,7 @@
       <c r="E131" s="156"/>
       <c r="F131" s="156"/>
     </row>
-    <row r="132" spans="1:6" ht="13">
+    <row r="132" spans="1:6">
       <c r="A132" s="197"/>
       <c r="B132" s="204"/>
       <c r="C132" s="140"/>
@@ -17067,7 +16997,7 @@
       <c r="E132" s="156"/>
       <c r="F132" s="156"/>
     </row>
-    <row r="133" spans="1:6" ht="13">
+    <row r="133" spans="1:6">
       <c r="A133" s="197"/>
       <c r="B133" s="204"/>
       <c r="C133" s="140"/>
@@ -17075,11 +17005,11 @@
       <c r="E133" s="156"/>
       <c r="F133" s="156"/>
     </row>
-    <row r="134" spans="1:6" ht="13">
+    <row r="134" spans="1:6">
       <c r="E134" s="156"/>
       <c r="F134" s="156"/>
     </row>
-    <row r="135" spans="1:6" ht="13">
+    <row r="135" spans="1:6">
       <c r="A135" s="162"/>
       <c r="B135" s="205"/>
       <c r="C135" s="162"/>
@@ -17087,28 +17017,28 @@
       <c r="E135" s="156"/>
       <c r="F135" s="156"/>
     </row>
-    <row r="136" spans="1:6" ht="13">
+    <row r="136" spans="1:6">
       <c r="A136" s="189"/>
       <c r="B136" s="208"/>
       <c r="C136" s="140"/>
       <c r="E136" s="156"/>
       <c r="F136" s="156"/>
     </row>
-    <row r="137" spans="1:6" ht="13">
+    <row r="137" spans="1:6">
       <c r="A137" s="189"/>
       <c r="B137" s="208"/>
       <c r="C137" s="140"/>
       <c r="E137" s="156"/>
       <c r="F137" s="156"/>
     </row>
-    <row r="138" spans="1:6" ht="13">
+    <row r="138" spans="1:6">
       <c r="A138" s="189"/>
       <c r="B138" s="208"/>
       <c r="C138" s="140"/>
       <c r="E138" s="156"/>
       <c r="F138" s="156"/>
     </row>
-    <row r="139" spans="1:6" ht="13">
+    <row r="139" spans="1:6">
       <c r="E139" s="156"/>
       <c r="F139" s="156"/>
     </row>
@@ -17118,7 +17048,7 @@
       <c r="C140" s="162"/>
       <c r="D140" s="158"/>
     </row>
-    <row r="141" spans="1:6" ht="13">
+    <row r="141" spans="1:6">
       <c r="E141" s="156"/>
       <c r="F141" s="156"/>
     </row>
@@ -17635,7 +17565,7 @@
       <c r="C275" s="158"/>
       <c r="D275" s="158"/>
     </row>
-    <row r="281" spans="1:6" ht="13">
+    <row r="281" spans="1:6">
       <c r="E281" s="156"/>
       <c r="F281" s="156"/>
     </row>
@@ -18248,943 +18178,943 @@
       <c r="B402" s="159"/>
       <c r="C402" s="140"/>
     </row>
-    <row r="403" spans="1:3" ht="14.5">
+    <row r="403" spans="1:3" ht="15">
       <c r="A403" s="177"/>
       <c r="C403" s="179"/>
     </row>
-    <row r="404" spans="1:3" ht="14.5">
+    <row r="404" spans="1:3" ht="15">
       <c r="A404" s="140"/>
       <c r="C404" s="180"/>
     </row>
-    <row r="405" spans="1:3" ht="14.5">
+    <row r="405" spans="1:3" ht="15">
       <c r="A405" s="140"/>
       <c r="C405" s="180"/>
     </row>
-    <row r="406" spans="1:3" ht="14.5">
+    <row r="406" spans="1:3" ht="15">
       <c r="A406" s="140"/>
       <c r="C406" s="180"/>
     </row>
-    <row r="407" spans="1:3" ht="14.5">
+    <row r="407" spans="1:3" ht="15">
       <c r="A407" s="140"/>
       <c r="C407" s="180"/>
     </row>
-    <row r="408" spans="1:3" ht="14.5">
+    <row r="408" spans="1:3" ht="15">
       <c r="A408" s="140"/>
       <c r="C408" s="180"/>
     </row>
-    <row r="409" spans="1:3" ht="14.5">
+    <row r="409" spans="1:3" ht="15">
       <c r="A409" s="140"/>
       <c r="C409" s="180"/>
     </row>
-    <row r="410" spans="1:3" ht="14.5">
+    <row r="410" spans="1:3" ht="15">
       <c r="A410" s="140"/>
       <c r="C410" s="180"/>
     </row>
-    <row r="411" spans="1:3" ht="14.5">
+    <row r="411" spans="1:3" ht="15">
       <c r="A411" s="140"/>
       <c r="C411" s="180"/>
     </row>
-    <row r="412" spans="1:3" ht="14.5">
+    <row r="412" spans="1:3" ht="15">
       <c r="A412" s="140"/>
       <c r="C412" s="180"/>
     </row>
-    <row r="413" spans="1:3" ht="14.5">
+    <row r="413" spans="1:3" ht="15">
       <c r="A413" s="140"/>
       <c r="C413" s="180"/>
     </row>
-    <row r="414" spans="1:3" ht="14.5">
+    <row r="414" spans="1:3" ht="15">
       <c r="A414" s="140"/>
       <c r="C414" s="180"/>
     </row>
-    <row r="415" spans="1:3" ht="14.5">
+    <row r="415" spans="1:3" ht="15">
       <c r="A415" s="140"/>
       <c r="C415" s="180"/>
     </row>
-    <row r="416" spans="1:3" ht="14.5">
+    <row r="416" spans="1:3" ht="15">
       <c r="A416" s="140"/>
       <c r="C416" s="180"/>
     </row>
-    <row r="417" spans="1:3" ht="14.5">
+    <row r="417" spans="1:3" ht="15">
       <c r="A417" s="140"/>
       <c r="C417" s="180"/>
     </row>
-    <row r="418" spans="1:3" ht="14.5">
+    <row r="418" spans="1:3" ht="15">
       <c r="A418" s="140"/>
       <c r="C418" s="180"/>
     </row>
-    <row r="419" spans="1:3" ht="14.5">
+    <row r="419" spans="1:3" ht="15">
       <c r="A419" s="140"/>
       <c r="C419" s="180"/>
     </row>
-    <row r="420" spans="1:3" ht="14.5">
+    <row r="420" spans="1:3" ht="15">
       <c r="A420" s="173"/>
       <c r="C420" s="181"/>
     </row>
-    <row r="421" spans="1:3" ht="14.5">
+    <row r="421" spans="1:3" ht="15">
       <c r="A421" s="177"/>
       <c r="C421" s="179"/>
     </row>
-    <row r="422" spans="1:3" ht="14.5">
+    <row r="422" spans="1:3" ht="15">
       <c r="A422" s="140"/>
       <c r="C422" s="180"/>
     </row>
-    <row r="423" spans="1:3" ht="14.5">
+    <row r="423" spans="1:3" ht="15">
       <c r="A423" s="140"/>
       <c r="C423" s="180"/>
     </row>
-    <row r="424" spans="1:3" ht="14.5">
+    <row r="424" spans="1:3" ht="15">
       <c r="A424" s="140"/>
       <c r="C424" s="180"/>
     </row>
-    <row r="425" spans="1:3" ht="14.5">
+    <row r="425" spans="1:3" ht="15">
       <c r="A425" s="140"/>
       <c r="C425" s="180"/>
     </row>
-    <row r="426" spans="1:3" ht="14.5">
+    <row r="426" spans="1:3" ht="15">
       <c r="A426" s="140"/>
       <c r="C426" s="180"/>
     </row>
-    <row r="427" spans="1:3" ht="14.5">
+    <row r="427" spans="1:3" ht="15">
       <c r="A427" s="140"/>
       <c r="C427" s="180"/>
     </row>
-    <row r="428" spans="1:3" ht="14.5">
+    <row r="428" spans="1:3" ht="15">
       <c r="A428" s="140"/>
       <c r="C428" s="181"/>
     </row>
-    <row r="429" spans="1:3" ht="14.5">
+    <row r="429" spans="1:3" ht="15">
       <c r="A429" s="177"/>
       <c r="C429" s="179"/>
     </row>
-    <row r="430" spans="1:3" ht="14.5">
+    <row r="430" spans="1:3" ht="15">
       <c r="A430" s="140"/>
       <c r="C430" s="180"/>
     </row>
-    <row r="431" spans="1:3" ht="14.5">
+    <row r="431" spans="1:3" ht="15">
       <c r="A431" s="140"/>
       <c r="C431" s="180"/>
     </row>
-    <row r="432" spans="1:3" ht="14.5">
+    <row r="432" spans="1:3" ht="15">
       <c r="A432" s="140"/>
       <c r="C432" s="180"/>
     </row>
-    <row r="433" spans="1:3" ht="14.5">
+    <row r="433" spans="1:3" ht="15">
       <c r="A433" s="140"/>
       <c r="C433" s="180"/>
     </row>
-    <row r="434" spans="1:3" ht="14.5">
+    <row r="434" spans="1:3" ht="15">
       <c r="A434" s="140"/>
       <c r="C434" s="180"/>
     </row>
-    <row r="435" spans="1:3" ht="14.5">
+    <row r="435" spans="1:3" ht="15">
       <c r="A435" s="140"/>
       <c r="C435" s="180"/>
     </row>
-    <row r="436" spans="1:3" ht="14.5">
+    <row r="436" spans="1:3" ht="15">
       <c r="A436" s="140"/>
       <c r="C436" s="180"/>
     </row>
-    <row r="437" spans="1:3" ht="14.5">
+    <row r="437" spans="1:3" ht="15">
       <c r="A437" s="140"/>
       <c r="C437" s="181"/>
     </row>
-    <row r="438" spans="1:3" ht="14.5">
+    <row r="438" spans="1:3" ht="15">
       <c r="A438" s="177"/>
       <c r="C438" s="180"/>
     </row>
-    <row r="439" spans="1:3" ht="14.5">
+    <row r="439" spans="1:3" ht="15">
       <c r="A439" s="140"/>
       <c r="C439" s="180"/>
     </row>
-    <row r="440" spans="1:3" ht="14.5">
+    <row r="440" spans="1:3" ht="15">
       <c r="A440" s="140"/>
       <c r="C440" s="182"/>
     </row>
-    <row r="441" spans="1:3" ht="14.5">
+    <row r="441" spans="1:3" ht="15">
       <c r="A441" s="140"/>
       <c r="C441" s="180"/>
     </row>
-    <row r="442" spans="1:3" ht="14.5">
+    <row r="442" spans="1:3" ht="15">
       <c r="A442" s="140"/>
       <c r="C442" s="181"/>
     </row>
-    <row r="443" spans="1:3" ht="14.5">
+    <row r="443" spans="1:3" ht="15">
       <c r="A443" s="177"/>
       <c r="C443" s="179"/>
     </row>
-    <row r="444" spans="1:3" ht="14.5">
+    <row r="444" spans="1:3" ht="15">
       <c r="A444" s="140"/>
       <c r="C444" s="180"/>
     </row>
-    <row r="445" spans="1:3" ht="14.5">
+    <row r="445" spans="1:3" ht="15">
       <c r="A445" s="140"/>
       <c r="C445" s="180"/>
     </row>
-    <row r="446" spans="1:3" ht="14.5">
+    <row r="446" spans="1:3" ht="15">
       <c r="A446" s="140"/>
       <c r="C446" s="180"/>
     </row>
-    <row r="447" spans="1:3" ht="14.5">
+    <row r="447" spans="1:3" ht="15">
       <c r="A447" s="140"/>
       <c r="C447" s="180"/>
     </row>
-    <row r="448" spans="1:3" ht="14.5">
+    <row r="448" spans="1:3" ht="15">
       <c r="A448" s="140"/>
       <c r="C448" s="180"/>
     </row>
-    <row r="449" spans="1:3" ht="14.5">
+    <row r="449" spans="1:3" ht="15">
       <c r="A449" s="140"/>
       <c r="C449" s="180"/>
     </row>
-    <row r="450" spans="1:3" ht="14.5">
+    <row r="450" spans="1:3" ht="15">
       <c r="A450" s="140"/>
       <c r="C450" s="181"/>
     </row>
-    <row r="451" spans="1:3" ht="14.5">
+    <row r="451" spans="1:3" ht="15">
       <c r="A451" s="140"/>
       <c r="C451" s="180"/>
     </row>
-    <row r="452" spans="1:3" ht="14.5">
+    <row r="452" spans="1:3" ht="15">
       <c r="A452" s="177"/>
       <c r="C452" s="179"/>
     </row>
-    <row r="453" spans="1:3" ht="14.5">
+    <row r="453" spans="1:3" ht="15">
       <c r="A453" s="140"/>
       <c r="C453" s="180"/>
     </row>
-    <row r="454" spans="1:3" ht="14.5">
+    <row r="454" spans="1:3" ht="15">
       <c r="A454" s="140"/>
       <c r="C454" s="180"/>
     </row>
-    <row r="455" spans="1:3" ht="14.5">
+    <row r="455" spans="1:3" ht="15">
       <c r="A455" s="140"/>
       <c r="C455" s="180"/>
     </row>
-    <row r="456" spans="1:3" ht="14.5">
+    <row r="456" spans="1:3" ht="15">
       <c r="A456" s="140"/>
       <c r="C456" s="180"/>
     </row>
-    <row r="457" spans="1:3" ht="14.5">
+    <row r="457" spans="1:3" ht="15">
       <c r="A457" s="140"/>
       <c r="C457" s="180"/>
     </row>
-    <row r="458" spans="1:3" ht="14.5">
+    <row r="458" spans="1:3" ht="15">
       <c r="A458" s="140"/>
       <c r="C458" s="180"/>
     </row>
-    <row r="459" spans="1:3" ht="14.5">
+    <row r="459" spans="1:3" ht="15">
       <c r="A459" s="140"/>
       <c r="C459" s="180"/>
     </row>
-    <row r="460" spans="1:3" ht="14.5">
+    <row r="460" spans="1:3" ht="15">
       <c r="A460" s="140"/>
       <c r="C460" s="180"/>
     </row>
-    <row r="461" spans="1:3" ht="14.5">
+    <row r="461" spans="1:3" ht="15">
       <c r="A461" s="140"/>
       <c r="C461" s="180"/>
     </row>
-    <row r="462" spans="1:3" ht="14.5">
+    <row r="462" spans="1:3" ht="15">
       <c r="A462" s="140"/>
       <c r="C462" s="180"/>
     </row>
-    <row r="463" spans="1:3" ht="14.5">
+    <row r="463" spans="1:3" ht="15">
       <c r="A463" s="140"/>
       <c r="C463" s="180"/>
     </row>
-    <row r="464" spans="1:3" ht="14.5">
+    <row r="464" spans="1:3" ht="15">
       <c r="A464" s="140"/>
       <c r="C464" s="180"/>
     </row>
-    <row r="465" spans="1:3" ht="14.5">
+    <row r="465" spans="1:3" ht="15">
       <c r="A465" s="140"/>
       <c r="C465" s="180"/>
     </row>
-    <row r="466" spans="1:3" ht="14.5">
+    <row r="466" spans="1:3" ht="15">
       <c r="A466" s="140"/>
       <c r="C466" s="180"/>
     </row>
-    <row r="467" spans="1:3" ht="14.5">
+    <row r="467" spans="1:3" ht="15">
       <c r="A467" s="140"/>
       <c r="C467" s="180"/>
     </row>
-    <row r="468" spans="1:3" ht="14.5">
+    <row r="468" spans="1:3" ht="15">
       <c r="A468" s="140"/>
       <c r="C468" s="180"/>
     </row>
-    <row r="469" spans="1:3" ht="14.5">
+    <row r="469" spans="1:3" ht="15">
       <c r="A469" s="140"/>
       <c r="C469" s="180"/>
     </row>
-    <row r="470" spans="1:3" ht="14.5">
+    <row r="470" spans="1:3" ht="15">
       <c r="A470" s="140"/>
       <c r="C470" s="180"/>
     </row>
-    <row r="471" spans="1:3" ht="14.5">
+    <row r="471" spans="1:3" ht="15">
       <c r="A471" s="140"/>
       <c r="C471" s="180"/>
     </row>
-    <row r="472" spans="1:3" ht="14.5">
+    <row r="472" spans="1:3" ht="15">
       <c r="A472" s="140"/>
       <c r="C472" s="180"/>
     </row>
-    <row r="473" spans="1:3" ht="14.5">
+    <row r="473" spans="1:3" ht="15">
       <c r="A473" s="140"/>
       <c r="C473" s="180"/>
     </row>
-    <row r="474" spans="1:3" ht="14.5">
+    <row r="474" spans="1:3" ht="15">
       <c r="A474" s="140"/>
       <c r="C474" s="180"/>
     </row>
-    <row r="475" spans="1:3" ht="14.5">
+    <row r="475" spans="1:3" ht="15">
       <c r="A475" s="140"/>
       <c r="C475" s="180"/>
     </row>
-    <row r="476" spans="1:3" ht="14.5">
+    <row r="476" spans="1:3" ht="15">
       <c r="A476" s="140"/>
       <c r="C476" s="180"/>
     </row>
-    <row r="477" spans="1:3" ht="14.5">
+    <row r="477" spans="1:3" ht="15">
       <c r="A477" s="140"/>
       <c r="C477" s="180"/>
     </row>
-    <row r="478" spans="1:3" ht="14.5">
+    <row r="478" spans="1:3" ht="15">
       <c r="A478" s="140"/>
       <c r="C478" s="180"/>
     </row>
-    <row r="479" spans="1:3" ht="14.5">
+    <row r="479" spans="1:3" ht="15">
       <c r="A479" s="140"/>
       <c r="C479" s="180"/>
     </row>
-    <row r="480" spans="1:3" ht="14.5">
+    <row r="480" spans="1:3" ht="15">
       <c r="A480" s="140"/>
       <c r="C480" s="180"/>
     </row>
-    <row r="481" spans="1:3" ht="14.5">
+    <row r="481" spans="1:3" ht="15">
       <c r="A481" s="140"/>
       <c r="C481" s="180"/>
     </row>
-    <row r="482" spans="1:3" ht="14.5">
+    <row r="482" spans="1:3" ht="15">
       <c r="A482" s="140"/>
       <c r="C482" s="180"/>
     </row>
-    <row r="483" spans="1:3" ht="14.5">
+    <row r="483" spans="1:3" ht="15">
       <c r="A483" s="140"/>
       <c r="C483" s="180"/>
     </row>
-    <row r="484" spans="1:3" ht="14.5">
+    <row r="484" spans="1:3" ht="15">
       <c r="A484" s="140"/>
       <c r="C484" s="180"/>
     </row>
-    <row r="485" spans="1:3" ht="14.5">
+    <row r="485" spans="1:3" ht="15">
       <c r="A485" s="140"/>
       <c r="C485" s="180"/>
     </row>
-    <row r="486" spans="1:3" ht="14.5">
+    <row r="486" spans="1:3" ht="15">
       <c r="A486" s="140"/>
       <c r="C486" s="180"/>
     </row>
-    <row r="487" spans="1:3" ht="14.5">
+    <row r="487" spans="1:3" ht="15">
       <c r="A487" s="177"/>
       <c r="C487" s="179"/>
     </row>
-    <row r="488" spans="1:3" ht="14.5">
+    <row r="488" spans="1:3" ht="15">
       <c r="A488" s="140"/>
       <c r="C488" s="180"/>
     </row>
-    <row r="489" spans="1:3" ht="14.5">
+    <row r="489" spans="1:3" ht="15">
       <c r="A489" s="140"/>
       <c r="C489" s="180"/>
     </row>
-    <row r="490" spans="1:3" ht="14.5">
+    <row r="490" spans="1:3" ht="15">
       <c r="A490" s="140"/>
       <c r="C490" s="180"/>
     </row>
-    <row r="491" spans="1:3" ht="14.5">
+    <row r="491" spans="1:3" ht="15">
       <c r="A491" s="140"/>
       <c r="C491" s="180"/>
     </row>
-    <row r="492" spans="1:3" ht="14.5">
+    <row r="492" spans="1:3" ht="15">
       <c r="A492" s="140"/>
       <c r="C492" s="181"/>
     </row>
-    <row r="493" spans="1:3" ht="14.5">
+    <row r="493" spans="1:3" ht="15">
       <c r="A493" s="177"/>
       <c r="C493" s="179"/>
     </row>
-    <row r="494" spans="1:3" ht="14.5">
+    <row r="494" spans="1:3" ht="15">
       <c r="A494" s="140"/>
       <c r="C494" s="180"/>
     </row>
-    <row r="495" spans="1:3" ht="14.5">
+    <row r="495" spans="1:3" ht="15">
       <c r="A495" s="140"/>
       <c r="C495" s="180"/>
     </row>
-    <row r="496" spans="1:3" ht="14.5">
+    <row r="496" spans="1:3" ht="15">
       <c r="A496" s="140"/>
       <c r="C496" s="180"/>
     </row>
-    <row r="497" spans="1:3" ht="14.5">
+    <row r="497" spans="1:3" ht="15">
       <c r="A497" s="140"/>
       <c r="C497" s="180"/>
     </row>
-    <row r="498" spans="1:3" ht="14.5">
+    <row r="498" spans="1:3" ht="15">
       <c r="A498" s="140"/>
       <c r="C498" s="181"/>
     </row>
-    <row r="499" spans="1:3" ht="14.5">
+    <row r="499" spans="1:3" ht="15">
       <c r="A499" s="177"/>
       <c r="C499" s="179"/>
     </row>
-    <row r="500" spans="1:3" ht="14.5">
+    <row r="500" spans="1:3" ht="15">
       <c r="A500" s="140"/>
       <c r="C500" s="180"/>
     </row>
-    <row r="501" spans="1:3" ht="14.5">
+    <row r="501" spans="1:3" ht="15">
       <c r="A501" s="140"/>
       <c r="C501" s="180"/>
     </row>
-    <row r="502" spans="1:3" ht="14.5">
+    <row r="502" spans="1:3" ht="15">
       <c r="A502" s="140"/>
       <c r="C502" s="180"/>
     </row>
-    <row r="503" spans="1:3" ht="14.5">
+    <row r="503" spans="1:3" ht="15">
       <c r="A503" s="140"/>
       <c r="C503" s="180"/>
     </row>
-    <row r="504" spans="1:3" ht="14.5">
+    <row r="504" spans="1:3" ht="15">
       <c r="A504" s="140"/>
       <c r="C504" s="180"/>
     </row>
-    <row r="505" spans="1:3" ht="14.5">
+    <row r="505" spans="1:3" ht="15">
       <c r="A505" s="140"/>
       <c r="C505" s="180"/>
     </row>
-    <row r="506" spans="1:3" ht="14.5">
+    <row r="506" spans="1:3" ht="15">
       <c r="A506" s="140"/>
       <c r="C506" s="180"/>
     </row>
-    <row r="507" spans="1:3" ht="14.5">
+    <row r="507" spans="1:3" ht="15">
       <c r="A507" s="140"/>
       <c r="C507" s="180"/>
     </row>
-    <row r="508" spans="1:3" ht="14.5">
+    <row r="508" spans="1:3" ht="15">
       <c r="A508" s="140"/>
       <c r="C508" s="180"/>
     </row>
-    <row r="509" spans="1:3" ht="14.5">
+    <row r="509" spans="1:3" ht="15">
       <c r="A509" s="140"/>
       <c r="C509" s="180"/>
     </row>
-    <row r="510" spans="1:3" ht="14.5">
+    <row r="510" spans="1:3" ht="15">
       <c r="A510" s="140"/>
       <c r="C510" s="180"/>
     </row>
-    <row r="511" spans="1:3" ht="14.5">
+    <row r="511" spans="1:3" ht="15">
       <c r="A511" s="140"/>
       <c r="C511" s="180"/>
     </row>
-    <row r="512" spans="1:3" ht="14.5">
+    <row r="512" spans="1:3" ht="15">
       <c r="A512" s="140"/>
       <c r="C512" s="180"/>
     </row>
-    <row r="513" spans="1:3" ht="14.5">
+    <row r="513" spans="1:3" ht="15">
       <c r="A513" s="140"/>
       <c r="C513" s="180"/>
     </row>
-    <row r="514" spans="1:3" ht="14.5">
+    <row r="514" spans="1:3" ht="15">
       <c r="A514" s="140"/>
       <c r="C514" s="180"/>
     </row>
-    <row r="515" spans="1:3" ht="14.5">
+    <row r="515" spans="1:3" ht="15">
       <c r="A515" s="140"/>
       <c r="C515" s="180"/>
     </row>
-    <row r="516" spans="1:3" ht="14.5">
+    <row r="516" spans="1:3" ht="15">
       <c r="A516" s="140"/>
       <c r="C516" s="180"/>
     </row>
-    <row r="517" spans="1:3" ht="14.5">
+    <row r="517" spans="1:3" ht="15">
       <c r="A517" s="140"/>
       <c r="C517" s="180"/>
     </row>
-    <row r="518" spans="1:3" ht="14.5">
+    <row r="518" spans="1:3" ht="15">
       <c r="A518" s="140"/>
       <c r="C518" s="181"/>
     </row>
-    <row r="519" spans="1:3" ht="14.5">
+    <row r="519" spans="1:3" ht="15">
       <c r="A519" s="140"/>
       <c r="C519" s="180"/>
     </row>
-    <row r="520" spans="1:3" ht="14.5">
+    <row r="520" spans="1:3" ht="15">
       <c r="A520" s="140"/>
       <c r="C520" s="180"/>
     </row>
-    <row r="521" spans="1:3" ht="14.5">
+    <row r="521" spans="1:3" ht="15">
       <c r="A521" s="140"/>
       <c r="C521" s="180"/>
     </row>
-    <row r="522" spans="1:3" ht="14.5">
+    <row r="522" spans="1:3" ht="15">
       <c r="A522" s="140"/>
       <c r="C522" s="180"/>
     </row>
-    <row r="523" spans="1:3" ht="14.5">
+    <row r="523" spans="1:3" ht="15">
       <c r="A523" s="140"/>
       <c r="C523" s="180"/>
     </row>
-    <row r="524" spans="1:3" ht="14.5">
+    <row r="524" spans="1:3" ht="15">
       <c r="A524" s="140"/>
       <c r="C524" s="180"/>
     </row>
-    <row r="525" spans="1:3" ht="14.5">
+    <row r="525" spans="1:3" ht="15">
       <c r="A525" s="140"/>
       <c r="C525" s="180"/>
     </row>
-    <row r="526" spans="1:3" ht="14.5">
+    <row r="526" spans="1:3" ht="15">
       <c r="A526" s="140"/>
       <c r="C526" s="180"/>
     </row>
-    <row r="527" spans="1:3" ht="14.5">
+    <row r="527" spans="1:3" ht="15">
       <c r="A527" s="140"/>
       <c r="C527" s="181"/>
     </row>
-    <row r="528" spans="1:3" ht="14.5">
+    <row r="528" spans="1:3" ht="15">
       <c r="A528" s="177"/>
       <c r="C528" s="179"/>
     </row>
-    <row r="529" spans="1:3" ht="14.5">
+    <row r="529" spans="1:3" ht="15">
       <c r="A529" s="140"/>
       <c r="C529" s="180"/>
     </row>
-    <row r="530" spans="1:3" ht="14.5">
+    <row r="530" spans="1:3" ht="15">
       <c r="A530" s="140"/>
       <c r="C530" s="180"/>
     </row>
-    <row r="531" spans="1:3" ht="14.5">
+    <row r="531" spans="1:3" ht="15">
       <c r="A531" s="140"/>
       <c r="C531" s="180"/>
     </row>
-    <row r="532" spans="1:3" ht="14.5">
+    <row r="532" spans="1:3" ht="15">
       <c r="A532" s="140"/>
       <c r="C532" s="180"/>
     </row>
-    <row r="533" spans="1:3" ht="14.5">
+    <row r="533" spans="1:3" ht="15">
       <c r="A533" s="140"/>
       <c r="C533" s="180"/>
     </row>
-    <row r="534" spans="1:3" ht="14.5">
+    <row r="534" spans="1:3" ht="15">
       <c r="A534" s="140"/>
       <c r="C534" s="180"/>
     </row>
-    <row r="535" spans="1:3" ht="14.5">
+    <row r="535" spans="1:3" ht="15">
       <c r="A535" s="140"/>
       <c r="C535" s="180"/>
     </row>
-    <row r="536" spans="1:3" ht="14.5">
+    <row r="536" spans="1:3" ht="15">
       <c r="A536" s="140"/>
       <c r="C536" s="180"/>
     </row>
-    <row r="537" spans="1:3" ht="14.5">
+    <row r="537" spans="1:3" ht="15">
       <c r="A537" s="140"/>
       <c r="C537" s="180"/>
     </row>
-    <row r="538" spans="1:3" ht="14.5">
+    <row r="538" spans="1:3" ht="15">
       <c r="A538" s="140"/>
       <c r="C538" s="180"/>
     </row>
-    <row r="539" spans="1:3" ht="14.5">
+    <row r="539" spans="1:3" ht="15">
       <c r="A539" s="140"/>
       <c r="C539" s="180"/>
     </row>
-    <row r="540" spans="1:3" ht="14.5">
+    <row r="540" spans="1:3" ht="15">
       <c r="A540" s="140"/>
       <c r="C540" s="180"/>
     </row>
-    <row r="541" spans="1:3" ht="14.5">
+    <row r="541" spans="1:3" ht="15">
       <c r="A541" s="140"/>
       <c r="C541" s="180"/>
     </row>
-    <row r="542" spans="1:3" ht="14.5">
+    <row r="542" spans="1:3" ht="15">
       <c r="A542" s="140"/>
       <c r="C542" s="180"/>
     </row>
-    <row r="543" spans="1:3" ht="14.5">
+    <row r="543" spans="1:3" ht="15">
       <c r="A543" s="140"/>
       <c r="C543" s="183"/>
     </row>
-    <row r="544" spans="1:3" ht="14.5">
+    <row r="544" spans="1:3" ht="15">
       <c r="A544" s="177"/>
       <c r="C544" s="184"/>
     </row>
-    <row r="545" spans="1:3" ht="14.5">
+    <row r="545" spans="1:3" ht="15">
       <c r="A545" s="140"/>
       <c r="C545" s="180"/>
     </row>
-    <row r="546" spans="1:3" ht="14.5">
+    <row r="546" spans="1:3" ht="15">
       <c r="A546" s="140"/>
       <c r="C546" s="180"/>
     </row>
-    <row r="547" spans="1:3" ht="14.5">
+    <row r="547" spans="1:3" ht="15">
       <c r="A547" s="140"/>
       <c r="C547" s="180"/>
     </row>
-    <row r="548" spans="1:3" ht="14.5">
+    <row r="548" spans="1:3" ht="15">
       <c r="A548" s="140"/>
       <c r="C548" s="181"/>
     </row>
-    <row r="549" spans="1:3" ht="14.5">
+    <row r="549" spans="1:3" ht="15">
       <c r="A549" s="177"/>
       <c r="C549" s="179"/>
     </row>
-    <row r="550" spans="1:3" ht="14.5">
+    <row r="550" spans="1:3" ht="15">
       <c r="A550" s="140"/>
       <c r="C550" s="180"/>
     </row>
-    <row r="551" spans="1:3" ht="14.5">
+    <row r="551" spans="1:3" ht="15">
       <c r="A551" s="140"/>
       <c r="C551" s="180"/>
     </row>
-    <row r="552" spans="1:3" ht="14.5">
+    <row r="552" spans="1:3" ht="15">
       <c r="A552" s="140"/>
       <c r="C552" s="180"/>
     </row>
-    <row r="553" spans="1:3" ht="14.5">
+    <row r="553" spans="1:3" ht="15">
       <c r="A553" s="140"/>
       <c r="C553" s="181"/>
     </row>
-    <row r="554" spans="1:3" ht="14.5">
+    <row r="554" spans="1:3" ht="15">
       <c r="A554" s="177"/>
       <c r="C554" s="179"/>
     </row>
-    <row r="555" spans="1:3" ht="14.5">
+    <row r="555" spans="1:3" ht="15">
       <c r="A555" s="140"/>
       <c r="C555" s="180"/>
     </row>
-    <row r="556" spans="1:3" ht="14.5">
+    <row r="556" spans="1:3" ht="15">
       <c r="A556" s="140"/>
       <c r="C556" s="180"/>
     </row>
-    <row r="557" spans="1:3" ht="14.5">
+    <row r="557" spans="1:3" ht="15">
       <c r="A557" s="140"/>
       <c r="C557" s="180"/>
     </row>
-    <row r="558" spans="1:3" ht="14.5">
+    <row r="558" spans="1:3" ht="15">
       <c r="A558" s="140"/>
       <c r="C558" s="180"/>
     </row>
-    <row r="559" spans="1:3" ht="14.5">
+    <row r="559" spans="1:3" ht="15">
       <c r="A559" s="140"/>
       <c r="C559" s="180"/>
     </row>
-    <row r="560" spans="1:3" ht="14.5">
+    <row r="560" spans="1:3" ht="15">
       <c r="A560" s="140"/>
       <c r="C560" s="180"/>
     </row>
-    <row r="561" spans="1:3" ht="14.5">
+    <row r="561" spans="1:3" ht="15">
       <c r="A561" s="140"/>
       <c r="C561" s="180"/>
     </row>
-    <row r="562" spans="1:3" ht="14.5">
+    <row r="562" spans="1:3" ht="15">
       <c r="A562" s="140"/>
       <c r="C562" s="180"/>
     </row>
-    <row r="563" spans="1:3" ht="14.5">
+    <row r="563" spans="1:3" ht="15">
       <c r="A563" s="140"/>
       <c r="C563" s="180"/>
     </row>
-    <row r="564" spans="1:3" ht="14.5">
+    <row r="564" spans="1:3" ht="15">
       <c r="A564" s="140"/>
       <c r="C564" s="180"/>
     </row>
-    <row r="565" spans="1:3" ht="14.5">
+    <row r="565" spans="1:3" ht="15">
       <c r="A565" s="140"/>
       <c r="C565" s="180"/>
     </row>
-    <row r="566" spans="1:3" ht="14.5">
+    <row r="566" spans="1:3" ht="15">
       <c r="A566" s="140"/>
       <c r="C566" s="180"/>
     </row>
-    <row r="567" spans="1:3" ht="14.5">
+    <row r="567" spans="1:3" ht="15">
       <c r="A567" s="140"/>
       <c r="C567" s="180"/>
     </row>
-    <row r="568" spans="1:3" ht="14.5">
+    <row r="568" spans="1:3" ht="15">
       <c r="A568" s="140"/>
       <c r="C568" s="180"/>
     </row>
-    <row r="569" spans="1:3" ht="14.5">
+    <row r="569" spans="1:3" ht="15">
       <c r="A569" s="140"/>
       <c r="C569" s="180"/>
     </row>
-    <row r="570" spans="1:3" ht="14.5">
+    <row r="570" spans="1:3" ht="15">
       <c r="A570" s="140"/>
       <c r="C570" s="180"/>
     </row>
-    <row r="571" spans="1:3" ht="14.5">
+    <row r="571" spans="1:3" ht="15">
       <c r="A571" s="140"/>
       <c r="C571" s="180"/>
     </row>
-    <row r="572" spans="1:3" ht="14.5">
+    <row r="572" spans="1:3" ht="15">
       <c r="A572" s="140"/>
       <c r="C572" s="180"/>
     </row>
-    <row r="573" spans="1:3" ht="14.5">
+    <row r="573" spans="1:3" ht="15">
       <c r="A573" s="140"/>
       <c r="C573" s="180"/>
     </row>
-    <row r="574" spans="1:3" ht="14.5">
+    <row r="574" spans="1:3" ht="15">
       <c r="A574" s="140"/>
       <c r="C574" s="180"/>
     </row>
-    <row r="575" spans="1:3" ht="14.5">
+    <row r="575" spans="1:3" ht="15">
       <c r="A575" s="140"/>
       <c r="C575" s="180"/>
     </row>
-    <row r="576" spans="1:3" ht="14.5">
+    <row r="576" spans="1:3" ht="15">
       <c r="A576" s="140"/>
       <c r="C576" s="180"/>
     </row>
-    <row r="577" spans="1:3" ht="14.5">
+    <row r="577" spans="1:3" ht="15">
       <c r="A577" s="140"/>
       <c r="C577" s="180"/>
     </row>
-    <row r="578" spans="1:3" ht="14.5">
+    <row r="578" spans="1:3" ht="15">
       <c r="A578" s="140"/>
       <c r="C578" s="180"/>
     </row>
-    <row r="579" spans="1:3" ht="14.5">
+    <row r="579" spans="1:3" ht="15">
       <c r="A579" s="140"/>
       <c r="C579" s="180"/>
     </row>
-    <row r="580" spans="1:3" ht="14.5">
+    <row r="580" spans="1:3" ht="15">
       <c r="A580" s="140"/>
       <c r="C580" s="180"/>
     </row>
-    <row r="581" spans="1:3" ht="14.5">
+    <row r="581" spans="1:3" ht="15">
       <c r="A581" s="140"/>
       <c r="C581" s="180"/>
     </row>
-    <row r="582" spans="1:3" ht="14.5">
+    <row r="582" spans="1:3" ht="15">
       <c r="A582" s="140"/>
       <c r="C582" s="180"/>
     </row>
-    <row r="583" spans="1:3" ht="14.5">
+    <row r="583" spans="1:3" ht="15">
       <c r="A583" s="140"/>
       <c r="C583" s="180"/>
     </row>
-    <row r="584" spans="1:3" ht="14.5">
+    <row r="584" spans="1:3" ht="15">
       <c r="A584" s="140"/>
       <c r="C584" s="180"/>
     </row>
-    <row r="585" spans="1:3" ht="14.5">
+    <row r="585" spans="1:3" ht="15">
       <c r="A585" s="140"/>
       <c r="C585" s="180"/>
     </row>
-    <row r="586" spans="1:3" ht="14.5">
+    <row r="586" spans="1:3" ht="15">
       <c r="A586" s="140"/>
       <c r="C586" s="180"/>
     </row>
-    <row r="587" spans="1:3" ht="14.5">
+    <row r="587" spans="1:3" ht="15">
       <c r="A587" s="140"/>
       <c r="C587" s="180"/>
     </row>
-    <row r="588" spans="1:3" ht="14.5">
+    <row r="588" spans="1:3" ht="15">
       <c r="A588" s="140"/>
       <c r="C588" s="180"/>
     </row>
-    <row r="589" spans="1:3" ht="14.5">
+    <row r="589" spans="1:3" ht="15">
       <c r="A589" s="140"/>
       <c r="C589" s="180"/>
     </row>
-    <row r="590" spans="1:3" ht="14.5">
+    <row r="590" spans="1:3" ht="15">
       <c r="A590" s="140"/>
       <c r="C590" s="180"/>
     </row>
-    <row r="591" spans="1:3" ht="14.5">
+    <row r="591" spans="1:3" ht="15">
       <c r="A591" s="140"/>
       <c r="C591" s="180"/>
     </row>
-    <row r="592" spans="1:3" ht="14.5">
+    <row r="592" spans="1:3" ht="15">
       <c r="A592" s="140"/>
       <c r="C592" s="180"/>
     </row>
-    <row r="593" spans="1:3" ht="14.5">
+    <row r="593" spans="1:3" ht="15">
       <c r="A593" s="140"/>
       <c r="C593" s="180"/>
     </row>
-    <row r="594" spans="1:3" ht="14.5">
+    <row r="594" spans="1:3" ht="15">
       <c r="A594" s="140"/>
       <c r="C594" s="180"/>
     </row>
-    <row r="595" spans="1:3" ht="14.5">
+    <row r="595" spans="1:3" ht="15">
       <c r="A595" s="140"/>
       <c r="C595" s="180"/>
     </row>
-    <row r="596" spans="1:3" ht="14.5">
+    <row r="596" spans="1:3" ht="15">
       <c r="A596" s="140"/>
       <c r="C596" s="180"/>
     </row>
-    <row r="597" spans="1:3" ht="14.5">
+    <row r="597" spans="1:3" ht="15">
       <c r="A597" s="140"/>
       <c r="C597" s="180"/>
     </row>
-    <row r="598" spans="1:3" ht="14.5">
+    <row r="598" spans="1:3" ht="15">
       <c r="A598" s="140"/>
       <c r="C598" s="180"/>
     </row>
-    <row r="599" spans="1:3" ht="14.5">
+    <row r="599" spans="1:3" ht="15">
       <c r="A599" s="140"/>
       <c r="C599" s="180"/>
     </row>
-    <row r="600" spans="1:3" ht="14.5">
+    <row r="600" spans="1:3" ht="15">
       <c r="A600" s="140"/>
       <c r="C600" s="180"/>
     </row>
-    <row r="601" spans="1:3" ht="14.5">
+    <row r="601" spans="1:3" ht="15">
       <c r="A601" s="140"/>
       <c r="C601" s="180"/>
     </row>
-    <row r="602" spans="1:3" ht="14.5">
+    <row r="602" spans="1:3" ht="15">
       <c r="A602" s="140"/>
       <c r="C602" s="180"/>
     </row>
-    <row r="603" spans="1:3" ht="14.5">
+    <row r="603" spans="1:3" ht="15">
       <c r="A603" s="140"/>
       <c r="C603" s="180"/>
     </row>
-    <row r="604" spans="1:3" ht="14.5">
+    <row r="604" spans="1:3" ht="15">
       <c r="A604" s="140"/>
       <c r="C604" s="180"/>
     </row>
-    <row r="605" spans="1:3" ht="14.5">
+    <row r="605" spans="1:3" ht="15">
       <c r="A605" s="140"/>
       <c r="C605" s="180"/>
     </row>
-    <row r="606" spans="1:3" ht="14.5">
+    <row r="606" spans="1:3" ht="15">
       <c r="A606" s="140"/>
       <c r="C606" s="180"/>
     </row>
-    <row r="607" spans="1:3" ht="14.5">
+    <row r="607" spans="1:3" ht="15">
       <c r="A607" s="140"/>
       <c r="C607" s="180"/>
     </row>
-    <row r="608" spans="1:3" ht="14.5">
+    <row r="608" spans="1:3" ht="15">
       <c r="A608" s="140"/>
       <c r="C608" s="180"/>
     </row>
-    <row r="609" spans="1:3" ht="14.5">
+    <row r="609" spans="1:3" ht="15">
       <c r="A609" s="140"/>
       <c r="C609" s="180"/>
     </row>
-    <row r="610" spans="1:3" ht="14.5">
+    <row r="610" spans="1:3" ht="15">
       <c r="A610" s="140"/>
       <c r="C610" s="181"/>
     </row>
-    <row r="611" spans="1:3" ht="14.5">
+    <row r="611" spans="1:3" ht="15">
       <c r="A611" s="177"/>
       <c r="C611" s="179"/>
     </row>
-    <row r="612" spans="1:3" ht="14.5">
+    <row r="612" spans="1:3" ht="15">
       <c r="A612" s="140"/>
       <c r="C612" s="180"/>
     </row>
-    <row r="613" spans="1:3" ht="14.5">
+    <row r="613" spans="1:3" ht="15">
       <c r="A613" s="140"/>
       <c r="C613" s="180"/>
     </row>
-    <row r="614" spans="1:3" ht="14.5">
+    <row r="614" spans="1:3" ht="15">
       <c r="A614" s="140"/>
       <c r="C614" s="180"/>
     </row>
-    <row r="615" spans="1:3" ht="14.5">
+    <row r="615" spans="1:3" ht="15">
       <c r="A615" s="140"/>
       <c r="C615" s="180"/>
     </row>
-    <row r="616" spans="1:3" ht="14.5">
+    <row r="616" spans="1:3" ht="15">
       <c r="A616" s="140"/>
       <c r="C616" s="180"/>
     </row>
-    <row r="617" spans="1:3" ht="14.5">
+    <row r="617" spans="1:3" ht="15">
       <c r="A617" s="140"/>
       <c r="C617" s="180"/>
     </row>
-    <row r="618" spans="1:3" ht="14.5">
+    <row r="618" spans="1:3" ht="15">
       <c r="A618" s="140"/>
       <c r="C618" s="180"/>
     </row>
-    <row r="619" spans="1:3" ht="14.5">
+    <row r="619" spans="1:3" ht="15">
       <c r="A619" s="140"/>
       <c r="C619" s="180"/>
     </row>
-    <row r="620" spans="1:3" ht="14.5">
+    <row r="620" spans="1:3" ht="15">
       <c r="A620" s="140"/>
       <c r="C620" s="180"/>
     </row>
-    <row r="621" spans="1:3" ht="14.5">
+    <row r="621" spans="1:3" ht="15">
       <c r="A621" s="140"/>
       <c r="C621" s="180"/>
     </row>
-    <row r="622" spans="1:3" ht="14.5">
+    <row r="622" spans="1:3" ht="15">
       <c r="A622" s="140"/>
       <c r="C622" s="180"/>
     </row>
-    <row r="623" spans="1:3" ht="14.5">
+    <row r="623" spans="1:3" ht="15">
       <c r="A623" s="140"/>
       <c r="C623" s="180"/>
     </row>
-    <row r="624" spans="1:3" ht="14.5">
+    <row r="624" spans="1:3" ht="15">
       <c r="A624" s="140"/>
       <c r="C624" s="181"/>
     </row>
-    <row r="625" spans="1:4" ht="14.5">
+    <row r="625" spans="1:4" ht="15">
       <c r="A625" s="177"/>
       <c r="C625" s="179"/>
     </row>
-    <row r="626" spans="1:4" ht="14.5">
+    <row r="626" spans="1:4" ht="15">
       <c r="A626" s="140"/>
       <c r="C626" s="180"/>
     </row>
-    <row r="627" spans="1:4" ht="14.5">
+    <row r="627" spans="1:4" ht="15">
       <c r="A627" s="140"/>
       <c r="C627" s="180"/>
     </row>
-    <row r="628" spans="1:4" ht="14.5">
+    <row r="628" spans="1:4" ht="15">
       <c r="A628" s="140"/>
       <c r="C628" s="180"/>
     </row>
-    <row r="629" spans="1:4" ht="14.5">
+    <row r="629" spans="1:4" ht="15">
       <c r="A629" s="140"/>
       <c r="C629" s="180"/>
     </row>
-    <row r="630" spans="1:4" ht="14.5">
+    <row r="630" spans="1:4" ht="15">
       <c r="A630" s="140"/>
       <c r="C630" s="180"/>
     </row>
-    <row r="631" spans="1:4" ht="14.5">
+    <row r="631" spans="1:4" ht="15">
       <c r="A631" s="140"/>
       <c r="C631" s="180"/>
     </row>
-    <row r="632" spans="1:4" ht="14.5">
+    <row r="632" spans="1:4" ht="15">
       <c r="A632" s="140"/>
       <c r="C632" s="180"/>
     </row>
-    <row r="633" spans="1:4" ht="14.5">
+    <row r="633" spans="1:4" ht="15">
       <c r="A633" s="140"/>
       <c r="C633" s="180"/>
     </row>
-    <row r="634" spans="1:4" ht="14.5">
+    <row r="634" spans="1:4" ht="15">
       <c r="A634" s="140"/>
       <c r="C634" s="180"/>
     </row>
-    <row r="635" spans="1:4" ht="14.5">
+    <row r="635" spans="1:4" ht="15">
       <c r="A635" s="140"/>
       <c r="C635" s="180"/>
     </row>
-    <row r="636" spans="1:4" ht="14.5">
+    <row r="636" spans="1:4" ht="15">
       <c r="A636" s="140"/>
       <c r="C636" s="180"/>
     </row>
-    <row r="637" spans="1:4" ht="14.5">
+    <row r="637" spans="1:4" ht="15">
       <c r="A637" s="140"/>
       <c r="C637" s="181"/>
     </row>
@@ -19263,7 +19193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
@@ -19271,22 +19201,22 @@
       <selection activeCell="A4" sqref="A4:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="32.453125" customWidth="1"/>
-    <col min="6" max="6" width="24.7265625" customWidth="1"/>
-    <col min="7" max="7" width="43.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.26953125" customWidth="1"/>
-    <col min="9" max="9" width="31.453125" customWidth="1"/>
-    <col min="10" max="10" width="21.7265625" customWidth="1"/>
-    <col min="11" max="11" width="6.26953125" customWidth="1"/>
-    <col min="12" max="1025" width="8.26953125" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="32.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="12" max="1025" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="29.5">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="36">
       <c r="A1" s="69" t="s">
         <v>134</v>
       </c>
@@ -19304,7 +19234,7 @@
       <c r="G1" s="73"/>
       <c r="H1" s="186"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="65.5">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="75">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -19328,7 +19258,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.5">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="74" t="s">
         <v>32</v>
       </c>
@@ -19355,105 +19285,105 @@
       </c>
       <c r="I3" s="68"/>
     </row>
-    <row r="4" spans="1:9" ht="14.5">
+    <row r="4" spans="1:9" ht="15">
       <c r="E4" s="1"/>
       <c r="F4" s="187"/>
       <c r="G4" s="12"/>
       <c r="H4" s="127"/>
     </row>
-    <row r="5" spans="1:9" ht="14.5">
+    <row r="5" spans="1:9" ht="15">
       <c r="E5" s="1"/>
       <c r="F5" s="187"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:9" ht="14.5">
+    <row r="6" spans="1:9" ht="15">
       <c r="E6" s="1"/>
       <c r="F6" s="187"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:9" ht="14.5">
+    <row r="7" spans="1:9" ht="15">
       <c r="E7" s="1"/>
       <c r="F7" s="187"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:9" ht="14.5">
+    <row r="8" spans="1:9" ht="15">
       <c r="E8" s="1"/>
       <c r="F8" s="187"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:9" ht="14.5">
+    <row r="9" spans="1:9" ht="15">
       <c r="E9" s="1"/>
       <c r="F9" s="187"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:9" ht="14.5">
+    <row r="10" spans="1:9" ht="15">
       <c r="E10" s="1"/>
       <c r="F10" s="187"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:9" ht="14.5">
+    <row r="11" spans="1:9" ht="15">
       <c r="E11" s="1"/>
       <c r="F11" s="187"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:9" ht="14.5">
+    <row r="12" spans="1:9" ht="15">
       <c r="E12" s="1"/>
       <c r="F12" s="187"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:9" ht="14.5">
+    <row r="13" spans="1:9" ht="15">
       <c r="E13" s="1"/>
       <c r="F13" s="187"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:9" ht="14.5">
+    <row r="14" spans="1:9" ht="15">
       <c r="B14" s="108"/>
       <c r="D14" s="143"/>
       <c r="E14" s="1"/>
       <c r="F14" s="187"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:9" ht="14.5">
+    <row r="15" spans="1:9" ht="15">
       <c r="B15" s="108"/>
       <c r="E15" s="1"/>
       <c r="F15" s="187"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:9" ht="14.5">
+    <row r="16" spans="1:9" ht="15">
       <c r="B16" s="108"/>
       <c r="E16" s="1"/>
       <c r="F16" s="187"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="2:8" ht="14.5">
+    <row r="17" spans="2:8" ht="15">
       <c r="B17" s="108"/>
       <c r="E17" s="1"/>
       <c r="F17" s="187"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="2:8" ht="14.5">
+    <row r="18" spans="2:8" ht="15">
       <c r="E18" s="1"/>
       <c r="F18" s="187"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="2:8" ht="14.5">
+    <row r="19" spans="2:8" ht="15">
       <c r="C19" s="36"/>
       <c r="E19" s="1"/>
       <c r="F19" s="187"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="2:8" ht="14.5">
+    <row r="20" spans="2:8" ht="15">
       <c r="E20" s="1"/>
       <c r="F20" s="187"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="2:8" ht="14.5">
+    <row r="21" spans="2:8" ht="15">
       <c r="B21" s="108"/>
       <c r="E21" s="1"/>
       <c r="F21" s="187"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="2:8" ht="14.5">
+    <row r="22" spans="2:8" ht="15">
       <c r="E22" s="1"/>
       <c r="H22" s="187"/>
     </row>
@@ -19516,6 +19446,138 @@
     <row r="37" spans="5:7">
       <c r="E37" s="1"/>
       <c r="G37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;6&amp;KFF0000 Classification: Controlled</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" customWidth="1"/>
+    <col min="9" max="1023" width="8.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="84"/>
+    </row>
+    <row r="2" spans="1:8" ht="89.25">
+      <c r="A2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="126" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15">
+      <c r="A3" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="127" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="127" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15">
+      <c r="D4"/>
+      <c r="E4" s="1"/>
+      <c r="G4" s="68"/>
+    </row>
+    <row r="5" spans="1:8" ht="15">
+      <c r="D5" s="111"/>
+      <c r="E5" s="1"/>
+      <c r="G5" s="68"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.25">
+      <c r="D6" s="112"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="15">
+      <c r="D7"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="187"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.25">
+      <c r="B8" s="108"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="108"/>
+      <c r="D9"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="D10"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="D11"/>
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -19527,66 +19589,70 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" customWidth="1"/>
-    <col min="2" max="2" width="31.7265625" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.453125" customWidth="1"/>
-    <col min="9" max="1023" width="8.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="8" max="1023" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.5">
-      <c r="A1" s="80" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="81" t="s">
+    <row r="1" spans="1:15" ht="36">
+      <c r="A1" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="84"/>
-    </row>
-    <row r="2" spans="1:8" ht="91">
+      <c r="E1" s="39"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:15" ht="90">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="126" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="123" t="s">
         <v>170</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.5">
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+    </row>
+    <row r="3" spans="1:15" ht="15">
       <c r="A3" s="74" t="s">
         <v>32</v>
       </c>
@@ -19602,52 +19668,54 @@
       <c r="E3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="127" t="s">
-        <v>51</v>
+      <c r="F3" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="127" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.5">
-      <c r="D4"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="E4" s="1"/>
-      <c r="G4" s="68"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.5">
-      <c r="D5" s="111"/>
+    </row>
+    <row r="5" spans="1:15" ht="15">
       <c r="E5" s="1"/>
-      <c r="G5" s="68"/>
-    </row>
-    <row r="6" spans="1:8" ht="14">
-      <c r="D6" s="112"/>
+      <c r="F5" s="187"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="14.5">
-      <c r="D7"/>
+    <row r="7" spans="1:15">
       <c r="E7" s="1"/>
-      <c r="F7" s="187"/>
-    </row>
-    <row r="8" spans="1:8" ht="14">
-      <c r="B8" s="108"/>
-      <c r="D8" s="112"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:15">
       <c r="B9" s="108"/>
-      <c r="D9"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="D10"/>
+    <row r="10" spans="1:15">
+      <c r="B10" s="108"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="D11"/>
+    <row r="11" spans="1:15">
+      <c r="B11" s="108"/>
       <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -19659,46 +19727,46 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:O13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD13"/>
+      <selection activeCell="A4" sqref="A4:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="26.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
-    <col min="3" max="3" width="32.453125" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="28.26953125" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" customWidth="1"/>
-    <col min="8" max="1023" width="11.453125"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="14" width="6.28515625" customWidth="1"/>
+    <col min="15" max="1023" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18">
-      <c r="A1" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="1:14" ht="18">
+      <c r="A1" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-    </row>
-    <row r="2" spans="1:15" ht="87">
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:14" ht="105">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -19706,7 +19774,7 @@
         <v>139</v>
       </c>
       <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="113" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="24" t="s">
@@ -19718,11 +19786,10 @@
       <c r="G2" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-    </row>
-    <row r="3" spans="1:15" ht="14.5">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="1:14" ht="15">
       <c r="A3" s="74" t="s">
         <v>32</v>
       </c>
@@ -19732,7 +19799,7 @@
       <c r="C3" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="114" t="s">
         <v>105</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -19751,41 +19818,41 @@
       <c r="L3" s="79"/>
       <c r="M3" s="79"/>
       <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:14">
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="14.5">
+    <row r="5" spans="1:14">
       <c r="E5" s="1"/>
-      <c r="F5" s="187"/>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:14">
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:14">
+      <c r="D7"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:14">
+      <c r="D8"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:14">
       <c r="B9" s="108"/>
+      <c r="D9"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:14">
       <c r="B10" s="108"/>
+      <c r="D10"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:15">
-      <c r="B11" s="108"/>
+    <row r="11" spans="1:14">
+      <c r="D11"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:14">
+      <c r="D12"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -19804,14 +19871,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="10.7265625" style="291" customWidth="1"/>
-    <col min="3" max="1025" width="11.1796875" style="287" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="287"/>
+    <col min="1" max="2" width="10.7109375" style="291" customWidth="1"/>
+    <col min="3" max="1025" width="11.140625" style="287" customWidth="1"/>
+    <col min="1026" max="16384" width="8.85546875" style="287"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.5">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="283" t="s">
         <v>362</v>
       </c>
@@ -19819,7 +19886,7 @@
       <c r="C1" s="285"/>
       <c r="D1" s="286"/>
     </row>
-    <row r="2" spans="1:4" ht="88.5">
+    <row r="2" spans="1:4" ht="102.75">
       <c r="A2" s="288" t="s">
         <v>353</v>
       </c>
@@ -19857,29 +19924,189 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:N12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E55ACB-56A8-B541-931E-FA903DDDD8CF}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="25.453125" customWidth="1"/>
-    <col min="8" max="14" width="6.26953125" customWidth="1"/>
-    <col min="15" max="1023" width="8.26953125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="133" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="133" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="133" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="133" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="133" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="133" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="133" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="133" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="133" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="133"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18">
+    <row r="1" spans="1:9" ht="18">
+      <c r="A1" s="128" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="129" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="130" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="131" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+    </row>
+    <row r="2" spans="1:9" ht="38.25">
+      <c r="A2" s="134"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="135" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="135" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="135" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="134" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+    </row>
+    <row r="3" spans="1:9" ht="15">
+      <c r="A3" s="136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="137" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="137" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="136" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="136" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="136" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" s="136" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15">
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+    </row>
+    <row r="5" spans="1:9" ht="15">
+      <c r="A5" s="138"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="139"/>
+    </row>
+    <row r="6" spans="1:9" ht="15">
+      <c r="A6" s="138"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="139"/>
+    </row>
+    <row r="7" spans="1:9" ht="15">
+      <c r="A7" s="138"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="139"/>
+    </row>
+    <row r="8" spans="1:9" ht="15">
+      <c r="A8" s="138"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="139"/>
+    </row>
+    <row r="9" spans="1:9" ht="15">
+      <c r="A9" s="138"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="139"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;6&amp;KFF0000 Classification: Controlled</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="1025" width="11.42578125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18">
       <c r="A1" s="35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>1</v>
@@ -19895,94 +20122,57 @@
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
-    </row>
-    <row r="2" spans="1:14" ht="87">
-      <c r="A2" s="24" t="s">
-        <v>26</v>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+    </row>
+    <row r="2" spans="1:11" ht="63.75">
+      <c r="A2" s="23" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="113" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="123" t="s">
-        <v>170</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="1:14" ht="14.5">
-      <c r="A3" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="114" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="D7"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="D8"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="108"/>
-      <c r="D9"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10" s="108"/>
-      <c r="D10"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="D11"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="D12"/>
-      <c r="E12" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" spans="1:11" ht="38.25">
+      <c r="A3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="85"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="17"/>
+      <c r="F4" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -19993,267 +20183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E55ACB-56A8-B541-931E-FA903DDDD8CF}">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12.5"/>
-  <cols>
-    <col min="1" max="1" width="13.26953125" style="133" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" style="133" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" style="133" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" style="133" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" style="133" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" style="133" customWidth="1"/>
-    <col min="7" max="7" width="22.7265625" style="133" customWidth="1"/>
-    <col min="8" max="8" width="15.7265625" style="133" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="133" customWidth="1"/>
-    <col min="10" max="16384" width="10.7265625" style="133"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="18">
-      <c r="A1" s="128" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="130" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="131" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-    </row>
-    <row r="2" spans="1:9" ht="39">
-      <c r="A2" s="134"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="135" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="135" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="135" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="134" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.5">
-      <c r="A3" s="136" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="136" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="137" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="137" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="136" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="136" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="136" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="I3" s="136" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.5">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.5">
-      <c r="A5" s="138"/>
-      <c r="B5" s="139"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="139"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.5">
-      <c r="A6" s="138"/>
-      <c r="B6" s="139"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="139"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.5">
-      <c r="A7" s="138"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="139"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.5">
-      <c r="A8" s="138"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="139"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.5">
-      <c r="A9" s="138"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="139"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;6&amp;KFF0000 Classification: Controlled</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
-  <cols>
-    <col min="1" max="2" width="11.453125"/>
-    <col min="3" max="3" width="35.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="1025" width="11.453125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="18">
-      <c r="A1" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-    </row>
-    <row r="2" spans="1:11" ht="65">
-      <c r="A2" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-    </row>
-    <row r="3" spans="1:11" ht="39">
-      <c r="A3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="85"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="17"/>
-      <c r="F4" s="31"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;6&amp;KFF0000 Classification: Controlled</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:IU148"/>
   <sheetViews>
@@ -20261,15 +20191,15 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="50.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.7265625" customWidth="1"/>
-    <col min="7" max="1025" width="8.26953125" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="7" max="1025" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="18" customHeight="1">
@@ -20537,7 +20467,7 @@
       <c r="IT1" s="36"/>
       <c r="IU1" s="36"/>
     </row>
-    <row r="2" spans="1:255" ht="175.5">
+    <row r="2" spans="1:255" ht="191.25">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
@@ -20804,7 +20734,7 @@
       <c r="IT2" s="36"/>
       <c r="IU2" s="36"/>
     </row>
-    <row r="3" spans="1:255" ht="13">
+    <row r="3" spans="1:255">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -21306,7 +21236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:IU10"/>
   <sheetViews>
@@ -21314,14 +21244,14 @@
       <selection activeCell="A4" sqref="A4:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="50.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" style="1" customWidth="1"/>
-    <col min="6" max="1025" width="8.26953125" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
+    <col min="6" max="1025" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="18" customHeight="1">
@@ -21589,7 +21519,7 @@
       <c r="IT1" s="36"/>
       <c r="IU1" s="36"/>
     </row>
-    <row r="2" spans="1:255" ht="78">
+    <row r="2" spans="1:255" ht="89.25">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -21856,7 +21786,7 @@
       <c r="IT2" s="36"/>
       <c r="IU2" s="36"/>
     </row>
-    <row r="3" spans="1:255" ht="13">
+    <row r="3" spans="1:255">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -21919,7 +21849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:D518"/>
   <sheetViews>
@@ -21927,14 +21857,14 @@
       <selection activeCell="A4" sqref="A4:XFD518"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" customWidth="1"/>
-    <col min="3" max="3" width="45.7265625" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" style="1" customWidth="1"/>
-    <col min="5" max="1011" width="8.26953125" customWidth="1"/>
-    <col min="1012" max="1016" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="1" customWidth="1"/>
+    <col min="5" max="1011" width="8.28515625" customWidth="1"/>
+    <col min="1012" max="1016" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -21951,7 +21881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="52">
+    <row r="2" spans="1:4" ht="51">
       <c r="A2" s="24" t="s">
         <v>153</v>
       </c>
@@ -21965,7 +21895,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13">
+    <row r="3" spans="1:4">
       <c r="A3" s="86" t="s">
         <v>162</v>
       </c>
@@ -23663,7 +23593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:D109"/>
   <sheetViews>
@@ -23671,12 +23601,12 @@
       <selection activeCell="A4" sqref="A4:XFD115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="45.7265625" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -23693,7 +23623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="52">
+    <row r="2" spans="1:4" ht="63.75">
       <c r="A2" s="24" t="s">
         <v>160</v>
       </c>
@@ -23707,7 +23637,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13">
+    <row r="3" spans="1:4">
       <c r="A3" s="86" t="s">
         <v>162</v>
       </c>
@@ -24092,7 +24022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -24100,12 +24030,12 @@
       <selection activeCell="A4" sqref="A4:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="53.7265625" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -24122,7 +24052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="52">
+    <row r="2" spans="1:4" ht="51">
       <c r="A2" s="24" t="s">
         <v>153</v>
       </c>
@@ -24136,7 +24066,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13">
+    <row r="3" spans="1:4">
       <c r="A3" s="86" t="s">
         <v>32</v>
       </c>
@@ -24300,17 +24230,17 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" style="133" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="133" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" style="133" customWidth="1"/>
-    <col min="4" max="4" width="28.453125" style="133" customWidth="1"/>
-    <col min="5" max="5" width="26.81640625" style="133" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" style="133" customWidth="1"/>
-    <col min="7" max="7" width="24.453125" style="133" customWidth="1"/>
-    <col min="8" max="1025" width="8.81640625" style="133" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="133"/>
+    <col min="1" max="1" width="16.140625" style="133" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="133" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="133" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" style="133" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="133" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="133" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="133" customWidth="1"/>
+    <col min="8" max="1025" width="8.85546875" style="133" customWidth="1"/>
+    <col min="1026" max="16384" width="8.85546875" style="133"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1">
@@ -24329,7 +24259,7 @@
       <c r="E1" s="240"/>
       <c r="F1" s="240"/>
     </row>
-    <row r="2" spans="1:6" s="236" customFormat="1" ht="39">
+    <row r="2" spans="1:6" s="236" customFormat="1" ht="38.25">
       <c r="A2" s="239" t="s">
         <v>4</v>
       </c>
@@ -24349,7 +24279,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.75" customHeight="1">
+    <row r="3" spans="1:6" ht="13.7" customHeight="1">
       <c r="A3" s="233" t="s">
         <v>9</v>
       </c>
@@ -24369,28 +24299,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.75" customHeight="1">
+    <row r="4" spans="1:6" ht="13.7" customHeight="1">
       <c r="A4" s="232"/>
       <c r="B4" s="232"/>
     </row>
-    <row r="5" spans="1:6" ht="13.75" customHeight="1">
+    <row r="5" spans="1:6" ht="13.7" customHeight="1">
       <c r="A5" s="232"/>
       <c r="B5" s="232"/>
     </row>
-    <row r="6" spans="1:6" ht="13.75" customHeight="1">
+    <row r="6" spans="1:6" ht="13.7" customHeight="1">
       <c r="A6" s="232"/>
       <c r="B6" s="232"/>
     </row>
-    <row r="7" spans="1:6" ht="13.75" customHeight="1">
+    <row r="7" spans="1:6" ht="13.7" customHeight="1">
       <c r="A7" s="232"/>
       <c r="B7" s="232"/>
     </row>
-    <row r="8" spans="1:6" ht="13.75" customHeight="1">
+    <row r="8" spans="1:6" ht="13.7" customHeight="1">
       <c r="A8" s="232"/>
       <c r="B8" s="232"/>
     </row>
-    <row r="9" spans="1:6" ht="13.75" customHeight="1"/>
-    <row r="10" spans="1:6" ht="13.75" customHeight="1"/>
+    <row r="9" spans="1:6" ht="13.7" customHeight="1"/>
+    <row r="10" spans="1:6" ht="13.7" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -24408,11 +24338,11 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="11.453125"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
-    <col min="4" max="1024" width="11.453125"/>
+    <col min="1" max="2" width="11.42578125"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="1024" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18">
@@ -24430,7 +24360,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="130">
+    <row r="2" spans="1:14" ht="127.5">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -24458,7 +24388,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" ht="13">
+    <row r="3" spans="1:14">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -24509,14 +24439,14 @@
       <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="11.453125"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="61.26953125" customWidth="1"/>
-    <col min="8" max="1025" width="11.453125"/>
+    <col min="7" max="7" width="61.28515625" customWidth="1"/>
+    <col min="8" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18">
@@ -24543,7 +24473,7 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
     </row>
-    <row r="2" spans="1:19" ht="182">
+    <row r="2" spans="1:19" ht="178.5">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -24577,7 +24507,7 @@
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
     </row>
-    <row r="3" spans="1:19" ht="39">
+    <row r="3" spans="1:19" ht="38.25">
       <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
@@ -24657,14 +24587,14 @@
       <selection activeCell="A4" sqref="A4:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="2" max="3" width="21.26953125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.453125"/>
-    <col min="6" max="6" width="35.26953125" customWidth="1"/>
-    <col min="7" max="1023" width="11.453125"/>
+    <col min="5" max="5" width="11.42578125"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
+    <col min="7" max="1023" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18">
@@ -24689,7 +24619,7 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>
-    <row r="2" spans="1:17" ht="91">
+    <row r="2" spans="1:17" ht="89.25">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -24715,7 +24645,7 @@
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
     </row>
-    <row r="3" spans="1:17" ht="26">
+    <row r="3" spans="1:17" ht="25.5">
       <c r="A3" s="28" t="s">
         <v>32</v>
       </c>
@@ -24817,19 +24747,19 @@
       <selection activeCell="A4" sqref="A4:XFD98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="23.26953125" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.7265625" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="26.26953125" customWidth="1"/>
-    <col min="11" max="1023" width="8.7265625" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" customWidth="1"/>
+    <col min="11" max="1023" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18">
@@ -24887,7 +24817,7 @@
       <c r="K2" s="36"/>
       <c r="L2" s="36"/>
     </row>
-    <row r="3" spans="1:16" ht="39">
+    <row r="3" spans="1:16" ht="38.25">
       <c r="A3" s="40" t="s">
         <v>32</v>
       </c>
@@ -24925,7 +24855,7 @@
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:16" ht="13">
+    <row r="4" spans="1:16">
       <c r="E4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="41"/>
@@ -24938,106 +24868,106 @@
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="1:16" ht="13">
+    <row r="5" spans="1:16">
       <c r="G5" s="1"/>
       <c r="H5" s="41"/>
       <c r="J5" s="42"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
     </row>
-    <row r="6" spans="1:16" ht="13">
+    <row r="6" spans="1:16">
       <c r="G6" s="1"/>
       <c r="H6" s="41"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="1:16" ht="13">
+    <row r="7" spans="1:16">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="G7" s="1"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
     </row>
-    <row r="8" spans="1:16" ht="13">
+    <row r="8" spans="1:16">
       <c r="E8" s="1"/>
       <c r="G8" s="1"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="1:16" ht="13">
+    <row r="9" spans="1:16">
       <c r="E9" s="1"/>
       <c r="G9" s="1"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
     </row>
-    <row r="10" spans="1:16" ht="13">
+    <row r="10" spans="1:16">
       <c r="E10" s="1"/>
       <c r="G10" s="1"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:16" ht="13">
+    <row r="11" spans="1:16">
       <c r="E11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="41"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:16" ht="13">
+    <row r="12" spans="1:16">
       <c r="E12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="41"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:16" ht="13">
+    <row r="13" spans="1:16">
       <c r="E13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="41"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:16" ht="13">
+    <row r="14" spans="1:16">
       <c r="E14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="41"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="1:16" ht="13">
+    <row r="15" spans="1:16">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="G15" s="1"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
     </row>
-    <row r="16" spans="1:16" ht="13">
+    <row r="16" spans="1:16">
       <c r="E16" s="1"/>
       <c r="G16" s="1"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" spans="2:12" ht="13">
+    <row r="17" spans="2:12">
       <c r="E17" s="1"/>
       <c r="G17" s="1"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
     </row>
-    <row r="18" spans="2:12" ht="13">
+    <row r="18" spans="2:12">
       <c r="E18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="41"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
     </row>
-    <row r="19" spans="2:12" ht="13">
+    <row r="19" spans="2:12">
       <c r="E19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="41"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
     </row>
-    <row r="20" spans="2:12" ht="13">
+    <row r="20" spans="2:12">
       <c r="E20" s="1"/>
       <c r="F20" s="108"/>
       <c r="G20" s="1"/>
@@ -25045,7 +24975,7 @@
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
     </row>
-    <row r="21" spans="2:12" ht="13">
+    <row r="21" spans="2:12">
       <c r="B21" s="109"/>
       <c r="C21" s="109"/>
       <c r="D21" s="109"/>
@@ -25058,65 +24988,65 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" spans="2:12" ht="13">
+    <row r="22" spans="2:12">
       <c r="E22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="41"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="2:12" ht="13">
+    <row r="23" spans="2:12">
       <c r="E23" s="1"/>
       <c r="G23" s="1"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="2:12" ht="13">
+    <row r="24" spans="2:12">
       <c r="E24" s="1"/>
       <c r="G24" s="1"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="2:12" ht="13">
+    <row r="25" spans="2:12">
       <c r="E25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="144"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="2:12" ht="13">
+    <row r="26" spans="2:12">
       <c r="E26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="144"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
     </row>
-    <row r="27" spans="2:12" ht="13">
+    <row r="27" spans="2:12">
       <c r="E27" s="1"/>
       <c r="G27" s="1"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
     </row>
-    <row r="28" spans="2:12" ht="13">
+    <row r="28" spans="2:12">
       <c r="E28" s="1"/>
       <c r="G28" s="1"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
     </row>
-    <row r="29" spans="2:12" ht="13">
+    <row r="29" spans="2:12">
       <c r="C29" s="43"/>
       <c r="E29" s="1"/>
       <c r="G29" s="1"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
     </row>
-    <row r="30" spans="2:12" ht="13">
+    <row r="30" spans="2:12">
       <c r="E30" s="1"/>
       <c r="G30" s="1"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
     </row>
-    <row r="31" spans="2:12" ht="13">
+    <row r="31" spans="2:12">
       <c r="C31" s="43"/>
       <c r="E31" s="1"/>
       <c r="G31" s="1"/>
@@ -25124,7 +25054,7 @@
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
     </row>
-    <row r="32" spans="2:12" ht="13">
+    <row r="32" spans="2:12">
       <c r="C32" s="43"/>
       <c r="E32" s="1"/>
       <c r="G32" s="1"/>
@@ -25132,7 +25062,7 @@
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
     </row>
-    <row r="33" spans="3:12" ht="13">
+    <row r="33" spans="3:12">
       <c r="C33" s="43"/>
       <c r="E33" s="1"/>
       <c r="G33" s="1"/>
@@ -25140,52 +25070,52 @@
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
     </row>
-    <row r="34" spans="3:12" ht="13">
+    <row r="34" spans="3:12">
       <c r="E34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="41"/>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
     </row>
-    <row r="35" spans="3:12" ht="13">
+    <row r="35" spans="3:12">
       <c r="E35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="41"/>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
     </row>
-    <row r="36" spans="3:12" ht="13">
+    <row r="36" spans="3:12">
       <c r="E36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="41"/>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
     </row>
-    <row r="37" spans="3:12" ht="13">
+    <row r="37" spans="3:12">
       <c r="E37" s="1"/>
       <c r="G37" s="1"/>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
     </row>
-    <row r="38" spans="3:12" ht="13">
+    <row r="38" spans="3:12">
       <c r="E38" s="1"/>
       <c r="G38" s="1"/>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
     </row>
-    <row r="39" spans="3:12" ht="13">
+    <row r="39" spans="3:12">
       <c r="E39" s="1"/>
       <c r="G39" s="1"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
     </row>
-    <row r="40" spans="3:12" ht="13">
+    <row r="40" spans="3:12">
       <c r="E40" s="1"/>
       <c r="G40" s="1"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
     </row>
-    <row r="41" spans="3:12" ht="13">
+    <row r="41" spans="3:12">
       <c r="E41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="41"/>
@@ -25193,13 +25123,13 @@
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
     </row>
-    <row r="42" spans="3:12" ht="13">
+    <row r="42" spans="3:12">
       <c r="E42" s="1"/>
       <c r="G42" s="1"/>
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
     </row>
-    <row r="43" spans="3:12" ht="13">
+    <row r="43" spans="3:12">
       <c r="E43" s="1"/>
       <c r="G43" s="1"/>
       <c r="I43" s="41"/>
@@ -25207,7 +25137,7 @@
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
     </row>
-    <row r="44" spans="3:12" ht="13">
+    <row r="44" spans="3:12">
       <c r="E44" s="1"/>
       <c r="G44" s="1"/>
       <c r="I44" s="41"/>
@@ -25215,7 +25145,7 @@
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
     </row>
-    <row r="45" spans="3:12" ht="13">
+    <row r="45" spans="3:12">
       <c r="E45" s="1"/>
       <c r="G45" s="1"/>
       <c r="I45" s="41"/>
@@ -25226,13 +25156,13 @@
       <c r="E46" s="1"/>
       <c r="G46" s="118"/>
     </row>
-    <row r="47" spans="3:12" ht="13">
+    <row r="47" spans="3:12">
       <c r="E47" s="1"/>
       <c r="G47" s="118"/>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
     </row>
-    <row r="48" spans="3:12" ht="13">
+    <row r="48" spans="3:12">
       <c r="E48" s="1"/>
       <c r="G48" s="1"/>
       <c r="I48" s="41"/>
@@ -25467,29 +25397,29 @@
       <selection activeCell="A4" sqref="A4:XFD54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.26953125" customWidth="1"/>
-    <col min="4" max="4" width="28.7265625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" customWidth="1"/>
-    <col min="7" max="7" width="42.26953125" customWidth="1"/>
-    <col min="8" max="8" width="74.7265625" customWidth="1"/>
-    <col min="9" max="9" width="83.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="79.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="88.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.26953125" customWidth="1"/>
-    <col min="13" max="13" width="23.26953125" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="18.453125" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.26953125" customWidth="1"/>
-    <col min="18" max="18" width="20.453125" customWidth="1"/>
-    <col min="19" max="19" width="17.7265625" customWidth="1"/>
-    <col min="20" max="30" width="8.453125" customWidth="1"/>
-    <col min="31" max="1024" width="8.26953125" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" customWidth="1"/>
+    <col min="8" max="8" width="74.7109375" customWidth="1"/>
+    <col min="9" max="9" width="83.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="79.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="88.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="20" max="30" width="8.42578125" customWidth="1"/>
+    <col min="31" max="1024" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
@@ -25521,7 +25451,7 @@
       <c r="R1" s="39"/>
       <c r="S1" s="39"/>
     </row>
-    <row r="2" spans="1:26" ht="117">
+    <row r="2" spans="1:26" ht="127.5">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -25562,7 +25492,7 @@
       <c r="R2" s="25"/>
       <c r="S2" s="25"/>
     </row>
-    <row r="3" spans="1:26" ht="39">
+    <row r="3" spans="1:26" ht="38.25">
       <c r="A3" s="40" t="s">
         <v>32</v>
       </c>
@@ -25628,14 +25558,14 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
     </row>
-    <row r="4" spans="1:26" ht="14">
+    <row r="4" spans="1:26" ht="14.25">
       <c r="I4" s="107"/>
       <c r="L4" s="36"/>
       <c r="M4" s="46"/>
       <c r="R4" s="109"/>
       <c r="S4" s="109"/>
     </row>
-    <row r="5" spans="1:26" ht="14">
+    <row r="5" spans="1:26" ht="14.25">
       <c r="F5" s="2"/>
       <c r="J5" s="107"/>
       <c r="K5" s="36"/>
@@ -25644,7 +25574,7 @@
       <c r="R5" s="109"/>
       <c r="S5" s="109"/>
     </row>
-    <row r="6" spans="1:26" ht="14">
+    <row r="6" spans="1:26" ht="14.25">
       <c r="F6" s="2"/>
       <c r="G6" s="143"/>
       <c r="I6" s="188"/>
@@ -25654,7 +25584,7 @@
       <c r="R6" s="109"/>
       <c r="S6" s="109"/>
     </row>
-    <row r="7" spans="1:26" ht="14">
+    <row r="7" spans="1:26" ht="14.25">
       <c r="F7" s="2"/>
       <c r="G7" s="218"/>
       <c r="H7" s="2"/>
@@ -25665,7 +25595,7 @@
       <c r="R7" s="109"/>
       <c r="S7" s="109"/>
     </row>
-    <row r="8" spans="1:26" ht="14">
+    <row r="8" spans="1:26" ht="14.25">
       <c r="F8" s="2"/>
       <c r="G8" s="218"/>
       <c r="H8" s="2"/>
@@ -25676,7 +25606,7 @@
       <c r="R8" s="109"/>
       <c r="S8" s="109"/>
     </row>
-    <row r="9" spans="1:26" ht="14">
+    <row r="9" spans="1:26" ht="14.25">
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -25688,7 +25618,7 @@
       <c r="R9" s="109"/>
       <c r="S9" s="109"/>
     </row>
-    <row r="10" spans="1:26" ht="14">
+    <row r="10" spans="1:26" ht="14.25">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -25700,7 +25630,7 @@
       <c r="R10" s="109"/>
       <c r="S10" s="109"/>
     </row>
-    <row r="11" spans="1:26" ht="14">
+    <row r="11" spans="1:26" ht="14.25">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -25712,7 +25642,7 @@
       <c r="R11" s="109"/>
       <c r="S11" s="109"/>
     </row>
-    <row r="12" spans="1:26" ht="14">
+    <row r="12" spans="1:26" ht="14.25">
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -25724,7 +25654,7 @@
       <c r="R12" s="109"/>
       <c r="S12" s="109"/>
     </row>
-    <row r="13" spans="1:26" ht="14">
+    <row r="13" spans="1:26" ht="14.25">
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -25736,7 +25666,7 @@
       <c r="R13" s="109"/>
       <c r="S13" s="109"/>
     </row>
-    <row r="14" spans="1:26" ht="14">
+    <row r="14" spans="1:26" ht="14.25">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -25748,7 +25678,7 @@
       <c r="R14" s="109"/>
       <c r="S14" s="109"/>
     </row>
-    <row r="15" spans="1:26" ht="14">
+    <row r="15" spans="1:26" ht="14.25">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -25760,7 +25690,7 @@
       <c r="R15" s="109"/>
       <c r="S15" s="109"/>
     </row>
-    <row r="16" spans="1:26" ht="14">
+    <row r="16" spans="1:26" ht="14.25">
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -25772,7 +25702,7 @@
       <c r="R16" s="109"/>
       <c r="S16" s="109"/>
     </row>
-    <row r="17" spans="6:19" ht="14">
+    <row r="17" spans="6:19" ht="14.25">
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -25784,7 +25714,7 @@
       <c r="R17" s="109"/>
       <c r="S17" s="109"/>
     </row>
-    <row r="18" spans="6:19" ht="14">
+    <row r="18" spans="6:19" ht="14.25">
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -25795,7 +25725,7 @@
       <c r="R18" s="109"/>
       <c r="S18" s="109"/>
     </row>
-    <row r="19" spans="6:19" ht="14">
+    <row r="19" spans="6:19" ht="14.25">
       <c r="F19" s="2"/>
       <c r="I19" s="115"/>
       <c r="J19" s="141"/>
@@ -25805,7 +25735,7 @@
       <c r="R19" s="109"/>
       <c r="S19" s="109"/>
     </row>
-    <row r="20" spans="6:19" ht="14">
+    <row r="20" spans="6:19" ht="14.25">
       <c r="F20" s="2"/>
       <c r="I20" s="107"/>
       <c r="J20" s="107"/>
@@ -25814,7 +25744,7 @@
       <c r="R20" s="109"/>
       <c r="S20" s="109"/>
     </row>
-    <row r="21" spans="6:19" ht="14">
+    <row r="21" spans="6:19" ht="14.25">
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -25825,7 +25755,7 @@
       <c r="R21" s="109"/>
       <c r="S21" s="109"/>
     </row>
-    <row r="22" spans="6:19" ht="14">
+    <row r="22" spans="6:19" ht="14.25">
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -25837,7 +25767,7 @@
       <c r="R22" s="109"/>
       <c r="S22" s="109"/>
     </row>
-    <row r="23" spans="6:19" ht="14">
+    <row r="23" spans="6:19" ht="14.25">
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -25849,7 +25779,7 @@
       <c r="R23" s="109"/>
       <c r="S23" s="109"/>
     </row>
-    <row r="24" spans="6:19" ht="14">
+    <row r="24" spans="6:19" ht="14.25">
       <c r="J24" s="33"/>
       <c r="L24" s="36"/>
       <c r="M24" s="46"/>
@@ -25857,7 +25787,7 @@
       <c r="R24" s="109"/>
       <c r="S24" s="109"/>
     </row>
-    <row r="25" spans="6:19" ht="14">
+    <row r="25" spans="6:19" ht="14.25">
       <c r="F25" s="2"/>
       <c r="I25" s="107"/>
       <c r="J25" s="107"/>
@@ -25868,7 +25798,7 @@
       <c r="R25" s="109"/>
       <c r="S25" s="109"/>
     </row>
-    <row r="26" spans="6:19" ht="14">
+    <row r="26" spans="6:19" ht="14.25">
       <c r="F26" s="2"/>
       <c r="J26" s="107"/>
       <c r="K26" s="107"/>
@@ -25878,7 +25808,7 @@
       <c r="R26" s="109"/>
       <c r="S26" s="109"/>
     </row>
-    <row r="27" spans="6:19" ht="14">
+    <row r="27" spans="6:19" ht="14.25">
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="I27" s="107"/>
@@ -25889,7 +25819,7 @@
       <c r="R27" s="109"/>
       <c r="S27" s="109"/>
     </row>
-    <row r="28" spans="6:19" ht="14">
+    <row r="28" spans="6:19" ht="14.25">
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="I28" s="107"/>
@@ -25900,7 +25830,7 @@
       <c r="R28" s="109"/>
       <c r="S28" s="109"/>
     </row>
-    <row r="29" spans="6:19" ht="14">
+    <row r="29" spans="6:19" ht="14.25">
       <c r="F29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="107"/>
@@ -25911,7 +25841,7 @@
       <c r="R29" s="109"/>
       <c r="S29" s="109"/>
     </row>
-    <row r="30" spans="6:19" ht="14">
+    <row r="30" spans="6:19" ht="14.25">
       <c r="G30" s="2"/>
       <c r="I30" s="188"/>
       <c r="J30" s="107"/>
@@ -25921,7 +25851,7 @@
       <c r="R30" s="109"/>
       <c r="S30" s="109"/>
     </row>
-    <row r="31" spans="6:19" ht="14">
+    <row r="31" spans="6:19" ht="14.25">
       <c r="J31" s="107"/>
       <c r="K31" s="107"/>
       <c r="L31" s="36"/>
@@ -25930,7 +25860,7 @@
       <c r="R31" s="109"/>
       <c r="S31" s="109"/>
     </row>
-    <row r="32" spans="6:19" ht="14">
+    <row r="32" spans="6:19" ht="14.25">
       <c r="G32" s="2"/>
       <c r="J32" s="107"/>
       <c r="K32" s="107"/>
@@ -25940,7 +25870,7 @@
       <c r="R32" s="109"/>
       <c r="S32" s="109"/>
     </row>
-    <row r="33" spans="1:19" ht="14">
+    <row r="33" spans="1:19" ht="14.25">
       <c r="H33" s="145"/>
       <c r="I33" s="107"/>
       <c r="J33" s="110"/>
@@ -25950,7 +25880,7 @@
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
     </row>
-    <row r="34" spans="1:19" ht="14">
+    <row r="34" spans="1:19" ht="14.25">
       <c r="I34" s="107"/>
       <c r="J34" s="107"/>
       <c r="L34" s="36"/>
@@ -26054,7 +25984,7 @@
       <c r="R45" s="109"/>
       <c r="S45" s="32"/>
     </row>
-    <row r="46" spans="1:19" ht="14">
+    <row r="46" spans="1:19" ht="14.25">
       <c r="A46" s="120"/>
       <c r="F46" s="111"/>
       <c r="I46" s="107"/>
@@ -26145,24 +26075,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q240"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
     <col min="4" max="5" width="18" customWidth="1"/>
-    <col min="6" max="8" width="8.7265625" customWidth="1"/>
-    <col min="9" max="9" width="28.7265625" customWidth="1"/>
+    <col min="6" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" customWidth="1"/>
-    <col min="13" max="13" width="90.26953125" customWidth="1"/>
-    <col min="14" max="14" width="11.26953125" customWidth="1"/>
-    <col min="15" max="1011" width="8.7265625" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="90.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="1011" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18">
@@ -26241,7 +26171,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="52">
+    <row r="3" spans="1:17" ht="51">
       <c r="A3" s="28" t="s">
         <v>32</v>
       </c>

--- a/data/ccd-template.xlsx
+++ b/data/ccd-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judgem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\fergusoshea\et-ccd-definitions-scotland\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B499BD3-0052-4D1E-8EC1-CFE719D37292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AB373C-FADA-40DE-80E8-9D866EFAA00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-945" yWindow="-17805" windowWidth="28800" windowHeight="15315" tabRatio="500" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" tabRatio="500" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchParty" sheetId="36" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="388">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1315,6 +1315,12 @@
   </si>
   <si>
     <t>ParentCategoryID</t>
+  </si>
+  <si>
+    <t>Boolean value to say if an event can be published</t>
+  </si>
+  <si>
+    <t>Publish</t>
   </si>
 </sst>
 </file>
@@ -3159,14 +3165,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="10.7265625" style="291" customWidth="1"/>
-    <col min="3" max="1025" width="11.1796875" style="287" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="287"/>
+    <col min="1" max="2" width="10.7109375" style="291" customWidth="1"/>
+    <col min="3" max="1025" width="11.140625" style="287" customWidth="1"/>
+    <col min="1026" max="16384" width="8.85546875" style="287"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.5">
+    <row r="1" spans="1:10" ht="18">
       <c r="A1" s="283" t="s">
         <v>352</v>
       </c>
@@ -3258,22 +3264,22 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="33.7265625" customWidth="1"/>
-    <col min="4" max="4" width="51.26953125" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="28.26953125" customWidth="1"/>
-    <col min="7" max="7" width="19.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7265625" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="26.7265625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="33.36328125" customWidth="1"/>
-    <col min="12" max="17" width="8.453125" customWidth="1"/>
-    <col min="18" max="21" width="6.26953125" customWidth="1"/>
-    <col min="22" max="1023" width="8.26953125" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" customWidth="1"/>
+    <col min="12" max="17" width="8.42578125" customWidth="1"/>
+    <col min="18" max="21" width="6.28515625" customWidth="1"/>
+    <col min="22" max="1023" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18">
@@ -3533,7 +3539,7 @@
       <c r="E23" s="108"/>
       <c r="F23" s="108"/>
     </row>
-    <row r="24" spans="2:9" ht="13">
+    <row r="24" spans="2:9">
       <c r="B24" s="108"/>
       <c r="C24" s="108"/>
       <c r="D24" s="108"/>
@@ -3541,7 +3547,7 @@
       <c r="F24" s="108"/>
       <c r="G24" s="52"/>
     </row>
-    <row r="25" spans="2:9" ht="13">
+    <row r="25" spans="2:9">
       <c r="B25" s="108"/>
       <c r="C25" s="108"/>
       <c r="D25" s="108"/>
@@ -3549,7 +3555,7 @@
       <c r="F25" s="108"/>
       <c r="G25" s="52"/>
     </row>
-    <row r="26" spans="2:9" ht="13">
+    <row r="26" spans="2:9">
       <c r="B26" s="108"/>
       <c r="C26" s="108"/>
       <c r="D26" s="108"/>
@@ -3557,7 +3563,7 @@
       <c r="F26" s="108"/>
       <c r="G26" s="52"/>
     </row>
-    <row r="27" spans="2:9" ht="13">
+    <row r="27" spans="2:9">
       <c r="B27" s="108"/>
       <c r="C27" s="108"/>
       <c r="D27" s="108"/>
@@ -4465,11 +4471,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B092AC-BC68-4857-A94A-DB7213593582}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
       <c r="A1" s="35" t="s">
@@ -4481,7 +4487,7 @@
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
-    <row r="2" spans="1:5" ht="65">
+    <row r="2" spans="1:5" ht="63.75">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -4498,7 +4504,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13">
+    <row r="3" spans="1:5" ht="25.5">
       <c r="A3" s="303" t="s">
         <v>32</v>
       </c>
@@ -4528,20 +4534,20 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="36.7265625" style="246" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="246"/>
-    <col min="3" max="3" width="54.7265625" style="246" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="246" customWidth="1"/>
-    <col min="5" max="6" width="12.7265625" style="246" customWidth="1"/>
-    <col min="7" max="7" width="44.26953125" style="246" customWidth="1"/>
-    <col min="8" max="8" width="17.7265625" style="246" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" style="246" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="246"/>
+    <col min="3" max="3" width="54.7109375" style="246" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="246" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="246" customWidth="1"/>
+    <col min="7" max="7" width="44.28515625" style="246" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="246" customWidth="1"/>
     <col min="9" max="9" width="37" style="246" customWidth="1"/>
-    <col min="10" max="10" width="43.7265625" style="246" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" style="246" customWidth="1"/>
-    <col min="12" max="1025" width="10.81640625" style="246"/>
-    <col min="1026" max="16384" width="10.81640625" style="245"/>
+    <col min="10" max="10" width="43.7109375" style="246" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="246" customWidth="1"/>
+    <col min="12" max="1025" width="10.85546875" style="246"/>
+    <col min="1026" max="16384" width="10.85546875" style="245"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18">
@@ -4567,7 +4573,7 @@
       <c r="L1" s="247"/>
       <c r="M1" s="247"/>
     </row>
-    <row r="2" spans="1:13" ht="52">
+    <row r="2" spans="1:13" ht="63.75">
       <c r="A2" s="258" t="s">
         <v>4</v>
       </c>
@@ -4602,7 +4608,7 @@
       <c r="L2" s="254"/>
       <c r="M2" s="254"/>
     </row>
-    <row r="3" spans="1:13" ht="15.5">
+    <row r="3" spans="1:13" ht="15.75">
       <c r="A3" s="253" t="s">
         <v>9</v>
       </c>
@@ -4654,7 +4660,7 @@
       <c r="L4" s="247"/>
       <c r="M4" s="247"/>
     </row>
-    <row r="5" spans="1:13" ht="13">
+    <row r="5" spans="1:13">
       <c r="A5" s="248"/>
       <c r="B5" s="248"/>
       <c r="C5" s="249"/>
@@ -4669,7 +4675,7 @@
       <c r="L5" s="247"/>
       <c r="M5" s="247"/>
     </row>
-    <row r="6" spans="1:13" ht="13">
+    <row r="6" spans="1:13">
       <c r="A6" s="248"/>
       <c r="B6" s="248"/>
       <c r="D6" s="247"/>
@@ -4683,7 +4689,7 @@
       <c r="L6" s="247"/>
       <c r="M6" s="247"/>
     </row>
-    <row r="7" spans="1:13" ht="13">
+    <row r="7" spans="1:13">
       <c r="A7" s="248"/>
       <c r="B7" s="248"/>
       <c r="D7" s="247"/>
@@ -4727,26 +4733,26 @@
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" style="52" customWidth="1"/>
-    <col min="6" max="6" width="21.7265625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="41" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" style="53" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" style="53" customWidth="1"/>
-    <col min="11" max="11" width="11.26953125" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" customWidth="1"/>
-    <col min="13" max="13" width="17.7265625" customWidth="1"/>
-    <col min="14" max="14" width="33.6328125" customWidth="1"/>
-    <col min="15" max="15" width="28.26953125" customWidth="1"/>
-    <col min="16" max="23" width="6.26953125" customWidth="1"/>
-    <col min="24" max="1023" width="8.26953125" customWidth="1"/>
-    <col min="1024" max="1025" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="53" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="33.5703125" customWidth="1"/>
+    <col min="15" max="15" width="28.28515625" customWidth="1"/>
+    <col min="16" max="23" width="6.28515625" customWidth="1"/>
+    <col min="24" max="1023" width="8.28515625" customWidth="1"/>
+    <col min="1024" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" customHeight="1">
@@ -4774,7 +4780,7 @@
       <c r="P1" s="36"/>
       <c r="Q1" s="36"/>
     </row>
-    <row r="2" spans="1:23" ht="65.150000000000006" customHeight="1">
+    <row r="2" spans="1:23" ht="65.099999999999994" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>113</v>
       </c>
@@ -4817,7 +4823,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" ht="33.65" customHeight="1">
+    <row r="3" spans="1:23" s="2" customFormat="1" ht="33.6" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>11</v>
       </c>
@@ -4870,35 +4876,35 @@
       <c r="V3" s="51"/>
       <c r="W3" s="51"/>
     </row>
-    <row r="4" spans="1:23" ht="12.5">
+    <row r="4" spans="1:23">
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="I4"/>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:23" ht="12.5">
+    <row r="5" spans="1:23">
       <c r="E5"/>
       <c r="F5" s="108"/>
       <c r="G5"/>
       <c r="I5"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:23" ht="12.5">
+    <row r="6" spans="1:23">
       <c r="E6"/>
       <c r="F6" s="108"/>
       <c r="G6"/>
       <c r="I6"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:23" ht="12.5">
+    <row r="7" spans="1:23">
       <c r="E7"/>
       <c r="F7" s="108"/>
       <c r="G7"/>
       <c r="I7"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:23" ht="12.5">
+    <row r="8" spans="1:23">
       <c r="E8"/>
       <c r="F8" s="108"/>
       <c r="G8"/>
@@ -4917,7 +4923,7 @@
       <c r="I9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:23" ht="12.5">
+    <row r="10" spans="1:23">
       <c r="A10" s="108"/>
       <c r="E10"/>
       <c r="F10" s="108"/>
@@ -4925,14 +4931,14 @@
       <c r="I10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:23" ht="12.5">
+    <row r="11" spans="1:23">
       <c r="E11"/>
       <c r="F11" s="108"/>
       <c r="G11"/>
       <c r="I11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:23" ht="12.5">
+    <row r="12" spans="1:23">
       <c r="A12" s="108"/>
       <c r="E12"/>
       <c r="F12" s="108"/>
@@ -4940,7 +4946,7 @@
       <c r="I12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:23" ht="12.5">
+    <row r="13" spans="1:23">
       <c r="A13" s="108"/>
       <c r="E13"/>
       <c r="F13" s="108"/>
@@ -4960,7 +4966,7 @@
       <c r="I14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:23" ht="12.5">
+    <row r="15" spans="1:23">
       <c r="A15" s="108"/>
       <c r="E15"/>
       <c r="F15" s="108"/>
@@ -4968,7 +4974,7 @@
       <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:23" ht="12.5">
+    <row r="16" spans="1:23">
       <c r="A16" s="108"/>
       <c r="E16"/>
       <c r="F16" s="108"/>
@@ -4976,7 +4982,7 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" ht="12.5">
+    <row r="17" spans="1:10">
       <c r="A17" s="108"/>
       <c r="E17"/>
       <c r="F17" s="108"/>
@@ -4984,7 +4990,7 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" ht="12.5">
+    <row r="18" spans="1:10">
       <c r="A18" s="108"/>
       <c r="E18"/>
       <c r="F18" s="108"/>
@@ -4992,7 +4998,7 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" ht="12.5">
+    <row r="19" spans="1:10">
       <c r="A19" s="108"/>
       <c r="E19"/>
       <c r="F19" s="108"/>
@@ -5000,7 +5006,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" ht="12.5">
+    <row r="20" spans="1:10">
       <c r="A20" s="108"/>
       <c r="E20"/>
       <c r="F20" s="108"/>
@@ -5008,7 +5014,7 @@
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" ht="12.5">
+    <row r="21" spans="1:10">
       <c r="A21" s="108"/>
       <c r="E21"/>
       <c r="F21" s="108"/>
@@ -5028,7 +5034,7 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" ht="12.5">
+    <row r="23" spans="1:10">
       <c r="A23" s="108"/>
       <c r="E23"/>
       <c r="F23" s="108"/>
@@ -5048,7 +5054,7 @@
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" ht="12.5">
+    <row r="25" spans="1:10">
       <c r="A25" s="108"/>
       <c r="E25"/>
       <c r="F25" s="108"/>
@@ -5068,7 +5074,7 @@
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" ht="12.5">
+    <row r="27" spans="1:10">
       <c r="A27" s="108"/>
       <c r="E27"/>
       <c r="F27" s="108"/>
@@ -5076,7 +5082,7 @@
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" ht="12.5">
+    <row r="28" spans="1:10">
       <c r="A28" s="108"/>
       <c r="E28"/>
       <c r="F28" s="108"/>
@@ -5084,7 +5090,7 @@
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" ht="12.5">
+    <row r="29" spans="1:10">
       <c r="A29" s="108"/>
       <c r="E29"/>
       <c r="F29" s="108"/>
@@ -5092,42 +5098,42 @@
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" ht="12.5">
+    <row r="30" spans="1:10">
       <c r="E30"/>
       <c r="F30" s="108"/>
       <c r="G30" s="36"/>
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" ht="12.5">
+    <row r="31" spans="1:10">
       <c r="E31"/>
       <c r="F31" s="108"/>
       <c r="G31" s="36"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" ht="12.5">
+    <row r="32" spans="1:10">
       <c r="E32"/>
       <c r="F32" s="108"/>
       <c r="G32" s="36"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" ht="12.5">
+    <row r="33" spans="1:10">
       <c r="E33"/>
       <c r="F33" s="108"/>
       <c r="G33" s="36"/>
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" ht="12.5">
+    <row r="34" spans="1:10">
       <c r="E34"/>
       <c r="F34" s="108"/>
       <c r="G34" s="36"/>
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" ht="12.5">
+    <row r="35" spans="1:10">
       <c r="E35"/>
       <c r="F35" s="108"/>
       <c r="G35" s="36"/>
@@ -5146,7 +5152,7 @@
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" ht="12.5">
+    <row r="37" spans="1:10">
       <c r="A37" s="108"/>
       <c r="E37"/>
       <c r="F37" s="108"/>
@@ -5154,14 +5160,14 @@
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" ht="12.5">
+    <row r="38" spans="1:10">
       <c r="E38"/>
       <c r="F38" s="108"/>
       <c r="G38" s="36"/>
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" ht="12.5">
+    <row r="39" spans="1:10">
       <c r="D39" s="36"/>
       <c r="E39"/>
       <c r="F39" s="108"/>
@@ -5169,77 +5175,77 @@
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" ht="12.5">
+    <row r="40" spans="1:10">
       <c r="E40"/>
       <c r="F40" s="108"/>
       <c r="G40" s="36"/>
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" ht="12.5">
+    <row r="41" spans="1:10">
       <c r="E41"/>
       <c r="F41" s="108"/>
       <c r="G41" s="36"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" ht="12.5">
+    <row r="42" spans="1:10">
       <c r="E42"/>
       <c r="F42" s="108"/>
       <c r="G42" s="36"/>
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" ht="12.5">
+    <row r="43" spans="1:10">
       <c r="E43"/>
       <c r="F43" s="108"/>
       <c r="G43" s="36"/>
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" ht="12.5">
+    <row r="44" spans="1:10">
       <c r="E44"/>
       <c r="F44" s="108"/>
       <c r="G44" s="36"/>
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" ht="12.5">
+    <row r="45" spans="1:10">
       <c r="E45"/>
       <c r="F45" s="108"/>
       <c r="G45" s="36"/>
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" ht="12.5">
+    <row r="46" spans="1:10">
       <c r="E46"/>
       <c r="F46" s="108"/>
       <c r="G46" s="36"/>
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" ht="12.5">
+    <row r="47" spans="1:10">
       <c r="E47"/>
       <c r="F47" s="108"/>
       <c r="G47" s="36"/>
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:10" ht="12.5">
+    <row r="48" spans="1:10">
       <c r="E48"/>
       <c r="F48" s="108"/>
       <c r="G48" s="36"/>
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="5:10" ht="12.5">
+    <row r="49" spans="5:10">
       <c r="E49"/>
       <c r="F49" s="108"/>
       <c r="G49" s="36"/>
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="5:10" ht="12.5">
+    <row r="50" spans="5:10">
       <c r="E50"/>
       <c r="F50" s="108"/>
       <c r="G50" s="36"/>
@@ -5260,112 +5266,112 @@
       <c r="G53" s="36"/>
       <c r="H53" s="55"/>
     </row>
-    <row r="54" spans="5:10" ht="12.5">
+    <row r="54" spans="5:10">
       <c r="E54"/>
       <c r="F54" s="108"/>
       <c r="G54" s="36"/>
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="5:10" ht="12.5">
+    <row r="55" spans="5:10">
       <c r="E55"/>
       <c r="F55" s="108"/>
       <c r="G55" s="36"/>
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="5:10" ht="12.5">
+    <row r="56" spans="5:10">
       <c r="E56"/>
       <c r="F56" s="108"/>
       <c r="G56" s="36"/>
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="5:10" ht="12.5">
+    <row r="57" spans="5:10">
       <c r="E57"/>
       <c r="F57" s="108"/>
       <c r="G57" s="36"/>
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="5:10" ht="12.5">
+    <row r="58" spans="5:10">
       <c r="E58"/>
       <c r="F58" s="108"/>
       <c r="G58" s="36"/>
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="5:10" ht="12.5">
+    <row r="59" spans="5:10">
       <c r="E59"/>
       <c r="F59" s="108"/>
       <c r="G59" s="36"/>
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="5:10" ht="12.5">
+    <row r="60" spans="5:10">
       <c r="E60"/>
       <c r="F60" s="108"/>
       <c r="G60" s="36"/>
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="5:10" ht="12.5">
+    <row r="61" spans="5:10">
       <c r="E61"/>
       <c r="F61" s="108"/>
       <c r="G61" s="36"/>
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="5:10" ht="12.5">
+    <row r="62" spans="5:10">
       <c r="E62"/>
       <c r="F62" s="108"/>
       <c r="G62" s="36"/>
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="5:10" ht="12.5">
+    <row r="63" spans="5:10">
       <c r="E63"/>
       <c r="F63" s="108"/>
       <c r="G63" s="36"/>
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="5:10" ht="12.5">
+    <row r="64" spans="5:10">
       <c r="E64"/>
       <c r="F64" s="108"/>
       <c r="G64" s="36"/>
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="1:10" ht="12.5">
+    <row r="65" spans="1:10">
       <c r="E65"/>
       <c r="F65" s="108"/>
       <c r="G65" s="36"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="1:10" ht="12.5">
+    <row r="66" spans="1:10">
       <c r="E66"/>
       <c r="F66" s="108"/>
       <c r="G66" s="36"/>
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="1:10" ht="12.5">
+    <row r="67" spans="1:10">
       <c r="E67"/>
       <c r="F67" s="108"/>
       <c r="G67" s="36"/>
       <c r="I67"/>
       <c r="J67"/>
     </row>
-    <row r="68" spans="1:10" ht="12.5">
+    <row r="68" spans="1:10">
       <c r="E68"/>
       <c r="F68" s="108"/>
       <c r="G68" s="36"/>
       <c r="I68"/>
       <c r="J68"/>
     </row>
-    <row r="69" spans="1:10" ht="12.5">
+    <row r="69" spans="1:10">
       <c r="A69" s="56"/>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
@@ -5376,77 +5382,77 @@
       <c r="I69"/>
       <c r="J69"/>
     </row>
-    <row r="70" spans="1:10" ht="12.5">
+    <row r="70" spans="1:10">
       <c r="E70" s="108"/>
       <c r="F70" s="108"/>
       <c r="G70" s="36"/>
       <c r="I70"/>
       <c r="J70"/>
     </row>
-    <row r="71" spans="1:10" ht="12.5">
+    <row r="71" spans="1:10">
       <c r="E71"/>
       <c r="F71" s="108"/>
       <c r="G71" s="36"/>
       <c r="I71"/>
       <c r="J71"/>
     </row>
-    <row r="72" spans="1:10" ht="12.5">
+    <row r="72" spans="1:10">
       <c r="E72"/>
       <c r="F72" s="108"/>
       <c r="G72" s="36"/>
       <c r="I72"/>
       <c r="J72"/>
     </row>
-    <row r="73" spans="1:10" ht="12.5">
+    <row r="73" spans="1:10">
       <c r="E73"/>
       <c r="F73" s="108"/>
       <c r="G73" s="36"/>
       <c r="I73"/>
       <c r="J73"/>
     </row>
-    <row r="74" spans="1:10" ht="12.5">
+    <row r="74" spans="1:10">
       <c r="E74"/>
       <c r="F74" s="108"/>
       <c r="G74" s="36"/>
       <c r="I74"/>
       <c r="J74"/>
     </row>
-    <row r="75" spans="1:10" ht="12.5">
+    <row r="75" spans="1:10">
       <c r="E75"/>
       <c r="F75" s="108"/>
       <c r="G75" s="36"/>
       <c r="I75"/>
       <c r="J75"/>
     </row>
-    <row r="76" spans="1:10" ht="12.5">
+    <row r="76" spans="1:10">
       <c r="E76"/>
       <c r="F76" s="108"/>
       <c r="G76" s="36"/>
       <c r="I76"/>
       <c r="J76"/>
     </row>
-    <row r="77" spans="1:10" ht="12.5">
+    <row r="77" spans="1:10">
       <c r="E77"/>
       <c r="F77" s="108"/>
       <c r="G77" s="36"/>
       <c r="I77"/>
       <c r="J77"/>
     </row>
-    <row r="78" spans="1:10" ht="12.5">
+    <row r="78" spans="1:10">
       <c r="E78"/>
       <c r="F78" s="108"/>
       <c r="G78" s="36"/>
       <c r="I78"/>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:10" ht="12.5">
+    <row r="79" spans="1:10">
       <c r="E79"/>
       <c r="F79" s="108"/>
       <c r="G79" s="36"/>
       <c r="I79"/>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:10" ht="12.5">
+    <row r="80" spans="1:10">
       <c r="E80"/>
       <c r="F80" s="108"/>
       <c r="G80" s="36"/>
@@ -5465,7 +5471,7 @@
       <c r="I81"/>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:10" ht="12.5">
+    <row r="82" spans="1:10">
       <c r="A82" s="108"/>
       <c r="E82"/>
       <c r="F82" s="108"/>
@@ -5473,14 +5479,14 @@
       <c r="I82"/>
       <c r="J82"/>
     </row>
-    <row r="83" spans="1:10" ht="12.5">
+    <row r="83" spans="1:10">
       <c r="E83"/>
       <c r="F83" s="108"/>
       <c r="G83" s="36"/>
       <c r="I83"/>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:10" ht="12.5">
+    <row r="84" spans="1:10">
       <c r="E84"/>
       <c r="F84" s="108"/>
       <c r="G84" s="36"/>
@@ -5499,7 +5505,7 @@
       <c r="I85"/>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" ht="12.5">
+    <row r="86" spans="1:10">
       <c r="A86" s="108"/>
       <c r="E86"/>
       <c r="F86" s="108"/>
@@ -5507,7 +5513,7 @@
       <c r="I86"/>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10" ht="12.5">
+    <row r="87" spans="1:10">
       <c r="E87"/>
       <c r="F87" s="108"/>
       <c r="G87" s="36"/>
@@ -5526,7 +5532,7 @@
       <c r="I88"/>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:10" ht="12.5">
+    <row r="89" spans="1:10">
       <c r="A89" s="108"/>
       <c r="E89"/>
       <c r="F89" s="108"/>
@@ -5534,7 +5540,7 @@
       <c r="I89"/>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:10" ht="12.5">
+    <row r="90" spans="1:10">
       <c r="E90"/>
       <c r="F90" s="108"/>
       <c r="G90" s="36"/>
@@ -5601,63 +5607,63 @@
       <c r="I98"/>
       <c r="J98"/>
     </row>
-    <row r="99" spans="1:14" ht="12.5">
+    <row r="99" spans="1:14">
       <c r="E99"/>
       <c r="F99" s="108"/>
       <c r="G99" s="36"/>
       <c r="I99"/>
       <c r="J99"/>
     </row>
-    <row r="100" spans="1:14" ht="12.5">
+    <row r="100" spans="1:14">
       <c r="E100"/>
       <c r="F100" s="108"/>
       <c r="G100" s="36"/>
       <c r="I100"/>
       <c r="J100"/>
     </row>
-    <row r="101" spans="1:14" ht="12.5">
+    <row r="101" spans="1:14">
       <c r="E101"/>
       <c r="F101" s="108"/>
       <c r="G101" s="36"/>
       <c r="I101"/>
       <c r="J101"/>
     </row>
-    <row r="102" spans="1:14" ht="12.5">
+    <row r="102" spans="1:14">
       <c r="E102"/>
       <c r="F102" s="108"/>
       <c r="G102" s="36"/>
       <c r="I102"/>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:14" ht="12.5">
+    <row r="103" spans="1:14">
       <c r="E103"/>
       <c r="F103" s="108"/>
       <c r="G103" s="36"/>
       <c r="I103"/>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:14" ht="12.5">
+    <row r="104" spans="1:14">
       <c r="E104"/>
       <c r="F104" s="108"/>
       <c r="G104" s="36"/>
       <c r="I104"/>
       <c r="J104"/>
     </row>
-    <row r="105" spans="1:14" ht="12.5">
+    <row r="105" spans="1:14">
       <c r="E105"/>
       <c r="F105" s="108"/>
       <c r="G105" s="36"/>
       <c r="I105"/>
       <c r="J105"/>
     </row>
-    <row r="106" spans="1:14" ht="12.5">
+    <row r="106" spans="1:14">
       <c r="E106"/>
       <c r="F106" s="108"/>
       <c r="G106" s="36"/>
       <c r="I106"/>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:14" ht="12.5">
+    <row r="107" spans="1:14">
       <c r="E107"/>
       <c r="F107" s="108"/>
       <c r="G107" s="36"/>
@@ -5677,7 +5683,7 @@
       <c r="I109"/>
       <c r="J109"/>
     </row>
-    <row r="110" spans="1:14" ht="12.5">
+    <row r="110" spans="1:14">
       <c r="E110"/>
       <c r="F110" s="108"/>
       <c r="G110" s="36"/>
@@ -5696,49 +5702,49 @@
       <c r="I111"/>
       <c r="J111"/>
     </row>
-    <row r="112" spans="1:14" ht="12.5">
+    <row r="112" spans="1:14">
       <c r="E112"/>
       <c r="F112" s="108"/>
       <c r="G112" s="36"/>
       <c r="I112"/>
       <c r="J112"/>
     </row>
-    <row r="113" spans="1:10" ht="12.5">
+    <row r="113" spans="1:10">
       <c r="E113"/>
       <c r="F113" s="108"/>
       <c r="G113" s="36"/>
       <c r="I113"/>
       <c r="J113"/>
     </row>
-    <row r="114" spans="1:10" ht="12.5">
+    <row r="114" spans="1:10">
       <c r="E114"/>
       <c r="F114" s="108"/>
       <c r="G114" s="36"/>
       <c r="I114"/>
       <c r="J114"/>
     </row>
-    <row r="115" spans="1:10" ht="12.5">
+    <row r="115" spans="1:10">
       <c r="E115"/>
       <c r="F115" s="108"/>
       <c r="G115" s="36"/>
       <c r="I115"/>
       <c r="J115"/>
     </row>
-    <row r="116" spans="1:10" ht="12.5">
+    <row r="116" spans="1:10">
       <c r="E116"/>
       <c r="F116" s="108"/>
       <c r="G116" s="36"/>
       <c r="I116"/>
       <c r="J116"/>
     </row>
-    <row r="117" spans="1:10" ht="12.5">
+    <row r="117" spans="1:10">
       <c r="E117"/>
       <c r="F117" s="108"/>
       <c r="G117" s="36"/>
       <c r="I117"/>
       <c r="J117"/>
     </row>
-    <row r="118" spans="1:10" ht="12.5">
+    <row r="118" spans="1:10">
       <c r="E118"/>
       <c r="F118" s="108"/>
       <c r="G118" s="36"/>
@@ -5757,7 +5763,7 @@
       <c r="I119"/>
       <c r="J119"/>
     </row>
-    <row r="120" spans="1:10" ht="12.5">
+    <row r="120" spans="1:10">
       <c r="A120" s="108"/>
       <c r="E120"/>
       <c r="F120" s="108"/>
@@ -5765,21 +5771,21 @@
       <c r="I120"/>
       <c r="J120"/>
     </row>
-    <row r="121" spans="1:10" ht="12.5">
+    <row r="121" spans="1:10">
       <c r="E121"/>
       <c r="F121" s="108"/>
       <c r="G121" s="36"/>
       <c r="I121"/>
       <c r="J121"/>
     </row>
-    <row r="122" spans="1:10" ht="12.5">
+    <row r="122" spans="1:10">
       <c r="E122"/>
       <c r="F122" s="108"/>
       <c r="G122" s="36"/>
       <c r="I122"/>
       <c r="J122"/>
     </row>
-    <row r="123" spans="1:10" ht="12.5">
+    <row r="123" spans="1:10">
       <c r="E123"/>
       <c r="F123" s="108"/>
       <c r="G123" s="36"/>
@@ -5805,49 +5811,49 @@
       <c r="I125" s="193"/>
       <c r="J125"/>
     </row>
-    <row r="126" spans="1:10" ht="12.5">
+    <row r="126" spans="1:10">
       <c r="E126"/>
       <c r="F126" s="36"/>
       <c r="G126" s="36"/>
       <c r="I126"/>
       <c r="J126"/>
     </row>
-    <row r="127" spans="1:10" ht="12.5">
+    <row r="127" spans="1:10">
       <c r="E127"/>
       <c r="F127" s="108"/>
       <c r="G127" s="36"/>
       <c r="I127"/>
       <c r="J127"/>
     </row>
-    <row r="128" spans="1:10" ht="12.5">
+    <row r="128" spans="1:10">
       <c r="E128"/>
       <c r="F128" s="108"/>
       <c r="G128" s="36"/>
       <c r="I128"/>
       <c r="J128"/>
     </row>
-    <row r="129" spans="1:10" ht="12.5">
+    <row r="129" spans="1:10">
       <c r="E129"/>
       <c r="F129" s="108"/>
       <c r="G129" s="36"/>
       <c r="I129"/>
       <c r="J129"/>
     </row>
-    <row r="130" spans="1:10" ht="12.5">
+    <row r="130" spans="1:10">
       <c r="E130"/>
       <c r="F130" s="108"/>
       <c r="G130" s="36"/>
       <c r="I130"/>
       <c r="J130"/>
     </row>
-    <row r="131" spans="1:10" ht="12.5">
+    <row r="131" spans="1:10">
       <c r="E131"/>
       <c r="F131" s="108"/>
       <c r="G131" s="36"/>
       <c r="I131"/>
       <c r="J131"/>
     </row>
-    <row r="132" spans="1:10" ht="12.5">
+    <row r="132" spans="1:10">
       <c r="E132"/>
       <c r="F132" s="108"/>
       <c r="G132" s="36"/>
@@ -5866,7 +5872,7 @@
       <c r="I133"/>
       <c r="J133"/>
     </row>
-    <row r="134" spans="1:10" ht="12.5">
+    <row r="134" spans="1:10">
       <c r="A134" s="108"/>
       <c r="E134"/>
       <c r="F134" s="108"/>
@@ -5874,7 +5880,7 @@
       <c r="I134"/>
       <c r="J134"/>
     </row>
-    <row r="135" spans="1:10" ht="12.5">
+    <row r="135" spans="1:10">
       <c r="A135" s="108"/>
       <c r="E135"/>
       <c r="F135" s="108"/>
@@ -5882,7 +5888,7 @@
       <c r="I135"/>
       <c r="J135"/>
     </row>
-    <row r="136" spans="1:10" ht="12.5">
+    <row r="136" spans="1:10">
       <c r="A136" s="108"/>
       <c r="E136"/>
       <c r="F136" s="108"/>
@@ -5902,7 +5908,7 @@
       <c r="I137"/>
       <c r="J137"/>
     </row>
-    <row r="138" spans="1:10" ht="12.5">
+    <row r="138" spans="1:10">
       <c r="A138" s="108"/>
       <c r="E138"/>
       <c r="F138" s="108"/>
@@ -5910,7 +5916,7 @@
       <c r="I138"/>
       <c r="J138"/>
     </row>
-    <row r="139" spans="1:10" ht="12.5">
+    <row r="139" spans="1:10">
       <c r="A139" s="108"/>
       <c r="E139"/>
       <c r="F139" s="108"/>
@@ -5918,7 +5924,7 @@
       <c r="I139"/>
       <c r="J139"/>
     </row>
-    <row r="140" spans="1:10" ht="12.5">
+    <row r="140" spans="1:10">
       <c r="A140" s="108"/>
       <c r="E140"/>
       <c r="F140" s="108"/>
@@ -5926,7 +5932,7 @@
       <c r="I140"/>
       <c r="J140"/>
     </row>
-    <row r="141" spans="1:10" ht="12.5">
+    <row r="141" spans="1:10">
       <c r="A141" s="108"/>
       <c r="E141"/>
       <c r="F141" s="108"/>
@@ -5934,7 +5940,7 @@
       <c r="I141"/>
       <c r="J141"/>
     </row>
-    <row r="142" spans="1:10" ht="12.5">
+    <row r="142" spans="1:10">
       <c r="A142" s="108"/>
       <c r="E142"/>
       <c r="F142" s="108"/>
@@ -5942,7 +5948,7 @@
       <c r="I142"/>
       <c r="J142"/>
     </row>
-    <row r="143" spans="1:10" ht="12.5">
+    <row r="143" spans="1:10">
       <c r="A143" s="108"/>
       <c r="E143"/>
       <c r="F143" s="108"/>
@@ -5950,7 +5956,7 @@
       <c r="I143"/>
       <c r="J143"/>
     </row>
-    <row r="144" spans="1:10" ht="12.5">
+    <row r="144" spans="1:10">
       <c r="A144" s="108"/>
       <c r="E144"/>
       <c r="F144" s="108"/>
@@ -5958,7 +5964,7 @@
       <c r="I144"/>
       <c r="J144"/>
     </row>
-    <row r="145" spans="1:10" ht="12.5">
+    <row r="145" spans="1:10">
       <c r="A145" s="108"/>
       <c r="E145"/>
       <c r="F145" s="108"/>
@@ -5966,7 +5972,7 @@
       <c r="I145"/>
       <c r="J145"/>
     </row>
-    <row r="146" spans="1:10" ht="12.5">
+    <row r="146" spans="1:10">
       <c r="A146" s="108"/>
       <c r="E146"/>
       <c r="F146" s="108"/>
@@ -5986,7 +5992,7 @@
       <c r="I147"/>
       <c r="J147"/>
     </row>
-    <row r="148" spans="1:10" ht="12.5">
+    <row r="148" spans="1:10">
       <c r="A148" s="108"/>
       <c r="E148"/>
       <c r="F148" s="108"/>
@@ -5994,7 +6000,7 @@
       <c r="I148"/>
       <c r="J148"/>
     </row>
-    <row r="149" spans="1:10" ht="12.5">
+    <row r="149" spans="1:10">
       <c r="A149" s="108"/>
       <c r="E149"/>
       <c r="F149" s="108"/>
@@ -6002,7 +6008,7 @@
       <c r="I149"/>
       <c r="J149"/>
     </row>
-    <row r="150" spans="1:10" ht="12.5">
+    <row r="150" spans="1:10">
       <c r="A150" s="108"/>
       <c r="E150"/>
       <c r="F150" s="108"/>
@@ -6046,7 +6052,7 @@
       <c r="I153"/>
       <c r="J153"/>
     </row>
-    <row r="154" spans="1:10" ht="12.5">
+    <row r="154" spans="1:10">
       <c r="A154" s="108"/>
       <c r="E154"/>
       <c r="F154" s="108"/>
@@ -6054,7 +6060,7 @@
       <c r="I154"/>
       <c r="J154"/>
     </row>
-    <row r="155" spans="1:10" ht="12.5">
+    <row r="155" spans="1:10">
       <c r="A155" s="108"/>
       <c r="E155"/>
       <c r="F155" s="108"/>
@@ -6074,7 +6080,7 @@
       <c r="I156"/>
       <c r="J156"/>
     </row>
-    <row r="157" spans="1:10" ht="12.5">
+    <row r="157" spans="1:10">
       <c r="A157" s="108"/>
       <c r="E157"/>
       <c r="F157" s="108"/>
@@ -6082,7 +6088,7 @@
       <c r="I157"/>
       <c r="J157"/>
     </row>
-    <row r="158" spans="1:10" ht="12.5">
+    <row r="158" spans="1:10">
       <c r="A158" s="108"/>
       <c r="E158"/>
       <c r="F158" s="108"/>
@@ -6102,7 +6108,7 @@
       <c r="I159"/>
       <c r="J159"/>
     </row>
-    <row r="160" spans="1:10" ht="12.5">
+    <row r="160" spans="1:10">
       <c r="A160" s="108"/>
       <c r="E160"/>
       <c r="F160" s="108"/>
@@ -6122,7 +6128,7 @@
       <c r="I161"/>
       <c r="J161"/>
     </row>
-    <row r="162" spans="1:10" ht="12.5">
+    <row r="162" spans="1:10">
       <c r="A162" s="108"/>
       <c r="E162"/>
       <c r="F162" s="108"/>
@@ -6130,7 +6136,7 @@
       <c r="I162"/>
       <c r="J162"/>
     </row>
-    <row r="163" spans="1:10" ht="12.5">
+    <row r="163" spans="1:10">
       <c r="A163" s="108"/>
       <c r="E163"/>
       <c r="F163" s="108"/>
@@ -6138,7 +6144,7 @@
       <c r="I163"/>
       <c r="J163"/>
     </row>
-    <row r="164" spans="1:10" ht="12.5">
+    <row r="164" spans="1:10">
       <c r="A164" s="108"/>
       <c r="E164"/>
       <c r="F164" s="108"/>
@@ -6146,7 +6152,7 @@
       <c r="I164"/>
       <c r="J164"/>
     </row>
-    <row r="165" spans="1:10" ht="12.5">
+    <row r="165" spans="1:10">
       <c r="A165" s="108"/>
       <c r="E165"/>
       <c r="F165" s="108"/>
@@ -6166,7 +6172,7 @@
       <c r="I166"/>
       <c r="J166"/>
     </row>
-    <row r="167" spans="1:10" ht="12.5">
+    <row r="167" spans="1:10">
       <c r="A167" s="108"/>
       <c r="E167"/>
       <c r="F167" s="108"/>
@@ -6174,7 +6180,7 @@
       <c r="I167"/>
       <c r="J167"/>
     </row>
-    <row r="168" spans="1:10" ht="12.5">
+    <row r="168" spans="1:10">
       <c r="A168" s="108"/>
       <c r="E168"/>
       <c r="F168" s="108"/>
@@ -6182,7 +6188,7 @@
       <c r="I168"/>
       <c r="J168"/>
     </row>
-    <row r="169" spans="1:10" ht="12.5">
+    <row r="169" spans="1:10">
       <c r="A169" s="108"/>
       <c r="E169"/>
       <c r="F169" s="108"/>
@@ -6190,7 +6196,7 @@
       <c r="I169"/>
       <c r="J169"/>
     </row>
-    <row r="170" spans="1:10" ht="12.5">
+    <row r="170" spans="1:10">
       <c r="A170" s="108"/>
       <c r="E170"/>
       <c r="F170" s="108"/>
@@ -6198,7 +6204,7 @@
       <c r="I170"/>
       <c r="J170"/>
     </row>
-    <row r="171" spans="1:10" ht="12.5">
+    <row r="171" spans="1:10">
       <c r="A171" s="108"/>
       <c r="E171"/>
       <c r="F171" s="108"/>
@@ -6218,490 +6224,490 @@
       <c r="I172"/>
       <c r="J172"/>
     </row>
-    <row r="173" spans="1:10" ht="12.5">
+    <row r="173" spans="1:10">
       <c r="E173"/>
       <c r="F173" s="108"/>
       <c r="G173" s="36"/>
       <c r="I173"/>
       <c r="J173"/>
     </row>
-    <row r="174" spans="1:10" ht="12.5">
+    <row r="174" spans="1:10">
       <c r="E174"/>
       <c r="F174" s="108"/>
       <c r="G174" s="36"/>
       <c r="I174"/>
       <c r="J174"/>
     </row>
-    <row r="175" spans="1:10" ht="12.5">
+    <row r="175" spans="1:10">
       <c r="E175"/>
       <c r="F175" s="108"/>
       <c r="G175" s="36"/>
       <c r="I175"/>
       <c r="J175"/>
     </row>
-    <row r="176" spans="1:10" ht="12.5">
+    <row r="176" spans="1:10">
       <c r="E176"/>
       <c r="F176" s="108"/>
       <c r="G176" s="36"/>
       <c r="I176"/>
       <c r="J176"/>
     </row>
-    <row r="177" spans="5:10" ht="12.5">
+    <row r="177" spans="5:10">
       <c r="E177"/>
       <c r="F177" s="108"/>
       <c r="G177" s="36"/>
       <c r="I177"/>
       <c r="J177"/>
     </row>
-    <row r="178" spans="5:10" ht="12.5">
+    <row r="178" spans="5:10">
       <c r="E178"/>
       <c r="F178" s="108"/>
       <c r="G178" s="36"/>
       <c r="I178"/>
       <c r="J178"/>
     </row>
-    <row r="179" spans="5:10" ht="12.5">
+    <row r="179" spans="5:10">
       <c r="E179"/>
       <c r="F179" s="108"/>
       <c r="G179" s="36"/>
       <c r="I179"/>
       <c r="J179"/>
     </row>
-    <row r="180" spans="5:10" ht="12.5">
+    <row r="180" spans="5:10">
       <c r="E180"/>
       <c r="F180" s="108"/>
       <c r="G180" s="36"/>
       <c r="I180"/>
       <c r="J180"/>
     </row>
-    <row r="181" spans="5:10" ht="12.5">
+    <row r="181" spans="5:10">
       <c r="E181"/>
       <c r="F181" s="108"/>
       <c r="G181" s="36"/>
       <c r="I181"/>
       <c r="J181"/>
     </row>
-    <row r="182" spans="5:10" ht="12.5">
+    <row r="182" spans="5:10">
       <c r="E182"/>
       <c r="F182" s="108"/>
       <c r="G182" s="36"/>
       <c r="I182"/>
       <c r="J182"/>
     </row>
-    <row r="183" spans="5:10" ht="12.5">
+    <row r="183" spans="5:10">
       <c r="E183"/>
       <c r="F183" s="108"/>
       <c r="G183" s="36"/>
       <c r="I183"/>
       <c r="J183"/>
     </row>
-    <row r="184" spans="5:10" ht="12.5">
+    <row r="184" spans="5:10">
       <c r="E184"/>
       <c r="F184" s="108"/>
       <c r="G184" s="36"/>
       <c r="I184"/>
       <c r="J184"/>
     </row>
-    <row r="185" spans="5:10" ht="12.5">
+    <row r="185" spans="5:10">
       <c r="E185"/>
       <c r="F185" s="108"/>
       <c r="G185" s="36"/>
       <c r="I185"/>
       <c r="J185"/>
     </row>
-    <row r="186" spans="5:10" ht="12.5">
+    <row r="186" spans="5:10">
       <c r="E186"/>
       <c r="F186" s="108"/>
       <c r="G186" s="36"/>
       <c r="I186"/>
       <c r="J186"/>
     </row>
-    <row r="187" spans="5:10" ht="12.5">
+    <row r="187" spans="5:10">
       <c r="E187"/>
       <c r="F187" s="108"/>
       <c r="G187" s="36"/>
       <c r="I187"/>
       <c r="J187"/>
     </row>
-    <row r="188" spans="5:10" ht="12.5">
+    <row r="188" spans="5:10">
       <c r="E188"/>
       <c r="F188" s="108"/>
       <c r="G188" s="36"/>
       <c r="I188"/>
       <c r="J188"/>
     </row>
-    <row r="189" spans="5:10" ht="12.5">
+    <row r="189" spans="5:10">
       <c r="E189"/>
       <c r="F189" s="108"/>
       <c r="G189" s="36"/>
       <c r="I189"/>
       <c r="J189"/>
     </row>
-    <row r="190" spans="5:10" ht="12.5">
+    <row r="190" spans="5:10">
       <c r="E190"/>
       <c r="F190" s="108"/>
       <c r="G190" s="36"/>
       <c r="I190"/>
       <c r="J190"/>
     </row>
-    <row r="191" spans="5:10" ht="12.5">
+    <row r="191" spans="5:10">
       <c r="E191"/>
       <c r="F191" s="108"/>
       <c r="G191" s="36"/>
       <c r="I191"/>
       <c r="J191"/>
     </row>
-    <row r="192" spans="5:10" ht="12.5">
+    <row r="192" spans="5:10">
       <c r="E192"/>
       <c r="F192" s="108"/>
       <c r="G192" s="36"/>
       <c r="I192"/>
       <c r="J192"/>
     </row>
-    <row r="193" spans="5:10" ht="12.5">
+    <row r="193" spans="5:10">
       <c r="E193"/>
       <c r="F193" s="108"/>
       <c r="G193" s="36"/>
       <c r="I193"/>
       <c r="J193"/>
     </row>
-    <row r="194" spans="5:10" ht="12.5">
+    <row r="194" spans="5:10">
       <c r="E194"/>
       <c r="F194" s="108"/>
       <c r="G194" s="36"/>
       <c r="I194"/>
       <c r="J194"/>
     </row>
-    <row r="195" spans="5:10" ht="12.5">
+    <row r="195" spans="5:10">
       <c r="E195"/>
       <c r="F195" s="108"/>
       <c r="G195" s="36"/>
       <c r="I195"/>
       <c r="J195"/>
     </row>
-    <row r="196" spans="5:10" ht="12.5">
+    <row r="196" spans="5:10">
       <c r="E196"/>
       <c r="F196" s="108"/>
       <c r="G196" s="36"/>
       <c r="I196"/>
       <c r="J196"/>
     </row>
-    <row r="197" spans="5:10" ht="12.5">
+    <row r="197" spans="5:10">
       <c r="E197"/>
       <c r="F197" s="108"/>
       <c r="G197" s="36"/>
       <c r="I197"/>
       <c r="J197"/>
     </row>
-    <row r="198" spans="5:10" ht="12.5">
+    <row r="198" spans="5:10">
       <c r="E198"/>
       <c r="F198" s="108"/>
       <c r="G198" s="36"/>
       <c r="I198"/>
       <c r="J198"/>
     </row>
-    <row r="199" spans="5:10" ht="12.5">
+    <row r="199" spans="5:10">
       <c r="E199"/>
       <c r="F199" s="108"/>
       <c r="G199" s="36"/>
       <c r="I199"/>
       <c r="J199"/>
     </row>
-    <row r="200" spans="5:10" ht="12.5">
+    <row r="200" spans="5:10">
       <c r="E200"/>
       <c r="F200" s="108"/>
       <c r="G200" s="36"/>
       <c r="I200"/>
       <c r="J200"/>
     </row>
-    <row r="201" spans="5:10" ht="12.5">
+    <row r="201" spans="5:10">
       <c r="E201"/>
       <c r="F201" s="108"/>
       <c r="G201" s="36"/>
       <c r="I201"/>
       <c r="J201"/>
     </row>
-    <row r="202" spans="5:10" ht="12.5">
+    <row r="202" spans="5:10">
       <c r="E202"/>
       <c r="F202" s="108"/>
       <c r="G202" s="36"/>
       <c r="I202"/>
       <c r="J202"/>
     </row>
-    <row r="203" spans="5:10" ht="12.5">
+    <row r="203" spans="5:10">
       <c r="E203"/>
       <c r="F203" s="108"/>
       <c r="G203" s="36"/>
       <c r="I203"/>
       <c r="J203"/>
     </row>
-    <row r="204" spans="5:10" ht="12.5">
+    <row r="204" spans="5:10">
       <c r="E204"/>
       <c r="F204" s="108"/>
       <c r="G204" s="36"/>
       <c r="I204"/>
       <c r="J204"/>
     </row>
-    <row r="205" spans="5:10" ht="12.5">
+    <row r="205" spans="5:10">
       <c r="E205"/>
       <c r="F205" s="108"/>
       <c r="G205" s="36"/>
       <c r="I205"/>
       <c r="J205"/>
     </row>
-    <row r="206" spans="5:10" ht="12.5">
+    <row r="206" spans="5:10">
       <c r="E206"/>
       <c r="F206" s="108"/>
       <c r="G206" s="36"/>
       <c r="I206"/>
       <c r="J206"/>
     </row>
-    <row r="207" spans="5:10" ht="12.5">
+    <row r="207" spans="5:10">
       <c r="E207"/>
       <c r="F207" s="108"/>
       <c r="G207" s="36"/>
       <c r="I207"/>
       <c r="J207"/>
     </row>
-    <row r="208" spans="5:10" ht="12.5">
+    <row r="208" spans="5:10">
       <c r="E208"/>
       <c r="F208" s="108"/>
       <c r="G208" s="36"/>
       <c r="I208"/>
       <c r="J208"/>
     </row>
-    <row r="209" spans="5:10" ht="12.5">
+    <row r="209" spans="5:10">
       <c r="E209"/>
       <c r="F209" s="108"/>
       <c r="G209" s="36"/>
       <c r="I209"/>
       <c r="J209"/>
     </row>
-    <row r="210" spans="5:10" ht="12.5">
+    <row r="210" spans="5:10">
       <c r="E210"/>
       <c r="F210" s="108"/>
       <c r="G210" s="36"/>
       <c r="I210"/>
       <c r="J210"/>
     </row>
-    <row r="211" spans="5:10" ht="12.5">
+    <row r="211" spans="5:10">
       <c r="E211"/>
       <c r="F211" s="108"/>
       <c r="G211" s="36"/>
       <c r="I211"/>
       <c r="J211"/>
     </row>
-    <row r="212" spans="5:10" ht="12.5">
+    <row r="212" spans="5:10">
       <c r="E212"/>
       <c r="F212" s="108"/>
       <c r="G212" s="36"/>
       <c r="I212"/>
       <c r="J212"/>
     </row>
-    <row r="213" spans="5:10" ht="12.5">
+    <row r="213" spans="5:10">
       <c r="E213"/>
       <c r="F213" s="108"/>
       <c r="G213" s="36"/>
       <c r="I213"/>
       <c r="J213"/>
     </row>
-    <row r="214" spans="5:10" ht="12.5">
+    <row r="214" spans="5:10">
       <c r="E214"/>
       <c r="F214" s="108"/>
       <c r="G214" s="36"/>
       <c r="I214"/>
       <c r="J214"/>
     </row>
-    <row r="215" spans="5:10" ht="12.5">
+    <row r="215" spans="5:10">
       <c r="E215"/>
       <c r="F215" s="108"/>
       <c r="G215" s="36"/>
       <c r="I215"/>
       <c r="J215"/>
     </row>
-    <row r="216" spans="5:10" ht="12.5">
+    <row r="216" spans="5:10">
       <c r="E216"/>
       <c r="F216" s="108"/>
       <c r="G216" s="36"/>
       <c r="I216"/>
       <c r="J216"/>
     </row>
-    <row r="217" spans="5:10" ht="12.5">
+    <row r="217" spans="5:10">
       <c r="E217"/>
       <c r="F217" s="108"/>
       <c r="G217" s="36"/>
       <c r="I217"/>
       <c r="J217"/>
     </row>
-    <row r="218" spans="5:10" ht="12.5">
+    <row r="218" spans="5:10">
       <c r="E218"/>
       <c r="F218" s="108"/>
       <c r="G218" s="36"/>
       <c r="I218"/>
       <c r="J218"/>
     </row>
-    <row r="219" spans="5:10" ht="12.5">
+    <row r="219" spans="5:10">
       <c r="E219"/>
       <c r="F219" s="108"/>
       <c r="G219" s="36"/>
       <c r="I219"/>
       <c r="J219"/>
     </row>
-    <row r="220" spans="5:10" ht="12.5">
+    <row r="220" spans="5:10">
       <c r="E220"/>
       <c r="F220" s="108"/>
       <c r="G220" s="36"/>
       <c r="I220"/>
       <c r="J220"/>
     </row>
-    <row r="221" spans="5:10" ht="12.5">
+    <row r="221" spans="5:10">
       <c r="E221"/>
       <c r="F221" s="108"/>
       <c r="G221" s="36"/>
       <c r="I221"/>
       <c r="J221"/>
     </row>
-    <row r="222" spans="5:10" ht="12.5">
+    <row r="222" spans="5:10">
       <c r="E222"/>
       <c r="F222" s="108"/>
       <c r="G222" s="36"/>
       <c r="I222"/>
       <c r="J222"/>
     </row>
-    <row r="223" spans="5:10" ht="12.5">
+    <row r="223" spans="5:10">
       <c r="E223"/>
       <c r="F223" s="108"/>
       <c r="G223" s="36"/>
       <c r="I223"/>
       <c r="J223"/>
     </row>
-    <row r="224" spans="5:10" ht="12.5">
+    <row r="224" spans="5:10">
       <c r="E224"/>
       <c r="F224" s="108"/>
       <c r="G224" s="36"/>
       <c r="I224"/>
       <c r="J224"/>
     </row>
-    <row r="225" spans="5:10" ht="12.5">
+    <row r="225" spans="5:10">
       <c r="E225"/>
       <c r="F225" s="108"/>
       <c r="G225" s="36"/>
       <c r="I225"/>
       <c r="J225"/>
     </row>
-    <row r="226" spans="5:10" ht="12.5">
+    <row r="226" spans="5:10">
       <c r="E226"/>
       <c r="F226" s="108"/>
       <c r="G226" s="36"/>
       <c r="I226"/>
       <c r="J226"/>
     </row>
-    <row r="227" spans="5:10" ht="12.5">
+    <row r="227" spans="5:10">
       <c r="E227"/>
       <c r="F227" s="108"/>
       <c r="G227" s="36"/>
       <c r="I227"/>
       <c r="J227"/>
     </row>
-    <row r="228" spans="5:10" ht="12.5">
+    <row r="228" spans="5:10">
       <c r="E228"/>
       <c r="F228" s="108"/>
       <c r="G228" s="36"/>
       <c r="I228"/>
       <c r="J228"/>
     </row>
-    <row r="229" spans="5:10" ht="12.5">
+    <row r="229" spans="5:10">
       <c r="E229"/>
       <c r="F229" s="108"/>
       <c r="G229" s="36"/>
       <c r="I229"/>
       <c r="J229"/>
     </row>
-    <row r="230" spans="5:10" ht="12.5">
+    <row r="230" spans="5:10">
       <c r="E230"/>
       <c r="F230" s="108"/>
       <c r="G230" s="36"/>
       <c r="I230"/>
       <c r="J230"/>
     </row>
-    <row r="231" spans="5:10" ht="12.5">
+    <row r="231" spans="5:10">
       <c r="E231"/>
       <c r="F231" s="108"/>
       <c r="G231" s="36"/>
       <c r="I231"/>
       <c r="J231"/>
     </row>
-    <row r="232" spans="5:10" ht="12.5">
+    <row r="232" spans="5:10">
       <c r="E232"/>
       <c r="F232" s="108"/>
       <c r="G232" s="36"/>
       <c r="I232"/>
       <c r="J232"/>
     </row>
-    <row r="233" spans="5:10" ht="12.5">
+    <row r="233" spans="5:10">
       <c r="E233"/>
       <c r="F233" s="108"/>
       <c r="G233" s="36"/>
       <c r="I233"/>
       <c r="J233"/>
     </row>
-    <row r="234" spans="5:10" ht="12.5">
+    <row r="234" spans="5:10">
       <c r="E234"/>
       <c r="F234" s="108"/>
       <c r="G234" s="36"/>
       <c r="I234"/>
       <c r="J234"/>
     </row>
-    <row r="235" spans="5:10" ht="12.5">
+    <row r="235" spans="5:10">
       <c r="E235"/>
       <c r="F235" s="108"/>
       <c r="G235" s="36"/>
       <c r="I235"/>
       <c r="J235"/>
     </row>
-    <row r="236" spans="5:10" ht="12.5">
+    <row r="236" spans="5:10">
       <c r="E236"/>
       <c r="F236" s="108"/>
       <c r="G236" s="36"/>
       <c r="I236"/>
       <c r="J236"/>
     </row>
-    <row r="237" spans="5:10" ht="12.5">
+    <row r="237" spans="5:10">
       <c r="E237"/>
       <c r="F237" s="108"/>
       <c r="G237" s="36"/>
       <c r="I237"/>
       <c r="J237"/>
     </row>
-    <row r="238" spans="5:10" ht="12.5">
+    <row r="238" spans="5:10">
       <c r="E238"/>
       <c r="F238" s="108"/>
       <c r="G238" s="36"/>
       <c r="I238"/>
       <c r="J238"/>
     </row>
-    <row r="239" spans="5:10" ht="12.5">
+    <row r="239" spans="5:10">
       <c r="E239"/>
       <c r="F239" s="108"/>
       <c r="G239" s="36"/>
       <c r="I239"/>
       <c r="J239"/>
     </row>
-    <row r="240" spans="5:10" ht="12.5">
+    <row r="240" spans="5:10">
       <c r="E240"/>
       <c r="F240" s="108"/>
       <c r="G240" s="36"/>
       <c r="I240"/>
       <c r="J240"/>
     </row>
-    <row r="241" spans="1:10" ht="12.5">
+    <row r="241" spans="1:10">
       <c r="E241"/>
       <c r="F241" s="108"/>
       <c r="G241" s="36"/>
       <c r="I241"/>
       <c r="J241"/>
     </row>
-    <row r="242" spans="1:10" ht="12.5">
+    <row r="242" spans="1:10">
       <c r="E242"/>
       <c r="F242" s="108"/>
       <c r="G242" s="36"/>
@@ -6725,7 +6731,7 @@
       <c r="H244" s="193"/>
       <c r="J244"/>
     </row>
-    <row r="245" spans="1:10" ht="12.5">
+    <row r="245" spans="1:10">
       <c r="E245"/>
       <c r="F245" s="108"/>
       <c r="G245" s="36"/>
@@ -6756,98 +6762,98 @@
       <c r="G250" s="219"/>
       <c r="H250" s="193"/>
     </row>
-    <row r="251" spans="1:10" ht="12.5">
+    <row r="251" spans="1:10">
       <c r="E251"/>
       <c r="F251" s="108"/>
       <c r="G251" s="36"/>
       <c r="I251"/>
       <c r="J251"/>
     </row>
-    <row r="252" spans="1:10" ht="12.5">
+    <row r="252" spans="1:10">
       <c r="E252"/>
       <c r="F252" s="108"/>
       <c r="G252" s="36"/>
       <c r="I252"/>
       <c r="J252"/>
     </row>
-    <row r="253" spans="1:10" ht="12.5">
+    <row r="253" spans="1:10">
       <c r="E253"/>
       <c r="F253" s="108"/>
       <c r="G253" s="36"/>
       <c r="I253"/>
       <c r="J253"/>
     </row>
-    <row r="254" spans="1:10" ht="12.5">
+    <row r="254" spans="1:10">
       <c r="E254"/>
       <c r="F254" s="108"/>
       <c r="G254" s="36"/>
       <c r="I254"/>
       <c r="J254"/>
     </row>
-    <row r="255" spans="1:10" ht="12.5">
+    <row r="255" spans="1:10">
       <c r="E255"/>
       <c r="F255" s="108"/>
       <c r="G255" s="36"/>
       <c r="I255"/>
       <c r="J255"/>
     </row>
-    <row r="256" spans="1:10" ht="12.5">
+    <row r="256" spans="1:10">
       <c r="E256"/>
       <c r="F256" s="108"/>
       <c r="G256" s="36"/>
       <c r="I256"/>
       <c r="J256"/>
     </row>
-    <row r="257" spans="1:10" ht="12.5">
+    <row r="257" spans="1:10">
       <c r="E257"/>
       <c r="F257" s="108"/>
       <c r="G257" s="36"/>
       <c r="I257"/>
       <c r="J257"/>
     </row>
-    <row r="258" spans="1:10" ht="12.5">
+    <row r="258" spans="1:10">
       <c r="E258"/>
       <c r="F258" s="108"/>
       <c r="G258" s="36"/>
       <c r="I258"/>
       <c r="J258"/>
     </row>
-    <row r="259" spans="1:10" ht="12.5">
+    <row r="259" spans="1:10">
       <c r="E259"/>
       <c r="F259" s="108"/>
       <c r="G259" s="36"/>
       <c r="I259"/>
       <c r="J259"/>
     </row>
-    <row r="260" spans="1:10" ht="12.5">
+    <row r="260" spans="1:10">
       <c r="E260"/>
       <c r="F260" s="108"/>
       <c r="G260" s="36"/>
       <c r="I260"/>
       <c r="J260"/>
     </row>
-    <row r="261" spans="1:10" ht="12.5">
+    <row r="261" spans="1:10">
       <c r="E261"/>
       <c r="F261" s="108"/>
       <c r="G261" s="36"/>
       <c r="I261"/>
       <c r="J261"/>
     </row>
-    <row r="262" spans="1:10" ht="12.5">
+    <row r="262" spans="1:10">
       <c r="E262"/>
       <c r="F262" s="108"/>
       <c r="G262" s="36"/>
       <c r="I262"/>
       <c r="J262"/>
     </row>
-    <row r="263" spans="1:10" ht="12.5">
+    <row r="263" spans="1:10">
       <c r="E263"/>
       <c r="F263" s="108"/>
       <c r="G263" s="36"/>
       <c r="I263"/>
       <c r="J263"/>
     </row>
-    <row r="264" spans="1:10" ht="12.5">
+    <row r="264" spans="1:10">
       <c r="E264"/>
       <c r="F264" s="108"/>
       <c r="G264" s="36"/>
@@ -6866,63 +6872,63 @@
       <c r="I265"/>
       <c r="J265"/>
     </row>
-    <row r="266" spans="1:10" ht="12.5">
+    <row r="266" spans="1:10">
       <c r="E266"/>
       <c r="F266" s="108"/>
       <c r="G266" s="36"/>
       <c r="I266"/>
       <c r="J266"/>
     </row>
-    <row r="267" spans="1:10" ht="12.5">
+    <row r="267" spans="1:10">
       <c r="E267"/>
       <c r="F267" s="108"/>
       <c r="G267" s="36"/>
       <c r="I267"/>
       <c r="J267"/>
     </row>
-    <row r="268" spans="1:10" ht="12.5">
+    <row r="268" spans="1:10">
       <c r="E268"/>
       <c r="F268" s="108"/>
       <c r="G268" s="36"/>
       <c r="I268"/>
       <c r="J268"/>
     </row>
-    <row r="269" spans="1:10" ht="12.5">
+    <row r="269" spans="1:10">
       <c r="E269"/>
       <c r="F269" s="108"/>
       <c r="G269" s="36"/>
       <c r="I269"/>
       <c r="J269"/>
     </row>
-    <row r="270" spans="1:10" ht="12.5">
+    <row r="270" spans="1:10">
       <c r="E270"/>
       <c r="F270" s="108"/>
       <c r="G270" s="36"/>
       <c r="I270"/>
       <c r="J270"/>
     </row>
-    <row r="271" spans="1:10" ht="12.5">
+    <row r="271" spans="1:10">
       <c r="E271"/>
       <c r="F271" s="108"/>
       <c r="G271" s="36"/>
       <c r="I271"/>
       <c r="J271"/>
     </row>
-    <row r="272" spans="1:10" ht="12.5">
+    <row r="272" spans="1:10">
       <c r="E272"/>
       <c r="F272" s="108"/>
       <c r="G272" s="36"/>
       <c r="I272"/>
       <c r="J272"/>
     </row>
-    <row r="273" spans="1:10" ht="12.5">
+    <row r="273" spans="1:10">
       <c r="E273"/>
       <c r="F273" s="108"/>
       <c r="G273" s="36"/>
       <c r="I273"/>
       <c r="J273"/>
     </row>
-    <row r="274" spans="1:10" ht="12.5">
+    <row r="274" spans="1:10">
       <c r="E274"/>
       <c r="F274" s="108"/>
       <c r="G274" s="36"/>
@@ -6941,28 +6947,28 @@
       <c r="I275"/>
       <c r="J275"/>
     </row>
-    <row r="276" spans="1:10" ht="12.5">
+    <row r="276" spans="1:10">
       <c r="E276"/>
       <c r="F276" s="108"/>
       <c r="G276" s="36"/>
       <c r="I276"/>
       <c r="J276"/>
     </row>
-    <row r="277" spans="1:10" ht="12.5">
+    <row r="277" spans="1:10">
       <c r="E277"/>
       <c r="F277" s="108"/>
       <c r="G277" s="36"/>
       <c r="I277"/>
       <c r="J277"/>
     </row>
-    <row r="278" spans="1:10" ht="12.5">
+    <row r="278" spans="1:10">
       <c r="E278"/>
       <c r="F278" s="108"/>
       <c r="G278" s="36"/>
       <c r="I278"/>
       <c r="J278"/>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" ht="13.5">
       <c r="B279" s="231"/>
       <c r="E279"/>
       <c r="F279" s="108"/>
@@ -6970,49 +6976,49 @@
       <c r="I279"/>
       <c r="J279"/>
     </row>
-    <row r="280" spans="1:10" ht="12.5">
+    <row r="280" spans="1:10">
       <c r="E280"/>
       <c r="F280" s="108"/>
       <c r="G280" s="36"/>
       <c r="I280"/>
       <c r="J280"/>
     </row>
-    <row r="281" spans="1:10" ht="12.5">
+    <row r="281" spans="1:10">
       <c r="E281"/>
       <c r="F281" s="108"/>
       <c r="G281" s="36"/>
       <c r="I281"/>
       <c r="J281"/>
     </row>
-    <row r="282" spans="1:10" ht="12.5">
+    <row r="282" spans="1:10">
       <c r="E282"/>
       <c r="F282" s="108"/>
       <c r="G282" s="36"/>
       <c r="I282"/>
       <c r="J282"/>
     </row>
-    <row r="283" spans="1:10" ht="12.5">
+    <row r="283" spans="1:10">
       <c r="E283"/>
       <c r="F283" s="108"/>
       <c r="G283" s="36"/>
       <c r="I283"/>
       <c r="J283"/>
     </row>
-    <row r="284" spans="1:10" ht="12.5">
+    <row r="284" spans="1:10">
       <c r="E284"/>
       <c r="F284" s="108"/>
       <c r="G284" s="36"/>
       <c r="I284"/>
       <c r="J284"/>
     </row>
-    <row r="285" spans="1:10" ht="12.5">
+    <row r="285" spans="1:10">
       <c r="E285"/>
       <c r="F285" s="108"/>
       <c r="G285" s="36"/>
       <c r="I285"/>
       <c r="J285"/>
     </row>
-    <row r="286" spans="1:10" ht="12.5">
+    <row r="286" spans="1:10">
       <c r="E286"/>
       <c r="F286" s="108"/>
       <c r="G286" s="36"/>
@@ -7291,7 +7297,7 @@
       <c r="I327"/>
       <c r="J327"/>
     </row>
-    <row r="328" spans="1:10" ht="12.5">
+    <row r="328" spans="1:10">
       <c r="A328" s="108"/>
       <c r="E328"/>
       <c r="F328" s="108"/>
@@ -7311,21 +7317,21 @@
       <c r="I329"/>
       <c r="J329"/>
     </row>
-    <row r="330" spans="1:10" ht="12.5">
+    <row r="330" spans="1:10">
       <c r="E330"/>
       <c r="F330" s="108"/>
       <c r="G330" s="36"/>
       <c r="I330"/>
       <c r="J330"/>
     </row>
-    <row r="331" spans="1:10" ht="12.5">
+    <row r="331" spans="1:10">
       <c r="A331" s="108"/>
       <c r="E331"/>
       <c r="F331" s="108"/>
       <c r="I331"/>
       <c r="J331"/>
     </row>
-    <row r="332" spans="1:10" ht="12.5">
+    <row r="332" spans="1:10">
       <c r="A332" s="108"/>
       <c r="E332"/>
       <c r="F332" s="108"/>
@@ -7344,14 +7350,14 @@
       <c r="I333"/>
       <c r="J333"/>
     </row>
-    <row r="334" spans="1:10" ht="12.5">
+    <row r="334" spans="1:10">
       <c r="E334"/>
       <c r="F334" s="108"/>
       <c r="G334" s="36"/>
       <c r="I334"/>
       <c r="J334"/>
     </row>
-    <row r="335" spans="1:10" ht="12.5">
+    <row r="335" spans="1:10">
       <c r="A335" s="108"/>
       <c r="E335"/>
       <c r="F335" s="108"/>
@@ -7359,7 +7365,7 @@
       <c r="I335"/>
       <c r="J335"/>
     </row>
-    <row r="336" spans="1:10" ht="12.5">
+    <row r="336" spans="1:10">
       <c r="A336" s="108"/>
       <c r="E336"/>
       <c r="F336" s="108"/>
@@ -7367,7 +7373,7 @@
       <c r="I336"/>
       <c r="J336"/>
     </row>
-    <row r="337" spans="1:10" ht="12.5">
+    <row r="337" spans="1:10">
       <c r="A337" s="108"/>
       <c r="E337"/>
       <c r="F337" s="108"/>
@@ -7433,14 +7439,14 @@
       <c r="I344"/>
       <c r="J344"/>
     </row>
-    <row r="345" spans="1:10" ht="12.5">
+    <row r="345" spans="1:10">
       <c r="E345"/>
       <c r="F345" s="108"/>
       <c r="G345" s="36"/>
       <c r="I345"/>
       <c r="J345"/>
     </row>
-    <row r="346" spans="1:10" ht="12.5">
+    <row r="346" spans="1:10">
       <c r="A346" s="108"/>
       <c r="E346"/>
       <c r="F346" s="108"/>
@@ -7448,7 +7454,7 @@
       <c r="I346"/>
       <c r="J346"/>
     </row>
-    <row r="347" spans="1:10" ht="12.5">
+    <row r="347" spans="1:10">
       <c r="A347" s="108"/>
       <c r="E347"/>
       <c r="F347" s="108"/>
@@ -7456,7 +7462,7 @@
       <c r="I347"/>
       <c r="J347"/>
     </row>
-    <row r="348" spans="1:10" ht="12.5">
+    <row r="348" spans="1:10">
       <c r="A348" s="108"/>
       <c r="E348"/>
       <c r="F348" s="108"/>
@@ -7464,7 +7470,7 @@
       <c r="I348"/>
       <c r="J348"/>
     </row>
-    <row r="349" spans="1:10" ht="12.5">
+    <row r="349" spans="1:10">
       <c r="A349" s="108"/>
       <c r="E349"/>
       <c r="F349" s="108"/>
@@ -7472,7 +7478,7 @@
       <c r="I349"/>
       <c r="J349"/>
     </row>
-    <row r="350" spans="1:10" ht="12.5">
+    <row r="350" spans="1:10">
       <c r="A350" s="108"/>
       <c r="E350"/>
       <c r="F350" s="108"/>
@@ -7480,7 +7486,7 @@
       <c r="I350"/>
       <c r="J350"/>
     </row>
-    <row r="351" spans="1:10" ht="12.5">
+    <row r="351" spans="1:10">
       <c r="A351" s="108"/>
       <c r="E351"/>
       <c r="F351" s="108"/>
@@ -7488,7 +7494,7 @@
       <c r="I351"/>
       <c r="J351"/>
     </row>
-    <row r="352" spans="1:10" ht="12.5">
+    <row r="352" spans="1:10">
       <c r="A352" s="108"/>
       <c r="B352" s="220"/>
       <c r="E352"/>
@@ -7496,14 +7502,14 @@
       <c r="I352"/>
       <c r="J352"/>
     </row>
-    <row r="353" spans="1:10" ht="12.5">
+    <row r="353" spans="1:10">
       <c r="A353" s="108"/>
       <c r="E353"/>
       <c r="F353" s="108"/>
       <c r="I353"/>
       <c r="J353"/>
     </row>
-    <row r="354" spans="1:10" ht="12.5">
+    <row r="354" spans="1:10">
       <c r="A354" s="108"/>
       <c r="E354"/>
       <c r="F354" s="108"/>
@@ -7511,7 +7517,7 @@
       <c r="I354"/>
       <c r="J354"/>
     </row>
-    <row r="355" spans="1:10" ht="12.5">
+    <row r="355" spans="1:10">
       <c r="A355" s="108"/>
       <c r="E355"/>
       <c r="F355" s="108"/>
@@ -7519,7 +7525,7 @@
       <c r="I355"/>
       <c r="J355"/>
     </row>
-    <row r="356" spans="1:10" ht="12.5">
+    <row r="356" spans="1:10">
       <c r="A356" s="108"/>
       <c r="E356"/>
       <c r="F356" s="108"/>
@@ -7527,7 +7533,7 @@
       <c r="I356"/>
       <c r="J356"/>
     </row>
-    <row r="357" spans="1:10" ht="12.5">
+    <row r="357" spans="1:10">
       <c r="A357" s="108"/>
       <c r="E357"/>
       <c r="F357" s="108"/>
@@ -7535,7 +7541,7 @@
       <c r="I357"/>
       <c r="J357"/>
     </row>
-    <row r="358" spans="1:10" ht="12.5">
+    <row r="358" spans="1:10">
       <c r="A358" s="108"/>
       <c r="E358"/>
       <c r="F358" s="108"/>
@@ -7543,7 +7549,7 @@
       <c r="I358"/>
       <c r="J358"/>
     </row>
-    <row r="359" spans="1:10" ht="12.5">
+    <row r="359" spans="1:10">
       <c r="A359" s="108"/>
       <c r="E359"/>
       <c r="F359" s="108"/>
@@ -7551,7 +7557,7 @@
       <c r="I359"/>
       <c r="J359"/>
     </row>
-    <row r="360" spans="1:10" ht="12.5">
+    <row r="360" spans="1:10">
       <c r="A360" s="108"/>
       <c r="B360" s="108"/>
       <c r="E360"/>
@@ -7560,7 +7566,7 @@
       <c r="I360"/>
       <c r="J360"/>
     </row>
-    <row r="361" spans="1:10" ht="12.5">
+    <row r="361" spans="1:10">
       <c r="A361" s="108"/>
       <c r="B361" s="108"/>
       <c r="E361"/>
@@ -7569,7 +7575,7 @@
       <c r="I361"/>
       <c r="J361"/>
     </row>
-    <row r="362" spans="1:10" ht="12.5">
+    <row r="362" spans="1:10">
       <c r="A362" s="108"/>
       <c r="B362" s="108"/>
       <c r="E362"/>
@@ -7578,7 +7584,7 @@
       <c r="I362"/>
       <c r="J362"/>
     </row>
-    <row r="363" spans="1:10" ht="12.5">
+    <row r="363" spans="1:10">
       <c r="A363" s="108"/>
       <c r="B363" s="108"/>
       <c r="E363"/>
@@ -7587,7 +7593,7 @@
       <c r="I363"/>
       <c r="J363"/>
     </row>
-    <row r="364" spans="1:10" ht="12.5">
+    <row r="364" spans="1:10">
       <c r="A364" s="108"/>
       <c r="B364" s="108"/>
       <c r="E364"/>
@@ -7596,7 +7602,7 @@
       <c r="I364"/>
       <c r="J364"/>
     </row>
-    <row r="365" spans="1:10" ht="12.5">
+    <row r="365" spans="1:10">
       <c r="A365" s="108"/>
       <c r="E365"/>
       <c r="F365" s="108"/>
@@ -7604,7 +7610,7 @@
       <c r="I365"/>
       <c r="J365"/>
     </row>
-    <row r="366" spans="1:10" ht="12.5">
+    <row r="366" spans="1:10">
       <c r="A366" s="108"/>
       <c r="E366"/>
       <c r="F366" s="108"/>
@@ -7612,7 +7618,7 @@
       <c r="I366"/>
       <c r="J366"/>
     </row>
-    <row r="367" spans="1:10" ht="12.5">
+    <row r="367" spans="1:10">
       <c r="A367" s="108"/>
       <c r="E367"/>
       <c r="F367" s="108"/>
@@ -7620,7 +7626,7 @@
       <c r="I367"/>
       <c r="J367"/>
     </row>
-    <row r="368" spans="1:10" ht="12.5">
+    <row r="368" spans="1:10">
       <c r="A368" s="108"/>
       <c r="E368"/>
       <c r="F368" s="108"/>
@@ -7628,7 +7634,7 @@
       <c r="I368"/>
       <c r="J368"/>
     </row>
-    <row r="369" spans="1:10" ht="12.5">
+    <row r="369" spans="1:10">
       <c r="A369" s="108"/>
       <c r="E369"/>
       <c r="F369" s="108"/>
@@ -7636,7 +7642,7 @@
       <c r="I369"/>
       <c r="J369"/>
     </row>
-    <row r="370" spans="1:10" ht="12.5">
+    <row r="370" spans="1:10">
       <c r="A370" s="108"/>
       <c r="E370"/>
       <c r="F370" s="108"/>
@@ -7644,7 +7650,7 @@
       <c r="I370"/>
       <c r="J370"/>
     </row>
-    <row r="371" spans="1:10" ht="12.5">
+    <row r="371" spans="1:10">
       <c r="A371" s="108"/>
       <c r="E371"/>
       <c r="F371" s="108"/>
@@ -7652,7 +7658,7 @@
       <c r="I371"/>
       <c r="J371"/>
     </row>
-    <row r="372" spans="1:10" ht="12.5">
+    <row r="372" spans="1:10">
       <c r="A372" s="108"/>
       <c r="E372"/>
       <c r="F372" s="108"/>
@@ -7660,7 +7666,7 @@
       <c r="I372"/>
       <c r="J372"/>
     </row>
-    <row r="373" spans="1:10" ht="12.5">
+    <row r="373" spans="1:10">
       <c r="A373" s="108"/>
       <c r="E373"/>
       <c r="F373" s="108"/>
@@ -7668,7 +7674,7 @@
       <c r="I373"/>
       <c r="J373"/>
     </row>
-    <row r="374" spans="1:10" ht="12.5">
+    <row r="374" spans="1:10">
       <c r="A374" s="108"/>
       <c r="E374"/>
       <c r="F374" s="108"/>
@@ -7676,7 +7682,7 @@
       <c r="I374"/>
       <c r="J374"/>
     </row>
-    <row r="375" spans="1:10" ht="12.5">
+    <row r="375" spans="1:10">
       <c r="A375" s="108"/>
       <c r="E375"/>
       <c r="F375" s="108"/>
@@ -7684,7 +7690,7 @@
       <c r="I375"/>
       <c r="J375"/>
     </row>
-    <row r="376" spans="1:10" ht="12.5">
+    <row r="376" spans="1:10">
       <c r="A376" s="108"/>
       <c r="E376"/>
       <c r="F376" s="108"/>
@@ -7692,7 +7698,7 @@
       <c r="I376"/>
       <c r="J376"/>
     </row>
-    <row r="377" spans="1:10" ht="12.5">
+    <row r="377" spans="1:10">
       <c r="A377" s="108"/>
       <c r="E377"/>
       <c r="F377" s="108"/>
@@ -7700,7 +7706,7 @@
       <c r="I377"/>
       <c r="J377"/>
     </row>
-    <row r="378" spans="1:10" ht="12.5">
+    <row r="378" spans="1:10">
       <c r="A378" s="108"/>
       <c r="E378"/>
       <c r="F378" s="108"/>
@@ -7708,7 +7714,7 @@
       <c r="I378"/>
       <c r="J378"/>
     </row>
-    <row r="379" spans="1:10" ht="12.5">
+    <row r="379" spans="1:10">
       <c r="A379" s="108"/>
       <c r="E379"/>
       <c r="F379" s="108"/>
@@ -7716,7 +7722,7 @@
       <c r="I379"/>
       <c r="J379"/>
     </row>
-    <row r="380" spans="1:10" ht="12.5">
+    <row r="380" spans="1:10">
       <c r="A380" s="108"/>
       <c r="E380"/>
       <c r="F380" s="108"/>
@@ -7724,7 +7730,7 @@
       <c r="I380"/>
       <c r="J380"/>
     </row>
-    <row r="381" spans="1:10" ht="12.5">
+    <row r="381" spans="1:10">
       <c r="A381" s="108"/>
       <c r="E381"/>
       <c r="F381" s="108"/>
@@ -7732,7 +7738,7 @@
       <c r="I381"/>
       <c r="J381"/>
     </row>
-    <row r="382" spans="1:10" ht="12.5">
+    <row r="382" spans="1:10">
       <c r="A382" s="108"/>
       <c r="E382"/>
       <c r="F382" s="108"/>
@@ -7740,7 +7746,7 @@
       <c r="I382"/>
       <c r="J382"/>
     </row>
-    <row r="383" spans="1:10" ht="12.5">
+    <row r="383" spans="1:10">
       <c r="A383" s="108"/>
       <c r="E383"/>
       <c r="F383" s="108"/>
@@ -7748,7 +7754,7 @@
       <c r="I383"/>
       <c r="J383"/>
     </row>
-    <row r="384" spans="1:10" ht="12.5">
+    <row r="384" spans="1:10">
       <c r="A384" s="108"/>
       <c r="E384"/>
       <c r="F384" s="108"/>
@@ -7756,7 +7762,7 @@
       <c r="I384"/>
       <c r="J384"/>
     </row>
-    <row r="385" spans="1:10" ht="12.5">
+    <row r="385" spans="1:10">
       <c r="A385" s="108"/>
       <c r="E385"/>
       <c r="F385" s="108"/>
@@ -7764,7 +7770,7 @@
       <c r="I385"/>
       <c r="J385"/>
     </row>
-    <row r="386" spans="1:10" ht="12.5">
+    <row r="386" spans="1:10">
       <c r="A386" s="108"/>
       <c r="E386"/>
       <c r="F386" s="108"/>
@@ -7772,7 +7778,7 @@
       <c r="I386"/>
       <c r="J386"/>
     </row>
-    <row r="387" spans="1:10" ht="12.5">
+    <row r="387" spans="1:10">
       <c r="A387" s="108"/>
       <c r="E387"/>
       <c r="F387" s="108"/>
@@ -7780,7 +7786,7 @@
       <c r="I387"/>
       <c r="J387"/>
     </row>
-    <row r="388" spans="1:10" ht="12.5">
+    <row r="388" spans="1:10">
       <c r="A388" s="108"/>
       <c r="E388"/>
       <c r="F388" s="108"/>
@@ -7788,7 +7794,7 @@
       <c r="I388"/>
       <c r="J388"/>
     </row>
-    <row r="389" spans="1:10" ht="12.5">
+    <row r="389" spans="1:10">
       <c r="A389" s="108"/>
       <c r="E389"/>
       <c r="F389" s="108"/>
@@ -7796,7 +7802,7 @@
       <c r="I389"/>
       <c r="J389"/>
     </row>
-    <row r="390" spans="1:10" ht="12.5">
+    <row r="390" spans="1:10">
       <c r="A390" s="108"/>
       <c r="E390"/>
       <c r="F390" s="108"/>
@@ -7804,7 +7810,7 @@
       <c r="I390"/>
       <c r="J390"/>
     </row>
-    <row r="391" spans="1:10" ht="12.5">
+    <row r="391" spans="1:10">
       <c r="A391" s="108"/>
       <c r="E391"/>
       <c r="F391" s="108"/>
@@ -7812,7 +7818,7 @@
       <c r="I391"/>
       <c r="J391"/>
     </row>
-    <row r="392" spans="1:10" ht="12.5">
+    <row r="392" spans="1:10">
       <c r="A392" s="108"/>
       <c r="E392"/>
       <c r="F392" s="108"/>
@@ -7820,7 +7826,7 @@
       <c r="I392"/>
       <c r="J392"/>
     </row>
-    <row r="393" spans="1:10" ht="12.5">
+    <row r="393" spans="1:10">
       <c r="A393" s="108"/>
       <c r="E393"/>
       <c r="F393" s="108"/>
@@ -7828,7 +7834,7 @@
       <c r="I393"/>
       <c r="J393"/>
     </row>
-    <row r="394" spans="1:10" ht="12.5">
+    <row r="394" spans="1:10">
       <c r="A394" s="108"/>
       <c r="E394"/>
       <c r="F394" s="108"/>
@@ -7836,7 +7842,7 @@
       <c r="I394"/>
       <c r="J394"/>
     </row>
-    <row r="395" spans="1:10" ht="12.5">
+    <row r="395" spans="1:10">
       <c r="A395" s="108"/>
       <c r="E395"/>
       <c r="F395" s="108"/>
@@ -7844,7 +7850,7 @@
       <c r="I395"/>
       <c r="J395"/>
     </row>
-    <row r="396" spans="1:10" ht="12.5">
+    <row r="396" spans="1:10">
       <c r="A396" s="108"/>
       <c r="E396"/>
       <c r="F396" s="108"/>
@@ -7852,7 +7858,7 @@
       <c r="I396"/>
       <c r="J396"/>
     </row>
-    <row r="397" spans="1:10" ht="12.5">
+    <row r="397" spans="1:10">
       <c r="A397" s="108"/>
       <c r="E397"/>
       <c r="F397" s="108"/>
@@ -7860,7 +7866,7 @@
       <c r="I397"/>
       <c r="J397"/>
     </row>
-    <row r="398" spans="1:10" ht="12.5">
+    <row r="398" spans="1:10">
       <c r="A398" s="108"/>
       <c r="E398"/>
       <c r="F398" s="108"/>
@@ -7868,7 +7874,7 @@
       <c r="I398"/>
       <c r="J398"/>
     </row>
-    <row r="399" spans="1:10" ht="12.5">
+    <row r="399" spans="1:10">
       <c r="A399" s="108"/>
       <c r="E399"/>
       <c r="F399" s="108"/>
@@ -7876,7 +7882,7 @@
       <c r="I399"/>
       <c r="J399"/>
     </row>
-    <row r="400" spans="1:10" ht="12.5">
+    <row r="400" spans="1:10">
       <c r="A400" s="108"/>
       <c r="E400"/>
       <c r="F400" s="108"/>
@@ -7884,7 +7890,7 @@
       <c r="I400"/>
       <c r="J400"/>
     </row>
-    <row r="401" spans="1:10" ht="12.5">
+    <row r="401" spans="1:10">
       <c r="A401" s="108"/>
       <c r="E401"/>
       <c r="F401" s="108"/>
@@ -7892,7 +7898,7 @@
       <c r="I401"/>
       <c r="J401"/>
     </row>
-    <row r="402" spans="1:10" ht="12.5">
+    <row r="402" spans="1:10">
       <c r="A402" s="108"/>
       <c r="E402"/>
       <c r="F402" s="108"/>
@@ -7900,7 +7906,7 @@
       <c r="I402"/>
       <c r="J402"/>
     </row>
-    <row r="403" spans="1:10" ht="12.5">
+    <row r="403" spans="1:10">
       <c r="A403" s="108"/>
       <c r="E403"/>
       <c r="F403" s="108"/>
@@ -7908,7 +7914,7 @@
       <c r="I403"/>
       <c r="J403"/>
     </row>
-    <row r="404" spans="1:10" ht="12.5">
+    <row r="404" spans="1:10">
       <c r="A404" s="108"/>
       <c r="E404"/>
       <c r="F404" s="108"/>
@@ -7916,7 +7922,7 @@
       <c r="I404"/>
       <c r="J404"/>
     </row>
-    <row r="405" spans="1:10" ht="12.5">
+    <row r="405" spans="1:10">
       <c r="A405" s="108"/>
       <c r="E405"/>
       <c r="F405" s="108"/>
@@ -7924,7 +7930,7 @@
       <c r="I405"/>
       <c r="J405"/>
     </row>
-    <row r="406" spans="1:10" ht="12.5">
+    <row r="406" spans="1:10">
       <c r="A406" s="108"/>
       <c r="E406"/>
       <c r="F406" s="108"/>
@@ -7932,7 +7938,7 @@
       <c r="I406"/>
       <c r="J406"/>
     </row>
-    <row r="407" spans="1:10" ht="12.5">
+    <row r="407" spans="1:10">
       <c r="A407" s="108"/>
       <c r="E407"/>
       <c r="F407" s="108"/>
@@ -7940,7 +7946,7 @@
       <c r="I407"/>
       <c r="J407"/>
     </row>
-    <row r="408" spans="1:10" ht="12.5">
+    <row r="408" spans="1:10">
       <c r="A408" s="108"/>
       <c r="E408"/>
       <c r="F408" s="108"/>
@@ -7948,7 +7954,7 @@
       <c r="I408"/>
       <c r="J408"/>
     </row>
-    <row r="409" spans="1:10" ht="12.5">
+    <row r="409" spans="1:10">
       <c r="A409" s="108"/>
       <c r="E409"/>
       <c r="F409" s="108"/>
@@ -7956,7 +7962,7 @@
       <c r="I409"/>
       <c r="J409"/>
     </row>
-    <row r="410" spans="1:10" ht="12.5">
+    <row r="410" spans="1:10">
       <c r="A410" s="108"/>
       <c r="E410"/>
       <c r="F410" s="108"/>
@@ -7964,7 +7970,7 @@
       <c r="I410"/>
       <c r="J410"/>
     </row>
-    <row r="411" spans="1:10" ht="12.5">
+    <row r="411" spans="1:10">
       <c r="A411" s="108"/>
       <c r="E411"/>
       <c r="F411" s="108"/>
@@ -7972,7 +7978,7 @@
       <c r="I411"/>
       <c r="J411"/>
     </row>
-    <row r="412" spans="1:10" ht="12.5">
+    <row r="412" spans="1:10">
       <c r="A412" s="108"/>
       <c r="E412"/>
       <c r="F412" s="108"/>
@@ -7980,7 +7986,7 @@
       <c r="I412"/>
       <c r="J412"/>
     </row>
-    <row r="413" spans="1:10" ht="12.5">
+    <row r="413" spans="1:10">
       <c r="A413" s="108"/>
       <c r="E413"/>
       <c r="F413" s="108"/>
@@ -7988,7 +7994,7 @@
       <c r="I413"/>
       <c r="J413"/>
     </row>
-    <row r="414" spans="1:10" ht="12.5">
+    <row r="414" spans="1:10">
       <c r="A414" s="108"/>
       <c r="E414"/>
       <c r="F414" s="108"/>
@@ -7996,7 +8002,7 @@
       <c r="I414"/>
       <c r="J414"/>
     </row>
-    <row r="415" spans="1:10" ht="12.5">
+    <row r="415" spans="1:10">
       <c r="A415" s="108"/>
       <c r="E415"/>
       <c r="F415" s="108"/>
@@ -8004,7 +8010,7 @@
       <c r="I415"/>
       <c r="J415"/>
     </row>
-    <row r="416" spans="1:10" ht="12.5">
+    <row r="416" spans="1:10">
       <c r="A416" s="108"/>
       <c r="E416"/>
       <c r="F416" s="108"/>
@@ -8012,7 +8018,7 @@
       <c r="I416"/>
       <c r="J416"/>
     </row>
-    <row r="417" spans="1:10" ht="12.5">
+    <row r="417" spans="1:10">
       <c r="A417" s="108"/>
       <c r="E417"/>
       <c r="F417" s="108"/>
@@ -8020,7 +8026,7 @@
       <c r="I417"/>
       <c r="J417"/>
     </row>
-    <row r="418" spans="1:10" ht="12.5">
+    <row r="418" spans="1:10">
       <c r="A418" s="108"/>
       <c r="E418"/>
       <c r="F418" s="108"/>
@@ -8028,7 +8034,7 @@
       <c r="I418"/>
       <c r="J418"/>
     </row>
-    <row r="419" spans="1:10" ht="12.5">
+    <row r="419" spans="1:10">
       <c r="A419" s="108"/>
       <c r="E419"/>
       <c r="F419" s="108"/>
@@ -8036,7 +8042,7 @@
       <c r="I419"/>
       <c r="J419"/>
     </row>
-    <row r="420" spans="1:10" ht="12.5">
+    <row r="420" spans="1:10">
       <c r="A420" s="108"/>
       <c r="E420"/>
       <c r="F420" s="108"/>
@@ -8044,7 +8050,7 @@
       <c r="I420"/>
       <c r="J420"/>
     </row>
-    <row r="421" spans="1:10" ht="12.5">
+    <row r="421" spans="1:10">
       <c r="A421" s="108"/>
       <c r="E421"/>
       <c r="F421" s="108"/>
@@ -8052,7 +8058,7 @@
       <c r="I421"/>
       <c r="J421"/>
     </row>
-    <row r="422" spans="1:10" ht="12.5">
+    <row r="422" spans="1:10">
       <c r="A422" s="108"/>
       <c r="E422"/>
       <c r="F422" s="108"/>
@@ -8060,7 +8066,7 @@
       <c r="I422"/>
       <c r="J422"/>
     </row>
-    <row r="423" spans="1:10" ht="12.5">
+    <row r="423" spans="1:10">
       <c r="A423" s="108"/>
       <c r="E423"/>
       <c r="F423" s="108"/>
@@ -8068,7 +8074,7 @@
       <c r="I423"/>
       <c r="J423"/>
     </row>
-    <row r="424" spans="1:10" ht="12.5">
+    <row r="424" spans="1:10">
       <c r="A424" s="108"/>
       <c r="E424"/>
       <c r="F424" s="108"/>
@@ -8076,7 +8082,7 @@
       <c r="I424"/>
       <c r="J424"/>
     </row>
-    <row r="425" spans="1:10" ht="12.5">
+    <row r="425" spans="1:10">
       <c r="A425" s="108"/>
       <c r="E425"/>
       <c r="F425" s="108"/>
@@ -8084,7 +8090,7 @@
       <c r="I425"/>
       <c r="J425"/>
     </row>
-    <row r="426" spans="1:10" ht="12.5">
+    <row r="426" spans="1:10">
       <c r="A426" s="108"/>
       <c r="E426"/>
       <c r="F426" s="108"/>
@@ -8092,7 +8098,7 @@
       <c r="I426"/>
       <c r="J426"/>
     </row>
-    <row r="427" spans="1:10" ht="12.5">
+    <row r="427" spans="1:10">
       <c r="A427" s="108"/>
       <c r="E427"/>
       <c r="F427" s="108"/>
@@ -8100,7 +8106,7 @@
       <c r="I427"/>
       <c r="J427"/>
     </row>
-    <row r="428" spans="1:10" ht="12.5">
+    <row r="428" spans="1:10">
       <c r="A428" s="108"/>
       <c r="E428"/>
       <c r="F428" s="108"/>
@@ -8108,7 +8114,7 @@
       <c r="I428"/>
       <c r="J428"/>
     </row>
-    <row r="429" spans="1:10" ht="12.5">
+    <row r="429" spans="1:10">
       <c r="A429" s="108"/>
       <c r="E429"/>
       <c r="F429" s="108"/>
@@ -8116,7 +8122,7 @@
       <c r="I429"/>
       <c r="J429"/>
     </row>
-    <row r="430" spans="1:10" ht="12.5">
+    <row r="430" spans="1:10">
       <c r="A430" s="108"/>
       <c r="E430"/>
       <c r="F430" s="108"/>
@@ -8124,7 +8130,7 @@
       <c r="I430"/>
       <c r="J430"/>
     </row>
-    <row r="431" spans="1:10" ht="12.5">
+    <row r="431" spans="1:10">
       <c r="A431" s="108"/>
       <c r="E431"/>
       <c r="F431" s="108"/>
@@ -8132,7 +8138,7 @@
       <c r="I431"/>
       <c r="J431"/>
     </row>
-    <row r="432" spans="1:10" ht="12.5">
+    <row r="432" spans="1:10">
       <c r="A432" s="108"/>
       <c r="E432"/>
       <c r="F432" s="108"/>
@@ -8140,7 +8146,7 @@
       <c r="I432"/>
       <c r="J432"/>
     </row>
-    <row r="433" spans="1:10" ht="12.5">
+    <row r="433" spans="1:10">
       <c r="A433" s="108"/>
       <c r="E433"/>
       <c r="F433" s="108"/>
@@ -8148,7 +8154,7 @@
       <c r="I433"/>
       <c r="J433"/>
     </row>
-    <row r="434" spans="1:10" ht="12.5">
+    <row r="434" spans="1:10">
       <c r="A434" s="108"/>
       <c r="E434"/>
       <c r="F434" s="108"/>
@@ -8156,7 +8162,7 @@
       <c r="I434"/>
       <c r="J434"/>
     </row>
-    <row r="435" spans="1:10" ht="12.5">
+    <row r="435" spans="1:10">
       <c r="A435" s="108"/>
       <c r="E435"/>
       <c r="F435" s="108"/>
@@ -8164,7 +8170,7 @@
       <c r="I435"/>
       <c r="J435"/>
     </row>
-    <row r="436" spans="1:10" ht="12.5">
+    <row r="436" spans="1:10">
       <c r="A436" s="108"/>
       <c r="E436"/>
       <c r="F436" s="108"/>
@@ -8172,7 +8178,7 @@
       <c r="I436"/>
       <c r="J436"/>
     </row>
-    <row r="437" spans="1:10" ht="12.5">
+    <row r="437" spans="1:10">
       <c r="A437" s="108"/>
       <c r="E437"/>
       <c r="F437" s="108"/>
@@ -8180,7 +8186,7 @@
       <c r="I437"/>
       <c r="J437"/>
     </row>
-    <row r="438" spans="1:10" ht="12.5">
+    <row r="438" spans="1:10">
       <c r="A438" s="108"/>
       <c r="E438"/>
       <c r="F438" s="108"/>
@@ -8188,7 +8194,7 @@
       <c r="I438"/>
       <c r="J438"/>
     </row>
-    <row r="439" spans="1:10" ht="12.5">
+    <row r="439" spans="1:10">
       <c r="A439" s="108"/>
       <c r="E439"/>
       <c r="F439" s="108"/>
@@ -8196,7 +8202,7 @@
       <c r="I439"/>
       <c r="J439"/>
     </row>
-    <row r="440" spans="1:10" ht="12.5">
+    <row r="440" spans="1:10">
       <c r="A440" s="108"/>
       <c r="E440"/>
       <c r="F440" s="108"/>
@@ -8204,7 +8210,7 @@
       <c r="I440"/>
       <c r="J440"/>
     </row>
-    <row r="441" spans="1:10" ht="12.5">
+    <row r="441" spans="1:10">
       <c r="A441" s="108"/>
       <c r="E441"/>
       <c r="F441" s="108"/>
@@ -8212,7 +8218,7 @@
       <c r="I441"/>
       <c r="J441"/>
     </row>
-    <row r="442" spans="1:10" ht="12.5">
+    <row r="442" spans="1:10">
       <c r="A442" s="108"/>
       <c r="E442"/>
       <c r="F442" s="108"/>
@@ -8220,7 +8226,7 @@
       <c r="I442"/>
       <c r="J442"/>
     </row>
-    <row r="443" spans="1:10" ht="12.5">
+    <row r="443" spans="1:10">
       <c r="A443" s="108"/>
       <c r="E443"/>
       <c r="F443" s="108"/>
@@ -8228,7 +8234,7 @@
       <c r="I443"/>
       <c r="J443"/>
     </row>
-    <row r="444" spans="1:10" ht="12.5">
+    <row r="444" spans="1:10">
       <c r="A444" s="108"/>
       <c r="E444"/>
       <c r="F444" s="108"/>
@@ -8236,7 +8242,7 @@
       <c r="I444"/>
       <c r="J444"/>
     </row>
-    <row r="445" spans="1:10" ht="12.5">
+    <row r="445" spans="1:10">
       <c r="A445" s="108"/>
       <c r="E445"/>
       <c r="F445" s="108"/>
@@ -8244,7 +8250,7 @@
       <c r="I445"/>
       <c r="J445"/>
     </row>
-    <row r="446" spans="1:10" ht="12.5">
+    <row r="446" spans="1:10">
       <c r="A446" s="108"/>
       <c r="E446"/>
       <c r="F446" s="108"/>
@@ -8252,7 +8258,7 @@
       <c r="I446"/>
       <c r="J446"/>
     </row>
-    <row r="447" spans="1:10" ht="12.5">
+    <row r="447" spans="1:10">
       <c r="A447" s="108"/>
       <c r="E447"/>
       <c r="F447" s="108"/>
@@ -8260,7 +8266,7 @@
       <c r="I447"/>
       <c r="J447"/>
     </row>
-    <row r="448" spans="1:10" ht="12.5">
+    <row r="448" spans="1:10">
       <c r="A448" s="108"/>
       <c r="E448"/>
       <c r="F448" s="108"/>
@@ -8268,7 +8274,7 @@
       <c r="I448"/>
       <c r="J448"/>
     </row>
-    <row r="449" spans="1:10" ht="12.5">
+    <row r="449" spans="1:10">
       <c r="A449" s="108"/>
       <c r="E449"/>
       <c r="F449" s="108"/>
@@ -8276,7 +8282,7 @@
       <c r="I449"/>
       <c r="J449"/>
     </row>
-    <row r="450" spans="1:10" ht="12.5">
+    <row r="450" spans="1:10">
       <c r="A450" s="108"/>
       <c r="E450"/>
       <c r="F450" s="108"/>
@@ -8284,7 +8290,7 @@
       <c r="I450"/>
       <c r="J450"/>
     </row>
-    <row r="451" spans="1:10" ht="12.5">
+    <row r="451" spans="1:10">
       <c r="A451" s="108"/>
       <c r="E451"/>
       <c r="F451" s="108"/>
@@ -8292,7 +8298,7 @@
       <c r="I451"/>
       <c r="J451"/>
     </row>
-    <row r="452" spans="1:10" ht="12.5">
+    <row r="452" spans="1:10">
       <c r="A452" s="108"/>
       <c r="E452"/>
       <c r="F452" s="108"/>
@@ -8300,7 +8306,7 @@
       <c r="I452"/>
       <c r="J452"/>
     </row>
-    <row r="453" spans="1:10" ht="12.5">
+    <row r="453" spans="1:10">
       <c r="A453" s="108"/>
       <c r="E453"/>
       <c r="F453" s="108"/>
@@ -8308,7 +8314,7 @@
       <c r="I453"/>
       <c r="J453"/>
     </row>
-    <row r="454" spans="1:10" ht="12.5">
+    <row r="454" spans="1:10">
       <c r="A454" s="108"/>
       <c r="E454"/>
       <c r="F454" s="108"/>
@@ -8401,7 +8407,7 @@
       <c r="I465"/>
       <c r="J465"/>
     </row>
-    <row r="466" spans="1:10" ht="12.5">
+    <row r="466" spans="1:10">
       <c r="E466"/>
       <c r="F466" s="108"/>
       <c r="G466" s="36"/>
@@ -8501,7 +8507,7 @@
       <c r="G488" s="219"/>
       <c r="H488" s="193"/>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" ht="13.5">
       <c r="A489" s="56"/>
       <c r="B489" s="231"/>
       <c r="C489" s="56"/>
@@ -8511,7 +8517,7 @@
       <c r="G489" s="219"/>
       <c r="H489" s="193"/>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" ht="13.5">
       <c r="A490" s="56"/>
       <c r="B490" s="231"/>
       <c r="C490" s="56"/>
@@ -8521,7 +8527,7 @@
       <c r="G490" s="219"/>
       <c r="H490" s="193"/>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" ht="13.5">
       <c r="A491" s="56"/>
       <c r="B491" s="231"/>
       <c r="C491" s="56"/>
@@ -8531,7 +8537,7 @@
       <c r="G491" s="219"/>
       <c r="H491" s="193"/>
     </row>
-    <row r="492" spans="1:8" ht="12.5">
+    <row r="492" spans="1:8">
       <c r="E492"/>
       <c r="F492" s="108"/>
       <c r="G492" s="36"/>
@@ -8548,12 +8554,12 @@
       <c r="F495" s="108"/>
       <c r="G495" s="36"/>
     </row>
-    <row r="496" spans="1:8" ht="12.5">
+    <row r="496" spans="1:8">
       <c r="E496" s="62"/>
       <c r="F496" s="108"/>
       <c r="G496" s="36"/>
     </row>
-    <row r="497" spans="1:8" ht="12.5">
+    <row r="497" spans="1:8">
       <c r="E497" s="62"/>
       <c r="F497" s="108"/>
       <c r="G497" s="36"/>
@@ -8562,45 +8568,45 @@
       <c r="F498" s="108"/>
       <c r="G498" s="36"/>
     </row>
-    <row r="499" spans="1:8" ht="12.5">
+    <row r="499" spans="1:8">
       <c r="B499" s="201"/>
       <c r="D499" s="2"/>
       <c r="E499" s="63"/>
       <c r="F499" s="108"/>
       <c r="G499" s="36"/>
     </row>
-    <row r="500" spans="1:8" ht="12.5">
+    <row r="500" spans="1:8">
       <c r="B500" s="201"/>
       <c r="E500" s="62"/>
       <c r="F500" s="108"/>
       <c r="G500" s="36"/>
     </row>
-    <row r="501" spans="1:8" ht="12.5">
+    <row r="501" spans="1:8">
       <c r="E501" s="62"/>
       <c r="F501" s="108"/>
       <c r="G501" s="36"/>
     </row>
-    <row r="502" spans="1:8" ht="12.5">
+    <row r="502" spans="1:8">
       <c r="E502" s="62"/>
       <c r="F502" s="108"/>
       <c r="G502" s="36"/>
     </row>
-    <row r="503" spans="1:8" ht="12.5">
+    <row r="503" spans="1:8">
       <c r="E503" s="62"/>
       <c r="F503" s="108"/>
       <c r="G503" s="36"/>
     </row>
-    <row r="504" spans="1:8" ht="12.5">
+    <row r="504" spans="1:8">
       <c r="E504" s="62"/>
       <c r="F504" s="108"/>
       <c r="G504" s="36"/>
     </row>
-    <row r="505" spans="1:8" ht="12.5">
+    <row r="505" spans="1:8">
       <c r="E505" s="62"/>
       <c r="F505" s="108"/>
       <c r="G505" s="36"/>
     </row>
-    <row r="506" spans="1:8" ht="12.5">
+    <row r="506" spans="1:8">
       <c r="E506" s="62"/>
       <c r="F506" s="108"/>
       <c r="G506" s="36"/>
@@ -8635,7 +8641,7 @@
       <c r="G512" s="219"/>
       <c r="H512" s="193"/>
     </row>
-    <row r="513" spans="1:10" ht="12.5">
+    <row r="513" spans="1:10">
       <c r="E513"/>
       <c r="F513" s="108"/>
       <c r="G513" s="36"/>
@@ -8655,7 +8661,7 @@
       <c r="G516" s="36"/>
       <c r="H516" s="55"/>
     </row>
-    <row r="517" spans="1:10" ht="12.5">
+    <row r="517" spans="1:10">
       <c r="A517" s="143"/>
       <c r="B517" s="143"/>
       <c r="C517" s="143"/>
@@ -8813,7 +8819,7 @@
       <c r="H539" s="193"/>
       <c r="J539"/>
     </row>
-    <row r="540" spans="1:10" ht="12.5">
+    <row r="540" spans="1:10">
       <c r="E540"/>
       <c r="F540" s="108"/>
       <c r="G540" s="108"/>
@@ -8944,7 +8950,7 @@
       <c r="I559"/>
       <c r="J559"/>
     </row>
-    <row r="560" spans="1:10" ht="12.5">
+    <row r="560" spans="1:10">
       <c r="E560"/>
       <c r="F560" s="108"/>
       <c r="G560" s="108"/>
@@ -9343,29 +9349,29 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E7B8F4-5285-46EC-BCE1-BF8FCCDC20D1}">
-  <dimension ref="A1:K402"/>
+  <dimension ref="A1:L402"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D14" sqref="D14"/>
-      <selection pane="bottomLeft" activeCell="E369" sqref="E369"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.453125" customWidth="1"/>
-    <col min="6" max="6" width="50.1796875" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.42578125" customWidth="1"/>
+    <col min="6" max="6" width="50.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:12" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="282" t="s">
         <v>120</v>
       </c>
@@ -9384,7 +9390,7 @@
       <c r="H1" s="278"/>
       <c r="I1" s="277"/>
     </row>
-    <row r="2" spans="1:11" ht="67" customHeight="1">
+    <row r="2" spans="1:12" ht="66.95" customHeight="1">
       <c r="A2" s="275" t="s">
         <v>121</v>
       </c>
@@ -9410,8 +9416,11 @@
       <c r="I2" s="275" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="13">
+      <c r="L2" s="23" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="274" t="s">
         <v>11</v>
       </c>
@@ -9445,8 +9454,11 @@
       <c r="K3" s="271" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="263" t="s">
         <v>347</v>
       </c>
@@ -9474,7 +9486,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="263" t="s">
         <v>347</v>
       </c>
@@ -9502,7 +9514,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="263" t="s">
         <v>347</v>
       </c>
@@ -9530,7 +9542,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="263" t="s">
         <v>347</v>
       </c>
@@ -9558,7 +9570,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="263" t="s">
         <v>347</v>
       </c>
@@ -9586,7 +9598,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="263" t="s">
         <v>347</v>
       </c>
@@ -9614,7 +9626,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="263" t="s">
         <v>347</v>
       </c>
@@ -9637,7 +9649,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="263" t="s">
         <v>347</v>
       </c>
@@ -9662,7 +9674,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="263" t="s">
         <v>347</v>
       </c>
@@ -9685,7 +9697,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="263" t="s">
         <v>347</v>
       </c>
@@ -9708,7 +9720,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="263" t="s">
         <v>347</v>
       </c>
@@ -9733,7 +9745,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="263" t="s">
         <v>347</v>
       </c>
@@ -9758,7 +9770,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="263" t="s">
         <v>347</v>
       </c>
@@ -15573,13 +15585,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
@@ -15593,7 +15605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="169">
+    <row r="2" spans="1:5" ht="165.75">
       <c r="A2" s="300" t="s">
         <v>4</v>
       </c>
@@ -15607,7 +15619,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.5">
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="301" t="s">
         <v>9</v>
       </c>
@@ -16374,22 +16386,22 @@
   </sheetPr>
   <dimension ref="A1:K650"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD650"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="29.7265625" style="151" customWidth="1"/>
-    <col min="2" max="2" width="61.7265625" style="171" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="151" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" style="171" customWidth="1"/>
     <col min="3" max="3" width="65" style="151" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" style="151" customWidth="1"/>
-    <col min="5" max="6" width="8.7265625" style="151"/>
+    <col min="4" max="4" width="14.7109375" style="151" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" style="151"/>
     <col min="7" max="7" width="13" style="151" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" style="151" customWidth="1"/>
-    <col min="9" max="12" width="8.7265625" style="151"/>
-    <col min="13" max="13" width="16.26953125" style="151" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="151"/>
+    <col min="8" max="8" width="11.42578125" style="151" customWidth="1"/>
+    <col min="9" max="12" width="8.7109375" style="151"/>
+    <col min="13" max="13" width="16.28515625" style="151" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="151"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
@@ -16406,7 +16418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="52">
+    <row r="2" spans="1:11" ht="51">
       <c r="A2" s="152" t="s">
         <v>129</v>
       </c>
@@ -16420,7 +16432,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13">
+    <row r="3" spans="1:11">
       <c r="A3" s="154" t="s">
         <v>11</v>
       </c>
@@ -16993,39 +17005,39 @@
       <c r="B121" s="204"/>
       <c r="C121" s="140"/>
     </row>
-    <row r="122" spans="1:6" ht="13">
+    <row r="122" spans="1:6">
       <c r="A122" s="196"/>
       <c r="B122" s="204"/>
       <c r="C122" s="140"/>
       <c r="E122" s="156"/>
       <c r="F122" s="156"/>
     </row>
-    <row r="123" spans="1:6" ht="13">
+    <row r="123" spans="1:6">
       <c r="A123" s="196"/>
       <c r="B123" s="206"/>
       <c r="C123" s="167"/>
       <c r="E123" s="156"/>
       <c r="F123" s="156"/>
     </row>
-    <row r="124" spans="1:6" ht="13">
+    <row r="124" spans="1:6">
       <c r="A124" s="196"/>
       <c r="B124" s="204"/>
       <c r="C124" s="140"/>
       <c r="E124" s="156"/>
       <c r="F124" s="156"/>
     </row>
-    <row r="125" spans="1:6" ht="13">
+    <row r="125" spans="1:6">
       <c r="A125" s="196"/>
       <c r="B125" s="204"/>
       <c r="C125" s="140"/>
       <c r="E125" s="156"/>
       <c r="F125" s="156"/>
     </row>
-    <row r="126" spans="1:6" ht="13">
+    <row r="126" spans="1:6">
       <c r="E126" s="156"/>
       <c r="F126" s="156"/>
     </row>
-    <row r="127" spans="1:6" ht="13">
+    <row r="127" spans="1:6">
       <c r="A127" s="162"/>
       <c r="B127" s="205"/>
       <c r="C127" s="162"/>
@@ -17033,25 +17045,25 @@
       <c r="E127" s="156"/>
       <c r="F127" s="156"/>
     </row>
-    <row r="128" spans="1:6" ht="13">
+    <row r="128" spans="1:6">
       <c r="A128" s="140"/>
       <c r="B128" s="204"/>
       <c r="C128" s="140"/>
       <c r="E128" s="156"/>
       <c r="F128" s="156"/>
     </row>
-    <row r="129" spans="1:6" ht="13">
+    <row r="129" spans="1:6">
       <c r="A129" s="140"/>
       <c r="B129" s="204"/>
       <c r="C129" s="140"/>
       <c r="E129" s="156"/>
       <c r="F129" s="156"/>
     </row>
-    <row r="130" spans="1:6" ht="13">
+    <row r="130" spans="1:6">
       <c r="E130" s="156"/>
       <c r="F130" s="156"/>
     </row>
-    <row r="131" spans="1:6" ht="13">
+    <row r="131" spans="1:6">
       <c r="A131" s="162"/>
       <c r="B131" s="205"/>
       <c r="C131" s="162"/>
@@ -17059,7 +17071,7 @@
       <c r="E131" s="156"/>
       <c r="F131" s="156"/>
     </row>
-    <row r="132" spans="1:6" ht="13">
+    <row r="132" spans="1:6">
       <c r="A132" s="197"/>
       <c r="B132" s="204"/>
       <c r="C132" s="140"/>
@@ -17067,7 +17079,7 @@
       <c r="E132" s="156"/>
       <c r="F132" s="156"/>
     </row>
-    <row r="133" spans="1:6" ht="13">
+    <row r="133" spans="1:6">
       <c r="A133" s="197"/>
       <c r="B133" s="204"/>
       <c r="C133" s="140"/>
@@ -17075,11 +17087,11 @@
       <c r="E133" s="156"/>
       <c r="F133" s="156"/>
     </row>
-    <row r="134" spans="1:6" ht="13">
+    <row r="134" spans="1:6">
       <c r="E134" s="156"/>
       <c r="F134" s="156"/>
     </row>
-    <row r="135" spans="1:6" ht="13">
+    <row r="135" spans="1:6">
       <c r="A135" s="162"/>
       <c r="B135" s="205"/>
       <c r="C135" s="162"/>
@@ -17087,28 +17099,28 @@
       <c r="E135" s="156"/>
       <c r="F135" s="156"/>
     </row>
-    <row r="136" spans="1:6" ht="13">
+    <row r="136" spans="1:6">
       <c r="A136" s="189"/>
       <c r="B136" s="208"/>
       <c r="C136" s="140"/>
       <c r="E136" s="156"/>
       <c r="F136" s="156"/>
     </row>
-    <row r="137" spans="1:6" ht="13">
+    <row r="137" spans="1:6">
       <c r="A137" s="189"/>
       <c r="B137" s="208"/>
       <c r="C137" s="140"/>
       <c r="E137" s="156"/>
       <c r="F137" s="156"/>
     </row>
-    <row r="138" spans="1:6" ht="13">
+    <row r="138" spans="1:6">
       <c r="A138" s="189"/>
       <c r="B138" s="208"/>
       <c r="C138" s="140"/>
       <c r="E138" s="156"/>
       <c r="F138" s="156"/>
     </row>
-    <row r="139" spans="1:6" ht="13">
+    <row r="139" spans="1:6">
       <c r="E139" s="156"/>
       <c r="F139" s="156"/>
     </row>
@@ -17118,7 +17130,7 @@
       <c r="C140" s="162"/>
       <c r="D140" s="158"/>
     </row>
-    <row r="141" spans="1:6" ht="13">
+    <row r="141" spans="1:6">
       <c r="E141" s="156"/>
       <c r="F141" s="156"/>
     </row>
@@ -17635,7 +17647,7 @@
       <c r="C275" s="158"/>
       <c r="D275" s="158"/>
     </row>
-    <row r="281" spans="1:6" ht="13">
+    <row r="281" spans="1:6">
       <c r="E281" s="156"/>
       <c r="F281" s="156"/>
     </row>
@@ -18248,943 +18260,943 @@
       <c r="B402" s="159"/>
       <c r="C402" s="140"/>
     </row>
-    <row r="403" spans="1:3" ht="14.5">
+    <row r="403" spans="1:3" ht="15">
       <c r="A403" s="177"/>
       <c r="C403" s="179"/>
     </row>
-    <row r="404" spans="1:3" ht="14.5">
+    <row r="404" spans="1:3" ht="15">
       <c r="A404" s="140"/>
       <c r="C404" s="180"/>
     </row>
-    <row r="405" spans="1:3" ht="14.5">
+    <row r="405" spans="1:3" ht="15">
       <c r="A405" s="140"/>
       <c r="C405" s="180"/>
     </row>
-    <row r="406" spans="1:3" ht="14.5">
+    <row r="406" spans="1:3" ht="15">
       <c r="A406" s="140"/>
       <c r="C406" s="180"/>
     </row>
-    <row r="407" spans="1:3" ht="14.5">
+    <row r="407" spans="1:3" ht="15">
       <c r="A407" s="140"/>
       <c r="C407" s="180"/>
     </row>
-    <row r="408" spans="1:3" ht="14.5">
+    <row r="408" spans="1:3" ht="15">
       <c r="A408" s="140"/>
       <c r="C408" s="180"/>
     </row>
-    <row r="409" spans="1:3" ht="14.5">
+    <row r="409" spans="1:3" ht="15">
       <c r="A409" s="140"/>
       <c r="C409" s="180"/>
     </row>
-    <row r="410" spans="1:3" ht="14.5">
+    <row r="410" spans="1:3" ht="15">
       <c r="A410" s="140"/>
       <c r="C410" s="180"/>
     </row>
-    <row r="411" spans="1:3" ht="14.5">
+    <row r="411" spans="1:3" ht="15">
       <c r="A411" s="140"/>
       <c r="C411" s="180"/>
     </row>
-    <row r="412" spans="1:3" ht="14.5">
+    <row r="412" spans="1:3" ht="15">
       <c r="A412" s="140"/>
       <c r="C412" s="180"/>
     </row>
-    <row r="413" spans="1:3" ht="14.5">
+    <row r="413" spans="1:3" ht="15">
       <c r="A413" s="140"/>
       <c r="C413" s="180"/>
     </row>
-    <row r="414" spans="1:3" ht="14.5">
+    <row r="414" spans="1:3" ht="15">
       <c r="A414" s="140"/>
       <c r="C414" s="180"/>
     </row>
-    <row r="415" spans="1:3" ht="14.5">
+    <row r="415" spans="1:3" ht="15">
       <c r="A415" s="140"/>
       <c r="C415" s="180"/>
     </row>
-    <row r="416" spans="1:3" ht="14.5">
+    <row r="416" spans="1:3" ht="15">
       <c r="A416" s="140"/>
       <c r="C416" s="180"/>
     </row>
-    <row r="417" spans="1:3" ht="14.5">
+    <row r="417" spans="1:3" ht="15">
       <c r="A417" s="140"/>
       <c r="C417" s="180"/>
     </row>
-    <row r="418" spans="1:3" ht="14.5">
+    <row r="418" spans="1:3" ht="15">
       <c r="A418" s="140"/>
       <c r="C418" s="180"/>
     </row>
-    <row r="419" spans="1:3" ht="14.5">
+    <row r="419" spans="1:3" ht="15">
       <c r="A419" s="140"/>
       <c r="C419" s="180"/>
     </row>
-    <row r="420" spans="1:3" ht="14.5">
+    <row r="420" spans="1:3" ht="15">
       <c r="A420" s="173"/>
       <c r="C420" s="181"/>
     </row>
-    <row r="421" spans="1:3" ht="14.5">
+    <row r="421" spans="1:3" ht="15">
       <c r="A421" s="177"/>
       <c r="C421" s="179"/>
     </row>
-    <row r="422" spans="1:3" ht="14.5">
+    <row r="422" spans="1:3" ht="15">
       <c r="A422" s="140"/>
       <c r="C422" s="180"/>
     </row>
-    <row r="423" spans="1:3" ht="14.5">
+    <row r="423" spans="1:3" ht="15">
       <c r="A423" s="140"/>
       <c r="C423" s="180"/>
     </row>
-    <row r="424" spans="1:3" ht="14.5">
+    <row r="424" spans="1:3" ht="15">
       <c r="A424" s="140"/>
       <c r="C424" s="180"/>
     </row>
-    <row r="425" spans="1:3" ht="14.5">
+    <row r="425" spans="1:3" ht="15">
       <c r="A425" s="140"/>
       <c r="C425" s="180"/>
     </row>
-    <row r="426" spans="1:3" ht="14.5">
+    <row r="426" spans="1:3" ht="15">
       <c r="A426" s="140"/>
       <c r="C426" s="180"/>
     </row>
-    <row r="427" spans="1:3" ht="14.5">
+    <row r="427" spans="1:3" ht="15">
       <c r="A427" s="140"/>
       <c r="C427" s="180"/>
     </row>
-    <row r="428" spans="1:3" ht="14.5">
+    <row r="428" spans="1:3" ht="15">
       <c r="A428" s="140"/>
       <c r="C428" s="181"/>
     </row>
-    <row r="429" spans="1:3" ht="14.5">
+    <row r="429" spans="1:3" ht="15">
       <c r="A429" s="177"/>
       <c r="C429" s="179"/>
     </row>
-    <row r="430" spans="1:3" ht="14.5">
+    <row r="430" spans="1:3" ht="15">
       <c r="A430" s="140"/>
       <c r="C430" s="180"/>
     </row>
-    <row r="431" spans="1:3" ht="14.5">
+    <row r="431" spans="1:3" ht="15">
       <c r="A431" s="140"/>
       <c r="C431" s="180"/>
     </row>
-    <row r="432" spans="1:3" ht="14.5">
+    <row r="432" spans="1:3" ht="15">
       <c r="A432" s="140"/>
       <c r="C432" s="180"/>
     </row>
-    <row r="433" spans="1:3" ht="14.5">
+    <row r="433" spans="1:3" ht="15">
       <c r="A433" s="140"/>
       <c r="C433" s="180"/>
     </row>
-    <row r="434" spans="1:3" ht="14.5">
+    <row r="434" spans="1:3" ht="15">
       <c r="A434" s="140"/>
       <c r="C434" s="180"/>
     </row>
-    <row r="435" spans="1:3" ht="14.5">
+    <row r="435" spans="1:3" ht="15">
       <c r="A435" s="140"/>
       <c r="C435" s="180"/>
     </row>
-    <row r="436" spans="1:3" ht="14.5">
+    <row r="436" spans="1:3" ht="15">
       <c r="A436" s="140"/>
       <c r="C436" s="180"/>
     </row>
-    <row r="437" spans="1:3" ht="14.5">
+    <row r="437" spans="1:3" ht="15">
       <c r="A437" s="140"/>
       <c r="C437" s="181"/>
     </row>
-    <row r="438" spans="1:3" ht="14.5">
+    <row r="438" spans="1:3" ht="15">
       <c r="A438" s="177"/>
       <c r="C438" s="180"/>
     </row>
-    <row r="439" spans="1:3" ht="14.5">
+    <row r="439" spans="1:3" ht="15">
       <c r="A439" s="140"/>
       <c r="C439" s="180"/>
     </row>
-    <row r="440" spans="1:3" ht="14.5">
+    <row r="440" spans="1:3" ht="15">
       <c r="A440" s="140"/>
       <c r="C440" s="182"/>
     </row>
-    <row r="441" spans="1:3" ht="14.5">
+    <row r="441" spans="1:3" ht="15">
       <c r="A441" s="140"/>
       <c r="C441" s="180"/>
     </row>
-    <row r="442" spans="1:3" ht="14.5">
+    <row r="442" spans="1:3" ht="15">
       <c r="A442" s="140"/>
       <c r="C442" s="181"/>
     </row>
-    <row r="443" spans="1:3" ht="14.5">
+    <row r="443" spans="1:3" ht="15">
       <c r="A443" s="177"/>
       <c r="C443" s="179"/>
     </row>
-    <row r="444" spans="1:3" ht="14.5">
+    <row r="444" spans="1:3" ht="15">
       <c r="A444" s="140"/>
       <c r="C444" s="180"/>
     </row>
-    <row r="445" spans="1:3" ht="14.5">
+    <row r="445" spans="1:3" ht="15">
       <c r="A445" s="140"/>
       <c r="C445" s="180"/>
     </row>
-    <row r="446" spans="1:3" ht="14.5">
+    <row r="446" spans="1:3" ht="15">
       <c r="A446" s="140"/>
       <c r="C446" s="180"/>
     </row>
-    <row r="447" spans="1:3" ht="14.5">
+    <row r="447" spans="1:3" ht="15">
       <c r="A447" s="140"/>
       <c r="C447" s="180"/>
     </row>
-    <row r="448" spans="1:3" ht="14.5">
+    <row r="448" spans="1:3" ht="15">
       <c r="A448" s="140"/>
       <c r="C448" s="180"/>
     </row>
-    <row r="449" spans="1:3" ht="14.5">
+    <row r="449" spans="1:3" ht="15">
       <c r="A449" s="140"/>
       <c r="C449" s="180"/>
     </row>
-    <row r="450" spans="1:3" ht="14.5">
+    <row r="450" spans="1:3" ht="15">
       <c r="A450" s="140"/>
       <c r="C450" s="181"/>
     </row>
-    <row r="451" spans="1:3" ht="14.5">
+    <row r="451" spans="1:3" ht="15">
       <c r="A451" s="140"/>
       <c r="C451" s="180"/>
     </row>
-    <row r="452" spans="1:3" ht="14.5">
+    <row r="452" spans="1:3" ht="15">
       <c r="A452" s="177"/>
       <c r="C452" s="179"/>
     </row>
-    <row r="453" spans="1:3" ht="14.5">
+    <row r="453" spans="1:3" ht="15">
       <c r="A453" s="140"/>
       <c r="C453" s="180"/>
     </row>
-    <row r="454" spans="1:3" ht="14.5">
+    <row r="454" spans="1:3" ht="15">
       <c r="A454" s="140"/>
       <c r="C454" s="180"/>
     </row>
-    <row r="455" spans="1:3" ht="14.5">
+    <row r="455" spans="1:3" ht="15">
       <c r="A455" s="140"/>
       <c r="C455" s="180"/>
     </row>
-    <row r="456" spans="1:3" ht="14.5">
+    <row r="456" spans="1:3" ht="15">
       <c r="A456" s="140"/>
       <c r="C456" s="180"/>
     </row>
-    <row r="457" spans="1:3" ht="14.5">
+    <row r="457" spans="1:3" ht="15">
       <c r="A457" s="140"/>
       <c r="C457" s="180"/>
     </row>
-    <row r="458" spans="1:3" ht="14.5">
+    <row r="458" spans="1:3" ht="15">
       <c r="A458" s="140"/>
       <c r="C458" s="180"/>
     </row>
-    <row r="459" spans="1:3" ht="14.5">
+    <row r="459" spans="1:3" ht="15">
       <c r="A459" s="140"/>
       <c r="C459" s="180"/>
     </row>
-    <row r="460" spans="1:3" ht="14.5">
+    <row r="460" spans="1:3" ht="15">
       <c r="A460" s="140"/>
       <c r="C460" s="180"/>
     </row>
-    <row r="461" spans="1:3" ht="14.5">
+    <row r="461" spans="1:3" ht="15">
       <c r="A461" s="140"/>
       <c r="C461" s="180"/>
     </row>
-    <row r="462" spans="1:3" ht="14.5">
+    <row r="462" spans="1:3" ht="15">
       <c r="A462" s="140"/>
       <c r="C462" s="180"/>
     </row>
-    <row r="463" spans="1:3" ht="14.5">
+    <row r="463" spans="1:3" ht="15">
       <c r="A463" s="140"/>
       <c r="C463" s="180"/>
     </row>
-    <row r="464" spans="1:3" ht="14.5">
+    <row r="464" spans="1:3" ht="15">
       <c r="A464" s="140"/>
       <c r="C464" s="180"/>
     </row>
-    <row r="465" spans="1:3" ht="14.5">
+    <row r="465" spans="1:3" ht="15">
       <c r="A465" s="140"/>
       <c r="C465" s="180"/>
     </row>
-    <row r="466" spans="1:3" ht="14.5">
+    <row r="466" spans="1:3" ht="15">
       <c r="A466" s="140"/>
       <c r="C466" s="180"/>
     </row>
-    <row r="467" spans="1:3" ht="14.5">
+    <row r="467" spans="1:3" ht="15">
       <c r="A467" s="140"/>
       <c r="C467" s="180"/>
     </row>
-    <row r="468" spans="1:3" ht="14.5">
+    <row r="468" spans="1:3" ht="15">
       <c r="A468" s="140"/>
       <c r="C468" s="180"/>
     </row>
-    <row r="469" spans="1:3" ht="14.5">
+    <row r="469" spans="1:3" ht="15">
       <c r="A469" s="140"/>
       <c r="C469" s="180"/>
     </row>
-    <row r="470" spans="1:3" ht="14.5">
+    <row r="470" spans="1:3" ht="15">
       <c r="A470" s="140"/>
       <c r="C470" s="180"/>
     </row>
-    <row r="471" spans="1:3" ht="14.5">
+    <row r="471" spans="1:3" ht="15">
       <c r="A471" s="140"/>
       <c r="C471" s="180"/>
     </row>
-    <row r="472" spans="1:3" ht="14.5">
+    <row r="472" spans="1:3" ht="15">
       <c r="A472" s="140"/>
       <c r="C472" s="180"/>
     </row>
-    <row r="473" spans="1:3" ht="14.5">
+    <row r="473" spans="1:3" ht="15">
       <c r="A473" s="140"/>
       <c r="C473" s="180"/>
     </row>
-    <row r="474" spans="1:3" ht="14.5">
+    <row r="474" spans="1:3" ht="15">
       <c r="A474" s="140"/>
       <c r="C474" s="180"/>
     </row>
-    <row r="475" spans="1:3" ht="14.5">
+    <row r="475" spans="1:3" ht="15">
       <c r="A475" s="140"/>
       <c r="C475" s="180"/>
     </row>
-    <row r="476" spans="1:3" ht="14.5">
+    <row r="476" spans="1:3" ht="15">
       <c r="A476" s="140"/>
       <c r="C476" s="180"/>
     </row>
-    <row r="477" spans="1:3" ht="14.5">
+    <row r="477" spans="1:3" ht="15">
       <c r="A477" s="140"/>
       <c r="C477" s="180"/>
     </row>
-    <row r="478" spans="1:3" ht="14.5">
+    <row r="478" spans="1:3" ht="15">
       <c r="A478" s="140"/>
       <c r="C478" s="180"/>
     </row>
-    <row r="479" spans="1:3" ht="14.5">
+    <row r="479" spans="1:3" ht="15">
       <c r="A479" s="140"/>
       <c r="C479" s="180"/>
     </row>
-    <row r="480" spans="1:3" ht="14.5">
+    <row r="480" spans="1:3" ht="15">
       <c r="A480" s="140"/>
       <c r="C480" s="180"/>
     </row>
-    <row r="481" spans="1:3" ht="14.5">
+    <row r="481" spans="1:3" ht="15">
       <c r="A481" s="140"/>
       <c r="C481" s="180"/>
     </row>
-    <row r="482" spans="1:3" ht="14.5">
+    <row r="482" spans="1:3" ht="15">
       <c r="A482" s="140"/>
       <c r="C482" s="180"/>
     </row>
-    <row r="483" spans="1:3" ht="14.5">
+    <row r="483" spans="1:3" ht="15">
       <c r="A483" s="140"/>
       <c r="C483" s="180"/>
     </row>
-    <row r="484" spans="1:3" ht="14.5">
+    <row r="484" spans="1:3" ht="15">
       <c r="A484" s="140"/>
       <c r="C484" s="180"/>
     </row>
-    <row r="485" spans="1:3" ht="14.5">
+    <row r="485" spans="1:3" ht="15">
       <c r="A485" s="140"/>
       <c r="C485" s="180"/>
     </row>
-    <row r="486" spans="1:3" ht="14.5">
+    <row r="486" spans="1:3" ht="15">
       <c r="A486" s="140"/>
       <c r="C486" s="180"/>
     </row>
-    <row r="487" spans="1:3" ht="14.5">
+    <row r="487" spans="1:3" ht="15">
       <c r="A487" s="177"/>
       <c r="C487" s="179"/>
     </row>
-    <row r="488" spans="1:3" ht="14.5">
+    <row r="488" spans="1:3" ht="15">
       <c r="A488" s="140"/>
       <c r="C488" s="180"/>
     </row>
-    <row r="489" spans="1:3" ht="14.5">
+    <row r="489" spans="1:3" ht="15">
       <c r="A489" s="140"/>
       <c r="C489" s="180"/>
     </row>
-    <row r="490" spans="1:3" ht="14.5">
+    <row r="490" spans="1:3" ht="15">
       <c r="A490" s="140"/>
       <c r="C490" s="180"/>
     </row>
-    <row r="491" spans="1:3" ht="14.5">
+    <row r="491" spans="1:3" ht="15">
       <c r="A491" s="140"/>
       <c r="C491" s="180"/>
     </row>
-    <row r="492" spans="1:3" ht="14.5">
+    <row r="492" spans="1:3" ht="15">
       <c r="A492" s="140"/>
       <c r="C492" s="181"/>
     </row>
-    <row r="493" spans="1:3" ht="14.5">
+    <row r="493" spans="1:3" ht="15">
       <c r="A493" s="177"/>
       <c r="C493" s="179"/>
     </row>
-    <row r="494" spans="1:3" ht="14.5">
+    <row r="494" spans="1:3" ht="15">
       <c r="A494" s="140"/>
       <c r="C494" s="180"/>
     </row>
-    <row r="495" spans="1:3" ht="14.5">
+    <row r="495" spans="1:3" ht="15">
       <c r="A495" s="140"/>
       <c r="C495" s="180"/>
     </row>
-    <row r="496" spans="1:3" ht="14.5">
+    <row r="496" spans="1:3" ht="15">
       <c r="A496" s="140"/>
       <c r="C496" s="180"/>
     </row>
-    <row r="497" spans="1:3" ht="14.5">
+    <row r="497" spans="1:3" ht="15">
       <c r="A497" s="140"/>
       <c r="C497" s="180"/>
     </row>
-    <row r="498" spans="1:3" ht="14.5">
+    <row r="498" spans="1:3" ht="15">
       <c r="A498" s="140"/>
       <c r="C498" s="181"/>
     </row>
-    <row r="499" spans="1:3" ht="14.5">
+    <row r="499" spans="1:3" ht="15">
       <c r="A499" s="177"/>
       <c r="C499" s="179"/>
     </row>
-    <row r="500" spans="1:3" ht="14.5">
+    <row r="500" spans="1:3" ht="15">
       <c r="A500" s="140"/>
       <c r="C500" s="180"/>
     </row>
-    <row r="501" spans="1:3" ht="14.5">
+    <row r="501" spans="1:3" ht="15">
       <c r="A501" s="140"/>
       <c r="C501" s="180"/>
     </row>
-    <row r="502" spans="1:3" ht="14.5">
+    <row r="502" spans="1:3" ht="15">
       <c r="A502" s="140"/>
       <c r="C502" s="180"/>
     </row>
-    <row r="503" spans="1:3" ht="14.5">
+    <row r="503" spans="1:3" ht="15">
       <c r="A503" s="140"/>
       <c r="C503" s="180"/>
     </row>
-    <row r="504" spans="1:3" ht="14.5">
+    <row r="504" spans="1:3" ht="15">
       <c r="A504" s="140"/>
       <c r="C504" s="180"/>
     </row>
-    <row r="505" spans="1:3" ht="14.5">
+    <row r="505" spans="1:3" ht="15">
       <c r="A505" s="140"/>
       <c r="C505" s="180"/>
     </row>
-    <row r="506" spans="1:3" ht="14.5">
+    <row r="506" spans="1:3" ht="15">
       <c r="A506" s="140"/>
       <c r="C506" s="180"/>
     </row>
-    <row r="507" spans="1:3" ht="14.5">
+    <row r="507" spans="1:3" ht="15">
       <c r="A507" s="140"/>
       <c r="C507" s="180"/>
     </row>
-    <row r="508" spans="1:3" ht="14.5">
+    <row r="508" spans="1:3" ht="15">
       <c r="A508" s="140"/>
       <c r="C508" s="180"/>
     </row>
-    <row r="509" spans="1:3" ht="14.5">
+    <row r="509" spans="1:3" ht="15">
       <c r="A509" s="140"/>
       <c r="C509" s="180"/>
     </row>
-    <row r="510" spans="1:3" ht="14.5">
+    <row r="510" spans="1:3" ht="15">
       <c r="A510" s="140"/>
       <c r="C510" s="180"/>
     </row>
-    <row r="511" spans="1:3" ht="14.5">
+    <row r="511" spans="1:3" ht="15">
       <c r="A511" s="140"/>
       <c r="C511" s="180"/>
     </row>
-    <row r="512" spans="1:3" ht="14.5">
+    <row r="512" spans="1:3" ht="15">
       <c r="A512" s="140"/>
       <c r="C512" s="180"/>
     </row>
-    <row r="513" spans="1:3" ht="14.5">
+    <row r="513" spans="1:3" ht="15">
       <c r="A513" s="140"/>
       <c r="C513" s="180"/>
     </row>
-    <row r="514" spans="1:3" ht="14.5">
+    <row r="514" spans="1:3" ht="15">
       <c r="A514" s="140"/>
       <c r="C514" s="180"/>
     </row>
-    <row r="515" spans="1:3" ht="14.5">
+    <row r="515" spans="1:3" ht="15">
       <c r="A515" s="140"/>
       <c r="C515" s="180"/>
     </row>
-    <row r="516" spans="1:3" ht="14.5">
+    <row r="516" spans="1:3" ht="15">
       <c r="A516" s="140"/>
       <c r="C516" s="180"/>
     </row>
-    <row r="517" spans="1:3" ht="14.5">
+    <row r="517" spans="1:3" ht="15">
       <c r="A517" s="140"/>
       <c r="C517" s="180"/>
     </row>
-    <row r="518" spans="1:3" ht="14.5">
+    <row r="518" spans="1:3" ht="15">
       <c r="A518" s="140"/>
       <c r="C518" s="181"/>
     </row>
-    <row r="519" spans="1:3" ht="14.5">
+    <row r="519" spans="1:3" ht="15">
       <c r="A519" s="140"/>
       <c r="C519" s="180"/>
     </row>
-    <row r="520" spans="1:3" ht="14.5">
+    <row r="520" spans="1:3" ht="15">
       <c r="A520" s="140"/>
       <c r="C520" s="180"/>
     </row>
-    <row r="521" spans="1:3" ht="14.5">
+    <row r="521" spans="1:3" ht="15">
       <c r="A521" s="140"/>
       <c r="C521" s="180"/>
     </row>
-    <row r="522" spans="1:3" ht="14.5">
+    <row r="522" spans="1:3" ht="15">
       <c r="A522" s="140"/>
       <c r="C522" s="180"/>
     </row>
-    <row r="523" spans="1:3" ht="14.5">
+    <row r="523" spans="1:3" ht="15">
       <c r="A523" s="140"/>
       <c r="C523" s="180"/>
     </row>
-    <row r="524" spans="1:3" ht="14.5">
+    <row r="524" spans="1:3" ht="15">
       <c r="A524" s="140"/>
       <c r="C524" s="180"/>
     </row>
-    <row r="525" spans="1:3" ht="14.5">
+    <row r="525" spans="1:3" ht="15">
       <c r="A525" s="140"/>
       <c r="C525" s="180"/>
     </row>
-    <row r="526" spans="1:3" ht="14.5">
+    <row r="526" spans="1:3" ht="15">
       <c r="A526" s="140"/>
       <c r="C526" s="180"/>
     </row>
-    <row r="527" spans="1:3" ht="14.5">
+    <row r="527" spans="1:3" ht="15">
       <c r="A527" s="140"/>
       <c r="C527" s="181"/>
     </row>
-    <row r="528" spans="1:3" ht="14.5">
+    <row r="528" spans="1:3" ht="15">
       <c r="A528" s="177"/>
       <c r="C528" s="179"/>
     </row>
-    <row r="529" spans="1:3" ht="14.5">
+    <row r="529" spans="1:3" ht="15">
       <c r="A529" s="140"/>
       <c r="C529" s="180"/>
     </row>
-    <row r="530" spans="1:3" ht="14.5">
+    <row r="530" spans="1:3" ht="15">
       <c r="A530" s="140"/>
       <c r="C530" s="180"/>
     </row>
-    <row r="531" spans="1:3" ht="14.5">
+    <row r="531" spans="1:3" ht="15">
       <c r="A531" s="140"/>
       <c r="C531" s="180"/>
     </row>
-    <row r="532" spans="1:3" ht="14.5">
+    <row r="532" spans="1:3" ht="15">
       <c r="A532" s="140"/>
       <c r="C532" s="180"/>
     </row>
-    <row r="533" spans="1:3" ht="14.5">
+    <row r="533" spans="1:3" ht="15">
       <c r="A533" s="140"/>
       <c r="C533" s="180"/>
     </row>
-    <row r="534" spans="1:3" ht="14.5">
+    <row r="534" spans="1:3" ht="15">
       <c r="A534" s="140"/>
       <c r="C534" s="180"/>
     </row>
-    <row r="535" spans="1:3" ht="14.5">
+    <row r="535" spans="1:3" ht="15">
       <c r="A535" s="140"/>
       <c r="C535" s="180"/>
     </row>
-    <row r="536" spans="1:3" ht="14.5">
+    <row r="536" spans="1:3" ht="15">
       <c r="A536" s="140"/>
       <c r="C536" s="180"/>
     </row>
-    <row r="537" spans="1:3" ht="14.5">
+    <row r="537" spans="1:3" ht="15">
       <c r="A537" s="140"/>
       <c r="C537" s="180"/>
     </row>
-    <row r="538" spans="1:3" ht="14.5">
+    <row r="538" spans="1:3" ht="15">
       <c r="A538" s="140"/>
       <c r="C538" s="180"/>
     </row>
-    <row r="539" spans="1:3" ht="14.5">
+    <row r="539" spans="1:3" ht="15">
       <c r="A539" s="140"/>
       <c r="C539" s="180"/>
     </row>
-    <row r="540" spans="1:3" ht="14.5">
+    <row r="540" spans="1:3" ht="15">
       <c r="A540" s="140"/>
       <c r="C540" s="180"/>
     </row>
-    <row r="541" spans="1:3" ht="14.5">
+    <row r="541" spans="1:3" ht="15">
       <c r="A541" s="140"/>
       <c r="C541" s="180"/>
     </row>
-    <row r="542" spans="1:3" ht="14.5">
+    <row r="542" spans="1:3" ht="15">
       <c r="A542" s="140"/>
       <c r="C542" s="180"/>
     </row>
-    <row r="543" spans="1:3" ht="14.5">
+    <row r="543" spans="1:3" ht="15">
       <c r="A543" s="140"/>
       <c r="C543" s="183"/>
     </row>
-    <row r="544" spans="1:3" ht="14.5">
+    <row r="544" spans="1:3" ht="15">
       <c r="A544" s="177"/>
       <c r="C544" s="184"/>
     </row>
-    <row r="545" spans="1:3" ht="14.5">
+    <row r="545" spans="1:3" ht="15">
       <c r="A545" s="140"/>
       <c r="C545" s="180"/>
     </row>
-    <row r="546" spans="1:3" ht="14.5">
+    <row r="546" spans="1:3" ht="15">
       <c r="A546" s="140"/>
       <c r="C546" s="180"/>
     </row>
-    <row r="547" spans="1:3" ht="14.5">
+    <row r="547" spans="1:3" ht="15">
       <c r="A547" s="140"/>
       <c r="C547" s="180"/>
     </row>
-    <row r="548" spans="1:3" ht="14.5">
+    <row r="548" spans="1:3" ht="15">
       <c r="A548" s="140"/>
       <c r="C548" s="181"/>
     </row>
-    <row r="549" spans="1:3" ht="14.5">
+    <row r="549" spans="1:3" ht="15">
       <c r="A549" s="177"/>
       <c r="C549" s="179"/>
     </row>
-    <row r="550" spans="1:3" ht="14.5">
+    <row r="550" spans="1:3" ht="15">
       <c r="A550" s="140"/>
       <c r="C550" s="180"/>
     </row>
-    <row r="551" spans="1:3" ht="14.5">
+    <row r="551" spans="1:3" ht="15">
       <c r="A551" s="140"/>
       <c r="C551" s="180"/>
     </row>
-    <row r="552" spans="1:3" ht="14.5">
+    <row r="552" spans="1:3" ht="15">
       <c r="A552" s="140"/>
       <c r="C552" s="180"/>
     </row>
-    <row r="553" spans="1:3" ht="14.5">
+    <row r="553" spans="1:3" ht="15">
       <c r="A553" s="140"/>
       <c r="C553" s="181"/>
     </row>
-    <row r="554" spans="1:3" ht="14.5">
+    <row r="554" spans="1:3" ht="15">
       <c r="A554" s="177"/>
       <c r="C554" s="179"/>
     </row>
-    <row r="555" spans="1:3" ht="14.5">
+    <row r="555" spans="1:3" ht="15">
       <c r="A555" s="140"/>
       <c r="C555" s="180"/>
     </row>
-    <row r="556" spans="1:3" ht="14.5">
+    <row r="556" spans="1:3" ht="15">
       <c r="A556" s="140"/>
       <c r="C556" s="180"/>
     </row>
-    <row r="557" spans="1:3" ht="14.5">
+    <row r="557" spans="1:3" ht="15">
       <c r="A557" s="140"/>
       <c r="C557" s="180"/>
     </row>
-    <row r="558" spans="1:3" ht="14.5">
+    <row r="558" spans="1:3" ht="15">
       <c r="A558" s="140"/>
       <c r="C558" s="180"/>
     </row>
-    <row r="559" spans="1:3" ht="14.5">
+    <row r="559" spans="1:3" ht="15">
       <c r="A559" s="140"/>
       <c r="C559" s="180"/>
     </row>
-    <row r="560" spans="1:3" ht="14.5">
+    <row r="560" spans="1:3" ht="15">
       <c r="A560" s="140"/>
       <c r="C560" s="180"/>
     </row>
-    <row r="561" spans="1:3" ht="14.5">
+    <row r="561" spans="1:3" ht="15">
       <c r="A561" s="140"/>
       <c r="C561" s="180"/>
     </row>
-    <row r="562" spans="1:3" ht="14.5">
+    <row r="562" spans="1:3" ht="15">
       <c r="A562" s="140"/>
       <c r="C562" s="180"/>
     </row>
-    <row r="563" spans="1:3" ht="14.5">
+    <row r="563" spans="1:3" ht="15">
       <c r="A563" s="140"/>
       <c r="C563" s="180"/>
     </row>
-    <row r="564" spans="1:3" ht="14.5">
+    <row r="564" spans="1:3" ht="15">
       <c r="A564" s="140"/>
       <c r="C564" s="180"/>
     </row>
-    <row r="565" spans="1:3" ht="14.5">
+    <row r="565" spans="1:3" ht="15">
       <c r="A565" s="140"/>
       <c r="C565" s="180"/>
     </row>
-    <row r="566" spans="1:3" ht="14.5">
+    <row r="566" spans="1:3" ht="15">
       <c r="A566" s="140"/>
       <c r="C566" s="180"/>
     </row>
-    <row r="567" spans="1:3" ht="14.5">
+    <row r="567" spans="1:3" ht="15">
       <c r="A567" s="140"/>
       <c r="C567" s="180"/>
     </row>
-    <row r="568" spans="1:3" ht="14.5">
+    <row r="568" spans="1:3" ht="15">
       <c r="A568" s="140"/>
       <c r="C568" s="180"/>
     </row>
-    <row r="569" spans="1:3" ht="14.5">
+    <row r="569" spans="1:3" ht="15">
       <c r="A569" s="140"/>
       <c r="C569" s="180"/>
     </row>
-    <row r="570" spans="1:3" ht="14.5">
+    <row r="570" spans="1:3" ht="15">
       <c r="A570" s="140"/>
       <c r="C570" s="180"/>
     </row>
-    <row r="571" spans="1:3" ht="14.5">
+    <row r="571" spans="1:3" ht="15">
       <c r="A571" s="140"/>
       <c r="C571" s="180"/>
     </row>
-    <row r="572" spans="1:3" ht="14.5">
+    <row r="572" spans="1:3" ht="15">
       <c r="A572" s="140"/>
       <c r="C572" s="180"/>
     </row>
-    <row r="573" spans="1:3" ht="14.5">
+    <row r="573" spans="1:3" ht="15">
       <c r="A573" s="140"/>
       <c r="C573" s="180"/>
     </row>
-    <row r="574" spans="1:3" ht="14.5">
+    <row r="574" spans="1:3" ht="15">
       <c r="A574" s="140"/>
       <c r="C574" s="180"/>
     </row>
-    <row r="575" spans="1:3" ht="14.5">
+    <row r="575" spans="1:3" ht="15">
       <c r="A575" s="140"/>
       <c r="C575" s="180"/>
     </row>
-    <row r="576" spans="1:3" ht="14.5">
+    <row r="576" spans="1:3" ht="15">
       <c r="A576" s="140"/>
       <c r="C576" s="180"/>
     </row>
-    <row r="577" spans="1:3" ht="14.5">
+    <row r="577" spans="1:3" ht="15">
       <c r="A577" s="140"/>
       <c r="C577" s="180"/>
     </row>
-    <row r="578" spans="1:3" ht="14.5">
+    <row r="578" spans="1:3" ht="15">
       <c r="A578" s="140"/>
       <c r="C578" s="180"/>
     </row>
-    <row r="579" spans="1:3" ht="14.5">
+    <row r="579" spans="1:3" ht="15">
       <c r="A579" s="140"/>
       <c r="C579" s="180"/>
     </row>
-    <row r="580" spans="1:3" ht="14.5">
+    <row r="580" spans="1:3" ht="15">
       <c r="A580" s="140"/>
       <c r="C580" s="180"/>
     </row>
-    <row r="581" spans="1:3" ht="14.5">
+    <row r="581" spans="1:3" ht="15">
       <c r="A581" s="140"/>
       <c r="C581" s="180"/>
     </row>
-    <row r="582" spans="1:3" ht="14.5">
+    <row r="582" spans="1:3" ht="15">
       <c r="A582" s="140"/>
       <c r="C582" s="180"/>
     </row>
-    <row r="583" spans="1:3" ht="14.5">
+    <row r="583" spans="1:3" ht="15">
       <c r="A583" s="140"/>
       <c r="C583" s="180"/>
     </row>
-    <row r="584" spans="1:3" ht="14.5">
+    <row r="584" spans="1:3" ht="15">
       <c r="A584" s="140"/>
       <c r="C584" s="180"/>
     </row>
-    <row r="585" spans="1:3" ht="14.5">
+    <row r="585" spans="1:3" ht="15">
       <c r="A585" s="140"/>
       <c r="C585" s="180"/>
     </row>
-    <row r="586" spans="1:3" ht="14.5">
+    <row r="586" spans="1:3" ht="15">
       <c r="A586" s="140"/>
       <c r="C586" s="180"/>
     </row>
-    <row r="587" spans="1:3" ht="14.5">
+    <row r="587" spans="1:3" ht="15">
       <c r="A587" s="140"/>
       <c r="C587" s="180"/>
     </row>
-    <row r="588" spans="1:3" ht="14.5">
+    <row r="588" spans="1:3" ht="15">
       <c r="A588" s="140"/>
       <c r="C588" s="180"/>
     </row>
-    <row r="589" spans="1:3" ht="14.5">
+    <row r="589" spans="1:3" ht="15">
       <c r="A589" s="140"/>
       <c r="C589" s="180"/>
     </row>
-    <row r="590" spans="1:3" ht="14.5">
+    <row r="590" spans="1:3" ht="15">
       <c r="A590" s="140"/>
       <c r="C590" s="180"/>
     </row>
-    <row r="591" spans="1:3" ht="14.5">
+    <row r="591" spans="1:3" ht="15">
       <c r="A591" s="140"/>
       <c r="C591" s="180"/>
     </row>
-    <row r="592" spans="1:3" ht="14.5">
+    <row r="592" spans="1:3" ht="15">
       <c r="A592" s="140"/>
       <c r="C592" s="180"/>
     </row>
-    <row r="593" spans="1:3" ht="14.5">
+    <row r="593" spans="1:3" ht="15">
       <c r="A593" s="140"/>
       <c r="C593" s="180"/>
     </row>
-    <row r="594" spans="1:3" ht="14.5">
+    <row r="594" spans="1:3" ht="15">
       <c r="A594" s="140"/>
       <c r="C594" s="180"/>
     </row>
-    <row r="595" spans="1:3" ht="14.5">
+    <row r="595" spans="1:3" ht="15">
       <c r="A595" s="140"/>
       <c r="C595" s="180"/>
     </row>
-    <row r="596" spans="1:3" ht="14.5">
+    <row r="596" spans="1:3" ht="15">
       <c r="A596" s="140"/>
       <c r="C596" s="180"/>
     </row>
-    <row r="597" spans="1:3" ht="14.5">
+    <row r="597" spans="1:3" ht="15">
       <c r="A597" s="140"/>
       <c r="C597" s="180"/>
     </row>
-    <row r="598" spans="1:3" ht="14.5">
+    <row r="598" spans="1:3" ht="15">
       <c r="A598" s="140"/>
       <c r="C598" s="180"/>
     </row>
-    <row r="599" spans="1:3" ht="14.5">
+    <row r="599" spans="1:3" ht="15">
       <c r="A599" s="140"/>
       <c r="C599" s="180"/>
     </row>
-    <row r="600" spans="1:3" ht="14.5">
+    <row r="600" spans="1:3" ht="15">
       <c r="A600" s="140"/>
       <c r="C600" s="180"/>
     </row>
-    <row r="601" spans="1:3" ht="14.5">
+    <row r="601" spans="1:3" ht="15">
       <c r="A601" s="140"/>
       <c r="C601" s="180"/>
     </row>
-    <row r="602" spans="1:3" ht="14.5">
+    <row r="602" spans="1:3" ht="15">
       <c r="A602" s="140"/>
       <c r="C602" s="180"/>
     </row>
-    <row r="603" spans="1:3" ht="14.5">
+    <row r="603" spans="1:3" ht="15">
       <c r="A603" s="140"/>
       <c r="C603" s="180"/>
     </row>
-    <row r="604" spans="1:3" ht="14.5">
+    <row r="604" spans="1:3" ht="15">
       <c r="A604" s="140"/>
       <c r="C604" s="180"/>
     </row>
-    <row r="605" spans="1:3" ht="14.5">
+    <row r="605" spans="1:3" ht="15">
       <c r="A605" s="140"/>
       <c r="C605" s="180"/>
     </row>
-    <row r="606" spans="1:3" ht="14.5">
+    <row r="606" spans="1:3" ht="15">
       <c r="A606" s="140"/>
       <c r="C606" s="180"/>
     </row>
-    <row r="607" spans="1:3" ht="14.5">
+    <row r="607" spans="1:3" ht="15">
       <c r="A607" s="140"/>
       <c r="C607" s="180"/>
     </row>
-    <row r="608" spans="1:3" ht="14.5">
+    <row r="608" spans="1:3" ht="15">
       <c r="A608" s="140"/>
       <c r="C608" s="180"/>
     </row>
-    <row r="609" spans="1:3" ht="14.5">
+    <row r="609" spans="1:3" ht="15">
       <c r="A609" s="140"/>
       <c r="C609" s="180"/>
     </row>
-    <row r="610" spans="1:3" ht="14.5">
+    <row r="610" spans="1:3" ht="15">
       <c r="A610" s="140"/>
       <c r="C610" s="181"/>
     </row>
-    <row r="611" spans="1:3" ht="14.5">
+    <row r="611" spans="1:3" ht="15">
       <c r="A611" s="177"/>
       <c r="C611" s="179"/>
     </row>
-    <row r="612" spans="1:3" ht="14.5">
+    <row r="612" spans="1:3" ht="15">
       <c r="A612" s="140"/>
       <c r="C612" s="180"/>
     </row>
-    <row r="613" spans="1:3" ht="14.5">
+    <row r="613" spans="1:3" ht="15">
       <c r="A613" s="140"/>
       <c r="C613" s="180"/>
     </row>
-    <row r="614" spans="1:3" ht="14.5">
+    <row r="614" spans="1:3" ht="15">
       <c r="A614" s="140"/>
       <c r="C614" s="180"/>
     </row>
-    <row r="615" spans="1:3" ht="14.5">
+    <row r="615" spans="1:3" ht="15">
       <c r="A615" s="140"/>
       <c r="C615" s="180"/>
     </row>
-    <row r="616" spans="1:3" ht="14.5">
+    <row r="616" spans="1:3" ht="15">
       <c r="A616" s="140"/>
       <c r="C616" s="180"/>
     </row>
-    <row r="617" spans="1:3" ht="14.5">
+    <row r="617" spans="1:3" ht="15">
       <c r="A617" s="140"/>
       <c r="C617" s="180"/>
     </row>
-    <row r="618" spans="1:3" ht="14.5">
+    <row r="618" spans="1:3" ht="15">
       <c r="A618" s="140"/>
       <c r="C618" s="180"/>
     </row>
-    <row r="619" spans="1:3" ht="14.5">
+    <row r="619" spans="1:3" ht="15">
       <c r="A619" s="140"/>
       <c r="C619" s="180"/>
     </row>
-    <row r="620" spans="1:3" ht="14.5">
+    <row r="620" spans="1:3" ht="15">
       <c r="A620" s="140"/>
       <c r="C620" s="180"/>
     </row>
-    <row r="621" spans="1:3" ht="14.5">
+    <row r="621" spans="1:3" ht="15">
       <c r="A621" s="140"/>
       <c r="C621" s="180"/>
     </row>
-    <row r="622" spans="1:3" ht="14.5">
+    <row r="622" spans="1:3" ht="15">
       <c r="A622" s="140"/>
       <c r="C622" s="180"/>
     </row>
-    <row r="623" spans="1:3" ht="14.5">
+    <row r="623" spans="1:3" ht="15">
       <c r="A623" s="140"/>
       <c r="C623" s="180"/>
     </row>
-    <row r="624" spans="1:3" ht="14.5">
+    <row r="624" spans="1:3" ht="15">
       <c r="A624" s="140"/>
       <c r="C624" s="181"/>
     </row>
-    <row r="625" spans="1:4" ht="14.5">
+    <row r="625" spans="1:4" ht="15">
       <c r="A625" s="177"/>
       <c r="C625" s="179"/>
     </row>
-    <row r="626" spans="1:4" ht="14.5">
+    <row r="626" spans="1:4" ht="15">
       <c r="A626" s="140"/>
       <c r="C626" s="180"/>
     </row>
-    <row r="627" spans="1:4" ht="14.5">
+    <row r="627" spans="1:4" ht="15">
       <c r="A627" s="140"/>
       <c r="C627" s="180"/>
     </row>
-    <row r="628" spans="1:4" ht="14.5">
+    <row r="628" spans="1:4" ht="15">
       <c r="A628" s="140"/>
       <c r="C628" s="180"/>
     </row>
-    <row r="629" spans="1:4" ht="14.5">
+    <row r="629" spans="1:4" ht="15">
       <c r="A629" s="140"/>
       <c r="C629" s="180"/>
     </row>
-    <row r="630" spans="1:4" ht="14.5">
+    <row r="630" spans="1:4" ht="15">
       <c r="A630" s="140"/>
       <c r="C630" s="180"/>
     </row>
-    <row r="631" spans="1:4" ht="14.5">
+    <row r="631" spans="1:4" ht="15">
       <c r="A631" s="140"/>
       <c r="C631" s="180"/>
     </row>
-    <row r="632" spans="1:4" ht="14.5">
+    <row r="632" spans="1:4" ht="15">
       <c r="A632" s="140"/>
       <c r="C632" s="180"/>
     </row>
-    <row r="633" spans="1:4" ht="14.5">
+    <row r="633" spans="1:4" ht="15">
       <c r="A633" s="140"/>
       <c r="C633" s="180"/>
     </row>
-    <row r="634" spans="1:4" ht="14.5">
+    <row r="634" spans="1:4" ht="15">
       <c r="A634" s="140"/>
       <c r="C634" s="180"/>
     </row>
-    <row r="635" spans="1:4" ht="14.5">
+    <row r="635" spans="1:4" ht="15">
       <c r="A635" s="140"/>
       <c r="C635" s="180"/>
     </row>
-    <row r="636" spans="1:4" ht="14.5">
+    <row r="636" spans="1:4" ht="15">
       <c r="A636" s="140"/>
       <c r="C636" s="180"/>
     </row>
-    <row r="637" spans="1:4" ht="14.5">
+    <row r="637" spans="1:4" ht="15">
       <c r="A637" s="140"/>
       <c r="C637" s="181"/>
     </row>
@@ -19271,22 +19283,22 @@
       <selection activeCell="A4" sqref="A4:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="32.453125" customWidth="1"/>
-    <col min="6" max="6" width="24.7265625" customWidth="1"/>
-    <col min="7" max="7" width="43.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.26953125" customWidth="1"/>
-    <col min="9" max="9" width="31.453125" customWidth="1"/>
-    <col min="10" max="10" width="21.7265625" customWidth="1"/>
-    <col min="11" max="11" width="6.26953125" customWidth="1"/>
-    <col min="12" max="1025" width="8.26953125" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="32.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="12" max="1025" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="29.5">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="36">
       <c r="A1" s="69" t="s">
         <v>134</v>
       </c>
@@ -19304,7 +19316,7 @@
       <c r="G1" s="73"/>
       <c r="H1" s="186"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="65.5">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="75">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -19328,7 +19340,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.5">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="74" t="s">
         <v>32</v>
       </c>
@@ -19355,105 +19367,105 @@
       </c>
       <c r="I3" s="68"/>
     </row>
-    <row r="4" spans="1:9" ht="14.5">
+    <row r="4" spans="1:9" ht="15">
       <c r="E4" s="1"/>
       <c r="F4" s="187"/>
       <c r="G4" s="12"/>
       <c r="H4" s="127"/>
     </row>
-    <row r="5" spans="1:9" ht="14.5">
+    <row r="5" spans="1:9" ht="15">
       <c r="E5" s="1"/>
       <c r="F5" s="187"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:9" ht="14.5">
+    <row r="6" spans="1:9" ht="15">
       <c r="E6" s="1"/>
       <c r="F6" s="187"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:9" ht="14.5">
+    <row r="7" spans="1:9" ht="15">
       <c r="E7" s="1"/>
       <c r="F7" s="187"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:9" ht="14.5">
+    <row r="8" spans="1:9" ht="15">
       <c r="E8" s="1"/>
       <c r="F8" s="187"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:9" ht="14.5">
+    <row r="9" spans="1:9" ht="15">
       <c r="E9" s="1"/>
       <c r="F9" s="187"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:9" ht="14.5">
+    <row r="10" spans="1:9" ht="15">
       <c r="E10" s="1"/>
       <c r="F10" s="187"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:9" ht="14.5">
+    <row r="11" spans="1:9" ht="15">
       <c r="E11" s="1"/>
       <c r="F11" s="187"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:9" ht="14.5">
+    <row r="12" spans="1:9" ht="15">
       <c r="E12" s="1"/>
       <c r="F12" s="187"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:9" ht="14.5">
+    <row r="13" spans="1:9" ht="15">
       <c r="E13" s="1"/>
       <c r="F13" s="187"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:9" ht="14.5">
+    <row r="14" spans="1:9" ht="15">
       <c r="B14" s="108"/>
       <c r="D14" s="143"/>
       <c r="E14" s="1"/>
       <c r="F14" s="187"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:9" ht="14.5">
+    <row r="15" spans="1:9" ht="15">
       <c r="B15" s="108"/>
       <c r="E15" s="1"/>
       <c r="F15" s="187"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:9" ht="14.5">
+    <row r="16" spans="1:9" ht="15">
       <c r="B16" s="108"/>
       <c r="E16" s="1"/>
       <c r="F16" s="187"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="2:8" ht="14.5">
+    <row r="17" spans="2:8" ht="15">
       <c r="B17" s="108"/>
       <c r="E17" s="1"/>
       <c r="F17" s="187"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="2:8" ht="14.5">
+    <row r="18" spans="2:8" ht="15">
       <c r="E18" s="1"/>
       <c r="F18" s="187"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="2:8" ht="14.5">
+    <row r="19" spans="2:8" ht="15">
       <c r="C19" s="36"/>
       <c r="E19" s="1"/>
       <c r="F19" s="187"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="2:8" ht="14.5">
+    <row r="20" spans="2:8" ht="15">
       <c r="E20" s="1"/>
       <c r="F20" s="187"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="2:8" ht="14.5">
+    <row r="21" spans="2:8" ht="15">
       <c r="B21" s="108"/>
       <c r="E21" s="1"/>
       <c r="F21" s="187"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="2:8" ht="14.5">
+    <row r="22" spans="2:8" ht="15">
       <c r="E22" s="1"/>
       <c r="H22" s="187"/>
     </row>
@@ -19534,20 +19546,20 @@
       <selection activeCell="A4" sqref="A4:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" customWidth="1"/>
-    <col min="2" max="2" width="31.7265625" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.453125" customWidth="1"/>
-    <col min="9" max="1023" width="8.453125" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" customWidth="1"/>
+    <col min="9" max="1023" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.5">
+    <row r="1" spans="1:8" ht="18.75">
       <c r="A1" s="80" t="s">
         <v>142</v>
       </c>
@@ -19562,7 +19574,7 @@
       </c>
       <c r="E1" s="84"/>
     </row>
-    <row r="2" spans="1:8" ht="91">
+    <row r="2" spans="1:8" ht="89.25">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -19586,7 +19598,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.5">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="74" t="s">
         <v>32</v>
       </c>
@@ -19612,26 +19624,26 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.5">
+    <row r="4" spans="1:8" ht="15">
       <c r="D4"/>
       <c r="E4" s="1"/>
       <c r="G4" s="68"/>
     </row>
-    <row r="5" spans="1:8" ht="14.5">
+    <row r="5" spans="1:8" ht="15">
       <c r="D5" s="111"/>
       <c r="E5" s="1"/>
       <c r="G5" s="68"/>
     </row>
-    <row r="6" spans="1:8" ht="14">
+    <row r="6" spans="1:8" ht="14.25">
       <c r="D6" s="112"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="14.5">
+    <row r="7" spans="1:8" ht="15">
       <c r="D7"/>
       <c r="E7" s="1"/>
       <c r="F7" s="187"/>
     </row>
-    <row r="8" spans="1:8" ht="14">
+    <row r="8" spans="1:8" ht="14.25">
       <c r="B8" s="108"/>
       <c r="D8" s="112"/>
       <c r="E8" s="1"/>
@@ -19666,19 +19678,19 @@
       <selection activeCell="A4" sqref="A4:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="26.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
-    <col min="3" max="3" width="32.453125" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="28.26953125" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" customWidth="1"/>
-    <col min="8" max="1023" width="11.453125"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="8" max="1023" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18">
+    <row r="1" spans="1:15" ht="36">
       <c r="A1" s="69" t="s">
         <v>138</v>
       </c>
@@ -19698,7 +19710,7 @@
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
     </row>
-    <row r="2" spans="1:15" ht="87">
+    <row r="2" spans="1:15" ht="90">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -19722,7 +19734,7 @@
       <c r="I2" s="78"/>
       <c r="J2" s="78"/>
     </row>
-    <row r="3" spans="1:15" ht="14.5">
+    <row r="3" spans="1:15" ht="15">
       <c r="A3" s="74" t="s">
         <v>32</v>
       </c>
@@ -19756,7 +19768,7 @@
     <row r="4" spans="1:15">
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="14.5">
+    <row r="5" spans="1:15" ht="15">
       <c r="E5" s="1"/>
       <c r="F5" s="187"/>
     </row>
@@ -19804,14 +19816,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="10.7265625" style="291" customWidth="1"/>
-    <col min="3" max="1025" width="11.1796875" style="287" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="287"/>
+    <col min="1" max="2" width="10.7109375" style="291" customWidth="1"/>
+    <col min="3" max="1025" width="11.140625" style="287" customWidth="1"/>
+    <col min="1026" max="16384" width="8.85546875" style="287"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.5">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="283" t="s">
         <v>362</v>
       </c>
@@ -19819,7 +19831,7 @@
       <c r="C1" s="285"/>
       <c r="D1" s="286"/>
     </row>
-    <row r="2" spans="1:4" ht="88.5">
+    <row r="2" spans="1:4" ht="102.75">
       <c r="A2" s="288" t="s">
         <v>353</v>
       </c>
@@ -19864,17 +19876,17 @@
       <selection activeCell="A4" sqref="A4:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="50" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="25.453125" customWidth="1"/>
-    <col min="8" max="14" width="6.26953125" customWidth="1"/>
-    <col min="15" max="1023" width="8.26953125" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="14" width="6.28515625" customWidth="1"/>
+    <col min="15" max="1023" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18">
@@ -19896,7 +19908,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:14" ht="87">
+    <row r="2" spans="1:14" ht="105">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -19919,7 +19931,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="1:14" ht="14.5">
+    <row r="3" spans="1:14" ht="15">
       <c r="A3" s="74" t="s">
         <v>32</v>
       </c>
@@ -20001,18 +20013,18 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" style="133" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" style="133" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" style="133" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" style="133" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" style="133" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" style="133" customWidth="1"/>
-    <col min="7" max="7" width="22.7265625" style="133" customWidth="1"/>
-    <col min="8" max="8" width="15.7265625" style="133" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="133" customWidth="1"/>
-    <col min="10" max="16384" width="10.7265625" style="133"/>
+    <col min="1" max="1" width="13.28515625" style="133" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="133" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="133" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="133" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="133" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="133" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="133" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="133" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="133" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="133"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
@@ -20034,7 +20046,7 @@
       <c r="H1" s="132"/>
       <c r="I1" s="132"/>
     </row>
-    <row r="2" spans="1:9" ht="39">
+    <row r="2" spans="1:9" ht="38.25">
       <c r="A2" s="134"/>
       <c r="B2" s="134"/>
       <c r="C2" s="135" t="s">
@@ -20053,7 +20065,7 @@
       <c r="H2" s="134"/>
       <c r="I2" s="134"/>
     </row>
-    <row r="3" spans="1:9" ht="14.5">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="136" t="s">
         <v>9</v>
       </c>
@@ -20082,7 +20094,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.5">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="138"/>
       <c r="B4" s="139"/>
       <c r="C4" s="132"/>
@@ -20093,7 +20105,7 @@
       <c r="H4" s="139"/>
       <c r="I4" s="139"/>
     </row>
-    <row r="5" spans="1:9" ht="14.5">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="138"/>
       <c r="B5" s="139"/>
       <c r="C5" s="132"/>
@@ -20104,7 +20116,7 @@
       <c r="H5" s="132"/>
       <c r="I5" s="139"/>
     </row>
-    <row r="6" spans="1:9" ht="14.5">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="138"/>
       <c r="B6" s="139"/>
       <c r="C6" s="132"/>
@@ -20115,7 +20127,7 @@
       <c r="H6" s="132"/>
       <c r="I6" s="139"/>
     </row>
-    <row r="7" spans="1:9" ht="14.5">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="138"/>
       <c r="B7" s="139"/>
       <c r="C7" s="132"/>
@@ -20126,7 +20138,7 @@
       <c r="H7" s="132"/>
       <c r="I7" s="139"/>
     </row>
-    <row r="8" spans="1:9" ht="14.5">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="138"/>
       <c r="B8" s="139"/>
       <c r="C8" s="132"/>
@@ -20137,7 +20149,7 @@
       <c r="H8" s="132"/>
       <c r="I8" s="139"/>
     </row>
-    <row r="9" spans="1:9" ht="14.5">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="138"/>
       <c r="B9" s="139"/>
       <c r="C9" s="132"/>
@@ -20164,14 +20176,14 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="11.453125"/>
-    <col min="3" max="3" width="35.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="1025" width="11.453125"/>
+    <col min="7" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
@@ -20195,7 +20207,7 @@
       <c r="J1" s="36"/>
       <c r="K1" s="36"/>
     </row>
-    <row r="2" spans="1:11" ht="65">
+    <row r="2" spans="1:11" ht="63.75">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -20218,7 +20230,7 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="1:11" ht="39">
+    <row r="3" spans="1:11" ht="38.25">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -20261,15 +20273,15 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="50.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.7265625" customWidth="1"/>
-    <col min="7" max="1025" width="8.26953125" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="7" max="1025" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="18" customHeight="1">
@@ -20537,7 +20549,7 @@
       <c r="IT1" s="36"/>
       <c r="IU1" s="36"/>
     </row>
-    <row r="2" spans="1:255" ht="175.5">
+    <row r="2" spans="1:255" ht="191.25">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
@@ -20804,7 +20816,7 @@
       <c r="IT2" s="36"/>
       <c r="IU2" s="36"/>
     </row>
-    <row r="3" spans="1:255" ht="13">
+    <row r="3" spans="1:255">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -21314,14 +21326,14 @@
       <selection activeCell="A4" sqref="A4:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="50.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" style="1" customWidth="1"/>
-    <col min="6" max="1025" width="8.26953125" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
+    <col min="6" max="1025" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="18" customHeight="1">
@@ -21589,7 +21601,7 @@
       <c r="IT1" s="36"/>
       <c r="IU1" s="36"/>
     </row>
-    <row r="2" spans="1:255" ht="78">
+    <row r="2" spans="1:255" ht="89.25">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -21856,7 +21868,7 @@
       <c r="IT2" s="36"/>
       <c r="IU2" s="36"/>
     </row>
-    <row r="3" spans="1:255" ht="13">
+    <row r="3" spans="1:255">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -21927,14 +21939,14 @@
       <selection activeCell="A4" sqref="A4:XFD518"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" customWidth="1"/>
-    <col min="3" max="3" width="45.7265625" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" style="1" customWidth="1"/>
-    <col min="5" max="1011" width="8.26953125" customWidth="1"/>
-    <col min="1012" max="1016" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="1" customWidth="1"/>
+    <col min="5" max="1011" width="8.28515625" customWidth="1"/>
+    <col min="1012" max="1016" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -21951,7 +21963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="52">
+    <row r="2" spans="1:4" ht="51">
       <c r="A2" s="24" t="s">
         <v>153</v>
       </c>
@@ -21965,7 +21977,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13">
+    <row r="3" spans="1:4">
       <c r="A3" s="86" t="s">
         <v>162</v>
       </c>
@@ -23671,12 +23683,12 @@
       <selection activeCell="A4" sqref="A4:XFD115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="45.7265625" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -23693,7 +23705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="52">
+    <row r="2" spans="1:4" ht="63.75">
       <c r="A2" s="24" t="s">
         <v>160</v>
       </c>
@@ -23707,7 +23719,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13">
+    <row r="3" spans="1:4">
       <c r="A3" s="86" t="s">
         <v>162</v>
       </c>
@@ -24100,12 +24112,12 @@
       <selection activeCell="A4" sqref="A4:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="53.7265625" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -24122,7 +24134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="52">
+    <row r="2" spans="1:4" ht="51">
       <c r="A2" s="24" t="s">
         <v>153</v>
       </c>
@@ -24136,7 +24148,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13">
+    <row r="3" spans="1:4">
       <c r="A3" s="86" t="s">
         <v>32</v>
       </c>
@@ -24300,17 +24312,17 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" style="133" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="133" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" style="133" customWidth="1"/>
-    <col min="4" max="4" width="28.453125" style="133" customWidth="1"/>
-    <col min="5" max="5" width="26.81640625" style="133" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" style="133" customWidth="1"/>
-    <col min="7" max="7" width="24.453125" style="133" customWidth="1"/>
-    <col min="8" max="1025" width="8.81640625" style="133" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="133"/>
+    <col min="1" max="1" width="16.140625" style="133" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="133" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="133" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" style="133" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="133" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="133" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="133" customWidth="1"/>
+    <col min="8" max="1025" width="8.85546875" style="133" customWidth="1"/>
+    <col min="1026" max="16384" width="8.85546875" style="133"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1">
@@ -24329,7 +24341,7 @@
       <c r="E1" s="240"/>
       <c r="F1" s="240"/>
     </row>
-    <row r="2" spans="1:6" s="236" customFormat="1" ht="39">
+    <row r="2" spans="1:6" s="236" customFormat="1" ht="38.25">
       <c r="A2" s="239" t="s">
         <v>4</v>
       </c>
@@ -24349,7 +24361,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.75" customHeight="1">
+    <row r="3" spans="1:6" ht="13.7" customHeight="1">
       <c r="A3" s="233" t="s">
         <v>9</v>
       </c>
@@ -24369,28 +24381,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.75" customHeight="1">
+    <row r="4" spans="1:6" ht="13.7" customHeight="1">
       <c r="A4" s="232"/>
       <c r="B4" s="232"/>
     </row>
-    <row r="5" spans="1:6" ht="13.75" customHeight="1">
+    <row r="5" spans="1:6" ht="13.7" customHeight="1">
       <c r="A5" s="232"/>
       <c r="B5" s="232"/>
     </row>
-    <row r="6" spans="1:6" ht="13.75" customHeight="1">
+    <row r="6" spans="1:6" ht="13.7" customHeight="1">
       <c r="A6" s="232"/>
       <c r="B6" s="232"/>
     </row>
-    <row r="7" spans="1:6" ht="13.75" customHeight="1">
+    <row r="7" spans="1:6" ht="13.7" customHeight="1">
       <c r="A7" s="232"/>
       <c r="B7" s="232"/>
     </row>
-    <row r="8" spans="1:6" ht="13.75" customHeight="1">
+    <row r="8" spans="1:6" ht="13.7" customHeight="1">
       <c r="A8" s="232"/>
       <c r="B8" s="232"/>
     </row>
-    <row r="9" spans="1:6" ht="13.75" customHeight="1"/>
-    <row r="10" spans="1:6" ht="13.75" customHeight="1"/>
+    <row r="9" spans="1:6" ht="13.7" customHeight="1"/>
+    <row r="10" spans="1:6" ht="13.7" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -24408,11 +24420,11 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="11.453125"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
-    <col min="4" max="1024" width="11.453125"/>
+    <col min="1" max="2" width="11.42578125"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="1024" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18">
@@ -24430,7 +24442,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="130">
+    <row r="2" spans="1:14" ht="127.5">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -24458,7 +24470,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" ht="13">
+    <row r="3" spans="1:14">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -24509,14 +24521,14 @@
       <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="11.453125"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="61.26953125" customWidth="1"/>
-    <col min="8" max="1025" width="11.453125"/>
+    <col min="7" max="7" width="61.28515625" customWidth="1"/>
+    <col min="8" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18">
@@ -24543,7 +24555,7 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
     </row>
-    <row r="2" spans="1:19" ht="182">
+    <row r="2" spans="1:19" ht="178.5">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -24577,7 +24589,7 @@
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
     </row>
-    <row r="3" spans="1:19" ht="39">
+    <row r="3" spans="1:19" ht="38.25">
       <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
@@ -24657,14 +24669,14 @@
       <selection activeCell="A4" sqref="A4:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="2" max="3" width="21.26953125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.453125"/>
-    <col min="6" max="6" width="35.26953125" customWidth="1"/>
-    <col min="7" max="1023" width="11.453125"/>
+    <col min="5" max="5" width="11.42578125"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
+    <col min="7" max="1023" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18">
@@ -24689,7 +24701,7 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>
-    <row r="2" spans="1:17" ht="91">
+    <row r="2" spans="1:17" ht="89.25">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -24715,7 +24727,7 @@
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
     </row>
-    <row r="3" spans="1:17" ht="26">
+    <row r="3" spans="1:17" ht="25.5">
       <c r="A3" s="28" t="s">
         <v>32</v>
       </c>
@@ -24817,19 +24829,19 @@
       <selection activeCell="A4" sqref="A4:XFD98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="23.26953125" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.7265625" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="26.26953125" customWidth="1"/>
-    <col min="11" max="1023" width="8.7265625" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" customWidth="1"/>
+    <col min="11" max="1023" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18">
@@ -24887,7 +24899,7 @@
       <c r="K2" s="36"/>
       <c r="L2" s="36"/>
     </row>
-    <row r="3" spans="1:16" ht="39">
+    <row r="3" spans="1:16" ht="38.25">
       <c r="A3" s="40" t="s">
         <v>32</v>
       </c>
@@ -24925,7 +24937,7 @@
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:16" ht="13">
+    <row r="4" spans="1:16">
       <c r="E4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="41"/>
@@ -24938,106 +24950,106 @@
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="1:16" ht="13">
+    <row r="5" spans="1:16">
       <c r="G5" s="1"/>
       <c r="H5" s="41"/>
       <c r="J5" s="42"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
     </row>
-    <row r="6" spans="1:16" ht="13">
+    <row r="6" spans="1:16">
       <c r="G6" s="1"/>
       <c r="H6" s="41"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="1:16" ht="13">
+    <row r="7" spans="1:16">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="G7" s="1"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
     </row>
-    <row r="8" spans="1:16" ht="13">
+    <row r="8" spans="1:16">
       <c r="E8" s="1"/>
       <c r="G8" s="1"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="1:16" ht="13">
+    <row r="9" spans="1:16">
       <c r="E9" s="1"/>
       <c r="G9" s="1"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
     </row>
-    <row r="10" spans="1:16" ht="13">
+    <row r="10" spans="1:16">
       <c r="E10" s="1"/>
       <c r="G10" s="1"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:16" ht="13">
+    <row r="11" spans="1:16">
       <c r="E11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="41"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:16" ht="13">
+    <row r="12" spans="1:16">
       <c r="E12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="41"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:16" ht="13">
+    <row r="13" spans="1:16">
       <c r="E13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="41"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:16" ht="13">
+    <row r="14" spans="1:16">
       <c r="E14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="41"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="1:16" ht="13">
+    <row r="15" spans="1:16">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="G15" s="1"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
     </row>
-    <row r="16" spans="1:16" ht="13">
+    <row r="16" spans="1:16">
       <c r="E16" s="1"/>
       <c r="G16" s="1"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" spans="2:12" ht="13">
+    <row r="17" spans="2:12">
       <c r="E17" s="1"/>
       <c r="G17" s="1"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
     </row>
-    <row r="18" spans="2:12" ht="13">
+    <row r="18" spans="2:12">
       <c r="E18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="41"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
     </row>
-    <row r="19" spans="2:12" ht="13">
+    <row r="19" spans="2:12">
       <c r="E19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="41"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
     </row>
-    <row r="20" spans="2:12" ht="13">
+    <row r="20" spans="2:12">
       <c r="E20" s="1"/>
       <c r="F20" s="108"/>
       <c r="G20" s="1"/>
@@ -25045,7 +25057,7 @@
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
     </row>
-    <row r="21" spans="2:12" ht="13">
+    <row r="21" spans="2:12">
       <c r="B21" s="109"/>
       <c r="C21" s="109"/>
       <c r="D21" s="109"/>
@@ -25058,65 +25070,65 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" spans="2:12" ht="13">
+    <row r="22" spans="2:12">
       <c r="E22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="41"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="2:12" ht="13">
+    <row r="23" spans="2:12">
       <c r="E23" s="1"/>
       <c r="G23" s="1"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="2:12" ht="13">
+    <row r="24" spans="2:12">
       <c r="E24" s="1"/>
       <c r="G24" s="1"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="2:12" ht="13">
+    <row r="25" spans="2:12">
       <c r="E25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="144"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="2:12" ht="13">
+    <row r="26" spans="2:12">
       <c r="E26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="144"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
     </row>
-    <row r="27" spans="2:12" ht="13">
+    <row r="27" spans="2:12">
       <c r="E27" s="1"/>
       <c r="G27" s="1"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
     </row>
-    <row r="28" spans="2:12" ht="13">
+    <row r="28" spans="2:12">
       <c r="E28" s="1"/>
       <c r="G28" s="1"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
     </row>
-    <row r="29" spans="2:12" ht="13">
+    <row r="29" spans="2:12">
       <c r="C29" s="43"/>
       <c r="E29" s="1"/>
       <c r="G29" s="1"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
     </row>
-    <row r="30" spans="2:12" ht="13">
+    <row r="30" spans="2:12">
       <c r="E30" s="1"/>
       <c r="G30" s="1"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
     </row>
-    <row r="31" spans="2:12" ht="13">
+    <row r="31" spans="2:12">
       <c r="C31" s="43"/>
       <c r="E31" s="1"/>
       <c r="G31" s="1"/>
@@ -25124,7 +25136,7 @@
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
     </row>
-    <row r="32" spans="2:12" ht="13">
+    <row r="32" spans="2:12">
       <c r="C32" s="43"/>
       <c r="E32" s="1"/>
       <c r="G32" s="1"/>
@@ -25132,7 +25144,7 @@
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
     </row>
-    <row r="33" spans="3:12" ht="13">
+    <row r="33" spans="3:12">
       <c r="C33" s="43"/>
       <c r="E33" s="1"/>
       <c r="G33" s="1"/>
@@ -25140,52 +25152,52 @@
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
     </row>
-    <row r="34" spans="3:12" ht="13">
+    <row r="34" spans="3:12">
       <c r="E34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="41"/>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
     </row>
-    <row r="35" spans="3:12" ht="13">
+    <row r="35" spans="3:12">
       <c r="E35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="41"/>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
     </row>
-    <row r="36" spans="3:12" ht="13">
+    <row r="36" spans="3:12">
       <c r="E36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="41"/>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
     </row>
-    <row r="37" spans="3:12" ht="13">
+    <row r="37" spans="3:12">
       <c r="E37" s="1"/>
       <c r="G37" s="1"/>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
     </row>
-    <row r="38" spans="3:12" ht="13">
+    <row r="38" spans="3:12">
       <c r="E38" s="1"/>
       <c r="G38" s="1"/>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
     </row>
-    <row r="39" spans="3:12" ht="13">
+    <row r="39" spans="3:12">
       <c r="E39" s="1"/>
       <c r="G39" s="1"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
     </row>
-    <row r="40" spans="3:12" ht="13">
+    <row r="40" spans="3:12">
       <c r="E40" s="1"/>
       <c r="G40" s="1"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
     </row>
-    <row r="41" spans="3:12" ht="13">
+    <row r="41" spans="3:12">
       <c r="E41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="41"/>
@@ -25193,13 +25205,13 @@
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
     </row>
-    <row r="42" spans="3:12" ht="13">
+    <row r="42" spans="3:12">
       <c r="E42" s="1"/>
       <c r="G42" s="1"/>
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
     </row>
-    <row r="43" spans="3:12" ht="13">
+    <row r="43" spans="3:12">
       <c r="E43" s="1"/>
       <c r="G43" s="1"/>
       <c r="I43" s="41"/>
@@ -25207,7 +25219,7 @@
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
     </row>
-    <row r="44" spans="3:12" ht="13">
+    <row r="44" spans="3:12">
       <c r="E44" s="1"/>
       <c r="G44" s="1"/>
       <c r="I44" s="41"/>
@@ -25215,7 +25227,7 @@
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
     </row>
-    <row r="45" spans="3:12" ht="13">
+    <row r="45" spans="3:12">
       <c r="E45" s="1"/>
       <c r="G45" s="1"/>
       <c r="I45" s="41"/>
@@ -25226,13 +25238,13 @@
       <c r="E46" s="1"/>
       <c r="G46" s="118"/>
     </row>
-    <row r="47" spans="3:12" ht="13">
+    <row r="47" spans="3:12">
       <c r="E47" s="1"/>
       <c r="G47" s="118"/>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
     </row>
-    <row r="48" spans="3:12" ht="13">
+    <row r="48" spans="3:12">
       <c r="E48" s="1"/>
       <c r="G48" s="1"/>
       <c r="I48" s="41"/>
@@ -25463,33 +25475,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD54"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.26953125" customWidth="1"/>
-    <col min="4" max="4" width="28.7265625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" customWidth="1"/>
-    <col min="7" max="7" width="42.26953125" customWidth="1"/>
-    <col min="8" max="8" width="74.7265625" customWidth="1"/>
-    <col min="9" max="9" width="83.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="79.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="88.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.26953125" customWidth="1"/>
-    <col min="13" max="13" width="23.26953125" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="18.453125" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.26953125" customWidth="1"/>
-    <col min="18" max="18" width="20.453125" customWidth="1"/>
-    <col min="19" max="19" width="17.7265625" customWidth="1"/>
-    <col min="20" max="30" width="8.453125" customWidth="1"/>
-    <col min="31" max="1024" width="8.26953125" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" customWidth="1"/>
+    <col min="8" max="8" width="74.7109375" customWidth="1"/>
+    <col min="9" max="9" width="83.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="79.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="88.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="20" max="30" width="8.42578125" customWidth="1"/>
+    <col min="31" max="1024" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
@@ -25521,7 +25533,7 @@
       <c r="R1" s="39"/>
       <c r="S1" s="39"/>
     </row>
-    <row r="2" spans="1:26" ht="117">
+    <row r="2" spans="1:26" ht="127.5">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -25561,8 +25573,11 @@
       <c r="Q2" s="25"/>
       <c r="R2" s="25"/>
       <c r="S2" s="25"/>
-    </row>
-    <row r="3" spans="1:26" ht="39">
+      <c r="T2" s="23" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="38.25">
       <c r="A3" s="40" t="s">
         <v>32</v>
       </c>
@@ -25620,7 +25635,9 @@
       <c r="S3" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="T3" s="14"/>
+      <c r="T3" s="42" t="s">
+        <v>387</v>
+      </c>
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
@@ -25628,14 +25645,14 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
     </row>
-    <row r="4" spans="1:26" ht="14">
+    <row r="4" spans="1:26" ht="14.25">
       <c r="I4" s="107"/>
       <c r="L4" s="36"/>
       <c r="M4" s="46"/>
       <c r="R4" s="109"/>
       <c r="S4" s="109"/>
     </row>
-    <row r="5" spans="1:26" ht="14">
+    <row r="5" spans="1:26" ht="14.25">
       <c r="F5" s="2"/>
       <c r="J5" s="107"/>
       <c r="K5" s="36"/>
@@ -25644,7 +25661,7 @@
       <c r="R5" s="109"/>
       <c r="S5" s="109"/>
     </row>
-    <row r="6" spans="1:26" ht="14">
+    <row r="6" spans="1:26" ht="14.25">
       <c r="F6" s="2"/>
       <c r="G6" s="143"/>
       <c r="I6" s="188"/>
@@ -25654,7 +25671,7 @@
       <c r="R6" s="109"/>
       <c r="S6" s="109"/>
     </row>
-    <row r="7" spans="1:26" ht="14">
+    <row r="7" spans="1:26" ht="14.25">
       <c r="F7" s="2"/>
       <c r="G7" s="218"/>
       <c r="H7" s="2"/>
@@ -25665,7 +25682,7 @@
       <c r="R7" s="109"/>
       <c r="S7" s="109"/>
     </row>
-    <row r="8" spans="1:26" ht="14">
+    <row r="8" spans="1:26" ht="14.25">
       <c r="F8" s="2"/>
       <c r="G8" s="218"/>
       <c r="H8" s="2"/>
@@ -25676,7 +25693,7 @@
       <c r="R8" s="109"/>
       <c r="S8" s="109"/>
     </row>
-    <row r="9" spans="1:26" ht="14">
+    <row r="9" spans="1:26" ht="14.25">
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -25688,7 +25705,7 @@
       <c r="R9" s="109"/>
       <c r="S9" s="109"/>
     </row>
-    <row r="10" spans="1:26" ht="14">
+    <row r="10" spans="1:26" ht="14.25">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -25700,7 +25717,7 @@
       <c r="R10" s="109"/>
       <c r="S10" s="109"/>
     </row>
-    <row r="11" spans="1:26" ht="14">
+    <row r="11" spans="1:26" ht="14.25">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -25712,7 +25729,7 @@
       <c r="R11" s="109"/>
       <c r="S11" s="109"/>
     </row>
-    <row r="12" spans="1:26" ht="14">
+    <row r="12" spans="1:26" ht="14.25">
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -25724,7 +25741,7 @@
       <c r="R12" s="109"/>
       <c r="S12" s="109"/>
     </row>
-    <row r="13" spans="1:26" ht="14">
+    <row r="13" spans="1:26" ht="14.25">
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -25736,7 +25753,7 @@
       <c r="R13" s="109"/>
       <c r="S13" s="109"/>
     </row>
-    <row r="14" spans="1:26" ht="14">
+    <row r="14" spans="1:26" ht="14.25">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -25748,7 +25765,7 @@
       <c r="R14" s="109"/>
       <c r="S14" s="109"/>
     </row>
-    <row r="15" spans="1:26" ht="14">
+    <row r="15" spans="1:26" ht="14.25">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -25760,7 +25777,7 @@
       <c r="R15" s="109"/>
       <c r="S15" s="109"/>
     </row>
-    <row r="16" spans="1:26" ht="14">
+    <row r="16" spans="1:26" ht="14.25">
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -25772,7 +25789,7 @@
       <c r="R16" s="109"/>
       <c r="S16" s="109"/>
     </row>
-    <row r="17" spans="6:19" ht="14">
+    <row r="17" spans="6:19" ht="14.25">
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -25784,7 +25801,7 @@
       <c r="R17" s="109"/>
       <c r="S17" s="109"/>
     </row>
-    <row r="18" spans="6:19" ht="14">
+    <row r="18" spans="6:19" ht="14.25">
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -25795,7 +25812,7 @@
       <c r="R18" s="109"/>
       <c r="S18" s="109"/>
     </row>
-    <row r="19" spans="6:19" ht="14">
+    <row r="19" spans="6:19" ht="14.25">
       <c r="F19" s="2"/>
       <c r="I19" s="115"/>
       <c r="J19" s="141"/>
@@ -25805,7 +25822,7 @@
       <c r="R19" s="109"/>
       <c r="S19" s="109"/>
     </row>
-    <row r="20" spans="6:19" ht="14">
+    <row r="20" spans="6:19" ht="14.25">
       <c r="F20" s="2"/>
       <c r="I20" s="107"/>
       <c r="J20" s="107"/>
@@ -25814,7 +25831,7 @@
       <c r="R20" s="109"/>
       <c r="S20" s="109"/>
     </row>
-    <row r="21" spans="6:19" ht="14">
+    <row r="21" spans="6:19" ht="14.25">
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -25825,7 +25842,7 @@
       <c r="R21" s="109"/>
       <c r="S21" s="109"/>
     </row>
-    <row r="22" spans="6:19" ht="14">
+    <row r="22" spans="6:19" ht="14.25">
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -25837,7 +25854,7 @@
       <c r="R22" s="109"/>
       <c r="S22" s="109"/>
     </row>
-    <row r="23" spans="6:19" ht="14">
+    <row r="23" spans="6:19" ht="14.25">
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -25849,7 +25866,7 @@
       <c r="R23" s="109"/>
       <c r="S23" s="109"/>
     </row>
-    <row r="24" spans="6:19" ht="14">
+    <row r="24" spans="6:19" ht="14.25">
       <c r="J24" s="33"/>
       <c r="L24" s="36"/>
       <c r="M24" s="46"/>
@@ -25857,7 +25874,7 @@
       <c r="R24" s="109"/>
       <c r="S24" s="109"/>
     </row>
-    <row r="25" spans="6:19" ht="14">
+    <row r="25" spans="6:19" ht="14.25">
       <c r="F25" s="2"/>
       <c r="I25" s="107"/>
       <c r="J25" s="107"/>
@@ -25868,7 +25885,7 @@
       <c r="R25" s="109"/>
       <c r="S25" s="109"/>
     </row>
-    <row r="26" spans="6:19" ht="14">
+    <row r="26" spans="6:19" ht="14.25">
       <c r="F26" s="2"/>
       <c r="J26" s="107"/>
       <c r="K26" s="107"/>
@@ -25878,7 +25895,7 @@
       <c r="R26" s="109"/>
       <c r="S26" s="109"/>
     </row>
-    <row r="27" spans="6:19" ht="14">
+    <row r="27" spans="6:19" ht="14.25">
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="I27" s="107"/>
@@ -25889,7 +25906,7 @@
       <c r="R27" s="109"/>
       <c r="S27" s="109"/>
     </row>
-    <row r="28" spans="6:19" ht="14">
+    <row r="28" spans="6:19" ht="14.25">
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="I28" s="107"/>
@@ -25900,7 +25917,7 @@
       <c r="R28" s="109"/>
       <c r="S28" s="109"/>
     </row>
-    <row r="29" spans="6:19" ht="14">
+    <row r="29" spans="6:19" ht="14.25">
       <c r="F29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="107"/>
@@ -25911,7 +25928,7 @@
       <c r="R29" s="109"/>
       <c r="S29" s="109"/>
     </row>
-    <row r="30" spans="6:19" ht="14">
+    <row r="30" spans="6:19" ht="14.25">
       <c r="G30" s="2"/>
       <c r="I30" s="188"/>
       <c r="J30" s="107"/>
@@ -25921,7 +25938,7 @@
       <c r="R30" s="109"/>
       <c r="S30" s="109"/>
     </row>
-    <row r="31" spans="6:19" ht="14">
+    <row r="31" spans="6:19" ht="14.25">
       <c r="J31" s="107"/>
       <c r="K31" s="107"/>
       <c r="L31" s="36"/>
@@ -25930,7 +25947,7 @@
       <c r="R31" s="109"/>
       <c r="S31" s="109"/>
     </row>
-    <row r="32" spans="6:19" ht="14">
+    <row r="32" spans="6:19" ht="14.25">
       <c r="G32" s="2"/>
       <c r="J32" s="107"/>
       <c r="K32" s="107"/>
@@ -25940,7 +25957,7 @@
       <c r="R32" s="109"/>
       <c r="S32" s="109"/>
     </row>
-    <row r="33" spans="1:19" ht="14">
+    <row r="33" spans="1:19" ht="14.25">
       <c r="H33" s="145"/>
       <c r="I33" s="107"/>
       <c r="J33" s="110"/>
@@ -25950,7 +25967,7 @@
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
     </row>
-    <row r="34" spans="1:19" ht="14">
+    <row r="34" spans="1:19" ht="14.25">
       <c r="I34" s="107"/>
       <c r="J34" s="107"/>
       <c r="L34" s="36"/>
@@ -26054,7 +26071,7 @@
       <c r="R45" s="109"/>
       <c r="S45" s="32"/>
     </row>
-    <row r="46" spans="1:19" ht="14">
+    <row r="46" spans="1:19" ht="14.25">
       <c r="A46" s="120"/>
       <c r="F46" s="111"/>
       <c r="I46" s="107"/>
@@ -26143,29 +26160,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Q240"/>
+  <dimension ref="A1:R240"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
     <col min="4" max="5" width="18" customWidth="1"/>
-    <col min="6" max="8" width="8.7265625" customWidth="1"/>
-    <col min="9" max="9" width="28.7265625" customWidth="1"/>
+    <col min="6" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" customWidth="1"/>
-    <col min="13" max="13" width="90.26953125" customWidth="1"/>
-    <col min="14" max="14" width="11.26953125" customWidth="1"/>
-    <col min="15" max="1011" width="8.7265625" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="90.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="17" width="8.7109375" customWidth="1"/>
+    <col min="19" max="1011" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18">
+    <row r="1" spans="1:18" ht="18">
       <c r="A1" s="35" t="s">
         <v>71</v>
       </c>
@@ -26192,7 +26210,7 @@
       <c r="P1" s="36"/>
       <c r="Q1" s="39"/>
     </row>
-    <row r="2" spans="1:17" ht="144" customHeight="1">
+    <row r="2" spans="1:18" ht="144" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -26240,8 +26258,11 @@
       <c r="Q2" s="25" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="52">
+      <c r="R2" s="23" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="51">
       <c r="A3" s="28" t="s">
         <v>32</v>
       </c>
@@ -26293,29 +26314,32 @@
       <c r="Q3" s="27" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" s="42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="L4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="L5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="L6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -26323,7 +26347,7 @@
       <c r="N7" s="50"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -26331,7 +26355,7 @@
       <c r="N8" s="50"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -26339,7 +26363,7 @@
       <c r="N9" s="50"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -26347,42 +26371,42 @@
       <c r="N10" s="50"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="L11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="L12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="L13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="L14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="L15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>

--- a/data/ccd-template.xlsx
+++ b/data/ccd-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\fergusoshea\et-ccd-definitions-scotland\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mehmet.dede/dev/IntelliJ/ccd_definitions/et-ccd-definitions-scotland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AB373C-FADA-40DE-80E8-9D866EFAA00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7063D4D3-824A-E240-A17A-356FF63BDCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" tabRatio="500" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19740" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchParty" sheetId="36" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">CaseEventToFields!$A$3:$Q$231</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">CaseField!$A$3:$U$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CaseRoles!$A$3:$F$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">CaseTypeTab!$A$3:$P$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">CaseTypeTab!$A$3:$Q$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">ComplexTypes!$A$3:$W$559</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">EventToComplexTypes!$A$3:$I$382</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Scotland Scrubbed'!$A$3:$F$646</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="389">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1321,6 +1321,9 @@
   </si>
   <si>
     <t>Publish</t>
+  </si>
+  <si>
+    <t>MaxLength: 100. No entry for role means no role restriction for that tab. Enter role on a single row per tab</t>
   </si>
 </sst>
 </file>
@@ -3165,11 +3168,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="291" customWidth="1"/>
-    <col min="3" max="1025" width="11.140625" style="287" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="287"/>
+    <col min="1" max="2" width="10.6640625" style="291" customWidth="1"/>
+    <col min="3" max="1025" width="11.1640625" style="287" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="287"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18">
@@ -3186,7 +3189,7 @@
       <c r="I1" s="299"/>
       <c r="J1" s="298"/>
     </row>
-    <row r="2" spans="1:10" ht="409.5">
+    <row r="2" spans="1:10" ht="409.6">
       <c r="A2" s="296" t="s">
         <v>353</v>
       </c>
@@ -3264,22 +3267,22 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" customWidth="1"/>
-    <col min="12" max="17" width="8.42578125" customWidth="1"/>
-    <col min="18" max="21" width="6.28515625" customWidth="1"/>
-    <col min="22" max="1023" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="33.5" customWidth="1"/>
+    <col min="12" max="17" width="8.5" customWidth="1"/>
+    <col min="18" max="21" width="6.33203125" customWidth="1"/>
+    <col min="22" max="1023" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18">
@@ -4475,7 +4478,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.5" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
       <c r="A1" s="35" t="s">
@@ -4487,7 +4490,7 @@
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
-    <row r="2" spans="1:5" ht="63.75">
+    <row r="2" spans="1:5" ht="70">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -4504,7 +4507,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25.5">
+    <row r="3" spans="1:5" ht="14">
       <c r="A3" s="303" t="s">
         <v>32</v>
       </c>
@@ -4534,20 +4537,20 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" style="246" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="246"/>
-    <col min="3" max="3" width="54.7109375" style="246" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="246" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="246" customWidth="1"/>
-    <col min="7" max="7" width="44.28515625" style="246" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="246" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" style="246" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="246"/>
+    <col min="3" max="3" width="54.6640625" style="246" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="246" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" style="246" customWidth="1"/>
+    <col min="7" max="7" width="44.33203125" style="246" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="246" customWidth="1"/>
     <col min="9" max="9" width="37" style="246" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" style="246" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" style="246" customWidth="1"/>
-    <col min="12" max="1025" width="10.85546875" style="246"/>
-    <col min="1026" max="16384" width="10.85546875" style="245"/>
+    <col min="10" max="10" width="43.6640625" style="246" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" style="246" customWidth="1"/>
+    <col min="12" max="1025" width="10.83203125" style="246"/>
+    <col min="1026" max="16384" width="10.83203125" style="245"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18">
@@ -4573,7 +4576,7 @@
       <c r="L1" s="247"/>
       <c r="M1" s="247"/>
     </row>
-    <row r="2" spans="1:13" ht="63.75">
+    <row r="2" spans="1:13" ht="56">
       <c r="A2" s="258" t="s">
         <v>4</v>
       </c>
@@ -4608,7 +4611,7 @@
       <c r="L2" s="254"/>
       <c r="M2" s="254"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75">
+    <row r="3" spans="1:13" ht="16">
       <c r="A3" s="253" t="s">
         <v>9</v>
       </c>
@@ -4733,26 +4736,26 @@
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="52" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="52" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="41" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="53" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="53" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="33.5703125" customWidth="1"/>
-    <col min="15" max="15" width="28.28515625" customWidth="1"/>
-    <col min="16" max="23" width="6.28515625" customWidth="1"/>
-    <col min="24" max="1023" width="8.28515625" customWidth="1"/>
-    <col min="1024" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="53" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="53" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="33.5" customWidth="1"/>
+    <col min="15" max="15" width="28.33203125" customWidth="1"/>
+    <col min="16" max="23" width="6.33203125" customWidth="1"/>
+    <col min="24" max="1023" width="8.33203125" customWidth="1"/>
+    <col min="1024" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" customHeight="1">
@@ -4780,7 +4783,7 @@
       <c r="P1" s="36"/>
       <c r="Q1" s="36"/>
     </row>
-    <row r="2" spans="1:23" ht="65.099999999999994" customHeight="1">
+    <row r="2" spans="1:23" ht="65" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>113</v>
       </c>
@@ -4823,7 +4826,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" ht="33.6" customHeight="1">
+    <row r="3" spans="1:23" s="2" customFormat="1" ht="33.5" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>11</v>
       </c>
@@ -6968,7 +6971,7 @@
       <c r="I278"/>
       <c r="J278"/>
     </row>
-    <row r="279" spans="1:10" ht="13.5">
+    <row r="279" spans="1:10">
       <c r="B279" s="231"/>
       <c r="E279"/>
       <c r="F279" s="108"/>
@@ -8507,7 +8510,7 @@
       <c r="G488" s="219"/>
       <c r="H488" s="193"/>
     </row>
-    <row r="489" spans="1:8" ht="13.5">
+    <row r="489" spans="1:8">
       <c r="A489" s="56"/>
       <c r="B489" s="231"/>
       <c r="C489" s="56"/>
@@ -8517,7 +8520,7 @@
       <c r="G489" s="219"/>
       <c r="H489" s="193"/>
     </row>
-    <row r="490" spans="1:8" ht="13.5">
+    <row r="490" spans="1:8">
       <c r="A490" s="56"/>
       <c r="B490" s="231"/>
       <c r="C490" s="56"/>
@@ -8527,7 +8530,7 @@
       <c r="G490" s="219"/>
       <c r="H490" s="193"/>
     </row>
-    <row r="491" spans="1:8" ht="13.5">
+    <row r="491" spans="1:8">
       <c r="A491" s="56"/>
       <c r="B491" s="231"/>
       <c r="C491" s="56"/>
@@ -9357,21 +9360,21 @@
       <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.42578125" customWidth="1"/>
-    <col min="6" max="6" width="50.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.5" customWidth="1"/>
+    <col min="6" max="6" width="50.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:12" ht="40" customHeight="1">
       <c r="A1" s="282" t="s">
         <v>120</v>
       </c>
@@ -9390,7 +9393,7 @@
       <c r="H1" s="278"/>
       <c r="I1" s="277"/>
     </row>
-    <row r="2" spans="1:12" ht="66.95" customHeight="1">
+    <row r="2" spans="1:12" ht="67" customHeight="1">
       <c r="A2" s="275" t="s">
         <v>121</v>
       </c>
@@ -15585,13 +15588,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
@@ -15605,7 +15608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="165.75">
+    <row r="2" spans="1:5" ht="154">
       <c r="A2" s="300" t="s">
         <v>4</v>
       </c>
@@ -16386,22 +16389,22 @@
   </sheetPr>
   <dimension ref="A1:K650"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD650"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="151" customWidth="1"/>
-    <col min="2" max="2" width="61.7109375" style="171" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="151" customWidth="1"/>
+    <col min="2" max="2" width="61.6640625" style="171" customWidth="1"/>
     <col min="3" max="3" width="65" style="151" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="151" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" style="151"/>
+    <col min="4" max="4" width="14.6640625" style="151" customWidth="1"/>
+    <col min="5" max="6" width="8.6640625" style="151"/>
     <col min="7" max="7" width="13" style="151" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="151" customWidth="1"/>
-    <col min="9" max="12" width="8.7109375" style="151"/>
-    <col min="13" max="13" width="16.28515625" style="151" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="151"/>
+    <col min="8" max="8" width="11.5" style="151" customWidth="1"/>
+    <col min="9" max="12" width="8.6640625" style="151"/>
+    <col min="13" max="13" width="16.33203125" style="151" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="151"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
@@ -16418,7 +16421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="51">
+    <row r="2" spans="1:11" ht="56">
       <c r="A2" s="152" t="s">
         <v>129</v>
       </c>
@@ -19283,22 +19286,22 @@
       <selection activeCell="A4" sqref="A4:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="32.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="43.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" customWidth="1"/>
-    <col min="12" max="1025" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="32.5" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="43.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="31.5" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" customWidth="1"/>
+    <col min="12" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="36">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19">
       <c r="A1" s="69" t="s">
         <v>134</v>
       </c>
@@ -19316,7 +19319,7 @@
       <c r="G1" s="73"/>
       <c r="H1" s="186"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="75">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="71">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -19546,20 +19549,20 @@
       <selection activeCell="A4" sqref="A4:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" customWidth="1"/>
-    <col min="9" max="1023" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5" customWidth="1"/>
+    <col min="9" max="1023" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
+    <row r="1" spans="1:8" ht="19">
       <c r="A1" s="80" t="s">
         <v>142</v>
       </c>
@@ -19574,7 +19577,7 @@
       </c>
       <c r="E1" s="84"/>
     </row>
-    <row r="2" spans="1:8" ht="89.25">
+    <row r="2" spans="1:8" ht="84">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -19634,7 +19637,7 @@
       <c r="E5" s="1"/>
       <c r="G5" s="68"/>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8" ht="14">
       <c r="D6" s="112"/>
       <c r="E6" s="1"/>
     </row>
@@ -19643,7 +19646,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="187"/>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8" ht="14">
       <c r="B8" s="108"/>
       <c r="D8" s="112"/>
       <c r="E8" s="1"/>
@@ -19678,19 +19681,19 @@
       <selection activeCell="A4" sqref="A4:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1"/>
-    <col min="8" max="1023" width="11.42578125"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="1023" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36">
+    <row r="1" spans="1:15" ht="19">
       <c r="A1" s="69" t="s">
         <v>138</v>
       </c>
@@ -19710,7 +19713,7 @@
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
     </row>
-    <row r="2" spans="1:15" ht="90">
+    <row r="2" spans="1:15" ht="80">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -19816,11 +19819,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="291" customWidth="1"/>
-    <col min="3" max="1025" width="11.140625" style="287" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="287"/>
+    <col min="1" max="2" width="10.6640625" style="291" customWidth="1"/>
+    <col min="3" max="1025" width="11.1640625" style="287" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="287"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -19831,7 +19834,7 @@
       <c r="C1" s="285"/>
       <c r="D1" s="286"/>
     </row>
-    <row r="2" spans="1:4" ht="102.75">
+    <row r="2" spans="1:4" ht="99">
       <c r="A2" s="288" t="s">
         <v>353</v>
       </c>
@@ -19876,17 +19879,17 @@
       <selection activeCell="A4" sqref="A4:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="50" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
-    <col min="8" max="14" width="6.28515625" customWidth="1"/>
-    <col min="15" max="1023" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="8" max="14" width="6.33203125" customWidth="1"/>
+    <col min="15" max="1023" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18">
@@ -19908,7 +19911,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:14" ht="105">
+    <row r="2" spans="1:14" ht="96">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -20013,18 +20016,18 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="133" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="133" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="133" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="133" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="133" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="133" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="133" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="133" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="133" customWidth="1"/>
-    <col min="10" max="16384" width="10.7109375" style="133"/>
+    <col min="1" max="1" width="13.33203125" style="133" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="133" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="133" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="133" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="133" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="133" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="133" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="133" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="133" customWidth="1"/>
+    <col min="10" max="16384" width="10.6640625" style="133"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
@@ -20046,7 +20049,7 @@
       <c r="H1" s="132"/>
       <c r="I1" s="132"/>
     </row>
-    <row r="2" spans="1:9" ht="38.25">
+    <row r="2" spans="1:9" ht="42">
       <c r="A2" s="134"/>
       <c r="B2" s="134"/>
       <c r="C2" s="135" t="s">
@@ -20176,14 +20179,14 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="2" width="11.42578125"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="1" max="2" width="11.5"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="1025" width="11.42578125"/>
+    <col min="7" max="1025" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
@@ -20207,7 +20210,7 @@
       <c r="J1" s="36"/>
       <c r="K1" s="36"/>
     </row>
-    <row r="2" spans="1:11" ht="63.75">
+    <row r="2" spans="1:11" ht="70">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -20230,7 +20233,7 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="1:11" ht="38.25">
+    <row r="3" spans="1:11" ht="28">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -20273,15 +20276,15 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="1025" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" customWidth="1"/>
+    <col min="7" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="18" customHeight="1">
@@ -20549,7 +20552,7 @@
       <c r="IT1" s="36"/>
       <c r="IU1" s="36"/>
     </row>
-    <row r="2" spans="1:255" ht="191.25">
+    <row r="2" spans="1:255" ht="196">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
@@ -21326,14 +21329,14 @@
       <selection activeCell="A4" sqref="A4:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
-    <col min="6" max="1025" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="18" customHeight="1">
@@ -21601,7 +21604,7 @@
       <c r="IT1" s="36"/>
       <c r="IU1" s="36"/>
     </row>
-    <row r="2" spans="1:255" ht="89.25">
+    <row r="2" spans="1:255" ht="84">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -21939,14 +21942,14 @@
       <selection activeCell="A4" sqref="A4:XFD518"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="1" customWidth="1"/>
-    <col min="5" max="1011" width="8.28515625" customWidth="1"/>
-    <col min="1012" max="1016" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="1" customWidth="1"/>
+    <col min="5" max="1011" width="8.33203125" customWidth="1"/>
+    <col min="1012" max="1016" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -21963,7 +21966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="51">
+    <row r="2" spans="1:4" ht="56">
       <c r="A2" s="24" t="s">
         <v>153</v>
       </c>
@@ -23683,12 +23686,12 @@
       <selection activeCell="A4" sqref="A4:XFD115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -23705,7 +23708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="63.75">
+    <row r="2" spans="1:4" ht="56">
       <c r="A2" s="24" t="s">
         <v>160</v>
       </c>
@@ -24112,12 +24115,12 @@
       <selection activeCell="A4" sqref="A4:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -24134,7 +24137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="51">
+    <row r="2" spans="1:4" ht="56">
       <c r="A2" s="24" t="s">
         <v>153</v>
       </c>
@@ -24312,17 +24315,17 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="133" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="133" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="133" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" style="133" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="133" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="133" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" style="133" customWidth="1"/>
-    <col min="8" max="1025" width="8.85546875" style="133" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="133"/>
+    <col min="1" max="1" width="16.1640625" style="133" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="133" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="133" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="133" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" style="133" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" style="133" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="133" customWidth="1"/>
+    <col min="8" max="1025" width="8.83203125" style="133" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="133"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1">
@@ -24341,7 +24344,7 @@
       <c r="E1" s="240"/>
       <c r="F1" s="240"/>
     </row>
-    <row r="2" spans="1:6" s="236" customFormat="1" ht="38.25">
+    <row r="2" spans="1:6" s="236" customFormat="1" ht="42">
       <c r="A2" s="239" t="s">
         <v>4</v>
       </c>
@@ -24361,7 +24364,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.7" customHeight="1">
+    <row r="3" spans="1:6" ht="13.75" customHeight="1">
       <c r="A3" s="233" t="s">
         <v>9</v>
       </c>
@@ -24381,28 +24384,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.7" customHeight="1">
+    <row r="4" spans="1:6" ht="13.75" customHeight="1">
       <c r="A4" s="232"/>
       <c r="B4" s="232"/>
     </row>
-    <row r="5" spans="1:6" ht="13.7" customHeight="1">
+    <row r="5" spans="1:6" ht="13.75" customHeight="1">
       <c r="A5" s="232"/>
       <c r="B5" s="232"/>
     </row>
-    <row r="6" spans="1:6" ht="13.7" customHeight="1">
+    <row r="6" spans="1:6" ht="13.75" customHeight="1">
       <c r="A6" s="232"/>
       <c r="B6" s="232"/>
     </row>
-    <row r="7" spans="1:6" ht="13.7" customHeight="1">
+    <row r="7" spans="1:6" ht="13.75" customHeight="1">
       <c r="A7" s="232"/>
       <c r="B7" s="232"/>
     </row>
-    <row r="8" spans="1:6" ht="13.7" customHeight="1">
+    <row r="8" spans="1:6" ht="13.75" customHeight="1">
       <c r="A8" s="232"/>
       <c r="B8" s="232"/>
     </row>
-    <row r="9" spans="1:6" ht="13.7" customHeight="1"/>
-    <row r="10" spans="1:6" ht="13.7" customHeight="1"/>
+    <row r="9" spans="1:6" ht="13.75" customHeight="1"/>
+    <row r="10" spans="1:6" ht="13.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -24420,11 +24423,11 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="2" width="11.42578125"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="1024" width="11.42578125"/>
+    <col min="1" max="2" width="11.5"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="1024" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18">
@@ -24442,7 +24445,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="127.5">
+    <row r="2" spans="1:14" ht="126">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -24521,14 +24524,14 @@
       <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="2" width="11.42578125"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="1" max="2" width="11.5"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="61.28515625" customWidth="1"/>
-    <col min="8" max="1025" width="11.42578125"/>
+    <col min="7" max="7" width="61.33203125" customWidth="1"/>
+    <col min="8" max="1025" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18">
@@ -24555,7 +24558,7 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
     </row>
-    <row r="2" spans="1:19" ht="178.5">
+    <row r="2" spans="1:19" ht="196">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -24589,7 +24592,7 @@
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
     </row>
-    <row r="3" spans="1:19" ht="38.25">
+    <row r="3" spans="1:19" ht="42">
       <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
@@ -24669,14 +24672,14 @@
       <selection activeCell="A4" sqref="A4:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125"/>
-    <col min="6" max="6" width="35.28515625" customWidth="1"/>
-    <col min="7" max="1023" width="11.42578125"/>
+    <col min="5" max="5" width="11.5"/>
+    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="7" max="1023" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18">
@@ -24701,7 +24704,7 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>
-    <row r="2" spans="1:17" ht="89.25">
+    <row r="2" spans="1:17" ht="98">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -24727,7 +24730,7 @@
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
     </row>
-    <row r="3" spans="1:17" ht="25.5">
+    <row r="3" spans="1:17" ht="28">
       <c r="A3" s="28" t="s">
         <v>32</v>
       </c>
@@ -24823,28 +24826,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P99"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD98"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" customWidth="1"/>
-    <col min="11" max="1023" width="8.7109375" customWidth="1"/>
+    <col min="4" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" customWidth="1"/>
+    <col min="12" max="1024" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18">
+    <row r="1" spans="1:17" ht="18">
       <c r="A1" s="35" t="s">
         <v>35</v>
       </c>
@@ -24855,17 +24858,18 @@
       <c r="D1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="36"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="J1" s="36"/>
       <c r="L1" s="36"/>
-    </row>
-    <row r="2" spans="1:16" ht="119.25" customHeight="1">
+      <c r="M1" s="36"/>
+    </row>
+    <row r="2" spans="1:17" ht="119.25" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -24879,27 +24883,30 @@
         <v>38</v>
       </c>
       <c r="E2" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="G2" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="H2" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="K2" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="36"/>
       <c r="L2" s="36"/>
-    </row>
-    <row r="3" spans="1:16" ht="38.25">
+      <c r="M2" s="36"/>
+    </row>
+    <row r="3" spans="1:17" ht="42">
       <c r="A3" s="40" t="s">
         <v>32</v>
       </c>
@@ -24912,555 +24919,561 @@
       <c r="D3" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="G3" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="H3" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="I3" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="J3" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="K3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="E4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="14"/>
+      <c r="Q3" s="14"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="119"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="G5" s="1"/>
-      <c r="H5" s="41"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="14"/>
+      <c r="Q4" s="14"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="H5" s="1"/>
+      <c r="I5" s="41"/>
+      <c r="K5" s="42"/>
       <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="G6" s="1"/>
-      <c r="H6" s="41"/>
-      <c r="K6" s="14"/>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="H6" s="1"/>
+      <c r="I6" s="41"/>
       <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="K7" s="14"/>
+      <c r="F7" s="1"/>
+      <c r="H7" s="1"/>
       <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="E8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="K8" s="14"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="F8" s="1"/>
+      <c r="H8" s="1"/>
       <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="E9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="K9" s="14"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="F9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="E10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="K10" s="14"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="F10" s="1"/>
+      <c r="H10" s="1"/>
       <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="E11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="41"/>
-      <c r="K11" s="14"/>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="F11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="41"/>
       <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="E12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="41"/>
-      <c r="K12" s="14"/>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="F12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="41"/>
       <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="E13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="41"/>
-      <c r="K13" s="14"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="F13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="41"/>
       <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="E14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="41"/>
-      <c r="K14" s="14"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="F14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="41"/>
       <c r="L14" s="14"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="K15" s="14"/>
+      <c r="F15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="E16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="K16" s="14"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="F16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="E17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="K17" s="14"/>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="F17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="E18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="41"/>
-      <c r="K18" s="14"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="F18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="41"/>
       <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="E19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="41"/>
-      <c r="K19" s="14"/>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="F19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="41"/>
       <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="E20" s="1"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="41"/>
-      <c r="K20" s="14"/>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="F20" s="1"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="41"/>
       <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="2:12">
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21" s="109"/>
       <c r="C21" s="109"/>
       <c r="D21" s="109"/>
       <c r="E21" s="109"/>
       <c r="F21" s="109"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="226"/>
-      <c r="I21" s="115"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="226"/>
       <c r="J21" s="115"/>
-      <c r="K21" s="14"/>
+      <c r="K21" s="115"/>
       <c r="L21" s="14"/>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="E22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="41"/>
-      <c r="K22" s="14"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="F22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="41"/>
       <c r="L22" s="14"/>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="E23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="K23" s="14"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="F23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="L23" s="14"/>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="E24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="K24" s="14"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="F24" s="1"/>
+      <c r="H24" s="1"/>
       <c r="L24" s="14"/>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="E25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="144"/>
-      <c r="K25" s="14"/>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="F25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="144"/>
       <c r="L25" s="14"/>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="E26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="144"/>
-      <c r="K26" s="14"/>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="F26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="144"/>
       <c r="L26" s="14"/>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="E27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="K27" s="14"/>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="F27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="L27" s="14"/>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="E28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="K28" s="14"/>
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="F28" s="1"/>
+      <c r="H28" s="1"/>
       <c r="L28" s="14"/>
-    </row>
-    <row r="29" spans="2:12">
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="2:13">
       <c r="C29" s="43"/>
-      <c r="E29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="K29" s="14"/>
+      <c r="F29" s="1"/>
+      <c r="H29" s="1"/>
       <c r="L29" s="14"/>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="E30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="K30" s="14"/>
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="F30" s="1"/>
+      <c r="H30" s="1"/>
       <c r="L30" s="14"/>
-    </row>
-    <row r="31" spans="2:12">
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="2:13">
       <c r="C31" s="43"/>
-      <c r="E31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="41"/>
-      <c r="K31" s="14"/>
+      <c r="F31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="41"/>
       <c r="L31" s="14"/>
-    </row>
-    <row r="32" spans="2:12">
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="2:13">
       <c r="C32" s="43"/>
-      <c r="E32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="144"/>
-      <c r="K32" s="14"/>
+      <c r="F32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="144"/>
       <c r="L32" s="14"/>
-    </row>
-    <row r="33" spans="3:12">
+      <c r="M32" s="14"/>
+    </row>
+    <row r="33" spans="3:13">
       <c r="C33" s="43"/>
-      <c r="E33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="41"/>
-      <c r="K33" s="14"/>
+      <c r="F33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="41"/>
       <c r="L33" s="14"/>
-    </row>
-    <row r="34" spans="3:12">
-      <c r="E34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="41"/>
-      <c r="K34" s="14"/>
+      <c r="M33" s="14"/>
+    </row>
+    <row r="34" spans="3:13">
+      <c r="F34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="41"/>
       <c r="L34" s="14"/>
-    </row>
-    <row r="35" spans="3:12">
-      <c r="E35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="41"/>
-      <c r="K35" s="14"/>
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="3:13">
+      <c r="F35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="41"/>
       <c r="L35" s="14"/>
-    </row>
-    <row r="36" spans="3:12">
-      <c r="E36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="41"/>
-      <c r="K36" s="14"/>
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="3:13">
+      <c r="F36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="41"/>
       <c r="L36" s="14"/>
-    </row>
-    <row r="37" spans="3:12">
-      <c r="E37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="K37" s="14"/>
+      <c r="M36" s="14"/>
+    </row>
+    <row r="37" spans="3:13">
+      <c r="F37" s="1"/>
+      <c r="H37" s="1"/>
       <c r="L37" s="14"/>
-    </row>
-    <row r="38" spans="3:12">
-      <c r="E38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="K38" s="14"/>
+      <c r="M37" s="14"/>
+    </row>
+    <row r="38" spans="3:13">
+      <c r="F38" s="1"/>
+      <c r="H38" s="1"/>
       <c r="L38" s="14"/>
-    </row>
-    <row r="39" spans="3:12">
-      <c r="E39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="K39" s="14"/>
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="F39" s="1"/>
+      <c r="H39" s="1"/>
       <c r="L39" s="14"/>
-    </row>
-    <row r="40" spans="3:12">
-      <c r="E40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="K40" s="14"/>
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" spans="3:13">
+      <c r="F40" s="1"/>
+      <c r="H40" s="1"/>
       <c r="L40" s="14"/>
-    </row>
-    <row r="41" spans="3:12">
-      <c r="E41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="41"/>
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="3:13">
+      <c r="F41" s="1"/>
+      <c r="H41" s="1"/>
       <c r="I41" s="41"/>
-      <c r="K41" s="14"/>
+      <c r="J41" s="41"/>
       <c r="L41" s="14"/>
-    </row>
-    <row r="42" spans="3:12">
-      <c r="E42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="K42" s="14"/>
+      <c r="M41" s="14"/>
+    </row>
+    <row r="42" spans="3:13">
+      <c r="F42" s="1"/>
+      <c r="H42" s="1"/>
       <c r="L42" s="14"/>
-    </row>
-    <row r="43" spans="3:12">
-      <c r="E43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="14"/>
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="3:13">
+      <c r="F43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="36"/>
       <c r="L43" s="14"/>
-    </row>
-    <row r="44" spans="3:12">
-      <c r="E44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="14"/>
+      <c r="M43" s="14"/>
+    </row>
+    <row r="44" spans="3:13">
+      <c r="F44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="36"/>
       <c r="L44" s="14"/>
-    </row>
-    <row r="45" spans="3:12">
-      <c r="E45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="I45" s="41"/>
-      <c r="K45" s="14"/>
+      <c r="M44" s="14"/>
+    </row>
+    <row r="45" spans="3:13">
+      <c r="F45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="J45" s="41"/>
       <c r="L45" s="14"/>
-    </row>
-    <row r="46" spans="3:12">
-      <c r="E46" s="1"/>
-      <c r="G46" s="118"/>
-    </row>
-    <row r="47" spans="3:12">
-      <c r="E47" s="1"/>
-      <c r="G47" s="118"/>
-      <c r="K47" s="14"/>
+      <c r="M45" s="14"/>
+    </row>
+    <row r="46" spans="3:13">
+      <c r="F46" s="1"/>
+      <c r="H46" s="118"/>
+    </row>
+    <row r="47" spans="3:13">
+      <c r="F47" s="1"/>
+      <c r="H47" s="118"/>
       <c r="L47" s="14"/>
-    </row>
-    <row r="48" spans="3:12">
-      <c r="E48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="I48" s="41"/>
-      <c r="K48" s="14"/>
+      <c r="M47" s="14"/>
+    </row>
+    <row r="48" spans="3:13">
+      <c r="F48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="J48" s="41"/>
       <c r="L48" s="14"/>
-    </row>
-    <row r="49" spans="3:9">
-      <c r="E49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="I49" s="41"/>
-    </row>
-    <row r="50" spans="3:9">
-      <c r="E50" s="1"/>
-      <c r="G50" s="118"/>
-    </row>
-    <row r="51" spans="3:9">
-      <c r="E51" s="1"/>
-      <c r="G51" s="118"/>
-    </row>
-    <row r="52" spans="3:9">
-      <c r="E52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="3:9">
-      <c r="E53" s="1"/>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="3:9">
-      <c r="E54" s="1"/>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="3:9">
+      <c r="M48" s="14"/>
+    </row>
+    <row r="49" spans="3:10">
+      <c r="F49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="J49" s="41"/>
+    </row>
+    <row r="50" spans="3:10">
+      <c r="F50" s="1"/>
+      <c r="H50" s="118"/>
+    </row>
+    <row r="51" spans="3:10">
+      <c r="F51" s="1"/>
+      <c r="H51" s="118"/>
+    </row>
+    <row r="52" spans="3:10">
+      <c r="F52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="3:10">
+      <c r="F53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="3:10">
+      <c r="F54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="3:10">
       <c r="C55" s="111"/>
-      <c r="E55" s="1"/>
-      <c r="G55" s="118"/>
-    </row>
-    <row r="56" spans="3:9">
-      <c r="E56" s="1"/>
-      <c r="G56" s="118"/>
-    </row>
-    <row r="57" spans="3:9">
-      <c r="E57" s="1"/>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="3:9">
-      <c r="E58" s="1"/>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="3:9">
-      <c r="E59" s="1"/>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="3:9">
-      <c r="E60" s="1"/>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="3:9">
-      <c r="E61" s="1"/>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="3:9">
-      <c r="E62" s="1"/>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="3:9">
-      <c r="E63" s="1"/>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="3:9">
-      <c r="E64" s="1"/>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="5:7">
-      <c r="E65" s="1"/>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="5:7">
-      <c r="E66" s="1"/>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="5:7">
-      <c r="E67" s="1"/>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="5:7">
-      <c r="E68" s="1"/>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="5:7">
-      <c r="E69" s="1"/>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="5:7">
-      <c r="E70" s="1"/>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="5:7">
-      <c r="E71" s="1"/>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="5:7">
-      <c r="E72" s="1"/>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="5:7">
-      <c r="E73" s="1"/>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="5:7">
-      <c r="E74" s="1"/>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="5:7">
-      <c r="E75" s="1"/>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="5:7">
-      <c r="E76" s="1"/>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="5:7">
-      <c r="E77" s="1"/>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="5:7">
-      <c r="E78" s="1"/>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="5:7">
-      <c r="E79" s="1"/>
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="5:7">
-      <c r="E80" s="1"/>
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="5:10">
-      <c r="E81" s="1"/>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="5:10">
-      <c r="E82" s="1"/>
-      <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="5:10">
-      <c r="E83" s="1"/>
-      <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="5:10">
-      <c r="E84" s="1"/>
-      <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="5:10">
-      <c r="E85" s="1"/>
-      <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="5:10">
-      <c r="F86" s="36"/>
-      <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="5:10">
-      <c r="F87" s="36"/>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="5:10">
-      <c r="F88" s="36"/>
-      <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="5:10">
-      <c r="F89" s="36"/>
-      <c r="G89" s="1"/>
-      <c r="J89" s="36"/>
-    </row>
-    <row r="90" spans="5:10">
-      <c r="F90" s="36"/>
-      <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="5:10">
-      <c r="F91" s="36"/>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="5:10">
-      <c r="F92" s="36"/>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="5:10">
-      <c r="F93" s="36"/>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="5:10">
-      <c r="F94" s="36"/>
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="5:10">
-      <c r="F95" s="36"/>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="5:10">
-      <c r="F96" s="36"/>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="5:7">
-      <c r="F97" s="36"/>
-      <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="5:7">
-      <c r="E98" s="1"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="5:7">
-      <c r="G99" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="H55" s="118"/>
+    </row>
+    <row r="56" spans="3:10">
+      <c r="F56" s="1"/>
+      <c r="H56" s="118"/>
+    </row>
+    <row r="57" spans="3:10">
+      <c r="F57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="3:10">
+      <c r="F58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="3:10">
+      <c r="F59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="3:10">
+      <c r="F60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="3:10">
+      <c r="F61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="3:10">
+      <c r="F62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="3:10">
+      <c r="F63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="3:10">
+      <c r="F64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="6:8">
+      <c r="F65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="6:8">
+      <c r="F66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="6:8">
+      <c r="F67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="6:8">
+      <c r="F68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="6:8">
+      <c r="F69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="6:8">
+      <c r="F70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="6:8">
+      <c r="F71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="6:8">
+      <c r="F72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="6:8">
+      <c r="F73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="6:8">
+      <c r="F74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="6:8">
+      <c r="F75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="6:8">
+      <c r="F76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="6:8">
+      <c r="F77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="6:8">
+      <c r="F78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="6:8">
+      <c r="F79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="6:8">
+      <c r="F80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="6:11">
+      <c r="F81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="6:11">
+      <c r="F82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="6:11">
+      <c r="F83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="6:11">
+      <c r="F84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="6:11">
+      <c r="F85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="6:11">
+      <c r="G86" s="36"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="6:11">
+      <c r="G87" s="36"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="6:11">
+      <c r="G88" s="36"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="6:11">
+      <c r="G89" s="36"/>
+      <c r="H89" s="1"/>
+      <c r="K89" s="36"/>
+    </row>
+    <row r="90" spans="6:11">
+      <c r="G90" s="36"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="6:11">
+      <c r="G91" s="36"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="6:11">
+      <c r="G92" s="36"/>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="6:11">
+      <c r="G93" s="36"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="6:11">
+      <c r="G94" s="36"/>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="6:11">
+      <c r="G95" s="36"/>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="6:11">
+      <c r="G96" s="36"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="6:8">
+      <c r="G97" s="36"/>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="6:8">
+      <c r="F98" s="1"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="6:8">
+      <c r="H99" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="49" type="noConversion"/>
-  <conditionalFormatting sqref="F88:F89">
+  <conditionalFormatting sqref="G88:G89">
     <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -25479,29 +25492,29 @@
       <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="42.28515625" customWidth="1"/>
-    <col min="8" max="8" width="74.7109375" customWidth="1"/>
-    <col min="9" max="9" width="83.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="79.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="88.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-    <col min="20" max="30" width="8.42578125" customWidth="1"/>
-    <col min="31" max="1024" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.33203125" customWidth="1"/>
+    <col min="8" max="8" width="74.6640625" customWidth="1"/>
+    <col min="9" max="9" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="79.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="88.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.5" customWidth="1"/>
+    <col min="15" max="15" width="18.5" customWidth="1"/>
+    <col min="16" max="16" width="18.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" customWidth="1"/>
+    <col min="18" max="18" width="20.5" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" customWidth="1"/>
+    <col min="20" max="30" width="8.5" customWidth="1"/>
+    <col min="31" max="1024" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
@@ -25533,7 +25546,7 @@
       <c r="R1" s="39"/>
       <c r="S1" s="39"/>
     </row>
-    <row r="2" spans="1:26" ht="127.5">
+    <row r="2" spans="1:26" ht="126">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -25577,7 +25590,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="38.25">
+    <row r="3" spans="1:26" ht="42">
       <c r="A3" s="40" t="s">
         <v>32</v>
       </c>
@@ -25645,14 +25658,14 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25">
+    <row r="4" spans="1:26" ht="14">
       <c r="I4" s="107"/>
       <c r="L4" s="36"/>
       <c r="M4" s="46"/>
       <c r="R4" s="109"/>
       <c r="S4" s="109"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25">
+    <row r="5" spans="1:26" ht="14">
       <c r="F5" s="2"/>
       <c r="J5" s="107"/>
       <c r="K5" s="36"/>
@@ -25661,7 +25674,7 @@
       <c r="R5" s="109"/>
       <c r="S5" s="109"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25">
+    <row r="6" spans="1:26" ht="14">
       <c r="F6" s="2"/>
       <c r="G6" s="143"/>
       <c r="I6" s="188"/>
@@ -25671,7 +25684,7 @@
       <c r="R6" s="109"/>
       <c r="S6" s="109"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25">
+    <row r="7" spans="1:26" ht="14">
       <c r="F7" s="2"/>
       <c r="G7" s="218"/>
       <c r="H7" s="2"/>
@@ -25682,7 +25695,7 @@
       <c r="R7" s="109"/>
       <c r="S7" s="109"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25">
+    <row r="8" spans="1:26" ht="14">
       <c r="F8" s="2"/>
       <c r="G8" s="218"/>
       <c r="H8" s="2"/>
@@ -25693,7 +25706,7 @@
       <c r="R8" s="109"/>
       <c r="S8" s="109"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25">
+    <row r="9" spans="1:26" ht="14">
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -25705,7 +25718,7 @@
       <c r="R9" s="109"/>
       <c r="S9" s="109"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25">
+    <row r="10" spans="1:26" ht="14">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -25717,7 +25730,7 @@
       <c r="R10" s="109"/>
       <c r="S10" s="109"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25">
+    <row r="11" spans="1:26" ht="14">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -25729,7 +25742,7 @@
       <c r="R11" s="109"/>
       <c r="S11" s="109"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25">
+    <row r="12" spans="1:26" ht="14">
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -25741,7 +25754,7 @@
       <c r="R12" s="109"/>
       <c r="S12" s="109"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25">
+    <row r="13" spans="1:26" ht="14">
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -25753,7 +25766,7 @@
       <c r="R13" s="109"/>
       <c r="S13" s="109"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25">
+    <row r="14" spans="1:26" ht="14">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -25765,7 +25778,7 @@
       <c r="R14" s="109"/>
       <c r="S14" s="109"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25">
+    <row r="15" spans="1:26" ht="14">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -25777,7 +25790,7 @@
       <c r="R15" s="109"/>
       <c r="S15" s="109"/>
     </row>
-    <row r="16" spans="1:26" ht="14.25">
+    <row r="16" spans="1:26" ht="14">
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -25789,7 +25802,7 @@
       <c r="R16" s="109"/>
       <c r="S16" s="109"/>
     </row>
-    <row r="17" spans="6:19" ht="14.25">
+    <row r="17" spans="6:19" ht="14">
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -25801,7 +25814,7 @@
       <c r="R17" s="109"/>
       <c r="S17" s="109"/>
     </row>
-    <row r="18" spans="6:19" ht="14.25">
+    <row r="18" spans="6:19" ht="14">
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -25812,7 +25825,7 @@
       <c r="R18" s="109"/>
       <c r="S18" s="109"/>
     </row>
-    <row r="19" spans="6:19" ht="14.25">
+    <row r="19" spans="6:19" ht="14">
       <c r="F19" s="2"/>
       <c r="I19" s="115"/>
       <c r="J19" s="141"/>
@@ -25822,7 +25835,7 @@
       <c r="R19" s="109"/>
       <c r="S19" s="109"/>
     </row>
-    <row r="20" spans="6:19" ht="14.25">
+    <row r="20" spans="6:19" ht="14">
       <c r="F20" s="2"/>
       <c r="I20" s="107"/>
       <c r="J20" s="107"/>
@@ -25831,7 +25844,7 @@
       <c r="R20" s="109"/>
       <c r="S20" s="109"/>
     </row>
-    <row r="21" spans="6:19" ht="14.25">
+    <row r="21" spans="6:19" ht="14">
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -25842,7 +25855,7 @@
       <c r="R21" s="109"/>
       <c r="S21" s="109"/>
     </row>
-    <row r="22" spans="6:19" ht="14.25">
+    <row r="22" spans="6:19" ht="14">
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -25854,7 +25867,7 @@
       <c r="R22" s="109"/>
       <c r="S22" s="109"/>
     </row>
-    <row r="23" spans="6:19" ht="14.25">
+    <row r="23" spans="6:19" ht="14">
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -25866,7 +25879,7 @@
       <c r="R23" s="109"/>
       <c r="S23" s="109"/>
     </row>
-    <row r="24" spans="6:19" ht="14.25">
+    <row r="24" spans="6:19" ht="14">
       <c r="J24" s="33"/>
       <c r="L24" s="36"/>
       <c r="M24" s="46"/>
@@ -25874,7 +25887,7 @@
       <c r="R24" s="109"/>
       <c r="S24" s="109"/>
     </row>
-    <row r="25" spans="6:19" ht="14.25">
+    <row r="25" spans="6:19" ht="14">
       <c r="F25" s="2"/>
       <c r="I25" s="107"/>
       <c r="J25" s="107"/>
@@ -25885,7 +25898,7 @@
       <c r="R25" s="109"/>
       <c r="S25" s="109"/>
     </row>
-    <row r="26" spans="6:19" ht="14.25">
+    <row r="26" spans="6:19" ht="14">
       <c r="F26" s="2"/>
       <c r="J26" s="107"/>
       <c r="K26" s="107"/>
@@ -25895,7 +25908,7 @@
       <c r="R26" s="109"/>
       <c r="S26" s="109"/>
     </row>
-    <row r="27" spans="6:19" ht="14.25">
+    <row r="27" spans="6:19" ht="14">
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="I27" s="107"/>
@@ -25906,7 +25919,7 @@
       <c r="R27" s="109"/>
       <c r="S27" s="109"/>
     </row>
-    <row r="28" spans="6:19" ht="14.25">
+    <row r="28" spans="6:19" ht="14">
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="I28" s="107"/>
@@ -25917,7 +25930,7 @@
       <c r="R28" s="109"/>
       <c r="S28" s="109"/>
     </row>
-    <row r="29" spans="6:19" ht="14.25">
+    <row r="29" spans="6:19" ht="14">
       <c r="F29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="107"/>
@@ -25928,7 +25941,7 @@
       <c r="R29" s="109"/>
       <c r="S29" s="109"/>
     </row>
-    <row r="30" spans="6:19" ht="14.25">
+    <row r="30" spans="6:19" ht="14">
       <c r="G30" s="2"/>
       <c r="I30" s="188"/>
       <c r="J30" s="107"/>
@@ -25938,7 +25951,7 @@
       <c r="R30" s="109"/>
       <c r="S30" s="109"/>
     </row>
-    <row r="31" spans="6:19" ht="14.25">
+    <row r="31" spans="6:19" ht="14">
       <c r="J31" s="107"/>
       <c r="K31" s="107"/>
       <c r="L31" s="36"/>
@@ -25947,7 +25960,7 @@
       <c r="R31" s="109"/>
       <c r="S31" s="109"/>
     </row>
-    <row r="32" spans="6:19" ht="14.25">
+    <row r="32" spans="6:19" ht="14">
       <c r="G32" s="2"/>
       <c r="J32" s="107"/>
       <c r="K32" s="107"/>
@@ -25957,7 +25970,7 @@
       <c r="R32" s="109"/>
       <c r="S32" s="109"/>
     </row>
-    <row r="33" spans="1:19" ht="14.25">
+    <row r="33" spans="1:19" ht="14">
       <c r="H33" s="145"/>
       <c r="I33" s="107"/>
       <c r="J33" s="110"/>
@@ -25967,7 +25980,7 @@
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
     </row>
-    <row r="34" spans="1:19" ht="14.25">
+    <row r="34" spans="1:19" ht="14">
       <c r="I34" s="107"/>
       <c r="J34" s="107"/>
       <c r="L34" s="36"/>
@@ -26071,7 +26084,7 @@
       <c r="R45" s="109"/>
       <c r="S45" s="32"/>
     </row>
-    <row r="46" spans="1:19" ht="14.25">
+    <row r="46" spans="1:19" ht="14">
       <c r="A46" s="120"/>
       <c r="F46" s="111"/>
       <c r="I46" s="107"/>
@@ -26166,21 +26179,21 @@
       <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
     <col min="4" max="5" width="18" customWidth="1"/>
-    <col min="6" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+    <col min="6" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="90.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="17" width="8.7109375" customWidth="1"/>
-    <col min="19" max="1011" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="90.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="17" width="8.6640625" customWidth="1"/>
+    <col min="19" max="1011" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18">
@@ -26262,7 +26275,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="51">
+    <row r="3" spans="1:18" ht="56">
       <c r="A3" s="28" t="s">
         <v>32</v>
       </c>

--- a/data/ccd-template.xlsx
+++ b/data/ccd-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\fergusoshea\et-ccd-definitions-scotland\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harpreet.jhita/Projects/et-ccd-definitions-scotland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AB373C-FADA-40DE-80E8-9D866EFAA00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912F4E59-2B5D-5B4B-A4A5-8E0EFDDD2D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" tabRatio="500" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20620" tabRatio="500" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchParty" sheetId="36" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="390">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1321,6 +1321,12 @@
   </si>
   <si>
     <t>Publish</t>
+  </si>
+  <si>
+    <t>Seachable</t>
+  </si>
+  <si>
+    <t>Searchable</t>
   </si>
 </sst>
 </file>
@@ -2863,9 +2869,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2903,7 +2909,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3009,7 +3015,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3151,7 +3157,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3165,11 +3171,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="291" customWidth="1"/>
-    <col min="3" max="1025" width="11.140625" style="287" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="287"/>
+    <col min="1" max="2" width="10.6640625" style="291" customWidth="1"/>
+    <col min="3" max="1025" width="11.1640625" style="287" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="287"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18">
@@ -3186,7 +3192,7 @@
       <c r="I1" s="299"/>
       <c r="J1" s="298"/>
     </row>
-    <row r="2" spans="1:10" ht="409.5">
+    <row r="2" spans="1:10" ht="409.6">
       <c r="A2" s="296" t="s">
         <v>353</v>
       </c>
@@ -3260,26 +3266,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U206"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" customWidth="1"/>
-    <col min="12" max="17" width="8.42578125" customWidth="1"/>
-    <col min="18" max="21" width="6.28515625" customWidth="1"/>
-    <col min="22" max="1023" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="33.5" customWidth="1"/>
+    <col min="12" max="17" width="8.5" customWidth="1"/>
+    <col min="18" max="21" width="6.33203125" customWidth="1"/>
+    <col min="22" max="1023" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18">
@@ -3389,7 +3395,9 @@
       <c r="K3" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="L3" s="51"/>
+      <c r="L3" s="51" t="s">
+        <v>389</v>
+      </c>
       <c r="M3" s="51"/>
       <c r="N3" s="51"/>
       <c r="O3" s="51"/>
@@ -4475,7 +4483,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.5" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
       <c r="A1" s="35" t="s">
@@ -4487,7 +4495,7 @@
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
-    <row r="2" spans="1:5" ht="63.75">
+    <row r="2" spans="1:5" ht="70">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -4504,7 +4512,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25.5">
+    <row r="3" spans="1:5" ht="14">
       <c r="A3" s="303" t="s">
         <v>32</v>
       </c>
@@ -4534,20 +4542,20 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" style="246" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="246"/>
-    <col min="3" max="3" width="54.7109375" style="246" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="246" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="246" customWidth="1"/>
-    <col min="7" max="7" width="44.28515625" style="246" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="246" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" style="246" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="246"/>
+    <col min="3" max="3" width="54.6640625" style="246" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="246" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" style="246" customWidth="1"/>
+    <col min="7" max="7" width="44.33203125" style="246" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="246" customWidth="1"/>
     <col min="9" max="9" width="37" style="246" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" style="246" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" style="246" customWidth="1"/>
-    <col min="12" max="1025" width="10.85546875" style="246"/>
-    <col min="1026" max="16384" width="10.85546875" style="245"/>
+    <col min="10" max="10" width="43.6640625" style="246" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" style="246" customWidth="1"/>
+    <col min="12" max="1025" width="10.83203125" style="246"/>
+    <col min="1026" max="16384" width="10.83203125" style="245"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18">
@@ -4573,7 +4581,7 @@
       <c r="L1" s="247"/>
       <c r="M1" s="247"/>
     </row>
-    <row r="2" spans="1:13" ht="63.75">
+    <row r="2" spans="1:13" ht="56">
       <c r="A2" s="258" t="s">
         <v>4</v>
       </c>
@@ -4608,7 +4616,7 @@
       <c r="L2" s="254"/>
       <c r="M2" s="254"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75">
+    <row r="3" spans="1:13" ht="16">
       <c r="A3" s="253" t="s">
         <v>9</v>
       </c>
@@ -4729,30 +4737,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W649"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="52" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="52" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="41" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="53" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="53" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="33.5703125" customWidth="1"/>
-    <col min="15" max="15" width="28.28515625" customWidth="1"/>
-    <col min="16" max="23" width="6.28515625" customWidth="1"/>
-    <col min="24" max="1023" width="8.28515625" customWidth="1"/>
-    <col min="1024" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="53" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="53" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="33.5" customWidth="1"/>
+    <col min="15" max="15" width="28.33203125" customWidth="1"/>
+    <col min="16" max="23" width="6.33203125" customWidth="1"/>
+    <col min="24" max="1023" width="8.33203125" customWidth="1"/>
+    <col min="1024" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" customHeight="1">
@@ -4780,7 +4788,7 @@
       <c r="P1" s="36"/>
       <c r="Q1" s="36"/>
     </row>
-    <row r="2" spans="1:23" ht="65.099999999999994" customHeight="1">
+    <row r="2" spans="1:23" ht="65" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>113</v>
       </c>
@@ -4823,7 +4831,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" ht="33.6" customHeight="1">
+    <row r="3" spans="1:23" s="2" customFormat="1" ht="33.5" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>11</v>
       </c>
@@ -4866,7 +4874,9 @@
       <c r="N3" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="O3" s="51"/>
+      <c r="O3" s="51" t="s">
+        <v>388</v>
+      </c>
       <c r="P3" s="51"/>
       <c r="Q3" s="51"/>
       <c r="R3" s="51"/>
@@ -6968,7 +6978,7 @@
       <c r="I278"/>
       <c r="J278"/>
     </row>
-    <row r="279" spans="1:10" ht="13.5">
+    <row r="279" spans="1:10">
       <c r="B279" s="231"/>
       <c r="E279"/>
       <c r="F279" s="108"/>
@@ -8507,7 +8517,7 @@
       <c r="G488" s="219"/>
       <c r="H488" s="193"/>
     </row>
-    <row r="489" spans="1:8" ht="13.5">
+    <row r="489" spans="1:8">
       <c r="A489" s="56"/>
       <c r="B489" s="231"/>
       <c r="C489" s="56"/>
@@ -8517,7 +8527,7 @@
       <c r="G489" s="219"/>
       <c r="H489" s="193"/>
     </row>
-    <row r="490" spans="1:8" ht="13.5">
+    <row r="490" spans="1:8">
       <c r="A490" s="56"/>
       <c r="B490" s="231"/>
       <c r="C490" s="56"/>
@@ -8527,7 +8537,7 @@
       <c r="G490" s="219"/>
       <c r="H490" s="193"/>
     </row>
-    <row r="491" spans="1:8" ht="13.5">
+    <row r="491" spans="1:8">
       <c r="A491" s="56"/>
       <c r="B491" s="231"/>
       <c r="C491" s="56"/>
@@ -9357,21 +9367,21 @@
       <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.42578125" customWidth="1"/>
-    <col min="6" max="6" width="50.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.5" customWidth="1"/>
+    <col min="6" max="6" width="50.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:12" ht="40" customHeight="1">
       <c r="A1" s="282" t="s">
         <v>120</v>
       </c>
@@ -9390,7 +9400,7 @@
       <c r="H1" s="278"/>
       <c r="I1" s="277"/>
     </row>
-    <row r="2" spans="1:12" ht="66.95" customHeight="1">
+    <row r="2" spans="1:12" ht="67" customHeight="1">
       <c r="A2" s="275" t="s">
         <v>121</v>
       </c>
@@ -15585,13 +15595,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
@@ -15605,7 +15615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="165.75">
+    <row r="2" spans="1:5" ht="154">
       <c r="A2" s="300" t="s">
         <v>4</v>
       </c>
@@ -16386,22 +16396,22 @@
   </sheetPr>
   <dimension ref="A1:K650"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD650"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="151" customWidth="1"/>
-    <col min="2" max="2" width="61.7109375" style="171" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="151" customWidth="1"/>
+    <col min="2" max="2" width="61.6640625" style="171" customWidth="1"/>
     <col min="3" max="3" width="65" style="151" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="151" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" style="151"/>
+    <col min="4" max="4" width="14.6640625" style="151" customWidth="1"/>
+    <col min="5" max="6" width="8.6640625" style="151"/>
     <col min="7" max="7" width="13" style="151" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="151" customWidth="1"/>
-    <col min="9" max="12" width="8.7109375" style="151"/>
-    <col min="13" max="13" width="16.28515625" style="151" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="151"/>
+    <col min="8" max="8" width="11.5" style="151" customWidth="1"/>
+    <col min="9" max="12" width="8.6640625" style="151"/>
+    <col min="13" max="13" width="16.33203125" style="151" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="151"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
@@ -16418,7 +16428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="51">
+    <row r="2" spans="1:11" ht="56">
       <c r="A2" s="152" t="s">
         <v>129</v>
       </c>
@@ -19283,22 +19293,22 @@
       <selection activeCell="A4" sqref="A4:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="32.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="43.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" customWidth="1"/>
-    <col min="12" max="1025" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="32.5" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="43.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="31.5" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" customWidth="1"/>
+    <col min="12" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="36">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19">
       <c r="A1" s="69" t="s">
         <v>134</v>
       </c>
@@ -19316,7 +19326,7 @@
       <c r="G1" s="73"/>
       <c r="H1" s="186"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="75">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="71">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -19546,20 +19556,20 @@
       <selection activeCell="A4" sqref="A4:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" customWidth="1"/>
-    <col min="9" max="1023" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5" customWidth="1"/>
+    <col min="9" max="1023" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
+    <row r="1" spans="1:8" ht="19">
       <c r="A1" s="80" t="s">
         <v>142</v>
       </c>
@@ -19574,7 +19584,7 @@
       </c>
       <c r="E1" s="84"/>
     </row>
-    <row r="2" spans="1:8" ht="89.25">
+    <row r="2" spans="1:8" ht="84">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -19634,7 +19644,7 @@
       <c r="E5" s="1"/>
       <c r="G5" s="68"/>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8" ht="14">
       <c r="D6" s="112"/>
       <c r="E6" s="1"/>
     </row>
@@ -19643,7 +19653,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="187"/>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8" ht="14">
       <c r="B8" s="108"/>
       <c r="D8" s="112"/>
       <c r="E8" s="1"/>
@@ -19678,19 +19688,19 @@
       <selection activeCell="A4" sqref="A4:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1"/>
-    <col min="8" max="1023" width="11.42578125"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="1023" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36">
+    <row r="1" spans="1:15" ht="19">
       <c r="A1" s="69" t="s">
         <v>138</v>
       </c>
@@ -19710,7 +19720,7 @@
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
     </row>
-    <row r="2" spans="1:15" ht="90">
+    <row r="2" spans="1:15" ht="80">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -19816,11 +19826,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="291" customWidth="1"/>
-    <col min="3" max="1025" width="11.140625" style="287" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="287"/>
+    <col min="1" max="2" width="10.6640625" style="291" customWidth="1"/>
+    <col min="3" max="1025" width="11.1640625" style="287" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="287"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -19831,7 +19841,7 @@
       <c r="C1" s="285"/>
       <c r="D1" s="286"/>
     </row>
-    <row r="2" spans="1:4" ht="102.75">
+    <row r="2" spans="1:4" ht="99">
       <c r="A2" s="288" t="s">
         <v>353</v>
       </c>
@@ -19876,17 +19886,17 @@
       <selection activeCell="A4" sqref="A4:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="50" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
-    <col min="8" max="14" width="6.28515625" customWidth="1"/>
-    <col min="15" max="1023" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="8" max="14" width="6.33203125" customWidth="1"/>
+    <col min="15" max="1023" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18">
@@ -19908,7 +19918,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:14" ht="105">
+    <row r="2" spans="1:14" ht="96">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -20013,18 +20023,18 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="133" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="133" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="133" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="133" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="133" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="133" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="133" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="133" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="133" customWidth="1"/>
-    <col min="10" max="16384" width="10.7109375" style="133"/>
+    <col min="1" max="1" width="13.33203125" style="133" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="133" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="133" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="133" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="133" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="133" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="133" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="133" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="133" customWidth="1"/>
+    <col min="10" max="16384" width="10.6640625" style="133"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
@@ -20046,7 +20056,7 @@
       <c r="H1" s="132"/>
       <c r="I1" s="132"/>
     </row>
-    <row r="2" spans="1:9" ht="38.25">
+    <row r="2" spans="1:9" ht="42">
       <c r="A2" s="134"/>
       <c r="B2" s="134"/>
       <c r="C2" s="135" t="s">
@@ -20176,14 +20186,14 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="2" width="11.42578125"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="1" max="2" width="11.5"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="1025" width="11.42578125"/>
+    <col min="7" max="1025" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
@@ -20207,7 +20217,7 @@
       <c r="J1" s="36"/>
       <c r="K1" s="36"/>
     </row>
-    <row r="2" spans="1:11" ht="63.75">
+    <row r="2" spans="1:11" ht="70">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -20230,7 +20240,7 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="1:11" ht="38.25">
+    <row r="3" spans="1:11" ht="28">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -20273,15 +20283,15 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="1025" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" customWidth="1"/>
+    <col min="7" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="18" customHeight="1">
@@ -20549,7 +20559,7 @@
       <c r="IT1" s="36"/>
       <c r="IU1" s="36"/>
     </row>
-    <row r="2" spans="1:255" ht="191.25">
+    <row r="2" spans="1:255" ht="196">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
@@ -21326,14 +21336,14 @@
       <selection activeCell="A4" sqref="A4:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
-    <col min="6" max="1025" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="18" customHeight="1">
@@ -21601,7 +21611,7 @@
       <c r="IT1" s="36"/>
       <c r="IU1" s="36"/>
     </row>
-    <row r="2" spans="1:255" ht="89.25">
+    <row r="2" spans="1:255" ht="84">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -21939,14 +21949,14 @@
       <selection activeCell="A4" sqref="A4:XFD518"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="1" customWidth="1"/>
-    <col min="5" max="1011" width="8.28515625" customWidth="1"/>
-    <col min="1012" max="1016" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="1" customWidth="1"/>
+    <col min="5" max="1011" width="8.33203125" customWidth="1"/>
+    <col min="1012" max="1016" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -21963,7 +21973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="51">
+    <row r="2" spans="1:4" ht="56">
       <c r="A2" s="24" t="s">
         <v>153</v>
       </c>
@@ -23683,12 +23693,12 @@
       <selection activeCell="A4" sqref="A4:XFD115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -23705,7 +23715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="63.75">
+    <row r="2" spans="1:4" ht="56">
       <c r="A2" s="24" t="s">
         <v>160</v>
       </c>
@@ -24112,12 +24122,12 @@
       <selection activeCell="A4" sqref="A4:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -24134,7 +24144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="51">
+    <row r="2" spans="1:4" ht="56">
       <c r="A2" s="24" t="s">
         <v>153</v>
       </c>
@@ -24312,17 +24322,17 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="133" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="133" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="133" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" style="133" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="133" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="133" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" style="133" customWidth="1"/>
-    <col min="8" max="1025" width="8.85546875" style="133" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="133"/>
+    <col min="1" max="1" width="16.1640625" style="133" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="133" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="133" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="133" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" style="133" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" style="133" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="133" customWidth="1"/>
+    <col min="8" max="1025" width="8.83203125" style="133" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="133"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1">
@@ -24341,7 +24351,7 @@
       <c r="E1" s="240"/>
       <c r="F1" s="240"/>
     </row>
-    <row r="2" spans="1:6" s="236" customFormat="1" ht="38.25">
+    <row r="2" spans="1:6" s="236" customFormat="1" ht="42">
       <c r="A2" s="239" t="s">
         <v>4</v>
       </c>
@@ -24361,7 +24371,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.7" customHeight="1">
+    <row r="3" spans="1:6" ht="13.75" customHeight="1">
       <c r="A3" s="233" t="s">
         <v>9</v>
       </c>
@@ -24381,28 +24391,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.7" customHeight="1">
+    <row r="4" spans="1:6" ht="13.75" customHeight="1">
       <c r="A4" s="232"/>
       <c r="B4" s="232"/>
     </row>
-    <row r="5" spans="1:6" ht="13.7" customHeight="1">
+    <row r="5" spans="1:6" ht="13.75" customHeight="1">
       <c r="A5" s="232"/>
       <c r="B5" s="232"/>
     </row>
-    <row r="6" spans="1:6" ht="13.7" customHeight="1">
+    <row r="6" spans="1:6" ht="13.75" customHeight="1">
       <c r="A6" s="232"/>
       <c r="B6" s="232"/>
     </row>
-    <row r="7" spans="1:6" ht="13.7" customHeight="1">
+    <row r="7" spans="1:6" ht="13.75" customHeight="1">
       <c r="A7" s="232"/>
       <c r="B7" s="232"/>
     </row>
-    <row r="8" spans="1:6" ht="13.7" customHeight="1">
+    <row r="8" spans="1:6" ht="13.75" customHeight="1">
       <c r="A8" s="232"/>
       <c r="B8" s="232"/>
     </row>
-    <row r="9" spans="1:6" ht="13.7" customHeight="1"/>
-    <row r="10" spans="1:6" ht="13.7" customHeight="1"/>
+    <row r="9" spans="1:6" ht="13.75" customHeight="1"/>
+    <row r="10" spans="1:6" ht="13.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -24420,11 +24430,11 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="2" width="11.42578125"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="1024" width="11.42578125"/>
+    <col min="1" max="2" width="11.5"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="1024" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18">
@@ -24442,7 +24452,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="127.5">
+    <row r="2" spans="1:14" ht="126">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -24521,14 +24531,14 @@
       <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="2" width="11.42578125"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="1" max="2" width="11.5"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="61.28515625" customWidth="1"/>
-    <col min="8" max="1025" width="11.42578125"/>
+    <col min="7" max="7" width="61.33203125" customWidth="1"/>
+    <col min="8" max="1025" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18">
@@ -24555,7 +24565,7 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
     </row>
-    <row r="2" spans="1:19" ht="178.5">
+    <row r="2" spans="1:19" ht="196">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -24589,7 +24599,7 @@
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
     </row>
-    <row r="3" spans="1:19" ht="38.25">
+    <row r="3" spans="1:19" ht="42">
       <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
@@ -24669,14 +24679,14 @@
       <selection activeCell="A4" sqref="A4:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125"/>
-    <col min="6" max="6" width="35.28515625" customWidth="1"/>
-    <col min="7" max="1023" width="11.42578125"/>
+    <col min="5" max="5" width="11.5"/>
+    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="7" max="1023" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18">
@@ -24701,7 +24711,7 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>
-    <row r="2" spans="1:17" ht="89.25">
+    <row r="2" spans="1:17" ht="98">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -24727,7 +24737,7 @@
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
     </row>
-    <row r="3" spans="1:17" ht="25.5">
+    <row r="3" spans="1:17" ht="28">
       <c r="A3" s="28" t="s">
         <v>32</v>
       </c>
@@ -24829,19 +24839,19 @@
       <selection activeCell="A4" sqref="A4:XFD98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" customWidth="1"/>
-    <col min="11" max="1023" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" customWidth="1"/>
+    <col min="11" max="1023" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18">
@@ -24899,7 +24909,7 @@
       <c r="K2" s="36"/>
       <c r="L2" s="36"/>
     </row>
-    <row r="3" spans="1:16" ht="38.25">
+    <row r="3" spans="1:16" ht="42">
       <c r="A3" s="40" t="s">
         <v>32</v>
       </c>
@@ -25479,29 +25489,29 @@
       <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="42.28515625" customWidth="1"/>
-    <col min="8" max="8" width="74.7109375" customWidth="1"/>
-    <col min="9" max="9" width="83.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="79.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="88.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-    <col min="20" max="30" width="8.42578125" customWidth="1"/>
-    <col min="31" max="1024" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.33203125" customWidth="1"/>
+    <col min="8" max="8" width="74.6640625" customWidth="1"/>
+    <col min="9" max="9" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="79.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="88.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.5" customWidth="1"/>
+    <col min="15" max="15" width="18.5" customWidth="1"/>
+    <col min="16" max="16" width="18.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" customWidth="1"/>
+    <col min="18" max="18" width="20.5" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" customWidth="1"/>
+    <col min="20" max="30" width="8.5" customWidth="1"/>
+    <col min="31" max="1024" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
@@ -25533,7 +25543,7 @@
       <c r="R1" s="39"/>
       <c r="S1" s="39"/>
     </row>
-    <row r="2" spans="1:26" ht="127.5">
+    <row r="2" spans="1:26" ht="126">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -25577,7 +25587,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="38.25">
+    <row r="3" spans="1:26" ht="42">
       <c r="A3" s="40" t="s">
         <v>32</v>
       </c>
@@ -25645,14 +25655,14 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25">
+    <row r="4" spans="1:26" ht="14">
       <c r="I4" s="107"/>
       <c r="L4" s="36"/>
       <c r="M4" s="46"/>
       <c r="R4" s="109"/>
       <c r="S4" s="109"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25">
+    <row r="5" spans="1:26" ht="14">
       <c r="F5" s="2"/>
       <c r="J5" s="107"/>
       <c r="K5" s="36"/>
@@ -25661,7 +25671,7 @@
       <c r="R5" s="109"/>
       <c r="S5" s="109"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25">
+    <row r="6" spans="1:26" ht="14">
       <c r="F6" s="2"/>
       <c r="G6" s="143"/>
       <c r="I6" s="188"/>
@@ -25671,7 +25681,7 @@
       <c r="R6" s="109"/>
       <c r="S6" s="109"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25">
+    <row r="7" spans="1:26" ht="14">
       <c r="F7" s="2"/>
       <c r="G7" s="218"/>
       <c r="H7" s="2"/>
@@ -25682,7 +25692,7 @@
       <c r="R7" s="109"/>
       <c r="S7" s="109"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25">
+    <row r="8" spans="1:26" ht="14">
       <c r="F8" s="2"/>
       <c r="G8" s="218"/>
       <c r="H8" s="2"/>
@@ -25693,7 +25703,7 @@
       <c r="R8" s="109"/>
       <c r="S8" s="109"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25">
+    <row r="9" spans="1:26" ht="14">
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -25705,7 +25715,7 @@
       <c r="R9" s="109"/>
       <c r="S9" s="109"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25">
+    <row r="10" spans="1:26" ht="14">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -25717,7 +25727,7 @@
       <c r="R10" s="109"/>
       <c r="S10" s="109"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25">
+    <row r="11" spans="1:26" ht="14">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -25729,7 +25739,7 @@
       <c r="R11" s="109"/>
       <c r="S11" s="109"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25">
+    <row r="12" spans="1:26" ht="14">
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -25741,7 +25751,7 @@
       <c r="R12" s="109"/>
       <c r="S12" s="109"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25">
+    <row r="13" spans="1:26" ht="14">
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -25753,7 +25763,7 @@
       <c r="R13" s="109"/>
       <c r="S13" s="109"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25">
+    <row r="14" spans="1:26" ht="14">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -25765,7 +25775,7 @@
       <c r="R14" s="109"/>
       <c r="S14" s="109"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25">
+    <row r="15" spans="1:26" ht="14">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -25777,7 +25787,7 @@
       <c r="R15" s="109"/>
       <c r="S15" s="109"/>
     </row>
-    <row r="16" spans="1:26" ht="14.25">
+    <row r="16" spans="1:26" ht="14">
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -25789,7 +25799,7 @@
       <c r="R16" s="109"/>
       <c r="S16" s="109"/>
     </row>
-    <row r="17" spans="6:19" ht="14.25">
+    <row r="17" spans="6:19" ht="14">
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -25801,7 +25811,7 @@
       <c r="R17" s="109"/>
       <c r="S17" s="109"/>
     </row>
-    <row r="18" spans="6:19" ht="14.25">
+    <row r="18" spans="6:19" ht="14">
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -25812,7 +25822,7 @@
       <c r="R18" s="109"/>
       <c r="S18" s="109"/>
     </row>
-    <row r="19" spans="6:19" ht="14.25">
+    <row r="19" spans="6:19" ht="14">
       <c r="F19" s="2"/>
       <c r="I19" s="115"/>
       <c r="J19" s="141"/>
@@ -25822,7 +25832,7 @@
       <c r="R19" s="109"/>
       <c r="S19" s="109"/>
     </row>
-    <row r="20" spans="6:19" ht="14.25">
+    <row r="20" spans="6:19" ht="14">
       <c r="F20" s="2"/>
       <c r="I20" s="107"/>
       <c r="J20" s="107"/>
@@ -25831,7 +25841,7 @@
       <c r="R20" s="109"/>
       <c r="S20" s="109"/>
     </row>
-    <row r="21" spans="6:19" ht="14.25">
+    <row r="21" spans="6:19" ht="14">
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -25842,7 +25852,7 @@
       <c r="R21" s="109"/>
       <c r="S21" s="109"/>
     </row>
-    <row r="22" spans="6:19" ht="14.25">
+    <row r="22" spans="6:19" ht="14">
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -25854,7 +25864,7 @@
       <c r="R22" s="109"/>
       <c r="S22" s="109"/>
     </row>
-    <row r="23" spans="6:19" ht="14.25">
+    <row r="23" spans="6:19" ht="14">
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -25866,7 +25876,7 @@
       <c r="R23" s="109"/>
       <c r="S23" s="109"/>
     </row>
-    <row r="24" spans="6:19" ht="14.25">
+    <row r="24" spans="6:19" ht="14">
       <c r="J24" s="33"/>
       <c r="L24" s="36"/>
       <c r="M24" s="46"/>
@@ -25874,7 +25884,7 @@
       <c r="R24" s="109"/>
       <c r="S24" s="109"/>
     </row>
-    <row r="25" spans="6:19" ht="14.25">
+    <row r="25" spans="6:19" ht="14">
       <c r="F25" s="2"/>
       <c r="I25" s="107"/>
       <c r="J25" s="107"/>
@@ -25885,7 +25895,7 @@
       <c r="R25" s="109"/>
       <c r="S25" s="109"/>
     </row>
-    <row r="26" spans="6:19" ht="14.25">
+    <row r="26" spans="6:19" ht="14">
       <c r="F26" s="2"/>
       <c r="J26" s="107"/>
       <c r="K26" s="107"/>
@@ -25895,7 +25905,7 @@
       <c r="R26" s="109"/>
       <c r="S26" s="109"/>
     </row>
-    <row r="27" spans="6:19" ht="14.25">
+    <row r="27" spans="6:19" ht="14">
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="I27" s="107"/>
@@ -25906,7 +25916,7 @@
       <c r="R27" s="109"/>
       <c r="S27" s="109"/>
     </row>
-    <row r="28" spans="6:19" ht="14.25">
+    <row r="28" spans="6:19" ht="14">
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="I28" s="107"/>
@@ -25917,7 +25927,7 @@
       <c r="R28" s="109"/>
       <c r="S28" s="109"/>
     </row>
-    <row r="29" spans="6:19" ht="14.25">
+    <row r="29" spans="6:19" ht="14">
       <c r="F29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="107"/>
@@ -25928,7 +25938,7 @@
       <c r="R29" s="109"/>
       <c r="S29" s="109"/>
     </row>
-    <row r="30" spans="6:19" ht="14.25">
+    <row r="30" spans="6:19" ht="14">
       <c r="G30" s="2"/>
       <c r="I30" s="188"/>
       <c r="J30" s="107"/>
@@ -25938,7 +25948,7 @@
       <c r="R30" s="109"/>
       <c r="S30" s="109"/>
     </row>
-    <row r="31" spans="6:19" ht="14.25">
+    <row r="31" spans="6:19" ht="14">
       <c r="J31" s="107"/>
       <c r="K31" s="107"/>
       <c r="L31" s="36"/>
@@ -25947,7 +25957,7 @@
       <c r="R31" s="109"/>
       <c r="S31" s="109"/>
     </row>
-    <row r="32" spans="6:19" ht="14.25">
+    <row r="32" spans="6:19" ht="14">
       <c r="G32" s="2"/>
       <c r="J32" s="107"/>
       <c r="K32" s="107"/>
@@ -25957,7 +25967,7 @@
       <c r="R32" s="109"/>
       <c r="S32" s="109"/>
     </row>
-    <row r="33" spans="1:19" ht="14.25">
+    <row r="33" spans="1:19" ht="14">
       <c r="H33" s="145"/>
       <c r="I33" s="107"/>
       <c r="J33" s="110"/>
@@ -25967,7 +25977,7 @@
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
     </row>
-    <row r="34" spans="1:19" ht="14.25">
+    <row r="34" spans="1:19" ht="14">
       <c r="I34" s="107"/>
       <c r="J34" s="107"/>
       <c r="L34" s="36"/>
@@ -26071,7 +26081,7 @@
       <c r="R45" s="109"/>
       <c r="S45" s="32"/>
     </row>
-    <row r="46" spans="1:19" ht="14.25">
+    <row r="46" spans="1:19" ht="14">
       <c r="A46" s="120"/>
       <c r="F46" s="111"/>
       <c r="I46" s="107"/>
@@ -26166,21 +26176,21 @@
       <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
     <col min="4" max="5" width="18" customWidth="1"/>
-    <col min="6" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+    <col min="6" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="90.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="17" width="8.7109375" customWidth="1"/>
-    <col min="19" max="1011" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="90.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="17" width="8.6640625" customWidth="1"/>
+    <col min="19" max="1011" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18">
@@ -26262,7 +26272,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="51">
+    <row r="3" spans="1:18" ht="56">
       <c r="A3" s="28" t="s">
         <v>32</v>
       </c>

--- a/data/ccd-template.xlsx
+++ b/data/ccd-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harpreet.jhita/Projects/et-ccd-definitions-scotland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912F4E59-2B5D-5B4B-A4A5-8E0EFDDD2D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC27FCF-15AA-0848-9701-6F6A0CE968CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20620" tabRatio="500" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20620" tabRatio="500" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchParty" sheetId="36" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="389">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1321,9 +1321,6 @@
   </si>
   <si>
     <t>Publish</t>
-  </si>
-  <si>
-    <t>Seachable</t>
   </si>
   <si>
     <t>Searchable</t>
@@ -3266,8 +3263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
@@ -3396,7 +3393,7 @@
         <v>378</v>
       </c>
       <c r="L3" s="51" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M3" s="51"/>
       <c r="N3" s="51"/>
@@ -4737,7 +4734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W649"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>

--- a/data/ccd-template.xlsx
+++ b/data/ccd-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harpreet.jhita/Projects/et-ccd-definitions-scotland/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tensaybulcha/Documents/GitHub/Reformed-ET/et-ccd-definitions-scotland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC27FCF-15AA-0848-9701-6F6A0CE968CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC4C04A-FD68-494F-9313-B06A081DBDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20620" tabRatio="500" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31700" yWindow="960" windowWidth="39760" windowHeight="15800" tabRatio="500" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchParty" sheetId="36" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">AuthorisationCaseEvent!$A$3:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">AuthorisationCaseField!$A$1:$D$517</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="26" hidden="1">AuthorisationCaseState!$A$3:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">CaseEvent!$A$3:$Z$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">CaseEvent!$A$3:$AB$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">CaseEventToFields!$A$3:$Q$231</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">CaseField!$A$3:$U$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CaseRoles!$A$3:$F$3</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="394">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1324,6 +1324,21 @@
   </si>
   <si>
     <t>Searchable</t>
+  </si>
+  <si>
+    <t>Marker field for Case deletion when its Time to Live(TTL) value expires</t>
+  </si>
+  <si>
+    <t>EnableForDeletion</t>
+  </si>
+  <si>
+    <t>Magnitude in number of days that a Time to Live(TTL) value is incremented by</t>
+  </si>
+  <si>
+    <t>SignificantEvent</t>
+  </si>
+  <si>
+    <t>TTLIncrement</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1799,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1807,6 +1822,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0432FF"/>
         <bgColor rgb="FF0000FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2074,7 +2101,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="306">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2666,6 +2693,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -4734,7 +4767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
@@ -24525,7 +24558,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD6"/>
+      <selection activeCell="J2" sqref="J2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
@@ -24535,7 +24568,9 @@
     <col min="4" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="61.33203125" customWidth="1"/>
-    <col min="8" max="1025" width="11.5"/>
+    <col min="8" max="9" width="11.5"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
+    <col min="11" max="1025" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18">
@@ -24590,7 +24625,9 @@
       <c r="I2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="26"/>
+      <c r="J2" s="25" t="s">
+        <v>389</v>
+      </c>
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
       <c r="M2" s="26"/>
@@ -24624,7 +24661,9 @@
       <c r="I3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="14"/>
+      <c r="J3" s="304" t="s">
+        <v>390</v>
+      </c>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
@@ -25480,10 +25519,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Z54"/>
+  <dimension ref="A1:AB54"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
@@ -25503,15 +25542,15 @@
     <col min="13" max="13" width="23.33203125" customWidth="1"/>
     <col min="14" max="14" width="8.5" customWidth="1"/>
     <col min="15" max="15" width="18.5" customWidth="1"/>
-    <col min="16" max="16" width="18.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" customWidth="1"/>
-    <col min="18" max="18" width="20.5" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" customWidth="1"/>
-    <col min="20" max="30" width="8.5" customWidth="1"/>
-    <col min="31" max="1024" width="8.33203125" customWidth="1"/>
+    <col min="16" max="18" width="18.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" customWidth="1"/>
+    <col min="20" max="20" width="20.5" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" customWidth="1"/>
+    <col min="22" max="32" width="8.5" customWidth="1"/>
+    <col min="33" max="1026" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" customHeight="1">
+    <row r="1" spans="1:28" ht="18" customHeight="1">
       <c r="A1" s="35" t="s">
         <v>54</v>
       </c>
@@ -25536,11 +25575,13 @@
       <c r="N1" s="36"/>
       <c r="O1" s="36"/>
       <c r="P1" s="36"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
       <c r="S1" s="39"/>
-    </row>
-    <row r="2" spans="1:26" ht="126">
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+    </row>
+    <row r="2" spans="1:28" ht="126">
       <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
@@ -25577,14 +25618,20 @@
       <c r="P2" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
+      <c r="Q2" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>391</v>
+      </c>
       <c r="S2" s="25"/>
-      <c r="T2" s="23" t="s">
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="23" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="42">
+    <row r="3" spans="1:28" ht="42">
       <c r="A3" s="40" t="s">
         <v>32</v>
       </c>
@@ -25633,52 +25680,60 @@
       <c r="P3" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="305" t="s">
+        <v>392</v>
+      </c>
+      <c r="R3" s="305" t="s">
+        <v>393</v>
+      </c>
+      <c r="S3" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="T3" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="27" t="s">
+      <c r="U3" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="T3" s="42" t="s">
+      <c r="V3" s="42" t="s">
         <v>387</v>
       </c>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
       <c r="W3" s="14"/>
       <c r="X3" s="14"/>
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
-    </row>
-    <row r="4" spans="1:26" ht="14">
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+    </row>
+    <row r="4" spans="1:28" ht="14">
       <c r="I4" s="107"/>
       <c r="L4" s="36"/>
       <c r="M4" s="46"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-    </row>
-    <row r="5" spans="1:26" ht="14">
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+    </row>
+    <row r="5" spans="1:28" ht="14">
       <c r="F5" s="2"/>
       <c r="J5" s="107"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
       <c r="M5" s="46"/>
-      <c r="R5" s="109"/>
-      <c r="S5" s="109"/>
-    </row>
-    <row r="6" spans="1:26" ht="14">
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+    </row>
+    <row r="6" spans="1:28" ht="14">
       <c r="F6" s="2"/>
       <c r="G6" s="143"/>
       <c r="I6" s="188"/>
       <c r="L6" s="36"/>
       <c r="M6" s="46"/>
       <c r="P6" s="46"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-    </row>
-    <row r="7" spans="1:26" ht="14">
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="T6" s="109"/>
+      <c r="U6" s="109"/>
+    </row>
+    <row r="7" spans="1:28" ht="14">
       <c r="F7" s="2"/>
       <c r="G7" s="218"/>
       <c r="H7" s="2"/>
@@ -25686,10 +25741,10 @@
       <c r="J7" s="33"/>
       <c r="L7" s="36"/>
       <c r="M7" s="46"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="109"/>
-    </row>
-    <row r="8" spans="1:26" ht="14">
+      <c r="T7" s="109"/>
+      <c r="U7" s="109"/>
+    </row>
+    <row r="8" spans="1:28" ht="14">
       <c r="F8" s="2"/>
       <c r="G8" s="218"/>
       <c r="H8" s="2"/>
@@ -25697,10 +25752,10 @@
       <c r="J8" s="33"/>
       <c r="L8" s="36"/>
       <c r="M8" s="46"/>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-    </row>
-    <row r="9" spans="1:26" ht="14">
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
+    </row>
+    <row r="9" spans="1:28" ht="14">
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -25709,10 +25764,10 @@
       <c r="K9" s="36"/>
       <c r="L9" s="36"/>
       <c r="M9" s="46"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-    </row>
-    <row r="10" spans="1:26" ht="14">
+      <c r="T9" s="109"/>
+      <c r="U9" s="109"/>
+    </row>
+    <row r="10" spans="1:28" ht="14">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -25721,10 +25776,10 @@
       <c r="K10" s="36"/>
       <c r="L10" s="36"/>
       <c r="M10" s="46"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-    </row>
-    <row r="11" spans="1:26" ht="14">
+      <c r="T10" s="109"/>
+      <c r="U10" s="109"/>
+    </row>
+    <row r="11" spans="1:28" ht="14">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -25733,10 +25788,10 @@
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
       <c r="M11" s="46"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-    </row>
-    <row r="12" spans="1:26" ht="14">
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+    </row>
+    <row r="12" spans="1:28" ht="14">
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -25745,10 +25800,10 @@
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
       <c r="M12" s="46"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="109"/>
-    </row>
-    <row r="13" spans="1:26" ht="14">
+      <c r="T12" s="109"/>
+      <c r="U12" s="109"/>
+    </row>
+    <row r="13" spans="1:28" ht="14">
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -25757,10 +25812,10 @@
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
       <c r="M13" s="46"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="109"/>
-    </row>
-    <row r="14" spans="1:26" ht="14">
+      <c r="T13" s="109"/>
+      <c r="U13" s="109"/>
+    </row>
+    <row r="14" spans="1:28" ht="14">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -25769,10 +25824,10 @@
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
       <c r="M14" s="46"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="109"/>
-    </row>
-    <row r="15" spans="1:26" ht="14">
+      <c r="T14" s="109"/>
+      <c r="U14" s="109"/>
+    </row>
+    <row r="15" spans="1:28" ht="14">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -25781,10 +25836,10 @@
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
       <c r="M15" s="46"/>
-      <c r="R15" s="109"/>
-      <c r="S15" s="109"/>
-    </row>
-    <row r="16" spans="1:26" ht="14">
+      <c r="T15" s="109"/>
+      <c r="U15" s="109"/>
+    </row>
+    <row r="16" spans="1:28" ht="14">
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -25793,10 +25848,10 @@
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
       <c r="M16" s="46"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
-    </row>
-    <row r="17" spans="6:19" ht="14">
+      <c r="T16" s="109"/>
+      <c r="U16" s="109"/>
+    </row>
+    <row r="17" spans="6:21" ht="14">
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -25805,10 +25860,10 @@
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
       <c r="M17" s="46"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="109"/>
-    </row>
-    <row r="18" spans="6:19" ht="14">
+      <c r="T17" s="109"/>
+      <c r="U17" s="109"/>
+    </row>
+    <row r="18" spans="6:21" ht="14">
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -25816,29 +25871,29 @@
       <c r="J18" s="107"/>
       <c r="L18" s="36"/>
       <c r="M18" s="46"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="109"/>
-    </row>
-    <row r="19" spans="6:19" ht="14">
+      <c r="T18" s="109"/>
+      <c r="U18" s="109"/>
+    </row>
+    <row r="19" spans="6:21" ht="14">
       <c r="F19" s="2"/>
       <c r="I19" s="115"/>
       <c r="J19" s="141"/>
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
       <c r="M19" s="46"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="109"/>
-    </row>
-    <row r="20" spans="6:19" ht="14">
+      <c r="T19" s="109"/>
+      <c r="U19" s="109"/>
+    </row>
+    <row r="20" spans="6:21" ht="14">
       <c r="F20" s="2"/>
       <c r="I20" s="107"/>
       <c r="J20" s="107"/>
       <c r="L20" s="36"/>
       <c r="M20" s="46"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="109"/>
-    </row>
-    <row r="21" spans="6:19" ht="14">
+      <c r="T20" s="109"/>
+      <c r="U20" s="109"/>
+    </row>
+    <row r="21" spans="6:21" ht="14">
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -25846,10 +25901,10 @@
       <c r="J21" s="109"/>
       <c r="L21" s="36"/>
       <c r="M21" s="46"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="109"/>
-    </row>
-    <row r="22" spans="6:19" ht="14">
+      <c r="T21" s="109"/>
+      <c r="U21" s="109"/>
+    </row>
+    <row r="22" spans="6:21" ht="14">
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -25858,10 +25913,10 @@
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
       <c r="M22" s="46"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="109"/>
-    </row>
-    <row r="23" spans="6:19" ht="14">
+      <c r="T22" s="109"/>
+      <c r="U22" s="109"/>
+    </row>
+    <row r="23" spans="6:21" ht="14">
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -25870,18 +25925,20 @@
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
       <c r="M23" s="46"/>
-      <c r="R23" s="109"/>
-      <c r="S23" s="109"/>
-    </row>
-    <row r="24" spans="6:19" ht="14">
+      <c r="T23" s="109"/>
+      <c r="U23" s="109"/>
+    </row>
+    <row r="24" spans="6:21" ht="14">
       <c r="J24" s="33"/>
       <c r="L24" s="36"/>
       <c r="M24" s="46"/>
       <c r="P24" s="46"/>
-      <c r="R24" s="109"/>
-      <c r="S24" s="109"/>
-    </row>
-    <row r="25" spans="6:19" ht="14">
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="T24" s="109"/>
+      <c r="U24" s="109"/>
+    </row>
+    <row r="25" spans="6:21" ht="14">
       <c r="F25" s="2"/>
       <c r="I25" s="107"/>
       <c r="J25" s="107"/>
@@ -25889,20 +25946,24 @@
       <c r="L25" s="36"/>
       <c r="M25" s="46"/>
       <c r="P25" s="46"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="109"/>
-    </row>
-    <row r="26" spans="6:19" ht="14">
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="T25" s="109"/>
+      <c r="U25" s="109"/>
+    </row>
+    <row r="26" spans="6:21" ht="14">
       <c r="F26" s="2"/>
       <c r="J26" s="107"/>
       <c r="K26" s="107"/>
       <c r="L26" s="36"/>
       <c r="M26" s="46"/>
       <c r="P26" s="46"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="109"/>
-    </row>
-    <row r="27" spans="6:19" ht="14">
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="T26" s="109"/>
+      <c r="U26" s="109"/>
+    </row>
+    <row r="27" spans="6:21" ht="14">
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="I27" s="107"/>
@@ -25910,10 +25971,12 @@
       <c r="L27" s="36"/>
       <c r="M27" s="46"/>
       <c r="P27" s="46"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="109"/>
-    </row>
-    <row r="28" spans="6:19" ht="14">
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="T27" s="109"/>
+      <c r="U27" s="109"/>
+    </row>
+    <row r="28" spans="6:21" ht="14">
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="I28" s="107"/>
@@ -25921,10 +25984,12 @@
       <c r="L28" s="36"/>
       <c r="M28" s="46"/>
       <c r="P28" s="46"/>
-      <c r="R28" s="109"/>
-      <c r="S28" s="109"/>
-    </row>
-    <row r="29" spans="6:19" ht="14">
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="T28" s="109"/>
+      <c r="U28" s="109"/>
+    </row>
+    <row r="29" spans="6:21" ht="14">
       <c r="F29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="107"/>
@@ -25932,96 +25997,100 @@
       <c r="K29" s="33"/>
       <c r="L29" s="36"/>
       <c r="M29" s="46"/>
-      <c r="R29" s="109"/>
-      <c r="S29" s="109"/>
-    </row>
-    <row r="30" spans="6:19" ht="14">
+      <c r="T29" s="109"/>
+      <c r="U29" s="109"/>
+    </row>
+    <row r="30" spans="6:21" ht="14">
       <c r="G30" s="2"/>
       <c r="I30" s="188"/>
       <c r="J30" s="107"/>
       <c r="K30" s="33"/>
       <c r="L30" s="36"/>
       <c r="M30" s="46"/>
-      <c r="R30" s="109"/>
-      <c r="S30" s="109"/>
-    </row>
-    <row r="31" spans="6:19" ht="14">
+      <c r="T30" s="109"/>
+      <c r="U30" s="109"/>
+    </row>
+    <row r="31" spans="6:21" ht="14">
       <c r="J31" s="107"/>
       <c r="K31" s="107"/>
       <c r="L31" s="36"/>
       <c r="M31" s="46"/>
       <c r="P31" s="46"/>
-      <c r="R31" s="109"/>
-      <c r="S31" s="109"/>
-    </row>
-    <row r="32" spans="6:19" ht="14">
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="T31" s="109"/>
+      <c r="U31" s="109"/>
+    </row>
+    <row r="32" spans="6:21" ht="14">
       <c r="G32" s="2"/>
       <c r="J32" s="107"/>
       <c r="K32" s="107"/>
       <c r="L32" s="36"/>
       <c r="M32" s="46"/>
       <c r="P32" s="46"/>
-      <c r="R32" s="109"/>
-      <c r="S32" s="109"/>
-    </row>
-    <row r="33" spans="1:19" ht="14">
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="T32" s="109"/>
+      <c r="U32" s="109"/>
+    </row>
+    <row r="33" spans="1:21" ht="14">
       <c r="H33" s="145"/>
       <c r="I33" s="107"/>
       <c r="J33" s="110"/>
       <c r="L33" s="36"/>
       <c r="M33" s="46"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
       <c r="S33" s="36"/>
-    </row>
-    <row r="34" spans="1:19" ht="14">
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+    </row>
+    <row r="34" spans="1:21" ht="14">
       <c r="I34" s="107"/>
       <c r="J34" s="107"/>
       <c r="L34" s="36"/>
       <c r="M34" s="46"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
       <c r="S34" s="36"/>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+    </row>
+    <row r="35" spans="1:21">
       <c r="J35" s="115"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:21">
       <c r="J36" s="115"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:21">
       <c r="I37" s="107"/>
       <c r="J37" s="107"/>
       <c r="K37" s="107"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:21">
       <c r="F38" s="111"/>
       <c r="G38" s="111"/>
       <c r="J38" s="110"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:21">
       <c r="F39" s="111"/>
       <c r="G39" s="111"/>
       <c r="J39" s="107"/>
       <c r="K39" s="107"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:21">
       <c r="A40" s="45"/>
       <c r="I40" s="107"/>
       <c r="J40" s="107"/>
       <c r="K40" s="107"/>
       <c r="L40" s="36"/>
       <c r="M40" s="1"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="109"/>
       <c r="S40" s="32"/>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="T40" s="109"/>
+      <c r="U40" s="32"/>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="47"/>
       <c r="I41" s="107"/>
       <c r="J41" s="107"/>
@@ -26029,44 +26098,46 @@
       <c r="L41" s="36"/>
       <c r="M41" s="48"/>
       <c r="P41" s="48"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="109"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
       <c r="S41" s="32"/>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="T41" s="109"/>
+      <c r="U41" s="32"/>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="47"/>
       <c r="I42" s="107"/>
       <c r="J42" s="107"/>
       <c r="K42" s="107"/>
       <c r="L42" s="36"/>
       <c r="M42" s="1"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="109"/>
       <c r="S42" s="32"/>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="T42" s="109"/>
+      <c r="U42" s="32"/>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="47"/>
       <c r="I43" s="107"/>
       <c r="J43" s="107"/>
       <c r="K43" s="107"/>
       <c r="L43" s="36"/>
       <c r="M43" s="1"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="109"/>
       <c r="S43" s="32"/>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="T43" s="109"/>
+      <c r="U43" s="32"/>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="47"/>
       <c r="I44" s="107"/>
       <c r="J44" s="107"/>
       <c r="K44" s="107"/>
       <c r="L44" s="36"/>
       <c r="M44" s="1"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="109"/>
       <c r="S44" s="32"/>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="T44" s="109"/>
+      <c r="U44" s="32"/>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" s="120"/>
       <c r="I45" s="107"/>
       <c r="J45" s="107"/>
@@ -26074,11 +26145,13 @@
       <c r="L45" s="36"/>
       <c r="M45" s="48"/>
       <c r="P45" s="48"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="109"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="48"/>
       <c r="S45" s="32"/>
-    </row>
-    <row r="46" spans="1:19" ht="14">
+      <c r="T45" s="109"/>
+      <c r="U45" s="32"/>
+    </row>
+    <row r="46" spans="1:21" ht="14">
       <c r="A46" s="120"/>
       <c r="F46" s="111"/>
       <c r="I46" s="107"/>
@@ -26086,11 +26159,11 @@
       <c r="K46" s="107"/>
       <c r="L46" s="36"/>
       <c r="M46" s="46"/>
-      <c r="Q46" s="109"/>
-      <c r="R46" s="107"/>
       <c r="S46" s="109"/>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="T46" s="107"/>
+      <c r="U46" s="109"/>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" s="120"/>
       <c r="F47" s="111"/>
       <c r="I47" s="107"/>
@@ -26098,9 +26171,9 @@
       <c r="K47" s="107"/>
       <c r="L47" s="36"/>
       <c r="M47" s="48"/>
-      <c r="Q47" s="32"/>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="S47" s="32"/>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" s="120"/>
       <c r="C48" s="143"/>
       <c r="F48" s="111"/>
@@ -26110,7 +26183,7 @@
       <c r="L48" s="36"/>
       <c r="M48" s="48"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:18">
       <c r="A49" s="120"/>
       <c r="F49" s="111"/>
       <c r="I49" s="107"/>
@@ -26119,7 +26192,7 @@
       <c r="L49" s="36"/>
       <c r="M49" s="48"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:18">
       <c r="A50" s="120"/>
       <c r="I50" s="107"/>
       <c r="J50" s="141"/>
@@ -26127,7 +26200,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="48"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:18">
       <c r="A51" s="120"/>
       <c r="I51" s="107"/>
       <c r="J51" s="107"/>
@@ -26135,14 +26208,14 @@
       <c r="L51" s="36"/>
       <c r="M51" s="48"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:18">
       <c r="I52" s="107"/>
       <c r="J52" s="107"/>
       <c r="K52" s="107"/>
       <c r="L52" s="36"/>
       <c r="M52" s="48"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:18">
       <c r="A53" s="120"/>
       <c r="I53" s="41"/>
       <c r="J53" s="107"/>
@@ -26150,11 +26223,13 @@
       <c r="L53" s="36"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:18">
       <c r="J54" s="107"/>
       <c r="L54" s="36"/>
       <c r="M54" s="48"/>
       <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
